--- a/ST_Player/db.xlsx
+++ b/ST_Player/db.xlsx
@@ -1,32 +1,34 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="15330" windowHeight="7695" tabRatio="1000" activeTab="3"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="15330" windowHeight="7695" tabRatio="1000" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="ユーザー" sheetId="69" r:id="rId1"/>
-    <sheet name="プロフィール" sheetId="89" r:id="rId2"/>
-    <sheet name="記録" sheetId="91" r:id="rId3"/>
-    <sheet name="記録画像" sheetId="93" r:id="rId4"/>
-    <sheet name="名前変更履歴" sheetId="90" r:id="rId5"/>
-    <sheet name="ログ" sheetId="73" r:id="rId6"/>
-    <sheet name="画像" sheetId="92" r:id="rId7"/>
+    <sheet name="名前変更履歴" sheetId="90" r:id="rId2"/>
+    <sheet name="プロフィール" sheetId="89" r:id="rId3"/>
+    <sheet name="プロフィール画像" sheetId="94" r:id="rId4"/>
+    <sheet name="記録" sheetId="91" r:id="rId5"/>
+    <sheet name="記録画像" sheetId="93" r:id="rId6"/>
+    <sheet name="選手カード画像" sheetId="95" r:id="rId7"/>
+    <sheet name="画像" sheetId="92" r:id="rId8"/>
+    <sheet name="ログ" sheetId="73" r:id="rId9"/>
   </sheets>
   <calcPr calcId="125725"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="344" uniqueCount="142">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="458" uniqueCount="183">
   <si>
     <t>説明</t>
     <rPh sb="0" eb="2">
       <t>セツメイ</t>
     </rPh>
-    <phoneticPr fontId="1"/>
+    <phoneticPr fontId="2"/>
   </si>
   <si>
     <t>変数名</t>
@@ -36,69 +38,69 @@
     <rPh sb="2" eb="3">
       <t>メイ</t>
     </rPh>
-    <phoneticPr fontId="1"/>
+    <phoneticPr fontId="2"/>
   </si>
   <si>
     <t>DB型</t>
     <rPh sb="2" eb="3">
       <t>カタ</t>
     </rPh>
-    <phoneticPr fontId="1"/>
+    <phoneticPr fontId="2"/>
   </si>
   <si>
     <t>id</t>
-    <phoneticPr fontId="3"/>
+    <phoneticPr fontId="4"/>
   </si>
   <si>
     <t>DB制約</t>
     <rPh sb="2" eb="4">
       <t>セイヤク</t>
     </rPh>
-    <phoneticPr fontId="1"/>
+    <phoneticPr fontId="2"/>
   </si>
   <si>
     <t>テーブル名（DB）</t>
     <rPh sb="4" eb="5">
       <t>メイ</t>
     </rPh>
-    <phoneticPr fontId="1"/>
+    <phoneticPr fontId="2"/>
   </si>
   <si>
     <t>インデックス</t>
-    <phoneticPr fontId="1"/>
+    <phoneticPr fontId="2"/>
   </si>
   <si>
     <t>○</t>
   </si>
   <si>
     <t>○</t>
-    <phoneticPr fontId="1"/>
+    <phoneticPr fontId="2"/>
   </si>
   <si>
     <t>項番</t>
     <rPh sb="0" eb="2">
       <t>コウバン</t>
     </rPh>
-    <phoneticPr fontId="1"/>
+    <phoneticPr fontId="2"/>
   </si>
   <si>
     <t>PrimaryKey</t>
-    <phoneticPr fontId="1"/>
+    <phoneticPr fontId="2"/>
   </si>
   <si>
     <t>テーブル番号</t>
   </si>
   <si>
     <t>ルール1</t>
-    <phoneticPr fontId="1"/>
+    <phoneticPr fontId="2"/>
   </si>
   <si>
     <t>rule</t>
-    <phoneticPr fontId="1"/>
+    <phoneticPr fontId="2"/>
   </si>
   <si>
     <t>message</t>
-    <phoneticPr fontId="1"/>
+    <phoneticPr fontId="2"/>
   </si>
   <si>
     <t>ルール2</t>
@@ -114,97 +116,93 @@
   </si>
   <si>
     <t>UserID</t>
-    <phoneticPr fontId="1"/>
+    <phoneticPr fontId="2"/>
   </si>
   <si>
     <t>allowEmpty</t>
-    <phoneticPr fontId="1"/>
+    <phoneticPr fontId="2"/>
   </si>
   <si>
     <t>users</t>
-    <phoneticPr fontId="1"/>
+    <phoneticPr fontId="2"/>
   </si>
   <si>
     <t>logs</t>
-    <phoneticPr fontId="1"/>
+    <phoneticPr fontId="2"/>
   </si>
   <si>
     <t>長さ</t>
     <rPh sb="0" eb="1">
       <t>ナガ</t>
     </rPh>
-    <phoneticPr fontId="1"/>
+    <phoneticPr fontId="2"/>
   </si>
   <si>
     <t>varchar</t>
-    <phoneticPr fontId="1"/>
+    <phoneticPr fontId="2"/>
   </si>
   <si>
     <t>varchar</t>
-    <phoneticPr fontId="1"/>
+    <phoneticPr fontId="2"/>
   </si>
   <si>
     <t>NOT NULL AUTO_INCREMENT</t>
-    <phoneticPr fontId="1"/>
+    <phoneticPr fontId="2"/>
   </si>
   <si>
     <t>ログID</t>
-    <phoneticPr fontId="1"/>
+    <phoneticPr fontId="2"/>
   </si>
   <si>
     <t>バリデーション</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>あとで</t>
-    <phoneticPr fontId="1"/>
+    <phoneticPr fontId="2"/>
   </si>
   <si>
     <t>bigint unsigned</t>
-    <phoneticPr fontId="3"/>
+    <phoneticPr fontId="4"/>
   </si>
   <si>
     <t>プロフィールID</t>
-    <phoneticPr fontId="1"/>
+    <phoneticPr fontId="2"/>
   </si>
   <si>
     <t>ユーザーID</t>
-    <phoneticPr fontId="3"/>
+    <phoneticPr fontId="4"/>
   </si>
   <si>
     <t>user_id</t>
-    <phoneticPr fontId="1"/>
+    <phoneticPr fontId="2"/>
   </si>
   <si>
     <t>モデル名</t>
     <rPh sb="3" eb="4">
       <t>メイ</t>
     </rPh>
-    <phoneticPr fontId="1"/>
+    <phoneticPr fontId="2"/>
   </si>
   <si>
     <t>User</t>
-    <phoneticPr fontId="1"/>
+    <phoneticPr fontId="2"/>
   </si>
   <si>
     <t>Log</t>
-    <phoneticPr fontId="1"/>
+    <phoneticPr fontId="2"/>
   </si>
   <si>
     <t>int unsigned</t>
-    <phoneticPr fontId="3"/>
+    <phoneticPr fontId="4"/>
   </si>
   <si>
     <t>int unsigned</t>
-    <phoneticPr fontId="3"/>
+    <phoneticPr fontId="4"/>
   </si>
   <si>
     <t>NOT NULL UNIQUE</t>
-    <phoneticPr fontId="1"/>
+    <phoneticPr fontId="2"/>
   </si>
   <si>
     <t>player_id</t>
-    <phoneticPr fontId="1"/>
+    <phoneticPr fontId="2"/>
   </si>
   <si>
     <t>選手番号(ログイン用ユーザー名)</t>
@@ -220,48 +218,48 @@
     <rPh sb="14" eb="15">
       <t>メイ</t>
     </rPh>
-    <phoneticPr fontId="3"/>
+    <phoneticPr fontId="4"/>
   </si>
   <si>
     <t>選手名(パスワード代わり)</t>
     <rPh sb="9" eb="10">
       <t>ガ</t>
     </rPh>
-    <phoneticPr fontId="3"/>
+    <phoneticPr fontId="4"/>
   </si>
   <si>
     <t>ハッシュ化されたパスワード</t>
     <rPh sb="4" eb="5">
       <t>カ</t>
     </rPh>
-    <phoneticPr fontId="1"/>
+    <phoneticPr fontId="2"/>
   </si>
   <si>
     <t>mailaddress</t>
-    <phoneticPr fontId="1"/>
+    <phoneticPr fontId="2"/>
   </si>
   <si>
     <t>メールアドレス</t>
-    <phoneticPr fontId="1"/>
+    <phoneticPr fontId="2"/>
   </si>
   <si>
     <t>birthday</t>
-    <phoneticPr fontId="1"/>
+    <phoneticPr fontId="2"/>
   </si>
   <si>
     <t>date</t>
-    <phoneticPr fontId="1"/>
+    <phoneticPr fontId="2"/>
   </si>
   <si>
     <t>誕生日</t>
     <rPh sb="0" eb="3">
       <t>タンジョウビ</t>
     </rPh>
-    <phoneticPr fontId="1"/>
+    <phoneticPr fontId="2"/>
   </si>
   <si>
     <t>sex</t>
-    <phoneticPr fontId="1"/>
+    <phoneticPr fontId="2"/>
   </si>
   <si>
     <t>男・女・無選択</t>
@@ -277,7 +275,7 @@
     <rPh sb="5" eb="7">
       <t>センタク</t>
     </rPh>
-    <phoneticPr fontId="1"/>
+    <phoneticPr fontId="2"/>
   </si>
   <si>
     <t>address_zip_1</t>
@@ -329,42 +327,42 @@
     <rPh sb="1" eb="3">
       <t>シャシン</t>
     </rPh>
-    <phoneticPr fontId="1"/>
+    <phoneticPr fontId="2"/>
   </si>
   <si>
     <t>face_image_id</t>
-    <phoneticPr fontId="1"/>
+    <phoneticPr fontId="2"/>
   </si>
   <si>
     <t>register_date</t>
-    <phoneticPr fontId="1"/>
+    <phoneticPr fontId="2"/>
   </si>
   <si>
     <t>date</t>
-    <phoneticPr fontId="1"/>
+    <phoneticPr fontId="2"/>
   </si>
   <si>
     <t>登録日</t>
     <rPh sb="0" eb="3">
       <t>トウロクビ</t>
     </rPh>
-    <phoneticPr fontId="1"/>
+    <phoneticPr fontId="2"/>
   </si>
   <si>
     <t>Namehistory</t>
-    <phoneticPr fontId="1"/>
+    <phoneticPr fontId="2"/>
   </si>
   <si>
     <t>namehistories</t>
-    <phoneticPr fontId="1"/>
+    <phoneticPr fontId="2"/>
   </si>
   <si>
     <t>username</t>
-    <phoneticPr fontId="1"/>
+    <phoneticPr fontId="2"/>
   </si>
   <si>
     <t>varchar</t>
-    <phoneticPr fontId="1"/>
+    <phoneticPr fontId="2"/>
   </si>
   <si>
     <t>選手名（履歴）</t>
@@ -377,35 +375,35 @@
     <rPh sb="4" eb="6">
       <t>リレキ</t>
     </rPh>
-    <phoneticPr fontId="1"/>
+    <phoneticPr fontId="2"/>
   </si>
   <si>
     <t>Profile</t>
-    <phoneticPr fontId="1"/>
+    <phoneticPr fontId="2"/>
   </si>
   <si>
     <t>profiles</t>
-    <phoneticPr fontId="1"/>
+    <phoneticPr fontId="2"/>
   </si>
   <si>
     <t>Record</t>
-    <phoneticPr fontId="1"/>
+    <phoneticPr fontId="2"/>
   </si>
   <si>
     <t>records</t>
-    <phoneticPr fontId="1"/>
+    <phoneticPr fontId="2"/>
   </si>
   <si>
     <t>player_id</t>
-    <phoneticPr fontId="9"/>
+    <phoneticPr fontId="10"/>
   </si>
   <si>
     <t>選手番号</t>
-    <phoneticPr fontId="9"/>
+    <phoneticPr fontId="10"/>
   </si>
   <si>
     <t>register_date</t>
-    <phoneticPr fontId="9"/>
+    <phoneticPr fontId="10"/>
   </si>
   <si>
     <t>記録された日時</t>
@@ -415,22 +413,22 @@
     <rPh sb="5" eb="7">
       <t>ニチジ</t>
     </rPh>
-    <phoneticPr fontId="1"/>
+    <phoneticPr fontId="2"/>
   </si>
   <si>
     <t>timestamp</t>
-    <phoneticPr fontId="9"/>
+    <phoneticPr fontId="10"/>
   </si>
   <si>
     <t>movie_path</t>
-    <phoneticPr fontId="9"/>
+    <phoneticPr fontId="10"/>
   </si>
   <si>
     <t>動画データのパス</t>
     <rPh sb="0" eb="2">
       <t>ドウガ</t>
     </rPh>
-    <phoneticPr fontId="9"/>
+    <phoneticPr fontId="10"/>
   </si>
   <si>
     <t>記録されたタイムマシンの記録</t>
@@ -440,19 +438,19 @@
     <rPh sb="12" eb="14">
       <t>キロク</t>
     </rPh>
-    <phoneticPr fontId="9"/>
+    <phoneticPr fontId="10"/>
   </si>
   <si>
     <t>data</t>
-    <phoneticPr fontId="9"/>
+    <phoneticPr fontId="10"/>
   </si>
   <si>
     <t>text</t>
-    <phoneticPr fontId="9"/>
+    <phoneticPr fontId="10"/>
   </si>
   <si>
     <t>partner_id</t>
-    <phoneticPr fontId="9"/>
+    <phoneticPr fontId="10"/>
   </si>
   <si>
     <t>一緒に走った相手データ</t>
@@ -465,11 +463,11 @@
     <rPh sb="6" eb="8">
       <t>アイテ</t>
     </rPh>
-    <phoneticPr fontId="9"/>
+    <phoneticPr fontId="10"/>
   </si>
   <si>
     <t>movie_length</t>
-    <phoneticPr fontId="9"/>
+    <phoneticPr fontId="10"/>
   </si>
   <si>
     <t>動画の長さ</t>
@@ -479,15 +477,15 @@
     <rPh sb="3" eb="4">
       <t>ナガ</t>
     </rPh>
-    <phoneticPr fontId="9"/>
+    <phoneticPr fontId="10"/>
   </si>
   <si>
     <t>text</t>
-    <phoneticPr fontId="9"/>
+    <phoneticPr fontId="10"/>
   </si>
   <si>
     <t>text</t>
-    <phoneticPr fontId="9"/>
+    <phoneticPr fontId="10"/>
   </si>
   <si>
     <t>サムネイル画像（画像側から参照）</t>
@@ -503,15 +501,15 @@
     <rPh sb="13" eb="15">
       <t>サンショウ</t>
     </rPh>
-    <phoneticPr fontId="9"/>
+    <phoneticPr fontId="10"/>
   </si>
   <si>
     <t>tags</t>
-    <phoneticPr fontId="9"/>
+    <phoneticPr fontId="10"/>
   </si>
   <si>
     <t>text</t>
-    <phoneticPr fontId="9"/>
+    <phoneticPr fontId="10"/>
   </si>
   <si>
     <t>カンマ区切りでタグ付け</t>
@@ -521,27 +519,27 @@
     <rPh sb="9" eb="10">
       <t>ヅ</t>
     </rPh>
-    <phoneticPr fontId="9"/>
+    <phoneticPr fontId="10"/>
   </si>
   <si>
     <t>comment</t>
-    <phoneticPr fontId="9"/>
+    <phoneticPr fontId="10"/>
   </si>
   <si>
     <t>コメント</t>
-    <phoneticPr fontId="9"/>
+    <phoneticPr fontId="10"/>
   </si>
   <si>
     <t>pattern_number</t>
-    <phoneticPr fontId="9"/>
+    <phoneticPr fontId="10"/>
   </si>
   <si>
     <t>sound_number</t>
-    <phoneticPr fontId="9"/>
+    <phoneticPr fontId="10"/>
   </si>
   <si>
     <t>background_number</t>
-    <phoneticPr fontId="9"/>
+    <phoneticPr fontId="10"/>
   </si>
   <si>
     <t>再生するときの模様セット番号</t>
@@ -554,7 +552,7 @@
     <rPh sb="12" eb="14">
       <t>バンゴウ</t>
     </rPh>
-    <phoneticPr fontId="9"/>
+    <phoneticPr fontId="10"/>
   </si>
   <si>
     <t>再生するときの音のセット番号</t>
@@ -567,7 +565,7 @@
     <rPh sb="12" eb="14">
       <t>バンゴウ</t>
     </rPh>
-    <phoneticPr fontId="9"/>
+    <phoneticPr fontId="10"/>
   </si>
   <si>
     <t>再生するときの背景セット番号</t>
@@ -580,85 +578,85 @@
     <rPh sb="12" eb="14">
       <t>バンゴウ</t>
     </rPh>
-    <phoneticPr fontId="9"/>
+    <phoneticPr fontId="10"/>
   </si>
   <si>
     <t>card_image_id</t>
-    <phoneticPr fontId="9"/>
+    <phoneticPr fontId="10"/>
   </si>
   <si>
     <t>○</t>
-    <phoneticPr fontId="9"/>
+    <phoneticPr fontId="10"/>
   </si>
   <si>
     <t>カードのスキャンイメージ</t>
-    <phoneticPr fontId="9"/>
+    <phoneticPr fontId="10"/>
   </si>
   <si>
     <t>int</t>
-    <phoneticPr fontId="9"/>
+    <phoneticPr fontId="10"/>
   </si>
   <si>
     <t>int</t>
-    <phoneticPr fontId="9"/>
+    <phoneticPr fontId="10"/>
   </si>
   <si>
     <t>int unsigned</t>
-    <phoneticPr fontId="9"/>
+    <phoneticPr fontId="10"/>
   </si>
   <si>
     <t>varchar</t>
-    <phoneticPr fontId="9"/>
+    <phoneticPr fontId="10"/>
   </si>
   <si>
     <t>Image</t>
-    <phoneticPr fontId="1"/>
+    <phoneticPr fontId="2"/>
   </si>
   <si>
     <t>images</t>
-    <phoneticPr fontId="1"/>
+    <phoneticPr fontId="2"/>
   </si>
   <si>
     <t>id</t>
-    <phoneticPr fontId="1"/>
+    <phoneticPr fontId="2"/>
   </si>
   <si>
     <t>int unsigned</t>
-    <phoneticPr fontId="1"/>
+    <phoneticPr fontId="2"/>
   </si>
   <si>
     <t>NOT NULL AUTO_INCREMENT</t>
-    <phoneticPr fontId="1"/>
+    <phoneticPr fontId="2"/>
   </si>
   <si>
     <t>○</t>
-    <phoneticPr fontId="1"/>
+    <phoneticPr fontId="2"/>
   </si>
   <si>
     <t>画像ID</t>
     <rPh sb="0" eb="2">
       <t>ガゾウ</t>
     </rPh>
-    <phoneticPr fontId="1"/>
+    <phoneticPr fontId="2"/>
   </si>
   <si>
     <t>image_path</t>
-    <phoneticPr fontId="1"/>
+    <phoneticPr fontId="2"/>
   </si>
   <si>
     <t>text</t>
-    <phoneticPr fontId="1"/>
+    <phoneticPr fontId="2"/>
   </si>
   <si>
     <t>画像パス</t>
     <rPh sb="0" eb="2">
       <t>ガゾウ</t>
     </rPh>
-    <phoneticPr fontId="1"/>
+    <phoneticPr fontId="2"/>
   </si>
   <si>
     <t>image_file_name</t>
-    <phoneticPr fontId="1"/>
+    <phoneticPr fontId="2"/>
   </si>
   <si>
     <t>画像名</t>
@@ -668,78 +666,78 @@
     <rPh sb="2" eb="3">
       <t>メイ</t>
     </rPh>
-    <phoneticPr fontId="1"/>
+    <phoneticPr fontId="2"/>
   </si>
   <si>
     <t>mime</t>
-    <phoneticPr fontId="1"/>
+    <phoneticPr fontId="2"/>
   </si>
   <si>
     <t>MIMEタイプ</t>
-    <phoneticPr fontId="1"/>
+    <phoneticPr fontId="2"/>
   </si>
   <si>
     <t>size</t>
-    <phoneticPr fontId="1"/>
+    <phoneticPr fontId="2"/>
   </si>
   <si>
     <t>int</t>
-    <phoneticPr fontId="1"/>
+    <phoneticPr fontId="2"/>
   </si>
   <si>
     <t>画像サイズ(byte)</t>
     <rPh sb="0" eb="2">
       <t>ガゾウ</t>
     </rPh>
-    <phoneticPr fontId="1"/>
+    <phoneticPr fontId="2"/>
   </si>
   <si>
     <t>width</t>
-    <phoneticPr fontId="1"/>
+    <phoneticPr fontId="2"/>
   </si>
   <si>
     <t>幅(pixel)</t>
     <rPh sb="0" eb="1">
       <t>ガフク</t>
     </rPh>
-    <phoneticPr fontId="1"/>
+    <phoneticPr fontId="2"/>
   </si>
   <si>
     <t>height</t>
-    <phoneticPr fontId="1"/>
+    <phoneticPr fontId="2"/>
   </si>
   <si>
     <t>高さ(pixel)</t>
     <rPh sb="0" eb="1">
       <t>タカ</t>
     </rPh>
-    <phoneticPr fontId="1"/>
+    <phoneticPr fontId="2"/>
   </si>
   <si>
     <t>record_id</t>
-    <phoneticPr fontId="9"/>
+    <phoneticPr fontId="10"/>
   </si>
   <si>
     <t>記録ID</t>
     <rPh sb="0" eb="2">
       <t>キロク</t>
     </rPh>
-    <phoneticPr fontId="9"/>
+    <phoneticPr fontId="10"/>
   </si>
   <si>
     <t>画像ID</t>
     <rPh sb="0" eb="2">
       <t>ガゾウ</t>
     </rPh>
-    <phoneticPr fontId="9"/>
+    <phoneticPr fontId="10"/>
   </si>
   <si>
     <t>no</t>
-    <phoneticPr fontId="9"/>
+    <phoneticPr fontId="10"/>
   </si>
   <si>
     <t>int</t>
-    <phoneticPr fontId="3"/>
+    <phoneticPr fontId="4"/>
   </si>
   <si>
     <t>表示順 1～6</t>
@@ -749,23 +747,250 @@
     <rPh sb="2" eb="3">
       <t>ジュン</t>
     </rPh>
-    <phoneticPr fontId="9"/>
+    <phoneticPr fontId="10"/>
   </si>
   <si>
     <t>image_id</t>
-    <phoneticPr fontId="9"/>
+    <phoneticPr fontId="10"/>
+  </si>
+  <si>
+    <t>記録ID</t>
+    <rPh sb="0" eb="2">
+      <t>キロク</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>UserID</t>
+    <phoneticPr fontId="10"/>
+  </si>
+  <si>
+    <t>user_id</t>
+    <phoneticPr fontId="10"/>
+  </si>
+  <si>
+    <t>Recordimage</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>recordimages</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>Profileimage</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>profileimages</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>profile_id</t>
+    <phoneticPr fontId="10"/>
+  </si>
+  <si>
+    <t>image_id</t>
+    <phoneticPr fontId="10"/>
+  </si>
+  <si>
+    <t>プロフィールID</t>
+    <phoneticPr fontId="10"/>
+  </si>
+  <si>
+    <t>表示順 1枚だけの予定</t>
+    <rPh sb="0" eb="2">
+      <t>ヒョウジ</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>ジュン</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>マイ</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>ヨテイ</t>
+    </rPh>
+    <phoneticPr fontId="10"/>
+  </si>
+  <si>
+    <t>プロフィール画像ID</t>
+    <rPh sb="6" eb="8">
+      <t>ガゾウ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>ユーザー名</t>
+    <rPh sb="4" eb="5">
+      <t>メイ</t>
+    </rPh>
+    <phoneticPr fontId="11"/>
+  </si>
+  <si>
+    <t>log</t>
+  </si>
+  <si>
+    <t>ログ</t>
+  </si>
+  <si>
+    <t>logtype</t>
+  </si>
+  <si>
+    <t>タイプ（0:system 1:user）</t>
+  </si>
+  <si>
+    <t>loglevel</t>
+  </si>
+  <si>
+    <t>ログレベル（0:error 1:warn 2:info 3:debug）</t>
+  </si>
+  <si>
+    <t>affected_id</t>
+  </si>
+  <si>
+    <t>ip</t>
+  </si>
+  <si>
+    <t>接続元IPアドレス</t>
+    <rPh sb="0" eb="2">
+      <t>セツゾク</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>モト</t>
+    </rPh>
+    <phoneticPr fontId="11"/>
+  </si>
+  <si>
+    <t>app</t>
+  </si>
+  <si>
+    <t>アプリケーション（0:ST_Player）</t>
+    <phoneticPr fontId="11"/>
+  </si>
+  <si>
+    <t>int</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>int</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>int</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>text</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>varchar</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>varchar</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>操作（表示 登録 変更 削除 ログイン ログアウト etc.）</t>
+    <rPh sb="0" eb="2">
+      <t>ソウサ</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>ヒョウジ</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>トウロク</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>ヘンコウ</t>
+    </rPh>
+    <rPh sb="12" eb="14">
+      <t>サクジョ</t>
+    </rPh>
+    <phoneticPr fontId="11"/>
+  </si>
+  <si>
+    <t>int unsigned</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>ターゲットID</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>model</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>action</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>モデル（コントローラー）</t>
+    <phoneticPr fontId="11"/>
+  </si>
+  <si>
+    <t>名前変更履歴ID</t>
+    <rPh sb="0" eb="2">
+      <t>ナマエ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>ヘンコウ</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>リレキ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>Cardimage</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>cardimages</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>選手カードID</t>
+    <rPh sb="0" eb="2">
+      <t>センシュ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>記録画像ID</t>
+    <rPh sb="0" eb="2">
+      <t>キロク</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>ガゾウ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>int unsigned</t>
+    <phoneticPr fontId="2"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="10">
+  <fonts count="13">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="ＭＳ Ｐゴシック"/>
       <family val="3"/>
+      <charset val="128"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <family val="2"/>
       <charset val="128"/>
       <scheme val="minor"/>
     </font>
@@ -828,6 +1053,20 @@
       <charset val="128"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="6"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <family val="2"/>
+      <charset val="128"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color theme="1"/>
+      <name val="ＭＳ ゴシック"/>
+      <family val="3"/>
+      <charset val="128"/>
+    </font>
   </fonts>
   <fills count="6">
     <fill>
@@ -850,13 +1089,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor indexed="13"/>
+        <fgColor rgb="FFFFFF00"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFF00"/>
+        <fgColor theme="0"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1066,61 +1305,63 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="45">
+  <cellXfs count="50">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="2" fillId="3" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="49" fontId="6" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="49" fontId="4" fillId="2" borderId="1" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="49" fontId="4" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="49" fontId="6" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="49" fontId="6" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="49" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="49" fontId="3" fillId="3" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="49" fontId="7" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="49" fontId="5" fillId="2" borderId="1" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="49" fontId="5" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="49" fontId="7" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="49" fontId="7" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="49" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="49" fontId="0" fillId="3" borderId="7" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1166,10 +1407,19 @@
     <xf numFmtId="49" fontId="0" fillId="3" borderId="11" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="3" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="4" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="4" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
   </cellXfs>
-  <cellStyles count="2">
+  <cellStyles count="3">
     <cellStyle name="標準" xfId="0" builtinId="0"/>
     <cellStyle name="標準 2" xfId="1"/>
+    <cellStyle name="標準 3" xfId="2"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
@@ -1472,12 +1722,12 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
-    <tabColor theme="8" tint="-0.499984740745262"/>
+    <tabColor theme="8" tint="0.39997558519241921"/>
   </sheetPr>
   <dimension ref="A1:Q72"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G11" sqref="G11"/>
+      <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -1502,60 +1752,60 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:17" ht="18" customHeight="1" thickBot="1">
-      <c r="A1" s="33" t="s">
+      <c r="A1" s="32" t="s">
+        <v>33</v>
+      </c>
+      <c r="B1" s="33"/>
+      <c r="C1" s="34" t="s">
         <v>34</v>
       </c>
-      <c r="B1" s="34"/>
-      <c r="C1" s="35" t="s">
-        <v>35</v>
-      </c>
-      <c r="D1" s="35"/>
-      <c r="E1" s="36"/>
-      <c r="F1" s="33" t="s">
+      <c r="D1" s="34"/>
+      <c r="E1" s="35"/>
+      <c r="F1" s="32" t="s">
         <v>11</v>
       </c>
-      <c r="G1" s="34"/>
+      <c r="G1" s="33"/>
       <c r="H1" s="3"/>
-      <c r="I1" s="42" t="s">
+      <c r="I1" s="41" t="s">
         <v>28</v>
       </c>
-      <c r="J1" s="43"/>
-      <c r="K1" s="43"/>
-      <c r="L1" s="43"/>
-      <c r="M1" s="43"/>
-      <c r="N1" s="43"/>
-      <c r="O1" s="43"/>
-      <c r="P1" s="43"/>
-      <c r="Q1" s="44"/>
+      <c r="J1" s="42"/>
+      <c r="K1" s="42"/>
+      <c r="L1" s="42"/>
+      <c r="M1" s="42"/>
+      <c r="N1" s="42"/>
+      <c r="O1" s="42"/>
+      <c r="P1" s="42"/>
+      <c r="Q1" s="43"/>
     </row>
     <row r="2" spans="1:17" ht="18" customHeight="1" thickBot="1">
-      <c r="A2" s="37" t="s">
+      <c r="A2" s="36" t="s">
         <v>5</v>
       </c>
-      <c r="B2" s="38"/>
-      <c r="C2" s="39" t="s">
+      <c r="B2" s="37"/>
+      <c r="C2" s="38" t="s">
         <v>21</v>
       </c>
-      <c r="D2" s="39"/>
-      <c r="E2" s="39"/>
-      <c r="F2" s="39"/>
-      <c r="G2" s="39"/>
-      <c r="H2" s="39"/>
-      <c r="I2" s="40" t="s">
+      <c r="D2" s="38"/>
+      <c r="E2" s="38"/>
+      <c r="F2" s="38"/>
+      <c r="G2" s="38"/>
+      <c r="H2" s="38"/>
+      <c r="I2" s="39" t="s">
         <v>12</v>
       </c>
-      <c r="J2" s="41"/>
-      <c r="K2" s="30"/>
-      <c r="L2" s="30" t="s">
+      <c r="J2" s="40"/>
+      <c r="K2" s="29"/>
+      <c r="L2" s="29" t="s">
         <v>15</v>
       </c>
-      <c r="M2" s="30"/>
-      <c r="N2" s="30"/>
-      <c r="O2" s="30" t="s">
+      <c r="M2" s="29"/>
+      <c r="N2" s="29"/>
+      <c r="O2" s="29" t="s">
         <v>16</v>
       </c>
-      <c r="P2" s="31"/>
-      <c r="Q2" s="32"/>
+      <c r="P2" s="30"/>
+      <c r="Q2" s="31"/>
     </row>
     <row r="3" spans="1:17">
       <c r="A3" s="5" t="s">
@@ -1616,7 +1866,7 @@
         <v>3</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="D4" s="1"/>
       <c r="E4" s="1" t="s">
@@ -1644,7 +1894,7 @@
     <row r="5" spans="1:17" s="14" customFormat="1">
       <c r="A5" s="7"/>
       <c r="B5" s="1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>24</v>
@@ -1653,14 +1903,14 @@
         <v>255</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="F5" s="2" t="s">
         <v>7</v>
       </c>
       <c r="G5" s="2"/>
       <c r="H5" s="1" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="I5" s="16"/>
       <c r="J5" s="16"/>
@@ -1687,7 +1937,7 @@
       <c r="F6" s="2"/>
       <c r="G6" s="2"/>
       <c r="H6" s="1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="I6" s="16"/>
       <c r="J6" s="16"/>
@@ -1714,7 +1964,7 @@
       <c r="F7" s="2"/>
       <c r="G7" s="2"/>
       <c r="H7" s="1" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="I7" s="17"/>
       <c r="J7" s="17"/>
@@ -1747,19 +1997,13 @@
     </row>
     <row r="9" spans="1:17" s="14" customFormat="1">
       <c r="A9" s="7"/>
-      <c r="B9" s="1" t="s">
-        <v>67</v>
-      </c>
-      <c r="C9" s="1" t="s">
-        <v>68</v>
-      </c>
+      <c r="B9" s="1"/>
+      <c r="C9" s="1"/>
       <c r="D9" s="1"/>
       <c r="E9" s="7"/>
       <c r="F9" s="25"/>
       <c r="G9" s="25"/>
-      <c r="H9" s="1" t="s">
-        <v>69</v>
-      </c>
+      <c r="H9" s="1"/>
       <c r="I9" s="18"/>
       <c r="J9" s="18"/>
       <c r="K9" s="18"/>
@@ -2979,7 +3223,7 @@
     <mergeCell ref="I2:K2"/>
     <mergeCell ref="I1:Q1"/>
   </mergeCells>
-  <phoneticPr fontId="1"/>
+  <phoneticPr fontId="2"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="landscape" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
 </worksheet>
@@ -2988,12 +3232,12 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
-    <tabColor theme="8" tint="-0.499984740745262"/>
+    <tabColor theme="8" tint="0.39997558519241921"/>
   </sheetPr>
-  <dimension ref="A1:Q70"/>
+  <dimension ref="A1:Q71"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B23" sqref="B23:H23"/>
+      <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -3018,60 +3262,60 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:17" ht="18" customHeight="1" thickBot="1">
-      <c r="A1" s="33" t="s">
-        <v>34</v>
-      </c>
-      <c r="B1" s="34"/>
-      <c r="C1" s="35" t="s">
-        <v>75</v>
-      </c>
-      <c r="D1" s="35"/>
-      <c r="E1" s="36"/>
-      <c r="F1" s="33" t="s">
+      <c r="A1" s="32" t="s">
+        <v>33</v>
+      </c>
+      <c r="B1" s="33"/>
+      <c r="C1" s="34" t="s">
+        <v>69</v>
+      </c>
+      <c r="D1" s="34"/>
+      <c r="E1" s="35"/>
+      <c r="F1" s="32" t="s">
         <v>11</v>
       </c>
-      <c r="G1" s="34"/>
+      <c r="G1" s="33"/>
       <c r="H1" s="3"/>
-      <c r="I1" s="42" t="s">
+      <c r="I1" s="41" t="s">
         <v>28</v>
       </c>
-      <c r="J1" s="43"/>
-      <c r="K1" s="43"/>
-      <c r="L1" s="43"/>
-      <c r="M1" s="43"/>
-      <c r="N1" s="43"/>
-      <c r="O1" s="43"/>
-      <c r="P1" s="43"/>
-      <c r="Q1" s="44"/>
+      <c r="J1" s="42"/>
+      <c r="K1" s="42"/>
+      <c r="L1" s="42"/>
+      <c r="M1" s="42"/>
+      <c r="N1" s="42"/>
+      <c r="O1" s="42"/>
+      <c r="P1" s="42"/>
+      <c r="Q1" s="43"/>
     </row>
     <row r="2" spans="1:17" ht="18" customHeight="1" thickBot="1">
-      <c r="A2" s="37" t="s">
+      <c r="A2" s="36" t="s">
         <v>5</v>
       </c>
-      <c r="B2" s="38"/>
-      <c r="C2" s="39" t="s">
-        <v>76</v>
-      </c>
-      <c r="D2" s="39"/>
-      <c r="E2" s="39"/>
-      <c r="F2" s="39"/>
-      <c r="G2" s="39"/>
-      <c r="H2" s="39"/>
-      <c r="I2" s="40" t="s">
+      <c r="B2" s="37"/>
+      <c r="C2" s="38" t="s">
+        <v>70</v>
+      </c>
+      <c r="D2" s="38"/>
+      <c r="E2" s="38"/>
+      <c r="F2" s="38"/>
+      <c r="G2" s="38"/>
+      <c r="H2" s="38"/>
+      <c r="I2" s="39" t="s">
         <v>12</v>
       </c>
-      <c r="J2" s="41"/>
-      <c r="K2" s="30"/>
-      <c r="L2" s="30" t="s">
+      <c r="J2" s="40"/>
+      <c r="K2" s="29"/>
+      <c r="L2" s="29" t="s">
         <v>15</v>
       </c>
-      <c r="M2" s="30"/>
-      <c r="N2" s="30"/>
-      <c r="O2" s="30" t="s">
+      <c r="M2" s="29"/>
+      <c r="N2" s="29"/>
+      <c r="O2" s="29" t="s">
         <v>16</v>
       </c>
-      <c r="P2" s="31"/>
-      <c r="Q2" s="32"/>
+      <c r="P2" s="30"/>
+      <c r="Q2" s="31"/>
     </row>
     <row r="3" spans="1:17">
       <c r="A3" s="5" t="s">
@@ -3132,7 +3376,7 @@
         <v>3</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="D4" s="1"/>
       <c r="E4" s="1" t="s">
@@ -3145,7 +3389,7 @@
         <v>8</v>
       </c>
       <c r="H4" s="1" t="s">
-        <v>31</v>
+        <v>177</v>
       </c>
       <c r="I4" s="16"/>
       <c r="J4" s="16"/>
@@ -3179,17 +3423,17 @@
     <row r="6" spans="1:17" s="14" customFormat="1">
       <c r="A6" s="7"/>
       <c r="B6" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="D6" s="1"/>
       <c r="E6" s="1"/>
       <c r="F6" s="2"/>
       <c r="G6" s="2"/>
       <c r="H6" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="I6" s="16"/>
       <c r="J6" s="16"/>
@@ -3203,16 +3447,24 @@
     </row>
     <row r="7" spans="1:17" s="14" customFormat="1">
       <c r="A7" s="7"/>
-      <c r="B7" s="1"/>
-      <c r="C7" s="1"/>
-      <c r="D7" s="1"/>
+      <c r="B7" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="D7" s="1">
+        <v>255</v>
+      </c>
       <c r="E7" s="1"/>
       <c r="F7" s="2"/>
       <c r="G7" s="2"/>
-      <c r="H7" s="1"/>
-      <c r="I7" s="18"/>
-      <c r="J7" s="18"/>
-      <c r="K7" s="18"/>
+      <c r="H7" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="I7" s="16"/>
+      <c r="J7" s="16"/>
+      <c r="K7" s="16"/>
       <c r="L7" s="16"/>
       <c r="M7" s="16"/>
       <c r="N7" s="16"/>
@@ -3222,19 +3474,13 @@
     </row>
     <row r="8" spans="1:17" s="14" customFormat="1">
       <c r="A8" s="7"/>
-      <c r="B8" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="C8" s="1" t="s">
-        <v>47</v>
-      </c>
+      <c r="B8" s="1"/>
+      <c r="C8" s="1"/>
       <c r="D8" s="1"/>
-      <c r="E8" s="10"/>
-      <c r="F8" s="24"/>
-      <c r="G8" s="24"/>
-      <c r="H8" s="12" t="s">
-        <v>48</v>
-      </c>
+      <c r="E8" s="1"/>
+      <c r="F8" s="2"/>
+      <c r="G8" s="2"/>
+      <c r="H8" s="1"/>
       <c r="I8" s="18"/>
       <c r="J8" s="18"/>
       <c r="K8" s="18"/>
@@ -3247,21 +3493,13 @@
     </row>
     <row r="9" spans="1:17" s="14" customFormat="1">
       <c r="A9" s="7"/>
-      <c r="B9" s="4" t="s">
-        <v>49</v>
-      </c>
-      <c r="C9" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="D9" s="1">
-        <v>10</v>
-      </c>
-      <c r="E9" s="10"/>
-      <c r="F9" s="24"/>
-      <c r="G9" s="24"/>
-      <c r="H9" s="12" t="s">
-        <v>50</v>
-      </c>
+      <c r="B9" s="26"/>
+      <c r="C9" s="26"/>
+      <c r="D9" s="26"/>
+      <c r="E9" s="26"/>
+      <c r="F9" s="27"/>
+      <c r="G9" s="27"/>
+      <c r="H9" s="26"/>
       <c r="I9" s="18"/>
       <c r="J9" s="18"/>
       <c r="K9" s="18"/>
@@ -3273,60 +3511,52 @@
       <c r="Q9" s="16"/>
     </row>
     <row r="10" spans="1:17" s="14" customFormat="1">
-      <c r="A10" s="10"/>
+      <c r="A10" s="7"/>
       <c r="B10" s="1"/>
       <c r="C10" s="1"/>
       <c r="D10" s="1"/>
       <c r="E10" s="1"/>
       <c r="F10" s="2"/>
-      <c r="G10" s="25"/>
+      <c r="G10" s="2"/>
       <c r="H10" s="1"/>
-      <c r="I10" s="19"/>
-      <c r="J10" s="19"/>
-      <c r="K10" s="19"/>
-      <c r="L10" s="19"/>
-      <c r="M10" s="19"/>
-      <c r="N10" s="19"/>
-      <c r="O10" s="19"/>
-      <c r="P10" s="19"/>
-      <c r="Q10" s="19"/>
+      <c r="I10" s="18"/>
+      <c r="J10" s="18"/>
+      <c r="K10" s="18"/>
+      <c r="L10" s="16"/>
+      <c r="M10" s="16"/>
+      <c r="N10" s="16"/>
+      <c r="O10" s="16"/>
+      <c r="P10" s="16"/>
+      <c r="Q10" s="16"/>
     </row>
     <row r="11" spans="1:17" s="14" customFormat="1">
-      <c r="A11" s="7"/>
-      <c r="B11" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="C11" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="D11" s="1">
-        <v>255</v>
-      </c>
-      <c r="E11" s="1"/>
-      <c r="F11" s="2"/>
-      <c r="G11" s="2"/>
-      <c r="H11" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="I11" s="17"/>
-      <c r="J11" s="17"/>
-      <c r="K11" s="16"/>
-      <c r="L11" s="16"/>
-      <c r="M11" s="16"/>
-      <c r="N11" s="16"/>
-      <c r="O11" s="16"/>
-      <c r="P11" s="16"/>
-      <c r="Q11" s="16"/>
+      <c r="A11" s="10"/>
+      <c r="B11" s="1"/>
+      <c r="C11" s="1"/>
+      <c r="D11" s="1"/>
+      <c r="E11" s="10"/>
+      <c r="F11" s="24"/>
+      <c r="G11" s="24"/>
+      <c r="H11" s="12"/>
+      <c r="I11" s="19"/>
+      <c r="J11" s="19"/>
+      <c r="K11" s="19"/>
+      <c r="L11" s="19"/>
+      <c r="M11" s="19"/>
+      <c r="N11" s="19"/>
+      <c r="O11" s="19"/>
+      <c r="P11" s="19"/>
+      <c r="Q11" s="19"/>
     </row>
     <row r="12" spans="1:17" s="14" customFormat="1">
       <c r="A12" s="7"/>
       <c r="B12" s="1"/>
       <c r="C12" s="1"/>
       <c r="D12" s="1"/>
-      <c r="E12" s="1"/>
-      <c r="F12" s="2"/>
-      <c r="G12" s="25"/>
-      <c r="H12" s="1"/>
+      <c r="E12" s="10"/>
+      <c r="F12" s="24"/>
+      <c r="G12" s="24"/>
+      <c r="H12" s="12"/>
       <c r="I12" s="17"/>
       <c r="J12" s="17"/>
       <c r="K12" s="16"/>
@@ -3339,78 +3569,54 @@
     </row>
     <row r="13" spans="1:17" s="14" customFormat="1">
       <c r="A13" s="7"/>
-      <c r="B13" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="C13" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="D13" s="1">
-        <v>255</v>
-      </c>
-      <c r="E13" s="1"/>
-      <c r="F13" s="2"/>
-      <c r="G13" s="25"/>
-      <c r="H13" s="1" t="s">
-        <v>53</v>
-      </c>
+      <c r="B13" s="1"/>
+      <c r="C13" s="1"/>
+      <c r="D13" s="1"/>
+      <c r="E13" s="10"/>
+      <c r="F13" s="24"/>
+      <c r="G13" s="24"/>
+      <c r="H13" s="12"/>
       <c r="I13" s="17"/>
       <c r="J13" s="17"/>
-      <c r="K13" s="18"/>
-      <c r="L13" s="18"/>
-      <c r="M13" s="18"/>
-      <c r="N13" s="18"/>
+      <c r="K13" s="16"/>
+      <c r="L13" s="16"/>
+      <c r="M13" s="16"/>
+      <c r="N13" s="16"/>
       <c r="O13" s="16"/>
       <c r="P13" s="16"/>
       <c r="Q13" s="16"/>
     </row>
     <row r="14" spans="1:17" s="14" customFormat="1">
       <c r="A14" s="7"/>
-      <c r="B14" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="C14" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="D14" s="1">
-        <v>255</v>
-      </c>
-      <c r="E14" s="1"/>
-      <c r="F14" s="2"/>
-      <c r="G14" s="25"/>
-      <c r="H14" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="I14" s="18"/>
-      <c r="J14" s="18"/>
+      <c r="B14" s="1"/>
+      <c r="C14" s="1"/>
+      <c r="D14" s="1"/>
+      <c r="E14" s="10"/>
+      <c r="F14" s="24"/>
+      <c r="G14" s="24"/>
+      <c r="H14" s="12"/>
+      <c r="I14" s="17"/>
+      <c r="J14" s="17"/>
       <c r="K14" s="18"/>
-      <c r="L14" s="16"/>
-      <c r="M14" s="16"/>
-      <c r="N14" s="16"/>
+      <c r="L14" s="18"/>
+      <c r="M14" s="18"/>
+      <c r="N14" s="18"/>
       <c r="O14" s="16"/>
       <c r="P14" s="16"/>
       <c r="Q14" s="16"/>
     </row>
     <row r="15" spans="1:17" s="14" customFormat="1">
       <c r="A15" s="7"/>
-      <c r="B15" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="C15" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="D15" s="1">
-        <v>255</v>
-      </c>
+      <c r="B15" s="1"/>
+      <c r="C15" s="1"/>
+      <c r="D15" s="1"/>
       <c r="E15" s="1"/>
       <c r="F15" s="2"/>
       <c r="G15" s="25"/>
-      <c r="H15" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="I15" s="16"/>
-      <c r="J15" s="16"/>
-      <c r="K15" s="16"/>
+      <c r="H15" s="12"/>
+      <c r="I15" s="18"/>
+      <c r="J15" s="18"/>
+      <c r="K15" s="18"/>
       <c r="L15" s="16"/>
       <c r="M15" s="16"/>
       <c r="N15" s="16"/>
@@ -3420,21 +3626,13 @@
     </row>
     <row r="16" spans="1:17" s="14" customFormat="1">
       <c r="A16" s="7"/>
-      <c r="B16" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="C16" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="D16" s="1">
-        <v>255</v>
-      </c>
+      <c r="B16" s="1"/>
+      <c r="C16" s="1"/>
+      <c r="D16" s="1"/>
       <c r="E16" s="1"/>
       <c r="F16" s="2"/>
       <c r="G16" s="25"/>
-      <c r="H16" s="1" t="s">
-        <v>59</v>
-      </c>
+      <c r="H16" s="1"/>
       <c r="I16" s="16"/>
       <c r="J16" s="16"/>
       <c r="K16" s="16"/>
@@ -3447,21 +3645,13 @@
     </row>
     <row r="17" spans="1:17" s="14" customFormat="1">
       <c r="A17" s="7"/>
-      <c r="B17" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="C17" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="D17" s="1">
-        <v>255</v>
-      </c>
+      <c r="B17" s="1"/>
+      <c r="C17" s="1"/>
+      <c r="D17" s="1"/>
       <c r="E17" s="1"/>
       <c r="F17" s="2"/>
       <c r="G17" s="25"/>
-      <c r="H17" s="1" t="s">
-        <v>61</v>
-      </c>
+      <c r="H17" s="1"/>
       <c r="I17" s="16"/>
       <c r="J17" s="16"/>
       <c r="K17" s="16"/>
@@ -3474,23 +3664,15 @@
     </row>
     <row r="18" spans="1:17" s="14" customFormat="1">
       <c r="A18" s="7"/>
-      <c r="B18" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="C18" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="D18" s="1">
-        <v>255</v>
-      </c>
+      <c r="B18" s="1"/>
+      <c r="C18" s="1"/>
+      <c r="D18" s="1"/>
       <c r="E18" s="1"/>
       <c r="F18" s="2"/>
       <c r="G18" s="25"/>
-      <c r="H18" s="1" t="s">
-        <v>63</v>
-      </c>
-      <c r="I18" s="17"/>
-      <c r="J18" s="17"/>
+      <c r="H18" s="1"/>
+      <c r="I18" s="16"/>
+      <c r="J18" s="16"/>
       <c r="K18" s="16"/>
       <c r="L18" s="16"/>
       <c r="M18" s="16"/>
@@ -3511,8 +3693,8 @@
       <c r="I19" s="17"/>
       <c r="J19" s="17"/>
       <c r="K19" s="16"/>
-      <c r="L19" s="20"/>
-      <c r="M19" s="20"/>
+      <c r="L19" s="16"/>
+      <c r="M19" s="16"/>
       <c r="N19" s="16"/>
       <c r="O19" s="16"/>
       <c r="P19" s="16"/>
@@ -3520,19 +3702,13 @@
     </row>
     <row r="20" spans="1:17" s="14" customFormat="1">
       <c r="A20" s="7"/>
-      <c r="B20" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="C20" s="1" t="s">
-        <v>64</v>
-      </c>
+      <c r="B20" s="1"/>
+      <c r="C20" s="1"/>
       <c r="D20" s="1"/>
       <c r="E20" s="1"/>
       <c r="F20" s="2"/>
       <c r="G20" s="25"/>
-      <c r="H20" s="1" t="s">
-        <v>65</v>
-      </c>
+      <c r="H20" s="1"/>
       <c r="I20" s="17"/>
       <c r="J20" s="17"/>
       <c r="K20" s="16"/>
@@ -3555,8 +3731,8 @@
       <c r="I21" s="17"/>
       <c r="J21" s="17"/>
       <c r="K21" s="16"/>
-      <c r="L21" s="16"/>
-      <c r="M21" s="16"/>
+      <c r="L21" s="20"/>
+      <c r="M21" s="20"/>
       <c r="N21" s="16"/>
       <c r="O21" s="16"/>
       <c r="P21" s="16"/>
@@ -3605,15 +3781,15 @@
       <c r="B24" s="1"/>
       <c r="C24" s="1"/>
       <c r="D24" s="1"/>
-      <c r="E24" s="7"/>
-      <c r="F24" s="25"/>
+      <c r="E24" s="1"/>
+      <c r="F24" s="2"/>
       <c r="G24" s="25"/>
       <c r="H24" s="1"/>
       <c r="I24" s="17"/>
       <c r="J24" s="17"/>
       <c r="K24" s="16"/>
-      <c r="L24" s="20"/>
-      <c r="M24" s="20"/>
+      <c r="L24" s="16"/>
+      <c r="M24" s="16"/>
       <c r="N24" s="16"/>
       <c r="O24" s="16"/>
       <c r="P24" s="16"/>
@@ -3631,8 +3807,8 @@
       <c r="I25" s="17"/>
       <c r="J25" s="17"/>
       <c r="K25" s="16"/>
-      <c r="L25" s="16"/>
-      <c r="M25" s="16"/>
+      <c r="L25" s="20"/>
+      <c r="M25" s="20"/>
       <c r="N25" s="16"/>
       <c r="O25" s="16"/>
       <c r="P25" s="16"/>
@@ -3653,8 +3829,8 @@
       <c r="L26" s="16"/>
       <c r="M26" s="16"/>
       <c r="N26" s="16"/>
-      <c r="O26" s="20"/>
-      <c r="P26" s="20"/>
+      <c r="O26" s="16"/>
+      <c r="P26" s="16"/>
       <c r="Q26" s="16"/>
     </row>
     <row r="27" spans="1:17" s="14" customFormat="1">
@@ -3662,8 +3838,8 @@
       <c r="B27" s="1"/>
       <c r="C27" s="1"/>
       <c r="D27" s="1"/>
-      <c r="E27" s="1"/>
-      <c r="F27" s="2"/>
+      <c r="E27" s="7"/>
+      <c r="F27" s="25"/>
       <c r="G27" s="25"/>
       <c r="H27" s="1"/>
       <c r="I27" s="17"/>
@@ -3672,8 +3848,8 @@
       <c r="L27" s="16"/>
       <c r="M27" s="16"/>
       <c r="N27" s="16"/>
-      <c r="O27" s="16"/>
-      <c r="P27" s="16"/>
+      <c r="O27" s="20"/>
+      <c r="P27" s="20"/>
       <c r="Q27" s="16"/>
     </row>
     <row r="28" spans="1:17" s="14" customFormat="1">
@@ -3688,8 +3864,8 @@
       <c r="I28" s="17"/>
       <c r="J28" s="17"/>
       <c r="K28" s="16"/>
-      <c r="L28" s="20"/>
-      <c r="M28" s="20"/>
+      <c r="L28" s="16"/>
+      <c r="M28" s="16"/>
       <c r="N28" s="16"/>
       <c r="O28" s="16"/>
       <c r="P28" s="16"/>
@@ -3700,15 +3876,15 @@
       <c r="B29" s="1"/>
       <c r="C29" s="1"/>
       <c r="D29" s="1"/>
-      <c r="E29" s="7"/>
-      <c r="F29" s="25"/>
+      <c r="E29" s="1"/>
+      <c r="F29" s="2"/>
       <c r="G29" s="25"/>
       <c r="H29" s="1"/>
-      <c r="I29" s="16"/>
-      <c r="J29" s="16"/>
+      <c r="I29" s="17"/>
+      <c r="J29" s="17"/>
       <c r="K29" s="16"/>
-      <c r="L29" s="16"/>
-      <c r="M29" s="16"/>
+      <c r="L29" s="20"/>
+      <c r="M29" s="20"/>
       <c r="N29" s="16"/>
       <c r="O29" s="16"/>
       <c r="P29" s="16"/>
@@ -3773,13 +3949,13 @@
     </row>
     <row r="33" spans="1:17" s="14" customFormat="1">
       <c r="A33" s="7"/>
-      <c r="B33" s="7"/>
-      <c r="C33" s="7"/>
-      <c r="D33" s="7"/>
+      <c r="B33" s="1"/>
+      <c r="C33" s="1"/>
+      <c r="D33" s="1"/>
       <c r="E33" s="7"/>
       <c r="F33" s="25"/>
       <c r="G33" s="25"/>
-      <c r="H33" s="7"/>
+      <c r="H33" s="1"/>
       <c r="I33" s="16"/>
       <c r="J33" s="16"/>
       <c r="K33" s="16"/>
@@ -3791,23 +3967,23 @@
       <c r="Q33" s="16"/>
     </row>
     <row r="34" spans="1:17" s="14" customFormat="1">
-      <c r="A34" s="8"/>
-      <c r="B34" s="8"/>
-      <c r="C34" s="8"/>
-      <c r="D34" s="8"/>
-      <c r="E34" s="8"/>
-      <c r="F34" s="8"/>
-      <c r="G34" s="8"/>
-      <c r="H34" s="8"/>
-      <c r="I34" s="21"/>
-      <c r="J34" s="21"/>
-      <c r="K34" s="21"/>
-      <c r="L34" s="21"/>
-      <c r="M34" s="21"/>
-      <c r="N34" s="21"/>
-      <c r="O34" s="21"/>
-      <c r="P34" s="21"/>
-      <c r="Q34" s="21"/>
+      <c r="A34" s="7"/>
+      <c r="B34" s="7"/>
+      <c r="C34" s="7"/>
+      <c r="D34" s="7"/>
+      <c r="E34" s="7"/>
+      <c r="F34" s="25"/>
+      <c r="G34" s="25"/>
+      <c r="H34" s="7"/>
+      <c r="I34" s="16"/>
+      <c r="J34" s="16"/>
+      <c r="K34" s="16"/>
+      <c r="L34" s="16"/>
+      <c r="M34" s="16"/>
+      <c r="N34" s="16"/>
+      <c r="O34" s="16"/>
+      <c r="P34" s="16"/>
+      <c r="Q34" s="16"/>
     </row>
     <row r="35" spans="1:17" s="14" customFormat="1">
       <c r="A35" s="8"/>
@@ -4113,7 +4289,7 @@
       <c r="P50" s="21"/>
       <c r="Q50" s="21"/>
     </row>
-    <row r="51" spans="1:17">
+    <row r="51" spans="1:17" s="14" customFormat="1">
       <c r="A51" s="8"/>
       <c r="B51" s="8"/>
       <c r="C51" s="8"/>
@@ -4456,23 +4632,23 @@
       <c r="Q68" s="21"/>
     </row>
     <row r="69" spans="1:17">
-      <c r="A69" s="9"/>
-      <c r="B69" s="9"/>
-      <c r="C69" s="9"/>
-      <c r="D69" s="9"/>
-      <c r="E69" s="9"/>
-      <c r="F69" s="9"/>
-      <c r="G69" s="9"/>
-      <c r="H69" s="9"/>
-      <c r="I69" s="22"/>
-      <c r="J69" s="22"/>
-      <c r="K69" s="22"/>
-      <c r="L69" s="22"/>
-      <c r="M69" s="22"/>
-      <c r="N69" s="22"/>
-      <c r="O69" s="22"/>
-      <c r="P69" s="22"/>
-      <c r="Q69" s="22"/>
+      <c r="A69" s="8"/>
+      <c r="B69" s="8"/>
+      <c r="C69" s="8"/>
+      <c r="D69" s="8"/>
+      <c r="E69" s="8"/>
+      <c r="F69" s="8"/>
+      <c r="G69" s="8"/>
+      <c r="H69" s="8"/>
+      <c r="I69" s="21"/>
+      <c r="J69" s="21"/>
+      <c r="K69" s="21"/>
+      <c r="L69" s="21"/>
+      <c r="M69" s="21"/>
+      <c r="N69" s="21"/>
+      <c r="O69" s="21"/>
+      <c r="P69" s="21"/>
+      <c r="Q69" s="21"/>
     </row>
     <row r="70" spans="1:17">
       <c r="A70" s="9"/>
@@ -4493,19 +4669,38 @@
       <c r="P70" s="22"/>
       <c r="Q70" s="22"/>
     </row>
+    <row r="71" spans="1:17">
+      <c r="A71" s="9"/>
+      <c r="B71" s="9"/>
+      <c r="C71" s="9"/>
+      <c r="D71" s="9"/>
+      <c r="E71" s="9"/>
+      <c r="F71" s="9"/>
+      <c r="G71" s="9"/>
+      <c r="H71" s="9"/>
+      <c r="I71" s="22"/>
+      <c r="J71" s="22"/>
+      <c r="K71" s="22"/>
+      <c r="L71" s="22"/>
+      <c r="M71" s="22"/>
+      <c r="N71" s="22"/>
+      <c r="O71" s="22"/>
+      <c r="P71" s="22"/>
+      <c r="Q71" s="22"/>
+    </row>
   </sheetData>
   <mergeCells count="9">
     <mergeCell ref="A1:B1"/>
     <mergeCell ref="C1:E1"/>
     <mergeCell ref="F1:G1"/>
     <mergeCell ref="I1:Q1"/>
-    <mergeCell ref="O2:Q2"/>
     <mergeCell ref="A2:B2"/>
     <mergeCell ref="C2:H2"/>
     <mergeCell ref="I2:K2"/>
     <mergeCell ref="L2:N2"/>
+    <mergeCell ref="O2:Q2"/>
   </mergeCells>
-  <phoneticPr fontId="1"/>
+  <phoneticPr fontId="10"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="landscape" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
 </worksheet>
@@ -4514,12 +4709,12 @@
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
-    <tabColor theme="8" tint="-0.499984740745262"/>
+    <tabColor theme="4" tint="0.39997558519241921"/>
   </sheetPr>
-  <dimension ref="A1:Q73"/>
+  <dimension ref="A1:Q70"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D13" sqref="D13"/>
+      <selection activeCell="E29" sqref="E29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -4544,60 +4739,60 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:17" ht="18" customHeight="1" thickBot="1">
-      <c r="A1" s="33" t="s">
-        <v>34</v>
-      </c>
-      <c r="B1" s="34"/>
-      <c r="C1" s="35" t="s">
-        <v>77</v>
-      </c>
-      <c r="D1" s="35"/>
-      <c r="E1" s="36"/>
-      <c r="F1" s="33" t="s">
+      <c r="A1" s="32" t="s">
+        <v>33</v>
+      </c>
+      <c r="B1" s="33"/>
+      <c r="C1" s="34" t="s">
+        <v>74</v>
+      </c>
+      <c r="D1" s="34"/>
+      <c r="E1" s="35"/>
+      <c r="F1" s="32" t="s">
         <v>11</v>
       </c>
-      <c r="G1" s="34"/>
+      <c r="G1" s="33"/>
       <c r="H1" s="3"/>
-      <c r="I1" s="42" t="s">
+      <c r="I1" s="41" t="s">
         <v>28</v>
       </c>
-      <c r="J1" s="43"/>
-      <c r="K1" s="43"/>
-      <c r="L1" s="43"/>
-      <c r="M1" s="43"/>
-      <c r="N1" s="43"/>
-      <c r="O1" s="43"/>
-      <c r="P1" s="43"/>
-      <c r="Q1" s="44"/>
+      <c r="J1" s="42"/>
+      <c r="K1" s="42"/>
+      <c r="L1" s="42"/>
+      <c r="M1" s="42"/>
+      <c r="N1" s="42"/>
+      <c r="O1" s="42"/>
+      <c r="P1" s="42"/>
+      <c r="Q1" s="43"/>
     </row>
     <row r="2" spans="1:17" ht="18" customHeight="1" thickBot="1">
-      <c r="A2" s="37" t="s">
+      <c r="A2" s="36" t="s">
         <v>5</v>
       </c>
-      <c r="B2" s="38"/>
-      <c r="C2" s="39" t="s">
-        <v>78</v>
-      </c>
-      <c r="D2" s="39"/>
-      <c r="E2" s="39"/>
-      <c r="F2" s="39"/>
-      <c r="G2" s="39"/>
-      <c r="H2" s="39"/>
-      <c r="I2" s="40" t="s">
+      <c r="B2" s="37"/>
+      <c r="C2" s="38" t="s">
+        <v>75</v>
+      </c>
+      <c r="D2" s="38"/>
+      <c r="E2" s="38"/>
+      <c r="F2" s="38"/>
+      <c r="G2" s="38"/>
+      <c r="H2" s="38"/>
+      <c r="I2" s="39" t="s">
         <v>12</v>
       </c>
-      <c r="J2" s="41"/>
-      <c r="K2" s="30"/>
-      <c r="L2" s="30" t="s">
+      <c r="J2" s="40"/>
+      <c r="K2" s="29"/>
+      <c r="L2" s="29" t="s">
         <v>15</v>
       </c>
-      <c r="M2" s="30"/>
-      <c r="N2" s="30"/>
-      <c r="O2" s="30" t="s">
+      <c r="M2" s="29"/>
+      <c r="N2" s="29"/>
+      <c r="O2" s="29" t="s">
         <v>16</v>
       </c>
-      <c r="P2" s="31"/>
-      <c r="Q2" s="32"/>
+      <c r="P2" s="30"/>
+      <c r="Q2" s="31"/>
     </row>
     <row r="3" spans="1:17">
       <c r="A3" s="5" t="s">
@@ -4658,7 +4853,7 @@
         <v>3</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="D4" s="1"/>
       <c r="E4" s="1" t="s">
@@ -4671,7 +4866,7 @@
         <v>8</v>
       </c>
       <c r="H4" s="1" t="s">
-        <v>19</v>
+        <v>30</v>
       </c>
       <c r="I4" s="16"/>
       <c r="J4" s="16"/>
@@ -4705,19 +4900,17 @@
     <row r="6" spans="1:17" s="14" customFormat="1">
       <c r="A6" s="7"/>
       <c r="B6" s="1" t="s">
-        <v>79</v>
+        <v>32</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="D6" s="1">
-        <v>255</v>
-      </c>
+        <v>36</v>
+      </c>
+      <c r="D6" s="1"/>
       <c r="E6" s="1"/>
       <c r="F6" s="2"/>
       <c r="G6" s="2"/>
       <c r="H6" s="1" t="s">
-        <v>80</v>
+        <v>31</v>
       </c>
       <c r="I6" s="16"/>
       <c r="J6" s="16"/>
@@ -4738,8 +4931,8 @@
       <c r="F7" s="2"/>
       <c r="G7" s="2"/>
       <c r="H7" s="1"/>
-      <c r="I7" s="17"/>
-      <c r="J7" s="17"/>
+      <c r="I7" s="18"/>
+      <c r="J7" s="18"/>
       <c r="K7" s="18"/>
       <c r="L7" s="16"/>
       <c r="M7" s="16"/>
@@ -4751,17 +4944,17 @@
     <row r="8" spans="1:17" s="14" customFormat="1">
       <c r="A8" s="7"/>
       <c r="B8" s="1" t="s">
-        <v>84</v>
+        <v>45</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>93</v>
+        <v>46</v>
       </c>
       <c r="D8" s="1"/>
-      <c r="E8" s="1"/>
-      <c r="F8" s="2"/>
-      <c r="G8" s="2"/>
-      <c r="H8" s="1" t="s">
-        <v>85</v>
+      <c r="E8" s="10"/>
+      <c r="F8" s="24"/>
+      <c r="G8" s="24"/>
+      <c r="H8" s="12" t="s">
+        <v>47</v>
       </c>
       <c r="I8" s="18"/>
       <c r="J8" s="18"/>
@@ -4775,18 +4968,20 @@
     </row>
     <row r="9" spans="1:17" s="14" customFormat="1">
       <c r="A9" s="7"/>
-      <c r="B9" s="27" t="s">
-        <v>91</v>
-      </c>
-      <c r="C9" s="27" t="s">
-        <v>94</v>
-      </c>
-      <c r="D9" s="27"/>
-      <c r="E9" s="1"/>
-      <c r="F9" s="2"/>
-      <c r="G9" s="2"/>
-      <c r="H9" s="1" t="s">
-        <v>92</v>
+      <c r="B9" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="D9" s="1">
+        <v>10</v>
+      </c>
+      <c r="E9" s="10"/>
+      <c r="F9" s="24"/>
+      <c r="G9" s="24"/>
+      <c r="H9" s="12" t="s">
+        <v>49</v>
       </c>
       <c r="I9" s="18"/>
       <c r="J9" s="18"/>
@@ -4799,56 +4994,50 @@
       <c r="Q9" s="16"/>
     </row>
     <row r="10" spans="1:17" s="14" customFormat="1">
-      <c r="A10" s="7"/>
-      <c r="B10" s="1" t="s">
-        <v>81</v>
-      </c>
-      <c r="C10" s="1" t="s">
-        <v>83</v>
-      </c>
+      <c r="A10" s="10"/>
+      <c r="B10" s="1"/>
+      <c r="C10" s="1"/>
       <c r="D10" s="1"/>
-      <c r="E10" s="7"/>
-      <c r="F10" s="2" t="s">
-        <v>108</v>
-      </c>
+      <c r="E10" s="1"/>
+      <c r="F10" s="2"/>
       <c r="G10" s="25"/>
-      <c r="H10" s="1" t="s">
-        <v>82</v>
-      </c>
-      <c r="I10" s="18"/>
-      <c r="J10" s="18"/>
-      <c r="K10" s="18"/>
-      <c r="L10" s="16"/>
-      <c r="M10" s="16"/>
-      <c r="N10" s="16"/>
-      <c r="O10" s="16"/>
-      <c r="P10" s="16"/>
-      <c r="Q10" s="16"/>
+      <c r="H10" s="1"/>
+      <c r="I10" s="19"/>
+      <c r="J10" s="19"/>
+      <c r="K10" s="19"/>
+      <c r="L10" s="19"/>
+      <c r="M10" s="19"/>
+      <c r="N10" s="19"/>
+      <c r="O10" s="19"/>
+      <c r="P10" s="19"/>
+      <c r="Q10" s="19"/>
     </row>
     <row r="11" spans="1:17" s="14" customFormat="1">
-      <c r="A11" s="10"/>
-      <c r="B11" s="4" t="s">
-        <v>87</v>
+      <c r="A11" s="7"/>
+      <c r="B11" s="1" t="s">
+        <v>43</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>88</v>
-      </c>
-      <c r="D11" s="1"/>
-      <c r="E11" s="10"/>
-      <c r="F11" s="24"/>
-      <c r="G11" s="24"/>
-      <c r="H11" s="12" t="s">
-        <v>86</v>
-      </c>
-      <c r="I11" s="19"/>
-      <c r="J11" s="19"/>
-      <c r="K11" s="19"/>
-      <c r="L11" s="19"/>
-      <c r="M11" s="19"/>
-      <c r="N11" s="19"/>
-      <c r="O11" s="19"/>
-      <c r="P11" s="19"/>
-      <c r="Q11" s="19"/>
+        <v>24</v>
+      </c>
+      <c r="D11" s="1">
+        <v>255</v>
+      </c>
+      <c r="E11" s="1"/>
+      <c r="F11" s="2"/>
+      <c r="G11" s="2"/>
+      <c r="H11" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="I11" s="17"/>
+      <c r="J11" s="17"/>
+      <c r="K11" s="16"/>
+      <c r="L11" s="16"/>
+      <c r="M11" s="16"/>
+      <c r="N11" s="16"/>
+      <c r="O11" s="16"/>
+      <c r="P11" s="16"/>
+      <c r="Q11" s="16"/>
     </row>
     <row r="12" spans="1:17" s="14" customFormat="1">
       <c r="A12" s="7"/>
@@ -4872,44 +5061,50 @@
     <row r="13" spans="1:17" s="14" customFormat="1">
       <c r="A13" s="7"/>
       <c r="B13" s="1" t="s">
-        <v>89</v>
-      </c>
-      <c r="C13" s="29" t="s">
-        <v>113</v>
+        <v>50</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>51</v>
       </c>
       <c r="D13" s="1">
         <v>255</v>
       </c>
       <c r="E13" s="1"/>
-      <c r="F13" s="2" t="s">
-        <v>108</v>
-      </c>
-      <c r="G13" s="2"/>
+      <c r="F13" s="2"/>
+      <c r="G13" s="25"/>
       <c r="H13" s="1" t="s">
-        <v>90</v>
-      </c>
-      <c r="I13" s="18"/>
-      <c r="J13" s="18"/>
+        <v>52</v>
+      </c>
+      <c r="I13" s="17"/>
+      <c r="J13" s="17"/>
       <c r="K13" s="18"/>
-      <c r="L13" s="16"/>
-      <c r="M13" s="16"/>
-      <c r="N13" s="16"/>
+      <c r="L13" s="18"/>
+      <c r="M13" s="18"/>
+      <c r="N13" s="18"/>
       <c r="O13" s="16"/>
       <c r="P13" s="16"/>
       <c r="Q13" s="16"/>
     </row>
     <row r="14" spans="1:17" s="14" customFormat="1">
       <c r="A14" s="7"/>
-      <c r="B14" s="1"/>
-      <c r="C14" s="1"/>
-      <c r="D14" s="1"/>
+      <c r="B14" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="C14" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="D14" s="1">
+        <v>255</v>
+      </c>
       <c r="E14" s="1"/>
       <c r="F14" s="2"/>
       <c r="G14" s="25"/>
-      <c r="H14" s="1"/>
-      <c r="I14" s="17"/>
-      <c r="J14" s="17"/>
-      <c r="K14" s="16"/>
+      <c r="H14" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="I14" s="18"/>
+      <c r="J14" s="18"/>
+      <c r="K14" s="18"/>
       <c r="L14" s="16"/>
       <c r="M14" s="16"/>
       <c r="N14" s="16"/>
@@ -4919,17 +5114,23 @@
     </row>
     <row r="15" spans="1:17" s="14" customFormat="1">
       <c r="A15" s="7"/>
-      <c r="B15" s="1"/>
-      <c r="C15" s="1"/>
-      <c r="D15" s="1"/>
+      <c r="B15" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="C15" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="D15" s="1">
+        <v>255</v>
+      </c>
       <c r="E15" s="1"/>
       <c r="F15" s="2"/>
       <c r="G15" s="25"/>
       <c r="H15" s="1" t="s">
-        <v>95</v>
-      </c>
-      <c r="I15" s="17"/>
-      <c r="J15" s="17"/>
+        <v>56</v>
+      </c>
+      <c r="I15" s="16"/>
+      <c r="J15" s="16"/>
       <c r="K15" s="16"/>
       <c r="L15" s="16"/>
       <c r="M15" s="16"/>
@@ -4940,19 +5141,27 @@
     </row>
     <row r="16" spans="1:17" s="14" customFormat="1">
       <c r="A16" s="7"/>
-      <c r="B16" s="1"/>
-      <c r="C16" s="1"/>
-      <c r="D16" s="1"/>
+      <c r="B16" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="C16" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="D16" s="1">
+        <v>255</v>
+      </c>
       <c r="E16" s="1"/>
       <c r="F16" s="2"/>
       <c r="G16" s="25"/>
-      <c r="H16" s="1"/>
-      <c r="I16" s="17"/>
-      <c r="J16" s="17"/>
-      <c r="K16" s="18"/>
-      <c r="L16" s="18"/>
-      <c r="M16" s="18"/>
-      <c r="N16" s="18"/>
+      <c r="H16" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="I16" s="16"/>
+      <c r="J16" s="16"/>
+      <c r="K16" s="16"/>
+      <c r="L16" s="16"/>
+      <c r="M16" s="16"/>
+      <c r="N16" s="16"/>
       <c r="O16" s="16"/>
       <c r="P16" s="16"/>
       <c r="Q16" s="16"/>
@@ -4960,21 +5169,23 @@
     <row r="17" spans="1:17" s="14" customFormat="1">
       <c r="A17" s="7"/>
       <c r="B17" s="1" t="s">
-        <v>96</v>
+        <v>59</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>97</v>
-      </c>
-      <c r="D17" s="1"/>
+        <v>51</v>
+      </c>
+      <c r="D17" s="1">
+        <v>255</v>
+      </c>
       <c r="E17" s="1"/>
       <c r="F17" s="2"/>
       <c r="G17" s="25"/>
       <c r="H17" s="1" t="s">
-        <v>98</v>
-      </c>
-      <c r="I17" s="18"/>
-      <c r="J17" s="18"/>
-      <c r="K17" s="18"/>
+        <v>60</v>
+      </c>
+      <c r="I17" s="16"/>
+      <c r="J17" s="16"/>
+      <c r="K17" s="16"/>
       <c r="L17" s="16"/>
       <c r="M17" s="16"/>
       <c r="N17" s="16"/>
@@ -4985,20 +5196,22 @@
     <row r="18" spans="1:17" s="14" customFormat="1">
       <c r="A18" s="7"/>
       <c r="B18" s="1" t="s">
-        <v>99</v>
+        <v>61</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>93</v>
-      </c>
-      <c r="D18" s="1"/>
+        <v>51</v>
+      </c>
+      <c r="D18" s="1">
+        <v>255</v>
+      </c>
       <c r="E18" s="1"/>
       <c r="F18" s="2"/>
       <c r="G18" s="25"/>
       <c r="H18" s="1" t="s">
-        <v>100</v>
-      </c>
-      <c r="I18" s="16"/>
-      <c r="J18" s="16"/>
+        <v>62</v>
+      </c>
+      <c r="I18" s="17"/>
+      <c r="J18" s="17"/>
       <c r="K18" s="16"/>
       <c r="L18" s="16"/>
       <c r="M18" s="16"/>
@@ -5016,11 +5229,11 @@
       <c r="F19" s="2"/>
       <c r="G19" s="25"/>
       <c r="H19" s="1"/>
-      <c r="I19" s="16"/>
-      <c r="J19" s="16"/>
+      <c r="I19" s="17"/>
+      <c r="J19" s="17"/>
       <c r="K19" s="16"/>
-      <c r="L19" s="16"/>
-      <c r="M19" s="16"/>
+      <c r="L19" s="20"/>
+      <c r="M19" s="20"/>
       <c r="N19" s="16"/>
       <c r="O19" s="16"/>
       <c r="P19" s="16"/>
@@ -5029,23 +5242,23 @@
     <row r="20" spans="1:17" s="14" customFormat="1">
       <c r="A20" s="7"/>
       <c r="B20" s="1" t="s">
-        <v>101</v>
+        <v>65</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>110</v>
+        <v>63</v>
       </c>
       <c r="D20" s="1"/>
       <c r="E20" s="1"/>
       <c r="F20" s="2"/>
       <c r="G20" s="25"/>
       <c r="H20" s="1" t="s">
-        <v>104</v>
-      </c>
-      <c r="I20" s="16"/>
-      <c r="J20" s="16"/>
+        <v>64</v>
+      </c>
+      <c r="I20" s="17"/>
+      <c r="J20" s="17"/>
       <c r="K20" s="16"/>
-      <c r="L20" s="16"/>
-      <c r="M20" s="16"/>
+      <c r="L20" s="20"/>
+      <c r="M20" s="20"/>
       <c r="N20" s="16"/>
       <c r="O20" s="16"/>
       <c r="P20" s="16"/>
@@ -5053,19 +5266,13 @@
     </row>
     <row r="21" spans="1:17" s="14" customFormat="1">
       <c r="A21" s="7"/>
-      <c r="B21" s="1" t="s">
-        <v>102</v>
-      </c>
-      <c r="C21" s="1" t="s">
-        <v>111</v>
-      </c>
+      <c r="B21" s="1"/>
+      <c r="C21" s="1"/>
       <c r="D21" s="1"/>
       <c r="E21" s="1"/>
       <c r="F21" s="2"/>
       <c r="G21" s="25"/>
-      <c r="H21" s="1" t="s">
-        <v>105</v>
-      </c>
+      <c r="H21" s="1"/>
       <c r="I21" s="17"/>
       <c r="J21" s="17"/>
       <c r="K21" s="16"/>
@@ -5079,23 +5286,23 @@
     <row r="22" spans="1:17" s="14" customFormat="1">
       <c r="A22" s="7"/>
       <c r="B22" s="1" t="s">
-        <v>103</v>
+        <v>66</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>110</v>
+        <v>67</v>
       </c>
       <c r="D22" s="1"/>
-      <c r="E22" s="1"/>
-      <c r="F22" s="2"/>
+      <c r="E22" s="7"/>
+      <c r="F22" s="25"/>
       <c r="G22" s="25"/>
       <c r="H22" s="1" t="s">
-        <v>106</v>
+        <v>68</v>
       </c>
       <c r="I22" s="17"/>
       <c r="J22" s="17"/>
       <c r="K22" s="16"/>
-      <c r="L22" s="20"/>
-      <c r="M22" s="20"/>
+      <c r="L22" s="16"/>
+      <c r="M22" s="16"/>
       <c r="N22" s="16"/>
       <c r="O22" s="16"/>
       <c r="P22" s="16"/>
@@ -5113,8 +5320,8 @@
       <c r="I23" s="17"/>
       <c r="J23" s="17"/>
       <c r="K23" s="16"/>
-      <c r="L23" s="20"/>
-      <c r="M23" s="20"/>
+      <c r="L23" s="16"/>
+      <c r="M23" s="16"/>
       <c r="N23" s="16"/>
       <c r="O23" s="16"/>
       <c r="P23" s="16"/>
@@ -5122,24 +5329,18 @@
     </row>
     <row r="24" spans="1:17" s="14" customFormat="1">
       <c r="A24" s="7"/>
-      <c r="B24" s="1" t="s">
-        <v>107</v>
-      </c>
-      <c r="C24" s="1" t="s">
-        <v>112</v>
-      </c>
+      <c r="B24" s="1"/>
+      <c r="C24" s="1"/>
       <c r="D24" s="1"/>
-      <c r="E24" s="1"/>
-      <c r="F24" s="2"/>
+      <c r="E24" s="7"/>
+      <c r="F24" s="25"/>
       <c r="G24" s="25"/>
-      <c r="H24" s="1" t="s">
-        <v>109</v>
-      </c>
+      <c r="H24" s="1"/>
       <c r="I24" s="17"/>
       <c r="J24" s="17"/>
       <c r="K24" s="16"/>
-      <c r="L24" s="16"/>
-      <c r="M24" s="16"/>
+      <c r="L24" s="20"/>
+      <c r="M24" s="20"/>
       <c r="N24" s="16"/>
       <c r="O24" s="16"/>
       <c r="P24" s="16"/>
@@ -5150,8 +5351,8 @@
       <c r="B25" s="1"/>
       <c r="C25" s="1"/>
       <c r="D25" s="1"/>
-      <c r="E25" s="1"/>
-      <c r="F25" s="2"/>
+      <c r="E25" s="7"/>
+      <c r="F25" s="25"/>
       <c r="G25" s="25"/>
       <c r="H25" s="1"/>
       <c r="I25" s="17"/>
@@ -5169,8 +5370,8 @@
       <c r="B26" s="1"/>
       <c r="C26" s="1"/>
       <c r="D26" s="1"/>
-      <c r="E26" s="1"/>
-      <c r="F26" s="2"/>
+      <c r="E26" s="7"/>
+      <c r="F26" s="25"/>
       <c r="G26" s="25"/>
       <c r="H26" s="1"/>
       <c r="I26" s="17"/>
@@ -5179,8 +5380,8 @@
       <c r="L26" s="16"/>
       <c r="M26" s="16"/>
       <c r="N26" s="16"/>
-      <c r="O26" s="16"/>
-      <c r="P26" s="16"/>
+      <c r="O26" s="20"/>
+      <c r="P26" s="20"/>
       <c r="Q26" s="16"/>
     </row>
     <row r="27" spans="1:17" s="14" customFormat="1">
@@ -5188,15 +5389,15 @@
       <c r="B27" s="1"/>
       <c r="C27" s="1"/>
       <c r="D27" s="1"/>
-      <c r="E27" s="7"/>
-      <c r="F27" s="25"/>
+      <c r="E27" s="1"/>
+      <c r="F27" s="2"/>
       <c r="G27" s="25"/>
       <c r="H27" s="1"/>
       <c r="I27" s="17"/>
       <c r="J27" s="17"/>
       <c r="K27" s="16"/>
-      <c r="L27" s="20"/>
-      <c r="M27" s="20"/>
+      <c r="L27" s="16"/>
+      <c r="M27" s="16"/>
       <c r="N27" s="16"/>
       <c r="O27" s="16"/>
       <c r="P27" s="16"/>
@@ -5207,15 +5408,15 @@
       <c r="B28" s="1"/>
       <c r="C28" s="1"/>
       <c r="D28" s="1"/>
-      <c r="E28" s="7"/>
-      <c r="F28" s="25"/>
+      <c r="E28" s="1"/>
+      <c r="F28" s="2"/>
       <c r="G28" s="25"/>
       <c r="H28" s="1"/>
       <c r="I28" s="17"/>
       <c r="J28" s="17"/>
       <c r="K28" s="16"/>
-      <c r="L28" s="16"/>
-      <c r="M28" s="16"/>
+      <c r="L28" s="20"/>
+      <c r="M28" s="20"/>
       <c r="N28" s="16"/>
       <c r="O28" s="16"/>
       <c r="P28" s="16"/>
@@ -5230,14 +5431,14 @@
       <c r="F29" s="25"/>
       <c r="G29" s="25"/>
       <c r="H29" s="1"/>
-      <c r="I29" s="17"/>
-      <c r="J29" s="17"/>
+      <c r="I29" s="16"/>
+      <c r="J29" s="16"/>
       <c r="K29" s="16"/>
       <c r="L29" s="16"/>
       <c r="M29" s="16"/>
       <c r="N29" s="16"/>
-      <c r="O29" s="20"/>
-      <c r="P29" s="20"/>
+      <c r="O29" s="16"/>
+      <c r="P29" s="16"/>
       <c r="Q29" s="16"/>
     </row>
     <row r="30" spans="1:17" s="14" customFormat="1">
@@ -5245,12 +5446,12 @@
       <c r="B30" s="1"/>
       <c r="C30" s="1"/>
       <c r="D30" s="1"/>
-      <c r="E30" s="1"/>
-      <c r="F30" s="2"/>
+      <c r="E30" s="7"/>
+      <c r="F30" s="25"/>
       <c r="G30" s="25"/>
       <c r="H30" s="1"/>
-      <c r="I30" s="17"/>
-      <c r="J30" s="17"/>
+      <c r="I30" s="16"/>
+      <c r="J30" s="16"/>
       <c r="K30" s="16"/>
       <c r="L30" s="16"/>
       <c r="M30" s="16"/>
@@ -5264,15 +5465,15 @@
       <c r="B31" s="1"/>
       <c r="C31" s="1"/>
       <c r="D31" s="1"/>
-      <c r="E31" s="1"/>
-      <c r="F31" s="2"/>
+      <c r="E31" s="7"/>
+      <c r="F31" s="25"/>
       <c r="G31" s="25"/>
       <c r="H31" s="1"/>
-      <c r="I31" s="17"/>
-      <c r="J31" s="17"/>
+      <c r="I31" s="16"/>
+      <c r="J31" s="16"/>
       <c r="K31" s="16"/>
-      <c r="L31" s="20"/>
-      <c r="M31" s="20"/>
+      <c r="L31" s="16"/>
+      <c r="M31" s="16"/>
       <c r="N31" s="16"/>
       <c r="O31" s="16"/>
       <c r="P31" s="16"/>
@@ -5299,13 +5500,13 @@
     </row>
     <row r="33" spans="1:17" s="14" customFormat="1">
       <c r="A33" s="7"/>
-      <c r="B33" s="1"/>
-      <c r="C33" s="1"/>
-      <c r="D33" s="1"/>
+      <c r="B33" s="7"/>
+      <c r="C33" s="7"/>
+      <c r="D33" s="7"/>
       <c r="E33" s="7"/>
       <c r="F33" s="25"/>
       <c r="G33" s="25"/>
-      <c r="H33" s="1"/>
+      <c r="H33" s="7"/>
       <c r="I33" s="16"/>
       <c r="J33" s="16"/>
       <c r="K33" s="16"/>
@@ -5317,61 +5518,61 @@
       <c r="Q33" s="16"/>
     </row>
     <row r="34" spans="1:17" s="14" customFormat="1">
-      <c r="A34" s="7"/>
-      <c r="B34" s="1"/>
-      <c r="C34" s="1"/>
-      <c r="D34" s="1"/>
-      <c r="E34" s="7"/>
-      <c r="F34" s="25"/>
-      <c r="G34" s="25"/>
-      <c r="H34" s="1"/>
-      <c r="I34" s="16"/>
-      <c r="J34" s="16"/>
-      <c r="K34" s="16"/>
-      <c r="L34" s="16"/>
-      <c r="M34" s="16"/>
-      <c r="N34" s="16"/>
-      <c r="O34" s="16"/>
-      <c r="P34" s="16"/>
-      <c r="Q34" s="16"/>
+      <c r="A34" s="8"/>
+      <c r="B34" s="8"/>
+      <c r="C34" s="8"/>
+      <c r="D34" s="8"/>
+      <c r="E34" s="8"/>
+      <c r="F34" s="8"/>
+      <c r="G34" s="8"/>
+      <c r="H34" s="8"/>
+      <c r="I34" s="21"/>
+      <c r="J34" s="21"/>
+      <c r="K34" s="21"/>
+      <c r="L34" s="21"/>
+      <c r="M34" s="21"/>
+      <c r="N34" s="21"/>
+      <c r="O34" s="21"/>
+      <c r="P34" s="21"/>
+      <c r="Q34" s="21"/>
     </row>
     <row r="35" spans="1:17" s="14" customFormat="1">
-      <c r="A35" s="7"/>
-      <c r="B35" s="1"/>
-      <c r="C35" s="1"/>
-      <c r="D35" s="1"/>
-      <c r="E35" s="7"/>
-      <c r="F35" s="25"/>
-      <c r="G35" s="25"/>
-      <c r="H35" s="1"/>
-      <c r="I35" s="16"/>
-      <c r="J35" s="16"/>
-      <c r="K35" s="16"/>
-      <c r="L35" s="16"/>
-      <c r="M35" s="16"/>
-      <c r="N35" s="16"/>
-      <c r="O35" s="16"/>
-      <c r="P35" s="16"/>
-      <c r="Q35" s="16"/>
+      <c r="A35" s="8"/>
+      <c r="B35" s="8"/>
+      <c r="C35" s="8"/>
+      <c r="D35" s="8"/>
+      <c r="E35" s="8"/>
+      <c r="F35" s="8"/>
+      <c r="G35" s="8"/>
+      <c r="H35" s="8"/>
+      <c r="I35" s="21"/>
+      <c r="J35" s="21"/>
+      <c r="K35" s="21"/>
+      <c r="L35" s="21"/>
+      <c r="M35" s="21"/>
+      <c r="N35" s="21"/>
+      <c r="O35" s="21"/>
+      <c r="P35" s="21"/>
+      <c r="Q35" s="21"/>
     </row>
     <row r="36" spans="1:17" s="14" customFormat="1">
-      <c r="A36" s="7"/>
-      <c r="B36" s="7"/>
-      <c r="C36" s="7"/>
-      <c r="D36" s="7"/>
-      <c r="E36" s="7"/>
-      <c r="F36" s="25"/>
-      <c r="G36" s="25"/>
-      <c r="H36" s="7"/>
-      <c r="I36" s="16"/>
-      <c r="J36" s="16"/>
-      <c r="K36" s="16"/>
-      <c r="L36" s="16"/>
-      <c r="M36" s="16"/>
-      <c r="N36" s="16"/>
-      <c r="O36" s="16"/>
-      <c r="P36" s="16"/>
-      <c r="Q36" s="16"/>
+      <c r="A36" s="8"/>
+      <c r="B36" s="8"/>
+      <c r="C36" s="8"/>
+      <c r="D36" s="8"/>
+      <c r="E36" s="8"/>
+      <c r="F36" s="8"/>
+      <c r="G36" s="8"/>
+      <c r="H36" s="8"/>
+      <c r="I36" s="21"/>
+      <c r="J36" s="21"/>
+      <c r="K36" s="21"/>
+      <c r="L36" s="21"/>
+      <c r="M36" s="21"/>
+      <c r="N36" s="21"/>
+      <c r="O36" s="21"/>
+      <c r="P36" s="21"/>
+      <c r="Q36" s="21"/>
     </row>
     <row r="37" spans="1:17" s="14" customFormat="1">
       <c r="A37" s="8"/>
@@ -5639,7 +5840,7 @@
       <c r="P50" s="21"/>
       <c r="Q50" s="21"/>
     </row>
-    <row r="51" spans="1:17" s="14" customFormat="1">
+    <row r="51" spans="1:17">
       <c r="A51" s="8"/>
       <c r="B51" s="8"/>
       <c r="C51" s="8"/>
@@ -5658,7 +5859,7 @@
       <c r="P51" s="21"/>
       <c r="Q51" s="21"/>
     </row>
-    <row r="52" spans="1:17" s="14" customFormat="1">
+    <row r="52" spans="1:17">
       <c r="A52" s="8"/>
       <c r="B52" s="8"/>
       <c r="C52" s="8"/>
@@ -5677,7 +5878,7 @@
       <c r="P52" s="21"/>
       <c r="Q52" s="21"/>
     </row>
-    <row r="53" spans="1:17" s="14" customFormat="1">
+    <row r="53" spans="1:17">
       <c r="A53" s="8"/>
       <c r="B53" s="8"/>
       <c r="C53" s="8"/>
@@ -5982,99 +6183,42 @@
       <c r="Q68" s="21"/>
     </row>
     <row r="69" spans="1:17">
-      <c r="A69" s="8"/>
-      <c r="B69" s="8"/>
-      <c r="C69" s="8"/>
-      <c r="D69" s="8"/>
-      <c r="E69" s="8"/>
-      <c r="F69" s="8"/>
-      <c r="G69" s="8"/>
-      <c r="H69" s="8"/>
-      <c r="I69" s="21"/>
-      <c r="J69" s="21"/>
-      <c r="K69" s="21"/>
-      <c r="L69" s="21"/>
-      <c r="M69" s="21"/>
-      <c r="N69" s="21"/>
-      <c r="O69" s="21"/>
-      <c r="P69" s="21"/>
-      <c r="Q69" s="21"/>
+      <c r="A69" s="9"/>
+      <c r="B69" s="9"/>
+      <c r="C69" s="9"/>
+      <c r="D69" s="9"/>
+      <c r="E69" s="9"/>
+      <c r="F69" s="9"/>
+      <c r="G69" s="9"/>
+      <c r="H69" s="9"/>
+      <c r="I69" s="22"/>
+      <c r="J69" s="22"/>
+      <c r="K69" s="22"/>
+      <c r="L69" s="22"/>
+      <c r="M69" s="22"/>
+      <c r="N69" s="22"/>
+      <c r="O69" s="22"/>
+      <c r="P69" s="22"/>
+      <c r="Q69" s="22"/>
     </row>
     <row r="70" spans="1:17">
-      <c r="A70" s="8"/>
-      <c r="B70" s="8"/>
-      <c r="C70" s="8"/>
-      <c r="D70" s="8"/>
-      <c r="E70" s="8"/>
-      <c r="F70" s="8"/>
-      <c r="G70" s="8"/>
-      <c r="H70" s="8"/>
-      <c r="I70" s="21"/>
-      <c r="J70" s="21"/>
-      <c r="K70" s="21"/>
-      <c r="L70" s="21"/>
-      <c r="M70" s="21"/>
-      <c r="N70" s="21"/>
-      <c r="O70" s="21"/>
-      <c r="P70" s="21"/>
-      <c r="Q70" s="21"/>
-    </row>
-    <row r="71" spans="1:17">
-      <c r="A71" s="8"/>
-      <c r="B71" s="8"/>
-      <c r="C71" s="8"/>
-      <c r="D71" s="8"/>
-      <c r="E71" s="8"/>
-      <c r="F71" s="8"/>
-      <c r="G71" s="8"/>
-      <c r="H71" s="8"/>
-      <c r="I71" s="21"/>
-      <c r="J71" s="21"/>
-      <c r="K71" s="21"/>
-      <c r="L71" s="21"/>
-      <c r="M71" s="21"/>
-      <c r="N71" s="21"/>
-      <c r="O71" s="21"/>
-      <c r="P71" s="21"/>
-      <c r="Q71" s="21"/>
-    </row>
-    <row r="72" spans="1:17">
-      <c r="A72" s="9"/>
-      <c r="B72" s="9"/>
-      <c r="C72" s="9"/>
-      <c r="D72" s="9"/>
-      <c r="E72" s="9"/>
-      <c r="F72" s="9"/>
-      <c r="G72" s="9"/>
-      <c r="H72" s="9"/>
-      <c r="I72" s="22"/>
-      <c r="J72" s="22"/>
-      <c r="K72" s="22"/>
-      <c r="L72" s="22"/>
-      <c r="M72" s="22"/>
-      <c r="N72" s="22"/>
-      <c r="O72" s="22"/>
-      <c r="P72" s="22"/>
-      <c r="Q72" s="22"/>
-    </row>
-    <row r="73" spans="1:17">
-      <c r="A73" s="9"/>
-      <c r="B73" s="9"/>
-      <c r="C73" s="9"/>
-      <c r="D73" s="9"/>
-      <c r="E73" s="9"/>
-      <c r="F73" s="9"/>
-      <c r="G73" s="9"/>
-      <c r="H73" s="9"/>
-      <c r="I73" s="22"/>
-      <c r="J73" s="22"/>
-      <c r="K73" s="22"/>
-      <c r="L73" s="22"/>
-      <c r="M73" s="22"/>
-      <c r="N73" s="22"/>
-      <c r="O73" s="22"/>
-      <c r="P73" s="22"/>
-      <c r="Q73" s="22"/>
+      <c r="A70" s="9"/>
+      <c r="B70" s="9"/>
+      <c r="C70" s="9"/>
+      <c r="D70" s="9"/>
+      <c r="E70" s="9"/>
+      <c r="F70" s="9"/>
+      <c r="G70" s="9"/>
+      <c r="H70" s="9"/>
+      <c r="I70" s="22"/>
+      <c r="J70" s="22"/>
+      <c r="K70" s="22"/>
+      <c r="L70" s="22"/>
+      <c r="M70" s="22"/>
+      <c r="N70" s="22"/>
+      <c r="O70" s="22"/>
+      <c r="P70" s="22"/>
+      <c r="Q70" s="22"/>
     </row>
   </sheetData>
   <mergeCells count="9">
@@ -6082,13 +6226,13 @@
     <mergeCell ref="C1:E1"/>
     <mergeCell ref="F1:G1"/>
     <mergeCell ref="I1:Q1"/>
+    <mergeCell ref="O2:Q2"/>
     <mergeCell ref="A2:B2"/>
     <mergeCell ref="C2:H2"/>
     <mergeCell ref="I2:K2"/>
     <mergeCell ref="L2:N2"/>
-    <mergeCell ref="O2:Q2"/>
   </mergeCells>
-  <phoneticPr fontId="9"/>
+  <phoneticPr fontId="2"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="landscape" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
 </worksheet>
@@ -6097,12 +6241,12 @@
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
-    <tabColor theme="8" tint="-0.499984740745262"/>
+    <tabColor theme="4" tint="0.39997558519241921"/>
   </sheetPr>
   <dimension ref="A1:Q73"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C8" sqref="C8"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E29" sqref="E29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -6127,60 +6271,60 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:17" ht="18" customHeight="1" thickBot="1">
-      <c r="A1" s="33" t="s">
-        <v>34</v>
-      </c>
-      <c r="B1" s="34"/>
-      <c r="C1" s="35" t="s">
-        <v>77</v>
-      </c>
-      <c r="D1" s="35"/>
-      <c r="E1" s="36"/>
-      <c r="F1" s="33" t="s">
+      <c r="A1" s="32" t="s">
+        <v>33</v>
+      </c>
+      <c r="B1" s="33"/>
+      <c r="C1" s="34" t="s">
+        <v>146</v>
+      </c>
+      <c r="D1" s="34"/>
+      <c r="E1" s="35"/>
+      <c r="F1" s="32" t="s">
         <v>11</v>
       </c>
-      <c r="G1" s="34"/>
+      <c r="G1" s="33"/>
       <c r="H1" s="3"/>
-      <c r="I1" s="42" t="s">
+      <c r="I1" s="41" t="s">
         <v>28</v>
       </c>
-      <c r="J1" s="43"/>
-      <c r="K1" s="43"/>
-      <c r="L1" s="43"/>
-      <c r="M1" s="43"/>
-      <c r="N1" s="43"/>
-      <c r="O1" s="43"/>
-      <c r="P1" s="43"/>
-      <c r="Q1" s="44"/>
+      <c r="J1" s="42"/>
+      <c r="K1" s="42"/>
+      <c r="L1" s="42"/>
+      <c r="M1" s="42"/>
+      <c r="N1" s="42"/>
+      <c r="O1" s="42"/>
+      <c r="P1" s="42"/>
+      <c r="Q1" s="43"/>
     </row>
     <row r="2" spans="1:17" ht="18" customHeight="1" thickBot="1">
-      <c r="A2" s="37" t="s">
+      <c r="A2" s="36" t="s">
         <v>5</v>
       </c>
-      <c r="B2" s="38"/>
-      <c r="C2" s="39" t="s">
-        <v>78</v>
-      </c>
-      <c r="D2" s="39"/>
-      <c r="E2" s="39"/>
-      <c r="F2" s="39"/>
-      <c r="G2" s="39"/>
-      <c r="H2" s="39"/>
-      <c r="I2" s="40" t="s">
+      <c r="B2" s="37"/>
+      <c r="C2" s="38" t="s">
+        <v>147</v>
+      </c>
+      <c r="D2" s="38"/>
+      <c r="E2" s="38"/>
+      <c r="F2" s="38"/>
+      <c r="G2" s="38"/>
+      <c r="H2" s="38"/>
+      <c r="I2" s="39" t="s">
         <v>12</v>
       </c>
-      <c r="J2" s="41"/>
-      <c r="K2" s="30"/>
-      <c r="L2" s="30" t="s">
+      <c r="J2" s="40"/>
+      <c r="K2" s="29"/>
+      <c r="L2" s="29" t="s">
         <v>15</v>
       </c>
-      <c r="M2" s="30"/>
-      <c r="N2" s="30"/>
-      <c r="O2" s="30" t="s">
+      <c r="M2" s="29"/>
+      <c r="N2" s="29"/>
+      <c r="O2" s="29" t="s">
         <v>16</v>
       </c>
-      <c r="P2" s="31"/>
-      <c r="Q2" s="32"/>
+      <c r="P2" s="30"/>
+      <c r="Q2" s="31"/>
     </row>
     <row r="3" spans="1:17">
       <c r="A3" s="5" t="s">
@@ -6241,7 +6385,7 @@
         <v>3</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="D4" s="1"/>
       <c r="E4" s="1" t="s">
@@ -6254,7 +6398,7 @@
         <v>8</v>
       </c>
       <c r="H4" s="1" t="s">
-        <v>19</v>
+        <v>152</v>
       </c>
       <c r="I4" s="16"/>
       <c r="J4" s="16"/>
@@ -6288,17 +6432,17 @@
     <row r="6" spans="1:17" s="14" customFormat="1">
       <c r="A6" s="7"/>
       <c r="B6" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="C6" s="1" t="s">
         <v>138</v>
-      </c>
-      <c r="C6" s="1" t="s">
-        <v>139</v>
       </c>
       <c r="D6" s="1"/>
       <c r="E6" s="1"/>
       <c r="F6" s="2"/>
       <c r="G6" s="2"/>
       <c r="H6" s="1" t="s">
-        <v>140</v>
+        <v>151</v>
       </c>
       <c r="I6" s="16"/>
       <c r="J6" s="16"/>
@@ -6313,17 +6457,17 @@
     <row r="7" spans="1:17" s="14" customFormat="1">
       <c r="A7" s="7"/>
       <c r="B7" s="1" t="s">
-        <v>135</v>
+        <v>148</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="D7" s="1"/>
       <c r="E7" s="1"/>
       <c r="F7" s="2"/>
       <c r="G7" s="2"/>
       <c r="H7" s="1" t="s">
-        <v>136</v>
+        <v>150</v>
       </c>
       <c r="I7" s="17"/>
       <c r="J7" s="17"/>
@@ -6338,17 +6482,17 @@
     <row r="8" spans="1:17" s="14" customFormat="1">
       <c r="A8" s="7"/>
       <c r="B8" s="1" t="s">
-        <v>141</v>
+        <v>149</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="D8" s="1"/>
       <c r="E8" s="1"/>
       <c r="F8" s="2"/>
       <c r="G8" s="2"/>
       <c r="H8" s="1" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="I8" s="18"/>
       <c r="J8" s="18"/>
@@ -6362,9 +6506,9 @@
     </row>
     <row r="9" spans="1:17" s="14" customFormat="1">
       <c r="A9" s="7"/>
-      <c r="B9" s="27"/>
-      <c r="C9" s="27"/>
-      <c r="D9" s="27"/>
+      <c r="B9" s="26"/>
+      <c r="C9" s="26"/>
+      <c r="D9" s="26"/>
       <c r="E9" s="1"/>
       <c r="F9" s="2"/>
       <c r="G9" s="2"/>
@@ -7607,7 +7751,7 @@
     <mergeCell ref="L2:N2"/>
     <mergeCell ref="O2:Q2"/>
   </mergeCells>
-  <phoneticPr fontId="9"/>
+  <phoneticPr fontId="10"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="landscape" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
 </worksheet>
@@ -7616,9 +7760,3136 @@
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
-    <tabColor theme="8" tint="-0.499984740745262"/>
+    <tabColor theme="5" tint="0.39997558519241921"/>
   </sheetPr>
-  <dimension ref="A1:Q70"/>
+  <dimension ref="A1:Q74"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C7" sqref="C7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5"/>
+  <cols>
+    <col min="1" max="1" width="5.625" customWidth="1"/>
+    <col min="2" max="2" width="23.125" customWidth="1"/>
+    <col min="3" max="3" width="13" customWidth="1"/>
+    <col min="4" max="4" width="6.625" customWidth="1"/>
+    <col min="5" max="5" width="23.125" customWidth="1"/>
+    <col min="6" max="6" width="9.25" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="8.75" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="27.25" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="3.875" style="23" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="3.875" style="23" customWidth="1"/>
+    <col min="11" max="11" width="8.75" style="23" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="3.875" style="23" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="3.875" style="23" customWidth="1"/>
+    <col min="14" max="14" width="8.75" style="23" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="3.875" style="23" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="3.875" style="23" customWidth="1"/>
+    <col min="17" max="17" width="8.75" style="23" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:17" ht="18" customHeight="1" thickBot="1">
+      <c r="A1" s="32" t="s">
+        <v>33</v>
+      </c>
+      <c r="B1" s="33"/>
+      <c r="C1" s="34" t="s">
+        <v>76</v>
+      </c>
+      <c r="D1" s="34"/>
+      <c r="E1" s="35"/>
+      <c r="F1" s="32" t="s">
+        <v>11</v>
+      </c>
+      <c r="G1" s="33"/>
+      <c r="H1" s="3"/>
+      <c r="I1" s="41" t="s">
+        <v>28</v>
+      </c>
+      <c r="J1" s="42"/>
+      <c r="K1" s="42"/>
+      <c r="L1" s="42"/>
+      <c r="M1" s="42"/>
+      <c r="N1" s="42"/>
+      <c r="O1" s="42"/>
+      <c r="P1" s="42"/>
+      <c r="Q1" s="43"/>
+    </row>
+    <row r="2" spans="1:17" ht="18" customHeight="1" thickBot="1">
+      <c r="A2" s="36" t="s">
+        <v>5</v>
+      </c>
+      <c r="B2" s="37"/>
+      <c r="C2" s="38" t="s">
+        <v>77</v>
+      </c>
+      <c r="D2" s="38"/>
+      <c r="E2" s="38"/>
+      <c r="F2" s="38"/>
+      <c r="G2" s="38"/>
+      <c r="H2" s="38"/>
+      <c r="I2" s="39" t="s">
+        <v>12</v>
+      </c>
+      <c r="J2" s="40"/>
+      <c r="K2" s="29"/>
+      <c r="L2" s="29" t="s">
+        <v>15</v>
+      </c>
+      <c r="M2" s="29"/>
+      <c r="N2" s="29"/>
+      <c r="O2" s="29" t="s">
+        <v>16</v>
+      </c>
+      <c r="P2" s="30"/>
+      <c r="Q2" s="31"/>
+    </row>
+    <row r="3" spans="1:17">
+      <c r="A3" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="B3" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="C3" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="D3" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="E3" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="F3" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="G3" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="H3" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="I3" s="15" t="s">
+        <v>13</v>
+      </c>
+      <c r="J3" s="15" t="s">
+        <v>14</v>
+      </c>
+      <c r="K3" s="15" t="s">
+        <v>20</v>
+      </c>
+      <c r="L3" s="15" t="s">
+        <v>13</v>
+      </c>
+      <c r="M3" s="15" t="s">
+        <v>14</v>
+      </c>
+      <c r="N3" s="15" t="s">
+        <v>20</v>
+      </c>
+      <c r="O3" s="15" t="s">
+        <v>13</v>
+      </c>
+      <c r="P3" s="15" t="s">
+        <v>14</v>
+      </c>
+      <c r="Q3" s="15" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="4" spans="1:17" s="14" customFormat="1">
+      <c r="A4" s="7"/>
+      <c r="B4" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="D4" s="1"/>
+      <c r="E4" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="F4" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="G4" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="H4" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="I4" s="16"/>
+      <c r="J4" s="16"/>
+      <c r="K4" s="16"/>
+      <c r="L4" s="16"/>
+      <c r="M4" s="16"/>
+      <c r="N4" s="16"/>
+      <c r="O4" s="16"/>
+      <c r="P4" s="16"/>
+      <c r="Q4" s="16"/>
+    </row>
+    <row r="5" spans="1:17" s="14" customFormat="1">
+      <c r="A5" s="7"/>
+      <c r="B5" s="1"/>
+      <c r="C5" s="1"/>
+      <c r="D5" s="1"/>
+      <c r="E5" s="1"/>
+      <c r="F5" s="2"/>
+      <c r="G5" s="2"/>
+      <c r="H5" s="1"/>
+      <c r="I5" s="16"/>
+      <c r="J5" s="16"/>
+      <c r="K5" s="16"/>
+      <c r="L5" s="16"/>
+      <c r="M5" s="16"/>
+      <c r="N5" s="16"/>
+      <c r="O5" s="16"/>
+      <c r="P5" s="16"/>
+      <c r="Q5" s="16"/>
+    </row>
+    <row r="6" spans="1:17" s="14" customFormat="1">
+      <c r="A6" s="7"/>
+      <c r="B6" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>182</v>
+      </c>
+      <c r="D6" s="1"/>
+      <c r="E6" s="1"/>
+      <c r="F6" s="2"/>
+      <c r="G6" s="2"/>
+      <c r="H6" s="1" t="s">
+        <v>142</v>
+      </c>
+      <c r="I6" s="16"/>
+      <c r="J6" s="16"/>
+      <c r="K6" s="16"/>
+      <c r="L6" s="16"/>
+      <c r="M6" s="16"/>
+      <c r="N6" s="16"/>
+      <c r="O6" s="16"/>
+      <c r="P6" s="16"/>
+      <c r="Q6" s="16"/>
+    </row>
+    <row r="7" spans="1:17" s="14" customFormat="1">
+      <c r="A7" s="7"/>
+      <c r="B7" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="D7" s="1">
+        <v>255</v>
+      </c>
+      <c r="E7" s="1"/>
+      <c r="F7" s="2"/>
+      <c r="G7" s="2"/>
+      <c r="H7" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="I7" s="16"/>
+      <c r="J7" s="16"/>
+      <c r="K7" s="16"/>
+      <c r="L7" s="16"/>
+      <c r="M7" s="16"/>
+      <c r="N7" s="16"/>
+      <c r="O7" s="16"/>
+      <c r="P7" s="16"/>
+      <c r="Q7" s="16"/>
+    </row>
+    <row r="8" spans="1:17" s="14" customFormat="1">
+      <c r="A8" s="7"/>
+      <c r="B8" s="1"/>
+      <c r="C8" s="1"/>
+      <c r="D8" s="1"/>
+      <c r="E8" s="1"/>
+      <c r="F8" s="2"/>
+      <c r="G8" s="2"/>
+      <c r="H8" s="1"/>
+      <c r="I8" s="17"/>
+      <c r="J8" s="17"/>
+      <c r="K8" s="18"/>
+      <c r="L8" s="16"/>
+      <c r="M8" s="16"/>
+      <c r="N8" s="16"/>
+      <c r="O8" s="16"/>
+      <c r="P8" s="16"/>
+      <c r="Q8" s="16"/>
+    </row>
+    <row r="9" spans="1:17" s="14" customFormat="1">
+      <c r="A9" s="7"/>
+      <c r="B9" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="D9" s="1"/>
+      <c r="E9" s="1"/>
+      <c r="F9" s="2"/>
+      <c r="G9" s="2"/>
+      <c r="H9" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="I9" s="18"/>
+      <c r="J9" s="18"/>
+      <c r="K9" s="18"/>
+      <c r="L9" s="16"/>
+      <c r="M9" s="16"/>
+      <c r="N9" s="16"/>
+      <c r="O9" s="16"/>
+      <c r="P9" s="16"/>
+      <c r="Q9" s="16"/>
+    </row>
+    <row r="10" spans="1:17" s="14" customFormat="1">
+      <c r="A10" s="7"/>
+      <c r="B10" s="26" t="s">
+        <v>90</v>
+      </c>
+      <c r="C10" s="26" t="s">
+        <v>93</v>
+      </c>
+      <c r="D10" s="26"/>
+      <c r="E10" s="1"/>
+      <c r="F10" s="2"/>
+      <c r="G10" s="2"/>
+      <c r="H10" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="I10" s="18"/>
+      <c r="J10" s="18"/>
+      <c r="K10" s="18"/>
+      <c r="L10" s="16"/>
+      <c r="M10" s="16"/>
+      <c r="N10" s="16"/>
+      <c r="O10" s="16"/>
+      <c r="P10" s="16"/>
+      <c r="Q10" s="16"/>
+    </row>
+    <row r="11" spans="1:17" s="14" customFormat="1">
+      <c r="A11" s="7"/>
+      <c r="B11" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="D11" s="1"/>
+      <c r="E11" s="7"/>
+      <c r="F11" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="G11" s="25"/>
+      <c r="H11" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="I11" s="18"/>
+      <c r="J11" s="18"/>
+      <c r="K11" s="18"/>
+      <c r="L11" s="16"/>
+      <c r="M11" s="16"/>
+      <c r="N11" s="16"/>
+      <c r="O11" s="16"/>
+      <c r="P11" s="16"/>
+      <c r="Q11" s="16"/>
+    </row>
+    <row r="12" spans="1:17" s="14" customFormat="1">
+      <c r="A12" s="10"/>
+      <c r="B12" s="4" t="s">
+        <v>86</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="D12" s="1"/>
+      <c r="E12" s="10"/>
+      <c r="F12" s="24"/>
+      <c r="G12" s="24"/>
+      <c r="H12" s="12" t="s">
+        <v>85</v>
+      </c>
+      <c r="I12" s="19"/>
+      <c r="J12" s="19"/>
+      <c r="K12" s="19"/>
+      <c r="L12" s="19"/>
+      <c r="M12" s="19"/>
+      <c r="N12" s="19"/>
+      <c r="O12" s="19"/>
+      <c r="P12" s="19"/>
+      <c r="Q12" s="19"/>
+    </row>
+    <row r="13" spans="1:17" s="14" customFormat="1">
+      <c r="A13" s="7"/>
+      <c r="B13" s="1"/>
+      <c r="C13" s="1"/>
+      <c r="D13" s="1"/>
+      <c r="E13" s="1"/>
+      <c r="F13" s="2"/>
+      <c r="G13" s="25"/>
+      <c r="H13" s="1"/>
+      <c r="I13" s="17"/>
+      <c r="J13" s="17"/>
+      <c r="K13" s="16"/>
+      <c r="L13" s="16"/>
+      <c r="M13" s="16"/>
+      <c r="N13" s="16"/>
+      <c r="O13" s="16"/>
+      <c r="P13" s="16"/>
+      <c r="Q13" s="16"/>
+    </row>
+    <row r="14" spans="1:17" s="14" customFormat="1">
+      <c r="A14" s="7"/>
+      <c r="B14" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="C14" s="28" t="s">
+        <v>112</v>
+      </c>
+      <c r="D14" s="1">
+        <v>255</v>
+      </c>
+      <c r="E14" s="1"/>
+      <c r="F14" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="G14" s="2"/>
+      <c r="H14" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="I14" s="18"/>
+      <c r="J14" s="18"/>
+      <c r="K14" s="18"/>
+      <c r="L14" s="16"/>
+      <c r="M14" s="16"/>
+      <c r="N14" s="16"/>
+      <c r="O14" s="16"/>
+      <c r="P14" s="16"/>
+      <c r="Q14" s="16"/>
+    </row>
+    <row r="15" spans="1:17" s="14" customFormat="1">
+      <c r="A15" s="7"/>
+      <c r="B15" s="1"/>
+      <c r="C15" s="1"/>
+      <c r="D15" s="1"/>
+      <c r="E15" s="1"/>
+      <c r="F15" s="2"/>
+      <c r="G15" s="25"/>
+      <c r="H15" s="1"/>
+      <c r="I15" s="17"/>
+      <c r="J15" s="17"/>
+      <c r="K15" s="16"/>
+      <c r="L15" s="16"/>
+      <c r="M15" s="16"/>
+      <c r="N15" s="16"/>
+      <c r="O15" s="16"/>
+      <c r="P15" s="16"/>
+      <c r="Q15" s="16"/>
+    </row>
+    <row r="16" spans="1:17" s="14" customFormat="1">
+      <c r="A16" s="7"/>
+      <c r="B16" s="1"/>
+      <c r="C16" s="1"/>
+      <c r="D16" s="1"/>
+      <c r="E16" s="1"/>
+      <c r="F16" s="2"/>
+      <c r="G16" s="25"/>
+      <c r="H16" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="I16" s="17"/>
+      <c r="J16" s="17"/>
+      <c r="K16" s="16"/>
+      <c r="L16" s="16"/>
+      <c r="M16" s="16"/>
+      <c r="N16" s="16"/>
+      <c r="O16" s="16"/>
+      <c r="P16" s="16"/>
+      <c r="Q16" s="16"/>
+    </row>
+    <row r="17" spans="1:17" s="14" customFormat="1">
+      <c r="A17" s="7"/>
+      <c r="B17" s="1"/>
+      <c r="C17" s="1"/>
+      <c r="D17" s="1"/>
+      <c r="E17" s="1"/>
+      <c r="F17" s="2"/>
+      <c r="G17" s="25"/>
+      <c r="H17" s="1"/>
+      <c r="I17" s="17"/>
+      <c r="J17" s="17"/>
+      <c r="K17" s="18"/>
+      <c r="L17" s="18"/>
+      <c r="M17" s="18"/>
+      <c r="N17" s="18"/>
+      <c r="O17" s="16"/>
+      <c r="P17" s="16"/>
+      <c r="Q17" s="16"/>
+    </row>
+    <row r="18" spans="1:17" s="14" customFormat="1">
+      <c r="A18" s="7"/>
+      <c r="B18" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="C18" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="D18" s="1"/>
+      <c r="E18" s="1"/>
+      <c r="F18" s="2"/>
+      <c r="G18" s="25"/>
+      <c r="H18" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="I18" s="18"/>
+      <c r="J18" s="18"/>
+      <c r="K18" s="18"/>
+      <c r="L18" s="16"/>
+      <c r="M18" s="16"/>
+      <c r="N18" s="16"/>
+      <c r="O18" s="16"/>
+      <c r="P18" s="16"/>
+      <c r="Q18" s="16"/>
+    </row>
+    <row r="19" spans="1:17" s="14" customFormat="1">
+      <c r="A19" s="7"/>
+      <c r="B19" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="C19" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="D19" s="1"/>
+      <c r="E19" s="1"/>
+      <c r="F19" s="2"/>
+      <c r="G19" s="25"/>
+      <c r="H19" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="I19" s="16"/>
+      <c r="J19" s="16"/>
+      <c r="K19" s="16"/>
+      <c r="L19" s="16"/>
+      <c r="M19" s="16"/>
+      <c r="N19" s="16"/>
+      <c r="O19" s="16"/>
+      <c r="P19" s="16"/>
+      <c r="Q19" s="16"/>
+    </row>
+    <row r="20" spans="1:17" s="14" customFormat="1">
+      <c r="A20" s="7"/>
+      <c r="B20" s="1"/>
+      <c r="C20" s="1"/>
+      <c r="D20" s="1"/>
+      <c r="E20" s="1"/>
+      <c r="F20" s="2"/>
+      <c r="G20" s="25"/>
+      <c r="H20" s="1"/>
+      <c r="I20" s="16"/>
+      <c r="J20" s="16"/>
+      <c r="K20" s="16"/>
+      <c r="L20" s="16"/>
+      <c r="M20" s="16"/>
+      <c r="N20" s="16"/>
+      <c r="O20" s="16"/>
+      <c r="P20" s="16"/>
+      <c r="Q20" s="16"/>
+    </row>
+    <row r="21" spans="1:17" s="14" customFormat="1">
+      <c r="A21" s="7"/>
+      <c r="B21" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="C21" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="D21" s="1"/>
+      <c r="E21" s="1"/>
+      <c r="F21" s="2"/>
+      <c r="G21" s="25"/>
+      <c r="H21" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="I21" s="16"/>
+      <c r="J21" s="16"/>
+      <c r="K21" s="16"/>
+      <c r="L21" s="16"/>
+      <c r="M21" s="16"/>
+      <c r="N21" s="16"/>
+      <c r="O21" s="16"/>
+      <c r="P21" s="16"/>
+      <c r="Q21" s="16"/>
+    </row>
+    <row r="22" spans="1:17" s="14" customFormat="1">
+      <c r="A22" s="7"/>
+      <c r="B22" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="C22" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="D22" s="1"/>
+      <c r="E22" s="1"/>
+      <c r="F22" s="2"/>
+      <c r="G22" s="25"/>
+      <c r="H22" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="I22" s="17"/>
+      <c r="J22" s="17"/>
+      <c r="K22" s="16"/>
+      <c r="L22" s="16"/>
+      <c r="M22" s="16"/>
+      <c r="N22" s="16"/>
+      <c r="O22" s="16"/>
+      <c r="P22" s="16"/>
+      <c r="Q22" s="16"/>
+    </row>
+    <row r="23" spans="1:17" s="14" customFormat="1">
+      <c r="A23" s="7"/>
+      <c r="B23" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="C23" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="D23" s="1"/>
+      <c r="E23" s="1"/>
+      <c r="F23" s="2"/>
+      <c r="G23" s="25"/>
+      <c r="H23" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="I23" s="17"/>
+      <c r="J23" s="17"/>
+      <c r="K23" s="16"/>
+      <c r="L23" s="20"/>
+      <c r="M23" s="20"/>
+      <c r="N23" s="16"/>
+      <c r="O23" s="16"/>
+      <c r="P23" s="16"/>
+      <c r="Q23" s="16"/>
+    </row>
+    <row r="24" spans="1:17" s="14" customFormat="1">
+      <c r="A24" s="7"/>
+      <c r="B24" s="1"/>
+      <c r="C24" s="1"/>
+      <c r="D24" s="1"/>
+      <c r="E24" s="1"/>
+      <c r="F24" s="2"/>
+      <c r="G24" s="25"/>
+      <c r="H24" s="1"/>
+      <c r="I24" s="17"/>
+      <c r="J24" s="17"/>
+      <c r="K24" s="16"/>
+      <c r="L24" s="20"/>
+      <c r="M24" s="20"/>
+      <c r="N24" s="16"/>
+      <c r="O24" s="16"/>
+      <c r="P24" s="16"/>
+      <c r="Q24" s="16"/>
+    </row>
+    <row r="25" spans="1:17" s="14" customFormat="1">
+      <c r="A25" s="7"/>
+      <c r="B25" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="C25" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="D25" s="1"/>
+      <c r="E25" s="1"/>
+      <c r="F25" s="2"/>
+      <c r="G25" s="25"/>
+      <c r="H25" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="I25" s="17"/>
+      <c r="J25" s="17"/>
+      <c r="K25" s="16"/>
+      <c r="L25" s="16"/>
+      <c r="M25" s="16"/>
+      <c r="N25" s="16"/>
+      <c r="O25" s="16"/>
+      <c r="P25" s="16"/>
+      <c r="Q25" s="16"/>
+    </row>
+    <row r="26" spans="1:17" s="14" customFormat="1">
+      <c r="A26" s="7"/>
+      <c r="B26" s="1"/>
+      <c r="C26" s="1"/>
+      <c r="D26" s="1"/>
+      <c r="E26" s="1"/>
+      <c r="F26" s="2"/>
+      <c r="G26" s="25"/>
+      <c r="H26" s="1"/>
+      <c r="I26" s="17"/>
+      <c r="J26" s="17"/>
+      <c r="K26" s="16"/>
+      <c r="L26" s="16"/>
+      <c r="M26" s="16"/>
+      <c r="N26" s="16"/>
+      <c r="O26" s="16"/>
+      <c r="P26" s="16"/>
+      <c r="Q26" s="16"/>
+    </row>
+    <row r="27" spans="1:17" s="14" customFormat="1">
+      <c r="A27" s="7"/>
+      <c r="B27" s="1"/>
+      <c r="C27" s="1"/>
+      <c r="D27" s="1"/>
+      <c r="E27" s="1"/>
+      <c r="F27" s="2"/>
+      <c r="G27" s="25"/>
+      <c r="H27" s="1"/>
+      <c r="I27" s="17"/>
+      <c r="J27" s="17"/>
+      <c r="K27" s="16"/>
+      <c r="L27" s="16"/>
+      <c r="M27" s="16"/>
+      <c r="N27" s="16"/>
+      <c r="O27" s="16"/>
+      <c r="P27" s="16"/>
+      <c r="Q27" s="16"/>
+    </row>
+    <row r="28" spans="1:17" s="14" customFormat="1">
+      <c r="A28" s="7"/>
+      <c r="B28" s="1"/>
+      <c r="C28" s="1"/>
+      <c r="D28" s="1"/>
+      <c r="E28" s="7"/>
+      <c r="F28" s="25"/>
+      <c r="G28" s="25"/>
+      <c r="H28" s="1"/>
+      <c r="I28" s="17"/>
+      <c r="J28" s="17"/>
+      <c r="K28" s="16"/>
+      <c r="L28" s="20"/>
+      <c r="M28" s="20"/>
+      <c r="N28" s="16"/>
+      <c r="O28" s="16"/>
+      <c r="P28" s="16"/>
+      <c r="Q28" s="16"/>
+    </row>
+    <row r="29" spans="1:17" s="14" customFormat="1">
+      <c r="A29" s="7"/>
+      <c r="B29" s="1"/>
+      <c r="C29" s="1"/>
+      <c r="D29" s="1"/>
+      <c r="E29" s="7"/>
+      <c r="F29" s="25"/>
+      <c r="G29" s="25"/>
+      <c r="H29" s="1"/>
+      <c r="I29" s="17"/>
+      <c r="J29" s="17"/>
+      <c r="K29" s="16"/>
+      <c r="L29" s="16"/>
+      <c r="M29" s="16"/>
+      <c r="N29" s="16"/>
+      <c r="O29" s="16"/>
+      <c r="P29" s="16"/>
+      <c r="Q29" s="16"/>
+    </row>
+    <row r="30" spans="1:17" s="14" customFormat="1">
+      <c r="A30" s="7"/>
+      <c r="B30" s="1"/>
+      <c r="C30" s="1"/>
+      <c r="D30" s="1"/>
+      <c r="E30" s="7"/>
+      <c r="F30" s="25"/>
+      <c r="G30" s="25"/>
+      <c r="H30" s="1"/>
+      <c r="I30" s="17"/>
+      <c r="J30" s="17"/>
+      <c r="K30" s="16"/>
+      <c r="L30" s="16"/>
+      <c r="M30" s="16"/>
+      <c r="N30" s="16"/>
+      <c r="O30" s="20"/>
+      <c r="P30" s="20"/>
+      <c r="Q30" s="16"/>
+    </row>
+    <row r="31" spans="1:17" s="14" customFormat="1">
+      <c r="A31" s="7"/>
+      <c r="B31" s="1"/>
+      <c r="C31" s="1"/>
+      <c r="D31" s="1"/>
+      <c r="E31" s="1"/>
+      <c r="F31" s="2"/>
+      <c r="G31" s="25"/>
+      <c r="H31" s="1"/>
+      <c r="I31" s="17"/>
+      <c r="J31" s="17"/>
+      <c r="K31" s="16"/>
+      <c r="L31" s="16"/>
+      <c r="M31" s="16"/>
+      <c r="N31" s="16"/>
+      <c r="O31" s="16"/>
+      <c r="P31" s="16"/>
+      <c r="Q31" s="16"/>
+    </row>
+    <row r="32" spans="1:17" s="14" customFormat="1">
+      <c r="A32" s="7"/>
+      <c r="B32" s="1"/>
+      <c r="C32" s="1"/>
+      <c r="D32" s="1"/>
+      <c r="E32" s="1"/>
+      <c r="F32" s="2"/>
+      <c r="G32" s="25"/>
+      <c r="H32" s="1"/>
+      <c r="I32" s="17"/>
+      <c r="J32" s="17"/>
+      <c r="K32" s="16"/>
+      <c r="L32" s="20"/>
+      <c r="M32" s="20"/>
+      <c r="N32" s="16"/>
+      <c r="O32" s="16"/>
+      <c r="P32" s="16"/>
+      <c r="Q32" s="16"/>
+    </row>
+    <row r="33" spans="1:17" s="14" customFormat="1">
+      <c r="A33" s="7"/>
+      <c r="B33" s="1"/>
+      <c r="C33" s="1"/>
+      <c r="D33" s="1"/>
+      <c r="E33" s="7"/>
+      <c r="F33" s="25"/>
+      <c r="G33" s="25"/>
+      <c r="H33" s="1"/>
+      <c r="I33" s="16"/>
+      <c r="J33" s="16"/>
+      <c r="K33" s="16"/>
+      <c r="L33" s="16"/>
+      <c r="M33" s="16"/>
+      <c r="N33" s="16"/>
+      <c r="O33" s="16"/>
+      <c r="P33" s="16"/>
+      <c r="Q33" s="16"/>
+    </row>
+    <row r="34" spans="1:17" s="14" customFormat="1">
+      <c r="A34" s="7"/>
+      <c r="B34" s="1"/>
+      <c r="C34" s="1"/>
+      <c r="D34" s="1"/>
+      <c r="E34" s="7"/>
+      <c r="F34" s="25"/>
+      <c r="G34" s="25"/>
+      <c r="H34" s="1"/>
+      <c r="I34" s="16"/>
+      <c r="J34" s="16"/>
+      <c r="K34" s="16"/>
+      <c r="L34" s="16"/>
+      <c r="M34" s="16"/>
+      <c r="N34" s="16"/>
+      <c r="O34" s="16"/>
+      <c r="P34" s="16"/>
+      <c r="Q34" s="16"/>
+    </row>
+    <row r="35" spans="1:17" s="14" customFormat="1">
+      <c r="A35" s="7"/>
+      <c r="B35" s="1"/>
+      <c r="C35" s="1"/>
+      <c r="D35" s="1"/>
+      <c r="E35" s="7"/>
+      <c r="F35" s="25"/>
+      <c r="G35" s="25"/>
+      <c r="H35" s="1"/>
+      <c r="I35" s="16"/>
+      <c r="J35" s="16"/>
+      <c r="K35" s="16"/>
+      <c r="L35" s="16"/>
+      <c r="M35" s="16"/>
+      <c r="N35" s="16"/>
+      <c r="O35" s="16"/>
+      <c r="P35" s="16"/>
+      <c r="Q35" s="16"/>
+    </row>
+    <row r="36" spans="1:17" s="14" customFormat="1">
+      <c r="A36" s="7"/>
+      <c r="B36" s="1"/>
+      <c r="C36" s="1"/>
+      <c r="D36" s="1"/>
+      <c r="E36" s="7"/>
+      <c r="F36" s="25"/>
+      <c r="G36" s="25"/>
+      <c r="H36" s="1"/>
+      <c r="I36" s="16"/>
+      <c r="J36" s="16"/>
+      <c r="K36" s="16"/>
+      <c r="L36" s="16"/>
+      <c r="M36" s="16"/>
+      <c r="N36" s="16"/>
+      <c r="O36" s="16"/>
+      <c r="P36" s="16"/>
+      <c r="Q36" s="16"/>
+    </row>
+    <row r="37" spans="1:17" s="14" customFormat="1">
+      <c r="A37" s="7"/>
+      <c r="B37" s="7"/>
+      <c r="C37" s="7"/>
+      <c r="D37" s="7"/>
+      <c r="E37" s="7"/>
+      <c r="F37" s="25"/>
+      <c r="G37" s="25"/>
+      <c r="H37" s="7"/>
+      <c r="I37" s="16"/>
+      <c r="J37" s="16"/>
+      <c r="K37" s="16"/>
+      <c r="L37" s="16"/>
+      <c r="M37" s="16"/>
+      <c r="N37" s="16"/>
+      <c r="O37" s="16"/>
+      <c r="P37" s="16"/>
+      <c r="Q37" s="16"/>
+    </row>
+    <row r="38" spans="1:17" s="14" customFormat="1">
+      <c r="A38" s="8"/>
+      <c r="B38" s="8"/>
+      <c r="C38" s="8"/>
+      <c r="D38" s="8"/>
+      <c r="E38" s="8"/>
+      <c r="F38" s="8"/>
+      <c r="G38" s="8"/>
+      <c r="H38" s="8"/>
+      <c r="I38" s="21"/>
+      <c r="J38" s="21"/>
+      <c r="K38" s="21"/>
+      <c r="L38" s="21"/>
+      <c r="M38" s="21"/>
+      <c r="N38" s="21"/>
+      <c r="O38" s="21"/>
+      <c r="P38" s="21"/>
+      <c r="Q38" s="21"/>
+    </row>
+    <row r="39" spans="1:17" s="14" customFormat="1">
+      <c r="A39" s="8"/>
+      <c r="B39" s="8"/>
+      <c r="C39" s="8"/>
+      <c r="D39" s="8"/>
+      <c r="E39" s="8"/>
+      <c r="F39" s="8"/>
+      <c r="G39" s="8"/>
+      <c r="H39" s="8"/>
+      <c r="I39" s="21"/>
+      <c r="J39" s="21"/>
+      <c r="K39" s="21"/>
+      <c r="L39" s="21"/>
+      <c r="M39" s="21"/>
+      <c r="N39" s="21"/>
+      <c r="O39" s="21"/>
+      <c r="P39" s="21"/>
+      <c r="Q39" s="21"/>
+    </row>
+    <row r="40" spans="1:17" s="14" customFormat="1">
+      <c r="A40" s="8"/>
+      <c r="B40" s="8"/>
+      <c r="C40" s="8"/>
+      <c r="D40" s="8"/>
+      <c r="E40" s="8"/>
+      <c r="F40" s="8"/>
+      <c r="G40" s="8"/>
+      <c r="H40" s="8"/>
+      <c r="I40" s="21"/>
+      <c r="J40" s="21"/>
+      <c r="K40" s="21"/>
+      <c r="L40" s="21"/>
+      <c r="M40" s="21"/>
+      <c r="N40" s="21"/>
+      <c r="O40" s="21"/>
+      <c r="P40" s="21"/>
+      <c r="Q40" s="21"/>
+    </row>
+    <row r="41" spans="1:17" s="14" customFormat="1">
+      <c r="A41" s="8"/>
+      <c r="B41" s="8"/>
+      <c r="C41" s="8"/>
+      <c r="D41" s="8"/>
+      <c r="E41" s="8"/>
+      <c r="F41" s="8"/>
+      <c r="G41" s="8"/>
+      <c r="H41" s="8"/>
+      <c r="I41" s="21"/>
+      <c r="J41" s="21"/>
+      <c r="K41" s="21"/>
+      <c r="L41" s="21"/>
+      <c r="M41" s="21"/>
+      <c r="N41" s="21"/>
+      <c r="O41" s="21"/>
+      <c r="P41" s="21"/>
+      <c r="Q41" s="21"/>
+    </row>
+    <row r="42" spans="1:17" s="14" customFormat="1">
+      <c r="A42" s="8"/>
+      <c r="B42" s="8"/>
+      <c r="C42" s="8"/>
+      <c r="D42" s="8"/>
+      <c r="E42" s="8"/>
+      <c r="F42" s="8"/>
+      <c r="G42" s="8"/>
+      <c r="H42" s="8"/>
+      <c r="I42" s="21"/>
+      <c r="J42" s="21"/>
+      <c r="K42" s="21"/>
+      <c r="L42" s="21"/>
+      <c r="M42" s="21"/>
+      <c r="N42" s="21"/>
+      <c r="O42" s="21"/>
+      <c r="P42" s="21"/>
+      <c r="Q42" s="21"/>
+    </row>
+    <row r="43" spans="1:17" s="14" customFormat="1">
+      <c r="A43" s="8"/>
+      <c r="B43" s="8"/>
+      <c r="C43" s="8"/>
+      <c r="D43" s="8"/>
+      <c r="E43" s="8"/>
+      <c r="F43" s="8"/>
+      <c r="G43" s="8"/>
+      <c r="H43" s="8"/>
+      <c r="I43" s="21"/>
+      <c r="J43" s="21"/>
+      <c r="K43" s="21"/>
+      <c r="L43" s="21"/>
+      <c r="M43" s="21"/>
+      <c r="N43" s="21"/>
+      <c r="O43" s="21"/>
+      <c r="P43" s="21"/>
+      <c r="Q43" s="21"/>
+    </row>
+    <row r="44" spans="1:17" s="14" customFormat="1">
+      <c r="A44" s="8"/>
+      <c r="B44" s="8"/>
+      <c r="C44" s="8"/>
+      <c r="D44" s="8"/>
+      <c r="E44" s="8"/>
+      <c r="F44" s="8"/>
+      <c r="G44" s="8"/>
+      <c r="H44" s="8"/>
+      <c r="I44" s="21"/>
+      <c r="J44" s="21"/>
+      <c r="K44" s="21"/>
+      <c r="L44" s="21"/>
+      <c r="M44" s="21"/>
+      <c r="N44" s="21"/>
+      <c r="O44" s="21"/>
+      <c r="P44" s="21"/>
+      <c r="Q44" s="21"/>
+    </row>
+    <row r="45" spans="1:17" s="14" customFormat="1">
+      <c r="A45" s="8"/>
+      <c r="B45" s="8"/>
+      <c r="C45" s="8"/>
+      <c r="D45" s="8"/>
+      <c r="E45" s="8"/>
+      <c r="F45" s="8"/>
+      <c r="G45" s="8"/>
+      <c r="H45" s="8"/>
+      <c r="I45" s="21"/>
+      <c r="J45" s="21"/>
+      <c r="K45" s="21"/>
+      <c r="L45" s="21"/>
+      <c r="M45" s="21"/>
+      <c r="N45" s="21"/>
+      <c r="O45" s="21"/>
+      <c r="P45" s="21"/>
+      <c r="Q45" s="21"/>
+    </row>
+    <row r="46" spans="1:17" s="14" customFormat="1">
+      <c r="A46" s="8"/>
+      <c r="B46" s="8"/>
+      <c r="C46" s="8"/>
+      <c r="D46" s="8"/>
+      <c r="E46" s="8"/>
+      <c r="F46" s="8"/>
+      <c r="G46" s="8"/>
+      <c r="H46" s="8"/>
+      <c r="I46" s="21"/>
+      <c r="J46" s="21"/>
+      <c r="K46" s="21"/>
+      <c r="L46" s="21"/>
+      <c r="M46" s="21"/>
+      <c r="N46" s="21"/>
+      <c r="O46" s="21"/>
+      <c r="P46" s="21"/>
+      <c r="Q46" s="21"/>
+    </row>
+    <row r="47" spans="1:17" s="14" customFormat="1">
+      <c r="A47" s="8"/>
+      <c r="B47" s="8"/>
+      <c r="C47" s="8"/>
+      <c r="D47" s="8"/>
+      <c r="E47" s="8"/>
+      <c r="F47" s="8"/>
+      <c r="G47" s="8"/>
+      <c r="H47" s="8"/>
+      <c r="I47" s="21"/>
+      <c r="J47" s="21"/>
+      <c r="K47" s="21"/>
+      <c r="L47" s="21"/>
+      <c r="M47" s="21"/>
+      <c r="N47" s="21"/>
+      <c r="O47" s="21"/>
+      <c r="P47" s="21"/>
+      <c r="Q47" s="21"/>
+    </row>
+    <row r="48" spans="1:17" s="14" customFormat="1">
+      <c r="A48" s="8"/>
+      <c r="B48" s="8"/>
+      <c r="C48" s="8"/>
+      <c r="D48" s="8"/>
+      <c r="E48" s="8"/>
+      <c r="F48" s="8"/>
+      <c r="G48" s="8"/>
+      <c r="H48" s="8"/>
+      <c r="I48" s="21"/>
+      <c r="J48" s="21"/>
+      <c r="K48" s="21"/>
+      <c r="L48" s="21"/>
+      <c r="M48" s="21"/>
+      <c r="N48" s="21"/>
+      <c r="O48" s="21"/>
+      <c r="P48" s="21"/>
+      <c r="Q48" s="21"/>
+    </row>
+    <row r="49" spans="1:17" s="14" customFormat="1">
+      <c r="A49" s="8"/>
+      <c r="B49" s="8"/>
+      <c r="C49" s="8"/>
+      <c r="D49" s="8"/>
+      <c r="E49" s="8"/>
+      <c r="F49" s="8"/>
+      <c r="G49" s="8"/>
+      <c r="H49" s="8"/>
+      <c r="I49" s="21"/>
+      <c r="J49" s="21"/>
+      <c r="K49" s="21"/>
+      <c r="L49" s="21"/>
+      <c r="M49" s="21"/>
+      <c r="N49" s="21"/>
+      <c r="O49" s="21"/>
+      <c r="P49" s="21"/>
+      <c r="Q49" s="21"/>
+    </row>
+    <row r="50" spans="1:17" s="14" customFormat="1">
+      <c r="A50" s="8"/>
+      <c r="B50" s="8"/>
+      <c r="C50" s="8"/>
+      <c r="D50" s="8"/>
+      <c r="E50" s="8"/>
+      <c r="F50" s="8"/>
+      <c r="G50" s="8"/>
+      <c r="H50" s="8"/>
+      <c r="I50" s="21"/>
+      <c r="J50" s="21"/>
+      <c r="K50" s="21"/>
+      <c r="L50" s="21"/>
+      <c r="M50" s="21"/>
+      <c r="N50" s="21"/>
+      <c r="O50" s="21"/>
+      <c r="P50" s="21"/>
+      <c r="Q50" s="21"/>
+    </row>
+    <row r="51" spans="1:17" s="14" customFormat="1">
+      <c r="A51" s="8"/>
+      <c r="B51" s="8"/>
+      <c r="C51" s="8"/>
+      <c r="D51" s="8"/>
+      <c r="E51" s="8"/>
+      <c r="F51" s="8"/>
+      <c r="G51" s="8"/>
+      <c r="H51" s="8"/>
+      <c r="I51" s="21"/>
+      <c r="J51" s="21"/>
+      <c r="K51" s="21"/>
+      <c r="L51" s="21"/>
+      <c r="M51" s="21"/>
+      <c r="N51" s="21"/>
+      <c r="O51" s="21"/>
+      <c r="P51" s="21"/>
+      <c r="Q51" s="21"/>
+    </row>
+    <row r="52" spans="1:17" s="14" customFormat="1">
+      <c r="A52" s="8"/>
+      <c r="B52" s="8"/>
+      <c r="C52" s="8"/>
+      <c r="D52" s="8"/>
+      <c r="E52" s="8"/>
+      <c r="F52" s="8"/>
+      <c r="G52" s="8"/>
+      <c r="H52" s="8"/>
+      <c r="I52" s="21"/>
+      <c r="J52" s="21"/>
+      <c r="K52" s="21"/>
+      <c r="L52" s="21"/>
+      <c r="M52" s="21"/>
+      <c r="N52" s="21"/>
+      <c r="O52" s="21"/>
+      <c r="P52" s="21"/>
+      <c r="Q52" s="21"/>
+    </row>
+    <row r="53" spans="1:17" s="14" customFormat="1">
+      <c r="A53" s="8"/>
+      <c r="B53" s="8"/>
+      <c r="C53" s="8"/>
+      <c r="D53" s="8"/>
+      <c r="E53" s="8"/>
+      <c r="F53" s="8"/>
+      <c r="G53" s="8"/>
+      <c r="H53" s="8"/>
+      <c r="I53" s="21"/>
+      <c r="J53" s="21"/>
+      <c r="K53" s="21"/>
+      <c r="L53" s="21"/>
+      <c r="M53" s="21"/>
+      <c r="N53" s="21"/>
+      <c r="O53" s="21"/>
+      <c r="P53" s="21"/>
+      <c r="Q53" s="21"/>
+    </row>
+    <row r="54" spans="1:17" s="14" customFormat="1">
+      <c r="A54" s="8"/>
+      <c r="B54" s="8"/>
+      <c r="C54" s="8"/>
+      <c r="D54" s="8"/>
+      <c r="E54" s="8"/>
+      <c r="F54" s="8"/>
+      <c r="G54" s="8"/>
+      <c r="H54" s="8"/>
+      <c r="I54" s="21"/>
+      <c r="J54" s="21"/>
+      <c r="K54" s="21"/>
+      <c r="L54" s="21"/>
+      <c r="M54" s="21"/>
+      <c r="N54" s="21"/>
+      <c r="O54" s="21"/>
+      <c r="P54" s="21"/>
+      <c r="Q54" s="21"/>
+    </row>
+    <row r="55" spans="1:17">
+      <c r="A55" s="8"/>
+      <c r="B55" s="8"/>
+      <c r="C55" s="8"/>
+      <c r="D55" s="8"/>
+      <c r="E55" s="8"/>
+      <c r="F55" s="8"/>
+      <c r="G55" s="8"/>
+      <c r="H55" s="8"/>
+      <c r="I55" s="21"/>
+      <c r="J55" s="21"/>
+      <c r="K55" s="21"/>
+      <c r="L55" s="21"/>
+      <c r="M55" s="21"/>
+      <c r="N55" s="21"/>
+      <c r="O55" s="21"/>
+      <c r="P55" s="21"/>
+      <c r="Q55" s="21"/>
+    </row>
+    <row r="56" spans="1:17">
+      <c r="A56" s="8"/>
+      <c r="B56" s="8"/>
+      <c r="C56" s="8"/>
+      <c r="D56" s="8"/>
+      <c r="E56" s="8"/>
+      <c r="F56" s="8"/>
+      <c r="G56" s="8"/>
+      <c r="H56" s="8"/>
+      <c r="I56" s="21"/>
+      <c r="J56" s="21"/>
+      <c r="K56" s="21"/>
+      <c r="L56" s="21"/>
+      <c r="M56" s="21"/>
+      <c r="N56" s="21"/>
+      <c r="O56" s="21"/>
+      <c r="P56" s="21"/>
+      <c r="Q56" s="21"/>
+    </row>
+    <row r="57" spans="1:17">
+      <c r="A57" s="8"/>
+      <c r="B57" s="8"/>
+      <c r="C57" s="8"/>
+      <c r="D57" s="8"/>
+      <c r="E57" s="8"/>
+      <c r="F57" s="8"/>
+      <c r="G57" s="8"/>
+      <c r="H57" s="8"/>
+      <c r="I57" s="21"/>
+      <c r="J57" s="21"/>
+      <c r="K57" s="21"/>
+      <c r="L57" s="21"/>
+      <c r="M57" s="21"/>
+      <c r="N57" s="21"/>
+      <c r="O57" s="21"/>
+      <c r="P57" s="21"/>
+      <c r="Q57" s="21"/>
+    </row>
+    <row r="58" spans="1:17">
+      <c r="A58" s="8"/>
+      <c r="B58" s="8"/>
+      <c r="C58" s="8"/>
+      <c r="D58" s="8"/>
+      <c r="E58" s="8"/>
+      <c r="F58" s="8"/>
+      <c r="G58" s="8"/>
+      <c r="H58" s="8"/>
+      <c r="I58" s="21"/>
+      <c r="J58" s="21"/>
+      <c r="K58" s="21"/>
+      <c r="L58" s="21"/>
+      <c r="M58" s="21"/>
+      <c r="N58" s="21"/>
+      <c r="O58" s="21"/>
+      <c r="P58" s="21"/>
+      <c r="Q58" s="21"/>
+    </row>
+    <row r="59" spans="1:17">
+      <c r="A59" s="8"/>
+      <c r="B59" s="8"/>
+      <c r="C59" s="8"/>
+      <c r="D59" s="8"/>
+      <c r="E59" s="8"/>
+      <c r="F59" s="8"/>
+      <c r="G59" s="8"/>
+      <c r="H59" s="8"/>
+      <c r="I59" s="21"/>
+      <c r="J59" s="21"/>
+      <c r="K59" s="21"/>
+      <c r="L59" s="21"/>
+      <c r="M59" s="21"/>
+      <c r="N59" s="21"/>
+      <c r="O59" s="21"/>
+      <c r="P59" s="21"/>
+      <c r="Q59" s="21"/>
+    </row>
+    <row r="60" spans="1:17">
+      <c r="A60" s="8"/>
+      <c r="B60" s="8"/>
+      <c r="C60" s="8"/>
+      <c r="D60" s="8"/>
+      <c r="E60" s="8"/>
+      <c r="F60" s="8"/>
+      <c r="G60" s="8"/>
+      <c r="H60" s="8"/>
+      <c r="I60" s="21"/>
+      <c r="J60" s="21"/>
+      <c r="K60" s="21"/>
+      <c r="L60" s="21"/>
+      <c r="M60" s="21"/>
+      <c r="N60" s="21"/>
+      <c r="O60" s="21"/>
+      <c r="P60" s="21"/>
+      <c r="Q60" s="21"/>
+    </row>
+    <row r="61" spans="1:17">
+      <c r="A61" s="8"/>
+      <c r="B61" s="8"/>
+      <c r="C61" s="8"/>
+      <c r="D61" s="8"/>
+      <c r="E61" s="8"/>
+      <c r="F61" s="8"/>
+      <c r="G61" s="8"/>
+      <c r="H61" s="8"/>
+      <c r="I61" s="21"/>
+      <c r="J61" s="21"/>
+      <c r="K61" s="21"/>
+      <c r="L61" s="21"/>
+      <c r="M61" s="21"/>
+      <c r="N61" s="21"/>
+      <c r="O61" s="21"/>
+      <c r="P61" s="21"/>
+      <c r="Q61" s="21"/>
+    </row>
+    <row r="62" spans="1:17">
+      <c r="A62" s="8"/>
+      <c r="B62" s="8"/>
+      <c r="C62" s="8"/>
+      <c r="D62" s="8"/>
+      <c r="E62" s="8"/>
+      <c r="F62" s="8"/>
+      <c r="G62" s="8"/>
+      <c r="H62" s="8"/>
+      <c r="I62" s="21"/>
+      <c r="J62" s="21"/>
+      <c r="K62" s="21"/>
+      <c r="L62" s="21"/>
+      <c r="M62" s="21"/>
+      <c r="N62" s="21"/>
+      <c r="O62" s="21"/>
+      <c r="P62" s="21"/>
+      <c r="Q62" s="21"/>
+    </row>
+    <row r="63" spans="1:17">
+      <c r="A63" s="8"/>
+      <c r="B63" s="8"/>
+      <c r="C63" s="8"/>
+      <c r="D63" s="8"/>
+      <c r="E63" s="8"/>
+      <c r="F63" s="8"/>
+      <c r="G63" s="8"/>
+      <c r="H63" s="8"/>
+      <c r="I63" s="21"/>
+      <c r="J63" s="21"/>
+      <c r="K63" s="21"/>
+      <c r="L63" s="21"/>
+      <c r="M63" s="21"/>
+      <c r="N63" s="21"/>
+      <c r="O63" s="21"/>
+      <c r="P63" s="21"/>
+      <c r="Q63" s="21"/>
+    </row>
+    <row r="64" spans="1:17">
+      <c r="A64" s="8"/>
+      <c r="B64" s="8"/>
+      <c r="C64" s="8"/>
+      <c r="D64" s="8"/>
+      <c r="E64" s="8"/>
+      <c r="F64" s="8"/>
+      <c r="G64" s="8"/>
+      <c r="H64" s="8"/>
+      <c r="I64" s="21"/>
+      <c r="J64" s="21"/>
+      <c r="K64" s="21"/>
+      <c r="L64" s="21"/>
+      <c r="M64" s="21"/>
+      <c r="N64" s="21"/>
+      <c r="O64" s="21"/>
+      <c r="P64" s="21"/>
+      <c r="Q64" s="21"/>
+    </row>
+    <row r="65" spans="1:17">
+      <c r="A65" s="8"/>
+      <c r="B65" s="8"/>
+      <c r="C65" s="8"/>
+      <c r="D65" s="8"/>
+      <c r="E65" s="8"/>
+      <c r="F65" s="8"/>
+      <c r="G65" s="8"/>
+      <c r="H65" s="8"/>
+      <c r="I65" s="21"/>
+      <c r="J65" s="21"/>
+      <c r="K65" s="21"/>
+      <c r="L65" s="21"/>
+      <c r="M65" s="21"/>
+      <c r="N65" s="21"/>
+      <c r="O65" s="21"/>
+      <c r="P65" s="21"/>
+      <c r="Q65" s="21"/>
+    </row>
+    <row r="66" spans="1:17">
+      <c r="A66" s="8"/>
+      <c r="B66" s="8"/>
+      <c r="C66" s="8"/>
+      <c r="D66" s="8"/>
+      <c r="E66" s="8"/>
+      <c r="F66" s="8"/>
+      <c r="G66" s="8"/>
+      <c r="H66" s="8"/>
+      <c r="I66" s="21"/>
+      <c r="J66" s="21"/>
+      <c r="K66" s="21"/>
+      <c r="L66" s="21"/>
+      <c r="M66" s="21"/>
+      <c r="N66" s="21"/>
+      <c r="O66" s="21"/>
+      <c r="P66" s="21"/>
+      <c r="Q66" s="21"/>
+    </row>
+    <row r="67" spans="1:17">
+      <c r="A67" s="8"/>
+      <c r="B67" s="8"/>
+      <c r="C67" s="8"/>
+      <c r="D67" s="8"/>
+      <c r="E67" s="8"/>
+      <c r="F67" s="8"/>
+      <c r="G67" s="8"/>
+      <c r="H67" s="8"/>
+      <c r="I67" s="21"/>
+      <c r="J67" s="21"/>
+      <c r="K67" s="21"/>
+      <c r="L67" s="21"/>
+      <c r="M67" s="21"/>
+      <c r="N67" s="21"/>
+      <c r="O67" s="21"/>
+      <c r="P67" s="21"/>
+      <c r="Q67" s="21"/>
+    </row>
+    <row r="68" spans="1:17">
+      <c r="A68" s="8"/>
+      <c r="B68" s="8"/>
+      <c r="C68" s="8"/>
+      <c r="D68" s="8"/>
+      <c r="E68" s="8"/>
+      <c r="F68" s="8"/>
+      <c r="G68" s="8"/>
+      <c r="H68" s="8"/>
+      <c r="I68" s="21"/>
+      <c r="J68" s="21"/>
+      <c r="K68" s="21"/>
+      <c r="L68" s="21"/>
+      <c r="M68" s="21"/>
+      <c r="N68" s="21"/>
+      <c r="O68" s="21"/>
+      <c r="P68" s="21"/>
+      <c r="Q68" s="21"/>
+    </row>
+    <row r="69" spans="1:17">
+      <c r="A69" s="8"/>
+      <c r="B69" s="8"/>
+      <c r="C69" s="8"/>
+      <c r="D69" s="8"/>
+      <c r="E69" s="8"/>
+      <c r="F69" s="8"/>
+      <c r="G69" s="8"/>
+      <c r="H69" s="8"/>
+      <c r="I69" s="21"/>
+      <c r="J69" s="21"/>
+      <c r="K69" s="21"/>
+      <c r="L69" s="21"/>
+      <c r="M69" s="21"/>
+      <c r="N69" s="21"/>
+      <c r="O69" s="21"/>
+      <c r="P69" s="21"/>
+      <c r="Q69" s="21"/>
+    </row>
+    <row r="70" spans="1:17">
+      <c r="A70" s="8"/>
+      <c r="B70" s="8"/>
+      <c r="C70" s="8"/>
+      <c r="D70" s="8"/>
+      <c r="E70" s="8"/>
+      <c r="F70" s="8"/>
+      <c r="G70" s="8"/>
+      <c r="H70" s="8"/>
+      <c r="I70" s="21"/>
+      <c r="J70" s="21"/>
+      <c r="K70" s="21"/>
+      <c r="L70" s="21"/>
+      <c r="M70" s="21"/>
+      <c r="N70" s="21"/>
+      <c r="O70" s="21"/>
+      <c r="P70" s="21"/>
+      <c r="Q70" s="21"/>
+    </row>
+    <row r="71" spans="1:17">
+      <c r="A71" s="8"/>
+      <c r="B71" s="8"/>
+      <c r="C71" s="8"/>
+      <c r="D71" s="8"/>
+      <c r="E71" s="8"/>
+      <c r="F71" s="8"/>
+      <c r="G71" s="8"/>
+      <c r="H71" s="8"/>
+      <c r="I71" s="21"/>
+      <c r="J71" s="21"/>
+      <c r="K71" s="21"/>
+      <c r="L71" s="21"/>
+      <c r="M71" s="21"/>
+      <c r="N71" s="21"/>
+      <c r="O71" s="21"/>
+      <c r="P71" s="21"/>
+      <c r="Q71" s="21"/>
+    </row>
+    <row r="72" spans="1:17">
+      <c r="A72" s="8"/>
+      <c r="B72" s="8"/>
+      <c r="C72" s="8"/>
+      <c r="D72" s="8"/>
+      <c r="E72" s="8"/>
+      <c r="F72" s="8"/>
+      <c r="G72" s="8"/>
+      <c r="H72" s="8"/>
+      <c r="I72" s="21"/>
+      <c r="J72" s="21"/>
+      <c r="K72" s="21"/>
+      <c r="L72" s="21"/>
+      <c r="M72" s="21"/>
+      <c r="N72" s="21"/>
+      <c r="O72" s="21"/>
+      <c r="P72" s="21"/>
+      <c r="Q72" s="21"/>
+    </row>
+    <row r="73" spans="1:17">
+      <c r="A73" s="9"/>
+      <c r="B73" s="9"/>
+      <c r="C73" s="9"/>
+      <c r="D73" s="9"/>
+      <c r="E73" s="9"/>
+      <c r="F73" s="9"/>
+      <c r="G73" s="9"/>
+      <c r="H73" s="9"/>
+      <c r="I73" s="22"/>
+      <c r="J73" s="22"/>
+      <c r="K73" s="22"/>
+      <c r="L73" s="22"/>
+      <c r="M73" s="22"/>
+      <c r="N73" s="22"/>
+      <c r="O73" s="22"/>
+      <c r="P73" s="22"/>
+      <c r="Q73" s="22"/>
+    </row>
+    <row r="74" spans="1:17">
+      <c r="A74" s="9"/>
+      <c r="B74" s="9"/>
+      <c r="C74" s="9"/>
+      <c r="D74" s="9"/>
+      <c r="E74" s="9"/>
+      <c r="F74" s="9"/>
+      <c r="G74" s="9"/>
+      <c r="H74" s="9"/>
+      <c r="I74" s="22"/>
+      <c r="J74" s="22"/>
+      <c r="K74" s="22"/>
+      <c r="L74" s="22"/>
+      <c r="M74" s="22"/>
+      <c r="N74" s="22"/>
+      <c r="O74" s="22"/>
+      <c r="P74" s="22"/>
+      <c r="Q74" s="22"/>
+    </row>
+  </sheetData>
+  <mergeCells count="9">
+    <mergeCell ref="A1:B1"/>
+    <mergeCell ref="C1:E1"/>
+    <mergeCell ref="F1:G1"/>
+    <mergeCell ref="I1:Q1"/>
+    <mergeCell ref="A2:B2"/>
+    <mergeCell ref="C2:H2"/>
+    <mergeCell ref="I2:K2"/>
+    <mergeCell ref="L2:N2"/>
+    <mergeCell ref="O2:Q2"/>
+  </mergeCells>
+  <phoneticPr fontId="10"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="landscape" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr>
+    <tabColor theme="5" tint="0.39997558519241921"/>
+  </sheetPr>
+  <dimension ref="A1:Q73"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H5" sqref="H5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5"/>
+  <cols>
+    <col min="1" max="1" width="5.625" customWidth="1"/>
+    <col min="2" max="2" width="23.125" customWidth="1"/>
+    <col min="3" max="3" width="13" customWidth="1"/>
+    <col min="4" max="4" width="6.625" customWidth="1"/>
+    <col min="5" max="5" width="23.125" customWidth="1"/>
+    <col min="6" max="6" width="9.25" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="8.75" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="27.25" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="3.875" style="23" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="3.875" style="23" customWidth="1"/>
+    <col min="11" max="11" width="8.75" style="23" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="3.875" style="23" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="3.875" style="23" customWidth="1"/>
+    <col min="14" max="14" width="8.75" style="23" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="3.875" style="23" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="3.875" style="23" customWidth="1"/>
+    <col min="17" max="17" width="8.75" style="23" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:17" ht="18" customHeight="1" thickBot="1">
+      <c r="A1" s="32" t="s">
+        <v>33</v>
+      </c>
+      <c r="B1" s="33"/>
+      <c r="C1" s="34" t="s">
+        <v>144</v>
+      </c>
+      <c r="D1" s="34"/>
+      <c r="E1" s="35"/>
+      <c r="F1" s="32" t="s">
+        <v>11</v>
+      </c>
+      <c r="G1" s="33"/>
+      <c r="H1" s="3"/>
+      <c r="I1" s="41" t="s">
+        <v>28</v>
+      </c>
+      <c r="J1" s="42"/>
+      <c r="K1" s="42"/>
+      <c r="L1" s="42"/>
+      <c r="M1" s="42"/>
+      <c r="N1" s="42"/>
+      <c r="O1" s="42"/>
+      <c r="P1" s="42"/>
+      <c r="Q1" s="43"/>
+    </row>
+    <row r="2" spans="1:17" ht="18" customHeight="1" thickBot="1">
+      <c r="A2" s="36" t="s">
+        <v>5</v>
+      </c>
+      <c r="B2" s="37"/>
+      <c r="C2" s="38" t="s">
+        <v>145</v>
+      </c>
+      <c r="D2" s="38"/>
+      <c r="E2" s="38"/>
+      <c r="F2" s="38"/>
+      <c r="G2" s="38"/>
+      <c r="H2" s="38"/>
+      <c r="I2" s="39" t="s">
+        <v>12</v>
+      </c>
+      <c r="J2" s="40"/>
+      <c r="K2" s="29"/>
+      <c r="L2" s="29" t="s">
+        <v>15</v>
+      </c>
+      <c r="M2" s="29"/>
+      <c r="N2" s="29"/>
+      <c r="O2" s="29" t="s">
+        <v>16</v>
+      </c>
+      <c r="P2" s="30"/>
+      <c r="Q2" s="31"/>
+    </row>
+    <row r="3" spans="1:17">
+      <c r="A3" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="B3" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="C3" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="D3" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="E3" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="F3" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="G3" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="H3" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="I3" s="15" t="s">
+        <v>13</v>
+      </c>
+      <c r="J3" s="15" t="s">
+        <v>14</v>
+      </c>
+      <c r="K3" s="15" t="s">
+        <v>20</v>
+      </c>
+      <c r="L3" s="15" t="s">
+        <v>13</v>
+      </c>
+      <c r="M3" s="15" t="s">
+        <v>14</v>
+      </c>
+      <c r="N3" s="15" t="s">
+        <v>20</v>
+      </c>
+      <c r="O3" s="15" t="s">
+        <v>13</v>
+      </c>
+      <c r="P3" s="15" t="s">
+        <v>14</v>
+      </c>
+      <c r="Q3" s="15" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="4" spans="1:17" s="14" customFormat="1">
+      <c r="A4" s="7"/>
+      <c r="B4" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="D4" s="1"/>
+      <c r="E4" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="F4" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="G4" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="H4" s="1" t="s">
+        <v>181</v>
+      </c>
+      <c r="I4" s="16"/>
+      <c r="J4" s="16"/>
+      <c r="K4" s="16"/>
+      <c r="L4" s="16"/>
+      <c r="M4" s="16"/>
+      <c r="N4" s="16"/>
+      <c r="O4" s="16"/>
+      <c r="P4" s="16"/>
+      <c r="Q4" s="16"/>
+    </row>
+    <row r="5" spans="1:17" s="14" customFormat="1">
+      <c r="A5" s="7"/>
+      <c r="B5" s="1"/>
+      <c r="C5" s="1"/>
+      <c r="D5" s="1"/>
+      <c r="E5" s="1"/>
+      <c r="F5" s="2"/>
+      <c r="G5" s="2"/>
+      <c r="H5" s="1"/>
+      <c r="I5" s="16"/>
+      <c r="J5" s="16"/>
+      <c r="K5" s="16"/>
+      <c r="L5" s="16"/>
+      <c r="M5" s="16"/>
+      <c r="N5" s="16"/>
+      <c r="O5" s="16"/>
+      <c r="P5" s="16"/>
+      <c r="Q5" s="16"/>
+    </row>
+    <row r="6" spans="1:17" s="14" customFormat="1">
+      <c r="A6" s="7"/>
+      <c r="B6" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="D6" s="1"/>
+      <c r="E6" s="1"/>
+      <c r="F6" s="2"/>
+      <c r="G6" s="2"/>
+      <c r="H6" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="I6" s="16"/>
+      <c r="J6" s="16"/>
+      <c r="K6" s="16"/>
+      <c r="L6" s="16"/>
+      <c r="M6" s="16"/>
+      <c r="N6" s="16"/>
+      <c r="O6" s="16"/>
+      <c r="P6" s="16"/>
+      <c r="Q6" s="16"/>
+    </row>
+    <row r="7" spans="1:17" s="14" customFormat="1">
+      <c r="A7" s="7"/>
+      <c r="B7" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="D7" s="1"/>
+      <c r="E7" s="1"/>
+      <c r="F7" s="2"/>
+      <c r="G7" s="2"/>
+      <c r="H7" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="I7" s="17"/>
+      <c r="J7" s="17"/>
+      <c r="K7" s="18"/>
+      <c r="L7" s="16"/>
+      <c r="M7" s="16"/>
+      <c r="N7" s="16"/>
+      <c r="O7" s="16"/>
+      <c r="P7" s="16"/>
+      <c r="Q7" s="16"/>
+    </row>
+    <row r="8" spans="1:17" s="14" customFormat="1">
+      <c r="A8" s="7"/>
+      <c r="B8" s="1" t="s">
+        <v>140</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="D8" s="1"/>
+      <c r="E8" s="1"/>
+      <c r="F8" s="2"/>
+      <c r="G8" s="2"/>
+      <c r="H8" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="I8" s="18"/>
+      <c r="J8" s="18"/>
+      <c r="K8" s="18"/>
+      <c r="L8" s="16"/>
+      <c r="M8" s="16"/>
+      <c r="N8" s="16"/>
+      <c r="O8" s="16"/>
+      <c r="P8" s="16"/>
+      <c r="Q8" s="16"/>
+    </row>
+    <row r="9" spans="1:17" s="14" customFormat="1">
+      <c r="A9" s="7"/>
+      <c r="B9" s="26"/>
+      <c r="C9" s="26"/>
+      <c r="D9" s="26"/>
+      <c r="E9" s="1"/>
+      <c r="F9" s="2"/>
+      <c r="G9" s="2"/>
+      <c r="H9" s="1"/>
+      <c r="I9" s="18"/>
+      <c r="J9" s="18"/>
+      <c r="K9" s="18"/>
+      <c r="L9" s="16"/>
+      <c r="M9" s="16"/>
+      <c r="N9" s="16"/>
+      <c r="O9" s="16"/>
+      <c r="P9" s="16"/>
+      <c r="Q9" s="16"/>
+    </row>
+    <row r="10" spans="1:17" s="14" customFormat="1">
+      <c r="A10" s="7"/>
+      <c r="B10" s="1"/>
+      <c r="C10" s="1"/>
+      <c r="D10" s="1"/>
+      <c r="E10" s="7"/>
+      <c r="F10" s="2"/>
+      <c r="G10" s="25"/>
+      <c r="H10" s="1"/>
+      <c r="I10" s="18"/>
+      <c r="J10" s="18"/>
+      <c r="K10" s="18"/>
+      <c r="L10" s="16"/>
+      <c r="M10" s="16"/>
+      <c r="N10" s="16"/>
+      <c r="O10" s="16"/>
+      <c r="P10" s="16"/>
+      <c r="Q10" s="16"/>
+    </row>
+    <row r="11" spans="1:17" s="14" customFormat="1">
+      <c r="A11" s="10"/>
+      <c r="B11" s="4"/>
+      <c r="C11" s="1"/>
+      <c r="D11" s="1"/>
+      <c r="E11" s="10"/>
+      <c r="F11" s="24"/>
+      <c r="G11" s="24"/>
+      <c r="H11" s="12"/>
+      <c r="I11" s="19"/>
+      <c r="J11" s="19"/>
+      <c r="K11" s="19"/>
+      <c r="L11" s="19"/>
+      <c r="M11" s="19"/>
+      <c r="N11" s="19"/>
+      <c r="O11" s="19"/>
+      <c r="P11" s="19"/>
+      <c r="Q11" s="19"/>
+    </row>
+    <row r="12" spans="1:17" s="14" customFormat="1">
+      <c r="A12" s="7"/>
+      <c r="B12" s="1"/>
+      <c r="C12" s="1"/>
+      <c r="D12" s="1"/>
+      <c r="E12" s="1"/>
+      <c r="F12" s="2"/>
+      <c r="G12" s="25"/>
+      <c r="H12" s="1"/>
+      <c r="I12" s="17"/>
+      <c r="J12" s="17"/>
+      <c r="K12" s="16"/>
+      <c r="L12" s="16"/>
+      <c r="M12" s="16"/>
+      <c r="N12" s="16"/>
+      <c r="O12" s="16"/>
+      <c r="P12" s="16"/>
+      <c r="Q12" s="16"/>
+    </row>
+    <row r="13" spans="1:17" s="14" customFormat="1">
+      <c r="A13" s="7"/>
+      <c r="B13" s="1"/>
+      <c r="C13" s="1"/>
+      <c r="D13" s="1"/>
+      <c r="E13" s="1"/>
+      <c r="F13" s="2"/>
+      <c r="G13" s="2"/>
+      <c r="H13" s="1"/>
+      <c r="I13" s="18"/>
+      <c r="J13" s="18"/>
+      <c r="K13" s="18"/>
+      <c r="L13" s="16"/>
+      <c r="M13" s="16"/>
+      <c r="N13" s="16"/>
+      <c r="O13" s="16"/>
+      <c r="P13" s="16"/>
+      <c r="Q13" s="16"/>
+    </row>
+    <row r="14" spans="1:17" s="14" customFormat="1">
+      <c r="A14" s="7"/>
+      <c r="B14" s="1"/>
+      <c r="C14" s="1"/>
+      <c r="D14" s="1"/>
+      <c r="E14" s="1"/>
+      <c r="F14" s="2"/>
+      <c r="G14" s="25"/>
+      <c r="H14" s="1"/>
+      <c r="I14" s="17"/>
+      <c r="J14" s="17"/>
+      <c r="K14" s="16"/>
+      <c r="L14" s="16"/>
+      <c r="M14" s="16"/>
+      <c r="N14" s="16"/>
+      <c r="O14" s="16"/>
+      <c r="P14" s="16"/>
+      <c r="Q14" s="16"/>
+    </row>
+    <row r="15" spans="1:17" s="14" customFormat="1">
+      <c r="A15" s="7"/>
+      <c r="B15" s="1"/>
+      <c r="C15" s="1"/>
+      <c r="D15" s="1"/>
+      <c r="E15" s="1"/>
+      <c r="F15" s="2"/>
+      <c r="G15" s="25"/>
+      <c r="H15" s="1"/>
+      <c r="I15" s="17"/>
+      <c r="J15" s="17"/>
+      <c r="K15" s="16"/>
+      <c r="L15" s="16"/>
+      <c r="M15" s="16"/>
+      <c r="N15" s="16"/>
+      <c r="O15" s="16"/>
+      <c r="P15" s="16"/>
+      <c r="Q15" s="16"/>
+    </row>
+    <row r="16" spans="1:17" s="14" customFormat="1">
+      <c r="A16" s="7"/>
+      <c r="B16" s="1"/>
+      <c r="C16" s="1"/>
+      <c r="D16" s="1"/>
+      <c r="E16" s="1"/>
+      <c r="F16" s="2"/>
+      <c r="G16" s="25"/>
+      <c r="H16" s="1"/>
+      <c r="I16" s="17"/>
+      <c r="J16" s="17"/>
+      <c r="K16" s="18"/>
+      <c r="L16" s="18"/>
+      <c r="M16" s="18"/>
+      <c r="N16" s="18"/>
+      <c r="O16" s="16"/>
+      <c r="P16" s="16"/>
+      <c r="Q16" s="16"/>
+    </row>
+    <row r="17" spans="1:17" s="14" customFormat="1">
+      <c r="A17" s="7"/>
+      <c r="B17" s="1"/>
+      <c r="C17" s="1"/>
+      <c r="D17" s="1"/>
+      <c r="E17" s="1"/>
+      <c r="F17" s="2"/>
+      <c r="G17" s="25"/>
+      <c r="H17" s="1"/>
+      <c r="I17" s="18"/>
+      <c r="J17" s="18"/>
+      <c r="K17" s="18"/>
+      <c r="L17" s="16"/>
+      <c r="M17" s="16"/>
+      <c r="N17" s="16"/>
+      <c r="O17" s="16"/>
+      <c r="P17" s="16"/>
+      <c r="Q17" s="16"/>
+    </row>
+    <row r="18" spans="1:17" s="14" customFormat="1">
+      <c r="A18" s="7"/>
+      <c r="B18" s="1"/>
+      <c r="C18" s="1"/>
+      <c r="D18" s="1"/>
+      <c r="E18" s="1"/>
+      <c r="F18" s="2"/>
+      <c r="G18" s="25"/>
+      <c r="H18" s="1"/>
+      <c r="I18" s="16"/>
+      <c r="J18" s="16"/>
+      <c r="K18" s="16"/>
+      <c r="L18" s="16"/>
+      <c r="M18" s="16"/>
+      <c r="N18" s="16"/>
+      <c r="O18" s="16"/>
+      <c r="P18" s="16"/>
+      <c r="Q18" s="16"/>
+    </row>
+    <row r="19" spans="1:17" s="14" customFormat="1">
+      <c r="A19" s="7"/>
+      <c r="B19" s="1"/>
+      <c r="C19" s="1"/>
+      <c r="D19" s="1"/>
+      <c r="E19" s="1"/>
+      <c r="F19" s="2"/>
+      <c r="G19" s="25"/>
+      <c r="H19" s="1"/>
+      <c r="I19" s="16"/>
+      <c r="J19" s="16"/>
+      <c r="K19" s="16"/>
+      <c r="L19" s="16"/>
+      <c r="M19" s="16"/>
+      <c r="N19" s="16"/>
+      <c r="O19" s="16"/>
+      <c r="P19" s="16"/>
+      <c r="Q19" s="16"/>
+    </row>
+    <row r="20" spans="1:17" s="14" customFormat="1">
+      <c r="A20" s="7"/>
+      <c r="B20" s="1"/>
+      <c r="C20" s="1"/>
+      <c r="D20" s="1"/>
+      <c r="E20" s="1"/>
+      <c r="F20" s="2"/>
+      <c r="G20" s="25"/>
+      <c r="H20" s="1"/>
+      <c r="I20" s="16"/>
+      <c r="J20" s="16"/>
+      <c r="K20" s="16"/>
+      <c r="L20" s="16"/>
+      <c r="M20" s="16"/>
+      <c r="N20" s="16"/>
+      <c r="O20" s="16"/>
+      <c r="P20" s="16"/>
+      <c r="Q20" s="16"/>
+    </row>
+    <row r="21" spans="1:17" s="14" customFormat="1">
+      <c r="A21" s="7"/>
+      <c r="B21" s="1"/>
+      <c r="C21" s="1"/>
+      <c r="D21" s="1"/>
+      <c r="E21" s="1"/>
+      <c r="F21" s="2"/>
+      <c r="G21" s="25"/>
+      <c r="H21" s="1"/>
+      <c r="I21" s="17"/>
+      <c r="J21" s="17"/>
+      <c r="K21" s="16"/>
+      <c r="L21" s="16"/>
+      <c r="M21" s="16"/>
+      <c r="N21" s="16"/>
+      <c r="O21" s="16"/>
+      <c r="P21" s="16"/>
+      <c r="Q21" s="16"/>
+    </row>
+    <row r="22" spans="1:17" s="14" customFormat="1">
+      <c r="A22" s="7"/>
+      <c r="B22" s="1"/>
+      <c r="C22" s="1"/>
+      <c r="D22" s="1"/>
+      <c r="E22" s="1"/>
+      <c r="F22" s="2"/>
+      <c r="G22" s="25"/>
+      <c r="H22" s="1"/>
+      <c r="I22" s="17"/>
+      <c r="J22" s="17"/>
+      <c r="K22" s="16"/>
+      <c r="L22" s="20"/>
+      <c r="M22" s="20"/>
+      <c r="N22" s="16"/>
+      <c r="O22" s="16"/>
+      <c r="P22" s="16"/>
+      <c r="Q22" s="16"/>
+    </row>
+    <row r="23" spans="1:17" s="14" customFormat="1">
+      <c r="A23" s="7"/>
+      <c r="B23" s="1"/>
+      <c r="C23" s="1"/>
+      <c r="D23" s="1"/>
+      <c r="E23" s="1"/>
+      <c r="F23" s="2"/>
+      <c r="G23" s="25"/>
+      <c r="H23" s="1"/>
+      <c r="I23" s="17"/>
+      <c r="J23" s="17"/>
+      <c r="K23" s="16"/>
+      <c r="L23" s="20"/>
+      <c r="M23" s="20"/>
+      <c r="N23" s="16"/>
+      <c r="O23" s="16"/>
+      <c r="P23" s="16"/>
+      <c r="Q23" s="16"/>
+    </row>
+    <row r="24" spans="1:17" s="14" customFormat="1">
+      <c r="A24" s="7"/>
+      <c r="B24" s="1"/>
+      <c r="C24" s="1"/>
+      <c r="D24" s="1"/>
+      <c r="E24" s="1"/>
+      <c r="F24" s="2"/>
+      <c r="G24" s="25"/>
+      <c r="H24" s="1"/>
+      <c r="I24" s="17"/>
+      <c r="J24" s="17"/>
+      <c r="K24" s="16"/>
+      <c r="L24" s="16"/>
+      <c r="M24" s="16"/>
+      <c r="N24" s="16"/>
+      <c r="O24" s="16"/>
+      <c r="P24" s="16"/>
+      <c r="Q24" s="16"/>
+    </row>
+    <row r="25" spans="1:17" s="14" customFormat="1">
+      <c r="A25" s="7"/>
+      <c r="B25" s="1"/>
+      <c r="C25" s="1"/>
+      <c r="D25" s="1"/>
+      <c r="E25" s="1"/>
+      <c r="F25" s="2"/>
+      <c r="G25" s="25"/>
+      <c r="H25" s="1"/>
+      <c r="I25" s="17"/>
+      <c r="J25" s="17"/>
+      <c r="K25" s="16"/>
+      <c r="L25" s="16"/>
+      <c r="M25" s="16"/>
+      <c r="N25" s="16"/>
+      <c r="O25" s="16"/>
+      <c r="P25" s="16"/>
+      <c r="Q25" s="16"/>
+    </row>
+    <row r="26" spans="1:17" s="14" customFormat="1">
+      <c r="A26" s="7"/>
+      <c r="B26" s="1"/>
+      <c r="C26" s="1"/>
+      <c r="D26" s="1"/>
+      <c r="E26" s="1"/>
+      <c r="F26" s="2"/>
+      <c r="G26" s="25"/>
+      <c r="H26" s="1"/>
+      <c r="I26" s="17"/>
+      <c r="J26" s="17"/>
+      <c r="K26" s="16"/>
+      <c r="L26" s="16"/>
+      <c r="M26" s="16"/>
+      <c r="N26" s="16"/>
+      <c r="O26" s="16"/>
+      <c r="P26" s="16"/>
+      <c r="Q26" s="16"/>
+    </row>
+    <row r="27" spans="1:17" s="14" customFormat="1">
+      <c r="A27" s="7"/>
+      <c r="B27" s="1"/>
+      <c r="C27" s="1"/>
+      <c r="D27" s="1"/>
+      <c r="E27" s="7"/>
+      <c r="F27" s="25"/>
+      <c r="G27" s="25"/>
+      <c r="H27" s="1"/>
+      <c r="I27" s="17"/>
+      <c r="J27" s="17"/>
+      <c r="K27" s="16"/>
+      <c r="L27" s="20"/>
+      <c r="M27" s="20"/>
+      <c r="N27" s="16"/>
+      <c r="O27" s="16"/>
+      <c r="P27" s="16"/>
+      <c r="Q27" s="16"/>
+    </row>
+    <row r="28" spans="1:17" s="14" customFormat="1">
+      <c r="A28" s="7"/>
+      <c r="B28" s="1"/>
+      <c r="C28" s="1"/>
+      <c r="D28" s="1"/>
+      <c r="E28" s="7"/>
+      <c r="F28" s="25"/>
+      <c r="G28" s="25"/>
+      <c r="H28" s="1"/>
+      <c r="I28" s="17"/>
+      <c r="J28" s="17"/>
+      <c r="K28" s="16"/>
+      <c r="L28" s="16"/>
+      <c r="M28" s="16"/>
+      <c r="N28" s="16"/>
+      <c r="O28" s="16"/>
+      <c r="P28" s="16"/>
+      <c r="Q28" s="16"/>
+    </row>
+    <row r="29" spans="1:17" s="14" customFormat="1">
+      <c r="A29" s="7"/>
+      <c r="B29" s="1"/>
+      <c r="C29" s="1"/>
+      <c r="D29" s="1"/>
+      <c r="E29" s="7"/>
+      <c r="F29" s="25"/>
+      <c r="G29" s="25"/>
+      <c r="H29" s="1"/>
+      <c r="I29" s="17"/>
+      <c r="J29" s="17"/>
+      <c r="K29" s="16"/>
+      <c r="L29" s="16"/>
+      <c r="M29" s="16"/>
+      <c r="N29" s="16"/>
+      <c r="O29" s="20"/>
+      <c r="P29" s="20"/>
+      <c r="Q29" s="16"/>
+    </row>
+    <row r="30" spans="1:17" s="14" customFormat="1">
+      <c r="A30" s="7"/>
+      <c r="B30" s="1"/>
+      <c r="C30" s="1"/>
+      <c r="D30" s="1"/>
+      <c r="E30" s="1"/>
+      <c r="F30" s="2"/>
+      <c r="G30" s="25"/>
+      <c r="H30" s="1"/>
+      <c r="I30" s="17"/>
+      <c r="J30" s="17"/>
+      <c r="K30" s="16"/>
+      <c r="L30" s="16"/>
+      <c r="M30" s="16"/>
+      <c r="N30" s="16"/>
+      <c r="O30" s="16"/>
+      <c r="P30" s="16"/>
+      <c r="Q30" s="16"/>
+    </row>
+    <row r="31" spans="1:17" s="14" customFormat="1">
+      <c r="A31" s="7"/>
+      <c r="B31" s="1"/>
+      <c r="C31" s="1"/>
+      <c r="D31" s="1"/>
+      <c r="E31" s="1"/>
+      <c r="F31" s="2"/>
+      <c r="G31" s="25"/>
+      <c r="H31" s="1"/>
+      <c r="I31" s="17"/>
+      <c r="J31" s="17"/>
+      <c r="K31" s="16"/>
+      <c r="L31" s="20"/>
+      <c r="M31" s="20"/>
+      <c r="N31" s="16"/>
+      <c r="O31" s="16"/>
+      <c r="P31" s="16"/>
+      <c r="Q31" s="16"/>
+    </row>
+    <row r="32" spans="1:17" s="14" customFormat="1">
+      <c r="A32" s="7"/>
+      <c r="B32" s="1"/>
+      <c r="C32" s="1"/>
+      <c r="D32" s="1"/>
+      <c r="E32" s="7"/>
+      <c r="F32" s="25"/>
+      <c r="G32" s="25"/>
+      <c r="H32" s="1"/>
+      <c r="I32" s="16"/>
+      <c r="J32" s="16"/>
+      <c r="K32" s="16"/>
+      <c r="L32" s="16"/>
+      <c r="M32" s="16"/>
+      <c r="N32" s="16"/>
+      <c r="O32" s="16"/>
+      <c r="P32" s="16"/>
+      <c r="Q32" s="16"/>
+    </row>
+    <row r="33" spans="1:17" s="14" customFormat="1">
+      <c r="A33" s="7"/>
+      <c r="B33" s="1"/>
+      <c r="C33" s="1"/>
+      <c r="D33" s="1"/>
+      <c r="E33" s="7"/>
+      <c r="F33" s="25"/>
+      <c r="G33" s="25"/>
+      <c r="H33" s="1"/>
+      <c r="I33" s="16"/>
+      <c r="J33" s="16"/>
+      <c r="K33" s="16"/>
+      <c r="L33" s="16"/>
+      <c r="M33" s="16"/>
+      <c r="N33" s="16"/>
+      <c r="O33" s="16"/>
+      <c r="P33" s="16"/>
+      <c r="Q33" s="16"/>
+    </row>
+    <row r="34" spans="1:17" s="14" customFormat="1">
+      <c r="A34" s="7"/>
+      <c r="B34" s="1"/>
+      <c r="C34" s="1"/>
+      <c r="D34" s="1"/>
+      <c r="E34" s="7"/>
+      <c r="F34" s="25"/>
+      <c r="G34" s="25"/>
+      <c r="H34" s="1"/>
+      <c r="I34" s="16"/>
+      <c r="J34" s="16"/>
+      <c r="K34" s="16"/>
+      <c r="L34" s="16"/>
+      <c r="M34" s="16"/>
+      <c r="N34" s="16"/>
+      <c r="O34" s="16"/>
+      <c r="P34" s="16"/>
+      <c r="Q34" s="16"/>
+    </row>
+    <row r="35" spans="1:17" s="14" customFormat="1">
+      <c r="A35" s="7"/>
+      <c r="B35" s="1"/>
+      <c r="C35" s="1"/>
+      <c r="D35" s="1"/>
+      <c r="E35" s="7"/>
+      <c r="F35" s="25"/>
+      <c r="G35" s="25"/>
+      <c r="H35" s="1"/>
+      <c r="I35" s="16"/>
+      <c r="J35" s="16"/>
+      <c r="K35" s="16"/>
+      <c r="L35" s="16"/>
+      <c r="M35" s="16"/>
+      <c r="N35" s="16"/>
+      <c r="O35" s="16"/>
+      <c r="P35" s="16"/>
+      <c r="Q35" s="16"/>
+    </row>
+    <row r="36" spans="1:17" s="14" customFormat="1">
+      <c r="A36" s="7"/>
+      <c r="B36" s="7"/>
+      <c r="C36" s="7"/>
+      <c r="D36" s="7"/>
+      <c r="E36" s="7"/>
+      <c r="F36" s="25"/>
+      <c r="G36" s="25"/>
+      <c r="H36" s="7"/>
+      <c r="I36" s="16"/>
+      <c r="J36" s="16"/>
+      <c r="K36" s="16"/>
+      <c r="L36" s="16"/>
+      <c r="M36" s="16"/>
+      <c r="N36" s="16"/>
+      <c r="O36" s="16"/>
+      <c r="P36" s="16"/>
+      <c r="Q36" s="16"/>
+    </row>
+    <row r="37" spans="1:17" s="14" customFormat="1">
+      <c r="A37" s="8"/>
+      <c r="B37" s="8"/>
+      <c r="C37" s="8"/>
+      <c r="D37" s="8"/>
+      <c r="E37" s="8"/>
+      <c r="F37" s="8"/>
+      <c r="G37" s="8"/>
+      <c r="H37" s="8"/>
+      <c r="I37" s="21"/>
+      <c r="J37" s="21"/>
+      <c r="K37" s="21"/>
+      <c r="L37" s="21"/>
+      <c r="M37" s="21"/>
+      <c r="N37" s="21"/>
+      <c r="O37" s="21"/>
+      <c r="P37" s="21"/>
+      <c r="Q37" s="21"/>
+    </row>
+    <row r="38" spans="1:17" s="14" customFormat="1">
+      <c r="A38" s="8"/>
+      <c r="B38" s="8"/>
+      <c r="C38" s="8"/>
+      <c r="D38" s="8"/>
+      <c r="E38" s="8"/>
+      <c r="F38" s="8"/>
+      <c r="G38" s="8"/>
+      <c r="H38" s="8"/>
+      <c r="I38" s="21"/>
+      <c r="J38" s="21"/>
+      <c r="K38" s="21"/>
+      <c r="L38" s="21"/>
+      <c r="M38" s="21"/>
+      <c r="N38" s="21"/>
+      <c r="O38" s="21"/>
+      <c r="P38" s="21"/>
+      <c r="Q38" s="21"/>
+    </row>
+    <row r="39" spans="1:17" s="14" customFormat="1">
+      <c r="A39" s="8"/>
+      <c r="B39" s="8"/>
+      <c r="C39" s="8"/>
+      <c r="D39" s="8"/>
+      <c r="E39" s="8"/>
+      <c r="F39" s="8"/>
+      <c r="G39" s="8"/>
+      <c r="H39" s="8"/>
+      <c r="I39" s="21"/>
+      <c r="J39" s="21"/>
+      <c r="K39" s="21"/>
+      <c r="L39" s="21"/>
+      <c r="M39" s="21"/>
+      <c r="N39" s="21"/>
+      <c r="O39" s="21"/>
+      <c r="P39" s="21"/>
+      <c r="Q39" s="21"/>
+    </row>
+    <row r="40" spans="1:17" s="14" customFormat="1">
+      <c r="A40" s="8"/>
+      <c r="B40" s="8"/>
+      <c r="C40" s="8"/>
+      <c r="D40" s="8"/>
+      <c r="E40" s="8"/>
+      <c r="F40" s="8"/>
+      <c r="G40" s="8"/>
+      <c r="H40" s="8"/>
+      <c r="I40" s="21"/>
+      <c r="J40" s="21"/>
+      <c r="K40" s="21"/>
+      <c r="L40" s="21"/>
+      <c r="M40" s="21"/>
+      <c r="N40" s="21"/>
+      <c r="O40" s="21"/>
+      <c r="P40" s="21"/>
+      <c r="Q40" s="21"/>
+    </row>
+    <row r="41" spans="1:17" s="14" customFormat="1">
+      <c r="A41" s="8"/>
+      <c r="B41" s="8"/>
+      <c r="C41" s="8"/>
+      <c r="D41" s="8"/>
+      <c r="E41" s="8"/>
+      <c r="F41" s="8"/>
+      <c r="G41" s="8"/>
+      <c r="H41" s="8"/>
+      <c r="I41" s="21"/>
+      <c r="J41" s="21"/>
+      <c r="K41" s="21"/>
+      <c r="L41" s="21"/>
+      <c r="M41" s="21"/>
+      <c r="N41" s="21"/>
+      <c r="O41" s="21"/>
+      <c r="P41" s="21"/>
+      <c r="Q41" s="21"/>
+    </row>
+    <row r="42" spans="1:17" s="14" customFormat="1">
+      <c r="A42" s="8"/>
+      <c r="B42" s="8"/>
+      <c r="C42" s="8"/>
+      <c r="D42" s="8"/>
+      <c r="E42" s="8"/>
+      <c r="F42" s="8"/>
+      <c r="G42" s="8"/>
+      <c r="H42" s="8"/>
+      <c r="I42" s="21"/>
+      <c r="J42" s="21"/>
+      <c r="K42" s="21"/>
+      <c r="L42" s="21"/>
+      <c r="M42" s="21"/>
+      <c r="N42" s="21"/>
+      <c r="O42" s="21"/>
+      <c r="P42" s="21"/>
+      <c r="Q42" s="21"/>
+    </row>
+    <row r="43" spans="1:17" s="14" customFormat="1">
+      <c r="A43" s="8"/>
+      <c r="B43" s="8"/>
+      <c r="C43" s="8"/>
+      <c r="D43" s="8"/>
+      <c r="E43" s="8"/>
+      <c r="F43" s="8"/>
+      <c r="G43" s="8"/>
+      <c r="H43" s="8"/>
+      <c r="I43" s="21"/>
+      <c r="J43" s="21"/>
+      <c r="K43" s="21"/>
+      <c r="L43" s="21"/>
+      <c r="M43" s="21"/>
+      <c r="N43" s="21"/>
+      <c r="O43" s="21"/>
+      <c r="P43" s="21"/>
+      <c r="Q43" s="21"/>
+    </row>
+    <row r="44" spans="1:17" s="14" customFormat="1">
+      <c r="A44" s="8"/>
+      <c r="B44" s="8"/>
+      <c r="C44" s="8"/>
+      <c r="D44" s="8"/>
+      <c r="E44" s="8"/>
+      <c r="F44" s="8"/>
+      <c r="G44" s="8"/>
+      <c r="H44" s="8"/>
+      <c r="I44" s="21"/>
+      <c r="J44" s="21"/>
+      <c r="K44" s="21"/>
+      <c r="L44" s="21"/>
+      <c r="M44" s="21"/>
+      <c r="N44" s="21"/>
+      <c r="O44" s="21"/>
+      <c r="P44" s="21"/>
+      <c r="Q44" s="21"/>
+    </row>
+    <row r="45" spans="1:17" s="14" customFormat="1">
+      <c r="A45" s="8"/>
+      <c r="B45" s="8"/>
+      <c r="C45" s="8"/>
+      <c r="D45" s="8"/>
+      <c r="E45" s="8"/>
+      <c r="F45" s="8"/>
+      <c r="G45" s="8"/>
+      <c r="H45" s="8"/>
+      <c r="I45" s="21"/>
+      <c r="J45" s="21"/>
+      <c r="K45" s="21"/>
+      <c r="L45" s="21"/>
+      <c r="M45" s="21"/>
+      <c r="N45" s="21"/>
+      <c r="O45" s="21"/>
+      <c r="P45" s="21"/>
+      <c r="Q45" s="21"/>
+    </row>
+    <row r="46" spans="1:17" s="14" customFormat="1">
+      <c r="A46" s="8"/>
+      <c r="B46" s="8"/>
+      <c r="C46" s="8"/>
+      <c r="D46" s="8"/>
+      <c r="E46" s="8"/>
+      <c r="F46" s="8"/>
+      <c r="G46" s="8"/>
+      <c r="H46" s="8"/>
+      <c r="I46" s="21"/>
+      <c r="J46" s="21"/>
+      <c r="K46" s="21"/>
+      <c r="L46" s="21"/>
+      <c r="M46" s="21"/>
+      <c r="N46" s="21"/>
+      <c r="O46" s="21"/>
+      <c r="P46" s="21"/>
+      <c r="Q46" s="21"/>
+    </row>
+    <row r="47" spans="1:17" s="14" customFormat="1">
+      <c r="A47" s="8"/>
+      <c r="B47" s="8"/>
+      <c r="C47" s="8"/>
+      <c r="D47" s="8"/>
+      <c r="E47" s="8"/>
+      <c r="F47" s="8"/>
+      <c r="G47" s="8"/>
+      <c r="H47" s="8"/>
+      <c r="I47" s="21"/>
+      <c r="J47" s="21"/>
+      <c r="K47" s="21"/>
+      <c r="L47" s="21"/>
+      <c r="M47" s="21"/>
+      <c r="N47" s="21"/>
+      <c r="O47" s="21"/>
+      <c r="P47" s="21"/>
+      <c r="Q47" s="21"/>
+    </row>
+    <row r="48" spans="1:17" s="14" customFormat="1">
+      <c r="A48" s="8"/>
+      <c r="B48" s="8"/>
+      <c r="C48" s="8"/>
+      <c r="D48" s="8"/>
+      <c r="E48" s="8"/>
+      <c r="F48" s="8"/>
+      <c r="G48" s="8"/>
+      <c r="H48" s="8"/>
+      <c r="I48" s="21"/>
+      <c r="J48" s="21"/>
+      <c r="K48" s="21"/>
+      <c r="L48" s="21"/>
+      <c r="M48" s="21"/>
+      <c r="N48" s="21"/>
+      <c r="O48" s="21"/>
+      <c r="P48" s="21"/>
+      <c r="Q48" s="21"/>
+    </row>
+    <row r="49" spans="1:17" s="14" customFormat="1">
+      <c r="A49" s="8"/>
+      <c r="B49" s="8"/>
+      <c r="C49" s="8"/>
+      <c r="D49" s="8"/>
+      <c r="E49" s="8"/>
+      <c r="F49" s="8"/>
+      <c r="G49" s="8"/>
+      <c r="H49" s="8"/>
+      <c r="I49" s="21"/>
+      <c r="J49" s="21"/>
+      <c r="K49" s="21"/>
+      <c r="L49" s="21"/>
+      <c r="M49" s="21"/>
+      <c r="N49" s="21"/>
+      <c r="O49" s="21"/>
+      <c r="P49" s="21"/>
+      <c r="Q49" s="21"/>
+    </row>
+    <row r="50" spans="1:17" s="14" customFormat="1">
+      <c r="A50" s="8"/>
+      <c r="B50" s="8"/>
+      <c r="C50" s="8"/>
+      <c r="D50" s="8"/>
+      <c r="E50" s="8"/>
+      <c r="F50" s="8"/>
+      <c r="G50" s="8"/>
+      <c r="H50" s="8"/>
+      <c r="I50" s="21"/>
+      <c r="J50" s="21"/>
+      <c r="K50" s="21"/>
+      <c r="L50" s="21"/>
+      <c r="M50" s="21"/>
+      <c r="N50" s="21"/>
+      <c r="O50" s="21"/>
+      <c r="P50" s="21"/>
+      <c r="Q50" s="21"/>
+    </row>
+    <row r="51" spans="1:17" s="14" customFormat="1">
+      <c r="A51" s="8"/>
+      <c r="B51" s="8"/>
+      <c r="C51" s="8"/>
+      <c r="D51" s="8"/>
+      <c r="E51" s="8"/>
+      <c r="F51" s="8"/>
+      <c r="G51" s="8"/>
+      <c r="H51" s="8"/>
+      <c r="I51" s="21"/>
+      <c r="J51" s="21"/>
+      <c r="K51" s="21"/>
+      <c r="L51" s="21"/>
+      <c r="M51" s="21"/>
+      <c r="N51" s="21"/>
+      <c r="O51" s="21"/>
+      <c r="P51" s="21"/>
+      <c r="Q51" s="21"/>
+    </row>
+    <row r="52" spans="1:17" s="14" customFormat="1">
+      <c r="A52" s="8"/>
+      <c r="B52" s="8"/>
+      <c r="C52" s="8"/>
+      <c r="D52" s="8"/>
+      <c r="E52" s="8"/>
+      <c r="F52" s="8"/>
+      <c r="G52" s="8"/>
+      <c r="H52" s="8"/>
+      <c r="I52" s="21"/>
+      <c r="J52" s="21"/>
+      <c r="K52" s="21"/>
+      <c r="L52" s="21"/>
+      <c r="M52" s="21"/>
+      <c r="N52" s="21"/>
+      <c r="O52" s="21"/>
+      <c r="P52" s="21"/>
+      <c r="Q52" s="21"/>
+    </row>
+    <row r="53" spans="1:17" s="14" customFormat="1">
+      <c r="A53" s="8"/>
+      <c r="B53" s="8"/>
+      <c r="C53" s="8"/>
+      <c r="D53" s="8"/>
+      <c r="E53" s="8"/>
+      <c r="F53" s="8"/>
+      <c r="G53" s="8"/>
+      <c r="H53" s="8"/>
+      <c r="I53" s="21"/>
+      <c r="J53" s="21"/>
+      <c r="K53" s="21"/>
+      <c r="L53" s="21"/>
+      <c r="M53" s="21"/>
+      <c r="N53" s="21"/>
+      <c r="O53" s="21"/>
+      <c r="P53" s="21"/>
+      <c r="Q53" s="21"/>
+    </row>
+    <row r="54" spans="1:17">
+      <c r="A54" s="8"/>
+      <c r="B54" s="8"/>
+      <c r="C54" s="8"/>
+      <c r="D54" s="8"/>
+      <c r="E54" s="8"/>
+      <c r="F54" s="8"/>
+      <c r="G54" s="8"/>
+      <c r="H54" s="8"/>
+      <c r="I54" s="21"/>
+      <c r="J54" s="21"/>
+      <c r="K54" s="21"/>
+      <c r="L54" s="21"/>
+      <c r="M54" s="21"/>
+      <c r="N54" s="21"/>
+      <c r="O54" s="21"/>
+      <c r="P54" s="21"/>
+      <c r="Q54" s="21"/>
+    </row>
+    <row r="55" spans="1:17">
+      <c r="A55" s="8"/>
+      <c r="B55" s="8"/>
+      <c r="C55" s="8"/>
+      <c r="D55" s="8"/>
+      <c r="E55" s="8"/>
+      <c r="F55" s="8"/>
+      <c r="G55" s="8"/>
+      <c r="H55" s="8"/>
+      <c r="I55" s="21"/>
+      <c r="J55" s="21"/>
+      <c r="K55" s="21"/>
+      <c r="L55" s="21"/>
+      <c r="M55" s="21"/>
+      <c r="N55" s="21"/>
+      <c r="O55" s="21"/>
+      <c r="P55" s="21"/>
+      <c r="Q55" s="21"/>
+    </row>
+    <row r="56" spans="1:17">
+      <c r="A56" s="8"/>
+      <c r="B56" s="8"/>
+      <c r="C56" s="8"/>
+      <c r="D56" s="8"/>
+      <c r="E56" s="8"/>
+      <c r="F56" s="8"/>
+      <c r="G56" s="8"/>
+      <c r="H56" s="8"/>
+      <c r="I56" s="21"/>
+      <c r="J56" s="21"/>
+      <c r="K56" s="21"/>
+      <c r="L56" s="21"/>
+      <c r="M56" s="21"/>
+      <c r="N56" s="21"/>
+      <c r="O56" s="21"/>
+      <c r="P56" s="21"/>
+      <c r="Q56" s="21"/>
+    </row>
+    <row r="57" spans="1:17">
+      <c r="A57" s="8"/>
+      <c r="B57" s="8"/>
+      <c r="C57" s="8"/>
+      <c r="D57" s="8"/>
+      <c r="E57" s="8"/>
+      <c r="F57" s="8"/>
+      <c r="G57" s="8"/>
+      <c r="H57" s="8"/>
+      <c r="I57" s="21"/>
+      <c r="J57" s="21"/>
+      <c r="K57" s="21"/>
+      <c r="L57" s="21"/>
+      <c r="M57" s="21"/>
+      <c r="N57" s="21"/>
+      <c r="O57" s="21"/>
+      <c r="P57" s="21"/>
+      <c r="Q57" s="21"/>
+    </row>
+    <row r="58" spans="1:17">
+      <c r="A58" s="8"/>
+      <c r="B58" s="8"/>
+      <c r="C58" s="8"/>
+      <c r="D58" s="8"/>
+      <c r="E58" s="8"/>
+      <c r="F58" s="8"/>
+      <c r="G58" s="8"/>
+      <c r="H58" s="8"/>
+      <c r="I58" s="21"/>
+      <c r="J58" s="21"/>
+      <c r="K58" s="21"/>
+      <c r="L58" s="21"/>
+      <c r="M58" s="21"/>
+      <c r="N58" s="21"/>
+      <c r="O58" s="21"/>
+      <c r="P58" s="21"/>
+      <c r="Q58" s="21"/>
+    </row>
+    <row r="59" spans="1:17">
+      <c r="A59" s="8"/>
+      <c r="B59" s="8"/>
+      <c r="C59" s="8"/>
+      <c r="D59" s="8"/>
+      <c r="E59" s="8"/>
+      <c r="F59" s="8"/>
+      <c r="G59" s="8"/>
+      <c r="H59" s="8"/>
+      <c r="I59" s="21"/>
+      <c r="J59" s="21"/>
+      <c r="K59" s="21"/>
+      <c r="L59" s="21"/>
+      <c r="M59" s="21"/>
+      <c r="N59" s="21"/>
+      <c r="O59" s="21"/>
+      <c r="P59" s="21"/>
+      <c r="Q59" s="21"/>
+    </row>
+    <row r="60" spans="1:17">
+      <c r="A60" s="8"/>
+      <c r="B60" s="8"/>
+      <c r="C60" s="8"/>
+      <c r="D60" s="8"/>
+      <c r="E60" s="8"/>
+      <c r="F60" s="8"/>
+      <c r="G60" s="8"/>
+      <c r="H60" s="8"/>
+      <c r="I60" s="21"/>
+      <c r="J60" s="21"/>
+      <c r="K60" s="21"/>
+      <c r="L60" s="21"/>
+      <c r="M60" s="21"/>
+      <c r="N60" s="21"/>
+      <c r="O60" s="21"/>
+      <c r="P60" s="21"/>
+      <c r="Q60" s="21"/>
+    </row>
+    <row r="61" spans="1:17">
+      <c r="A61" s="8"/>
+      <c r="B61" s="8"/>
+      <c r="C61" s="8"/>
+      <c r="D61" s="8"/>
+      <c r="E61" s="8"/>
+      <c r="F61" s="8"/>
+      <c r="G61" s="8"/>
+      <c r="H61" s="8"/>
+      <c r="I61" s="21"/>
+      <c r="J61" s="21"/>
+      <c r="K61" s="21"/>
+      <c r="L61" s="21"/>
+      <c r="M61" s="21"/>
+      <c r="N61" s="21"/>
+      <c r="O61" s="21"/>
+      <c r="P61" s="21"/>
+      <c r="Q61" s="21"/>
+    </row>
+    <row r="62" spans="1:17">
+      <c r="A62" s="8"/>
+      <c r="B62" s="8"/>
+      <c r="C62" s="8"/>
+      <c r="D62" s="8"/>
+      <c r="E62" s="8"/>
+      <c r="F62" s="8"/>
+      <c r="G62" s="8"/>
+      <c r="H62" s="8"/>
+      <c r="I62" s="21"/>
+      <c r="J62" s="21"/>
+      <c r="K62" s="21"/>
+      <c r="L62" s="21"/>
+      <c r="M62" s="21"/>
+      <c r="N62" s="21"/>
+      <c r="O62" s="21"/>
+      <c r="P62" s="21"/>
+      <c r="Q62" s="21"/>
+    </row>
+    <row r="63" spans="1:17">
+      <c r="A63" s="8"/>
+      <c r="B63" s="8"/>
+      <c r="C63" s="8"/>
+      <c r="D63" s="8"/>
+      <c r="E63" s="8"/>
+      <c r="F63" s="8"/>
+      <c r="G63" s="8"/>
+      <c r="H63" s="8"/>
+      <c r="I63" s="21"/>
+      <c r="J63" s="21"/>
+      <c r="K63" s="21"/>
+      <c r="L63" s="21"/>
+      <c r="M63" s="21"/>
+      <c r="N63" s="21"/>
+      <c r="O63" s="21"/>
+      <c r="P63" s="21"/>
+      <c r="Q63" s="21"/>
+    </row>
+    <row r="64" spans="1:17">
+      <c r="A64" s="8"/>
+      <c r="B64" s="8"/>
+      <c r="C64" s="8"/>
+      <c r="D64" s="8"/>
+      <c r="E64" s="8"/>
+      <c r="F64" s="8"/>
+      <c r="G64" s="8"/>
+      <c r="H64" s="8"/>
+      <c r="I64" s="21"/>
+      <c r="J64" s="21"/>
+      <c r="K64" s="21"/>
+      <c r="L64" s="21"/>
+      <c r="M64" s="21"/>
+      <c r="N64" s="21"/>
+      <c r="O64" s="21"/>
+      <c r="P64" s="21"/>
+      <c r="Q64" s="21"/>
+    </row>
+    <row r="65" spans="1:17">
+      <c r="A65" s="8"/>
+      <c r="B65" s="8"/>
+      <c r="C65" s="8"/>
+      <c r="D65" s="8"/>
+      <c r="E65" s="8"/>
+      <c r="F65" s="8"/>
+      <c r="G65" s="8"/>
+      <c r="H65" s="8"/>
+      <c r="I65" s="21"/>
+      <c r="J65" s="21"/>
+      <c r="K65" s="21"/>
+      <c r="L65" s="21"/>
+      <c r="M65" s="21"/>
+      <c r="N65" s="21"/>
+      <c r="O65" s="21"/>
+      <c r="P65" s="21"/>
+      <c r="Q65" s="21"/>
+    </row>
+    <row r="66" spans="1:17">
+      <c r="A66" s="8"/>
+      <c r="B66" s="8"/>
+      <c r="C66" s="8"/>
+      <c r="D66" s="8"/>
+      <c r="E66" s="8"/>
+      <c r="F66" s="8"/>
+      <c r="G66" s="8"/>
+      <c r="H66" s="8"/>
+      <c r="I66" s="21"/>
+      <c r="J66" s="21"/>
+      <c r="K66" s="21"/>
+      <c r="L66" s="21"/>
+      <c r="M66" s="21"/>
+      <c r="N66" s="21"/>
+      <c r="O66" s="21"/>
+      <c r="P66" s="21"/>
+      <c r="Q66" s="21"/>
+    </row>
+    <row r="67" spans="1:17">
+      <c r="A67" s="8"/>
+      <c r="B67" s="8"/>
+      <c r="C67" s="8"/>
+      <c r="D67" s="8"/>
+      <c r="E67" s="8"/>
+      <c r="F67" s="8"/>
+      <c r="G67" s="8"/>
+      <c r="H67" s="8"/>
+      <c r="I67" s="21"/>
+      <c r="J67" s="21"/>
+      <c r="K67" s="21"/>
+      <c r="L67" s="21"/>
+      <c r="M67" s="21"/>
+      <c r="N67" s="21"/>
+      <c r="O67" s="21"/>
+      <c r="P67" s="21"/>
+      <c r="Q67" s="21"/>
+    </row>
+    <row r="68" spans="1:17">
+      <c r="A68" s="8"/>
+      <c r="B68" s="8"/>
+      <c r="C68" s="8"/>
+      <c r="D68" s="8"/>
+      <c r="E68" s="8"/>
+      <c r="F68" s="8"/>
+      <c r="G68" s="8"/>
+      <c r="H68" s="8"/>
+      <c r="I68" s="21"/>
+      <c r="J68" s="21"/>
+      <c r="K68" s="21"/>
+      <c r="L68" s="21"/>
+      <c r="M68" s="21"/>
+      <c r="N68" s="21"/>
+      <c r="O68" s="21"/>
+      <c r="P68" s="21"/>
+      <c r="Q68" s="21"/>
+    </row>
+    <row r="69" spans="1:17">
+      <c r="A69" s="8"/>
+      <c r="B69" s="8"/>
+      <c r="C69" s="8"/>
+      <c r="D69" s="8"/>
+      <c r="E69" s="8"/>
+      <c r="F69" s="8"/>
+      <c r="G69" s="8"/>
+      <c r="H69" s="8"/>
+      <c r="I69" s="21"/>
+      <c r="J69" s="21"/>
+      <c r="K69" s="21"/>
+      <c r="L69" s="21"/>
+      <c r="M69" s="21"/>
+      <c r="N69" s="21"/>
+      <c r="O69" s="21"/>
+      <c r="P69" s="21"/>
+      <c r="Q69" s="21"/>
+    </row>
+    <row r="70" spans="1:17">
+      <c r="A70" s="8"/>
+      <c r="B70" s="8"/>
+      <c r="C70" s="8"/>
+      <c r="D70" s="8"/>
+      <c r="E70" s="8"/>
+      <c r="F70" s="8"/>
+      <c r="G70" s="8"/>
+      <c r="H70" s="8"/>
+      <c r="I70" s="21"/>
+      <c r="J70" s="21"/>
+      <c r="K70" s="21"/>
+      <c r="L70" s="21"/>
+      <c r="M70" s="21"/>
+      <c r="N70" s="21"/>
+      <c r="O70" s="21"/>
+      <c r="P70" s="21"/>
+      <c r="Q70" s="21"/>
+    </row>
+    <row r="71" spans="1:17">
+      <c r="A71" s="8"/>
+      <c r="B71" s="8"/>
+      <c r="C71" s="8"/>
+      <c r="D71" s="8"/>
+      <c r="E71" s="8"/>
+      <c r="F71" s="8"/>
+      <c r="G71" s="8"/>
+      <c r="H71" s="8"/>
+      <c r="I71" s="21"/>
+      <c r="J71" s="21"/>
+      <c r="K71" s="21"/>
+      <c r="L71" s="21"/>
+      <c r="M71" s="21"/>
+      <c r="N71" s="21"/>
+      <c r="O71" s="21"/>
+      <c r="P71" s="21"/>
+      <c r="Q71" s="21"/>
+    </row>
+    <row r="72" spans="1:17">
+      <c r="A72" s="9"/>
+      <c r="B72" s="9"/>
+      <c r="C72" s="9"/>
+      <c r="D72" s="9"/>
+      <c r="E72" s="9"/>
+      <c r="F72" s="9"/>
+      <c r="G72" s="9"/>
+      <c r="H72" s="9"/>
+      <c r="I72" s="22"/>
+      <c r="J72" s="22"/>
+      <c r="K72" s="22"/>
+      <c r="L72" s="22"/>
+      <c r="M72" s="22"/>
+      <c r="N72" s="22"/>
+      <c r="O72" s="22"/>
+      <c r="P72" s="22"/>
+      <c r="Q72" s="22"/>
+    </row>
+    <row r="73" spans="1:17">
+      <c r="A73" s="9"/>
+      <c r="B73" s="9"/>
+      <c r="C73" s="9"/>
+      <c r="D73" s="9"/>
+      <c r="E73" s="9"/>
+      <c r="F73" s="9"/>
+      <c r="G73" s="9"/>
+      <c r="H73" s="9"/>
+      <c r="I73" s="22"/>
+      <c r="J73" s="22"/>
+      <c r="K73" s="22"/>
+      <c r="L73" s="22"/>
+      <c r="M73" s="22"/>
+      <c r="N73" s="22"/>
+      <c r="O73" s="22"/>
+      <c r="P73" s="22"/>
+      <c r="Q73" s="22"/>
+    </row>
+  </sheetData>
+  <mergeCells count="9">
+    <mergeCell ref="A1:B1"/>
+    <mergeCell ref="C1:E1"/>
+    <mergeCell ref="F1:G1"/>
+    <mergeCell ref="I1:Q1"/>
+    <mergeCell ref="A2:B2"/>
+    <mergeCell ref="C2:H2"/>
+    <mergeCell ref="I2:K2"/>
+    <mergeCell ref="L2:N2"/>
+    <mergeCell ref="O2:Q2"/>
+  </mergeCells>
+  <phoneticPr fontId="10"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="landscape" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr>
+    <tabColor theme="5" tint="0.39997558519241921"/>
+  </sheetPr>
+  <dimension ref="A1:Q73"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="H8" sqref="H8"/>
@@ -7646,60 +10917,60 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:17" ht="18" customHeight="1" thickBot="1">
-      <c r="A1" s="33" t="s">
-        <v>34</v>
-      </c>
-      <c r="B1" s="34"/>
-      <c r="C1" s="35" t="s">
-        <v>70</v>
-      </c>
-      <c r="D1" s="35"/>
-      <c r="E1" s="36"/>
-      <c r="F1" s="33" t="s">
+      <c r="A1" s="32" t="s">
+        <v>33</v>
+      </c>
+      <c r="B1" s="33"/>
+      <c r="C1" s="34" t="s">
+        <v>178</v>
+      </c>
+      <c r="D1" s="34"/>
+      <c r="E1" s="35"/>
+      <c r="F1" s="32" t="s">
         <v>11</v>
       </c>
-      <c r="G1" s="34"/>
+      <c r="G1" s="33"/>
       <c r="H1" s="3"/>
-      <c r="I1" s="42" t="s">
+      <c r="I1" s="41" t="s">
         <v>28</v>
       </c>
-      <c r="J1" s="43"/>
-      <c r="K1" s="43"/>
-      <c r="L1" s="43"/>
-      <c r="M1" s="43"/>
-      <c r="N1" s="43"/>
-      <c r="O1" s="43"/>
-      <c r="P1" s="43"/>
-      <c r="Q1" s="44"/>
+      <c r="J1" s="42"/>
+      <c r="K1" s="42"/>
+      <c r="L1" s="42"/>
+      <c r="M1" s="42"/>
+      <c r="N1" s="42"/>
+      <c r="O1" s="42"/>
+      <c r="P1" s="42"/>
+      <c r="Q1" s="43"/>
     </row>
     <row r="2" spans="1:17" ht="18" customHeight="1" thickBot="1">
-      <c r="A2" s="37" t="s">
+      <c r="A2" s="36" t="s">
         <v>5</v>
       </c>
-      <c r="B2" s="38"/>
-      <c r="C2" s="39" t="s">
-        <v>71</v>
-      </c>
-      <c r="D2" s="39"/>
-      <c r="E2" s="39"/>
-      <c r="F2" s="39"/>
-      <c r="G2" s="39"/>
-      <c r="H2" s="39"/>
-      <c r="I2" s="40" t="s">
+      <c r="B2" s="37"/>
+      <c r="C2" s="38" t="s">
+        <v>179</v>
+      </c>
+      <c r="D2" s="38"/>
+      <c r="E2" s="38"/>
+      <c r="F2" s="38"/>
+      <c r="G2" s="38"/>
+      <c r="H2" s="38"/>
+      <c r="I2" s="39" t="s">
         <v>12</v>
       </c>
-      <c r="J2" s="41"/>
-      <c r="K2" s="30"/>
-      <c r="L2" s="30" t="s">
+      <c r="J2" s="40"/>
+      <c r="K2" s="29"/>
+      <c r="L2" s="29" t="s">
         <v>15</v>
       </c>
-      <c r="M2" s="30"/>
-      <c r="N2" s="30"/>
-      <c r="O2" s="30" t="s">
+      <c r="M2" s="29"/>
+      <c r="N2" s="29"/>
+      <c r="O2" s="29" t="s">
         <v>16</v>
       </c>
-      <c r="P2" s="31"/>
-      <c r="Q2" s="32"/>
+      <c r="P2" s="30"/>
+      <c r="Q2" s="31"/>
     </row>
     <row r="3" spans="1:17">
       <c r="A3" s="5" t="s">
@@ -7760,7 +11031,7 @@
         <v>3</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="D4" s="1"/>
       <c r="E4" s="1" t="s">
@@ -7773,7 +11044,7 @@
         <v>8</v>
       </c>
       <c r="H4" s="1" t="s">
-        <v>31</v>
+        <v>180</v>
       </c>
       <c r="I4" s="16"/>
       <c r="J4" s="16"/>
@@ -7807,17 +11078,17 @@
     <row r="6" spans="1:17" s="14" customFormat="1">
       <c r="A6" s="7"/>
       <c r="B6" s="1" t="s">
-        <v>33</v>
+        <v>137</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>37</v>
+        <v>138</v>
       </c>
       <c r="D6" s="1"/>
       <c r="E6" s="1"/>
       <c r="F6" s="2"/>
       <c r="G6" s="2"/>
       <c r="H6" s="1" t="s">
-        <v>32</v>
+        <v>151</v>
       </c>
       <c r="I6" s="16"/>
       <c r="J6" s="16"/>
@@ -7832,22 +11103,20 @@
     <row r="7" spans="1:17" s="14" customFormat="1">
       <c r="A7" s="7"/>
       <c r="B7" s="1" t="s">
-        <v>72</v>
+        <v>134</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>73</v>
-      </c>
-      <c r="D7" s="1">
-        <v>255</v>
-      </c>
+        <v>36</v>
+      </c>
+      <c r="D7" s="1"/>
       <c r="E7" s="1"/>
       <c r="F7" s="2"/>
       <c r="G7" s="2"/>
       <c r="H7" s="1" t="s">
-        <v>74</v>
-      </c>
-      <c r="I7" s="18"/>
-      <c r="J7" s="18"/>
+        <v>135</v>
+      </c>
+      <c r="I7" s="17"/>
+      <c r="J7" s="17"/>
       <c r="K7" s="18"/>
       <c r="L7" s="16"/>
       <c r="M7" s="16"/>
@@ -7858,13 +11127,19 @@
     </row>
     <row r="8" spans="1:17" s="14" customFormat="1">
       <c r="A8" s="7"/>
-      <c r="B8" s="27"/>
-      <c r="C8" s="27"/>
-      <c r="D8" s="27"/>
-      <c r="E8" s="27"/>
-      <c r="F8" s="28"/>
-      <c r="G8" s="28"/>
-      <c r="H8" s="27"/>
+      <c r="B8" s="1" t="s">
+        <v>140</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="D8" s="1"/>
+      <c r="E8" s="1"/>
+      <c r="F8" s="2"/>
+      <c r="G8" s="2"/>
+      <c r="H8" s="1" t="s">
+        <v>136</v>
+      </c>
       <c r="I8" s="18"/>
       <c r="J8" s="18"/>
       <c r="K8" s="18"/>
@@ -7877,9 +11152,9 @@
     </row>
     <row r="9" spans="1:17" s="14" customFormat="1">
       <c r="A9" s="7"/>
-      <c r="B9" s="1"/>
-      <c r="C9" s="1"/>
-      <c r="D9" s="1"/>
+      <c r="B9" s="26"/>
+      <c r="C9" s="26"/>
+      <c r="D9" s="26"/>
       <c r="E9" s="1"/>
       <c r="F9" s="2"/>
       <c r="G9" s="2"/>
@@ -7895,52 +11170,52 @@
       <c r="Q9" s="16"/>
     </row>
     <row r="10" spans="1:17" s="14" customFormat="1">
-      <c r="A10" s="10"/>
+      <c r="A10" s="7"/>
       <c r="B10" s="1"/>
       <c r="C10" s="1"/>
       <c r="D10" s="1"/>
-      <c r="E10" s="10"/>
-      <c r="F10" s="24"/>
-      <c r="G10" s="24"/>
-      <c r="H10" s="12"/>
-      <c r="I10" s="19"/>
-      <c r="J10" s="19"/>
-      <c r="K10" s="19"/>
-      <c r="L10" s="19"/>
-      <c r="M10" s="19"/>
-      <c r="N10" s="19"/>
-      <c r="O10" s="19"/>
-      <c r="P10" s="19"/>
-      <c r="Q10" s="19"/>
+      <c r="E10" s="7"/>
+      <c r="F10" s="2"/>
+      <c r="G10" s="25"/>
+      <c r="H10" s="1"/>
+      <c r="I10" s="18"/>
+      <c r="J10" s="18"/>
+      <c r="K10" s="18"/>
+      <c r="L10" s="16"/>
+      <c r="M10" s="16"/>
+      <c r="N10" s="16"/>
+      <c r="O10" s="16"/>
+      <c r="P10" s="16"/>
+      <c r="Q10" s="16"/>
     </row>
     <row r="11" spans="1:17" s="14" customFormat="1">
-      <c r="A11" s="7"/>
-      <c r="B11" s="1"/>
+      <c r="A11" s="10"/>
+      <c r="B11" s="4"/>
       <c r="C11" s="1"/>
       <c r="D11" s="1"/>
       <c r="E11" s="10"/>
       <c r="F11" s="24"/>
       <c r="G11" s="24"/>
       <c r="H11" s="12"/>
-      <c r="I11" s="17"/>
-      <c r="J11" s="17"/>
-      <c r="K11" s="16"/>
-      <c r="L11" s="16"/>
-      <c r="M11" s="16"/>
-      <c r="N11" s="16"/>
-      <c r="O11" s="16"/>
-      <c r="P11" s="16"/>
-      <c r="Q11" s="16"/>
+      <c r="I11" s="19"/>
+      <c r="J11" s="19"/>
+      <c r="K11" s="19"/>
+      <c r="L11" s="19"/>
+      <c r="M11" s="19"/>
+      <c r="N11" s="19"/>
+      <c r="O11" s="19"/>
+      <c r="P11" s="19"/>
+      <c r="Q11" s="19"/>
     </row>
     <row r="12" spans="1:17" s="14" customFormat="1">
       <c r="A12" s="7"/>
       <c r="B12" s="1"/>
       <c r="C12" s="1"/>
       <c r="D12" s="1"/>
-      <c r="E12" s="10"/>
-      <c r="F12" s="24"/>
-      <c r="G12" s="24"/>
-      <c r="H12" s="12"/>
+      <c r="E12" s="1"/>
+      <c r="F12" s="2"/>
+      <c r="G12" s="25"/>
+      <c r="H12" s="1"/>
       <c r="I12" s="17"/>
       <c r="J12" s="17"/>
       <c r="K12" s="16"/>
@@ -7956,16 +11231,16 @@
       <c r="B13" s="1"/>
       <c r="C13" s="1"/>
       <c r="D13" s="1"/>
-      <c r="E13" s="10"/>
-      <c r="F13" s="24"/>
-      <c r="G13" s="24"/>
-      <c r="H13" s="12"/>
-      <c r="I13" s="17"/>
-      <c r="J13" s="17"/>
+      <c r="E13" s="1"/>
+      <c r="F13" s="2"/>
+      <c r="G13" s="2"/>
+      <c r="H13" s="1"/>
+      <c r="I13" s="18"/>
+      <c r="J13" s="18"/>
       <c r="K13" s="18"/>
-      <c r="L13" s="18"/>
-      <c r="M13" s="18"/>
-      <c r="N13" s="18"/>
+      <c r="L13" s="16"/>
+      <c r="M13" s="16"/>
+      <c r="N13" s="16"/>
       <c r="O13" s="16"/>
       <c r="P13" s="16"/>
       <c r="Q13" s="16"/>
@@ -7978,10 +11253,10 @@
       <c r="E14" s="1"/>
       <c r="F14" s="2"/>
       <c r="G14" s="25"/>
-      <c r="H14" s="12"/>
-      <c r="I14" s="18"/>
-      <c r="J14" s="18"/>
-      <c r="K14" s="18"/>
+      <c r="H14" s="1"/>
+      <c r="I14" s="17"/>
+      <c r="J14" s="17"/>
+      <c r="K14" s="16"/>
       <c r="L14" s="16"/>
       <c r="M14" s="16"/>
       <c r="N14" s="16"/>
@@ -7998,8 +11273,8 @@
       <c r="F15" s="2"/>
       <c r="G15" s="25"/>
       <c r="H15" s="1"/>
-      <c r="I15" s="16"/>
-      <c r="J15" s="16"/>
+      <c r="I15" s="17"/>
+      <c r="J15" s="17"/>
       <c r="K15" s="16"/>
       <c r="L15" s="16"/>
       <c r="M15" s="16"/>
@@ -8017,12 +11292,12 @@
       <c r="F16" s="2"/>
       <c r="G16" s="25"/>
       <c r="H16" s="1"/>
-      <c r="I16" s="16"/>
-      <c r="J16" s="16"/>
-      <c r="K16" s="16"/>
-      <c r="L16" s="16"/>
-      <c r="M16" s="16"/>
-      <c r="N16" s="16"/>
+      <c r="I16" s="17"/>
+      <c r="J16" s="17"/>
+      <c r="K16" s="18"/>
+      <c r="L16" s="18"/>
+      <c r="M16" s="18"/>
+      <c r="N16" s="18"/>
       <c r="O16" s="16"/>
       <c r="P16" s="16"/>
       <c r="Q16" s="16"/>
@@ -8036,9 +11311,9 @@
       <c r="F17" s="2"/>
       <c r="G17" s="25"/>
       <c r="H17" s="1"/>
-      <c r="I17" s="16"/>
-      <c r="J17" s="16"/>
-      <c r="K17" s="16"/>
+      <c r="I17" s="18"/>
+      <c r="J17" s="18"/>
+      <c r="K17" s="18"/>
       <c r="L17" s="16"/>
       <c r="M17" s="16"/>
       <c r="N17" s="16"/>
@@ -8055,8 +11330,8 @@
       <c r="F18" s="2"/>
       <c r="G18" s="25"/>
       <c r="H18" s="1"/>
-      <c r="I18" s="17"/>
-      <c r="J18" s="17"/>
+      <c r="I18" s="16"/>
+      <c r="J18" s="16"/>
       <c r="K18" s="16"/>
       <c r="L18" s="16"/>
       <c r="M18" s="16"/>
@@ -8074,11 +11349,11 @@
       <c r="F19" s="2"/>
       <c r="G19" s="25"/>
       <c r="H19" s="1"/>
-      <c r="I19" s="17"/>
-      <c r="J19" s="17"/>
+      <c r="I19" s="16"/>
+      <c r="J19" s="16"/>
       <c r="K19" s="16"/>
-      <c r="L19" s="20"/>
-      <c r="M19" s="20"/>
+      <c r="L19" s="16"/>
+      <c r="M19" s="16"/>
       <c r="N19" s="16"/>
       <c r="O19" s="16"/>
       <c r="P19" s="16"/>
@@ -8093,11 +11368,11 @@
       <c r="F20" s="2"/>
       <c r="G20" s="25"/>
       <c r="H20" s="1"/>
-      <c r="I20" s="17"/>
-      <c r="J20" s="17"/>
+      <c r="I20" s="16"/>
+      <c r="J20" s="16"/>
       <c r="K20" s="16"/>
-      <c r="L20" s="20"/>
-      <c r="M20" s="20"/>
+      <c r="L20" s="16"/>
+      <c r="M20" s="16"/>
       <c r="N20" s="16"/>
       <c r="O20" s="16"/>
       <c r="P20" s="16"/>
@@ -8134,8 +11409,8 @@
       <c r="I22" s="17"/>
       <c r="J22" s="17"/>
       <c r="K22" s="16"/>
-      <c r="L22" s="16"/>
-      <c r="M22" s="16"/>
+      <c r="L22" s="20"/>
+      <c r="M22" s="20"/>
       <c r="N22" s="16"/>
       <c r="O22" s="16"/>
       <c r="P22" s="16"/>
@@ -8153,8 +11428,8 @@
       <c r="I23" s="17"/>
       <c r="J23" s="17"/>
       <c r="K23" s="16"/>
-      <c r="L23" s="16"/>
-      <c r="M23" s="16"/>
+      <c r="L23" s="20"/>
+      <c r="M23" s="20"/>
       <c r="N23" s="16"/>
       <c r="O23" s="16"/>
       <c r="P23" s="16"/>
@@ -8165,15 +11440,15 @@
       <c r="B24" s="1"/>
       <c r="C24" s="1"/>
       <c r="D24" s="1"/>
-      <c r="E24" s="7"/>
-      <c r="F24" s="25"/>
+      <c r="E24" s="1"/>
+      <c r="F24" s="2"/>
       <c r="G24" s="25"/>
       <c r="H24" s="1"/>
       <c r="I24" s="17"/>
       <c r="J24" s="17"/>
       <c r="K24" s="16"/>
-      <c r="L24" s="20"/>
-      <c r="M24" s="20"/>
+      <c r="L24" s="16"/>
+      <c r="M24" s="16"/>
       <c r="N24" s="16"/>
       <c r="O24" s="16"/>
       <c r="P24" s="16"/>
@@ -8184,8 +11459,8 @@
       <c r="B25" s="1"/>
       <c r="C25" s="1"/>
       <c r="D25" s="1"/>
-      <c r="E25" s="7"/>
-      <c r="F25" s="25"/>
+      <c r="E25" s="1"/>
+      <c r="F25" s="2"/>
       <c r="G25" s="25"/>
       <c r="H25" s="1"/>
       <c r="I25" s="17"/>
@@ -8203,8 +11478,8 @@
       <c r="B26" s="1"/>
       <c r="C26" s="1"/>
       <c r="D26" s="1"/>
-      <c r="E26" s="7"/>
-      <c r="F26" s="25"/>
+      <c r="E26" s="1"/>
+      <c r="F26" s="2"/>
       <c r="G26" s="25"/>
       <c r="H26" s="1"/>
       <c r="I26" s="17"/>
@@ -8213,8 +11488,8 @@
       <c r="L26" s="16"/>
       <c r="M26" s="16"/>
       <c r="N26" s="16"/>
-      <c r="O26" s="20"/>
-      <c r="P26" s="20"/>
+      <c r="O26" s="16"/>
+      <c r="P26" s="16"/>
       <c r="Q26" s="16"/>
     </row>
     <row r="27" spans="1:17" s="14" customFormat="1">
@@ -8222,15 +11497,15 @@
       <c r="B27" s="1"/>
       <c r="C27" s="1"/>
       <c r="D27" s="1"/>
-      <c r="E27" s="1"/>
-      <c r="F27" s="2"/>
+      <c r="E27" s="7"/>
+      <c r="F27" s="25"/>
       <c r="G27" s="25"/>
       <c r="H27" s="1"/>
       <c r="I27" s="17"/>
       <c r="J27" s="17"/>
       <c r="K27" s="16"/>
-      <c r="L27" s="16"/>
-      <c r="M27" s="16"/>
+      <c r="L27" s="20"/>
+      <c r="M27" s="20"/>
       <c r="N27" s="16"/>
       <c r="O27" s="16"/>
       <c r="P27" s="16"/>
@@ -8241,15 +11516,15 @@
       <c r="B28" s="1"/>
       <c r="C28" s="1"/>
       <c r="D28" s="1"/>
-      <c r="E28" s="1"/>
-      <c r="F28" s="2"/>
+      <c r="E28" s="7"/>
+      <c r="F28" s="25"/>
       <c r="G28" s="25"/>
       <c r="H28" s="1"/>
       <c r="I28" s="17"/>
       <c r="J28" s="17"/>
       <c r="K28" s="16"/>
-      <c r="L28" s="20"/>
-      <c r="M28" s="20"/>
+      <c r="L28" s="16"/>
+      <c r="M28" s="16"/>
       <c r="N28" s="16"/>
       <c r="O28" s="16"/>
       <c r="P28" s="16"/>
@@ -8264,14 +11539,14 @@
       <c r="F29" s="25"/>
       <c r="G29" s="25"/>
       <c r="H29" s="1"/>
-      <c r="I29" s="16"/>
-      <c r="J29" s="16"/>
+      <c r="I29" s="17"/>
+      <c r="J29" s="17"/>
       <c r="K29" s="16"/>
       <c r="L29" s="16"/>
       <c r="M29" s="16"/>
       <c r="N29" s="16"/>
-      <c r="O29" s="16"/>
-      <c r="P29" s="16"/>
+      <c r="O29" s="20"/>
+      <c r="P29" s="20"/>
       <c r="Q29" s="16"/>
     </row>
     <row r="30" spans="1:17" s="14" customFormat="1">
@@ -8279,12 +11554,12 @@
       <c r="B30" s="1"/>
       <c r="C30" s="1"/>
       <c r="D30" s="1"/>
-      <c r="E30" s="7"/>
-      <c r="F30" s="25"/>
+      <c r="E30" s="1"/>
+      <c r="F30" s="2"/>
       <c r="G30" s="25"/>
       <c r="H30" s="1"/>
-      <c r="I30" s="16"/>
-      <c r="J30" s="16"/>
+      <c r="I30" s="17"/>
+      <c r="J30" s="17"/>
       <c r="K30" s="16"/>
       <c r="L30" s="16"/>
       <c r="M30" s="16"/>
@@ -8298,15 +11573,15 @@
       <c r="B31" s="1"/>
       <c r="C31" s="1"/>
       <c r="D31" s="1"/>
-      <c r="E31" s="7"/>
-      <c r="F31" s="25"/>
+      <c r="E31" s="1"/>
+      <c r="F31" s="2"/>
       <c r="G31" s="25"/>
       <c r="H31" s="1"/>
-      <c r="I31" s="16"/>
-      <c r="J31" s="16"/>
+      <c r="I31" s="17"/>
+      <c r="J31" s="17"/>
       <c r="K31" s="16"/>
-      <c r="L31" s="16"/>
-      <c r="M31" s="16"/>
+      <c r="L31" s="20"/>
+      <c r="M31" s="20"/>
       <c r="N31" s="16"/>
       <c r="O31" s="16"/>
       <c r="P31" s="16"/>
@@ -8333,13 +11608,13 @@
     </row>
     <row r="33" spans="1:17" s="14" customFormat="1">
       <c r="A33" s="7"/>
-      <c r="B33" s="7"/>
-      <c r="C33" s="7"/>
-      <c r="D33" s="7"/>
+      <c r="B33" s="1"/>
+      <c r="C33" s="1"/>
+      <c r="D33" s="1"/>
       <c r="E33" s="7"/>
       <c r="F33" s="25"/>
       <c r="G33" s="25"/>
-      <c r="H33" s="7"/>
+      <c r="H33" s="1"/>
       <c r="I33" s="16"/>
       <c r="J33" s="16"/>
       <c r="K33" s="16"/>
@@ -8351,61 +11626,61 @@
       <c r="Q33" s="16"/>
     </row>
     <row r="34" spans="1:17" s="14" customFormat="1">
-      <c r="A34" s="8"/>
-      <c r="B34" s="8"/>
-      <c r="C34" s="8"/>
-      <c r="D34" s="8"/>
-      <c r="E34" s="8"/>
-      <c r="F34" s="8"/>
-      <c r="G34" s="8"/>
-      <c r="H34" s="8"/>
-      <c r="I34" s="21"/>
-      <c r="J34" s="21"/>
-      <c r="K34" s="21"/>
-      <c r="L34" s="21"/>
-      <c r="M34" s="21"/>
-      <c r="N34" s="21"/>
-      <c r="O34" s="21"/>
-      <c r="P34" s="21"/>
-      <c r="Q34" s="21"/>
+      <c r="A34" s="7"/>
+      <c r="B34" s="1"/>
+      <c r="C34" s="1"/>
+      <c r="D34" s="1"/>
+      <c r="E34" s="7"/>
+      <c r="F34" s="25"/>
+      <c r="G34" s="25"/>
+      <c r="H34" s="1"/>
+      <c r="I34" s="16"/>
+      <c r="J34" s="16"/>
+      <c r="K34" s="16"/>
+      <c r="L34" s="16"/>
+      <c r="M34" s="16"/>
+      <c r="N34" s="16"/>
+      <c r="O34" s="16"/>
+      <c r="P34" s="16"/>
+      <c r="Q34" s="16"/>
     </row>
     <row r="35" spans="1:17" s="14" customFormat="1">
-      <c r="A35" s="8"/>
-      <c r="B35" s="8"/>
-      <c r="C35" s="8"/>
-      <c r="D35" s="8"/>
-      <c r="E35" s="8"/>
-      <c r="F35" s="8"/>
-      <c r="G35" s="8"/>
-      <c r="H35" s="8"/>
-      <c r="I35" s="21"/>
-      <c r="J35" s="21"/>
-      <c r="K35" s="21"/>
-      <c r="L35" s="21"/>
-      <c r="M35" s="21"/>
-      <c r="N35" s="21"/>
-      <c r="O35" s="21"/>
-      <c r="P35" s="21"/>
-      <c r="Q35" s="21"/>
+      <c r="A35" s="7"/>
+      <c r="B35" s="1"/>
+      <c r="C35" s="1"/>
+      <c r="D35" s="1"/>
+      <c r="E35" s="7"/>
+      <c r="F35" s="25"/>
+      <c r="G35" s="25"/>
+      <c r="H35" s="1"/>
+      <c r="I35" s="16"/>
+      <c r="J35" s="16"/>
+      <c r="K35" s="16"/>
+      <c r="L35" s="16"/>
+      <c r="M35" s="16"/>
+      <c r="N35" s="16"/>
+      <c r="O35" s="16"/>
+      <c r="P35" s="16"/>
+      <c r="Q35" s="16"/>
     </row>
     <row r="36" spans="1:17" s="14" customFormat="1">
-      <c r="A36" s="8"/>
-      <c r="B36" s="8"/>
-      <c r="C36" s="8"/>
-      <c r="D36" s="8"/>
-      <c r="E36" s="8"/>
-      <c r="F36" s="8"/>
-      <c r="G36" s="8"/>
-      <c r="H36" s="8"/>
-      <c r="I36" s="21"/>
-      <c r="J36" s="21"/>
-      <c r="K36" s="21"/>
-      <c r="L36" s="21"/>
-      <c r="M36" s="21"/>
-      <c r="N36" s="21"/>
-      <c r="O36" s="21"/>
-      <c r="P36" s="21"/>
-      <c r="Q36" s="21"/>
+      <c r="A36" s="7"/>
+      <c r="B36" s="7"/>
+      <c r="C36" s="7"/>
+      <c r="D36" s="7"/>
+      <c r="E36" s="7"/>
+      <c r="F36" s="25"/>
+      <c r="G36" s="25"/>
+      <c r="H36" s="7"/>
+      <c r="I36" s="16"/>
+      <c r="J36" s="16"/>
+      <c r="K36" s="16"/>
+      <c r="L36" s="16"/>
+      <c r="M36" s="16"/>
+      <c r="N36" s="16"/>
+      <c r="O36" s="16"/>
+      <c r="P36" s="16"/>
+      <c r="Q36" s="16"/>
     </row>
     <row r="37" spans="1:17" s="14" customFormat="1">
       <c r="A37" s="8"/>
@@ -8673,7 +11948,7 @@
       <c r="P50" s="21"/>
       <c r="Q50" s="21"/>
     </row>
-    <row r="51" spans="1:17">
+    <row r="51" spans="1:17" s="14" customFormat="1">
       <c r="A51" s="8"/>
       <c r="B51" s="8"/>
       <c r="C51" s="8"/>
@@ -8692,7 +11967,7 @@
       <c r="P51" s="21"/>
       <c r="Q51" s="21"/>
     </row>
-    <row r="52" spans="1:17">
+    <row r="52" spans="1:17" s="14" customFormat="1">
       <c r="A52" s="8"/>
       <c r="B52" s="8"/>
       <c r="C52" s="8"/>
@@ -8711,7 +11986,7 @@
       <c r="P52" s="21"/>
       <c r="Q52" s="21"/>
     </row>
-    <row r="53" spans="1:17">
+    <row r="53" spans="1:17" s="14" customFormat="1">
       <c r="A53" s="8"/>
       <c r="B53" s="8"/>
       <c r="C53" s="8"/>
@@ -9016,42 +12291,99 @@
       <c r="Q68" s="21"/>
     </row>
     <row r="69" spans="1:17">
-      <c r="A69" s="9"/>
-      <c r="B69" s="9"/>
-      <c r="C69" s="9"/>
-      <c r="D69" s="9"/>
-      <c r="E69" s="9"/>
-      <c r="F69" s="9"/>
-      <c r="G69" s="9"/>
-      <c r="H69" s="9"/>
-      <c r="I69" s="22"/>
-      <c r="J69" s="22"/>
-      <c r="K69" s="22"/>
-      <c r="L69" s="22"/>
-      <c r="M69" s="22"/>
-      <c r="N69" s="22"/>
-      <c r="O69" s="22"/>
-      <c r="P69" s="22"/>
-      <c r="Q69" s="22"/>
+      <c r="A69" s="8"/>
+      <c r="B69" s="8"/>
+      <c r="C69" s="8"/>
+      <c r="D69" s="8"/>
+      <c r="E69" s="8"/>
+      <c r="F69" s="8"/>
+      <c r="G69" s="8"/>
+      <c r="H69" s="8"/>
+      <c r="I69" s="21"/>
+      <c r="J69" s="21"/>
+      <c r="K69" s="21"/>
+      <c r="L69" s="21"/>
+      <c r="M69" s="21"/>
+      <c r="N69" s="21"/>
+      <c r="O69" s="21"/>
+      <c r="P69" s="21"/>
+      <c r="Q69" s="21"/>
     </row>
     <row r="70" spans="1:17">
-      <c r="A70" s="9"/>
-      <c r="B70" s="9"/>
-      <c r="C70" s="9"/>
-      <c r="D70" s="9"/>
-      <c r="E70" s="9"/>
-      <c r="F70" s="9"/>
-      <c r="G70" s="9"/>
-      <c r="H70" s="9"/>
-      <c r="I70" s="22"/>
-      <c r="J70" s="22"/>
-      <c r="K70" s="22"/>
-      <c r="L70" s="22"/>
-      <c r="M70" s="22"/>
-      <c r="N70" s="22"/>
-      <c r="O70" s="22"/>
-      <c r="P70" s="22"/>
-      <c r="Q70" s="22"/>
+      <c r="A70" s="8"/>
+      <c r="B70" s="8"/>
+      <c r="C70" s="8"/>
+      <c r="D70" s="8"/>
+      <c r="E70" s="8"/>
+      <c r="F70" s="8"/>
+      <c r="G70" s="8"/>
+      <c r="H70" s="8"/>
+      <c r="I70" s="21"/>
+      <c r="J70" s="21"/>
+      <c r="K70" s="21"/>
+      <c r="L70" s="21"/>
+      <c r="M70" s="21"/>
+      <c r="N70" s="21"/>
+      <c r="O70" s="21"/>
+      <c r="P70" s="21"/>
+      <c r="Q70" s="21"/>
+    </row>
+    <row r="71" spans="1:17">
+      <c r="A71" s="8"/>
+      <c r="B71" s="8"/>
+      <c r="C71" s="8"/>
+      <c r="D71" s="8"/>
+      <c r="E71" s="8"/>
+      <c r="F71" s="8"/>
+      <c r="G71" s="8"/>
+      <c r="H71" s="8"/>
+      <c r="I71" s="21"/>
+      <c r="J71" s="21"/>
+      <c r="K71" s="21"/>
+      <c r="L71" s="21"/>
+      <c r="M71" s="21"/>
+      <c r="N71" s="21"/>
+      <c r="O71" s="21"/>
+      <c r="P71" s="21"/>
+      <c r="Q71" s="21"/>
+    </row>
+    <row r="72" spans="1:17">
+      <c r="A72" s="9"/>
+      <c r="B72" s="9"/>
+      <c r="C72" s="9"/>
+      <c r="D72" s="9"/>
+      <c r="E72" s="9"/>
+      <c r="F72" s="9"/>
+      <c r="G72" s="9"/>
+      <c r="H72" s="9"/>
+      <c r="I72" s="22"/>
+      <c r="J72" s="22"/>
+      <c r="K72" s="22"/>
+      <c r="L72" s="22"/>
+      <c r="M72" s="22"/>
+      <c r="N72" s="22"/>
+      <c r="O72" s="22"/>
+      <c r="P72" s="22"/>
+      <c r="Q72" s="22"/>
+    </row>
+    <row r="73" spans="1:17">
+      <c r="A73" s="9"/>
+      <c r="B73" s="9"/>
+      <c r="C73" s="9"/>
+      <c r="D73" s="9"/>
+      <c r="E73" s="9"/>
+      <c r="F73" s="9"/>
+      <c r="G73" s="9"/>
+      <c r="H73" s="9"/>
+      <c r="I73" s="22"/>
+      <c r="J73" s="22"/>
+      <c r="K73" s="22"/>
+      <c r="L73" s="22"/>
+      <c r="M73" s="22"/>
+      <c r="N73" s="22"/>
+      <c r="O73" s="22"/>
+      <c r="P73" s="22"/>
+      <c r="Q73" s="22"/>
     </row>
   </sheetData>
   <mergeCells count="9">
@@ -9065,21 +12397,21 @@
     <mergeCell ref="L2:N2"/>
     <mergeCell ref="O2:Q2"/>
   </mergeCells>
-  <phoneticPr fontId="9"/>
+  <phoneticPr fontId="10"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="landscape" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
-    <tabColor theme="8" tint="-0.499984740745262"/>
+    <tabColor theme="7" tint="0.39997558519241921"/>
   </sheetPr>
   <dimension ref="A1:Q70"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
+      <selection activeCell="G28" sqref="G28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -9104,60 +12436,60 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:17" ht="18" customHeight="1" thickBot="1">
-      <c r="A1" s="33" t="s">
-        <v>34</v>
-      </c>
-      <c r="B1" s="34"/>
-      <c r="C1" s="35" t="s">
-        <v>36</v>
-      </c>
-      <c r="D1" s="35"/>
-      <c r="E1" s="36"/>
-      <c r="F1" s="33" t="s">
+      <c r="A1" s="32" t="s">
+        <v>33</v>
+      </c>
+      <c r="B1" s="33"/>
+      <c r="C1" s="34" t="s">
+        <v>113</v>
+      </c>
+      <c r="D1" s="34"/>
+      <c r="E1" s="35"/>
+      <c r="F1" s="32" t="s">
         <v>11</v>
       </c>
-      <c r="G1" s="34"/>
+      <c r="G1" s="33"/>
       <c r="H1" s="3"/>
-      <c r="I1" s="42" t="s">
+      <c r="I1" s="41" t="s">
         <v>28</v>
       </c>
-      <c r="J1" s="43"/>
-      <c r="K1" s="43"/>
-      <c r="L1" s="43"/>
-      <c r="M1" s="43"/>
-      <c r="N1" s="43"/>
-      <c r="O1" s="43"/>
-      <c r="P1" s="43"/>
-      <c r="Q1" s="44"/>
+      <c r="J1" s="42"/>
+      <c r="K1" s="42"/>
+      <c r="L1" s="42"/>
+      <c r="M1" s="42"/>
+      <c r="N1" s="42"/>
+      <c r="O1" s="42"/>
+      <c r="P1" s="42"/>
+      <c r="Q1" s="43"/>
     </row>
     <row r="2" spans="1:17" ht="18" customHeight="1" thickBot="1">
-      <c r="A2" s="37" t="s">
+      <c r="A2" s="36" t="s">
         <v>5</v>
       </c>
-      <c r="B2" s="38"/>
-      <c r="C2" s="39" t="s">
-        <v>22</v>
-      </c>
-      <c r="D2" s="39"/>
-      <c r="E2" s="39"/>
-      <c r="F2" s="39"/>
-      <c r="G2" s="39"/>
-      <c r="H2" s="39"/>
-      <c r="I2" s="40" t="s">
+      <c r="B2" s="37"/>
+      <c r="C2" s="38" t="s">
+        <v>114</v>
+      </c>
+      <c r="D2" s="38"/>
+      <c r="E2" s="38"/>
+      <c r="F2" s="38"/>
+      <c r="G2" s="38"/>
+      <c r="H2" s="38"/>
+      <c r="I2" s="39" t="s">
         <v>12</v>
       </c>
-      <c r="J2" s="41"/>
-      <c r="K2" s="30"/>
-      <c r="L2" s="30" t="s">
+      <c r="J2" s="40"/>
+      <c r="K2" s="29"/>
+      <c r="L2" s="29" t="s">
         <v>15</v>
       </c>
-      <c r="M2" s="30"/>
-      <c r="N2" s="30"/>
-      <c r="O2" s="30" t="s">
+      <c r="M2" s="29"/>
+      <c r="N2" s="29"/>
+      <c r="O2" s="29" t="s">
         <v>16</v>
       </c>
-      <c r="P2" s="31"/>
-      <c r="Q2" s="32"/>
+      <c r="P2" s="30"/>
+      <c r="Q2" s="31"/>
     </row>
     <row r="3" spans="1:17">
       <c r="A3" s="5" t="s">
@@ -9215,23 +12547,23 @@
     <row r="4" spans="1:17" s="14" customFormat="1">
       <c r="A4" s="7"/>
       <c r="B4" s="1" t="s">
-        <v>3</v>
+        <v>115</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>30</v>
+        <v>116</v>
       </c>
       <c r="D4" s="1"/>
       <c r="E4" s="1" t="s">
-        <v>26</v>
+        <v>117</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>8</v>
+        <v>118</v>
       </c>
       <c r="G4" s="2" t="s">
-        <v>8</v>
+        <v>118</v>
       </c>
       <c r="H4" s="1" t="s">
-        <v>27</v>
+        <v>119</v>
       </c>
       <c r="I4" s="16"/>
       <c r="J4" s="16"/>
@@ -9248,10 +12580,10 @@
       <c r="B5" s="1"/>
       <c r="C5" s="1"/>
       <c r="D5" s="1"/>
-      <c r="E5" s="1"/>
-      <c r="F5" s="2"/>
-      <c r="G5" s="2"/>
-      <c r="H5" s="1"/>
+      <c r="E5" s="10"/>
+      <c r="F5" s="24"/>
+      <c r="G5" s="24"/>
+      <c r="H5" s="12"/>
       <c r="I5" s="16"/>
       <c r="J5" s="16"/>
       <c r="K5" s="16"/>
@@ -9264,14 +12596,18 @@
     </row>
     <row r="6" spans="1:17" s="14" customFormat="1">
       <c r="A6" s="7"/>
-      <c r="B6" s="1"/>
-      <c r="C6" s="1"/>
+      <c r="B6" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>121</v>
+      </c>
       <c r="D6" s="1"/>
       <c r="E6" s="1"/>
       <c r="F6" s="2"/>
       <c r="G6" s="2"/>
-      <c r="H6" s="26" t="s">
-        <v>29</v>
+      <c r="H6" s="1" t="s">
+        <v>122</v>
       </c>
       <c r="I6" s="17"/>
       <c r="J6" s="17"/>
@@ -9285,13 +12621,19 @@
     </row>
     <row r="7" spans="1:17" s="14" customFormat="1">
       <c r="A7" s="7"/>
-      <c r="B7" s="11"/>
-      <c r="C7" s="11"/>
-      <c r="D7" s="11"/>
-      <c r="E7" s="11"/>
-      <c r="F7" s="13"/>
-      <c r="G7" s="13"/>
-      <c r="H7" s="11"/>
+      <c r="B7" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="D7" s="1"/>
+      <c r="E7" s="1"/>
+      <c r="F7" s="2"/>
+      <c r="G7" s="2"/>
+      <c r="H7" s="1" t="s">
+        <v>124</v>
+      </c>
       <c r="I7" s="18"/>
       <c r="J7" s="18"/>
       <c r="K7" s="18"/>
@@ -9304,13 +12646,19 @@
     </row>
     <row r="8" spans="1:17" s="14" customFormat="1">
       <c r="A8" s="7"/>
-      <c r="B8" s="1"/>
-      <c r="C8" s="1"/>
+      <c r="B8" s="11" t="s">
+        <v>125</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>121</v>
+      </c>
       <c r="D8" s="1"/>
       <c r="E8" s="1"/>
-      <c r="F8" s="2"/>
-      <c r="G8" s="2"/>
-      <c r="H8" s="1"/>
+      <c r="F8" s="13"/>
+      <c r="G8" s="13"/>
+      <c r="H8" s="1" t="s">
+        <v>126</v>
+      </c>
       <c r="I8" s="18"/>
       <c r="J8" s="18"/>
       <c r="K8" s="18"/>
@@ -9323,13 +12671,19 @@
     </row>
     <row r="9" spans="1:17" s="14" customFormat="1">
       <c r="A9" s="7"/>
-      <c r="B9" s="1"/>
-      <c r="C9" s="1"/>
+      <c r="B9" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>128</v>
+      </c>
       <c r="D9" s="1"/>
-      <c r="E9" s="10"/>
-      <c r="F9" s="24"/>
-      <c r="G9" s="24"/>
-      <c r="H9" s="12"/>
+      <c r="E9" s="1"/>
+      <c r="F9" s="2"/>
+      <c r="G9" s="2"/>
+      <c r="H9" s="1" t="s">
+        <v>129</v>
+      </c>
       <c r="I9" s="18"/>
       <c r="J9" s="18"/>
       <c r="K9" s="18"/>
@@ -9342,13 +12696,19 @@
     </row>
     <row r="10" spans="1:17" s="14" customFormat="1">
       <c r="A10" s="10"/>
-      <c r="B10" s="4"/>
-      <c r="C10" s="1"/>
+      <c r="B10" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>128</v>
+      </c>
       <c r="D10" s="1"/>
-      <c r="E10" s="10"/>
-      <c r="F10" s="24"/>
-      <c r="G10" s="24"/>
-      <c r="H10" s="12"/>
+      <c r="E10" s="1"/>
+      <c r="F10" s="2"/>
+      <c r="G10" s="2"/>
+      <c r="H10" s="1" t="s">
+        <v>131</v>
+      </c>
       <c r="I10" s="19"/>
       <c r="J10" s="19"/>
       <c r="K10" s="19"/>
@@ -9361,13 +12721,19 @@
     </row>
     <row r="11" spans="1:17" s="14" customFormat="1">
       <c r="A11" s="7"/>
-      <c r="B11" s="1"/>
-      <c r="C11" s="1"/>
+      <c r="B11" s="1" t="s">
+        <v>132</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>128</v>
+      </c>
       <c r="D11" s="1"/>
       <c r="E11" s="1"/>
       <c r="F11" s="2"/>
-      <c r="G11" s="25"/>
-      <c r="H11" s="1"/>
+      <c r="G11" s="2"/>
+      <c r="H11" s="1" t="s">
+        <v>133</v>
+      </c>
       <c r="I11" s="17"/>
       <c r="J11" s="17"/>
       <c r="K11" s="16"/>
@@ -10501,31 +13867,31 @@
     </row>
   </sheetData>
   <mergeCells count="9">
-    <mergeCell ref="L2:N2"/>
-    <mergeCell ref="O2:Q2"/>
-    <mergeCell ref="I1:Q1"/>
     <mergeCell ref="A1:B1"/>
     <mergeCell ref="C1:E1"/>
     <mergeCell ref="F1:G1"/>
+    <mergeCell ref="I1:Q1"/>
     <mergeCell ref="A2:B2"/>
     <mergeCell ref="C2:H2"/>
     <mergeCell ref="I2:K2"/>
+    <mergeCell ref="L2:N2"/>
+    <mergeCell ref="O2:Q2"/>
   </mergeCells>
-  <phoneticPr fontId="1"/>
+  <phoneticPr fontId="10"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="landscape" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
-    <tabColor theme="8" tint="-0.499984740745262"/>
+    <tabColor theme="6" tint="0.39997558519241921"/>
   </sheetPr>
   <dimension ref="A1:Q70"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E9" sqref="E9"/>
+      <selection activeCell="B16" sqref="B16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -10550,60 +13916,60 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:17" ht="18" customHeight="1" thickBot="1">
-      <c r="A1" s="33" t="s">
-        <v>34</v>
-      </c>
-      <c r="B1" s="34"/>
-      <c r="C1" s="35" t="s">
-        <v>114</v>
-      </c>
-      <c r="D1" s="35"/>
-      <c r="E1" s="36"/>
-      <c r="F1" s="33" t="s">
+      <c r="A1" s="32" t="s">
+        <v>33</v>
+      </c>
+      <c r="B1" s="33"/>
+      <c r="C1" s="34" t="s">
+        <v>35</v>
+      </c>
+      <c r="D1" s="34"/>
+      <c r="E1" s="35"/>
+      <c r="F1" s="32" t="s">
         <v>11</v>
       </c>
-      <c r="G1" s="34"/>
+      <c r="G1" s="33"/>
       <c r="H1" s="3"/>
-      <c r="I1" s="42" t="s">
+      <c r="I1" s="41" t="s">
         <v>28</v>
       </c>
-      <c r="J1" s="43"/>
-      <c r="K1" s="43"/>
-      <c r="L1" s="43"/>
-      <c r="M1" s="43"/>
-      <c r="N1" s="43"/>
-      <c r="O1" s="43"/>
-      <c r="P1" s="43"/>
-      <c r="Q1" s="44"/>
+      <c r="J1" s="42"/>
+      <c r="K1" s="42"/>
+      <c r="L1" s="42"/>
+      <c r="M1" s="42"/>
+      <c r="N1" s="42"/>
+      <c r="O1" s="42"/>
+      <c r="P1" s="42"/>
+      <c r="Q1" s="43"/>
     </row>
     <row r="2" spans="1:17" ht="18" customHeight="1" thickBot="1">
-      <c r="A2" s="37" t="s">
+      <c r="A2" s="36" t="s">
         <v>5</v>
       </c>
-      <c r="B2" s="38"/>
-      <c r="C2" s="39" t="s">
-        <v>115</v>
-      </c>
-      <c r="D2" s="39"/>
-      <c r="E2" s="39"/>
-      <c r="F2" s="39"/>
-      <c r="G2" s="39"/>
-      <c r="H2" s="39"/>
-      <c r="I2" s="40" t="s">
+      <c r="B2" s="37"/>
+      <c r="C2" s="38" t="s">
+        <v>22</v>
+      </c>
+      <c r="D2" s="38"/>
+      <c r="E2" s="38"/>
+      <c r="F2" s="38"/>
+      <c r="G2" s="38"/>
+      <c r="H2" s="38"/>
+      <c r="I2" s="39" t="s">
         <v>12</v>
       </c>
-      <c r="J2" s="41"/>
-      <c r="K2" s="30"/>
-      <c r="L2" s="30" t="s">
+      <c r="J2" s="40"/>
+      <c r="K2" s="29"/>
+      <c r="L2" s="29" t="s">
         <v>15</v>
       </c>
-      <c r="M2" s="30"/>
-      <c r="N2" s="30"/>
-      <c r="O2" s="30" t="s">
+      <c r="M2" s="29"/>
+      <c r="N2" s="29"/>
+      <c r="O2" s="29" t="s">
         <v>16</v>
       </c>
-      <c r="P2" s="31"/>
-      <c r="Q2" s="32"/>
+      <c r="P2" s="30"/>
+      <c r="Q2" s="31"/>
     </row>
     <row r="3" spans="1:17">
       <c r="A3" s="5" t="s">
@@ -10661,23 +14027,23 @@
     <row r="4" spans="1:17" s="14" customFormat="1">
       <c r="A4" s="7"/>
       <c r="B4" s="1" t="s">
-        <v>116</v>
+        <v>3</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>117</v>
+        <v>29</v>
       </c>
       <c r="D4" s="1"/>
       <c r="E4" s="1" t="s">
-        <v>118</v>
+        <v>26</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>119</v>
+        <v>8</v>
       </c>
       <c r="G4" s="2" t="s">
-        <v>119</v>
+        <v>8</v>
       </c>
       <c r="H4" s="1" t="s">
-        <v>120</v>
+        <v>27</v>
       </c>
       <c r="I4" s="16"/>
       <c r="J4" s="16"/>
@@ -10694,10 +14060,10 @@
       <c r="B5" s="1"/>
       <c r="C5" s="1"/>
       <c r="D5" s="1"/>
-      <c r="E5" s="10"/>
-      <c r="F5" s="24"/>
-      <c r="G5" s="24"/>
-      <c r="H5" s="12"/>
+      <c r="E5" s="1"/>
+      <c r="F5" s="2"/>
+      <c r="G5" s="2"/>
+      <c r="H5" s="1"/>
       <c r="I5" s="16"/>
       <c r="J5" s="16"/>
       <c r="K5" s="16"/>
@@ -10710,18 +14076,20 @@
     </row>
     <row r="6" spans="1:17" s="14" customFormat="1">
       <c r="A6" s="7"/>
-      <c r="B6" s="1" t="s">
-        <v>121</v>
-      </c>
-      <c r="C6" s="1" t="s">
-        <v>122</v>
-      </c>
-      <c r="D6" s="1"/>
-      <c r="E6" s="1"/>
-      <c r="F6" s="2"/>
-      <c r="G6" s="2"/>
-      <c r="H6" s="1" t="s">
-        <v>123</v>
+      <c r="B6" s="44" t="s">
+        <v>17</v>
+      </c>
+      <c r="C6" s="44" t="s">
+        <v>170</v>
+      </c>
+      <c r="D6" s="44">
+        <v>255</v>
+      </c>
+      <c r="E6" s="44"/>
+      <c r="F6" s="45"/>
+      <c r="G6" s="45"/>
+      <c r="H6" s="44" t="s">
+        <v>153</v>
       </c>
       <c r="I6" s="17"/>
       <c r="J6" s="17"/>
@@ -10735,18 +14103,18 @@
     </row>
     <row r="7" spans="1:17" s="14" customFormat="1">
       <c r="A7" s="7"/>
-      <c r="B7" s="1" t="s">
-        <v>124</v>
-      </c>
-      <c r="C7" s="1" t="s">
-        <v>122</v>
-      </c>
-      <c r="D7" s="1"/>
-      <c r="E7" s="1"/>
-      <c r="F7" s="2"/>
-      <c r="G7" s="2"/>
-      <c r="H7" s="1" t="s">
-        <v>125</v>
+      <c r="B7" s="44" t="s">
+        <v>154</v>
+      </c>
+      <c r="C7" s="44" t="s">
+        <v>168</v>
+      </c>
+      <c r="D7" s="44"/>
+      <c r="E7" s="44"/>
+      <c r="F7" s="45"/>
+      <c r="G7" s="45"/>
+      <c r="H7" s="44" t="s">
+        <v>155</v>
       </c>
       <c r="I7" s="18"/>
       <c r="J7" s="18"/>
@@ -10760,18 +14128,20 @@
     </row>
     <row r="8" spans="1:17" s="14" customFormat="1">
       <c r="A8" s="7"/>
-      <c r="B8" s="11" t="s">
-        <v>126</v>
-      </c>
-      <c r="C8" s="1" t="s">
-        <v>122</v>
-      </c>
-      <c r="D8" s="1"/>
-      <c r="E8" s="1"/>
-      <c r="F8" s="13"/>
-      <c r="G8" s="13"/>
-      <c r="H8" s="1" t="s">
-        <v>127</v>
+      <c r="B8" s="44" t="s">
+        <v>156</v>
+      </c>
+      <c r="C8" s="44" t="s">
+        <v>165</v>
+      </c>
+      <c r="D8" s="44"/>
+      <c r="E8" s="44"/>
+      <c r="F8" s="45" t="s">
+        <v>7</v>
+      </c>
+      <c r="G8" s="45"/>
+      <c r="H8" s="44" t="s">
+        <v>157</v>
       </c>
       <c r="I8" s="18"/>
       <c r="J8" s="18"/>
@@ -10785,18 +14155,20 @@
     </row>
     <row r="9" spans="1:17" s="14" customFormat="1">
       <c r="A9" s="7"/>
-      <c r="B9" s="1" t="s">
-        <v>128</v>
-      </c>
-      <c r="C9" s="1" t="s">
-        <v>129</v>
-      </c>
-      <c r="D9" s="1"/>
-      <c r="E9" s="1"/>
-      <c r="F9" s="2"/>
-      <c r="G9" s="2"/>
-      <c r="H9" s="1" t="s">
-        <v>130</v>
+      <c r="B9" s="44" t="s">
+        <v>158</v>
+      </c>
+      <c r="C9" s="44" t="s">
+        <v>166</v>
+      </c>
+      <c r="D9" s="44"/>
+      <c r="E9" s="44"/>
+      <c r="F9" s="45" t="s">
+        <v>7</v>
+      </c>
+      <c r="G9" s="45"/>
+      <c r="H9" s="44" t="s">
+        <v>159</v>
       </c>
       <c r="I9" s="18"/>
       <c r="J9" s="18"/>
@@ -10810,18 +14182,20 @@
     </row>
     <row r="10" spans="1:17" s="14" customFormat="1">
       <c r="A10" s="10"/>
-      <c r="B10" s="1" t="s">
-        <v>131</v>
-      </c>
-      <c r="C10" s="1" t="s">
-        <v>129</v>
-      </c>
-      <c r="D10" s="1"/>
-      <c r="E10" s="1"/>
-      <c r="F10" s="2"/>
-      <c r="G10" s="2"/>
-      <c r="H10" s="1" t="s">
-        <v>132</v>
+      <c r="B10" s="44" t="s">
+        <v>175</v>
+      </c>
+      <c r="C10" s="44" t="s">
+        <v>167</v>
+      </c>
+      <c r="D10" s="44"/>
+      <c r="E10" s="44"/>
+      <c r="F10" s="45" t="s">
+        <v>7</v>
+      </c>
+      <c r="G10" s="45"/>
+      <c r="H10" s="44" t="s">
+        <v>171</v>
       </c>
       <c r="I10" s="19"/>
       <c r="J10" s="19"/>
@@ -10835,18 +14209,20 @@
     </row>
     <row r="11" spans="1:17" s="14" customFormat="1">
       <c r="A11" s="7"/>
-      <c r="B11" s="1" t="s">
-        <v>133</v>
-      </c>
-      <c r="C11" s="1" t="s">
-        <v>129</v>
-      </c>
-      <c r="D11" s="1"/>
-      <c r="E11" s="1"/>
-      <c r="F11" s="2"/>
-      <c r="G11" s="2"/>
-      <c r="H11" s="1" t="s">
-        <v>134</v>
+      <c r="B11" s="44" t="s">
+        <v>174</v>
+      </c>
+      <c r="C11" s="44" t="s">
+        <v>169</v>
+      </c>
+      <c r="D11" s="44">
+        <v>255</v>
+      </c>
+      <c r="E11" s="44"/>
+      <c r="F11" s="45"/>
+      <c r="G11" s="45"/>
+      <c r="H11" s="44" t="s">
+        <v>176</v>
       </c>
       <c r="I11" s="17"/>
       <c r="J11" s="17"/>
@@ -10860,13 +14236,19 @@
     </row>
     <row r="12" spans="1:17" s="14" customFormat="1">
       <c r="A12" s="7"/>
-      <c r="B12" s="1"/>
-      <c r="C12" s="1"/>
-      <c r="D12" s="1"/>
-      <c r="E12" s="1"/>
-      <c r="F12" s="2"/>
-      <c r="G12" s="25"/>
-      <c r="H12" s="1"/>
+      <c r="B12" s="46" t="s">
+        <v>160</v>
+      </c>
+      <c r="C12" s="46" t="s">
+        <v>172</v>
+      </c>
+      <c r="D12" s="46"/>
+      <c r="E12" s="48"/>
+      <c r="F12" s="48"/>
+      <c r="G12" s="48"/>
+      <c r="H12" s="49" t="s">
+        <v>173</v>
+      </c>
       <c r="I12" s="17"/>
       <c r="J12" s="17"/>
       <c r="K12" s="16"/>
@@ -10879,13 +14261,21 @@
     </row>
     <row r="13" spans="1:17" s="14" customFormat="1">
       <c r="A13" s="7"/>
-      <c r="B13" s="1"/>
-      <c r="C13" s="1"/>
-      <c r="D13" s="1"/>
-      <c r="E13" s="1"/>
-      <c r="F13" s="2"/>
-      <c r="G13" s="25"/>
-      <c r="H13" s="1"/>
+      <c r="B13" s="44" t="s">
+        <v>161</v>
+      </c>
+      <c r="C13" s="44" t="s">
+        <v>170</v>
+      </c>
+      <c r="D13" s="44">
+        <v>64</v>
+      </c>
+      <c r="E13" s="44"/>
+      <c r="F13" s="45"/>
+      <c r="G13" s="47"/>
+      <c r="H13" s="44" t="s">
+        <v>162</v>
+      </c>
       <c r="I13" s="17"/>
       <c r="J13" s="17"/>
       <c r="K13" s="18"/>
@@ -10898,13 +14288,19 @@
     </row>
     <row r="14" spans="1:17" s="14" customFormat="1">
       <c r="A14" s="7"/>
-      <c r="B14" s="1"/>
-      <c r="C14" s="1"/>
-      <c r="D14" s="1"/>
-      <c r="E14" s="1"/>
-      <c r="F14" s="2"/>
-      <c r="G14" s="25"/>
-      <c r="H14" s="1"/>
+      <c r="B14" s="44" t="s">
+        <v>163</v>
+      </c>
+      <c r="C14" s="44" t="s">
+        <v>165</v>
+      </c>
+      <c r="D14" s="44"/>
+      <c r="E14" s="44"/>
+      <c r="F14" s="45"/>
+      <c r="G14" s="47"/>
+      <c r="H14" s="44" t="s">
+        <v>164</v>
+      </c>
       <c r="I14" s="18"/>
       <c r="J14" s="18"/>
       <c r="K14" s="18"/>
@@ -11981,17 +15377,17 @@
     </row>
   </sheetData>
   <mergeCells count="9">
+    <mergeCell ref="L2:N2"/>
+    <mergeCell ref="O2:Q2"/>
+    <mergeCell ref="I1:Q1"/>
     <mergeCell ref="A1:B1"/>
     <mergeCell ref="C1:E1"/>
     <mergeCell ref="F1:G1"/>
-    <mergeCell ref="I1:Q1"/>
     <mergeCell ref="A2:B2"/>
     <mergeCell ref="C2:H2"/>
     <mergeCell ref="I2:K2"/>
-    <mergeCell ref="L2:N2"/>
-    <mergeCell ref="O2:Q2"/>
   </mergeCells>
-  <phoneticPr fontId="9"/>
+  <phoneticPr fontId="2"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="landscape" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
 </worksheet>

--- a/ST_Player/db.xlsx
+++ b/ST_Player/db.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="15330" windowHeight="7695" tabRatio="1000" activeTab="4"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="15330" windowHeight="7695" tabRatio="1000" activeTab="8"/>
   </bookViews>
   <sheets>
     <sheet name="ユーザー" sheetId="69" r:id="rId1"/>
@@ -12,17 +12,18 @@
     <sheet name="プロフィール" sheetId="89" r:id="rId3"/>
     <sheet name="プロフィール画像" sheetId="94" r:id="rId4"/>
     <sheet name="記録" sheetId="91" r:id="rId5"/>
-    <sheet name="記録画像" sheetId="93" r:id="rId6"/>
-    <sheet name="選手カード画像" sheetId="95" r:id="rId7"/>
-    <sheet name="画像" sheetId="92" r:id="rId8"/>
-    <sheet name="ログ" sheetId="73" r:id="rId9"/>
+    <sheet name="パートナー" sheetId="96" r:id="rId6"/>
+    <sheet name="記録画像" sheetId="93" r:id="rId7"/>
+    <sheet name="選手カード画像" sheetId="95" r:id="rId8"/>
+    <sheet name="画像" sheetId="92" r:id="rId9"/>
+    <sheet name="ログ" sheetId="73" r:id="rId10"/>
   </sheets>
   <calcPr calcId="125725"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="458" uniqueCount="183">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="496" uniqueCount="182">
   <si>
     <t>説明</t>
     <rPh sb="0" eb="2">
@@ -115,10 +116,6 @@
     <t>password</t>
   </si>
   <si>
-    <t>UserID</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
     <t>allowEmpty</t>
     <phoneticPr fontId="2"/>
   </si>
@@ -187,14 +184,6 @@
   <si>
     <t>Log</t>
     <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>int unsigned</t>
-    <phoneticPr fontId="4"/>
-  </si>
-  <si>
-    <t>int unsigned</t>
-    <phoneticPr fontId="4"/>
   </si>
   <si>
     <t>NOT NULL UNIQUE</t>
@@ -317,9 +306,6 @@
     <t>住所:建物名</t>
   </si>
   <si>
-    <t>int unsigned</t>
-  </si>
-  <si>
     <t>顔写真の画像ID</t>
     <rPh sb="0" eb="1">
       <t>カオ</t>
@@ -446,23 +432,6 @@
   </si>
   <si>
     <t>text</t>
-    <phoneticPr fontId="10"/>
-  </si>
-  <si>
-    <t>partner_id</t>
-    <phoneticPr fontId="10"/>
-  </si>
-  <si>
-    <t>一緒に走った相手データ</t>
-    <rPh sb="0" eb="2">
-      <t>イッショ</t>
-    </rPh>
-    <rPh sb="3" eb="4">
-      <t>ハシ</t>
-    </rPh>
-    <rPh sb="6" eb="8">
-      <t>アイテ</t>
-    </rPh>
     <phoneticPr fontId="10"/>
   </si>
   <si>
@@ -530,18 +499,6 @@
     <phoneticPr fontId="10"/>
   </si>
   <si>
-    <t>pattern_number</t>
-    <phoneticPr fontId="10"/>
-  </si>
-  <si>
-    <t>sound_number</t>
-    <phoneticPr fontId="10"/>
-  </si>
-  <si>
-    <t>background_number</t>
-    <phoneticPr fontId="10"/>
-  </si>
-  <si>
     <t>再生するときの模様セット番号</t>
     <rPh sb="0" eb="2">
       <t>サイセイ</t>
@@ -593,22 +550,10 @@
     <phoneticPr fontId="10"/>
   </si>
   <si>
-    <t>int</t>
-    <phoneticPr fontId="10"/>
-  </si>
-  <si>
-    <t>int</t>
-    <phoneticPr fontId="10"/>
-  </si>
-  <si>
     <t>int unsigned</t>
     <phoneticPr fontId="10"/>
   </si>
   <si>
-    <t>varchar</t>
-    <phoneticPr fontId="10"/>
-  </si>
-  <si>
     <t>Image</t>
     <phoneticPr fontId="2"/>
   </si>
@@ -618,10 +563,6 @@
   </si>
   <si>
     <t>id</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>int unsigned</t>
     <phoneticPr fontId="2"/>
   </si>
   <si>
@@ -636,35 +577,6 @@
     <t>画像ID</t>
     <rPh sb="0" eb="2">
       <t>ガゾウ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>image_path</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>text</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>画像パス</t>
-    <rPh sb="0" eb="2">
-      <t>ガゾウ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>image_file_name</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>画像名</t>
-    <rPh sb="0" eb="2">
-      <t>ガゾウ</t>
-    </rPh>
-    <rPh sb="2" eb="3">
-      <t>メイ</t>
     </rPh>
     <phoneticPr fontId="2"/>
   </si>
@@ -911,10 +823,6 @@
     <phoneticPr fontId="11"/>
   </si>
   <si>
-    <t>int unsigned</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
     <t>ターゲットID</t>
     <phoneticPr fontId="2"/>
   </si>
@@ -969,7 +877,112 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>int unsigned</t>
+    <t>varchar</t>
+    <phoneticPr fontId="10"/>
+  </si>
+  <si>
+    <t>pattern</t>
+    <phoneticPr fontId="10"/>
+  </si>
+  <si>
+    <t>sound</t>
+    <phoneticPr fontId="10"/>
+  </si>
+  <si>
+    <t>background</t>
+    <phoneticPr fontId="10"/>
+  </si>
+  <si>
+    <t>一緒に走った相手（パートナー側から参照）</t>
+    <rPh sb="0" eb="2">
+      <t>イッショ</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>ハシ</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>アイテ</t>
+    </rPh>
+    <rPh sb="14" eb="15">
+      <t>ガワ</t>
+    </rPh>
+    <rPh sb="17" eb="19">
+      <t>サンショウ</t>
+    </rPh>
+    <phoneticPr fontId="10"/>
+  </si>
+  <si>
+    <t>Partner</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>Partners</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>UserID</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>パートナーID</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>bigint unsigned</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>bigint unsigned</t>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>partner_id</t>
+    <phoneticPr fontId="10"/>
+  </si>
+  <si>
+    <t>一緒に走った相手のID</t>
+    <rPh sb="0" eb="2">
+      <t>イッショ</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>ハシ</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>アイテ</t>
+    </rPh>
+    <phoneticPr fontId="10"/>
+  </si>
+  <si>
+    <t>record_id</t>
+    <phoneticPr fontId="10"/>
+  </si>
+  <si>
+    <t>記録のQRコード</t>
+    <rPh sb="0" eb="2">
+      <t>キロク</t>
+    </rPh>
+    <phoneticPr fontId="10"/>
+  </si>
+  <si>
+    <t>filename</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>ext</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>ファイル名</t>
+    <rPh sb="4" eb="5">
+      <t>メイ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>拡張子</t>
+    <rPh sb="0" eb="3">
+      <t>カクチョウシ</t>
+    </rPh>
     <phoneticPr fontId="2"/>
   </si>
 </sst>
@@ -1314,7 +1327,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="50">
+  <cellXfs count="51">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1415,6 +1428,7 @@
     <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="4" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="5" fillId="5" borderId="4" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="標準" xfId="0" builtinId="0"/>
@@ -1727,7 +1741,7 @@
   <dimension ref="A1:Q72"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
+      <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -1753,11 +1767,11 @@
   <sheetData>
     <row r="1" spans="1:17" ht="18" customHeight="1" thickBot="1">
       <c r="A1" s="32" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B1" s="33"/>
       <c r="C1" s="34" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D1" s="34"/>
       <c r="E1" s="35"/>
@@ -1767,7 +1781,7 @@
       <c r="G1" s="33"/>
       <c r="H1" s="3"/>
       <c r="I1" s="41" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="J1" s="42"/>
       <c r="K1" s="42"/>
@@ -1784,7 +1798,7 @@
       </c>
       <c r="B2" s="37"/>
       <c r="C2" s="38" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D2" s="38"/>
       <c r="E2" s="38"/>
@@ -1818,7 +1832,7 @@
         <v>2</v>
       </c>
       <c r="D3" s="6" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E3" s="6" t="s">
         <v>4</v>
@@ -1839,7 +1853,7 @@
         <v>14</v>
       </c>
       <c r="K3" s="15" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="L3" s="15" t="s">
         <v>13</v>
@@ -1848,7 +1862,7 @@
         <v>14</v>
       </c>
       <c r="N3" s="15" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="O3" s="15" t="s">
         <v>13</v>
@@ -1857,7 +1871,7 @@
         <v>14</v>
       </c>
       <c r="Q3" s="15" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="4" spans="1:17" s="14" customFormat="1">
@@ -1866,11 +1880,11 @@
         <v>3</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>37</v>
+        <v>173</v>
       </c>
       <c r="D4" s="1"/>
       <c r="E4" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="F4" s="2" t="s">
         <v>8</v>
@@ -1879,7 +1893,7 @@
         <v>8</v>
       </c>
       <c r="H4" s="1" t="s">
-        <v>19</v>
+        <v>170</v>
       </c>
       <c r="I4" s="16"/>
       <c r="J4" s="16"/>
@@ -1894,23 +1908,23 @@
     <row r="5" spans="1:17" s="14" customFormat="1">
       <c r="A5" s="7"/>
       <c r="B5" s="1" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D5" s="1">
         <v>255</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="F5" s="2" t="s">
         <v>7</v>
       </c>
       <c r="G5" s="2"/>
       <c r="H5" s="1" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="I5" s="16"/>
       <c r="J5" s="16"/>
@@ -1928,7 +1942,7 @@
         <v>17</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D6" s="1">
         <v>255</v>
@@ -1937,7 +1951,7 @@
       <c r="F6" s="2"/>
       <c r="G6" s="2"/>
       <c r="H6" s="1" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="I6" s="16"/>
       <c r="J6" s="16"/>
@@ -1955,7 +1969,7 @@
         <v>18</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D7" s="1">
         <v>255</v>
@@ -1964,7 +1978,7 @@
       <c r="F7" s="2"/>
       <c r="G7" s="2"/>
       <c r="H7" s="1" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="I7" s="17"/>
       <c r="J7" s="17"/>
@@ -3229,15 +3243,15 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
-    <tabColor theme="8" tint="0.39997558519241921"/>
+    <tabColor theme="6" tint="0.39997558519241921"/>
   </sheetPr>
-  <dimension ref="A1:Q71"/>
+  <dimension ref="A1:Q70"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B9" sqref="B9"/>
+      <selection activeCell="C12" sqref="C12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -3263,11 +3277,11 @@
   <sheetData>
     <row r="1" spans="1:17" ht="18" customHeight="1" thickBot="1">
       <c r="A1" s="32" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B1" s="33"/>
       <c r="C1" s="34" t="s">
-        <v>69</v>
+        <v>34</v>
       </c>
       <c r="D1" s="34"/>
       <c r="E1" s="35"/>
@@ -3277,7 +3291,7 @@
       <c r="G1" s="33"/>
       <c r="H1" s="3"/>
       <c r="I1" s="41" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="J1" s="42"/>
       <c r="K1" s="42"/>
@@ -3294,7 +3308,7 @@
       </c>
       <c r="B2" s="37"/>
       <c r="C2" s="38" t="s">
-        <v>70</v>
+        <v>21</v>
       </c>
       <c r="D2" s="38"/>
       <c r="E2" s="38"/>
@@ -3328,7 +3342,7 @@
         <v>2</v>
       </c>
       <c r="D3" s="6" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E3" s="6" t="s">
         <v>4</v>
@@ -3349,7 +3363,7 @@
         <v>14</v>
       </c>
       <c r="K3" s="15" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="L3" s="15" t="s">
         <v>13</v>
@@ -3358,7 +3372,7 @@
         <v>14</v>
       </c>
       <c r="N3" s="15" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="O3" s="15" t="s">
         <v>13</v>
@@ -3367,7 +3381,7 @@
         <v>14</v>
       </c>
       <c r="Q3" s="15" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="4" spans="1:17" s="14" customFormat="1">
@@ -3376,11 +3390,11 @@
         <v>3</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>36</v>
+        <v>28</v>
       </c>
       <c r="D4" s="1"/>
       <c r="E4" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="F4" s="2" t="s">
         <v>8</v>
@@ -3389,7 +3403,7 @@
         <v>8</v>
       </c>
       <c r="H4" s="1" t="s">
-        <v>177</v>
+        <v>26</v>
       </c>
       <c r="I4" s="16"/>
       <c r="J4" s="16"/>
@@ -3422,18 +3436,1528 @@
     </row>
     <row r="6" spans="1:17" s="14" customFormat="1">
       <c r="A6" s="7"/>
+      <c r="B6" s="44" t="s">
+        <v>17</v>
+      </c>
+      <c r="C6" s="44" t="s">
+        <v>152</v>
+      </c>
+      <c r="D6" s="44">
+        <v>255</v>
+      </c>
+      <c r="E6" s="44"/>
+      <c r="F6" s="45"/>
+      <c r="G6" s="45"/>
+      <c r="H6" s="44" t="s">
+        <v>135</v>
+      </c>
+      <c r="I6" s="17"/>
+      <c r="J6" s="17"/>
+      <c r="K6" s="18"/>
+      <c r="L6" s="16"/>
+      <c r="M6" s="16"/>
+      <c r="N6" s="16"/>
+      <c r="O6" s="16"/>
+      <c r="P6" s="16"/>
+      <c r="Q6" s="16"/>
+    </row>
+    <row r="7" spans="1:17" s="14" customFormat="1">
+      <c r="A7" s="7"/>
+      <c r="B7" s="44" t="s">
+        <v>136</v>
+      </c>
+      <c r="C7" s="44" t="s">
+        <v>150</v>
+      </c>
+      <c r="D7" s="44"/>
+      <c r="E7" s="44"/>
+      <c r="F7" s="45"/>
+      <c r="G7" s="45"/>
+      <c r="H7" s="44" t="s">
+        <v>137</v>
+      </c>
+      <c r="I7" s="18"/>
+      <c r="J7" s="18"/>
+      <c r="K7" s="18"/>
+      <c r="L7" s="16"/>
+      <c r="M7" s="16"/>
+      <c r="N7" s="16"/>
+      <c r="O7" s="16"/>
+      <c r="P7" s="16"/>
+      <c r="Q7" s="16"/>
+    </row>
+    <row r="8" spans="1:17" s="14" customFormat="1">
+      <c r="A8" s="7"/>
+      <c r="B8" s="44" t="s">
+        <v>138</v>
+      </c>
+      <c r="C8" s="44" t="s">
+        <v>147</v>
+      </c>
+      <c r="D8" s="44"/>
+      <c r="E8" s="44"/>
+      <c r="F8" s="45" t="s">
+        <v>7</v>
+      </c>
+      <c r="G8" s="45"/>
+      <c r="H8" s="44" t="s">
+        <v>139</v>
+      </c>
+      <c r="I8" s="18"/>
+      <c r="J8" s="18"/>
+      <c r="K8" s="18"/>
+      <c r="L8" s="16"/>
+      <c r="M8" s="16"/>
+      <c r="N8" s="16"/>
+      <c r="O8" s="16"/>
+      <c r="P8" s="16"/>
+      <c r="Q8" s="16"/>
+    </row>
+    <row r="9" spans="1:17" s="14" customFormat="1">
+      <c r="A9" s="7"/>
+      <c r="B9" s="44" t="s">
+        <v>140</v>
+      </c>
+      <c r="C9" s="44" t="s">
+        <v>148</v>
+      </c>
+      <c r="D9" s="44"/>
+      <c r="E9" s="44"/>
+      <c r="F9" s="45" t="s">
+        <v>7</v>
+      </c>
+      <c r="G9" s="45"/>
+      <c r="H9" s="44" t="s">
+        <v>141</v>
+      </c>
+      <c r="I9" s="18"/>
+      <c r="J9" s="18"/>
+      <c r="K9" s="18"/>
+      <c r="L9" s="16"/>
+      <c r="M9" s="16"/>
+      <c r="N9" s="16"/>
+      <c r="O9" s="16"/>
+      <c r="P9" s="16"/>
+      <c r="Q9" s="16"/>
+    </row>
+    <row r="10" spans="1:17" s="14" customFormat="1">
+      <c r="A10" s="10"/>
+      <c r="B10" s="44" t="s">
+        <v>156</v>
+      </c>
+      <c r="C10" s="44" t="s">
+        <v>149</v>
+      </c>
+      <c r="D10" s="44"/>
+      <c r="E10" s="44"/>
+      <c r="F10" s="45" t="s">
+        <v>7</v>
+      </c>
+      <c r="G10" s="45"/>
+      <c r="H10" s="44" t="s">
+        <v>153</v>
+      </c>
+      <c r="I10" s="19"/>
+      <c r="J10" s="19"/>
+      <c r="K10" s="19"/>
+      <c r="L10" s="19"/>
+      <c r="M10" s="19"/>
+      <c r="N10" s="19"/>
+      <c r="O10" s="19"/>
+      <c r="P10" s="19"/>
+      <c r="Q10" s="19"/>
+    </row>
+    <row r="11" spans="1:17" s="14" customFormat="1">
+      <c r="A11" s="7"/>
+      <c r="B11" s="44" t="s">
+        <v>155</v>
+      </c>
+      <c r="C11" s="44" t="s">
+        <v>151</v>
+      </c>
+      <c r="D11" s="44">
+        <v>255</v>
+      </c>
+      <c r="E11" s="44"/>
+      <c r="F11" s="45"/>
+      <c r="G11" s="45"/>
+      <c r="H11" s="44" t="s">
+        <v>157</v>
+      </c>
+      <c r="I11" s="17"/>
+      <c r="J11" s="17"/>
+      <c r="K11" s="16"/>
+      <c r="L11" s="16"/>
+      <c r="M11" s="16"/>
+      <c r="N11" s="16"/>
+      <c r="O11" s="16"/>
+      <c r="P11" s="16"/>
+      <c r="Q11" s="16"/>
+    </row>
+    <row r="12" spans="1:17" s="14" customFormat="1">
+      <c r="A12" s="7"/>
+      <c r="B12" s="46" t="s">
+        <v>142</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>173</v>
+      </c>
+      <c r="D12" s="46"/>
+      <c r="E12" s="48"/>
+      <c r="F12" s="48"/>
+      <c r="G12" s="48"/>
+      <c r="H12" s="49" t="s">
+        <v>154</v>
+      </c>
+      <c r="I12" s="17"/>
+      <c r="J12" s="17"/>
+      <c r="K12" s="16"/>
+      <c r="L12" s="16"/>
+      <c r="M12" s="16"/>
+      <c r="N12" s="16"/>
+      <c r="O12" s="16"/>
+      <c r="P12" s="16"/>
+      <c r="Q12" s="16"/>
+    </row>
+    <row r="13" spans="1:17" s="14" customFormat="1">
+      <c r="A13" s="7"/>
+      <c r="B13" s="44" t="s">
+        <v>143</v>
+      </c>
+      <c r="C13" s="44" t="s">
+        <v>152</v>
+      </c>
+      <c r="D13" s="44">
+        <v>64</v>
+      </c>
+      <c r="E13" s="44"/>
+      <c r="F13" s="45"/>
+      <c r="G13" s="47"/>
+      <c r="H13" s="44" t="s">
+        <v>144</v>
+      </c>
+      <c r="I13" s="17"/>
+      <c r="J13" s="17"/>
+      <c r="K13" s="18"/>
+      <c r="L13" s="18"/>
+      <c r="M13" s="18"/>
+      <c r="N13" s="18"/>
+      <c r="O13" s="16"/>
+      <c r="P13" s="16"/>
+      <c r="Q13" s="16"/>
+    </row>
+    <row r="14" spans="1:17" s="14" customFormat="1">
+      <c r="A14" s="7"/>
+      <c r="B14" s="44" t="s">
+        <v>145</v>
+      </c>
+      <c r="C14" s="44" t="s">
+        <v>147</v>
+      </c>
+      <c r="D14" s="44"/>
+      <c r="E14" s="44"/>
+      <c r="F14" s="45"/>
+      <c r="G14" s="47"/>
+      <c r="H14" s="44" t="s">
+        <v>146</v>
+      </c>
+      <c r="I14" s="18"/>
+      <c r="J14" s="18"/>
+      <c r="K14" s="18"/>
+      <c r="L14" s="16"/>
+      <c r="M14" s="16"/>
+      <c r="N14" s="16"/>
+      <c r="O14" s="16"/>
+      <c r="P14" s="16"/>
+      <c r="Q14" s="16"/>
+    </row>
+    <row r="15" spans="1:17" s="14" customFormat="1">
+      <c r="A15" s="7"/>
+      <c r="B15" s="1"/>
+      <c r="C15" s="1"/>
+      <c r="D15" s="1"/>
+      <c r="E15" s="1"/>
+      <c r="F15" s="2"/>
+      <c r="G15" s="25"/>
+      <c r="H15" s="1"/>
+      <c r="I15" s="16"/>
+      <c r="J15" s="16"/>
+      <c r="K15" s="16"/>
+      <c r="L15" s="16"/>
+      <c r="M15" s="16"/>
+      <c r="N15" s="16"/>
+      <c r="O15" s="16"/>
+      <c r="P15" s="16"/>
+      <c r="Q15" s="16"/>
+    </row>
+    <row r="16" spans="1:17" s="14" customFormat="1">
+      <c r="A16" s="7"/>
+      <c r="B16" s="1"/>
+      <c r="C16" s="1"/>
+      <c r="D16" s="1"/>
+      <c r="E16" s="1"/>
+      <c r="F16" s="2"/>
+      <c r="G16" s="25"/>
+      <c r="H16" s="1"/>
+      <c r="I16" s="16"/>
+      <c r="J16" s="16"/>
+      <c r="K16" s="16"/>
+      <c r="L16" s="16"/>
+      <c r="M16" s="16"/>
+      <c r="N16" s="16"/>
+      <c r="O16" s="16"/>
+      <c r="P16" s="16"/>
+      <c r="Q16" s="16"/>
+    </row>
+    <row r="17" spans="1:17" s="14" customFormat="1">
+      <c r="A17" s="7"/>
+      <c r="B17" s="1"/>
+      <c r="C17" s="1"/>
+      <c r="D17" s="1"/>
+      <c r="E17" s="1"/>
+      <c r="F17" s="2"/>
+      <c r="G17" s="25"/>
+      <c r="H17" s="1"/>
+      <c r="I17" s="16"/>
+      <c r="J17" s="16"/>
+      <c r="K17" s="16"/>
+      <c r="L17" s="16"/>
+      <c r="M17" s="16"/>
+      <c r="N17" s="16"/>
+      <c r="O17" s="16"/>
+      <c r="P17" s="16"/>
+      <c r="Q17" s="16"/>
+    </row>
+    <row r="18" spans="1:17" s="14" customFormat="1">
+      <c r="A18" s="7"/>
+      <c r="B18" s="1"/>
+      <c r="C18" s="1"/>
+      <c r="D18" s="1"/>
+      <c r="E18" s="1"/>
+      <c r="F18" s="2"/>
+      <c r="G18" s="25"/>
+      <c r="H18" s="1"/>
+      <c r="I18" s="17"/>
+      <c r="J18" s="17"/>
+      <c r="K18" s="16"/>
+      <c r="L18" s="16"/>
+      <c r="M18" s="16"/>
+      <c r="N18" s="16"/>
+      <c r="O18" s="16"/>
+      <c r="P18" s="16"/>
+      <c r="Q18" s="16"/>
+    </row>
+    <row r="19" spans="1:17" s="14" customFormat="1">
+      <c r="A19" s="7"/>
+      <c r="B19" s="1"/>
+      <c r="C19" s="1"/>
+      <c r="D19" s="1"/>
+      <c r="E19" s="1"/>
+      <c r="F19" s="2"/>
+      <c r="G19" s="25"/>
+      <c r="H19" s="1"/>
+      <c r="I19" s="17"/>
+      <c r="J19" s="17"/>
+      <c r="K19" s="16"/>
+      <c r="L19" s="20"/>
+      <c r="M19" s="20"/>
+      <c r="N19" s="16"/>
+      <c r="O19" s="16"/>
+      <c r="P19" s="16"/>
+      <c r="Q19" s="16"/>
+    </row>
+    <row r="20" spans="1:17" s="14" customFormat="1">
+      <c r="A20" s="7"/>
+      <c r="B20" s="1"/>
+      <c r="C20" s="1"/>
+      <c r="D20" s="1"/>
+      <c r="E20" s="1"/>
+      <c r="F20" s="2"/>
+      <c r="G20" s="25"/>
+      <c r="H20" s="1"/>
+      <c r="I20" s="17"/>
+      <c r="J20" s="17"/>
+      <c r="K20" s="16"/>
+      <c r="L20" s="20"/>
+      <c r="M20" s="20"/>
+      <c r="N20" s="16"/>
+      <c r="O20" s="16"/>
+      <c r="P20" s="16"/>
+      <c r="Q20" s="16"/>
+    </row>
+    <row r="21" spans="1:17" s="14" customFormat="1">
+      <c r="A21" s="7"/>
+      <c r="B21" s="1"/>
+      <c r="C21" s="1"/>
+      <c r="D21" s="1"/>
+      <c r="E21" s="1"/>
+      <c r="F21" s="2"/>
+      <c r="G21" s="25"/>
+      <c r="H21" s="1"/>
+      <c r="I21" s="17"/>
+      <c r="J21" s="17"/>
+      <c r="K21" s="16"/>
+      <c r="L21" s="16"/>
+      <c r="M21" s="16"/>
+      <c r="N21" s="16"/>
+      <c r="O21" s="16"/>
+      <c r="P21" s="16"/>
+      <c r="Q21" s="16"/>
+    </row>
+    <row r="22" spans="1:17" s="14" customFormat="1">
+      <c r="A22" s="7"/>
+      <c r="B22" s="1"/>
+      <c r="C22" s="1"/>
+      <c r="D22" s="1"/>
+      <c r="E22" s="1"/>
+      <c r="F22" s="2"/>
+      <c r="G22" s="25"/>
+      <c r="H22" s="1"/>
+      <c r="I22" s="17"/>
+      <c r="J22" s="17"/>
+      <c r="K22" s="16"/>
+      <c r="L22" s="16"/>
+      <c r="M22" s="16"/>
+      <c r="N22" s="16"/>
+      <c r="O22" s="16"/>
+      <c r="P22" s="16"/>
+      <c r="Q22" s="16"/>
+    </row>
+    <row r="23" spans="1:17" s="14" customFormat="1">
+      <c r="A23" s="7"/>
+      <c r="B23" s="1"/>
+      <c r="C23" s="1"/>
+      <c r="D23" s="1"/>
+      <c r="E23" s="1"/>
+      <c r="F23" s="2"/>
+      <c r="G23" s="25"/>
+      <c r="H23" s="1"/>
+      <c r="I23" s="17"/>
+      <c r="J23" s="17"/>
+      <c r="K23" s="16"/>
+      <c r="L23" s="16"/>
+      <c r="M23" s="16"/>
+      <c r="N23" s="16"/>
+      <c r="O23" s="16"/>
+      <c r="P23" s="16"/>
+      <c r="Q23" s="16"/>
+    </row>
+    <row r="24" spans="1:17" s="14" customFormat="1">
+      <c r="A24" s="7"/>
+      <c r="B24" s="1"/>
+      <c r="C24" s="1"/>
+      <c r="D24" s="1"/>
+      <c r="E24" s="7"/>
+      <c r="F24" s="25"/>
+      <c r="G24" s="25"/>
+      <c r="H24" s="1"/>
+      <c r="I24" s="17"/>
+      <c r="J24" s="17"/>
+      <c r="K24" s="16"/>
+      <c r="L24" s="20"/>
+      <c r="M24" s="20"/>
+      <c r="N24" s="16"/>
+      <c r="O24" s="16"/>
+      <c r="P24" s="16"/>
+      <c r="Q24" s="16"/>
+    </row>
+    <row r="25" spans="1:17" s="14" customFormat="1">
+      <c r="A25" s="7"/>
+      <c r="B25" s="1"/>
+      <c r="C25" s="1"/>
+      <c r="D25" s="1"/>
+      <c r="E25" s="7"/>
+      <c r="F25" s="25"/>
+      <c r="G25" s="25"/>
+      <c r="H25" s="1"/>
+      <c r="I25" s="17"/>
+      <c r="J25" s="17"/>
+      <c r="K25" s="16"/>
+      <c r="L25" s="16"/>
+      <c r="M25" s="16"/>
+      <c r="N25" s="16"/>
+      <c r="O25" s="16"/>
+      <c r="P25" s="16"/>
+      <c r="Q25" s="16"/>
+    </row>
+    <row r="26" spans="1:17" s="14" customFormat="1">
+      <c r="A26" s="7"/>
+      <c r="B26" s="1"/>
+      <c r="C26" s="1"/>
+      <c r="D26" s="1"/>
+      <c r="E26" s="7"/>
+      <c r="F26" s="25"/>
+      <c r="G26" s="25"/>
+      <c r="H26" s="1"/>
+      <c r="I26" s="17"/>
+      <c r="J26" s="17"/>
+      <c r="K26" s="16"/>
+      <c r="L26" s="16"/>
+      <c r="M26" s="16"/>
+      <c r="N26" s="16"/>
+      <c r="O26" s="20"/>
+      <c r="P26" s="20"/>
+      <c r="Q26" s="16"/>
+    </row>
+    <row r="27" spans="1:17" s="14" customFormat="1">
+      <c r="A27" s="7"/>
+      <c r="B27" s="1"/>
+      <c r="C27" s="1"/>
+      <c r="D27" s="1"/>
+      <c r="E27" s="1"/>
+      <c r="F27" s="2"/>
+      <c r="G27" s="25"/>
+      <c r="H27" s="1"/>
+      <c r="I27" s="17"/>
+      <c r="J27" s="17"/>
+      <c r="K27" s="16"/>
+      <c r="L27" s="16"/>
+      <c r="M27" s="16"/>
+      <c r="N27" s="16"/>
+      <c r="O27" s="16"/>
+      <c r="P27" s="16"/>
+      <c r="Q27" s="16"/>
+    </row>
+    <row r="28" spans="1:17" s="14" customFormat="1">
+      <c r="A28" s="7"/>
+      <c r="B28" s="1"/>
+      <c r="C28" s="1"/>
+      <c r="D28" s="1"/>
+      <c r="E28" s="1"/>
+      <c r="F28" s="2"/>
+      <c r="G28" s="25"/>
+      <c r="H28" s="1"/>
+      <c r="I28" s="17"/>
+      <c r="J28" s="17"/>
+      <c r="K28" s="16"/>
+      <c r="L28" s="20"/>
+      <c r="M28" s="20"/>
+      <c r="N28" s="16"/>
+      <c r="O28" s="16"/>
+      <c r="P28" s="16"/>
+      <c r="Q28" s="16"/>
+    </row>
+    <row r="29" spans="1:17" s="14" customFormat="1">
+      <c r="A29" s="7"/>
+      <c r="B29" s="1"/>
+      <c r="C29" s="1"/>
+      <c r="D29" s="1"/>
+      <c r="E29" s="7"/>
+      <c r="F29" s="25"/>
+      <c r="G29" s="25"/>
+      <c r="H29" s="1"/>
+      <c r="I29" s="16"/>
+      <c r="J29" s="16"/>
+      <c r="K29" s="16"/>
+      <c r="L29" s="16"/>
+      <c r="M29" s="16"/>
+      <c r="N29" s="16"/>
+      <c r="O29" s="16"/>
+      <c r="P29" s="16"/>
+      <c r="Q29" s="16"/>
+    </row>
+    <row r="30" spans="1:17" s="14" customFormat="1">
+      <c r="A30" s="7"/>
+      <c r="B30" s="1"/>
+      <c r="C30" s="1"/>
+      <c r="D30" s="1"/>
+      <c r="E30" s="7"/>
+      <c r="F30" s="25"/>
+      <c r="G30" s="25"/>
+      <c r="H30" s="1"/>
+      <c r="I30" s="16"/>
+      <c r="J30" s="16"/>
+      <c r="K30" s="16"/>
+      <c r="L30" s="16"/>
+      <c r="M30" s="16"/>
+      <c r="N30" s="16"/>
+      <c r="O30" s="16"/>
+      <c r="P30" s="16"/>
+      <c r="Q30" s="16"/>
+    </row>
+    <row r="31" spans="1:17" s="14" customFormat="1">
+      <c r="A31" s="7"/>
+      <c r="B31" s="1"/>
+      <c r="C31" s="1"/>
+      <c r="D31" s="1"/>
+      <c r="E31" s="7"/>
+      <c r="F31" s="25"/>
+      <c r="G31" s="25"/>
+      <c r="H31" s="1"/>
+      <c r="I31" s="16"/>
+      <c r="J31" s="16"/>
+      <c r="K31" s="16"/>
+      <c r="L31" s="16"/>
+      <c r="M31" s="16"/>
+      <c r="N31" s="16"/>
+      <c r="O31" s="16"/>
+      <c r="P31" s="16"/>
+      <c r="Q31" s="16"/>
+    </row>
+    <row r="32" spans="1:17" s="14" customFormat="1">
+      <c r="A32" s="7"/>
+      <c r="B32" s="1"/>
+      <c r="C32" s="1"/>
+      <c r="D32" s="1"/>
+      <c r="E32" s="7"/>
+      <c r="F32" s="25"/>
+      <c r="G32" s="25"/>
+      <c r="H32" s="1"/>
+      <c r="I32" s="16"/>
+      <c r="J32" s="16"/>
+      <c r="K32" s="16"/>
+      <c r="L32" s="16"/>
+      <c r="M32" s="16"/>
+      <c r="N32" s="16"/>
+      <c r="O32" s="16"/>
+      <c r="P32" s="16"/>
+      <c r="Q32" s="16"/>
+    </row>
+    <row r="33" spans="1:17" s="14" customFormat="1">
+      <c r="A33" s="7"/>
+      <c r="B33" s="7"/>
+      <c r="C33" s="7"/>
+      <c r="D33" s="7"/>
+      <c r="E33" s="7"/>
+      <c r="F33" s="25"/>
+      <c r="G33" s="25"/>
+      <c r="H33" s="7"/>
+      <c r="I33" s="16"/>
+      <c r="J33" s="16"/>
+      <c r="K33" s="16"/>
+      <c r="L33" s="16"/>
+      <c r="M33" s="16"/>
+      <c r="N33" s="16"/>
+      <c r="O33" s="16"/>
+      <c r="P33" s="16"/>
+      <c r="Q33" s="16"/>
+    </row>
+    <row r="34" spans="1:17" s="14" customFormat="1">
+      <c r="A34" s="8"/>
+      <c r="B34" s="8"/>
+      <c r="C34" s="8"/>
+      <c r="D34" s="8"/>
+      <c r="E34" s="8"/>
+      <c r="F34" s="8"/>
+      <c r="G34" s="8"/>
+      <c r="H34" s="8"/>
+      <c r="I34" s="21"/>
+      <c r="J34" s="21"/>
+      <c r="K34" s="21"/>
+      <c r="L34" s="21"/>
+      <c r="M34" s="21"/>
+      <c r="N34" s="21"/>
+      <c r="O34" s="21"/>
+      <c r="P34" s="21"/>
+      <c r="Q34" s="21"/>
+    </row>
+    <row r="35" spans="1:17" s="14" customFormat="1">
+      <c r="A35" s="8"/>
+      <c r="B35" s="8"/>
+      <c r="C35" s="8"/>
+      <c r="D35" s="8"/>
+      <c r="E35" s="8"/>
+      <c r="F35" s="8"/>
+      <c r="G35" s="8"/>
+      <c r="H35" s="8"/>
+      <c r="I35" s="21"/>
+      <c r="J35" s="21"/>
+      <c r="K35" s="21"/>
+      <c r="L35" s="21"/>
+      <c r="M35" s="21"/>
+      <c r="N35" s="21"/>
+      <c r="O35" s="21"/>
+      <c r="P35" s="21"/>
+      <c r="Q35" s="21"/>
+    </row>
+    <row r="36" spans="1:17" s="14" customFormat="1">
+      <c r="A36" s="8"/>
+      <c r="B36" s="8"/>
+      <c r="C36" s="8"/>
+      <c r="D36" s="8"/>
+      <c r="E36" s="8"/>
+      <c r="F36" s="8"/>
+      <c r="G36" s="8"/>
+      <c r="H36" s="8"/>
+      <c r="I36" s="21"/>
+      <c r="J36" s="21"/>
+      <c r="K36" s="21"/>
+      <c r="L36" s="21"/>
+      <c r="M36" s="21"/>
+      <c r="N36" s="21"/>
+      <c r="O36" s="21"/>
+      <c r="P36" s="21"/>
+      <c r="Q36" s="21"/>
+    </row>
+    <row r="37" spans="1:17" s="14" customFormat="1">
+      <c r="A37" s="8"/>
+      <c r="B37" s="8"/>
+      <c r="C37" s="8"/>
+      <c r="D37" s="8"/>
+      <c r="E37" s="8"/>
+      <c r="F37" s="8"/>
+      <c r="G37" s="8"/>
+      <c r="H37" s="8"/>
+      <c r="I37" s="21"/>
+      <c r="J37" s="21"/>
+      <c r="K37" s="21"/>
+      <c r="L37" s="21"/>
+      <c r="M37" s="21"/>
+      <c r="N37" s="21"/>
+      <c r="O37" s="21"/>
+      <c r="P37" s="21"/>
+      <c r="Q37" s="21"/>
+    </row>
+    <row r="38" spans="1:17" s="14" customFormat="1">
+      <c r="A38" s="8"/>
+      <c r="B38" s="8"/>
+      <c r="C38" s="8"/>
+      <c r="D38" s="8"/>
+      <c r="E38" s="8"/>
+      <c r="F38" s="8"/>
+      <c r="G38" s="8"/>
+      <c r="H38" s="8"/>
+      <c r="I38" s="21"/>
+      <c r="J38" s="21"/>
+      <c r="K38" s="21"/>
+      <c r="L38" s="21"/>
+      <c r="M38" s="21"/>
+      <c r="N38" s="21"/>
+      <c r="O38" s="21"/>
+      <c r="P38" s="21"/>
+      <c r="Q38" s="21"/>
+    </row>
+    <row r="39" spans="1:17" s="14" customFormat="1">
+      <c r="A39" s="8"/>
+      <c r="B39" s="8"/>
+      <c r="C39" s="8"/>
+      <c r="D39" s="8"/>
+      <c r="E39" s="8"/>
+      <c r="F39" s="8"/>
+      <c r="G39" s="8"/>
+      <c r="H39" s="8"/>
+      <c r="I39" s="21"/>
+      <c r="J39" s="21"/>
+      <c r="K39" s="21"/>
+      <c r="L39" s="21"/>
+      <c r="M39" s="21"/>
+      <c r="N39" s="21"/>
+      <c r="O39" s="21"/>
+      <c r="P39" s="21"/>
+      <c r="Q39" s="21"/>
+    </row>
+    <row r="40" spans="1:17" s="14" customFormat="1">
+      <c r="A40" s="8"/>
+      <c r="B40" s="8"/>
+      <c r="C40" s="8"/>
+      <c r="D40" s="8"/>
+      <c r="E40" s="8"/>
+      <c r="F40" s="8"/>
+      <c r="G40" s="8"/>
+      <c r="H40" s="8"/>
+      <c r="I40" s="21"/>
+      <c r="J40" s="21"/>
+      <c r="K40" s="21"/>
+      <c r="L40" s="21"/>
+      <c r="M40" s="21"/>
+      <c r="N40" s="21"/>
+      <c r="O40" s="21"/>
+      <c r="P40" s="21"/>
+      <c r="Q40" s="21"/>
+    </row>
+    <row r="41" spans="1:17" s="14" customFormat="1">
+      <c r="A41" s="8"/>
+      <c r="B41" s="8"/>
+      <c r="C41" s="8"/>
+      <c r="D41" s="8"/>
+      <c r="E41" s="8"/>
+      <c r="F41" s="8"/>
+      <c r="G41" s="8"/>
+      <c r="H41" s="8"/>
+      <c r="I41" s="21"/>
+      <c r="J41" s="21"/>
+      <c r="K41" s="21"/>
+      <c r="L41" s="21"/>
+      <c r="M41" s="21"/>
+      <c r="N41" s="21"/>
+      <c r="O41" s="21"/>
+      <c r="P41" s="21"/>
+      <c r="Q41" s="21"/>
+    </row>
+    <row r="42" spans="1:17" s="14" customFormat="1">
+      <c r="A42" s="8"/>
+      <c r="B42" s="8"/>
+      <c r="C42" s="8"/>
+      <c r="D42" s="8"/>
+      <c r="E42" s="8"/>
+      <c r="F42" s="8"/>
+      <c r="G42" s="8"/>
+      <c r="H42" s="8"/>
+      <c r="I42" s="21"/>
+      <c r="J42" s="21"/>
+      <c r="K42" s="21"/>
+      <c r="L42" s="21"/>
+      <c r="M42" s="21"/>
+      <c r="N42" s="21"/>
+      <c r="O42" s="21"/>
+      <c r="P42" s="21"/>
+      <c r="Q42" s="21"/>
+    </row>
+    <row r="43" spans="1:17" s="14" customFormat="1">
+      <c r="A43" s="8"/>
+      <c r="B43" s="8"/>
+      <c r="C43" s="8"/>
+      <c r="D43" s="8"/>
+      <c r="E43" s="8"/>
+      <c r="F43" s="8"/>
+      <c r="G43" s="8"/>
+      <c r="H43" s="8"/>
+      <c r="I43" s="21"/>
+      <c r="J43" s="21"/>
+      <c r="K43" s="21"/>
+      <c r="L43" s="21"/>
+      <c r="M43" s="21"/>
+      <c r="N43" s="21"/>
+      <c r="O43" s="21"/>
+      <c r="P43" s="21"/>
+      <c r="Q43" s="21"/>
+    </row>
+    <row r="44" spans="1:17" s="14" customFormat="1">
+      <c r="A44" s="8"/>
+      <c r="B44" s="8"/>
+      <c r="C44" s="8"/>
+      <c r="D44" s="8"/>
+      <c r="E44" s="8"/>
+      <c r="F44" s="8"/>
+      <c r="G44" s="8"/>
+      <c r="H44" s="8"/>
+      <c r="I44" s="21"/>
+      <c r="J44" s="21"/>
+      <c r="K44" s="21"/>
+      <c r="L44" s="21"/>
+      <c r="M44" s="21"/>
+      <c r="N44" s="21"/>
+      <c r="O44" s="21"/>
+      <c r="P44" s="21"/>
+      <c r="Q44" s="21"/>
+    </row>
+    <row r="45" spans="1:17" s="14" customFormat="1">
+      <c r="A45" s="8"/>
+      <c r="B45" s="8"/>
+      <c r="C45" s="8"/>
+      <c r="D45" s="8"/>
+      <c r="E45" s="8"/>
+      <c r="F45" s="8"/>
+      <c r="G45" s="8"/>
+      <c r="H45" s="8"/>
+      <c r="I45" s="21"/>
+      <c r="J45" s="21"/>
+      <c r="K45" s="21"/>
+      <c r="L45" s="21"/>
+      <c r="M45" s="21"/>
+      <c r="N45" s="21"/>
+      <c r="O45" s="21"/>
+      <c r="P45" s="21"/>
+      <c r="Q45" s="21"/>
+    </row>
+    <row r="46" spans="1:17" s="14" customFormat="1">
+      <c r="A46" s="8"/>
+      <c r="B46" s="8"/>
+      <c r="C46" s="8"/>
+      <c r="D46" s="8"/>
+      <c r="E46" s="8"/>
+      <c r="F46" s="8"/>
+      <c r="G46" s="8"/>
+      <c r="H46" s="8"/>
+      <c r="I46" s="21"/>
+      <c r="J46" s="21"/>
+      <c r="K46" s="21"/>
+      <c r="L46" s="21"/>
+      <c r="M46" s="21"/>
+      <c r="N46" s="21"/>
+      <c r="O46" s="21"/>
+      <c r="P46" s="21"/>
+      <c r="Q46" s="21"/>
+    </row>
+    <row r="47" spans="1:17" s="14" customFormat="1">
+      <c r="A47" s="8"/>
+      <c r="B47" s="8"/>
+      <c r="C47" s="8"/>
+      <c r="D47" s="8"/>
+      <c r="E47" s="8"/>
+      <c r="F47" s="8"/>
+      <c r="G47" s="8"/>
+      <c r="H47" s="8"/>
+      <c r="I47" s="21"/>
+      <c r="J47" s="21"/>
+      <c r="K47" s="21"/>
+      <c r="L47" s="21"/>
+      <c r="M47" s="21"/>
+      <c r="N47" s="21"/>
+      <c r="O47" s="21"/>
+      <c r="P47" s="21"/>
+      <c r="Q47" s="21"/>
+    </row>
+    <row r="48" spans="1:17" s="14" customFormat="1">
+      <c r="A48" s="8"/>
+      <c r="B48" s="8"/>
+      <c r="C48" s="8"/>
+      <c r="D48" s="8"/>
+      <c r="E48" s="8"/>
+      <c r="F48" s="8"/>
+      <c r="G48" s="8"/>
+      <c r="H48" s="8"/>
+      <c r="I48" s="21"/>
+      <c r="J48" s="21"/>
+      <c r="K48" s="21"/>
+      <c r="L48" s="21"/>
+      <c r="M48" s="21"/>
+      <c r="N48" s="21"/>
+      <c r="O48" s="21"/>
+      <c r="P48" s="21"/>
+      <c r="Q48" s="21"/>
+    </row>
+    <row r="49" spans="1:17" s="14" customFormat="1">
+      <c r="A49" s="8"/>
+      <c r="B49" s="8"/>
+      <c r="C49" s="8"/>
+      <c r="D49" s="8"/>
+      <c r="E49" s="8"/>
+      <c r="F49" s="8"/>
+      <c r="G49" s="8"/>
+      <c r="H49" s="8"/>
+      <c r="I49" s="21"/>
+      <c r="J49" s="21"/>
+      <c r="K49" s="21"/>
+      <c r="L49" s="21"/>
+      <c r="M49" s="21"/>
+      <c r="N49" s="21"/>
+      <c r="O49" s="21"/>
+      <c r="P49" s="21"/>
+      <c r="Q49" s="21"/>
+    </row>
+    <row r="50" spans="1:17" s="14" customFormat="1">
+      <c r="A50" s="8"/>
+      <c r="B50" s="8"/>
+      <c r="C50" s="8"/>
+      <c r="D50" s="8"/>
+      <c r="E50" s="8"/>
+      <c r="F50" s="8"/>
+      <c r="G50" s="8"/>
+      <c r="H50" s="8"/>
+      <c r="I50" s="21"/>
+      <c r="J50" s="21"/>
+      <c r="K50" s="21"/>
+      <c r="L50" s="21"/>
+      <c r="M50" s="21"/>
+      <c r="N50" s="21"/>
+      <c r="O50" s="21"/>
+      <c r="P50" s="21"/>
+      <c r="Q50" s="21"/>
+    </row>
+    <row r="51" spans="1:17">
+      <c r="A51" s="8"/>
+      <c r="B51" s="8"/>
+      <c r="C51" s="8"/>
+      <c r="D51" s="8"/>
+      <c r="E51" s="8"/>
+      <c r="F51" s="8"/>
+      <c r="G51" s="8"/>
+      <c r="H51" s="8"/>
+      <c r="I51" s="21"/>
+      <c r="J51" s="21"/>
+      <c r="K51" s="21"/>
+      <c r="L51" s="21"/>
+      <c r="M51" s="21"/>
+      <c r="N51" s="21"/>
+      <c r="O51" s="21"/>
+      <c r="P51" s="21"/>
+      <c r="Q51" s="21"/>
+    </row>
+    <row r="52" spans="1:17">
+      <c r="A52" s="8"/>
+      <c r="B52" s="8"/>
+      <c r="C52" s="8"/>
+      <c r="D52" s="8"/>
+      <c r="E52" s="8"/>
+      <c r="F52" s="8"/>
+      <c r="G52" s="8"/>
+      <c r="H52" s="8"/>
+      <c r="I52" s="21"/>
+      <c r="J52" s="21"/>
+      <c r="K52" s="21"/>
+      <c r="L52" s="21"/>
+      <c r="M52" s="21"/>
+      <c r="N52" s="21"/>
+      <c r="O52" s="21"/>
+      <c r="P52" s="21"/>
+      <c r="Q52" s="21"/>
+    </row>
+    <row r="53" spans="1:17">
+      <c r="A53" s="8"/>
+      <c r="B53" s="8"/>
+      <c r="C53" s="8"/>
+      <c r="D53" s="8"/>
+      <c r="E53" s="8"/>
+      <c r="F53" s="8"/>
+      <c r="G53" s="8"/>
+      <c r="H53" s="8"/>
+      <c r="I53" s="21"/>
+      <c r="J53" s="21"/>
+      <c r="K53" s="21"/>
+      <c r="L53" s="21"/>
+      <c r="M53" s="21"/>
+      <c r="N53" s="21"/>
+      <c r="O53" s="21"/>
+      <c r="P53" s="21"/>
+      <c r="Q53" s="21"/>
+    </row>
+    <row r="54" spans="1:17">
+      <c r="A54" s="8"/>
+      <c r="B54" s="8"/>
+      <c r="C54" s="8"/>
+      <c r="D54" s="8"/>
+      <c r="E54" s="8"/>
+      <c r="F54" s="8"/>
+      <c r="G54" s="8"/>
+      <c r="H54" s="8"/>
+      <c r="I54" s="21"/>
+      <c r="J54" s="21"/>
+      <c r="K54" s="21"/>
+      <c r="L54" s="21"/>
+      <c r="M54" s="21"/>
+      <c r="N54" s="21"/>
+      <c r="O54" s="21"/>
+      <c r="P54" s="21"/>
+      <c r="Q54" s="21"/>
+    </row>
+    <row r="55" spans="1:17">
+      <c r="A55" s="8"/>
+      <c r="B55" s="8"/>
+      <c r="C55" s="8"/>
+      <c r="D55" s="8"/>
+      <c r="E55" s="8"/>
+      <c r="F55" s="8"/>
+      <c r="G55" s="8"/>
+      <c r="H55" s="8"/>
+      <c r="I55" s="21"/>
+      <c r="J55" s="21"/>
+      <c r="K55" s="21"/>
+      <c r="L55" s="21"/>
+      <c r="M55" s="21"/>
+      <c r="N55" s="21"/>
+      <c r="O55" s="21"/>
+      <c r="P55" s="21"/>
+      <c r="Q55" s="21"/>
+    </row>
+    <row r="56" spans="1:17">
+      <c r="A56" s="8"/>
+      <c r="B56" s="8"/>
+      <c r="C56" s="8"/>
+      <c r="D56" s="8"/>
+      <c r="E56" s="8"/>
+      <c r="F56" s="8"/>
+      <c r="G56" s="8"/>
+      <c r="H56" s="8"/>
+      <c r="I56" s="21"/>
+      <c r="J56" s="21"/>
+      <c r="K56" s="21"/>
+      <c r="L56" s="21"/>
+      <c r="M56" s="21"/>
+      <c r="N56" s="21"/>
+      <c r="O56" s="21"/>
+      <c r="P56" s="21"/>
+      <c r="Q56" s="21"/>
+    </row>
+    <row r="57" spans="1:17">
+      <c r="A57" s="8"/>
+      <c r="B57" s="8"/>
+      <c r="C57" s="8"/>
+      <c r="D57" s="8"/>
+      <c r="E57" s="8"/>
+      <c r="F57" s="8"/>
+      <c r="G57" s="8"/>
+      <c r="H57" s="8"/>
+      <c r="I57" s="21"/>
+      <c r="J57" s="21"/>
+      <c r="K57" s="21"/>
+      <c r="L57" s="21"/>
+      <c r="M57" s="21"/>
+      <c r="N57" s="21"/>
+      <c r="O57" s="21"/>
+      <c r="P57" s="21"/>
+      <c r="Q57" s="21"/>
+    </row>
+    <row r="58" spans="1:17">
+      <c r="A58" s="8"/>
+      <c r="B58" s="8"/>
+      <c r="C58" s="8"/>
+      <c r="D58" s="8"/>
+      <c r="E58" s="8"/>
+      <c r="F58" s="8"/>
+      <c r="G58" s="8"/>
+      <c r="H58" s="8"/>
+      <c r="I58" s="21"/>
+      <c r="J58" s="21"/>
+      <c r="K58" s="21"/>
+      <c r="L58" s="21"/>
+      <c r="M58" s="21"/>
+      <c r="N58" s="21"/>
+      <c r="O58" s="21"/>
+      <c r="P58" s="21"/>
+      <c r="Q58" s="21"/>
+    </row>
+    <row r="59" spans="1:17">
+      <c r="A59" s="8"/>
+      <c r="B59" s="8"/>
+      <c r="C59" s="8"/>
+      <c r="D59" s="8"/>
+      <c r="E59" s="8"/>
+      <c r="F59" s="8"/>
+      <c r="G59" s="8"/>
+      <c r="H59" s="8"/>
+      <c r="I59" s="21"/>
+      <c r="J59" s="21"/>
+      <c r="K59" s="21"/>
+      <c r="L59" s="21"/>
+      <c r="M59" s="21"/>
+      <c r="N59" s="21"/>
+      <c r="O59" s="21"/>
+      <c r="P59" s="21"/>
+      <c r="Q59" s="21"/>
+    </row>
+    <row r="60" spans="1:17">
+      <c r="A60" s="8"/>
+      <c r="B60" s="8"/>
+      <c r="C60" s="8"/>
+      <c r="D60" s="8"/>
+      <c r="E60" s="8"/>
+      <c r="F60" s="8"/>
+      <c r="G60" s="8"/>
+      <c r="H60" s="8"/>
+      <c r="I60" s="21"/>
+      <c r="J60" s="21"/>
+      <c r="K60" s="21"/>
+      <c r="L60" s="21"/>
+      <c r="M60" s="21"/>
+      <c r="N60" s="21"/>
+      <c r="O60" s="21"/>
+      <c r="P60" s="21"/>
+      <c r="Q60" s="21"/>
+    </row>
+    <row r="61" spans="1:17">
+      <c r="A61" s="8"/>
+      <c r="B61" s="8"/>
+      <c r="C61" s="8"/>
+      <c r="D61" s="8"/>
+      <c r="E61" s="8"/>
+      <c r="F61" s="8"/>
+      <c r="G61" s="8"/>
+      <c r="H61" s="8"/>
+      <c r="I61" s="21"/>
+      <c r="J61" s="21"/>
+      <c r="K61" s="21"/>
+      <c r="L61" s="21"/>
+      <c r="M61" s="21"/>
+      <c r="N61" s="21"/>
+      <c r="O61" s="21"/>
+      <c r="P61" s="21"/>
+      <c r="Q61" s="21"/>
+    </row>
+    <row r="62" spans="1:17">
+      <c r="A62" s="8"/>
+      <c r="B62" s="8"/>
+      <c r="C62" s="8"/>
+      <c r="D62" s="8"/>
+      <c r="E62" s="8"/>
+      <c r="F62" s="8"/>
+      <c r="G62" s="8"/>
+      <c r="H62" s="8"/>
+      <c r="I62" s="21"/>
+      <c r="J62" s="21"/>
+      <c r="K62" s="21"/>
+      <c r="L62" s="21"/>
+      <c r="M62" s="21"/>
+      <c r="N62" s="21"/>
+      <c r="O62" s="21"/>
+      <c r="P62" s="21"/>
+      <c r="Q62" s="21"/>
+    </row>
+    <row r="63" spans="1:17">
+      <c r="A63" s="8"/>
+      <c r="B63" s="8"/>
+      <c r="C63" s="8"/>
+      <c r="D63" s="8"/>
+      <c r="E63" s="8"/>
+      <c r="F63" s="8"/>
+      <c r="G63" s="8"/>
+      <c r="H63" s="8"/>
+      <c r="I63" s="21"/>
+      <c r="J63" s="21"/>
+      <c r="K63" s="21"/>
+      <c r="L63" s="21"/>
+      <c r="M63" s="21"/>
+      <c r="N63" s="21"/>
+      <c r="O63" s="21"/>
+      <c r="P63" s="21"/>
+      <c r="Q63" s="21"/>
+    </row>
+    <row r="64" spans="1:17">
+      <c r="A64" s="8"/>
+      <c r="B64" s="8"/>
+      <c r="C64" s="8"/>
+      <c r="D64" s="8"/>
+      <c r="E64" s="8"/>
+      <c r="F64" s="8"/>
+      <c r="G64" s="8"/>
+      <c r="H64" s="8"/>
+      <c r="I64" s="21"/>
+      <c r="J64" s="21"/>
+      <c r="K64" s="21"/>
+      <c r="L64" s="21"/>
+      <c r="M64" s="21"/>
+      <c r="N64" s="21"/>
+      <c r="O64" s="21"/>
+      <c r="P64" s="21"/>
+      <c r="Q64" s="21"/>
+    </row>
+    <row r="65" spans="1:17">
+      <c r="A65" s="8"/>
+      <c r="B65" s="8"/>
+      <c r="C65" s="8"/>
+      <c r="D65" s="8"/>
+      <c r="E65" s="8"/>
+      <c r="F65" s="8"/>
+      <c r="G65" s="8"/>
+      <c r="H65" s="8"/>
+      <c r="I65" s="21"/>
+      <c r="J65" s="21"/>
+      <c r="K65" s="21"/>
+      <c r="L65" s="21"/>
+      <c r="M65" s="21"/>
+      <c r="N65" s="21"/>
+      <c r="O65" s="21"/>
+      <c r="P65" s="21"/>
+      <c r="Q65" s="21"/>
+    </row>
+    <row r="66" spans="1:17">
+      <c r="A66" s="8"/>
+      <c r="B66" s="8"/>
+      <c r="C66" s="8"/>
+      <c r="D66" s="8"/>
+      <c r="E66" s="8"/>
+      <c r="F66" s="8"/>
+      <c r="G66" s="8"/>
+      <c r="H66" s="8"/>
+      <c r="I66" s="21"/>
+      <c r="J66" s="21"/>
+      <c r="K66" s="21"/>
+      <c r="L66" s="21"/>
+      <c r="M66" s="21"/>
+      <c r="N66" s="21"/>
+      <c r="O66" s="21"/>
+      <c r="P66" s="21"/>
+      <c r="Q66" s="21"/>
+    </row>
+    <row r="67" spans="1:17">
+      <c r="A67" s="8"/>
+      <c r="B67" s="8"/>
+      <c r="C67" s="8"/>
+      <c r="D67" s="8"/>
+      <c r="E67" s="8"/>
+      <c r="F67" s="8"/>
+      <c r="G67" s="8"/>
+      <c r="H67" s="8"/>
+      <c r="I67" s="21"/>
+      <c r="J67" s="21"/>
+      <c r="K67" s="21"/>
+      <c r="L67" s="21"/>
+      <c r="M67" s="21"/>
+      <c r="N67" s="21"/>
+      <c r="O67" s="21"/>
+      <c r="P67" s="21"/>
+      <c r="Q67" s="21"/>
+    </row>
+    <row r="68" spans="1:17">
+      <c r="A68" s="8"/>
+      <c r="B68" s="8"/>
+      <c r="C68" s="8"/>
+      <c r="D68" s="8"/>
+      <c r="E68" s="8"/>
+      <c r="F68" s="8"/>
+      <c r="G68" s="8"/>
+      <c r="H68" s="8"/>
+      <c r="I68" s="21"/>
+      <c r="J68" s="21"/>
+      <c r="K68" s="21"/>
+      <c r="L68" s="21"/>
+      <c r="M68" s="21"/>
+      <c r="N68" s="21"/>
+      <c r="O68" s="21"/>
+      <c r="P68" s="21"/>
+      <c r="Q68" s="21"/>
+    </row>
+    <row r="69" spans="1:17">
+      <c r="A69" s="9"/>
+      <c r="B69" s="9"/>
+      <c r="C69" s="9"/>
+      <c r="D69" s="9"/>
+      <c r="E69" s="9"/>
+      <c r="F69" s="9"/>
+      <c r="G69" s="9"/>
+      <c r="H69" s="9"/>
+      <c r="I69" s="22"/>
+      <c r="J69" s="22"/>
+      <c r="K69" s="22"/>
+      <c r="L69" s="22"/>
+      <c r="M69" s="22"/>
+      <c r="N69" s="22"/>
+      <c r="O69" s="22"/>
+      <c r="P69" s="22"/>
+      <c r="Q69" s="22"/>
+    </row>
+    <row r="70" spans="1:17">
+      <c r="A70" s="9"/>
+      <c r="B70" s="9"/>
+      <c r="C70" s="9"/>
+      <c r="D70" s="9"/>
+      <c r="E70" s="9"/>
+      <c r="F70" s="9"/>
+      <c r="G70" s="9"/>
+      <c r="H70" s="9"/>
+      <c r="I70" s="22"/>
+      <c r="J70" s="22"/>
+      <c r="K70" s="22"/>
+      <c r="L70" s="22"/>
+      <c r="M70" s="22"/>
+      <c r="N70" s="22"/>
+      <c r="O70" s="22"/>
+      <c r="P70" s="22"/>
+      <c r="Q70" s="22"/>
+    </row>
+  </sheetData>
+  <mergeCells count="9">
+    <mergeCell ref="L2:N2"/>
+    <mergeCell ref="O2:Q2"/>
+    <mergeCell ref="I1:Q1"/>
+    <mergeCell ref="A1:B1"/>
+    <mergeCell ref="C1:E1"/>
+    <mergeCell ref="F1:G1"/>
+    <mergeCell ref="A2:B2"/>
+    <mergeCell ref="C2:H2"/>
+    <mergeCell ref="I2:K2"/>
+  </mergeCells>
+  <phoneticPr fontId="2"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="landscape" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr>
+    <tabColor theme="8" tint="0.39997558519241921"/>
+  </sheetPr>
+  <dimension ref="A1:Q71"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C6" sqref="C6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5"/>
+  <cols>
+    <col min="1" max="1" width="5.625" customWidth="1"/>
+    <col min="2" max="2" width="23.125" customWidth="1"/>
+    <col min="3" max="3" width="13" customWidth="1"/>
+    <col min="4" max="4" width="6.625" customWidth="1"/>
+    <col min="5" max="5" width="23.125" customWidth="1"/>
+    <col min="6" max="6" width="9.25" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="8.75" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="27.25" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="3.875" style="23" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="3.875" style="23" customWidth="1"/>
+    <col min="11" max="11" width="8.75" style="23" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="3.875" style="23" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="3.875" style="23" customWidth="1"/>
+    <col min="14" max="14" width="8.75" style="23" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="3.875" style="23" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="3.875" style="23" customWidth="1"/>
+    <col min="17" max="17" width="8.75" style="23" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:17" ht="18" customHeight="1" thickBot="1">
+      <c r="A1" s="32" t="s">
+        <v>32</v>
+      </c>
+      <c r="B1" s="33"/>
+      <c r="C1" s="34" t="s">
+        <v>65</v>
+      </c>
+      <c r="D1" s="34"/>
+      <c r="E1" s="35"/>
+      <c r="F1" s="32" t="s">
+        <v>11</v>
+      </c>
+      <c r="G1" s="33"/>
+      <c r="H1" s="3"/>
+      <c r="I1" s="41" t="s">
+        <v>27</v>
+      </c>
+      <c r="J1" s="42"/>
+      <c r="K1" s="42"/>
+      <c r="L1" s="42"/>
+      <c r="M1" s="42"/>
+      <c r="N1" s="42"/>
+      <c r="O1" s="42"/>
+      <c r="P1" s="42"/>
+      <c r="Q1" s="43"/>
+    </row>
+    <row r="2" spans="1:17" ht="18" customHeight="1" thickBot="1">
+      <c r="A2" s="36" t="s">
+        <v>5</v>
+      </c>
+      <c r="B2" s="37"/>
+      <c r="C2" s="38" t="s">
+        <v>66</v>
+      </c>
+      <c r="D2" s="38"/>
+      <c r="E2" s="38"/>
+      <c r="F2" s="38"/>
+      <c r="G2" s="38"/>
+      <c r="H2" s="38"/>
+      <c r="I2" s="39" t="s">
+        <v>12</v>
+      </c>
+      <c r="J2" s="40"/>
+      <c r="K2" s="29"/>
+      <c r="L2" s="29" t="s">
+        <v>15</v>
+      </c>
+      <c r="M2" s="29"/>
+      <c r="N2" s="29"/>
+      <c r="O2" s="29" t="s">
+        <v>16</v>
+      </c>
+      <c r="P2" s="30"/>
+      <c r="Q2" s="31"/>
+    </row>
+    <row r="3" spans="1:17">
+      <c r="A3" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="B3" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="C3" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="D3" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="E3" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="F3" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="G3" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="H3" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="I3" s="15" t="s">
+        <v>13</v>
+      </c>
+      <c r="J3" s="15" t="s">
+        <v>14</v>
+      </c>
+      <c r="K3" s="15" t="s">
+        <v>19</v>
+      </c>
+      <c r="L3" s="15" t="s">
+        <v>13</v>
+      </c>
+      <c r="M3" s="15" t="s">
+        <v>14</v>
+      </c>
+      <c r="N3" s="15" t="s">
+        <v>19</v>
+      </c>
+      <c r="O3" s="15" t="s">
+        <v>13</v>
+      </c>
+      <c r="P3" s="15" t="s">
+        <v>14</v>
+      </c>
+      <c r="Q3" s="15" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="4" spans="1:17" s="14" customFormat="1">
+      <c r="A4" s="7"/>
+      <c r="B4" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>173</v>
+      </c>
+      <c r="D4" s="1"/>
+      <c r="E4" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="F4" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="G4" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="H4" s="1" t="s">
+        <v>158</v>
+      </c>
+      <c r="I4" s="16"/>
+      <c r="J4" s="16"/>
+      <c r="K4" s="16"/>
+      <c r="L4" s="16"/>
+      <c r="M4" s="16"/>
+      <c r="N4" s="16"/>
+      <c r="O4" s="16"/>
+      <c r="P4" s="16"/>
+      <c r="Q4" s="16"/>
+    </row>
+    <row r="5" spans="1:17" s="14" customFormat="1">
+      <c r="A5" s="7"/>
+      <c r="B5" s="1"/>
+      <c r="C5" s="1"/>
+      <c r="D5" s="1"/>
+      <c r="E5" s="1"/>
+      <c r="F5" s="2"/>
+      <c r="G5" s="2"/>
+      <c r="H5" s="1"/>
+      <c r="I5" s="16"/>
+      <c r="J5" s="16"/>
+      <c r="K5" s="16"/>
+      <c r="L5" s="16"/>
+      <c r="M5" s="16"/>
+      <c r="N5" s="16"/>
+      <c r="O5" s="16"/>
+      <c r="P5" s="16"/>
+      <c r="Q5" s="16"/>
+    </row>
+    <row r="6" spans="1:17" s="14" customFormat="1">
+      <c r="A6" s="7"/>
       <c r="B6" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>36</v>
+        <v>173</v>
       </c>
       <c r="D6" s="1"/>
       <c r="E6" s="1"/>
       <c r="F6" s="2"/>
       <c r="G6" s="2"/>
       <c r="H6" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="I6" s="16"/>
       <c r="J6" s="16"/>
@@ -3448,10 +4972,10 @@
     <row r="7" spans="1:17" s="14" customFormat="1">
       <c r="A7" s="7"/>
       <c r="B7" s="1" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="D7" s="1">
         <v>255</v>
@@ -3460,7 +4984,7 @@
       <c r="F7" s="2"/>
       <c r="G7" s="2"/>
       <c r="H7" s="1" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="I7" s="16"/>
       <c r="J7" s="16"/>
@@ -4714,7 +6238,7 @@
   <dimension ref="A1:Q70"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E29" sqref="E29"/>
+      <selection activeCell="C20" sqref="C20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -4740,11 +6264,11 @@
   <sheetData>
     <row r="1" spans="1:17" ht="18" customHeight="1" thickBot="1">
       <c r="A1" s="32" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B1" s="33"/>
       <c r="C1" s="34" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="D1" s="34"/>
       <c r="E1" s="35"/>
@@ -4754,7 +6278,7 @@
       <c r="G1" s="33"/>
       <c r="H1" s="3"/>
       <c r="I1" s="41" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="J1" s="42"/>
       <c r="K1" s="42"/>
@@ -4771,7 +6295,7 @@
       </c>
       <c r="B2" s="37"/>
       <c r="C2" s="38" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="D2" s="38"/>
       <c r="E2" s="38"/>
@@ -4805,7 +6329,7 @@
         <v>2</v>
       </c>
       <c r="D3" s="6" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E3" s="6" t="s">
         <v>4</v>
@@ -4826,7 +6350,7 @@
         <v>14</v>
       </c>
       <c r="K3" s="15" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="L3" s="15" t="s">
         <v>13</v>
@@ -4835,7 +6359,7 @@
         <v>14</v>
       </c>
       <c r="N3" s="15" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="O3" s="15" t="s">
         <v>13</v>
@@ -4844,7 +6368,7 @@
         <v>14</v>
       </c>
       <c r="Q3" s="15" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="4" spans="1:17" s="14" customFormat="1">
@@ -4853,11 +6377,11 @@
         <v>3</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>36</v>
+        <v>173</v>
       </c>
       <c r="D4" s="1"/>
       <c r="E4" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="F4" s="2" t="s">
         <v>8</v>
@@ -4866,7 +6390,7 @@
         <v>8</v>
       </c>
       <c r="H4" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="I4" s="16"/>
       <c r="J4" s="16"/>
@@ -4900,17 +6424,17 @@
     <row r="6" spans="1:17" s="14" customFormat="1">
       <c r="A6" s="7"/>
       <c r="B6" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>36</v>
+        <v>173</v>
       </c>
       <c r="D6" s="1"/>
       <c r="E6" s="1"/>
       <c r="F6" s="2"/>
       <c r="G6" s="2"/>
       <c r="H6" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="I6" s="16"/>
       <c r="J6" s="16"/>
@@ -4944,17 +6468,17 @@
     <row r="8" spans="1:17" s="14" customFormat="1">
       <c r="A8" s="7"/>
       <c r="B8" s="1" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="D8" s="1"/>
       <c r="E8" s="10"/>
       <c r="F8" s="24"/>
       <c r="G8" s="24"/>
       <c r="H8" s="12" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="I8" s="18"/>
       <c r="J8" s="18"/>
@@ -4969,10 +6493,10 @@
     <row r="9" spans="1:17" s="14" customFormat="1">
       <c r="A9" s="7"/>
       <c r="B9" s="4" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D9" s="1">
         <v>10</v>
@@ -4981,7 +6505,7 @@
       <c r="F9" s="24"/>
       <c r="G9" s="24"/>
       <c r="H9" s="12" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="I9" s="18"/>
       <c r="J9" s="18"/>
@@ -5015,10 +6539,10 @@
     <row r="11" spans="1:17" s="14" customFormat="1">
       <c r="A11" s="7"/>
       <c r="B11" s="1" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D11" s="1">
         <v>255</v>
@@ -5027,7 +6551,7 @@
       <c r="F11" s="2"/>
       <c r="G11" s="2"/>
       <c r="H11" s="1" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="I11" s="17"/>
       <c r="J11" s="17"/>
@@ -5061,10 +6585,10 @@
     <row r="13" spans="1:17" s="14" customFormat="1">
       <c r="A13" s="7"/>
       <c r="B13" s="1" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="D13" s="1">
         <v>255</v>
@@ -5073,7 +6597,7 @@
       <c r="F13" s="2"/>
       <c r="G13" s="25"/>
       <c r="H13" s="1" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="I13" s="17"/>
       <c r="J13" s="17"/>
@@ -5088,10 +6612,10 @@
     <row r="14" spans="1:17" s="14" customFormat="1">
       <c r="A14" s="7"/>
       <c r="B14" s="1" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="D14" s="1">
         <v>255</v>
@@ -5100,7 +6624,7 @@
       <c r="F14" s="2"/>
       <c r="G14" s="25"/>
       <c r="H14" s="1" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="I14" s="18"/>
       <c r="J14" s="18"/>
@@ -5115,10 +6639,10 @@
     <row r="15" spans="1:17" s="14" customFormat="1">
       <c r="A15" s="7"/>
       <c r="B15" s="1" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="D15" s="1">
         <v>255</v>
@@ -5127,7 +6651,7 @@
       <c r="F15" s="2"/>
       <c r="G15" s="25"/>
       <c r="H15" s="1" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="I15" s="16"/>
       <c r="J15" s="16"/>
@@ -5142,10 +6666,10 @@
     <row r="16" spans="1:17" s="14" customFormat="1">
       <c r="A16" s="7"/>
       <c r="B16" s="1" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="D16" s="1">
         <v>255</v>
@@ -5154,7 +6678,7 @@
       <c r="F16" s="2"/>
       <c r="G16" s="25"/>
       <c r="H16" s="1" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="I16" s="16"/>
       <c r="J16" s="16"/>
@@ -5169,10 +6693,10 @@
     <row r="17" spans="1:17" s="14" customFormat="1">
       <c r="A17" s="7"/>
       <c r="B17" s="1" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="D17" s="1">
         <v>255</v>
@@ -5181,7 +6705,7 @@
       <c r="F17" s="2"/>
       <c r="G17" s="25"/>
       <c r="H17" s="1" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="I17" s="16"/>
       <c r="J17" s="16"/>
@@ -5196,10 +6720,10 @@
     <row r="18" spans="1:17" s="14" customFormat="1">
       <c r="A18" s="7"/>
       <c r="B18" s="1" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="D18" s="1">
         <v>255</v>
@@ -5208,7 +6732,7 @@
       <c r="F18" s="2"/>
       <c r="G18" s="25"/>
       <c r="H18" s="1" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="I18" s="17"/>
       <c r="J18" s="17"/>
@@ -5242,17 +6766,17 @@
     <row r="20" spans="1:17" s="14" customFormat="1">
       <c r="A20" s="7"/>
       <c r="B20" s="1" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>63</v>
+        <v>173</v>
       </c>
       <c r="D20" s="1"/>
       <c r="E20" s="1"/>
       <c r="F20" s="2"/>
       <c r="G20" s="25"/>
       <c r="H20" s="1" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="I20" s="17"/>
       <c r="J20" s="17"/>
@@ -5286,17 +6810,17 @@
     <row r="22" spans="1:17" s="14" customFormat="1">
       <c r="A22" s="7"/>
       <c r="B22" s="1" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="D22" s="1"/>
       <c r="E22" s="7"/>
       <c r="F22" s="25"/>
       <c r="G22" s="25"/>
       <c r="H22" s="1" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="I22" s="17"/>
       <c r="J22" s="17"/>
@@ -6246,7 +7770,7 @@
   <dimension ref="A1:Q73"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E29" sqref="E29"/>
+      <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -6272,11 +7796,11 @@
   <sheetData>
     <row r="1" spans="1:17" ht="18" customHeight="1" thickBot="1">
       <c r="A1" s="32" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B1" s="33"/>
       <c r="C1" s="34" t="s">
-        <v>146</v>
+        <v>128</v>
       </c>
       <c r="D1" s="34"/>
       <c r="E1" s="35"/>
@@ -6286,7 +7810,7 @@
       <c r="G1" s="33"/>
       <c r="H1" s="3"/>
       <c r="I1" s="41" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="J1" s="42"/>
       <c r="K1" s="42"/>
@@ -6303,7 +7827,7 @@
       </c>
       <c r="B2" s="37"/>
       <c r="C2" s="38" t="s">
-        <v>147</v>
+        <v>129</v>
       </c>
       <c r="D2" s="38"/>
       <c r="E2" s="38"/>
@@ -6337,7 +7861,7 @@
         <v>2</v>
       </c>
       <c r="D3" s="6" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E3" s="6" t="s">
         <v>4</v>
@@ -6358,7 +7882,7 @@
         <v>14</v>
       </c>
       <c r="K3" s="15" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="L3" s="15" t="s">
         <v>13</v>
@@ -6367,7 +7891,7 @@
         <v>14</v>
       </c>
       <c r="N3" s="15" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="O3" s="15" t="s">
         <v>13</v>
@@ -6376,7 +7900,7 @@
         <v>14</v>
       </c>
       <c r="Q3" s="15" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="4" spans="1:17" s="14" customFormat="1">
@@ -6385,11 +7909,11 @@
         <v>3</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>36</v>
+        <v>173</v>
       </c>
       <c r="D4" s="1"/>
       <c r="E4" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="F4" s="2" t="s">
         <v>8</v>
@@ -6398,7 +7922,7 @@
         <v>8</v>
       </c>
       <c r="H4" s="1" t="s">
-        <v>152</v>
+        <v>134</v>
       </c>
       <c r="I4" s="16"/>
       <c r="J4" s="16"/>
@@ -6432,17 +7956,17 @@
     <row r="6" spans="1:17" s="14" customFormat="1">
       <c r="A6" s="7"/>
       <c r="B6" s="1" t="s">
-        <v>137</v>
+        <v>119</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>138</v>
+        <v>120</v>
       </c>
       <c r="D6" s="1"/>
       <c r="E6" s="1"/>
       <c r="F6" s="2"/>
       <c r="G6" s="2"/>
       <c r="H6" s="1" t="s">
-        <v>151</v>
+        <v>133</v>
       </c>
       <c r="I6" s="16"/>
       <c r="J6" s="16"/>
@@ -6457,17 +7981,17 @@
     <row r="7" spans="1:17" s="14" customFormat="1">
       <c r="A7" s="7"/>
       <c r="B7" s="1" t="s">
-        <v>148</v>
+        <v>130</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>36</v>
+        <v>173</v>
       </c>
       <c r="D7" s="1"/>
       <c r="E7" s="1"/>
       <c r="F7" s="2"/>
       <c r="G7" s="2"/>
       <c r="H7" s="1" t="s">
-        <v>150</v>
+        <v>132</v>
       </c>
       <c r="I7" s="17"/>
       <c r="J7" s="17"/>
@@ -6482,17 +8006,17 @@
     <row r="8" spans="1:17" s="14" customFormat="1">
       <c r="A8" s="7"/>
       <c r="B8" s="1" t="s">
-        <v>149</v>
+        <v>131</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>36</v>
+        <v>173</v>
       </c>
       <c r="D8" s="1"/>
       <c r="E8" s="1"/>
       <c r="F8" s="2"/>
       <c r="G8" s="2"/>
       <c r="H8" s="1" t="s">
-        <v>136</v>
+        <v>118</v>
       </c>
       <c r="I8" s="18"/>
       <c r="J8" s="18"/>
@@ -7762,10 +9286,10 @@
   <sheetPr>
     <tabColor theme="5" tint="0.39997558519241921"/>
   </sheetPr>
-  <dimension ref="A1:Q74"/>
+  <dimension ref="A1:Q76"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H9" sqref="H9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -7791,11 +9315,11 @@
   <sheetData>
     <row r="1" spans="1:17" ht="18" customHeight="1" thickBot="1">
       <c r="A1" s="32" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B1" s="33"/>
       <c r="C1" s="34" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="D1" s="34"/>
       <c r="E1" s="35"/>
@@ -7805,7 +9329,7 @@
       <c r="G1" s="33"/>
       <c r="H1" s="3"/>
       <c r="I1" s="41" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="J1" s="42"/>
       <c r="K1" s="42"/>
@@ -7822,7 +9346,7 @@
       </c>
       <c r="B2" s="37"/>
       <c r="C2" s="38" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="D2" s="38"/>
       <c r="E2" s="38"/>
@@ -7856,7 +9380,7 @@
         <v>2</v>
       </c>
       <c r="D3" s="6" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E3" s="6" t="s">
         <v>4</v>
@@ -7877,7 +9401,7 @@
         <v>14</v>
       </c>
       <c r="K3" s="15" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="L3" s="15" t="s">
         <v>13</v>
@@ -7886,7 +9410,7 @@
         <v>14</v>
       </c>
       <c r="N3" s="15" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="O3" s="15" t="s">
         <v>13</v>
@@ -7895,7 +9419,7 @@
         <v>14</v>
       </c>
       <c r="Q3" s="15" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="4" spans="1:17" s="14" customFormat="1">
@@ -7904,11 +9428,11 @@
         <v>3</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>36</v>
+        <v>173</v>
       </c>
       <c r="D4" s="1"/>
       <c r="E4" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="F4" s="2" t="s">
         <v>8</v>
@@ -7917,7 +9441,7 @@
         <v>8</v>
       </c>
       <c r="H4" s="1" t="s">
-        <v>141</v>
+        <v>123</v>
       </c>
       <c r="I4" s="16"/>
       <c r="J4" s="16"/>
@@ -7951,17 +9475,17 @@
     <row r="6" spans="1:17" s="14" customFormat="1">
       <c r="A6" s="7"/>
       <c r="B6" s="1" t="s">
-        <v>143</v>
+        <v>125</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>182</v>
+        <v>173</v>
       </c>
       <c r="D6" s="1"/>
       <c r="E6" s="1"/>
       <c r="F6" s="2"/>
       <c r="G6" s="2"/>
       <c r="H6" s="1" t="s">
-        <v>142</v>
+        <v>124</v>
       </c>
       <c r="I6" s="16"/>
       <c r="J6" s="16"/>
@@ -7976,10 +9500,10 @@
     <row r="7" spans="1:17" s="14" customFormat="1">
       <c r="A7" s="7"/>
       <c r="B7" s="1" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D7" s="1">
         <v>255</v>
@@ -7988,7 +9512,7 @@
       <c r="F7" s="2"/>
       <c r="G7" s="2"/>
       <c r="H7" s="1" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="I7" s="16"/>
       <c r="J7" s="16"/>
@@ -8009,9 +9533,9 @@
       <c r="F8" s="2"/>
       <c r="G8" s="2"/>
       <c r="H8" s="1"/>
-      <c r="I8" s="17"/>
-      <c r="J8" s="17"/>
-      <c r="K8" s="18"/>
+      <c r="I8" s="16"/>
+      <c r="J8" s="16"/>
+      <c r="K8" s="16"/>
       <c r="L8" s="16"/>
       <c r="M8" s="16"/>
       <c r="N8" s="16"/>
@@ -8022,21 +9546,23 @@
     <row r="9" spans="1:17" s="14" customFormat="1">
       <c r="A9" s="7"/>
       <c r="B9" s="1" t="s">
-        <v>83</v>
+        <v>176</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="D9" s="1"/>
+        <v>23</v>
+      </c>
+      <c r="D9" s="1">
+        <v>255</v>
+      </c>
       <c r="E9" s="1"/>
       <c r="F9" s="2"/>
       <c r="G9" s="2"/>
       <c r="H9" s="1" t="s">
-        <v>84</v>
-      </c>
-      <c r="I9" s="18"/>
-      <c r="J9" s="18"/>
-      <c r="K9" s="18"/>
+        <v>177</v>
+      </c>
+      <c r="I9" s="16"/>
+      <c r="J9" s="16"/>
+      <c r="K9" s="16"/>
       <c r="L9" s="16"/>
       <c r="M9" s="16"/>
       <c r="N9" s="16"/>
@@ -8046,21 +9572,15 @@
     </row>
     <row r="10" spans="1:17" s="14" customFormat="1">
       <c r="A10" s="7"/>
-      <c r="B10" s="26" t="s">
-        <v>90</v>
-      </c>
-      <c r="C10" s="26" t="s">
-        <v>93</v>
-      </c>
-      <c r="D10" s="26"/>
+      <c r="B10" s="1"/>
+      <c r="C10" s="1"/>
+      <c r="D10" s="1"/>
       <c r="E10" s="1"/>
       <c r="F10" s="2"/>
       <c r="G10" s="2"/>
-      <c r="H10" s="1" t="s">
-        <v>91</v>
-      </c>
-      <c r="I10" s="18"/>
-      <c r="J10" s="18"/>
+      <c r="H10" s="1"/>
+      <c r="I10" s="17"/>
+      <c r="J10" s="17"/>
       <c r="K10" s="18"/>
       <c r="L10" s="16"/>
       <c r="M10" s="16"/>
@@ -8072,19 +9592,17 @@
     <row r="11" spans="1:17" s="14" customFormat="1">
       <c r="A11" s="7"/>
       <c r="B11" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="D11" s="1"/>
+      <c r="E11" s="1"/>
+      <c r="F11" s="2"/>
+      <c r="G11" s="2"/>
+      <c r="H11" s="1" t="s">
         <v>80</v>
-      </c>
-      <c r="C11" s="1" t="s">
-        <v>82</v>
-      </c>
-      <c r="D11" s="1"/>
-      <c r="E11" s="7"/>
-      <c r="F11" s="2" t="s">
-        <v>107</v>
-      </c>
-      <c r="G11" s="25"/>
-      <c r="H11" s="1" t="s">
-        <v>81</v>
       </c>
       <c r="I11" s="18"/>
       <c r="J11" s="18"/>
@@ -8097,42 +9615,50 @@
       <c r="Q11" s="16"/>
     </row>
     <row r="12" spans="1:17" s="14" customFormat="1">
-      <c r="A12" s="10"/>
-      <c r="B12" s="4" t="s">
-        <v>86</v>
-      </c>
-      <c r="C12" s="1" t="s">
+      <c r="A12" s="7"/>
+      <c r="B12" s="26" t="s">
+        <v>84</v>
+      </c>
+      <c r="C12" s="26" t="s">
         <v>87</v>
       </c>
-      <c r="D12" s="1"/>
-      <c r="E12" s="10"/>
-      <c r="F12" s="24"/>
-      <c r="G12" s="24"/>
-      <c r="H12" s="12" t="s">
+      <c r="D12" s="26"/>
+      <c r="E12" s="1"/>
+      <c r="F12" s="2"/>
+      <c r="G12" s="2"/>
+      <c r="H12" s="1" t="s">
         <v>85</v>
       </c>
-      <c r="I12" s="19"/>
-      <c r="J12" s="19"/>
-      <c r="K12" s="19"/>
-      <c r="L12" s="19"/>
-      <c r="M12" s="19"/>
-      <c r="N12" s="19"/>
-      <c r="O12" s="19"/>
-      <c r="P12" s="19"/>
-      <c r="Q12" s="19"/>
+      <c r="I12" s="18"/>
+      <c r="J12" s="18"/>
+      <c r="K12" s="18"/>
+      <c r="L12" s="16"/>
+      <c r="M12" s="16"/>
+      <c r="N12" s="16"/>
+      <c r="O12" s="16"/>
+      <c r="P12" s="16"/>
+      <c r="Q12" s="16"/>
     </row>
     <row r="13" spans="1:17" s="14" customFormat="1">
       <c r="A13" s="7"/>
-      <c r="B13" s="1"/>
-      <c r="C13" s="1"/>
+      <c r="B13" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>78</v>
+      </c>
       <c r="D13" s="1"/>
-      <c r="E13" s="1"/>
-      <c r="F13" s="2"/>
+      <c r="E13" s="7"/>
+      <c r="F13" s="2" t="s">
+        <v>98</v>
+      </c>
       <c r="G13" s="25"/>
-      <c r="H13" s="1"/>
-      <c r="I13" s="17"/>
-      <c r="J13" s="17"/>
-      <c r="K13" s="16"/>
+      <c r="H13" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="I13" s="18"/>
+      <c r="J13" s="18"/>
+      <c r="K13" s="18"/>
       <c r="L13" s="16"/>
       <c r="M13" s="16"/>
       <c r="N13" s="16"/>
@@ -8141,33 +9667,29 @@
       <c r="Q13" s="16"/>
     </row>
     <row r="14" spans="1:17" s="14" customFormat="1">
-      <c r="A14" s="7"/>
-      <c r="B14" s="1" t="s">
-        <v>88</v>
+      <c r="A14" s="10"/>
+      <c r="B14" s="4" t="s">
+        <v>82</v>
       </c>
       <c r="C14" s="28" t="s">
-        <v>112</v>
-      </c>
-      <c r="D14" s="1">
-        <v>255</v>
-      </c>
-      <c r="E14" s="1"/>
-      <c r="F14" s="2" t="s">
-        <v>107</v>
-      </c>
-      <c r="G14" s="2"/>
-      <c r="H14" s="1" t="s">
-        <v>89</v>
-      </c>
-      <c r="I14" s="18"/>
-      <c r="J14" s="18"/>
-      <c r="K14" s="18"/>
-      <c r="L14" s="16"/>
-      <c r="M14" s="16"/>
-      <c r="N14" s="16"/>
-      <c r="O14" s="16"/>
-      <c r="P14" s="16"/>
-      <c r="Q14" s="16"/>
+        <v>83</v>
+      </c>
+      <c r="D14" s="1"/>
+      <c r="E14" s="10"/>
+      <c r="F14" s="24"/>
+      <c r="G14" s="24"/>
+      <c r="H14" s="12" t="s">
+        <v>81</v>
+      </c>
+      <c r="I14" s="19"/>
+      <c r="J14" s="19"/>
+      <c r="K14" s="19"/>
+      <c r="L14" s="19"/>
+      <c r="M14" s="19"/>
+      <c r="N14" s="19"/>
+      <c r="O14" s="19"/>
+      <c r="P14" s="19"/>
+      <c r="Q14" s="19"/>
     </row>
     <row r="15" spans="1:17" s="14" customFormat="1">
       <c r="A15" s="7"/>
@@ -8191,17 +9713,17 @@
     <row r="16" spans="1:17" s="14" customFormat="1">
       <c r="A16" s="7"/>
       <c r="B16" s="1"/>
-      <c r="C16" s="1"/>
+      <c r="C16" s="50"/>
       <c r="D16" s="1"/>
       <c r="E16" s="1"/>
       <c r="F16" s="2"/>
-      <c r="G16" s="25"/>
+      <c r="G16" s="2"/>
       <c r="H16" s="1" t="s">
-        <v>94</v>
-      </c>
-      <c r="I16" s="17"/>
-      <c r="J16" s="17"/>
-      <c r="K16" s="16"/>
+        <v>167</v>
+      </c>
+      <c r="I16" s="18"/>
+      <c r="J16" s="18"/>
+      <c r="K16" s="18"/>
       <c r="L16" s="16"/>
       <c r="M16" s="16"/>
       <c r="N16" s="16"/>
@@ -8220,32 +9742,28 @@
       <c r="H17" s="1"/>
       <c r="I17" s="17"/>
       <c r="J17" s="17"/>
-      <c r="K17" s="18"/>
-      <c r="L17" s="18"/>
-      <c r="M17" s="18"/>
-      <c r="N17" s="18"/>
+      <c r="K17" s="16"/>
+      <c r="L17" s="16"/>
+      <c r="M17" s="16"/>
+      <c r="N17" s="16"/>
       <c r="O17" s="16"/>
       <c r="P17" s="16"/>
       <c r="Q17" s="16"/>
     </row>
     <row r="18" spans="1:17" s="14" customFormat="1">
       <c r="A18" s="7"/>
-      <c r="B18" s="1" t="s">
-        <v>95</v>
-      </c>
-      <c r="C18" s="1" t="s">
-        <v>96</v>
-      </c>
+      <c r="B18" s="1"/>
+      <c r="C18" s="1"/>
       <c r="D18" s="1"/>
       <c r="E18" s="1"/>
       <c r="F18" s="2"/>
       <c r="G18" s="25"/>
       <c r="H18" s="1" t="s">
-        <v>97</v>
-      </c>
-      <c r="I18" s="18"/>
-      <c r="J18" s="18"/>
-      <c r="K18" s="18"/>
+        <v>88</v>
+      </c>
+      <c r="I18" s="17"/>
+      <c r="J18" s="17"/>
+      <c r="K18" s="16"/>
       <c r="L18" s="16"/>
       <c r="M18" s="16"/>
       <c r="N18" s="16"/>
@@ -8255,41 +9773,41 @@
     </row>
     <row r="19" spans="1:17" s="14" customFormat="1">
       <c r="A19" s="7"/>
-      <c r="B19" s="1" t="s">
-        <v>98</v>
-      </c>
-      <c r="C19" s="1" t="s">
-        <v>92</v>
-      </c>
+      <c r="B19" s="1"/>
+      <c r="C19" s="1"/>
       <c r="D19" s="1"/>
       <c r="E19" s="1"/>
       <c r="F19" s="2"/>
       <c r="G19" s="25"/>
-      <c r="H19" s="1" t="s">
-        <v>99</v>
-      </c>
-      <c r="I19" s="16"/>
-      <c r="J19" s="16"/>
-      <c r="K19" s="16"/>
-      <c r="L19" s="16"/>
-      <c r="M19" s="16"/>
-      <c r="N19" s="16"/>
+      <c r="H19" s="1"/>
+      <c r="I19" s="17"/>
+      <c r="J19" s="17"/>
+      <c r="K19" s="18"/>
+      <c r="L19" s="18"/>
+      <c r="M19" s="18"/>
+      <c r="N19" s="18"/>
       <c r="O19" s="16"/>
       <c r="P19" s="16"/>
       <c r="Q19" s="16"/>
     </row>
     <row r="20" spans="1:17" s="14" customFormat="1">
       <c r="A20" s="7"/>
-      <c r="B20" s="1"/>
-      <c r="C20" s="1"/>
+      <c r="B20" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="C20" s="1" t="s">
+        <v>90</v>
+      </c>
       <c r="D20" s="1"/>
       <c r="E20" s="1"/>
       <c r="F20" s="2"/>
       <c r="G20" s="25"/>
-      <c r="H20" s="1"/>
-      <c r="I20" s="16"/>
-      <c r="J20" s="16"/>
-      <c r="K20" s="16"/>
+      <c r="H20" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="I20" s="18"/>
+      <c r="J20" s="18"/>
+      <c r="K20" s="18"/>
       <c r="L20" s="16"/>
       <c r="M20" s="16"/>
       <c r="N20" s="16"/>
@@ -8300,17 +9818,17 @@
     <row r="21" spans="1:17" s="14" customFormat="1">
       <c r="A21" s="7"/>
       <c r="B21" s="1" t="s">
-        <v>100</v>
+        <v>92</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>109</v>
+        <v>86</v>
       </c>
       <c r="D21" s="1"/>
       <c r="E21" s="1"/>
       <c r="F21" s="2"/>
       <c r="G21" s="25"/>
       <c r="H21" s="1" t="s">
-        <v>103</v>
+        <v>93</v>
       </c>
       <c r="I21" s="16"/>
       <c r="J21" s="16"/>
@@ -8324,21 +9842,15 @@
     </row>
     <row r="22" spans="1:17" s="14" customFormat="1">
       <c r="A22" s="7"/>
-      <c r="B22" s="1" t="s">
-        <v>101</v>
-      </c>
-      <c r="C22" s="1" t="s">
-        <v>110</v>
-      </c>
+      <c r="B22" s="1"/>
+      <c r="C22" s="1"/>
       <c r="D22" s="1"/>
       <c r="E22" s="1"/>
       <c r="F22" s="2"/>
       <c r="G22" s="25"/>
-      <c r="H22" s="1" t="s">
-        <v>104</v>
-      </c>
-      <c r="I22" s="17"/>
-      <c r="J22" s="17"/>
+      <c r="H22" s="1"/>
+      <c r="I22" s="16"/>
+      <c r="J22" s="16"/>
       <c r="K22" s="16"/>
       <c r="L22" s="16"/>
       <c r="M22" s="16"/>
@@ -8350,23 +9862,25 @@
     <row r="23" spans="1:17" s="14" customFormat="1">
       <c r="A23" s="7"/>
       <c r="B23" s="1" t="s">
-        <v>102</v>
+        <v>164</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>109</v>
-      </c>
-      <c r="D23" s="1"/>
+        <v>163</v>
+      </c>
+      <c r="D23" s="1">
+        <v>64</v>
+      </c>
       <c r="E23" s="1"/>
       <c r="F23" s="2"/>
       <c r="G23" s="25"/>
       <c r="H23" s="1" t="s">
-        <v>105</v>
-      </c>
-      <c r="I23" s="17"/>
-      <c r="J23" s="17"/>
+        <v>94</v>
+      </c>
+      <c r="I23" s="16"/>
+      <c r="J23" s="16"/>
       <c r="K23" s="16"/>
-      <c r="L23" s="20"/>
-      <c r="M23" s="20"/>
+      <c r="L23" s="16"/>
+      <c r="M23" s="16"/>
       <c r="N23" s="16"/>
       <c r="O23" s="16"/>
       <c r="P23" s="16"/>
@@ -8374,18 +9888,26 @@
     </row>
     <row r="24" spans="1:17" s="14" customFormat="1">
       <c r="A24" s="7"/>
-      <c r="B24" s="1"/>
-      <c r="C24" s="1"/>
-      <c r="D24" s="1"/>
+      <c r="B24" s="1" t="s">
+        <v>165</v>
+      </c>
+      <c r="C24" s="1" t="s">
+        <v>163</v>
+      </c>
+      <c r="D24" s="1">
+        <v>64</v>
+      </c>
       <c r="E24" s="1"/>
       <c r="F24" s="2"/>
       <c r="G24" s="25"/>
-      <c r="H24" s="1"/>
+      <c r="H24" s="1" t="s">
+        <v>95</v>
+      </c>
       <c r="I24" s="17"/>
       <c r="J24" s="17"/>
       <c r="K24" s="16"/>
-      <c r="L24" s="20"/>
-      <c r="M24" s="20"/>
+      <c r="L24" s="16"/>
+      <c r="M24" s="16"/>
       <c r="N24" s="16"/>
       <c r="O24" s="16"/>
       <c r="P24" s="16"/>
@@ -8394,23 +9916,25 @@
     <row r="25" spans="1:17" s="14" customFormat="1">
       <c r="A25" s="7"/>
       <c r="B25" s="1" t="s">
-        <v>106</v>
+        <v>166</v>
       </c>
       <c r="C25" s="1" t="s">
-        <v>111</v>
-      </c>
-      <c r="D25" s="1"/>
+        <v>163</v>
+      </c>
+      <c r="D25" s="1">
+        <v>64</v>
+      </c>
       <c r="E25" s="1"/>
       <c r="F25" s="2"/>
       <c r="G25" s="25"/>
       <c r="H25" s="1" t="s">
-        <v>108</v>
+        <v>96</v>
       </c>
       <c r="I25" s="17"/>
       <c r="J25" s="17"/>
       <c r="K25" s="16"/>
-      <c r="L25" s="16"/>
-      <c r="M25" s="16"/>
+      <c r="L25" s="20"/>
+      <c r="M25" s="20"/>
       <c r="N25" s="16"/>
       <c r="O25" s="16"/>
       <c r="P25" s="16"/>
@@ -8428,8 +9952,8 @@
       <c r="I26" s="17"/>
       <c r="J26" s="17"/>
       <c r="K26" s="16"/>
-      <c r="L26" s="16"/>
-      <c r="M26" s="16"/>
+      <c r="L26" s="20"/>
+      <c r="M26" s="20"/>
       <c r="N26" s="16"/>
       <c r="O26" s="16"/>
       <c r="P26" s="16"/>
@@ -8437,13 +9961,19 @@
     </row>
     <row r="27" spans="1:17" s="14" customFormat="1">
       <c r="A27" s="7"/>
-      <c r="B27" s="1"/>
-      <c r="C27" s="1"/>
+      <c r="B27" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="C27" s="1" t="s">
+        <v>100</v>
+      </c>
       <c r="D27" s="1"/>
       <c r="E27" s="1"/>
       <c r="F27" s="2"/>
       <c r="G27" s="25"/>
-      <c r="H27" s="1"/>
+      <c r="H27" s="1" t="s">
+        <v>99</v>
+      </c>
       <c r="I27" s="17"/>
       <c r="J27" s="17"/>
       <c r="K27" s="16"/>
@@ -8459,15 +9989,15 @@
       <c r="B28" s="1"/>
       <c r="C28" s="1"/>
       <c r="D28" s="1"/>
-      <c r="E28" s="7"/>
-      <c r="F28" s="25"/>
+      <c r="E28" s="1"/>
+      <c r="F28" s="2"/>
       <c r="G28" s="25"/>
       <c r="H28" s="1"/>
       <c r="I28" s="17"/>
       <c r="J28" s="17"/>
       <c r="K28" s="16"/>
-      <c r="L28" s="20"/>
-      <c r="M28" s="20"/>
+      <c r="L28" s="16"/>
+      <c r="M28" s="16"/>
       <c r="N28" s="16"/>
       <c r="O28" s="16"/>
       <c r="P28" s="16"/>
@@ -8478,8 +10008,8 @@
       <c r="B29" s="1"/>
       <c r="C29" s="1"/>
       <c r="D29" s="1"/>
-      <c r="E29" s="7"/>
-      <c r="F29" s="25"/>
+      <c r="E29" s="1"/>
+      <c r="F29" s="2"/>
       <c r="G29" s="25"/>
       <c r="H29" s="1"/>
       <c r="I29" s="17"/>
@@ -8504,11 +10034,11 @@
       <c r="I30" s="17"/>
       <c r="J30" s="17"/>
       <c r="K30" s="16"/>
-      <c r="L30" s="16"/>
-      <c r="M30" s="16"/>
+      <c r="L30" s="20"/>
+      <c r="M30" s="20"/>
       <c r="N30" s="16"/>
-      <c r="O30" s="20"/>
-      <c r="P30" s="20"/>
+      <c r="O30" s="16"/>
+      <c r="P30" s="16"/>
       <c r="Q30" s="16"/>
     </row>
     <row r="31" spans="1:17" s="14" customFormat="1">
@@ -8516,8 +10046,8 @@
       <c r="B31" s="1"/>
       <c r="C31" s="1"/>
       <c r="D31" s="1"/>
-      <c r="E31" s="1"/>
-      <c r="F31" s="2"/>
+      <c r="E31" s="7"/>
+      <c r="F31" s="25"/>
       <c r="G31" s="25"/>
       <c r="H31" s="1"/>
       <c r="I31" s="17"/>
@@ -8535,18 +10065,18 @@
       <c r="B32" s="1"/>
       <c r="C32" s="1"/>
       <c r="D32" s="1"/>
-      <c r="E32" s="1"/>
-      <c r="F32" s="2"/>
+      <c r="E32" s="7"/>
+      <c r="F32" s="25"/>
       <c r="G32" s="25"/>
       <c r="H32" s="1"/>
       <c r="I32" s="17"/>
       <c r="J32" s="17"/>
       <c r="K32" s="16"/>
-      <c r="L32" s="20"/>
-      <c r="M32" s="20"/>
+      <c r="L32" s="16"/>
+      <c r="M32" s="16"/>
       <c r="N32" s="16"/>
-      <c r="O32" s="16"/>
-      <c r="P32" s="16"/>
+      <c r="O32" s="20"/>
+      <c r="P32" s="20"/>
       <c r="Q32" s="16"/>
     </row>
     <row r="33" spans="1:17" s="14" customFormat="1">
@@ -8554,12 +10084,12 @@
       <c r="B33" s="1"/>
       <c r="C33" s="1"/>
       <c r="D33" s="1"/>
-      <c r="E33" s="7"/>
-      <c r="F33" s="25"/>
+      <c r="E33" s="1"/>
+      <c r="F33" s="2"/>
       <c r="G33" s="25"/>
       <c r="H33" s="1"/>
-      <c r="I33" s="16"/>
-      <c r="J33" s="16"/>
+      <c r="I33" s="17"/>
+      <c r="J33" s="17"/>
       <c r="K33" s="16"/>
       <c r="L33" s="16"/>
       <c r="M33" s="16"/>
@@ -8573,15 +10103,15 @@
       <c r="B34" s="1"/>
       <c r="C34" s="1"/>
       <c r="D34" s="1"/>
-      <c r="E34" s="7"/>
-      <c r="F34" s="25"/>
+      <c r="E34" s="1"/>
+      <c r="F34" s="2"/>
       <c r="G34" s="25"/>
       <c r="H34" s="1"/>
-      <c r="I34" s="16"/>
-      <c r="J34" s="16"/>
+      <c r="I34" s="17"/>
+      <c r="J34" s="17"/>
       <c r="K34" s="16"/>
-      <c r="L34" s="16"/>
-      <c r="M34" s="16"/>
+      <c r="L34" s="20"/>
+      <c r="M34" s="20"/>
       <c r="N34" s="16"/>
       <c r="O34" s="16"/>
       <c r="P34" s="16"/>
@@ -8627,13 +10157,13 @@
     </row>
     <row r="37" spans="1:17" s="14" customFormat="1">
       <c r="A37" s="7"/>
-      <c r="B37" s="7"/>
-      <c r="C37" s="7"/>
-      <c r="D37" s="7"/>
+      <c r="B37" s="1"/>
+      <c r="C37" s="1"/>
+      <c r="D37" s="1"/>
       <c r="E37" s="7"/>
       <c r="F37" s="25"/>
       <c r="G37" s="25"/>
-      <c r="H37" s="7"/>
+      <c r="H37" s="1"/>
       <c r="I37" s="16"/>
       <c r="J37" s="16"/>
       <c r="K37" s="16"/>
@@ -8645,42 +10175,42 @@
       <c r="Q37" s="16"/>
     </row>
     <row r="38" spans="1:17" s="14" customFormat="1">
-      <c r="A38" s="8"/>
-      <c r="B38" s="8"/>
-      <c r="C38" s="8"/>
-      <c r="D38" s="8"/>
-      <c r="E38" s="8"/>
-      <c r="F38" s="8"/>
-      <c r="G38" s="8"/>
-      <c r="H38" s="8"/>
-      <c r="I38" s="21"/>
-      <c r="J38" s="21"/>
-      <c r="K38" s="21"/>
-      <c r="L38" s="21"/>
-      <c r="M38" s="21"/>
-      <c r="N38" s="21"/>
-      <c r="O38" s="21"/>
-      <c r="P38" s="21"/>
-      <c r="Q38" s="21"/>
+      <c r="A38" s="7"/>
+      <c r="B38" s="1"/>
+      <c r="C38" s="1"/>
+      <c r="D38" s="1"/>
+      <c r="E38" s="7"/>
+      <c r="F38" s="25"/>
+      <c r="G38" s="25"/>
+      <c r="H38" s="1"/>
+      <c r="I38" s="16"/>
+      <c r="J38" s="16"/>
+      <c r="K38" s="16"/>
+      <c r="L38" s="16"/>
+      <c r="M38" s="16"/>
+      <c r="N38" s="16"/>
+      <c r="O38" s="16"/>
+      <c r="P38" s="16"/>
+      <c r="Q38" s="16"/>
     </row>
     <row r="39" spans="1:17" s="14" customFormat="1">
-      <c r="A39" s="8"/>
-      <c r="B39" s="8"/>
-      <c r="C39" s="8"/>
-      <c r="D39" s="8"/>
-      <c r="E39" s="8"/>
-      <c r="F39" s="8"/>
-      <c r="G39" s="8"/>
-      <c r="H39" s="8"/>
-      <c r="I39" s="21"/>
-      <c r="J39" s="21"/>
-      <c r="K39" s="21"/>
-      <c r="L39" s="21"/>
-      <c r="M39" s="21"/>
-      <c r="N39" s="21"/>
-      <c r="O39" s="21"/>
-      <c r="P39" s="21"/>
-      <c r="Q39" s="21"/>
+      <c r="A39" s="7"/>
+      <c r="B39" s="7"/>
+      <c r="C39" s="7"/>
+      <c r="D39" s="7"/>
+      <c r="E39" s="7"/>
+      <c r="F39" s="25"/>
+      <c r="G39" s="25"/>
+      <c r="H39" s="7"/>
+      <c r="I39" s="16"/>
+      <c r="J39" s="16"/>
+      <c r="K39" s="16"/>
+      <c r="L39" s="16"/>
+      <c r="M39" s="16"/>
+      <c r="N39" s="16"/>
+      <c r="O39" s="16"/>
+      <c r="P39" s="16"/>
+      <c r="Q39" s="16"/>
     </row>
     <row r="40" spans="1:17" s="14" customFormat="1">
       <c r="A40" s="8"/>
@@ -8967,7 +10497,7 @@
       <c r="P54" s="21"/>
       <c r="Q54" s="21"/>
     </row>
-    <row r="55" spans="1:17">
+    <row r="55" spans="1:17" s="14" customFormat="1">
       <c r="A55" s="8"/>
       <c r="B55" s="8"/>
       <c r="C55" s="8"/>
@@ -8986,7 +10516,7 @@
       <c r="P55" s="21"/>
       <c r="Q55" s="21"/>
     </row>
-    <row r="56" spans="1:17">
+    <row r="56" spans="1:17" s="14" customFormat="1">
       <c r="A56" s="8"/>
       <c r="B56" s="8"/>
       <c r="C56" s="8"/>
@@ -9310,42 +10840,80 @@
       <c r="Q72" s="21"/>
     </row>
     <row r="73" spans="1:17">
-      <c r="A73" s="9"/>
-      <c r="B73" s="9"/>
-      <c r="C73" s="9"/>
-      <c r="D73" s="9"/>
-      <c r="E73" s="9"/>
-      <c r="F73" s="9"/>
-      <c r="G73" s="9"/>
-      <c r="H73" s="9"/>
-      <c r="I73" s="22"/>
-      <c r="J73" s="22"/>
-      <c r="K73" s="22"/>
-      <c r="L73" s="22"/>
-      <c r="M73" s="22"/>
-      <c r="N73" s="22"/>
-      <c r="O73" s="22"/>
-      <c r="P73" s="22"/>
-      <c r="Q73" s="22"/>
+      <c r="A73" s="8"/>
+      <c r="B73" s="8"/>
+      <c r="C73" s="8"/>
+      <c r="D73" s="8"/>
+      <c r="E73" s="8"/>
+      <c r="F73" s="8"/>
+      <c r="G73" s="8"/>
+      <c r="H73" s="8"/>
+      <c r="I73" s="21"/>
+      <c r="J73" s="21"/>
+      <c r="K73" s="21"/>
+      <c r="L73" s="21"/>
+      <c r="M73" s="21"/>
+      <c r="N73" s="21"/>
+      <c r="O73" s="21"/>
+      <c r="P73" s="21"/>
+      <c r="Q73" s="21"/>
     </row>
     <row r="74" spans="1:17">
-      <c r="A74" s="9"/>
-      <c r="B74" s="9"/>
-      <c r="C74" s="9"/>
-      <c r="D74" s="9"/>
-      <c r="E74" s="9"/>
-      <c r="F74" s="9"/>
-      <c r="G74" s="9"/>
-      <c r="H74" s="9"/>
-      <c r="I74" s="22"/>
-      <c r="J74" s="22"/>
-      <c r="K74" s="22"/>
-      <c r="L74" s="22"/>
-      <c r="M74" s="22"/>
-      <c r="N74" s="22"/>
-      <c r="O74" s="22"/>
-      <c r="P74" s="22"/>
-      <c r="Q74" s="22"/>
+      <c r="A74" s="8"/>
+      <c r="B74" s="8"/>
+      <c r="C74" s="8"/>
+      <c r="D74" s="8"/>
+      <c r="E74" s="8"/>
+      <c r="F74" s="8"/>
+      <c r="G74" s="8"/>
+      <c r="H74" s="8"/>
+      <c r="I74" s="21"/>
+      <c r="J74" s="21"/>
+      <c r="K74" s="21"/>
+      <c r="L74" s="21"/>
+      <c r="M74" s="21"/>
+      <c r="N74" s="21"/>
+      <c r="O74" s="21"/>
+      <c r="P74" s="21"/>
+      <c r="Q74" s="21"/>
+    </row>
+    <row r="75" spans="1:17">
+      <c r="A75" s="9"/>
+      <c r="B75" s="9"/>
+      <c r="C75" s="9"/>
+      <c r="D75" s="9"/>
+      <c r="E75" s="9"/>
+      <c r="F75" s="9"/>
+      <c r="G75" s="9"/>
+      <c r="H75" s="9"/>
+      <c r="I75" s="22"/>
+      <c r="J75" s="22"/>
+      <c r="K75" s="22"/>
+      <c r="L75" s="22"/>
+      <c r="M75" s="22"/>
+      <c r="N75" s="22"/>
+      <c r="O75" s="22"/>
+      <c r="P75" s="22"/>
+      <c r="Q75" s="22"/>
+    </row>
+    <row r="76" spans="1:17">
+      <c r="A76" s="9"/>
+      <c r="B76" s="9"/>
+      <c r="C76" s="9"/>
+      <c r="D76" s="9"/>
+      <c r="E76" s="9"/>
+      <c r="F76" s="9"/>
+      <c r="G76" s="9"/>
+      <c r="H76" s="9"/>
+      <c r="I76" s="22"/>
+      <c r="J76" s="22"/>
+      <c r="K76" s="22"/>
+      <c r="L76" s="22"/>
+      <c r="M76" s="22"/>
+      <c r="N76" s="22"/>
+      <c r="O76" s="22"/>
+      <c r="P76" s="22"/>
+      <c r="Q76" s="22"/>
     </row>
   </sheetData>
   <mergeCells count="9">
@@ -9370,10 +10938,10 @@
   <sheetPr>
     <tabColor theme="5" tint="0.39997558519241921"/>
   </sheetPr>
-  <dimension ref="A1:Q73"/>
+  <dimension ref="A1:Q74"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H5" sqref="H5"/>
+      <selection activeCell="C7" sqref="C7:D7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -9399,11 +10967,11 @@
   <sheetData>
     <row r="1" spans="1:17" ht="18" customHeight="1" thickBot="1">
       <c r="A1" s="32" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B1" s="33"/>
       <c r="C1" s="34" t="s">
-        <v>144</v>
+        <v>168</v>
       </c>
       <c r="D1" s="34"/>
       <c r="E1" s="35"/>
@@ -9413,7 +10981,7 @@
       <c r="G1" s="33"/>
       <c r="H1" s="3"/>
       <c r="I1" s="41" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="J1" s="42"/>
       <c r="K1" s="42"/>
@@ -9430,7 +10998,7 @@
       </c>
       <c r="B2" s="37"/>
       <c r="C2" s="38" t="s">
-        <v>145</v>
+        <v>169</v>
       </c>
       <c r="D2" s="38"/>
       <c r="E2" s="38"/>
@@ -9464,7 +11032,7 @@
         <v>2</v>
       </c>
       <c r="D3" s="6" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E3" s="6" t="s">
         <v>4</v>
@@ -9485,7 +11053,7 @@
         <v>14</v>
       </c>
       <c r="K3" s="15" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="L3" s="15" t="s">
         <v>13</v>
@@ -9494,7 +11062,7 @@
         <v>14</v>
       </c>
       <c r="N3" s="15" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="O3" s="15" t="s">
         <v>13</v>
@@ -9503,7 +11071,7 @@
         <v>14</v>
       </c>
       <c r="Q3" s="15" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="4" spans="1:17" s="14" customFormat="1">
@@ -9512,11 +11080,11 @@
         <v>3</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>36</v>
+        <v>173</v>
       </c>
       <c r="D4" s="1"/>
       <c r="E4" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="F4" s="2" t="s">
         <v>8</v>
@@ -9525,7 +11093,7 @@
         <v>8</v>
       </c>
       <c r="H4" s="1" t="s">
-        <v>181</v>
+        <v>171</v>
       </c>
       <c r="I4" s="16"/>
       <c r="J4" s="16"/>
@@ -9559,17 +11127,17 @@
     <row r="6" spans="1:17" s="14" customFormat="1">
       <c r="A6" s="7"/>
       <c r="B6" s="1" t="s">
-        <v>137</v>
+        <v>116</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>138</v>
+        <v>173</v>
       </c>
       <c r="D6" s="1"/>
       <c r="E6" s="1"/>
       <c r="F6" s="2"/>
       <c r="G6" s="2"/>
       <c r="H6" s="1" t="s">
-        <v>139</v>
+        <v>117</v>
       </c>
       <c r="I6" s="16"/>
       <c r="J6" s="16"/>
@@ -9584,21 +11152,23 @@
     <row r="7" spans="1:17" s="14" customFormat="1">
       <c r="A7" s="7"/>
       <c r="B7" s="1" t="s">
-        <v>134</v>
+        <v>174</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="D7" s="1"/>
+        <v>23</v>
+      </c>
+      <c r="D7" s="1">
+        <v>255</v>
+      </c>
       <c r="E7" s="1"/>
       <c r="F7" s="2"/>
       <c r="G7" s="2"/>
       <c r="H7" s="1" t="s">
-        <v>135</v>
-      </c>
-      <c r="I7" s="17"/>
-      <c r="J7" s="17"/>
-      <c r="K7" s="18"/>
+        <v>175</v>
+      </c>
+      <c r="I7" s="16"/>
+      <c r="J7" s="16"/>
+      <c r="K7" s="16"/>
       <c r="L7" s="16"/>
       <c r="M7" s="16"/>
       <c r="N7" s="16"/>
@@ -9608,21 +11178,15 @@
     </row>
     <row r="8" spans="1:17" s="14" customFormat="1">
       <c r="A8" s="7"/>
-      <c r="B8" s="1" t="s">
-        <v>140</v>
-      </c>
-      <c r="C8" s="1" t="s">
-        <v>36</v>
-      </c>
+      <c r="B8" s="1"/>
+      <c r="C8" s="1"/>
       <c r="D8" s="1"/>
       <c r="E8" s="1"/>
       <c r="F8" s="2"/>
       <c r="G8" s="2"/>
-      <c r="H8" s="1" t="s">
-        <v>136</v>
-      </c>
-      <c r="I8" s="18"/>
-      <c r="J8" s="18"/>
+      <c r="H8" s="1"/>
+      <c r="I8" s="17"/>
+      <c r="J8" s="17"/>
       <c r="K8" s="18"/>
       <c r="L8" s="16"/>
       <c r="M8" s="16"/>
@@ -9633,9 +11197,9 @@
     </row>
     <row r="9" spans="1:17" s="14" customFormat="1">
       <c r="A9" s="7"/>
-      <c r="B9" s="26"/>
-      <c r="C9" s="26"/>
-      <c r="D9" s="26"/>
+      <c r="B9" s="1"/>
+      <c r="C9" s="1"/>
+      <c r="D9" s="1"/>
       <c r="E9" s="1"/>
       <c r="F9" s="2"/>
       <c r="G9" s="2"/>
@@ -9652,12 +11216,12 @@
     </row>
     <row r="10" spans="1:17" s="14" customFormat="1">
       <c r="A10" s="7"/>
-      <c r="B10" s="1"/>
-      <c r="C10" s="1"/>
-      <c r="D10" s="1"/>
-      <c r="E10" s="7"/>
+      <c r="B10" s="26"/>
+      <c r="C10" s="26"/>
+      <c r="D10" s="26"/>
+      <c r="E10" s="1"/>
       <c r="F10" s="2"/>
-      <c r="G10" s="25"/>
+      <c r="G10" s="2"/>
       <c r="H10" s="1"/>
       <c r="I10" s="18"/>
       <c r="J10" s="18"/>
@@ -9670,42 +11234,42 @@
       <c r="Q10" s="16"/>
     </row>
     <row r="11" spans="1:17" s="14" customFormat="1">
-      <c r="A11" s="10"/>
-      <c r="B11" s="4"/>
+      <c r="A11" s="7"/>
+      <c r="B11" s="1"/>
       <c r="C11" s="1"/>
       <c r="D11" s="1"/>
-      <c r="E11" s="10"/>
-      <c r="F11" s="24"/>
-      <c r="G11" s="24"/>
-      <c r="H11" s="12"/>
-      <c r="I11" s="19"/>
-      <c r="J11" s="19"/>
-      <c r="K11" s="19"/>
-      <c r="L11" s="19"/>
-      <c r="M11" s="19"/>
-      <c r="N11" s="19"/>
-      <c r="O11" s="19"/>
-      <c r="P11" s="19"/>
-      <c r="Q11" s="19"/>
+      <c r="E11" s="7"/>
+      <c r="F11" s="2"/>
+      <c r="G11" s="25"/>
+      <c r="H11" s="1"/>
+      <c r="I11" s="18"/>
+      <c r="J11" s="18"/>
+      <c r="K11" s="18"/>
+      <c r="L11" s="16"/>
+      <c r="M11" s="16"/>
+      <c r="N11" s="16"/>
+      <c r="O11" s="16"/>
+      <c r="P11" s="16"/>
+      <c r="Q11" s="16"/>
     </row>
     <row r="12" spans="1:17" s="14" customFormat="1">
-      <c r="A12" s="7"/>
-      <c r="B12" s="1"/>
+      <c r="A12" s="10"/>
+      <c r="B12" s="4"/>
       <c r="C12" s="1"/>
       <c r="D12" s="1"/>
-      <c r="E12" s="1"/>
-      <c r="F12" s="2"/>
-      <c r="G12" s="25"/>
-      <c r="H12" s="1"/>
-      <c r="I12" s="17"/>
-      <c r="J12" s="17"/>
-      <c r="K12" s="16"/>
-      <c r="L12" s="16"/>
-      <c r="M12" s="16"/>
-      <c r="N12" s="16"/>
-      <c r="O12" s="16"/>
-      <c r="P12" s="16"/>
-      <c r="Q12" s="16"/>
+      <c r="E12" s="10"/>
+      <c r="F12" s="24"/>
+      <c r="G12" s="24"/>
+      <c r="H12" s="12"/>
+      <c r="I12" s="19"/>
+      <c r="J12" s="19"/>
+      <c r="K12" s="19"/>
+      <c r="L12" s="19"/>
+      <c r="M12" s="19"/>
+      <c r="N12" s="19"/>
+      <c r="O12" s="19"/>
+      <c r="P12" s="19"/>
+      <c r="Q12" s="19"/>
     </row>
     <row r="13" spans="1:17" s="14" customFormat="1">
       <c r="A13" s="7"/>
@@ -9714,11 +11278,11 @@
       <c r="D13" s="1"/>
       <c r="E13" s="1"/>
       <c r="F13" s="2"/>
-      <c r="G13" s="2"/>
+      <c r="G13" s="25"/>
       <c r="H13" s="1"/>
-      <c r="I13" s="18"/>
-      <c r="J13" s="18"/>
-      <c r="K13" s="18"/>
+      <c r="I13" s="17"/>
+      <c r="J13" s="17"/>
+      <c r="K13" s="16"/>
       <c r="L13" s="16"/>
       <c r="M13" s="16"/>
       <c r="N13" s="16"/>
@@ -9729,15 +11293,15 @@
     <row r="14" spans="1:17" s="14" customFormat="1">
       <c r="A14" s="7"/>
       <c r="B14" s="1"/>
-      <c r="C14" s="1"/>
+      <c r="C14" s="50"/>
       <c r="D14" s="1"/>
       <c r="E14" s="1"/>
       <c r="F14" s="2"/>
-      <c r="G14" s="25"/>
+      <c r="G14" s="2"/>
       <c r="H14" s="1"/>
-      <c r="I14" s="17"/>
-      <c r="J14" s="17"/>
-      <c r="K14" s="16"/>
+      <c r="I14" s="18"/>
+      <c r="J14" s="18"/>
+      <c r="K14" s="18"/>
       <c r="L14" s="16"/>
       <c r="M14" s="16"/>
       <c r="N14" s="16"/>
@@ -9775,10 +11339,10 @@
       <c r="H16" s="1"/>
       <c r="I16" s="17"/>
       <c r="J16" s="17"/>
-      <c r="K16" s="18"/>
-      <c r="L16" s="18"/>
-      <c r="M16" s="18"/>
-      <c r="N16" s="18"/>
+      <c r="K16" s="16"/>
+      <c r="L16" s="16"/>
+      <c r="M16" s="16"/>
+      <c r="N16" s="16"/>
       <c r="O16" s="16"/>
       <c r="P16" s="16"/>
       <c r="Q16" s="16"/>
@@ -9792,12 +11356,12 @@
       <c r="F17" s="2"/>
       <c r="G17" s="25"/>
       <c r="H17" s="1"/>
-      <c r="I17" s="18"/>
-      <c r="J17" s="18"/>
+      <c r="I17" s="17"/>
+      <c r="J17" s="17"/>
       <c r="K17" s="18"/>
-      <c r="L17" s="16"/>
-      <c r="M17" s="16"/>
-      <c r="N17" s="16"/>
+      <c r="L17" s="18"/>
+      <c r="M17" s="18"/>
+      <c r="N17" s="18"/>
       <c r="O17" s="16"/>
       <c r="P17" s="16"/>
       <c r="Q17" s="16"/>
@@ -9811,9 +11375,9 @@
       <c r="F18" s="2"/>
       <c r="G18" s="25"/>
       <c r="H18" s="1"/>
-      <c r="I18" s="16"/>
-      <c r="J18" s="16"/>
-      <c r="K18" s="16"/>
+      <c r="I18" s="18"/>
+      <c r="J18" s="18"/>
+      <c r="K18" s="18"/>
       <c r="L18" s="16"/>
       <c r="M18" s="16"/>
       <c r="N18" s="16"/>
@@ -9868,8 +11432,8 @@
       <c r="F21" s="2"/>
       <c r="G21" s="25"/>
       <c r="H21" s="1"/>
-      <c r="I21" s="17"/>
-      <c r="J21" s="17"/>
+      <c r="I21" s="16"/>
+      <c r="J21" s="16"/>
       <c r="K21" s="16"/>
       <c r="L21" s="16"/>
       <c r="M21" s="16"/>
@@ -9890,8 +11454,8 @@
       <c r="I22" s="17"/>
       <c r="J22" s="17"/>
       <c r="K22" s="16"/>
-      <c r="L22" s="20"/>
-      <c r="M22" s="20"/>
+      <c r="L22" s="16"/>
+      <c r="M22" s="16"/>
       <c r="N22" s="16"/>
       <c r="O22" s="16"/>
       <c r="P22" s="16"/>
@@ -9928,8 +11492,8 @@
       <c r="I24" s="17"/>
       <c r="J24" s="17"/>
       <c r="K24" s="16"/>
-      <c r="L24" s="16"/>
-      <c r="M24" s="16"/>
+      <c r="L24" s="20"/>
+      <c r="M24" s="20"/>
       <c r="N24" s="16"/>
       <c r="O24" s="16"/>
       <c r="P24" s="16"/>
@@ -9978,15 +11542,15 @@
       <c r="B27" s="1"/>
       <c r="C27" s="1"/>
       <c r="D27" s="1"/>
-      <c r="E27" s="7"/>
-      <c r="F27" s="25"/>
+      <c r="E27" s="1"/>
+      <c r="F27" s="2"/>
       <c r="G27" s="25"/>
       <c r="H27" s="1"/>
       <c r="I27" s="17"/>
       <c r="J27" s="17"/>
       <c r="K27" s="16"/>
-      <c r="L27" s="20"/>
-      <c r="M27" s="20"/>
+      <c r="L27" s="16"/>
+      <c r="M27" s="16"/>
       <c r="N27" s="16"/>
       <c r="O27" s="16"/>
       <c r="P27" s="16"/>
@@ -10004,8 +11568,8 @@
       <c r="I28" s="17"/>
       <c r="J28" s="17"/>
       <c r="K28" s="16"/>
-      <c r="L28" s="16"/>
-      <c r="M28" s="16"/>
+      <c r="L28" s="20"/>
+      <c r="M28" s="20"/>
       <c r="N28" s="16"/>
       <c r="O28" s="16"/>
       <c r="P28" s="16"/>
@@ -10026,8 +11590,8 @@
       <c r="L29" s="16"/>
       <c r="M29" s="16"/>
       <c r="N29" s="16"/>
-      <c r="O29" s="20"/>
-      <c r="P29" s="20"/>
+      <c r="O29" s="16"/>
+      <c r="P29" s="16"/>
       <c r="Q29" s="16"/>
     </row>
     <row r="30" spans="1:17" s="14" customFormat="1">
@@ -10035,8 +11599,8 @@
       <c r="B30" s="1"/>
       <c r="C30" s="1"/>
       <c r="D30" s="1"/>
-      <c r="E30" s="1"/>
-      <c r="F30" s="2"/>
+      <c r="E30" s="7"/>
+      <c r="F30" s="25"/>
       <c r="G30" s="25"/>
       <c r="H30" s="1"/>
       <c r="I30" s="17"/>
@@ -10045,8 +11609,8 @@
       <c r="L30" s="16"/>
       <c r="M30" s="16"/>
       <c r="N30" s="16"/>
-      <c r="O30" s="16"/>
-      <c r="P30" s="16"/>
+      <c r="O30" s="20"/>
+      <c r="P30" s="20"/>
       <c r="Q30" s="16"/>
     </row>
     <row r="31" spans="1:17" s="14" customFormat="1">
@@ -10061,8 +11625,8 @@
       <c r="I31" s="17"/>
       <c r="J31" s="17"/>
       <c r="K31" s="16"/>
-      <c r="L31" s="20"/>
-      <c r="M31" s="20"/>
+      <c r="L31" s="16"/>
+      <c r="M31" s="16"/>
       <c r="N31" s="16"/>
       <c r="O31" s="16"/>
       <c r="P31" s="16"/>
@@ -10073,15 +11637,15 @@
       <c r="B32" s="1"/>
       <c r="C32" s="1"/>
       <c r="D32" s="1"/>
-      <c r="E32" s="7"/>
-      <c r="F32" s="25"/>
+      <c r="E32" s="1"/>
+      <c r="F32" s="2"/>
       <c r="G32" s="25"/>
       <c r="H32" s="1"/>
-      <c r="I32" s="16"/>
-      <c r="J32" s="16"/>
+      <c r="I32" s="17"/>
+      <c r="J32" s="17"/>
       <c r="K32" s="16"/>
-      <c r="L32" s="16"/>
-      <c r="M32" s="16"/>
+      <c r="L32" s="20"/>
+      <c r="M32" s="20"/>
       <c r="N32" s="16"/>
       <c r="O32" s="16"/>
       <c r="P32" s="16"/>
@@ -10146,13 +11710,13 @@
     </row>
     <row r="36" spans="1:17" s="14" customFormat="1">
       <c r="A36" s="7"/>
-      <c r="B36" s="7"/>
-      <c r="C36" s="7"/>
-      <c r="D36" s="7"/>
+      <c r="B36" s="1"/>
+      <c r="C36" s="1"/>
+      <c r="D36" s="1"/>
       <c r="E36" s="7"/>
       <c r="F36" s="25"/>
       <c r="G36" s="25"/>
-      <c r="H36" s="7"/>
+      <c r="H36" s="1"/>
       <c r="I36" s="16"/>
       <c r="J36" s="16"/>
       <c r="K36" s="16"/>
@@ -10164,23 +11728,23 @@
       <c r="Q36" s="16"/>
     </row>
     <row r="37" spans="1:17" s="14" customFormat="1">
-      <c r="A37" s="8"/>
-      <c r="B37" s="8"/>
-      <c r="C37" s="8"/>
-      <c r="D37" s="8"/>
-      <c r="E37" s="8"/>
-      <c r="F37" s="8"/>
-      <c r="G37" s="8"/>
-      <c r="H37" s="8"/>
-      <c r="I37" s="21"/>
-      <c r="J37" s="21"/>
-      <c r="K37" s="21"/>
-      <c r="L37" s="21"/>
-      <c r="M37" s="21"/>
-      <c r="N37" s="21"/>
-      <c r="O37" s="21"/>
-      <c r="P37" s="21"/>
-      <c r="Q37" s="21"/>
+      <c r="A37" s="7"/>
+      <c r="B37" s="7"/>
+      <c r="C37" s="7"/>
+      <c r="D37" s="7"/>
+      <c r="E37" s="7"/>
+      <c r="F37" s="25"/>
+      <c r="G37" s="25"/>
+      <c r="H37" s="7"/>
+      <c r="I37" s="16"/>
+      <c r="J37" s="16"/>
+      <c r="K37" s="16"/>
+      <c r="L37" s="16"/>
+      <c r="M37" s="16"/>
+      <c r="N37" s="16"/>
+      <c r="O37" s="16"/>
+      <c r="P37" s="16"/>
+      <c r="Q37" s="16"/>
     </row>
     <row r="38" spans="1:17" s="14" customFormat="1">
       <c r="A38" s="8"/>
@@ -10486,7 +12050,7 @@
       <c r="P53" s="21"/>
       <c r="Q53" s="21"/>
     </row>
-    <row r="54" spans="1:17">
+    <row r="54" spans="1:17" s="14" customFormat="1">
       <c r="A54" s="8"/>
       <c r="B54" s="8"/>
       <c r="C54" s="8"/>
@@ -10829,23 +12393,23 @@
       <c r="Q71" s="21"/>
     </row>
     <row r="72" spans="1:17">
-      <c r="A72" s="9"/>
-      <c r="B72" s="9"/>
-      <c r="C72" s="9"/>
-      <c r="D72" s="9"/>
-      <c r="E72" s="9"/>
-      <c r="F72" s="9"/>
-      <c r="G72" s="9"/>
-      <c r="H72" s="9"/>
-      <c r="I72" s="22"/>
-      <c r="J72" s="22"/>
-      <c r="K72" s="22"/>
-      <c r="L72" s="22"/>
-      <c r="M72" s="22"/>
-      <c r="N72" s="22"/>
-      <c r="O72" s="22"/>
-      <c r="P72" s="22"/>
-      <c r="Q72" s="22"/>
+      <c r="A72" s="8"/>
+      <c r="B72" s="8"/>
+      <c r="C72" s="8"/>
+      <c r="D72" s="8"/>
+      <c r="E72" s="8"/>
+      <c r="F72" s="8"/>
+      <c r="G72" s="8"/>
+      <c r="H72" s="8"/>
+      <c r="I72" s="21"/>
+      <c r="J72" s="21"/>
+      <c r="K72" s="21"/>
+      <c r="L72" s="21"/>
+      <c r="M72" s="21"/>
+      <c r="N72" s="21"/>
+      <c r="O72" s="21"/>
+      <c r="P72" s="21"/>
+      <c r="Q72" s="21"/>
     </row>
     <row r="73" spans="1:17">
       <c r="A73" s="9"/>
@@ -10865,6 +12429,25 @@
       <c r="O73" s="22"/>
       <c r="P73" s="22"/>
       <c r="Q73" s="22"/>
+    </row>
+    <row r="74" spans="1:17">
+      <c r="A74" s="9"/>
+      <c r="B74" s="9"/>
+      <c r="C74" s="9"/>
+      <c r="D74" s="9"/>
+      <c r="E74" s="9"/>
+      <c r="F74" s="9"/>
+      <c r="G74" s="9"/>
+      <c r="H74" s="9"/>
+      <c r="I74" s="22"/>
+      <c r="J74" s="22"/>
+      <c r="K74" s="22"/>
+      <c r="L74" s="22"/>
+      <c r="M74" s="22"/>
+      <c r="N74" s="22"/>
+      <c r="O74" s="22"/>
+      <c r="P74" s="22"/>
+      <c r="Q74" s="22"/>
     </row>
   </sheetData>
   <mergeCells count="9">
@@ -10892,7 +12475,7 @@
   <dimension ref="A1:Q73"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H8" sqref="H8"/>
+      <selection activeCell="G8" sqref="G8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -10918,11 +12501,11 @@
   <sheetData>
     <row r="1" spans="1:17" ht="18" customHeight="1" thickBot="1">
       <c r="A1" s="32" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B1" s="33"/>
       <c r="C1" s="34" t="s">
-        <v>178</v>
+        <v>126</v>
       </c>
       <c r="D1" s="34"/>
       <c r="E1" s="35"/>
@@ -10932,7 +12515,7 @@
       <c r="G1" s="33"/>
       <c r="H1" s="3"/>
       <c r="I1" s="41" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="J1" s="42"/>
       <c r="K1" s="42"/>
@@ -10949,7 +12532,7 @@
       </c>
       <c r="B2" s="37"/>
       <c r="C2" s="38" t="s">
-        <v>179</v>
+        <v>127</v>
       </c>
       <c r="D2" s="38"/>
       <c r="E2" s="38"/>
@@ -10983,7 +12566,7 @@
         <v>2</v>
       </c>
       <c r="D3" s="6" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E3" s="6" t="s">
         <v>4</v>
@@ -11004,7 +12587,7 @@
         <v>14</v>
       </c>
       <c r="K3" s="15" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="L3" s="15" t="s">
         <v>13</v>
@@ -11013,7 +12596,7 @@
         <v>14</v>
       </c>
       <c r="N3" s="15" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="O3" s="15" t="s">
         <v>13</v>
@@ -11022,7 +12605,7 @@
         <v>14</v>
       </c>
       <c r="Q3" s="15" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="4" spans="1:17" s="14" customFormat="1">
@@ -11031,11 +12614,11 @@
         <v>3</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>36</v>
+        <v>173</v>
       </c>
       <c r="D4" s="1"/>
       <c r="E4" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="F4" s="2" t="s">
         <v>8</v>
@@ -11044,7 +12627,7 @@
         <v>8</v>
       </c>
       <c r="H4" s="1" t="s">
-        <v>180</v>
+        <v>162</v>
       </c>
       <c r="I4" s="16"/>
       <c r="J4" s="16"/>
@@ -11078,17 +12661,17 @@
     <row r="6" spans="1:17" s="14" customFormat="1">
       <c r="A6" s="7"/>
       <c r="B6" s="1" t="s">
-        <v>137</v>
+        <v>119</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>138</v>
+        <v>120</v>
       </c>
       <c r="D6" s="1"/>
       <c r="E6" s="1"/>
       <c r="F6" s="2"/>
       <c r="G6" s="2"/>
       <c r="H6" s="1" t="s">
-        <v>151</v>
+        <v>121</v>
       </c>
       <c r="I6" s="16"/>
       <c r="J6" s="16"/>
@@ -11103,17 +12686,17 @@
     <row r="7" spans="1:17" s="14" customFormat="1">
       <c r="A7" s="7"/>
       <c r="B7" s="1" t="s">
-        <v>134</v>
+        <v>116</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>36</v>
+        <v>173</v>
       </c>
       <c r="D7" s="1"/>
       <c r="E7" s="1"/>
       <c r="F7" s="2"/>
       <c r="G7" s="2"/>
       <c r="H7" s="1" t="s">
-        <v>135</v>
+        <v>117</v>
       </c>
       <c r="I7" s="17"/>
       <c r="J7" s="17"/>
@@ -11128,17 +12711,17 @@
     <row r="8" spans="1:17" s="14" customFormat="1">
       <c r="A8" s="7"/>
       <c r="B8" s="1" t="s">
-        <v>140</v>
+        <v>122</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>36</v>
+        <v>173</v>
       </c>
       <c r="D8" s="1"/>
       <c r="E8" s="1"/>
       <c r="F8" s="2"/>
       <c r="G8" s="2"/>
       <c r="H8" s="1" t="s">
-        <v>136</v>
+        <v>118</v>
       </c>
       <c r="I8" s="18"/>
       <c r="J8" s="18"/>
@@ -12406,12 +13989,12 @@
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
-    <tabColor theme="7" tint="0.39997558519241921"/>
+    <tabColor theme="5" tint="0.39997558519241921"/>
   </sheetPr>
-  <dimension ref="A1:Q70"/>
+  <dimension ref="A1:Q73"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G28" sqref="G28"/>
+      <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -12437,11 +14020,11 @@
   <sheetData>
     <row r="1" spans="1:17" ht="18" customHeight="1" thickBot="1">
       <c r="A1" s="32" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B1" s="33"/>
       <c r="C1" s="34" t="s">
-        <v>113</v>
+        <v>159</v>
       </c>
       <c r="D1" s="34"/>
       <c r="E1" s="35"/>
@@ -12451,7 +14034,7 @@
       <c r="G1" s="33"/>
       <c r="H1" s="3"/>
       <c r="I1" s="41" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="J1" s="42"/>
       <c r="K1" s="42"/>
@@ -12468,7 +14051,7 @@
       </c>
       <c r="B2" s="37"/>
       <c r="C2" s="38" t="s">
-        <v>114</v>
+        <v>160</v>
       </c>
       <c r="D2" s="38"/>
       <c r="E2" s="38"/>
@@ -12502,7 +14085,7 @@
         <v>2</v>
       </c>
       <c r="D3" s="6" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E3" s="6" t="s">
         <v>4</v>
@@ -12523,7 +14106,7 @@
         <v>14</v>
       </c>
       <c r="K3" s="15" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="L3" s="15" t="s">
         <v>13</v>
@@ -12532,7 +14115,7 @@
         <v>14</v>
       </c>
       <c r="N3" s="15" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="O3" s="15" t="s">
         <v>13</v>
@@ -12541,29 +14124,29 @@
         <v>14</v>
       </c>
       <c r="Q3" s="15" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="4" spans="1:17" s="14" customFormat="1">
       <c r="A4" s="7"/>
       <c r="B4" s="1" t="s">
-        <v>115</v>
+        <v>3</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>116</v>
+        <v>28</v>
       </c>
       <c r="D4" s="1"/>
       <c r="E4" s="1" t="s">
-        <v>117</v>
+        <v>25</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>118</v>
+        <v>8</v>
       </c>
       <c r="G4" s="2" t="s">
-        <v>118</v>
+        <v>8</v>
       </c>
       <c r="H4" s="1" t="s">
-        <v>119</v>
+        <v>161</v>
       </c>
       <c r="I4" s="16"/>
       <c r="J4" s="16"/>
@@ -12580,10 +14163,10 @@
       <c r="B5" s="1"/>
       <c r="C5" s="1"/>
       <c r="D5" s="1"/>
-      <c r="E5" s="10"/>
-      <c r="F5" s="24"/>
-      <c r="G5" s="24"/>
-      <c r="H5" s="12"/>
+      <c r="E5" s="1"/>
+      <c r="F5" s="2"/>
+      <c r="G5" s="2"/>
+      <c r="H5" s="1"/>
       <c r="I5" s="16"/>
       <c r="J5" s="16"/>
       <c r="K5" s="16"/>
@@ -12597,21 +14180,21 @@
     <row r="6" spans="1:17" s="14" customFormat="1">
       <c r="A6" s="7"/>
       <c r="B6" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="C6" s="1" t="s">
         <v>120</v>
-      </c>
-      <c r="C6" s="1" t="s">
-        <v>121</v>
       </c>
       <c r="D6" s="1"/>
       <c r="E6" s="1"/>
       <c r="F6" s="2"/>
       <c r="G6" s="2"/>
       <c r="H6" s="1" t="s">
-        <v>122</v>
-      </c>
-      <c r="I6" s="17"/>
-      <c r="J6" s="17"/>
-      <c r="K6" s="18"/>
+        <v>133</v>
+      </c>
+      <c r="I6" s="16"/>
+      <c r="J6" s="16"/>
+      <c r="K6" s="16"/>
       <c r="L6" s="16"/>
       <c r="M6" s="16"/>
       <c r="N6" s="16"/>
@@ -12622,20 +14205,20 @@
     <row r="7" spans="1:17" s="14" customFormat="1">
       <c r="A7" s="7"/>
       <c r="B7" s="1" t="s">
-        <v>123</v>
+        <v>116</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>121</v>
+        <v>173</v>
       </c>
       <c r="D7" s="1"/>
       <c r="E7" s="1"/>
       <c r="F7" s="2"/>
       <c r="G7" s="2"/>
       <c r="H7" s="1" t="s">
-        <v>124</v>
-      </c>
-      <c r="I7" s="18"/>
-      <c r="J7" s="18"/>
+        <v>117</v>
+      </c>
+      <c r="I7" s="17"/>
+      <c r="J7" s="17"/>
       <c r="K7" s="18"/>
       <c r="L7" s="16"/>
       <c r="M7" s="16"/>
@@ -12646,18 +14229,18 @@
     </row>
     <row r="8" spans="1:17" s="14" customFormat="1">
       <c r="A8" s="7"/>
-      <c r="B8" s="11" t="s">
-        <v>125</v>
+      <c r="B8" s="1" t="s">
+        <v>122</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>121</v>
+        <v>173</v>
       </c>
       <c r="D8" s="1"/>
       <c r="E8" s="1"/>
-      <c r="F8" s="13"/>
-      <c r="G8" s="13"/>
+      <c r="F8" s="2"/>
+      <c r="G8" s="2"/>
       <c r="H8" s="1" t="s">
-        <v>126</v>
+        <v>118</v>
       </c>
       <c r="I8" s="18"/>
       <c r="J8" s="18"/>
@@ -12671,19 +14254,13 @@
     </row>
     <row r="9" spans="1:17" s="14" customFormat="1">
       <c r="A9" s="7"/>
-      <c r="B9" s="1" t="s">
-        <v>127</v>
-      </c>
-      <c r="C9" s="1" t="s">
-        <v>128</v>
-      </c>
-      <c r="D9" s="1"/>
+      <c r="B9" s="26"/>
+      <c r="C9" s="26"/>
+      <c r="D9" s="26"/>
       <c r="E9" s="1"/>
       <c r="F9" s="2"/>
       <c r="G9" s="2"/>
-      <c r="H9" s="1" t="s">
-        <v>129</v>
-      </c>
+      <c r="H9" s="1"/>
       <c r="I9" s="18"/>
       <c r="J9" s="18"/>
       <c r="K9" s="18"/>
@@ -12695,54 +14272,42 @@
       <c r="Q9" s="16"/>
     </row>
     <row r="10" spans="1:17" s="14" customFormat="1">
-      <c r="A10" s="10"/>
-      <c r="B10" s="1" t="s">
-        <v>130</v>
-      </c>
-      <c r="C10" s="1" t="s">
-        <v>128</v>
-      </c>
+      <c r="A10" s="7"/>
+      <c r="B10" s="1"/>
+      <c r="C10" s="1"/>
       <c r="D10" s="1"/>
-      <c r="E10" s="1"/>
+      <c r="E10" s="7"/>
       <c r="F10" s="2"/>
-      <c r="G10" s="2"/>
-      <c r="H10" s="1" t="s">
-        <v>131</v>
-      </c>
-      <c r="I10" s="19"/>
-      <c r="J10" s="19"/>
-      <c r="K10" s="19"/>
-      <c r="L10" s="19"/>
-      <c r="M10" s="19"/>
-      <c r="N10" s="19"/>
-      <c r="O10" s="19"/>
-      <c r="P10" s="19"/>
-      <c r="Q10" s="19"/>
+      <c r="G10" s="25"/>
+      <c r="H10" s="1"/>
+      <c r="I10" s="18"/>
+      <c r="J10" s="18"/>
+      <c r="K10" s="18"/>
+      <c r="L10" s="16"/>
+      <c r="M10" s="16"/>
+      <c r="N10" s="16"/>
+      <c r="O10" s="16"/>
+      <c r="P10" s="16"/>
+      <c r="Q10" s="16"/>
     </row>
     <row r="11" spans="1:17" s="14" customFormat="1">
-      <c r="A11" s="7"/>
-      <c r="B11" s="1" t="s">
-        <v>132</v>
-      </c>
-      <c r="C11" s="1" t="s">
-        <v>128</v>
-      </c>
+      <c r="A11" s="10"/>
+      <c r="B11" s="4"/>
+      <c r="C11" s="1"/>
       <c r="D11" s="1"/>
-      <c r="E11" s="1"/>
-      <c r="F11" s="2"/>
-      <c r="G11" s="2"/>
-      <c r="H11" s="1" t="s">
-        <v>133</v>
-      </c>
-      <c r="I11" s="17"/>
-      <c r="J11" s="17"/>
-      <c r="K11" s="16"/>
-      <c r="L11" s="16"/>
-      <c r="M11" s="16"/>
-      <c r="N11" s="16"/>
-      <c r="O11" s="16"/>
-      <c r="P11" s="16"/>
-      <c r="Q11" s="16"/>
+      <c r="E11" s="10"/>
+      <c r="F11" s="24"/>
+      <c r="G11" s="24"/>
+      <c r="H11" s="12"/>
+      <c r="I11" s="19"/>
+      <c r="J11" s="19"/>
+      <c r="K11" s="19"/>
+      <c r="L11" s="19"/>
+      <c r="M11" s="19"/>
+      <c r="N11" s="19"/>
+      <c r="O11" s="19"/>
+      <c r="P11" s="19"/>
+      <c r="Q11" s="19"/>
     </row>
     <row r="12" spans="1:17" s="14" customFormat="1">
       <c r="A12" s="7"/>
@@ -12770,14 +14335,14 @@
       <c r="D13" s="1"/>
       <c r="E13" s="1"/>
       <c r="F13" s="2"/>
-      <c r="G13" s="25"/>
+      <c r="G13" s="2"/>
       <c r="H13" s="1"/>
-      <c r="I13" s="17"/>
-      <c r="J13" s="17"/>
+      <c r="I13" s="18"/>
+      <c r="J13" s="18"/>
       <c r="K13" s="18"/>
-      <c r="L13" s="18"/>
-      <c r="M13" s="18"/>
-      <c r="N13" s="18"/>
+      <c r="L13" s="16"/>
+      <c r="M13" s="16"/>
+      <c r="N13" s="16"/>
       <c r="O13" s="16"/>
       <c r="P13" s="16"/>
       <c r="Q13" s="16"/>
@@ -12791,9 +14356,9 @@
       <c r="F14" s="2"/>
       <c r="G14" s="25"/>
       <c r="H14" s="1"/>
-      <c r="I14" s="18"/>
-      <c r="J14" s="18"/>
-      <c r="K14" s="18"/>
+      <c r="I14" s="17"/>
+      <c r="J14" s="17"/>
+      <c r="K14" s="16"/>
       <c r="L14" s="16"/>
       <c r="M14" s="16"/>
       <c r="N14" s="16"/>
@@ -12810,8 +14375,8 @@
       <c r="F15" s="2"/>
       <c r="G15" s="25"/>
       <c r="H15" s="1"/>
-      <c r="I15" s="16"/>
-      <c r="J15" s="16"/>
+      <c r="I15" s="17"/>
+      <c r="J15" s="17"/>
       <c r="K15" s="16"/>
       <c r="L15" s="16"/>
       <c r="M15" s="16"/>
@@ -12829,12 +14394,12 @@
       <c r="F16" s="2"/>
       <c r="G16" s="25"/>
       <c r="H16" s="1"/>
-      <c r="I16" s="16"/>
-      <c r="J16" s="16"/>
-      <c r="K16" s="16"/>
-      <c r="L16" s="16"/>
-      <c r="M16" s="16"/>
-      <c r="N16" s="16"/>
+      <c r="I16" s="17"/>
+      <c r="J16" s="17"/>
+      <c r="K16" s="18"/>
+      <c r="L16" s="18"/>
+      <c r="M16" s="18"/>
+      <c r="N16" s="18"/>
       <c r="O16" s="16"/>
       <c r="P16" s="16"/>
       <c r="Q16" s="16"/>
@@ -12848,9 +14413,9 @@
       <c r="F17" s="2"/>
       <c r="G17" s="25"/>
       <c r="H17" s="1"/>
-      <c r="I17" s="16"/>
-      <c r="J17" s="16"/>
-      <c r="K17" s="16"/>
+      <c r="I17" s="18"/>
+      <c r="J17" s="18"/>
+      <c r="K17" s="18"/>
       <c r="L17" s="16"/>
       <c r="M17" s="16"/>
       <c r="N17" s="16"/>
@@ -12867,8 +14432,8 @@
       <c r="F18" s="2"/>
       <c r="G18" s="25"/>
       <c r="H18" s="1"/>
-      <c r="I18" s="17"/>
-      <c r="J18" s="17"/>
+      <c r="I18" s="16"/>
+      <c r="J18" s="16"/>
       <c r="K18" s="16"/>
       <c r="L18" s="16"/>
       <c r="M18" s="16"/>
@@ -12886,11 +14451,11 @@
       <c r="F19" s="2"/>
       <c r="G19" s="25"/>
       <c r="H19" s="1"/>
-      <c r="I19" s="17"/>
-      <c r="J19" s="17"/>
+      <c r="I19" s="16"/>
+      <c r="J19" s="16"/>
       <c r="K19" s="16"/>
-      <c r="L19" s="20"/>
-      <c r="M19" s="20"/>
+      <c r="L19" s="16"/>
+      <c r="M19" s="16"/>
       <c r="N19" s="16"/>
       <c r="O19" s="16"/>
       <c r="P19" s="16"/>
@@ -12905,11 +14470,11 @@
       <c r="F20" s="2"/>
       <c r="G20" s="25"/>
       <c r="H20" s="1"/>
-      <c r="I20" s="17"/>
-      <c r="J20" s="17"/>
+      <c r="I20" s="16"/>
+      <c r="J20" s="16"/>
       <c r="K20" s="16"/>
-      <c r="L20" s="20"/>
-      <c r="M20" s="20"/>
+      <c r="L20" s="16"/>
+      <c r="M20" s="16"/>
       <c r="N20" s="16"/>
       <c r="O20" s="16"/>
       <c r="P20" s="16"/>
@@ -12946,8 +14511,8 @@
       <c r="I22" s="17"/>
       <c r="J22" s="17"/>
       <c r="K22" s="16"/>
-      <c r="L22" s="16"/>
-      <c r="M22" s="16"/>
+      <c r="L22" s="20"/>
+      <c r="M22" s="20"/>
       <c r="N22" s="16"/>
       <c r="O22" s="16"/>
       <c r="P22" s="16"/>
@@ -12965,8 +14530,8 @@
       <c r="I23" s="17"/>
       <c r="J23" s="17"/>
       <c r="K23" s="16"/>
-      <c r="L23" s="16"/>
-      <c r="M23" s="16"/>
+      <c r="L23" s="20"/>
+      <c r="M23" s="20"/>
       <c r="N23" s="16"/>
       <c r="O23" s="16"/>
       <c r="P23" s="16"/>
@@ -12977,15 +14542,15 @@
       <c r="B24" s="1"/>
       <c r="C24" s="1"/>
       <c r="D24" s="1"/>
-      <c r="E24" s="7"/>
-      <c r="F24" s="25"/>
+      <c r="E24" s="1"/>
+      <c r="F24" s="2"/>
       <c r="G24" s="25"/>
       <c r="H24" s="1"/>
       <c r="I24" s="17"/>
       <c r="J24" s="17"/>
       <c r="K24" s="16"/>
-      <c r="L24" s="20"/>
-      <c r="M24" s="20"/>
+      <c r="L24" s="16"/>
+      <c r="M24" s="16"/>
       <c r="N24" s="16"/>
       <c r="O24" s="16"/>
       <c r="P24" s="16"/>
@@ -12996,8 +14561,8 @@
       <c r="B25" s="1"/>
       <c r="C25" s="1"/>
       <c r="D25" s="1"/>
-      <c r="E25" s="7"/>
-      <c r="F25" s="25"/>
+      <c r="E25" s="1"/>
+      <c r="F25" s="2"/>
       <c r="G25" s="25"/>
       <c r="H25" s="1"/>
       <c r="I25" s="17"/>
@@ -13015,8 +14580,8 @@
       <c r="B26" s="1"/>
       <c r="C26" s="1"/>
       <c r="D26" s="1"/>
-      <c r="E26" s="7"/>
-      <c r="F26" s="25"/>
+      <c r="E26" s="1"/>
+      <c r="F26" s="2"/>
       <c r="G26" s="25"/>
       <c r="H26" s="1"/>
       <c r="I26" s="17"/>
@@ -13025,8 +14590,8 @@
       <c r="L26" s="16"/>
       <c r="M26" s="16"/>
       <c r="N26" s="16"/>
-      <c r="O26" s="20"/>
-      <c r="P26" s="20"/>
+      <c r="O26" s="16"/>
+      <c r="P26" s="16"/>
       <c r="Q26" s="16"/>
     </row>
     <row r="27" spans="1:17" s="14" customFormat="1">
@@ -13034,15 +14599,15 @@
       <c r="B27" s="1"/>
       <c r="C27" s="1"/>
       <c r="D27" s="1"/>
-      <c r="E27" s="1"/>
-      <c r="F27" s="2"/>
+      <c r="E27" s="7"/>
+      <c r="F27" s="25"/>
       <c r="G27" s="25"/>
       <c r="H27" s="1"/>
       <c r="I27" s="17"/>
       <c r="J27" s="17"/>
       <c r="K27" s="16"/>
-      <c r="L27" s="16"/>
-      <c r="M27" s="16"/>
+      <c r="L27" s="20"/>
+      <c r="M27" s="20"/>
       <c r="N27" s="16"/>
       <c r="O27" s="16"/>
       <c r="P27" s="16"/>
@@ -13053,15 +14618,15 @@
       <c r="B28" s="1"/>
       <c r="C28" s="1"/>
       <c r="D28" s="1"/>
-      <c r="E28" s="1"/>
-      <c r="F28" s="2"/>
+      <c r="E28" s="7"/>
+      <c r="F28" s="25"/>
       <c r="G28" s="25"/>
       <c r="H28" s="1"/>
       <c r="I28" s="17"/>
       <c r="J28" s="17"/>
       <c r="K28" s="16"/>
-      <c r="L28" s="20"/>
-      <c r="M28" s="20"/>
+      <c r="L28" s="16"/>
+      <c r="M28" s="16"/>
       <c r="N28" s="16"/>
       <c r="O28" s="16"/>
       <c r="P28" s="16"/>
@@ -13076,14 +14641,14 @@
       <c r="F29" s="25"/>
       <c r="G29" s="25"/>
       <c r="H29" s="1"/>
-      <c r="I29" s="16"/>
-      <c r="J29" s="16"/>
+      <c r="I29" s="17"/>
+      <c r="J29" s="17"/>
       <c r="K29" s="16"/>
       <c r="L29" s="16"/>
       <c r="M29" s="16"/>
       <c r="N29" s="16"/>
-      <c r="O29" s="16"/>
-      <c r="P29" s="16"/>
+      <c r="O29" s="20"/>
+      <c r="P29" s="20"/>
       <c r="Q29" s="16"/>
     </row>
     <row r="30" spans="1:17" s="14" customFormat="1">
@@ -13091,12 +14656,12 @@
       <c r="B30" s="1"/>
       <c r="C30" s="1"/>
       <c r="D30" s="1"/>
-      <c r="E30" s="7"/>
-      <c r="F30" s="25"/>
+      <c r="E30" s="1"/>
+      <c r="F30" s="2"/>
       <c r="G30" s="25"/>
       <c r="H30" s="1"/>
-      <c r="I30" s="16"/>
-      <c r="J30" s="16"/>
+      <c r="I30" s="17"/>
+      <c r="J30" s="17"/>
       <c r="K30" s="16"/>
       <c r="L30" s="16"/>
       <c r="M30" s="16"/>
@@ -13110,15 +14675,15 @@
       <c r="B31" s="1"/>
       <c r="C31" s="1"/>
       <c r="D31" s="1"/>
-      <c r="E31" s="7"/>
-      <c r="F31" s="25"/>
+      <c r="E31" s="1"/>
+      <c r="F31" s="2"/>
       <c r="G31" s="25"/>
       <c r="H31" s="1"/>
-      <c r="I31" s="16"/>
-      <c r="J31" s="16"/>
+      <c r="I31" s="17"/>
+      <c r="J31" s="17"/>
       <c r="K31" s="16"/>
-      <c r="L31" s="16"/>
-      <c r="M31" s="16"/>
+      <c r="L31" s="20"/>
+      <c r="M31" s="20"/>
       <c r="N31" s="16"/>
       <c r="O31" s="16"/>
       <c r="P31" s="16"/>
@@ -13145,13 +14710,13 @@
     </row>
     <row r="33" spans="1:17" s="14" customFormat="1">
       <c r="A33" s="7"/>
-      <c r="B33" s="7"/>
-      <c r="C33" s="7"/>
-      <c r="D33" s="7"/>
+      <c r="B33" s="1"/>
+      <c r="C33" s="1"/>
+      <c r="D33" s="1"/>
       <c r="E33" s="7"/>
       <c r="F33" s="25"/>
       <c r="G33" s="25"/>
-      <c r="H33" s="7"/>
+      <c r="H33" s="1"/>
       <c r="I33" s="16"/>
       <c r="J33" s="16"/>
       <c r="K33" s="16"/>
@@ -13163,61 +14728,61 @@
       <c r="Q33" s="16"/>
     </row>
     <row r="34" spans="1:17" s="14" customFormat="1">
-      <c r="A34" s="8"/>
-      <c r="B34" s="8"/>
-      <c r="C34" s="8"/>
-      <c r="D34" s="8"/>
-      <c r="E34" s="8"/>
-      <c r="F34" s="8"/>
-      <c r="G34" s="8"/>
-      <c r="H34" s="8"/>
-      <c r="I34" s="21"/>
-      <c r="J34" s="21"/>
-      <c r="K34" s="21"/>
-      <c r="L34" s="21"/>
-      <c r="M34" s="21"/>
-      <c r="N34" s="21"/>
-      <c r="O34" s="21"/>
-      <c r="P34" s="21"/>
-      <c r="Q34" s="21"/>
+      <c r="A34" s="7"/>
+      <c r="B34" s="1"/>
+      <c r="C34" s="1"/>
+      <c r="D34" s="1"/>
+      <c r="E34" s="7"/>
+      <c r="F34" s="25"/>
+      <c r="G34" s="25"/>
+      <c r="H34" s="1"/>
+      <c r="I34" s="16"/>
+      <c r="J34" s="16"/>
+      <c r="K34" s="16"/>
+      <c r="L34" s="16"/>
+      <c r="M34" s="16"/>
+      <c r="N34" s="16"/>
+      <c r="O34" s="16"/>
+      <c r="P34" s="16"/>
+      <c r="Q34" s="16"/>
     </row>
     <row r="35" spans="1:17" s="14" customFormat="1">
-      <c r="A35" s="8"/>
-      <c r="B35" s="8"/>
-      <c r="C35" s="8"/>
-      <c r="D35" s="8"/>
-      <c r="E35" s="8"/>
-      <c r="F35" s="8"/>
-      <c r="G35" s="8"/>
-      <c r="H35" s="8"/>
-      <c r="I35" s="21"/>
-      <c r="J35" s="21"/>
-      <c r="K35" s="21"/>
-      <c r="L35" s="21"/>
-      <c r="M35" s="21"/>
-      <c r="N35" s="21"/>
-      <c r="O35" s="21"/>
-      <c r="P35" s="21"/>
-      <c r="Q35" s="21"/>
+      <c r="A35" s="7"/>
+      <c r="B35" s="1"/>
+      <c r="C35" s="1"/>
+      <c r="D35" s="1"/>
+      <c r="E35" s="7"/>
+      <c r="F35" s="25"/>
+      <c r="G35" s="25"/>
+      <c r="H35" s="1"/>
+      <c r="I35" s="16"/>
+      <c r="J35" s="16"/>
+      <c r="K35" s="16"/>
+      <c r="L35" s="16"/>
+      <c r="M35" s="16"/>
+      <c r="N35" s="16"/>
+      <c r="O35" s="16"/>
+      <c r="P35" s="16"/>
+      <c r="Q35" s="16"/>
     </row>
     <row r="36" spans="1:17" s="14" customFormat="1">
-      <c r="A36" s="8"/>
-      <c r="B36" s="8"/>
-      <c r="C36" s="8"/>
-      <c r="D36" s="8"/>
-      <c r="E36" s="8"/>
-      <c r="F36" s="8"/>
-      <c r="G36" s="8"/>
-      <c r="H36" s="8"/>
-      <c r="I36" s="21"/>
-      <c r="J36" s="21"/>
-      <c r="K36" s="21"/>
-      <c r="L36" s="21"/>
-      <c r="M36" s="21"/>
-      <c r="N36" s="21"/>
-      <c r="O36" s="21"/>
-      <c r="P36" s="21"/>
-      <c r="Q36" s="21"/>
+      <c r="A36" s="7"/>
+      <c r="B36" s="7"/>
+      <c r="C36" s="7"/>
+      <c r="D36" s="7"/>
+      <c r="E36" s="7"/>
+      <c r="F36" s="25"/>
+      <c r="G36" s="25"/>
+      <c r="H36" s="7"/>
+      <c r="I36" s="16"/>
+      <c r="J36" s="16"/>
+      <c r="K36" s="16"/>
+      <c r="L36" s="16"/>
+      <c r="M36" s="16"/>
+      <c r="N36" s="16"/>
+      <c r="O36" s="16"/>
+      <c r="P36" s="16"/>
+      <c r="Q36" s="16"/>
     </row>
     <row r="37" spans="1:17" s="14" customFormat="1">
       <c r="A37" s="8"/>
@@ -13485,7 +15050,7 @@
       <c r="P50" s="21"/>
       <c r="Q50" s="21"/>
     </row>
-    <row r="51" spans="1:17">
+    <row r="51" spans="1:17" s="14" customFormat="1">
       <c r="A51" s="8"/>
       <c r="B51" s="8"/>
       <c r="C51" s="8"/>
@@ -13504,7 +15069,7 @@
       <c r="P51" s="21"/>
       <c r="Q51" s="21"/>
     </row>
-    <row r="52" spans="1:17">
+    <row r="52" spans="1:17" s="14" customFormat="1">
       <c r="A52" s="8"/>
       <c r="B52" s="8"/>
       <c r="C52" s="8"/>
@@ -13523,7 +15088,7 @@
       <c r="P52" s="21"/>
       <c r="Q52" s="21"/>
     </row>
-    <row r="53" spans="1:17">
+    <row r="53" spans="1:17" s="14" customFormat="1">
       <c r="A53" s="8"/>
       <c r="B53" s="8"/>
       <c r="C53" s="8"/>
@@ -13828,42 +15393,99 @@
       <c r="Q68" s="21"/>
     </row>
     <row r="69" spans="1:17">
-      <c r="A69" s="9"/>
-      <c r="B69" s="9"/>
-      <c r="C69" s="9"/>
-      <c r="D69" s="9"/>
-      <c r="E69" s="9"/>
-      <c r="F69" s="9"/>
-      <c r="G69" s="9"/>
-      <c r="H69" s="9"/>
-      <c r="I69" s="22"/>
-      <c r="J69" s="22"/>
-      <c r="K69" s="22"/>
-      <c r="L69" s="22"/>
-      <c r="M69" s="22"/>
-      <c r="N69" s="22"/>
-      <c r="O69" s="22"/>
-      <c r="P69" s="22"/>
-      <c r="Q69" s="22"/>
+      <c r="A69" s="8"/>
+      <c r="B69" s="8"/>
+      <c r="C69" s="8"/>
+      <c r="D69" s="8"/>
+      <c r="E69" s="8"/>
+      <c r="F69" s="8"/>
+      <c r="G69" s="8"/>
+      <c r="H69" s="8"/>
+      <c r="I69" s="21"/>
+      <c r="J69" s="21"/>
+      <c r="K69" s="21"/>
+      <c r="L69" s="21"/>
+      <c r="M69" s="21"/>
+      <c r="N69" s="21"/>
+      <c r="O69" s="21"/>
+      <c r="P69" s="21"/>
+      <c r="Q69" s="21"/>
     </row>
     <row r="70" spans="1:17">
-      <c r="A70" s="9"/>
-      <c r="B70" s="9"/>
-      <c r="C70" s="9"/>
-      <c r="D70" s="9"/>
-      <c r="E70" s="9"/>
-      <c r="F70" s="9"/>
-      <c r="G70" s="9"/>
-      <c r="H70" s="9"/>
-      <c r="I70" s="22"/>
-      <c r="J70" s="22"/>
-      <c r="K70" s="22"/>
-      <c r="L70" s="22"/>
-      <c r="M70" s="22"/>
-      <c r="N70" s="22"/>
-      <c r="O70" s="22"/>
-      <c r="P70" s="22"/>
-      <c r="Q70" s="22"/>
+      <c r="A70" s="8"/>
+      <c r="B70" s="8"/>
+      <c r="C70" s="8"/>
+      <c r="D70" s="8"/>
+      <c r="E70" s="8"/>
+      <c r="F70" s="8"/>
+      <c r="G70" s="8"/>
+      <c r="H70" s="8"/>
+      <c r="I70" s="21"/>
+      <c r="J70" s="21"/>
+      <c r="K70" s="21"/>
+      <c r="L70" s="21"/>
+      <c r="M70" s="21"/>
+      <c r="N70" s="21"/>
+      <c r="O70" s="21"/>
+      <c r="P70" s="21"/>
+      <c r="Q70" s="21"/>
+    </row>
+    <row r="71" spans="1:17">
+      <c r="A71" s="8"/>
+      <c r="B71" s="8"/>
+      <c r="C71" s="8"/>
+      <c r="D71" s="8"/>
+      <c r="E71" s="8"/>
+      <c r="F71" s="8"/>
+      <c r="G71" s="8"/>
+      <c r="H71" s="8"/>
+      <c r="I71" s="21"/>
+      <c r="J71" s="21"/>
+      <c r="K71" s="21"/>
+      <c r="L71" s="21"/>
+      <c r="M71" s="21"/>
+      <c r="N71" s="21"/>
+      <c r="O71" s="21"/>
+      <c r="P71" s="21"/>
+      <c r="Q71" s="21"/>
+    </row>
+    <row r="72" spans="1:17">
+      <c r="A72" s="9"/>
+      <c r="B72" s="9"/>
+      <c r="C72" s="9"/>
+      <c r="D72" s="9"/>
+      <c r="E72" s="9"/>
+      <c r="F72" s="9"/>
+      <c r="G72" s="9"/>
+      <c r="H72" s="9"/>
+      <c r="I72" s="22"/>
+      <c r="J72" s="22"/>
+      <c r="K72" s="22"/>
+      <c r="L72" s="22"/>
+      <c r="M72" s="22"/>
+      <c r="N72" s="22"/>
+      <c r="O72" s="22"/>
+      <c r="P72" s="22"/>
+      <c r="Q72" s="22"/>
+    </row>
+    <row r="73" spans="1:17">
+      <c r="A73" s="9"/>
+      <c r="B73" s="9"/>
+      <c r="C73" s="9"/>
+      <c r="D73" s="9"/>
+      <c r="E73" s="9"/>
+      <c r="F73" s="9"/>
+      <c r="G73" s="9"/>
+      <c r="H73" s="9"/>
+      <c r="I73" s="22"/>
+      <c r="J73" s="22"/>
+      <c r="K73" s="22"/>
+      <c r="L73" s="22"/>
+      <c r="M73" s="22"/>
+      <c r="N73" s="22"/>
+      <c r="O73" s="22"/>
+      <c r="P73" s="22"/>
+      <c r="Q73" s="22"/>
     </row>
   </sheetData>
   <mergeCells count="9">
@@ -13886,12 +15508,12 @@
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
-    <tabColor theme="6" tint="0.39997558519241921"/>
+    <tabColor theme="7" tint="0.39997558519241921"/>
   </sheetPr>
   <dimension ref="A1:Q70"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B16" sqref="B16"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -13917,11 +15539,11 @@
   <sheetData>
     <row r="1" spans="1:17" ht="18" customHeight="1" thickBot="1">
       <c r="A1" s="32" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B1" s="33"/>
       <c r="C1" s="34" t="s">
-        <v>35</v>
+        <v>101</v>
       </c>
       <c r="D1" s="34"/>
       <c r="E1" s="35"/>
@@ -13931,7 +15553,7 @@
       <c r="G1" s="33"/>
       <c r="H1" s="3"/>
       <c r="I1" s="41" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="J1" s="42"/>
       <c r="K1" s="42"/>
@@ -13948,7 +15570,7 @@
       </c>
       <c r="B2" s="37"/>
       <c r="C2" s="38" t="s">
-        <v>22</v>
+        <v>102</v>
       </c>
       <c r="D2" s="38"/>
       <c r="E2" s="38"/>
@@ -13982,7 +15604,7 @@
         <v>2</v>
       </c>
       <c r="D3" s="6" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E3" s="6" t="s">
         <v>4</v>
@@ -14003,7 +15625,7 @@
         <v>14</v>
       </c>
       <c r="K3" s="15" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="L3" s="15" t="s">
         <v>13</v>
@@ -14012,7 +15634,7 @@
         <v>14</v>
       </c>
       <c r="N3" s="15" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="O3" s="15" t="s">
         <v>13</v>
@@ -14021,29 +15643,29 @@
         <v>14</v>
       </c>
       <c r="Q3" s="15" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="4" spans="1:17" s="14" customFormat="1">
       <c r="A4" s="7"/>
       <c r="B4" s="1" t="s">
-        <v>3</v>
+        <v>103</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>29</v>
+        <v>172</v>
       </c>
       <c r="D4" s="1"/>
       <c r="E4" s="1" t="s">
-        <v>26</v>
+        <v>104</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>8</v>
+        <v>105</v>
       </c>
       <c r="G4" s="2" t="s">
-        <v>8</v>
+        <v>105</v>
       </c>
       <c r="H4" s="1" t="s">
-        <v>27</v>
+        <v>106</v>
       </c>
       <c r="I4" s="16"/>
       <c r="J4" s="16"/>
@@ -14060,10 +15682,10 @@
       <c r="B5" s="1"/>
       <c r="C5" s="1"/>
       <c r="D5" s="1"/>
-      <c r="E5" s="1"/>
-      <c r="F5" s="2"/>
-      <c r="G5" s="2"/>
-      <c r="H5" s="1"/>
+      <c r="E5" s="10"/>
+      <c r="F5" s="24"/>
+      <c r="G5" s="24"/>
+      <c r="H5" s="12"/>
       <c r="I5" s="16"/>
       <c r="J5" s="16"/>
       <c r="K5" s="16"/>
@@ -14076,20 +15698,20 @@
     </row>
     <row r="6" spans="1:17" s="14" customFormat="1">
       <c r="A6" s="7"/>
-      <c r="B6" s="44" t="s">
-        <v>17</v>
-      </c>
-      <c r="C6" s="44" t="s">
-        <v>170</v>
-      </c>
-      <c r="D6" s="44">
+      <c r="B6" s="1" t="s">
+        <v>178</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="D6" s="1">
         <v>255</v>
       </c>
-      <c r="E6" s="44"/>
-      <c r="F6" s="45"/>
-      <c r="G6" s="45"/>
-      <c r="H6" s="44" t="s">
-        <v>153</v>
+      <c r="E6" s="1"/>
+      <c r="F6" s="2"/>
+      <c r="G6" s="2"/>
+      <c r="H6" s="1" t="s">
+        <v>180</v>
       </c>
       <c r="I6" s="17"/>
       <c r="J6" s="17"/>
@@ -14103,18 +15725,20 @@
     </row>
     <row r="7" spans="1:17" s="14" customFormat="1">
       <c r="A7" s="7"/>
-      <c r="B7" s="44" t="s">
-        <v>154</v>
-      </c>
-      <c r="C7" s="44" t="s">
-        <v>168</v>
-      </c>
-      <c r="D7" s="44"/>
-      <c r="E7" s="44"/>
-      <c r="F7" s="45"/>
-      <c r="G7" s="45"/>
-      <c r="H7" s="44" t="s">
-        <v>155</v>
+      <c r="B7" s="1" t="s">
+        <v>179</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="D7" s="1">
+        <v>8</v>
+      </c>
+      <c r="E7" s="1"/>
+      <c r="F7" s="2"/>
+      <c r="G7" s="2"/>
+      <c r="H7" s="1" t="s">
+        <v>181</v>
       </c>
       <c r="I7" s="18"/>
       <c r="J7" s="18"/>
@@ -14128,20 +15752,20 @@
     </row>
     <row r="8" spans="1:17" s="14" customFormat="1">
       <c r="A8" s="7"/>
-      <c r="B8" s="44" t="s">
-        <v>156</v>
-      </c>
-      <c r="C8" s="44" t="s">
-        <v>165</v>
-      </c>
-      <c r="D8" s="44"/>
-      <c r="E8" s="44"/>
-      <c r="F8" s="45" t="s">
-        <v>7</v>
-      </c>
-      <c r="G8" s="45"/>
-      <c r="H8" s="44" t="s">
-        <v>157</v>
+      <c r="B8" s="11" t="s">
+        <v>107</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="D8" s="1">
+        <v>32</v>
+      </c>
+      <c r="E8" s="1"/>
+      <c r="F8" s="13"/>
+      <c r="G8" s="13"/>
+      <c r="H8" s="1" t="s">
+        <v>108</v>
       </c>
       <c r="I8" s="18"/>
       <c r="J8" s="18"/>
@@ -14155,20 +15779,18 @@
     </row>
     <row r="9" spans="1:17" s="14" customFormat="1">
       <c r="A9" s="7"/>
-      <c r="B9" s="44" t="s">
-        <v>158</v>
-      </c>
-      <c r="C9" s="44" t="s">
-        <v>166</v>
-      </c>
-      <c r="D9" s="44"/>
-      <c r="E9" s="44"/>
-      <c r="F9" s="45" t="s">
-        <v>7</v>
-      </c>
-      <c r="G9" s="45"/>
-      <c r="H9" s="44" t="s">
-        <v>159</v>
+      <c r="B9" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="D9" s="1"/>
+      <c r="E9" s="1"/>
+      <c r="F9" s="2"/>
+      <c r="G9" s="2"/>
+      <c r="H9" s="1" t="s">
+        <v>111</v>
       </c>
       <c r="I9" s="18"/>
       <c r="J9" s="18"/>
@@ -14182,20 +15804,18 @@
     </row>
     <row r="10" spans="1:17" s="14" customFormat="1">
       <c r="A10" s="10"/>
-      <c r="B10" s="44" t="s">
-        <v>175</v>
-      </c>
-      <c r="C10" s="44" t="s">
-        <v>167</v>
-      </c>
-      <c r="D10" s="44"/>
-      <c r="E10" s="44"/>
-      <c r="F10" s="45" t="s">
-        <v>7</v>
-      </c>
-      <c r="G10" s="45"/>
-      <c r="H10" s="44" t="s">
-        <v>171</v>
+      <c r="B10" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="D10" s="1"/>
+      <c r="E10" s="1"/>
+      <c r="F10" s="2"/>
+      <c r="G10" s="2"/>
+      <c r="H10" s="1" t="s">
+        <v>113</v>
       </c>
       <c r="I10" s="19"/>
       <c r="J10" s="19"/>
@@ -14209,20 +15829,18 @@
     </row>
     <row r="11" spans="1:17" s="14" customFormat="1">
       <c r="A11" s="7"/>
-      <c r="B11" s="44" t="s">
-        <v>174</v>
-      </c>
-      <c r="C11" s="44" t="s">
-        <v>169</v>
-      </c>
-      <c r="D11" s="44">
-        <v>255</v>
-      </c>
-      <c r="E11" s="44"/>
-      <c r="F11" s="45"/>
-      <c r="G11" s="45"/>
-      <c r="H11" s="44" t="s">
-        <v>176</v>
+      <c r="B11" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="D11" s="1"/>
+      <c r="E11" s="1"/>
+      <c r="F11" s="2"/>
+      <c r="G11" s="2"/>
+      <c r="H11" s="1" t="s">
+        <v>115</v>
       </c>
       <c r="I11" s="17"/>
       <c r="J11" s="17"/>
@@ -14236,19 +15854,13 @@
     </row>
     <row r="12" spans="1:17" s="14" customFormat="1">
       <c r="A12" s="7"/>
-      <c r="B12" s="46" t="s">
-        <v>160</v>
-      </c>
-      <c r="C12" s="46" t="s">
-        <v>172</v>
-      </c>
-      <c r="D12" s="46"/>
-      <c r="E12" s="48"/>
-      <c r="F12" s="48"/>
-      <c r="G12" s="48"/>
-      <c r="H12" s="49" t="s">
-        <v>173</v>
-      </c>
+      <c r="B12" s="1"/>
+      <c r="C12" s="1"/>
+      <c r="D12" s="1"/>
+      <c r="E12" s="1"/>
+      <c r="F12" s="2"/>
+      <c r="G12" s="25"/>
+      <c r="H12" s="1"/>
       <c r="I12" s="17"/>
       <c r="J12" s="17"/>
       <c r="K12" s="16"/>
@@ -14261,21 +15873,13 @@
     </row>
     <row r="13" spans="1:17" s="14" customFormat="1">
       <c r="A13" s="7"/>
-      <c r="B13" s="44" t="s">
-        <v>161</v>
-      </c>
-      <c r="C13" s="44" t="s">
-        <v>170</v>
-      </c>
-      <c r="D13" s="44">
-        <v>64</v>
-      </c>
-      <c r="E13" s="44"/>
-      <c r="F13" s="45"/>
-      <c r="G13" s="47"/>
-      <c r="H13" s="44" t="s">
-        <v>162</v>
-      </c>
+      <c r="B13" s="1"/>
+      <c r="C13" s="1"/>
+      <c r="D13" s="1"/>
+      <c r="E13" s="1"/>
+      <c r="F13" s="2"/>
+      <c r="G13" s="25"/>
+      <c r="H13" s="1"/>
       <c r="I13" s="17"/>
       <c r="J13" s="17"/>
       <c r="K13" s="18"/>
@@ -14288,19 +15892,13 @@
     </row>
     <row r="14" spans="1:17" s="14" customFormat="1">
       <c r="A14" s="7"/>
-      <c r="B14" s="44" t="s">
-        <v>163</v>
-      </c>
-      <c r="C14" s="44" t="s">
-        <v>165</v>
-      </c>
-      <c r="D14" s="44"/>
-      <c r="E14" s="44"/>
-      <c r="F14" s="45"/>
-      <c r="G14" s="47"/>
-      <c r="H14" s="44" t="s">
-        <v>164</v>
-      </c>
+      <c r="B14" s="1"/>
+      <c r="C14" s="1"/>
+      <c r="D14" s="1"/>
+      <c r="E14" s="1"/>
+      <c r="F14" s="2"/>
+      <c r="G14" s="25"/>
+      <c r="H14" s="1"/>
       <c r="I14" s="18"/>
       <c r="J14" s="18"/>
       <c r="K14" s="18"/>
@@ -15377,17 +16975,17 @@
     </row>
   </sheetData>
   <mergeCells count="9">
-    <mergeCell ref="L2:N2"/>
-    <mergeCell ref="O2:Q2"/>
-    <mergeCell ref="I1:Q1"/>
     <mergeCell ref="A1:B1"/>
     <mergeCell ref="C1:E1"/>
     <mergeCell ref="F1:G1"/>
+    <mergeCell ref="I1:Q1"/>
     <mergeCell ref="A2:B2"/>
     <mergeCell ref="C2:H2"/>
     <mergeCell ref="I2:K2"/>
+    <mergeCell ref="L2:N2"/>
+    <mergeCell ref="O2:Q2"/>
   </mergeCells>
-  <phoneticPr fontId="2"/>
+  <phoneticPr fontId="10"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="landscape" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
 </worksheet>

--- a/ST_Player/db.xlsx
+++ b/ST_Player/db.xlsx
@@ -1,28 +1,29 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="6" rupBuild="4507"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="15330" windowHeight="7695" tabRatio="1000" activeTab="4"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="15330" windowHeight="7695" tabRatio="1000" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="ユーザー" sheetId="69" r:id="rId1"/>
-    <sheet name="名前変更履歴" sheetId="90" r:id="rId2"/>
-    <sheet name="プロフィール" sheetId="89" r:id="rId3"/>
-    <sheet name="プロフィール画像" sheetId="94" r:id="rId4"/>
-    <sheet name="記録" sheetId="91" r:id="rId5"/>
-    <sheet name="記録画像" sheetId="93" r:id="rId6"/>
-    <sheet name="選手カード画像" sheetId="95" r:id="rId7"/>
-    <sheet name="画像" sheetId="92" r:id="rId8"/>
-    <sheet name="ログ" sheetId="73" r:id="rId9"/>
+    <sheet name="名前" sheetId="96" r:id="rId2"/>
+    <sheet name="名前変更履歴" sheetId="90" r:id="rId3"/>
+    <sheet name="プロフィール" sheetId="89" r:id="rId4"/>
+    <sheet name="プロフィール画像" sheetId="94" r:id="rId5"/>
+    <sheet name="記録" sheetId="91" r:id="rId6"/>
+    <sheet name="記録画像" sheetId="93" r:id="rId7"/>
+    <sheet name="選手カード画像" sheetId="95" r:id="rId8"/>
+    <sheet name="画像" sheetId="92" r:id="rId9"/>
+    <sheet name="ログ" sheetId="73" r:id="rId10"/>
   </sheets>
   <calcPr calcId="125725"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="458" uniqueCount="183">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="493" uniqueCount="185">
   <si>
     <t>説明</t>
     <rPh sb="0" eb="2">
@@ -972,11 +973,19 @@
     <t>int unsigned</t>
     <phoneticPr fontId="2"/>
   </si>
+  <si>
+    <t>Name</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>names</t>
+    <phoneticPr fontId="2"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <fonts count="13">
     <font>
       <sz val="11"/>
@@ -1362,6 +1371,14 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="3" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="4" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="4" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="49" fontId="0" fillId="3" borderId="7" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1407,14 +1424,6 @@
     <xf numFmtId="49" fontId="0" fillId="3" borderId="11" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="3" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="4" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="4" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="標準" xfId="0" builtinId="0"/>
@@ -1477,7 +1486,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1509,10 +1518,9 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1544,7 +1552,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -1720,14 +1727,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr>
     <tabColor theme="8" tint="0.39997558519241921"/>
   </sheetPr>
   <dimension ref="A1:Q72"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
+      <selection activeCell="B21" sqref="B21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -1752,60 +1759,60 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:17" ht="18" customHeight="1" thickBot="1">
-      <c r="A1" s="32" t="s">
+      <c r="A1" s="38" t="s">
         <v>33</v>
       </c>
-      <c r="B1" s="33"/>
-      <c r="C1" s="34" t="s">
+      <c r="B1" s="39"/>
+      <c r="C1" s="40" t="s">
         <v>34</v>
       </c>
-      <c r="D1" s="34"/>
-      <c r="E1" s="35"/>
-      <c r="F1" s="32" t="s">
+      <c r="D1" s="40"/>
+      <c r="E1" s="41"/>
+      <c r="F1" s="38" t="s">
         <v>11</v>
       </c>
-      <c r="G1" s="33"/>
+      <c r="G1" s="39"/>
       <c r="H1" s="3"/>
-      <c r="I1" s="41" t="s">
+      <c r="I1" s="47" t="s">
         <v>28</v>
       </c>
-      <c r="J1" s="42"/>
-      <c r="K1" s="42"/>
-      <c r="L1" s="42"/>
-      <c r="M1" s="42"/>
-      <c r="N1" s="42"/>
-      <c r="O1" s="42"/>
-      <c r="P1" s="42"/>
-      <c r="Q1" s="43"/>
+      <c r="J1" s="48"/>
+      <c r="K1" s="48"/>
+      <c r="L1" s="48"/>
+      <c r="M1" s="48"/>
+      <c r="N1" s="48"/>
+      <c r="O1" s="48"/>
+      <c r="P1" s="48"/>
+      <c r="Q1" s="49"/>
     </row>
     <row r="2" spans="1:17" ht="18" customHeight="1" thickBot="1">
-      <c r="A2" s="36" t="s">
+      <c r="A2" s="42" t="s">
         <v>5</v>
       </c>
-      <c r="B2" s="37"/>
-      <c r="C2" s="38" t="s">
+      <c r="B2" s="43"/>
+      <c r="C2" s="44" t="s">
         <v>21</v>
       </c>
-      <c r="D2" s="38"/>
-      <c r="E2" s="38"/>
-      <c r="F2" s="38"/>
-      <c r="G2" s="38"/>
-      <c r="H2" s="38"/>
-      <c r="I2" s="39" t="s">
+      <c r="D2" s="44"/>
+      <c r="E2" s="44"/>
+      <c r="F2" s="44"/>
+      <c r="G2" s="44"/>
+      <c r="H2" s="44"/>
+      <c r="I2" s="45" t="s">
         <v>12</v>
       </c>
-      <c r="J2" s="40"/>
-      <c r="K2" s="29"/>
-      <c r="L2" s="29" t="s">
+      <c r="J2" s="46"/>
+      <c r="K2" s="35"/>
+      <c r="L2" s="35" t="s">
         <v>15</v>
       </c>
-      <c r="M2" s="29"/>
-      <c r="N2" s="29"/>
-      <c r="O2" s="29" t="s">
+      <c r="M2" s="35"/>
+      <c r="N2" s="35"/>
+      <c r="O2" s="35" t="s">
         <v>16</v>
       </c>
-      <c r="P2" s="30"/>
-      <c r="Q2" s="31"/>
+      <c r="P2" s="36"/>
+      <c r="Q2" s="37"/>
     </row>
     <row r="3" spans="1:17">
       <c r="A3" s="5" t="s">
@@ -2396,7 +2403,7 @@
     </row>
     <row r="30" spans="1:17" s="14" customFormat="1">
       <c r="A30" s="7"/>
-      <c r="B30" s="1"/>
+      <c r="B30" s="25"/>
       <c r="C30" s="1"/>
       <c r="D30" s="1"/>
       <c r="E30" s="1"/>
@@ -2495,7 +2502,6 @@
       <c r="C35" s="7"/>
       <c r="D35" s="7"/>
       <c r="E35" s="7"/>
-      <c r="F35" s="25"/>
       <c r="G35" s="25"/>
       <c r="H35" s="7"/>
       <c r="I35" s="16"/>
@@ -3229,8 +3235,2277 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <sheetPr>
+    <tabColor theme="6" tint="0.39997558519241921"/>
+  </sheetPr>
+  <dimension ref="A1:Q70"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B16" sqref="B16"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5"/>
+  <cols>
+    <col min="1" max="1" width="5.625" customWidth="1"/>
+    <col min="2" max="2" width="23.125" customWidth="1"/>
+    <col min="3" max="3" width="13" customWidth="1"/>
+    <col min="4" max="4" width="6.625" customWidth="1"/>
+    <col min="5" max="5" width="23.125" customWidth="1"/>
+    <col min="6" max="6" width="9.25" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="8.75" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="27.25" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="3.875" style="23" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="3.875" style="23" customWidth="1"/>
+    <col min="11" max="11" width="8.75" style="23" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="3.875" style="23" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="3.875" style="23" customWidth="1"/>
+    <col min="14" max="14" width="8.75" style="23" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="3.875" style="23" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="3.875" style="23" customWidth="1"/>
+    <col min="17" max="17" width="8.75" style="23" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:17" ht="18" customHeight="1" thickBot="1">
+      <c r="A1" s="38" t="s">
+        <v>33</v>
+      </c>
+      <c r="B1" s="39"/>
+      <c r="C1" s="40" t="s">
+        <v>35</v>
+      </c>
+      <c r="D1" s="40"/>
+      <c r="E1" s="41"/>
+      <c r="F1" s="38" t="s">
+        <v>11</v>
+      </c>
+      <c r="G1" s="39"/>
+      <c r="H1" s="3"/>
+      <c r="I1" s="47" t="s">
+        <v>28</v>
+      </c>
+      <c r="J1" s="48"/>
+      <c r="K1" s="48"/>
+      <c r="L1" s="48"/>
+      <c r="M1" s="48"/>
+      <c r="N1" s="48"/>
+      <c r="O1" s="48"/>
+      <c r="P1" s="48"/>
+      <c r="Q1" s="49"/>
+    </row>
+    <row r="2" spans="1:17" ht="18" customHeight="1" thickBot="1">
+      <c r="A2" s="42" t="s">
+        <v>5</v>
+      </c>
+      <c r="B2" s="43"/>
+      <c r="C2" s="44" t="s">
+        <v>22</v>
+      </c>
+      <c r="D2" s="44"/>
+      <c r="E2" s="44"/>
+      <c r="F2" s="44"/>
+      <c r="G2" s="44"/>
+      <c r="H2" s="44"/>
+      <c r="I2" s="45" t="s">
+        <v>12</v>
+      </c>
+      <c r="J2" s="46"/>
+      <c r="K2" s="35"/>
+      <c r="L2" s="35" t="s">
+        <v>15</v>
+      </c>
+      <c r="M2" s="35"/>
+      <c r="N2" s="35"/>
+      <c r="O2" s="35" t="s">
+        <v>16</v>
+      </c>
+      <c r="P2" s="36"/>
+      <c r="Q2" s="37"/>
+    </row>
+    <row r="3" spans="1:17">
+      <c r="A3" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="B3" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="C3" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="D3" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="E3" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="F3" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="G3" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="H3" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="I3" s="15" t="s">
+        <v>13</v>
+      </c>
+      <c r="J3" s="15" t="s">
+        <v>14</v>
+      </c>
+      <c r="K3" s="15" t="s">
+        <v>20</v>
+      </c>
+      <c r="L3" s="15" t="s">
+        <v>13</v>
+      </c>
+      <c r="M3" s="15" t="s">
+        <v>14</v>
+      </c>
+      <c r="N3" s="15" t="s">
+        <v>20</v>
+      </c>
+      <c r="O3" s="15" t="s">
+        <v>13</v>
+      </c>
+      <c r="P3" s="15" t="s">
+        <v>14</v>
+      </c>
+      <c r="Q3" s="15" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="4" spans="1:17" s="14" customFormat="1">
+      <c r="A4" s="7"/>
+      <c r="B4" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="D4" s="1"/>
+      <c r="E4" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="F4" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="G4" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="H4" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="I4" s="16"/>
+      <c r="J4" s="16"/>
+      <c r="K4" s="16"/>
+      <c r="L4" s="16"/>
+      <c r="M4" s="16"/>
+      <c r="N4" s="16"/>
+      <c r="O4" s="16"/>
+      <c r="P4" s="16"/>
+      <c r="Q4" s="16"/>
+    </row>
+    <row r="5" spans="1:17" s="14" customFormat="1">
+      <c r="A5" s="7"/>
+      <c r="B5" s="1"/>
+      <c r="C5" s="1"/>
+      <c r="D5" s="1"/>
+      <c r="E5" s="1"/>
+      <c r="F5" s="2"/>
+      <c r="G5" s="2"/>
+      <c r="H5" s="1"/>
+      <c r="I5" s="16"/>
+      <c r="J5" s="16"/>
+      <c r="K5" s="16"/>
+      <c r="L5" s="16"/>
+      <c r="M5" s="16"/>
+      <c r="N5" s="16"/>
+      <c r="O5" s="16"/>
+      <c r="P5" s="16"/>
+      <c r="Q5" s="16"/>
+    </row>
+    <row r="6" spans="1:17" s="14" customFormat="1">
+      <c r="A6" s="7"/>
+      <c r="B6" s="29" t="s">
+        <v>17</v>
+      </c>
+      <c r="C6" s="29" t="s">
+        <v>170</v>
+      </c>
+      <c r="D6" s="29">
+        <v>255</v>
+      </c>
+      <c r="E6" s="29"/>
+      <c r="F6" s="30"/>
+      <c r="G6" s="30"/>
+      <c r="H6" s="29" t="s">
+        <v>153</v>
+      </c>
+      <c r="I6" s="17"/>
+      <c r="J6" s="17"/>
+      <c r="K6" s="18"/>
+      <c r="L6" s="16"/>
+      <c r="M6" s="16"/>
+      <c r="N6" s="16"/>
+      <c r="O6" s="16"/>
+      <c r="P6" s="16"/>
+      <c r="Q6" s="16"/>
+    </row>
+    <row r="7" spans="1:17" s="14" customFormat="1">
+      <c r="A7" s="7"/>
+      <c r="B7" s="29" t="s">
+        <v>154</v>
+      </c>
+      <c r="C7" s="29" t="s">
+        <v>168</v>
+      </c>
+      <c r="D7" s="29"/>
+      <c r="E7" s="29"/>
+      <c r="F7" s="30"/>
+      <c r="G7" s="30"/>
+      <c r="H7" s="29" t="s">
+        <v>155</v>
+      </c>
+      <c r="I7" s="18"/>
+      <c r="J7" s="18"/>
+      <c r="K7" s="18"/>
+      <c r="L7" s="16"/>
+      <c r="M7" s="16"/>
+      <c r="N7" s="16"/>
+      <c r="O7" s="16"/>
+      <c r="P7" s="16"/>
+      <c r="Q7" s="16"/>
+    </row>
+    <row r="8" spans="1:17" s="14" customFormat="1">
+      <c r="A8" s="7"/>
+      <c r="B8" s="29" t="s">
+        <v>156</v>
+      </c>
+      <c r="C8" s="29" t="s">
+        <v>165</v>
+      </c>
+      <c r="D8" s="29"/>
+      <c r="E8" s="29"/>
+      <c r="F8" s="30" t="s">
+        <v>7</v>
+      </c>
+      <c r="G8" s="30"/>
+      <c r="H8" s="29" t="s">
+        <v>157</v>
+      </c>
+      <c r="I8" s="18"/>
+      <c r="J8" s="18"/>
+      <c r="K8" s="18"/>
+      <c r="L8" s="16"/>
+      <c r="M8" s="16"/>
+      <c r="N8" s="16"/>
+      <c r="O8" s="16"/>
+      <c r="P8" s="16"/>
+      <c r="Q8" s="16"/>
+    </row>
+    <row r="9" spans="1:17" s="14" customFormat="1">
+      <c r="A9" s="7"/>
+      <c r="B9" s="29" t="s">
+        <v>158</v>
+      </c>
+      <c r="C9" s="29" t="s">
+        <v>166</v>
+      </c>
+      <c r="D9" s="29"/>
+      <c r="E9" s="29"/>
+      <c r="F9" s="30" t="s">
+        <v>7</v>
+      </c>
+      <c r="G9" s="30"/>
+      <c r="H9" s="29" t="s">
+        <v>159</v>
+      </c>
+      <c r="I9" s="18"/>
+      <c r="J9" s="18"/>
+      <c r="K9" s="18"/>
+      <c r="L9" s="16"/>
+      <c r="M9" s="16"/>
+      <c r="N9" s="16"/>
+      <c r="O9" s="16"/>
+      <c r="P9" s="16"/>
+      <c r="Q9" s="16"/>
+    </row>
+    <row r="10" spans="1:17" s="14" customFormat="1">
+      <c r="A10" s="10"/>
+      <c r="B10" s="29" t="s">
+        <v>175</v>
+      </c>
+      <c r="C10" s="29" t="s">
+        <v>167</v>
+      </c>
+      <c r="D10" s="29"/>
+      <c r="E10" s="29"/>
+      <c r="F10" s="30" t="s">
+        <v>7</v>
+      </c>
+      <c r="G10" s="30"/>
+      <c r="H10" s="29" t="s">
+        <v>171</v>
+      </c>
+      <c r="I10" s="19"/>
+      <c r="J10" s="19"/>
+      <c r="K10" s="19"/>
+      <c r="L10" s="19"/>
+      <c r="M10" s="19"/>
+      <c r="N10" s="19"/>
+      <c r="O10" s="19"/>
+      <c r="P10" s="19"/>
+      <c r="Q10" s="19"/>
+    </row>
+    <row r="11" spans="1:17" s="14" customFormat="1">
+      <c r="A11" s="7"/>
+      <c r="B11" s="29" t="s">
+        <v>174</v>
+      </c>
+      <c r="C11" s="29" t="s">
+        <v>169</v>
+      </c>
+      <c r="D11" s="29">
+        <v>255</v>
+      </c>
+      <c r="E11" s="29"/>
+      <c r="F11" s="30"/>
+      <c r="G11" s="30"/>
+      <c r="H11" s="29" t="s">
+        <v>176</v>
+      </c>
+      <c r="I11" s="17"/>
+      <c r="J11" s="17"/>
+      <c r="K11" s="16"/>
+      <c r="L11" s="16"/>
+      <c r="M11" s="16"/>
+      <c r="N11" s="16"/>
+      <c r="O11" s="16"/>
+      <c r="P11" s="16"/>
+      <c r="Q11" s="16"/>
+    </row>
+    <row r="12" spans="1:17" s="14" customFormat="1">
+      <c r="A12" s="7"/>
+      <c r="B12" s="31" t="s">
+        <v>160</v>
+      </c>
+      <c r="C12" s="31" t="s">
+        <v>172</v>
+      </c>
+      <c r="D12" s="31"/>
+      <c r="E12" s="33"/>
+      <c r="F12" s="33"/>
+      <c r="G12" s="33"/>
+      <c r="H12" s="34" t="s">
+        <v>173</v>
+      </c>
+      <c r="I12" s="17"/>
+      <c r="J12" s="17"/>
+      <c r="K12" s="16"/>
+      <c r="L12" s="16"/>
+      <c r="M12" s="16"/>
+      <c r="N12" s="16"/>
+      <c r="O12" s="16"/>
+      <c r="P12" s="16"/>
+      <c r="Q12" s="16"/>
+    </row>
+    <row r="13" spans="1:17" s="14" customFormat="1">
+      <c r="A13" s="7"/>
+      <c r="B13" s="29" t="s">
+        <v>161</v>
+      </c>
+      <c r="C13" s="29" t="s">
+        <v>170</v>
+      </c>
+      <c r="D13" s="29">
+        <v>64</v>
+      </c>
+      <c r="E13" s="29"/>
+      <c r="F13" s="30"/>
+      <c r="G13" s="32"/>
+      <c r="H13" s="29" t="s">
+        <v>162</v>
+      </c>
+      <c r="I13" s="17"/>
+      <c r="J13" s="17"/>
+      <c r="K13" s="18"/>
+      <c r="L13" s="18"/>
+      <c r="M13" s="18"/>
+      <c r="N13" s="18"/>
+      <c r="O13" s="16"/>
+      <c r="P13" s="16"/>
+      <c r="Q13" s="16"/>
+    </row>
+    <row r="14" spans="1:17" s="14" customFormat="1">
+      <c r="A14" s="7"/>
+      <c r="B14" s="29" t="s">
+        <v>163</v>
+      </c>
+      <c r="C14" s="29" t="s">
+        <v>165</v>
+      </c>
+      <c r="D14" s="29"/>
+      <c r="E14" s="29"/>
+      <c r="F14" s="30"/>
+      <c r="G14" s="32"/>
+      <c r="H14" s="29" t="s">
+        <v>164</v>
+      </c>
+      <c r="I14" s="18"/>
+      <c r="J14" s="18"/>
+      <c r="K14" s="18"/>
+      <c r="L14" s="16"/>
+      <c r="M14" s="16"/>
+      <c r="N14" s="16"/>
+      <c r="O14" s="16"/>
+      <c r="P14" s="16"/>
+      <c r="Q14" s="16"/>
+    </row>
+    <row r="15" spans="1:17" s="14" customFormat="1">
+      <c r="A15" s="7"/>
+      <c r="B15" s="1"/>
+      <c r="C15" s="1"/>
+      <c r="D15" s="1"/>
+      <c r="E15" s="1"/>
+      <c r="F15" s="2"/>
+      <c r="G15" s="25"/>
+      <c r="H15" s="1"/>
+      <c r="I15" s="16"/>
+      <c r="J15" s="16"/>
+      <c r="K15" s="16"/>
+      <c r="L15" s="16"/>
+      <c r="M15" s="16"/>
+      <c r="N15" s="16"/>
+      <c r="O15" s="16"/>
+      <c r="P15" s="16"/>
+      <c r="Q15" s="16"/>
+    </row>
+    <row r="16" spans="1:17" s="14" customFormat="1">
+      <c r="A16" s="7"/>
+      <c r="B16" s="1"/>
+      <c r="C16" s="1"/>
+      <c r="D16" s="1"/>
+      <c r="E16" s="1"/>
+      <c r="F16" s="2"/>
+      <c r="G16" s="25"/>
+      <c r="H16" s="1"/>
+      <c r="I16" s="16"/>
+      <c r="J16" s="16"/>
+      <c r="K16" s="16"/>
+      <c r="L16" s="16"/>
+      <c r="M16" s="16"/>
+      <c r="N16" s="16"/>
+      <c r="O16" s="16"/>
+      <c r="P16" s="16"/>
+      <c r="Q16" s="16"/>
+    </row>
+    <row r="17" spans="1:17" s="14" customFormat="1">
+      <c r="A17" s="7"/>
+      <c r="B17" s="1"/>
+      <c r="C17" s="1"/>
+      <c r="D17" s="1"/>
+      <c r="E17" s="1"/>
+      <c r="F17" s="2"/>
+      <c r="G17" s="25"/>
+      <c r="H17" s="1"/>
+      <c r="I17" s="16"/>
+      <c r="J17" s="16"/>
+      <c r="K17" s="16"/>
+      <c r="L17" s="16"/>
+      <c r="M17" s="16"/>
+      <c r="N17" s="16"/>
+      <c r="O17" s="16"/>
+      <c r="P17" s="16"/>
+      <c r="Q17" s="16"/>
+    </row>
+    <row r="18" spans="1:17" s="14" customFormat="1">
+      <c r="A18" s="7"/>
+      <c r="B18" s="1"/>
+      <c r="C18" s="1"/>
+      <c r="D18" s="1"/>
+      <c r="E18" s="1"/>
+      <c r="F18" s="2"/>
+      <c r="G18" s="25"/>
+      <c r="H18" s="1"/>
+      <c r="I18" s="17"/>
+      <c r="J18" s="17"/>
+      <c r="K18" s="16"/>
+      <c r="L18" s="16"/>
+      <c r="M18" s="16"/>
+      <c r="N18" s="16"/>
+      <c r="O18" s="16"/>
+      <c r="P18" s="16"/>
+      <c r="Q18" s="16"/>
+    </row>
+    <row r="19" spans="1:17" s="14" customFormat="1">
+      <c r="A19" s="7"/>
+      <c r="B19" s="1"/>
+      <c r="C19" s="1"/>
+      <c r="D19" s="1"/>
+      <c r="E19" s="1"/>
+      <c r="F19" s="2"/>
+      <c r="G19" s="25"/>
+      <c r="H19" s="1"/>
+      <c r="I19" s="17"/>
+      <c r="J19" s="17"/>
+      <c r="K19" s="16"/>
+      <c r="L19" s="20"/>
+      <c r="M19" s="20"/>
+      <c r="N19" s="16"/>
+      <c r="O19" s="16"/>
+      <c r="P19" s="16"/>
+      <c r="Q19" s="16"/>
+    </row>
+    <row r="20" spans="1:17" s="14" customFormat="1">
+      <c r="A20" s="7"/>
+      <c r="B20" s="1"/>
+      <c r="C20" s="1"/>
+      <c r="D20" s="1"/>
+      <c r="E20" s="1"/>
+      <c r="F20" s="2"/>
+      <c r="G20" s="25"/>
+      <c r="H20" s="1"/>
+      <c r="I20" s="17"/>
+      <c r="J20" s="17"/>
+      <c r="K20" s="16"/>
+      <c r="L20" s="20"/>
+      <c r="M20" s="20"/>
+      <c r="N20" s="16"/>
+      <c r="O20" s="16"/>
+      <c r="P20" s="16"/>
+      <c r="Q20" s="16"/>
+    </row>
+    <row r="21" spans="1:17" s="14" customFormat="1">
+      <c r="A21" s="7"/>
+      <c r="B21" s="1"/>
+      <c r="C21" s="1"/>
+      <c r="D21" s="1"/>
+      <c r="E21" s="1"/>
+      <c r="F21" s="2"/>
+      <c r="G21" s="25"/>
+      <c r="H21" s="1"/>
+      <c r="I21" s="17"/>
+      <c r="J21" s="17"/>
+      <c r="K21" s="16"/>
+      <c r="L21" s="16"/>
+      <c r="M21" s="16"/>
+      <c r="N21" s="16"/>
+      <c r="O21" s="16"/>
+      <c r="P21" s="16"/>
+      <c r="Q21" s="16"/>
+    </row>
+    <row r="22" spans="1:17" s="14" customFormat="1">
+      <c r="A22" s="7"/>
+      <c r="B22" s="1"/>
+      <c r="C22" s="1"/>
+      <c r="D22" s="1"/>
+      <c r="E22" s="1"/>
+      <c r="F22" s="2"/>
+      <c r="G22" s="25"/>
+      <c r="H22" s="1"/>
+      <c r="I22" s="17"/>
+      <c r="J22" s="17"/>
+      <c r="K22" s="16"/>
+      <c r="L22" s="16"/>
+      <c r="M22" s="16"/>
+      <c r="N22" s="16"/>
+      <c r="O22" s="16"/>
+      <c r="P22" s="16"/>
+      <c r="Q22" s="16"/>
+    </row>
+    <row r="23" spans="1:17" s="14" customFormat="1">
+      <c r="A23" s="7"/>
+      <c r="B23" s="1"/>
+      <c r="C23" s="1"/>
+      <c r="D23" s="1"/>
+      <c r="E23" s="1"/>
+      <c r="F23" s="2"/>
+      <c r="G23" s="25"/>
+      <c r="H23" s="1"/>
+      <c r="I23" s="17"/>
+      <c r="J23" s="17"/>
+      <c r="K23" s="16"/>
+      <c r="L23" s="16"/>
+      <c r="M23" s="16"/>
+      <c r="N23" s="16"/>
+      <c r="O23" s="16"/>
+      <c r="P23" s="16"/>
+      <c r="Q23" s="16"/>
+    </row>
+    <row r="24" spans="1:17" s="14" customFormat="1">
+      <c r="A24" s="7"/>
+      <c r="B24" s="1"/>
+      <c r="C24" s="1"/>
+      <c r="D24" s="1"/>
+      <c r="E24" s="7"/>
+      <c r="F24" s="25"/>
+      <c r="G24" s="25"/>
+      <c r="H24" s="1"/>
+      <c r="I24" s="17"/>
+      <c r="J24" s="17"/>
+      <c r="K24" s="16"/>
+      <c r="L24" s="20"/>
+      <c r="M24" s="20"/>
+      <c r="N24" s="16"/>
+      <c r="O24" s="16"/>
+      <c r="P24" s="16"/>
+      <c r="Q24" s="16"/>
+    </row>
+    <row r="25" spans="1:17" s="14" customFormat="1">
+      <c r="A25" s="7"/>
+      <c r="B25" s="1"/>
+      <c r="C25" s="1"/>
+      <c r="D25" s="1"/>
+      <c r="E25" s="7"/>
+      <c r="F25" s="25"/>
+      <c r="G25" s="25"/>
+      <c r="H25" s="1"/>
+      <c r="I25" s="17"/>
+      <c r="J25" s="17"/>
+      <c r="K25" s="16"/>
+      <c r="L25" s="16"/>
+      <c r="M25" s="16"/>
+      <c r="N25" s="16"/>
+      <c r="O25" s="16"/>
+      <c r="P25" s="16"/>
+      <c r="Q25" s="16"/>
+    </row>
+    <row r="26" spans="1:17" s="14" customFormat="1">
+      <c r="A26" s="7"/>
+      <c r="B26" s="1"/>
+      <c r="C26" s="1"/>
+      <c r="D26" s="1"/>
+      <c r="E26" s="7"/>
+      <c r="F26" s="25"/>
+      <c r="G26" s="25"/>
+      <c r="H26" s="1"/>
+      <c r="I26" s="17"/>
+      <c r="J26" s="17"/>
+      <c r="K26" s="16"/>
+      <c r="L26" s="16"/>
+      <c r="M26" s="16"/>
+      <c r="N26" s="16"/>
+      <c r="O26" s="20"/>
+      <c r="P26" s="20"/>
+      <c r="Q26" s="16"/>
+    </row>
+    <row r="27" spans="1:17" s="14" customFormat="1">
+      <c r="A27" s="7"/>
+      <c r="B27" s="1"/>
+      <c r="C27" s="1"/>
+      <c r="D27" s="1"/>
+      <c r="E27" s="1"/>
+      <c r="F27" s="2"/>
+      <c r="G27" s="25"/>
+      <c r="H27" s="1"/>
+      <c r="I27" s="17"/>
+      <c r="J27" s="17"/>
+      <c r="K27" s="16"/>
+      <c r="L27" s="16"/>
+      <c r="M27" s="16"/>
+      <c r="N27" s="16"/>
+      <c r="O27" s="16"/>
+      <c r="P27" s="16"/>
+      <c r="Q27" s="16"/>
+    </row>
+    <row r="28" spans="1:17" s="14" customFormat="1">
+      <c r="A28" s="7"/>
+      <c r="B28" s="1"/>
+      <c r="C28" s="1"/>
+      <c r="D28" s="1"/>
+      <c r="E28" s="1"/>
+      <c r="F28" s="2"/>
+      <c r="G28" s="25"/>
+      <c r="H28" s="1"/>
+      <c r="I28" s="17"/>
+      <c r="J28" s="17"/>
+      <c r="K28" s="16"/>
+      <c r="L28" s="20"/>
+      <c r="M28" s="20"/>
+      <c r="N28" s="16"/>
+      <c r="O28" s="16"/>
+      <c r="P28" s="16"/>
+      <c r="Q28" s="16"/>
+    </row>
+    <row r="29" spans="1:17" s="14" customFormat="1">
+      <c r="A29" s="7"/>
+      <c r="B29" s="1"/>
+      <c r="C29" s="1"/>
+      <c r="D29" s="1"/>
+      <c r="E29" s="7"/>
+      <c r="F29" s="25"/>
+      <c r="G29" s="25"/>
+      <c r="H29" s="1"/>
+      <c r="I29" s="16"/>
+      <c r="J29" s="16"/>
+      <c r="K29" s="16"/>
+      <c r="L29" s="16"/>
+      <c r="M29" s="16"/>
+      <c r="N29" s="16"/>
+      <c r="O29" s="16"/>
+      <c r="P29" s="16"/>
+      <c r="Q29" s="16"/>
+    </row>
+    <row r="30" spans="1:17" s="14" customFormat="1">
+      <c r="A30" s="7"/>
+      <c r="B30" s="1"/>
+      <c r="C30" s="1"/>
+      <c r="D30" s="1"/>
+      <c r="E30" s="7"/>
+      <c r="F30" s="25"/>
+      <c r="G30" s="25"/>
+      <c r="H30" s="1"/>
+      <c r="I30" s="16"/>
+      <c r="J30" s="16"/>
+      <c r="K30" s="16"/>
+      <c r="L30" s="16"/>
+      <c r="M30" s="16"/>
+      <c r="N30" s="16"/>
+      <c r="O30" s="16"/>
+      <c r="P30" s="16"/>
+      <c r="Q30" s="16"/>
+    </row>
+    <row r="31" spans="1:17" s="14" customFormat="1">
+      <c r="A31" s="7"/>
+      <c r="B31" s="1"/>
+      <c r="C31" s="1"/>
+      <c r="D31" s="1"/>
+      <c r="E31" s="7"/>
+      <c r="F31" s="25"/>
+      <c r="G31" s="25"/>
+      <c r="H31" s="1"/>
+      <c r="I31" s="16"/>
+      <c r="J31" s="16"/>
+      <c r="K31" s="16"/>
+      <c r="L31" s="16"/>
+      <c r="M31" s="16"/>
+      <c r="N31" s="16"/>
+      <c r="O31" s="16"/>
+      <c r="P31" s="16"/>
+      <c r="Q31" s="16"/>
+    </row>
+    <row r="32" spans="1:17" s="14" customFormat="1">
+      <c r="A32" s="7"/>
+      <c r="B32" s="1"/>
+      <c r="C32" s="1"/>
+      <c r="D32" s="1"/>
+      <c r="E32" s="7"/>
+      <c r="F32" s="25"/>
+      <c r="G32" s="25"/>
+      <c r="H32" s="1"/>
+      <c r="I32" s="16"/>
+      <c r="J32" s="16"/>
+      <c r="K32" s="16"/>
+      <c r="L32" s="16"/>
+      <c r="M32" s="16"/>
+      <c r="N32" s="16"/>
+      <c r="O32" s="16"/>
+      <c r="P32" s="16"/>
+      <c r="Q32" s="16"/>
+    </row>
+    <row r="33" spans="1:17" s="14" customFormat="1">
+      <c r="A33" s="7"/>
+      <c r="B33" s="7"/>
+      <c r="C33" s="7"/>
+      <c r="D33" s="7"/>
+      <c r="E33" s="7"/>
+      <c r="F33" s="25"/>
+      <c r="G33" s="25"/>
+      <c r="H33" s="7"/>
+      <c r="I33" s="16"/>
+      <c r="J33" s="16"/>
+      <c r="K33" s="16"/>
+      <c r="L33" s="16"/>
+      <c r="M33" s="16"/>
+      <c r="N33" s="16"/>
+      <c r="O33" s="16"/>
+      <c r="P33" s="16"/>
+      <c r="Q33" s="16"/>
+    </row>
+    <row r="34" spans="1:17" s="14" customFormat="1">
+      <c r="A34" s="8"/>
+      <c r="B34" s="8"/>
+      <c r="C34" s="8"/>
+      <c r="D34" s="8"/>
+      <c r="E34" s="8"/>
+      <c r="F34" s="8"/>
+      <c r="G34" s="8"/>
+      <c r="H34" s="8"/>
+      <c r="I34" s="21"/>
+      <c r="J34" s="21"/>
+      <c r="K34" s="21"/>
+      <c r="L34" s="21"/>
+      <c r="M34" s="21"/>
+      <c r="N34" s="21"/>
+      <c r="O34" s="21"/>
+      <c r="P34" s="21"/>
+      <c r="Q34" s="21"/>
+    </row>
+    <row r="35" spans="1:17" s="14" customFormat="1">
+      <c r="A35" s="8"/>
+      <c r="B35" s="8"/>
+      <c r="C35" s="8"/>
+      <c r="D35" s="8"/>
+      <c r="E35" s="8"/>
+      <c r="F35" s="8"/>
+      <c r="G35" s="8"/>
+      <c r="H35" s="8"/>
+      <c r="I35" s="21"/>
+      <c r="J35" s="21"/>
+      <c r="K35" s="21"/>
+      <c r="L35" s="21"/>
+      <c r="M35" s="21"/>
+      <c r="N35" s="21"/>
+      <c r="O35" s="21"/>
+      <c r="P35" s="21"/>
+      <c r="Q35" s="21"/>
+    </row>
+    <row r="36" spans="1:17" s="14" customFormat="1">
+      <c r="A36" s="8"/>
+      <c r="B36" s="8"/>
+      <c r="C36" s="8"/>
+      <c r="D36" s="8"/>
+      <c r="E36" s="8"/>
+      <c r="F36" s="8"/>
+      <c r="G36" s="8"/>
+      <c r="H36" s="8"/>
+      <c r="I36" s="21"/>
+      <c r="J36" s="21"/>
+      <c r="K36" s="21"/>
+      <c r="L36" s="21"/>
+      <c r="M36" s="21"/>
+      <c r="N36" s="21"/>
+      <c r="O36" s="21"/>
+      <c r="P36" s="21"/>
+      <c r="Q36" s="21"/>
+    </row>
+    <row r="37" spans="1:17" s="14" customFormat="1">
+      <c r="A37" s="8"/>
+      <c r="B37" s="8"/>
+      <c r="C37" s="8"/>
+      <c r="D37" s="8"/>
+      <c r="E37" s="8"/>
+      <c r="F37" s="8"/>
+      <c r="G37" s="8"/>
+      <c r="H37" s="8"/>
+      <c r="I37" s="21"/>
+      <c r="J37" s="21"/>
+      <c r="K37" s="21"/>
+      <c r="L37" s="21"/>
+      <c r="M37" s="21"/>
+      <c r="N37" s="21"/>
+      <c r="O37" s="21"/>
+      <c r="P37" s="21"/>
+      <c r="Q37" s="21"/>
+    </row>
+    <row r="38" spans="1:17" s="14" customFormat="1">
+      <c r="A38" s="8"/>
+      <c r="B38" s="8"/>
+      <c r="C38" s="8"/>
+      <c r="D38" s="8"/>
+      <c r="E38" s="8"/>
+      <c r="F38" s="8"/>
+      <c r="G38" s="8"/>
+      <c r="H38" s="8"/>
+      <c r="I38" s="21"/>
+      <c r="J38" s="21"/>
+      <c r="K38" s="21"/>
+      <c r="L38" s="21"/>
+      <c r="M38" s="21"/>
+      <c r="N38" s="21"/>
+      <c r="O38" s="21"/>
+      <c r="P38" s="21"/>
+      <c r="Q38" s="21"/>
+    </row>
+    <row r="39" spans="1:17" s="14" customFormat="1">
+      <c r="A39" s="8"/>
+      <c r="B39" s="8"/>
+      <c r="C39" s="8"/>
+      <c r="D39" s="8"/>
+      <c r="E39" s="8"/>
+      <c r="F39" s="8"/>
+      <c r="G39" s="8"/>
+      <c r="H39" s="8"/>
+      <c r="I39" s="21"/>
+      <c r="J39" s="21"/>
+      <c r="K39" s="21"/>
+      <c r="L39" s="21"/>
+      <c r="M39" s="21"/>
+      <c r="N39" s="21"/>
+      <c r="O39" s="21"/>
+      <c r="P39" s="21"/>
+      <c r="Q39" s="21"/>
+    </row>
+    <row r="40" spans="1:17" s="14" customFormat="1">
+      <c r="A40" s="8"/>
+      <c r="B40" s="8"/>
+      <c r="C40" s="8"/>
+      <c r="D40" s="8"/>
+      <c r="E40" s="8"/>
+      <c r="F40" s="8"/>
+      <c r="G40" s="8"/>
+      <c r="H40" s="8"/>
+      <c r="I40" s="21"/>
+      <c r="J40" s="21"/>
+      <c r="K40" s="21"/>
+      <c r="L40" s="21"/>
+      <c r="M40" s="21"/>
+      <c r="N40" s="21"/>
+      <c r="O40" s="21"/>
+      <c r="P40" s="21"/>
+      <c r="Q40" s="21"/>
+    </row>
+    <row r="41" spans="1:17" s="14" customFormat="1">
+      <c r="A41" s="8"/>
+      <c r="B41" s="8"/>
+      <c r="C41" s="8"/>
+      <c r="D41" s="8"/>
+      <c r="E41" s="8"/>
+      <c r="F41" s="8"/>
+      <c r="G41" s="8"/>
+      <c r="H41" s="8"/>
+      <c r="I41" s="21"/>
+      <c r="J41" s="21"/>
+      <c r="K41" s="21"/>
+      <c r="L41" s="21"/>
+      <c r="M41" s="21"/>
+      <c r="N41" s="21"/>
+      <c r="O41" s="21"/>
+      <c r="P41" s="21"/>
+      <c r="Q41" s="21"/>
+    </row>
+    <row r="42" spans="1:17" s="14" customFormat="1">
+      <c r="A42" s="8"/>
+      <c r="B42" s="8"/>
+      <c r="C42" s="8"/>
+      <c r="D42" s="8"/>
+      <c r="E42" s="8"/>
+      <c r="F42" s="8"/>
+      <c r="G42" s="8"/>
+      <c r="H42" s="8"/>
+      <c r="I42" s="21"/>
+      <c r="J42" s="21"/>
+      <c r="K42" s="21"/>
+      <c r="L42" s="21"/>
+      <c r="M42" s="21"/>
+      <c r="N42" s="21"/>
+      <c r="O42" s="21"/>
+      <c r="P42" s="21"/>
+      <c r="Q42" s="21"/>
+    </row>
+    <row r="43" spans="1:17" s="14" customFormat="1">
+      <c r="A43" s="8"/>
+      <c r="B43" s="8"/>
+      <c r="C43" s="8"/>
+      <c r="D43" s="8"/>
+      <c r="E43" s="8"/>
+      <c r="F43" s="8"/>
+      <c r="G43" s="8"/>
+      <c r="H43" s="8"/>
+      <c r="I43" s="21"/>
+      <c r="J43" s="21"/>
+      <c r="K43" s="21"/>
+      <c r="L43" s="21"/>
+      <c r="M43" s="21"/>
+      <c r="N43" s="21"/>
+      <c r="O43" s="21"/>
+      <c r="P43" s="21"/>
+      <c r="Q43" s="21"/>
+    </row>
+    <row r="44" spans="1:17" s="14" customFormat="1">
+      <c r="A44" s="8"/>
+      <c r="B44" s="8"/>
+      <c r="C44" s="8"/>
+      <c r="D44" s="8"/>
+      <c r="E44" s="8"/>
+      <c r="F44" s="8"/>
+      <c r="G44" s="8"/>
+      <c r="H44" s="8"/>
+      <c r="I44" s="21"/>
+      <c r="J44" s="21"/>
+      <c r="K44" s="21"/>
+      <c r="L44" s="21"/>
+      <c r="M44" s="21"/>
+      <c r="N44" s="21"/>
+      <c r="O44" s="21"/>
+      <c r="P44" s="21"/>
+      <c r="Q44" s="21"/>
+    </row>
+    <row r="45" spans="1:17" s="14" customFormat="1">
+      <c r="A45" s="8"/>
+      <c r="B45" s="8"/>
+      <c r="C45" s="8"/>
+      <c r="D45" s="8"/>
+      <c r="E45" s="8"/>
+      <c r="F45" s="8"/>
+      <c r="G45" s="8"/>
+      <c r="H45" s="8"/>
+      <c r="I45" s="21"/>
+      <c r="J45" s="21"/>
+      <c r="K45" s="21"/>
+      <c r="L45" s="21"/>
+      <c r="M45" s="21"/>
+      <c r="N45" s="21"/>
+      <c r="O45" s="21"/>
+      <c r="P45" s="21"/>
+      <c r="Q45" s="21"/>
+    </row>
+    <row r="46" spans="1:17" s="14" customFormat="1">
+      <c r="A46" s="8"/>
+      <c r="B46" s="8"/>
+      <c r="C46" s="8"/>
+      <c r="D46" s="8"/>
+      <c r="E46" s="8"/>
+      <c r="F46" s="8"/>
+      <c r="G46" s="8"/>
+      <c r="H46" s="8"/>
+      <c r="I46" s="21"/>
+      <c r="J46" s="21"/>
+      <c r="K46" s="21"/>
+      <c r="L46" s="21"/>
+      <c r="M46" s="21"/>
+      <c r="N46" s="21"/>
+      <c r="O46" s="21"/>
+      <c r="P46" s="21"/>
+      <c r="Q46" s="21"/>
+    </row>
+    <row r="47" spans="1:17" s="14" customFormat="1">
+      <c r="A47" s="8"/>
+      <c r="B47" s="8"/>
+      <c r="C47" s="8"/>
+      <c r="D47" s="8"/>
+      <c r="E47" s="8"/>
+      <c r="F47" s="8"/>
+      <c r="G47" s="8"/>
+      <c r="H47" s="8"/>
+      <c r="I47" s="21"/>
+      <c r="J47" s="21"/>
+      <c r="K47" s="21"/>
+      <c r="L47" s="21"/>
+      <c r="M47" s="21"/>
+      <c r="N47" s="21"/>
+      <c r="O47" s="21"/>
+      <c r="P47" s="21"/>
+      <c r="Q47" s="21"/>
+    </row>
+    <row r="48" spans="1:17" s="14" customFormat="1">
+      <c r="A48" s="8"/>
+      <c r="B48" s="8"/>
+      <c r="C48" s="8"/>
+      <c r="D48" s="8"/>
+      <c r="E48" s="8"/>
+      <c r="F48" s="8"/>
+      <c r="G48" s="8"/>
+      <c r="H48" s="8"/>
+      <c r="I48" s="21"/>
+      <c r="J48" s="21"/>
+      <c r="K48" s="21"/>
+      <c r="L48" s="21"/>
+      <c r="M48" s="21"/>
+      <c r="N48" s="21"/>
+      <c r="O48" s="21"/>
+      <c r="P48" s="21"/>
+      <c r="Q48" s="21"/>
+    </row>
+    <row r="49" spans="1:17" s="14" customFormat="1">
+      <c r="A49" s="8"/>
+      <c r="B49" s="8"/>
+      <c r="C49" s="8"/>
+      <c r="D49" s="8"/>
+      <c r="E49" s="8"/>
+      <c r="F49" s="8"/>
+      <c r="G49" s="8"/>
+      <c r="H49" s="8"/>
+      <c r="I49" s="21"/>
+      <c r="J49" s="21"/>
+      <c r="K49" s="21"/>
+      <c r="L49" s="21"/>
+      <c r="M49" s="21"/>
+      <c r="N49" s="21"/>
+      <c r="O49" s="21"/>
+      <c r="P49" s="21"/>
+      <c r="Q49" s="21"/>
+    </row>
+    <row r="50" spans="1:17" s="14" customFormat="1">
+      <c r="A50" s="8"/>
+      <c r="B50" s="8"/>
+      <c r="C50" s="8"/>
+      <c r="D50" s="8"/>
+      <c r="E50" s="8"/>
+      <c r="F50" s="8"/>
+      <c r="G50" s="8"/>
+      <c r="H50" s="8"/>
+      <c r="I50" s="21"/>
+      <c r="J50" s="21"/>
+      <c r="K50" s="21"/>
+      <c r="L50" s="21"/>
+      <c r="M50" s="21"/>
+      <c r="N50" s="21"/>
+      <c r="O50" s="21"/>
+      <c r="P50" s="21"/>
+      <c r="Q50" s="21"/>
+    </row>
+    <row r="51" spans="1:17">
+      <c r="A51" s="8"/>
+      <c r="B51" s="8"/>
+      <c r="C51" s="8"/>
+      <c r="D51" s="8"/>
+      <c r="E51" s="8"/>
+      <c r="F51" s="8"/>
+      <c r="G51" s="8"/>
+      <c r="H51" s="8"/>
+      <c r="I51" s="21"/>
+      <c r="J51" s="21"/>
+      <c r="K51" s="21"/>
+      <c r="L51" s="21"/>
+      <c r="M51" s="21"/>
+      <c r="N51" s="21"/>
+      <c r="O51" s="21"/>
+      <c r="P51" s="21"/>
+      <c r="Q51" s="21"/>
+    </row>
+    <row r="52" spans="1:17">
+      <c r="A52" s="8"/>
+      <c r="B52" s="8"/>
+      <c r="C52" s="8"/>
+      <c r="D52" s="8"/>
+      <c r="E52" s="8"/>
+      <c r="F52" s="8"/>
+      <c r="G52" s="8"/>
+      <c r="H52" s="8"/>
+      <c r="I52" s="21"/>
+      <c r="J52" s="21"/>
+      <c r="K52" s="21"/>
+      <c r="L52" s="21"/>
+      <c r="M52" s="21"/>
+      <c r="N52" s="21"/>
+      <c r="O52" s="21"/>
+      <c r="P52" s="21"/>
+      <c r="Q52" s="21"/>
+    </row>
+    <row r="53" spans="1:17">
+      <c r="A53" s="8"/>
+      <c r="B53" s="8"/>
+      <c r="C53" s="8"/>
+      <c r="D53" s="8"/>
+      <c r="E53" s="8"/>
+      <c r="F53" s="8"/>
+      <c r="G53" s="8"/>
+      <c r="H53" s="8"/>
+      <c r="I53" s="21"/>
+      <c r="J53" s="21"/>
+      <c r="K53" s="21"/>
+      <c r="L53" s="21"/>
+      <c r="M53" s="21"/>
+      <c r="N53" s="21"/>
+      <c r="O53" s="21"/>
+      <c r="P53" s="21"/>
+      <c r="Q53" s="21"/>
+    </row>
+    <row r="54" spans="1:17">
+      <c r="A54" s="8"/>
+      <c r="B54" s="8"/>
+      <c r="C54" s="8"/>
+      <c r="D54" s="8"/>
+      <c r="E54" s="8"/>
+      <c r="F54" s="8"/>
+      <c r="G54" s="8"/>
+      <c r="H54" s="8"/>
+      <c r="I54" s="21"/>
+      <c r="J54" s="21"/>
+      <c r="K54" s="21"/>
+      <c r="L54" s="21"/>
+      <c r="M54" s="21"/>
+      <c r="N54" s="21"/>
+      <c r="O54" s="21"/>
+      <c r="P54" s="21"/>
+      <c r="Q54" s="21"/>
+    </row>
+    <row r="55" spans="1:17">
+      <c r="A55" s="8"/>
+      <c r="B55" s="8"/>
+      <c r="C55" s="8"/>
+      <c r="D55" s="8"/>
+      <c r="E55" s="8"/>
+      <c r="F55" s="8"/>
+      <c r="G55" s="8"/>
+      <c r="H55" s="8"/>
+      <c r="I55" s="21"/>
+      <c r="J55" s="21"/>
+      <c r="K55" s="21"/>
+      <c r="L55" s="21"/>
+      <c r="M55" s="21"/>
+      <c r="N55" s="21"/>
+      <c r="O55" s="21"/>
+      <c r="P55" s="21"/>
+      <c r="Q55" s="21"/>
+    </row>
+    <row r="56" spans="1:17">
+      <c r="A56" s="8"/>
+      <c r="B56" s="8"/>
+      <c r="C56" s="8"/>
+      <c r="D56" s="8"/>
+      <c r="E56" s="8"/>
+      <c r="F56" s="8"/>
+      <c r="G56" s="8"/>
+      <c r="H56" s="8"/>
+      <c r="I56" s="21"/>
+      <c r="J56" s="21"/>
+      <c r="K56" s="21"/>
+      <c r="L56" s="21"/>
+      <c r="M56" s="21"/>
+      <c r="N56" s="21"/>
+      <c r="O56" s="21"/>
+      <c r="P56" s="21"/>
+      <c r="Q56" s="21"/>
+    </row>
+    <row r="57" spans="1:17">
+      <c r="A57" s="8"/>
+      <c r="B57" s="8"/>
+      <c r="C57" s="8"/>
+      <c r="D57" s="8"/>
+      <c r="E57" s="8"/>
+      <c r="F57" s="8"/>
+      <c r="G57" s="8"/>
+      <c r="H57" s="8"/>
+      <c r="I57" s="21"/>
+      <c r="J57" s="21"/>
+      <c r="K57" s="21"/>
+      <c r="L57" s="21"/>
+      <c r="M57" s="21"/>
+      <c r="N57" s="21"/>
+      <c r="O57" s="21"/>
+      <c r="P57" s="21"/>
+      <c r="Q57" s="21"/>
+    </row>
+    <row r="58" spans="1:17">
+      <c r="A58" s="8"/>
+      <c r="B58" s="8"/>
+      <c r="C58" s="8"/>
+      <c r="D58" s="8"/>
+      <c r="E58" s="8"/>
+      <c r="F58" s="8"/>
+      <c r="G58" s="8"/>
+      <c r="H58" s="8"/>
+      <c r="I58" s="21"/>
+      <c r="J58" s="21"/>
+      <c r="K58" s="21"/>
+      <c r="L58" s="21"/>
+      <c r="M58" s="21"/>
+      <c r="N58" s="21"/>
+      <c r="O58" s="21"/>
+      <c r="P58" s="21"/>
+      <c r="Q58" s="21"/>
+    </row>
+    <row r="59" spans="1:17">
+      <c r="A59" s="8"/>
+      <c r="B59" s="8"/>
+      <c r="C59" s="8"/>
+      <c r="D59" s="8"/>
+      <c r="E59" s="8"/>
+      <c r="F59" s="8"/>
+      <c r="G59" s="8"/>
+      <c r="H59" s="8"/>
+      <c r="I59" s="21"/>
+      <c r="J59" s="21"/>
+      <c r="K59" s="21"/>
+      <c r="L59" s="21"/>
+      <c r="M59" s="21"/>
+      <c r="N59" s="21"/>
+      <c r="O59" s="21"/>
+      <c r="P59" s="21"/>
+      <c r="Q59" s="21"/>
+    </row>
+    <row r="60" spans="1:17">
+      <c r="A60" s="8"/>
+      <c r="B60" s="8"/>
+      <c r="C60" s="8"/>
+      <c r="D60" s="8"/>
+      <c r="E60" s="8"/>
+      <c r="F60" s="8"/>
+      <c r="G60" s="8"/>
+      <c r="H60" s="8"/>
+      <c r="I60" s="21"/>
+      <c r="J60" s="21"/>
+      <c r="K60" s="21"/>
+      <c r="L60" s="21"/>
+      <c r="M60" s="21"/>
+      <c r="N60" s="21"/>
+      <c r="O60" s="21"/>
+      <c r="P60" s="21"/>
+      <c r="Q60" s="21"/>
+    </row>
+    <row r="61" spans="1:17">
+      <c r="A61" s="8"/>
+      <c r="B61" s="8"/>
+      <c r="C61" s="8"/>
+      <c r="D61" s="8"/>
+      <c r="E61" s="8"/>
+      <c r="F61" s="8"/>
+      <c r="G61" s="8"/>
+      <c r="H61" s="8"/>
+      <c r="I61" s="21"/>
+      <c r="J61" s="21"/>
+      <c r="K61" s="21"/>
+      <c r="L61" s="21"/>
+      <c r="M61" s="21"/>
+      <c r="N61" s="21"/>
+      <c r="O61" s="21"/>
+      <c r="P61" s="21"/>
+      <c r="Q61" s="21"/>
+    </row>
+    <row r="62" spans="1:17">
+      <c r="A62" s="8"/>
+      <c r="B62" s="8"/>
+      <c r="C62" s="8"/>
+      <c r="D62" s="8"/>
+      <c r="E62" s="8"/>
+      <c r="F62" s="8"/>
+      <c r="G62" s="8"/>
+      <c r="H62" s="8"/>
+      <c r="I62" s="21"/>
+      <c r="J62" s="21"/>
+      <c r="K62" s="21"/>
+      <c r="L62" s="21"/>
+      <c r="M62" s="21"/>
+      <c r="N62" s="21"/>
+      <c r="O62" s="21"/>
+      <c r="P62" s="21"/>
+      <c r="Q62" s="21"/>
+    </row>
+    <row r="63" spans="1:17">
+      <c r="A63" s="8"/>
+      <c r="B63" s="8"/>
+      <c r="C63" s="8"/>
+      <c r="D63" s="8"/>
+      <c r="E63" s="8"/>
+      <c r="F63" s="8"/>
+      <c r="G63" s="8"/>
+      <c r="H63" s="8"/>
+      <c r="I63" s="21"/>
+      <c r="J63" s="21"/>
+      <c r="K63" s="21"/>
+      <c r="L63" s="21"/>
+      <c r="M63" s="21"/>
+      <c r="N63" s="21"/>
+      <c r="O63" s="21"/>
+      <c r="P63" s="21"/>
+      <c r="Q63" s="21"/>
+    </row>
+    <row r="64" spans="1:17">
+      <c r="A64" s="8"/>
+      <c r="B64" s="8"/>
+      <c r="C64" s="8"/>
+      <c r="D64" s="8"/>
+      <c r="E64" s="8"/>
+      <c r="F64" s="8"/>
+      <c r="G64" s="8"/>
+      <c r="H64" s="8"/>
+      <c r="I64" s="21"/>
+      <c r="J64" s="21"/>
+      <c r="K64" s="21"/>
+      <c r="L64" s="21"/>
+      <c r="M64" s="21"/>
+      <c r="N64" s="21"/>
+      <c r="O64" s="21"/>
+      <c r="P64" s="21"/>
+      <c r="Q64" s="21"/>
+    </row>
+    <row r="65" spans="1:17">
+      <c r="A65" s="8"/>
+      <c r="B65" s="8"/>
+      <c r="C65" s="8"/>
+      <c r="D65" s="8"/>
+      <c r="E65" s="8"/>
+      <c r="F65" s="8"/>
+      <c r="G65" s="8"/>
+      <c r="H65" s="8"/>
+      <c r="I65" s="21"/>
+      <c r="J65" s="21"/>
+      <c r="K65" s="21"/>
+      <c r="L65" s="21"/>
+      <c r="M65" s="21"/>
+      <c r="N65" s="21"/>
+      <c r="O65" s="21"/>
+      <c r="P65" s="21"/>
+      <c r="Q65" s="21"/>
+    </row>
+    <row r="66" spans="1:17">
+      <c r="A66" s="8"/>
+      <c r="B66" s="8"/>
+      <c r="C66" s="8"/>
+      <c r="D66" s="8"/>
+      <c r="E66" s="8"/>
+      <c r="F66" s="8"/>
+      <c r="G66" s="8"/>
+      <c r="H66" s="8"/>
+      <c r="I66" s="21"/>
+      <c r="J66" s="21"/>
+      <c r="K66" s="21"/>
+      <c r="L66" s="21"/>
+      <c r="M66" s="21"/>
+      <c r="N66" s="21"/>
+      <c r="O66" s="21"/>
+      <c r="P66" s="21"/>
+      <c r="Q66" s="21"/>
+    </row>
+    <row r="67" spans="1:17">
+      <c r="A67" s="8"/>
+      <c r="B67" s="8"/>
+      <c r="C67" s="8"/>
+      <c r="D67" s="8"/>
+      <c r="E67" s="8"/>
+      <c r="F67" s="8"/>
+      <c r="G67" s="8"/>
+      <c r="H67" s="8"/>
+      <c r="I67" s="21"/>
+      <c r="J67" s="21"/>
+      <c r="K67" s="21"/>
+      <c r="L67" s="21"/>
+      <c r="M67" s="21"/>
+      <c r="N67" s="21"/>
+      <c r="O67" s="21"/>
+      <c r="P67" s="21"/>
+      <c r="Q67" s="21"/>
+    </row>
+    <row r="68" spans="1:17">
+      <c r="A68" s="8"/>
+      <c r="B68" s="8"/>
+      <c r="C68" s="8"/>
+      <c r="D68" s="8"/>
+      <c r="E68" s="8"/>
+      <c r="F68" s="8"/>
+      <c r="G68" s="8"/>
+      <c r="H68" s="8"/>
+      <c r="I68" s="21"/>
+      <c r="J68" s="21"/>
+      <c r="K68" s="21"/>
+      <c r="L68" s="21"/>
+      <c r="M68" s="21"/>
+      <c r="N68" s="21"/>
+      <c r="O68" s="21"/>
+      <c r="P68" s="21"/>
+      <c r="Q68" s="21"/>
+    </row>
+    <row r="69" spans="1:17">
+      <c r="A69" s="9"/>
+      <c r="B69" s="9"/>
+      <c r="C69" s="9"/>
+      <c r="D69" s="9"/>
+      <c r="E69" s="9"/>
+      <c r="F69" s="9"/>
+      <c r="G69" s="9"/>
+      <c r="H69" s="9"/>
+      <c r="I69" s="22"/>
+      <c r="J69" s="22"/>
+      <c r="K69" s="22"/>
+      <c r="L69" s="22"/>
+      <c r="M69" s="22"/>
+      <c r="N69" s="22"/>
+      <c r="O69" s="22"/>
+      <c r="P69" s="22"/>
+      <c r="Q69" s="22"/>
+    </row>
+    <row r="70" spans="1:17">
+      <c r="A70" s="9"/>
+      <c r="B70" s="9"/>
+      <c r="C70" s="9"/>
+      <c r="D70" s="9"/>
+      <c r="E70" s="9"/>
+      <c r="F70" s="9"/>
+      <c r="G70" s="9"/>
+      <c r="H70" s="9"/>
+      <c r="I70" s="22"/>
+      <c r="J70" s="22"/>
+      <c r="K70" s="22"/>
+      <c r="L70" s="22"/>
+      <c r="M70" s="22"/>
+      <c r="N70" s="22"/>
+      <c r="O70" s="22"/>
+      <c r="P70" s="22"/>
+      <c r="Q70" s="22"/>
+    </row>
+  </sheetData>
+  <mergeCells count="9">
+    <mergeCell ref="L2:N2"/>
+    <mergeCell ref="O2:Q2"/>
+    <mergeCell ref="I1:Q1"/>
+    <mergeCell ref="A1:B1"/>
+    <mergeCell ref="C1:E1"/>
+    <mergeCell ref="F1:G1"/>
+    <mergeCell ref="A2:B2"/>
+    <mergeCell ref="C2:H2"/>
+    <mergeCell ref="I2:K2"/>
+  </mergeCells>
+  <phoneticPr fontId="2"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="landscape" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <sheetPr>
+    <tabColor theme="8" tint="0.39997558519241921"/>
+  </sheetPr>
+  <dimension ref="A1:Q35"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C3" sqref="C3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetData>
+    <row r="1" spans="1:17" ht="14.25" thickBot="1">
+      <c r="A1" s="38" t="s">
+        <v>33</v>
+      </c>
+      <c r="B1" s="39"/>
+      <c r="C1" s="40" t="s">
+        <v>183</v>
+      </c>
+      <c r="D1" s="40"/>
+      <c r="E1" s="41"/>
+      <c r="F1" s="38" t="s">
+        <v>11</v>
+      </c>
+      <c r="G1" s="39"/>
+      <c r="H1" s="3"/>
+      <c r="I1" s="47" t="s">
+        <v>28</v>
+      </c>
+      <c r="J1" s="48"/>
+      <c r="K1" s="48"/>
+      <c r="L1" s="48"/>
+      <c r="M1" s="48"/>
+      <c r="N1" s="48"/>
+      <c r="O1" s="48"/>
+      <c r="P1" s="48"/>
+      <c r="Q1" s="49"/>
+    </row>
+    <row r="2" spans="1:17" ht="14.25" thickBot="1">
+      <c r="A2" s="42" t="s">
+        <v>5</v>
+      </c>
+      <c r="B2" s="43"/>
+      <c r="C2" s="44" t="s">
+        <v>184</v>
+      </c>
+      <c r="D2" s="44"/>
+      <c r="E2" s="44"/>
+      <c r="F2" s="44"/>
+      <c r="G2" s="44"/>
+      <c r="H2" s="44"/>
+      <c r="I2" s="45" t="s">
+        <v>12</v>
+      </c>
+      <c r="J2" s="46"/>
+      <c r="K2" s="35"/>
+      <c r="L2" s="35" t="s">
+        <v>15</v>
+      </c>
+      <c r="M2" s="35"/>
+      <c r="N2" s="35"/>
+      <c r="O2" s="35" t="s">
+        <v>16</v>
+      </c>
+      <c r="P2" s="36"/>
+      <c r="Q2" s="37"/>
+    </row>
+    <row r="3" spans="1:17">
+      <c r="A3" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="B3" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="C3" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="D3" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="E3" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="F3" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="G3" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="H3" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="I3" s="15" t="s">
+        <v>13</v>
+      </c>
+      <c r="J3" s="15" t="s">
+        <v>14</v>
+      </c>
+      <c r="K3" s="15" t="s">
+        <v>20</v>
+      </c>
+      <c r="L3" s="15" t="s">
+        <v>13</v>
+      </c>
+      <c r="M3" s="15" t="s">
+        <v>14</v>
+      </c>
+      <c r="N3" s="15" t="s">
+        <v>20</v>
+      </c>
+      <c r="O3" s="15" t="s">
+        <v>13</v>
+      </c>
+      <c r="P3" s="15" t="s">
+        <v>14</v>
+      </c>
+      <c r="Q3" s="15" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="4" spans="1:17">
+      <c r="A4" s="7"/>
+      <c r="B4" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="D4" s="1"/>
+      <c r="E4" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="F4" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="G4" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="H4" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="I4" s="16"/>
+      <c r="J4" s="16"/>
+      <c r="K4" s="16"/>
+      <c r="L4" s="16"/>
+      <c r="M4" s="16"/>
+      <c r="N4" s="16"/>
+      <c r="O4" s="16"/>
+      <c r="P4" s="16"/>
+      <c r="Q4" s="16"/>
+    </row>
+    <row r="5" spans="1:17">
+      <c r="A5" s="7"/>
+      <c r="B5" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="D5" s="1">
+        <v>255</v>
+      </c>
+      <c r="E5" s="1"/>
+      <c r="F5" s="2"/>
+      <c r="G5" s="2"/>
+      <c r="H5" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="I5" s="16"/>
+      <c r="J5" s="16"/>
+      <c r="K5" s="16"/>
+      <c r="L5" s="16"/>
+      <c r="M5" s="16"/>
+      <c r="N5" s="16"/>
+      <c r="O5" s="16"/>
+      <c r="P5" s="16"/>
+      <c r="Q5" s="16"/>
+    </row>
+    <row r="6" spans="1:17">
+      <c r="A6" s="7"/>
+      <c r="J6" s="16"/>
+      <c r="K6" s="16"/>
+      <c r="L6" s="16"/>
+      <c r="M6" s="16"/>
+      <c r="N6" s="16"/>
+      <c r="O6" s="16"/>
+      <c r="P6" s="16"/>
+      <c r="Q6" s="16"/>
+    </row>
+    <row r="7" spans="1:17">
+      <c r="A7" s="7"/>
+      <c r="B7" s="1"/>
+      <c r="C7" s="1"/>
+      <c r="D7" s="1"/>
+      <c r="E7" s="1"/>
+      <c r="F7" s="2"/>
+      <c r="G7" s="2"/>
+      <c r="H7" s="1"/>
+      <c r="I7" s="17"/>
+      <c r="J7" s="17"/>
+      <c r="K7" s="18"/>
+      <c r="L7" s="16"/>
+      <c r="M7" s="16"/>
+      <c r="N7" s="16"/>
+      <c r="O7" s="16"/>
+      <c r="P7" s="16"/>
+      <c r="Q7" s="16"/>
+    </row>
+    <row r="8" spans="1:17">
+      <c r="A8" s="7"/>
+      <c r="B8" s="11"/>
+      <c r="C8" s="11"/>
+      <c r="D8" s="11"/>
+      <c r="E8" s="1"/>
+      <c r="F8" s="2"/>
+      <c r="G8" s="2"/>
+      <c r="H8" s="1"/>
+      <c r="I8" s="18"/>
+      <c r="J8" s="18"/>
+      <c r="K8" s="18"/>
+      <c r="L8" s="16"/>
+      <c r="M8" s="16"/>
+      <c r="N8" s="16"/>
+      <c r="O8" s="16"/>
+      <c r="P8" s="16"/>
+      <c r="Q8" s="16"/>
+    </row>
+    <row r="9" spans="1:17">
+      <c r="A9" s="7"/>
+      <c r="B9" s="1"/>
+      <c r="C9" s="1"/>
+      <c r="D9" s="1"/>
+      <c r="E9" s="7"/>
+      <c r="F9" s="25"/>
+      <c r="G9" s="25"/>
+      <c r="H9" s="1"/>
+      <c r="I9" s="18"/>
+      <c r="J9" s="18"/>
+      <c r="K9" s="18"/>
+      <c r="L9" s="16"/>
+      <c r="M9" s="16"/>
+      <c r="N9" s="16"/>
+      <c r="O9" s="16"/>
+      <c r="P9" s="16"/>
+      <c r="Q9" s="16"/>
+    </row>
+    <row r="10" spans="1:17">
+      <c r="A10" s="10"/>
+      <c r="B10" s="4"/>
+      <c r="C10" s="1"/>
+      <c r="D10" s="1"/>
+      <c r="E10" s="10"/>
+      <c r="F10" s="24"/>
+      <c r="G10" s="24"/>
+      <c r="H10" s="12"/>
+      <c r="I10" s="19"/>
+      <c r="J10" s="19"/>
+      <c r="K10" s="19"/>
+      <c r="L10" s="19"/>
+      <c r="M10" s="19"/>
+      <c r="N10" s="19"/>
+      <c r="O10" s="19"/>
+      <c r="P10" s="19"/>
+      <c r="Q10" s="19"/>
+    </row>
+    <row r="11" spans="1:17">
+      <c r="A11" s="7"/>
+      <c r="B11" s="1"/>
+      <c r="C11" s="1"/>
+      <c r="D11" s="1"/>
+      <c r="E11" s="1"/>
+      <c r="F11" s="2"/>
+      <c r="G11" s="25"/>
+      <c r="H11" s="1"/>
+      <c r="I11" s="17"/>
+      <c r="J11" s="17"/>
+      <c r="K11" s="16"/>
+      <c r="L11" s="16"/>
+      <c r="M11" s="16"/>
+      <c r="N11" s="16"/>
+      <c r="O11" s="16"/>
+      <c r="P11" s="16"/>
+      <c r="Q11" s="16"/>
+    </row>
+    <row r="12" spans="1:17">
+      <c r="A12" s="7"/>
+      <c r="B12" s="1"/>
+      <c r="C12" s="1"/>
+      <c r="D12" s="1"/>
+      <c r="E12" s="1"/>
+      <c r="F12" s="2"/>
+      <c r="G12" s="2"/>
+      <c r="H12" s="1"/>
+      <c r="I12" s="18"/>
+      <c r="J12" s="18"/>
+      <c r="K12" s="18"/>
+      <c r="L12" s="16"/>
+      <c r="M12" s="16"/>
+      <c r="N12" s="16"/>
+      <c r="O12" s="16"/>
+      <c r="P12" s="16"/>
+      <c r="Q12" s="16"/>
+    </row>
+    <row r="13" spans="1:17">
+      <c r="A13" s="7"/>
+      <c r="B13" s="1"/>
+      <c r="C13" s="1"/>
+      <c r="D13" s="1"/>
+      <c r="E13" s="1"/>
+      <c r="F13" s="2"/>
+      <c r="G13" s="25"/>
+      <c r="H13" s="1"/>
+      <c r="I13" s="17"/>
+      <c r="J13" s="17"/>
+      <c r="K13" s="16"/>
+      <c r="L13" s="16"/>
+      <c r="M13" s="16"/>
+      <c r="N13" s="16"/>
+      <c r="O13" s="16"/>
+      <c r="P13" s="16"/>
+      <c r="Q13" s="16"/>
+    </row>
+    <row r="14" spans="1:17">
+      <c r="A14" s="7"/>
+      <c r="B14" s="1"/>
+      <c r="C14" s="1"/>
+      <c r="D14" s="1"/>
+      <c r="E14" s="1"/>
+      <c r="F14" s="2"/>
+      <c r="G14" s="25"/>
+      <c r="H14" s="1"/>
+      <c r="I14" s="17"/>
+      <c r="J14" s="17"/>
+      <c r="K14" s="16"/>
+      <c r="L14" s="16"/>
+      <c r="M14" s="16"/>
+      <c r="N14" s="16"/>
+      <c r="O14" s="16"/>
+      <c r="P14" s="16"/>
+      <c r="Q14" s="16"/>
+    </row>
+    <row r="15" spans="1:17">
+      <c r="A15" s="7"/>
+      <c r="B15" s="1"/>
+      <c r="C15" s="1"/>
+      <c r="D15" s="1"/>
+      <c r="E15" s="1"/>
+      <c r="F15" s="2"/>
+      <c r="G15" s="25"/>
+      <c r="H15" s="1"/>
+      <c r="I15" s="17"/>
+      <c r="J15" s="17"/>
+      <c r="K15" s="18"/>
+      <c r="L15" s="18"/>
+      <c r="M15" s="18"/>
+      <c r="N15" s="18"/>
+      <c r="O15" s="16"/>
+      <c r="P15" s="16"/>
+      <c r="Q15" s="16"/>
+    </row>
+    <row r="16" spans="1:17">
+      <c r="A16" s="7"/>
+      <c r="B16" s="1"/>
+      <c r="C16" s="1"/>
+      <c r="D16" s="1"/>
+      <c r="E16" s="1"/>
+      <c r="F16" s="2"/>
+      <c r="G16" s="25"/>
+      <c r="H16" s="1"/>
+      <c r="I16" s="18"/>
+      <c r="J16" s="18"/>
+      <c r="K16" s="18"/>
+      <c r="L16" s="16"/>
+      <c r="M16" s="16"/>
+      <c r="N16" s="16"/>
+      <c r="O16" s="16"/>
+      <c r="P16" s="16"/>
+      <c r="Q16" s="16"/>
+    </row>
+    <row r="17" spans="1:17">
+      <c r="A17" s="7"/>
+      <c r="B17" s="1"/>
+      <c r="C17" s="1"/>
+      <c r="D17" s="1"/>
+      <c r="E17" s="1"/>
+      <c r="F17" s="2"/>
+      <c r="G17" s="25"/>
+      <c r="H17" s="1"/>
+      <c r="I17" s="16"/>
+      <c r="J17" s="16"/>
+      <c r="K17" s="16"/>
+      <c r="L17" s="16"/>
+      <c r="M17" s="16"/>
+      <c r="N17" s="16"/>
+      <c r="O17" s="16"/>
+      <c r="P17" s="16"/>
+      <c r="Q17" s="16"/>
+    </row>
+    <row r="18" spans="1:17">
+      <c r="A18" s="7"/>
+      <c r="B18" s="1"/>
+      <c r="C18" s="1"/>
+      <c r="D18" s="1"/>
+      <c r="E18" s="1"/>
+      <c r="F18" s="2"/>
+      <c r="G18" s="25"/>
+      <c r="H18" s="1"/>
+      <c r="I18" s="16"/>
+      <c r="J18" s="16"/>
+      <c r="K18" s="16"/>
+      <c r="L18" s="16"/>
+      <c r="M18" s="16"/>
+      <c r="N18" s="16"/>
+      <c r="O18" s="16"/>
+      <c r="P18" s="16"/>
+      <c r="Q18" s="16"/>
+    </row>
+    <row r="19" spans="1:17">
+      <c r="A19" s="7"/>
+      <c r="B19" s="1"/>
+      <c r="C19" s="1"/>
+      <c r="D19" s="1"/>
+      <c r="E19" s="1"/>
+      <c r="F19" s="2"/>
+      <c r="G19" s="25"/>
+      <c r="H19" s="1"/>
+      <c r="I19" s="16"/>
+      <c r="J19" s="16"/>
+      <c r="K19" s="16"/>
+      <c r="L19" s="16"/>
+      <c r="M19" s="16"/>
+      <c r="N19" s="16"/>
+      <c r="O19" s="16"/>
+      <c r="P19" s="16"/>
+      <c r="Q19" s="16"/>
+    </row>
+    <row r="20" spans="1:17">
+      <c r="A20" s="7"/>
+      <c r="B20" s="1"/>
+      <c r="C20" s="1"/>
+      <c r="D20" s="1"/>
+      <c r="E20" s="1"/>
+      <c r="F20" s="2"/>
+      <c r="G20" s="25"/>
+      <c r="H20" s="1"/>
+      <c r="I20" s="17"/>
+      <c r="J20" s="17"/>
+      <c r="K20" s="16"/>
+      <c r="L20" s="16"/>
+      <c r="M20" s="16"/>
+      <c r="N20" s="16"/>
+      <c r="O20" s="16"/>
+      <c r="P20" s="16"/>
+      <c r="Q20" s="16"/>
+    </row>
+    <row r="21" spans="1:17">
+      <c r="A21" s="7"/>
+      <c r="B21" s="1"/>
+      <c r="C21" s="1"/>
+      <c r="D21" s="1"/>
+      <c r="E21" s="1"/>
+      <c r="F21" s="2"/>
+      <c r="G21" s="25"/>
+      <c r="H21" s="1"/>
+      <c r="I21" s="17"/>
+      <c r="J21" s="17"/>
+      <c r="K21" s="16"/>
+      <c r="L21" s="20"/>
+      <c r="M21" s="20"/>
+      <c r="N21" s="16"/>
+      <c r="O21" s="16"/>
+      <c r="P21" s="16"/>
+      <c r="Q21" s="16"/>
+    </row>
+    <row r="22" spans="1:17">
+      <c r="A22" s="7"/>
+      <c r="B22" s="1"/>
+      <c r="C22" s="1"/>
+      <c r="D22" s="1"/>
+      <c r="E22" s="1"/>
+      <c r="F22" s="2"/>
+      <c r="G22" s="25"/>
+      <c r="H22" s="1"/>
+      <c r="I22" s="17"/>
+      <c r="J22" s="17"/>
+      <c r="K22" s="16"/>
+      <c r="L22" s="20"/>
+      <c r="M22" s="20"/>
+      <c r="N22" s="16"/>
+      <c r="O22" s="16"/>
+      <c r="P22" s="16"/>
+      <c r="Q22" s="16"/>
+    </row>
+    <row r="23" spans="1:17">
+      <c r="A23" s="7"/>
+      <c r="B23" s="1"/>
+      <c r="C23" s="1"/>
+      <c r="D23" s="1"/>
+      <c r="E23" s="1"/>
+      <c r="F23" s="2"/>
+      <c r="G23" s="25"/>
+      <c r="H23" s="1"/>
+      <c r="I23" s="17"/>
+      <c r="J23" s="17"/>
+      <c r="K23" s="16"/>
+      <c r="L23" s="16"/>
+      <c r="M23" s="16"/>
+      <c r="N23" s="16"/>
+      <c r="O23" s="16"/>
+      <c r="P23" s="16"/>
+      <c r="Q23" s="16"/>
+    </row>
+    <row r="24" spans="1:17">
+      <c r="A24" s="7"/>
+      <c r="B24" s="1"/>
+      <c r="C24" s="1"/>
+      <c r="D24" s="1"/>
+      <c r="E24" s="1"/>
+      <c r="F24" s="2"/>
+      <c r="G24" s="25"/>
+      <c r="H24" s="1"/>
+      <c r="I24" s="17"/>
+      <c r="J24" s="17"/>
+      <c r="K24" s="16"/>
+      <c r="L24" s="16"/>
+      <c r="M24" s="16"/>
+      <c r="N24" s="16"/>
+      <c r="O24" s="16"/>
+      <c r="P24" s="16"/>
+      <c r="Q24" s="16"/>
+    </row>
+    <row r="25" spans="1:17">
+      <c r="A25" s="7"/>
+      <c r="B25" s="1"/>
+      <c r="C25" s="1"/>
+      <c r="D25" s="1"/>
+      <c r="E25" s="1"/>
+      <c r="F25" s="2"/>
+      <c r="G25" s="25"/>
+      <c r="H25" s="1"/>
+      <c r="I25" s="17"/>
+      <c r="J25" s="17"/>
+      <c r="K25" s="16"/>
+      <c r="L25" s="16"/>
+      <c r="M25" s="16"/>
+      <c r="N25" s="16"/>
+      <c r="O25" s="16"/>
+      <c r="P25" s="16"/>
+      <c r="Q25" s="16"/>
+    </row>
+    <row r="26" spans="1:17">
+      <c r="A26" s="7"/>
+      <c r="B26" s="1"/>
+      <c r="C26" s="1"/>
+      <c r="D26" s="1"/>
+      <c r="E26" s="7"/>
+      <c r="F26" s="25"/>
+      <c r="G26" s="25"/>
+      <c r="H26" s="1"/>
+      <c r="I26" s="17"/>
+      <c r="J26" s="17"/>
+      <c r="K26" s="16"/>
+      <c r="L26" s="20"/>
+      <c r="M26" s="20"/>
+      <c r="N26" s="16"/>
+      <c r="O26" s="16"/>
+      <c r="P26" s="16"/>
+      <c r="Q26" s="16"/>
+    </row>
+    <row r="27" spans="1:17">
+      <c r="A27" s="7"/>
+      <c r="B27" s="1"/>
+      <c r="C27" s="1"/>
+      <c r="D27" s="1"/>
+      <c r="E27" s="7"/>
+      <c r="F27" s="25"/>
+      <c r="G27" s="25"/>
+      <c r="H27" s="1"/>
+      <c r="I27" s="17"/>
+      <c r="J27" s="17"/>
+      <c r="K27" s="16"/>
+      <c r="L27" s="16"/>
+      <c r="M27" s="16"/>
+      <c r="N27" s="16"/>
+      <c r="O27" s="16"/>
+      <c r="P27" s="16"/>
+      <c r="Q27" s="16"/>
+    </row>
+    <row r="28" spans="1:17">
+      <c r="A28" s="7"/>
+      <c r="B28" s="1"/>
+      <c r="C28" s="1"/>
+      <c r="D28" s="1"/>
+      <c r="E28" s="7"/>
+      <c r="F28" s="25"/>
+      <c r="G28" s="25"/>
+      <c r="H28" s="1"/>
+      <c r="I28" s="17"/>
+      <c r="J28" s="17"/>
+      <c r="K28" s="16"/>
+      <c r="L28" s="16"/>
+      <c r="M28" s="16"/>
+      <c r="N28" s="16"/>
+      <c r="O28" s="20"/>
+      <c r="P28" s="20"/>
+      <c r="Q28" s="16"/>
+    </row>
+    <row r="29" spans="1:17">
+      <c r="A29" s="7"/>
+      <c r="B29" s="1"/>
+      <c r="C29" s="1"/>
+      <c r="D29" s="1"/>
+      <c r="E29" s="1"/>
+      <c r="F29" s="2"/>
+      <c r="G29" s="25"/>
+      <c r="H29" s="1"/>
+      <c r="I29" s="17"/>
+      <c r="J29" s="17"/>
+      <c r="K29" s="16"/>
+      <c r="L29" s="16"/>
+      <c r="M29" s="16"/>
+      <c r="N29" s="16"/>
+      <c r="O29" s="16"/>
+      <c r="P29" s="16"/>
+      <c r="Q29" s="16"/>
+    </row>
+    <row r="30" spans="1:17">
+      <c r="A30" s="7"/>
+      <c r="B30" s="1"/>
+      <c r="C30" s="1"/>
+      <c r="D30" s="1"/>
+      <c r="E30" s="1"/>
+      <c r="F30" s="2"/>
+      <c r="G30" s="25"/>
+      <c r="H30" s="1"/>
+      <c r="I30" s="17"/>
+      <c r="J30" s="17"/>
+      <c r="K30" s="16"/>
+      <c r="L30" s="20"/>
+      <c r="M30" s="20"/>
+      <c r="N30" s="16"/>
+      <c r="O30" s="16"/>
+      <c r="P30" s="16"/>
+      <c r="Q30" s="16"/>
+    </row>
+    <row r="31" spans="1:17">
+      <c r="A31" s="7"/>
+      <c r="B31" s="1"/>
+      <c r="C31" s="1"/>
+      <c r="D31" s="1"/>
+      <c r="E31" s="7"/>
+      <c r="F31" s="25"/>
+      <c r="G31" s="25"/>
+      <c r="H31" s="1"/>
+      <c r="I31" s="16"/>
+      <c r="J31" s="16"/>
+      <c r="K31" s="16"/>
+      <c r="L31" s="16"/>
+      <c r="M31" s="16"/>
+      <c r="N31" s="16"/>
+      <c r="O31" s="16"/>
+      <c r="P31" s="16"/>
+      <c r="Q31" s="16"/>
+    </row>
+    <row r="32" spans="1:17">
+      <c r="A32" s="7"/>
+      <c r="B32" s="1"/>
+      <c r="C32" s="1"/>
+      <c r="D32" s="1"/>
+      <c r="E32" s="7"/>
+      <c r="F32" s="25"/>
+      <c r="G32" s="25"/>
+      <c r="H32" s="1"/>
+      <c r="I32" s="16"/>
+      <c r="J32" s="16"/>
+      <c r="K32" s="16"/>
+      <c r="L32" s="16"/>
+      <c r="M32" s="16"/>
+      <c r="N32" s="16"/>
+      <c r="O32" s="16"/>
+      <c r="P32" s="16"/>
+      <c r="Q32" s="16"/>
+    </row>
+    <row r="33" spans="1:17">
+      <c r="A33" s="7"/>
+      <c r="B33" s="1"/>
+      <c r="C33" s="1"/>
+      <c r="D33" s="1"/>
+      <c r="E33" s="7"/>
+      <c r="F33" s="25"/>
+      <c r="G33" s="25"/>
+      <c r="H33" s="1"/>
+      <c r="I33" s="16"/>
+      <c r="J33" s="16"/>
+      <c r="K33" s="16"/>
+      <c r="L33" s="16"/>
+      <c r="M33" s="16"/>
+      <c r="N33" s="16"/>
+      <c r="O33" s="16"/>
+      <c r="P33" s="16"/>
+      <c r="Q33" s="16"/>
+    </row>
+    <row r="34" spans="1:17">
+      <c r="A34" s="7"/>
+      <c r="B34" s="1"/>
+      <c r="C34" s="1"/>
+      <c r="D34" s="1"/>
+      <c r="E34" s="7"/>
+      <c r="F34" s="25"/>
+      <c r="G34" s="25"/>
+      <c r="H34" s="1"/>
+      <c r="I34" s="16"/>
+      <c r="J34" s="16"/>
+      <c r="K34" s="16"/>
+      <c r="L34" s="16"/>
+      <c r="M34" s="16"/>
+      <c r="N34" s="16"/>
+      <c r="O34" s="16"/>
+      <c r="P34" s="16"/>
+      <c r="Q34" s="16"/>
+    </row>
+    <row r="35" spans="1:17">
+      <c r="A35" s="7"/>
+      <c r="B35" s="7"/>
+      <c r="C35" s="7"/>
+      <c r="D35" s="7"/>
+      <c r="E35" s="7"/>
+      <c r="F35" s="25"/>
+      <c r="G35" s="25"/>
+      <c r="H35" s="7"/>
+      <c r="I35" s="16"/>
+      <c r="J35" s="16"/>
+      <c r="K35" s="16"/>
+      <c r="L35" s="16"/>
+      <c r="M35" s="16"/>
+      <c r="N35" s="16"/>
+      <c r="O35" s="16"/>
+      <c r="P35" s="16"/>
+      <c r="Q35" s="16"/>
+    </row>
+  </sheetData>
+  <mergeCells count="9">
+    <mergeCell ref="A1:B1"/>
+    <mergeCell ref="C1:E1"/>
+    <mergeCell ref="F1:G1"/>
+    <mergeCell ref="I1:Q1"/>
+    <mergeCell ref="A2:B2"/>
+    <mergeCell ref="C2:H2"/>
+    <mergeCell ref="I2:K2"/>
+    <mergeCell ref="L2:N2"/>
+    <mergeCell ref="O2:Q2"/>
+  </mergeCells>
+  <phoneticPr fontId="10"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr>
     <tabColor theme="8" tint="0.39997558519241921"/>
   </sheetPr>
@@ -3262,60 +5537,60 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:17" ht="18" customHeight="1" thickBot="1">
-      <c r="A1" s="32" t="s">
+      <c r="A1" s="38" t="s">
         <v>33</v>
       </c>
-      <c r="B1" s="33"/>
-      <c r="C1" s="34" t="s">
+      <c r="B1" s="39"/>
+      <c r="C1" s="40" t="s">
         <v>69</v>
       </c>
-      <c r="D1" s="34"/>
-      <c r="E1" s="35"/>
-      <c r="F1" s="32" t="s">
+      <c r="D1" s="40"/>
+      <c r="E1" s="41"/>
+      <c r="F1" s="38" t="s">
         <v>11</v>
       </c>
-      <c r="G1" s="33"/>
+      <c r="G1" s="39"/>
       <c r="H1" s="3"/>
-      <c r="I1" s="41" t="s">
+      <c r="I1" s="47" t="s">
         <v>28</v>
       </c>
-      <c r="J1" s="42"/>
-      <c r="K1" s="42"/>
-      <c r="L1" s="42"/>
-      <c r="M1" s="42"/>
-      <c r="N1" s="42"/>
-      <c r="O1" s="42"/>
-      <c r="P1" s="42"/>
-      <c r="Q1" s="43"/>
+      <c r="J1" s="48"/>
+      <c r="K1" s="48"/>
+      <c r="L1" s="48"/>
+      <c r="M1" s="48"/>
+      <c r="N1" s="48"/>
+      <c r="O1" s="48"/>
+      <c r="P1" s="48"/>
+      <c r="Q1" s="49"/>
     </row>
     <row r="2" spans="1:17" ht="18" customHeight="1" thickBot="1">
-      <c r="A2" s="36" t="s">
+      <c r="A2" s="42" t="s">
         <v>5</v>
       </c>
-      <c r="B2" s="37"/>
-      <c r="C2" s="38" t="s">
+      <c r="B2" s="43"/>
+      <c r="C2" s="44" t="s">
         <v>70</v>
       </c>
-      <c r="D2" s="38"/>
-      <c r="E2" s="38"/>
-      <c r="F2" s="38"/>
-      <c r="G2" s="38"/>
-      <c r="H2" s="38"/>
-      <c r="I2" s="39" t="s">
+      <c r="D2" s="44"/>
+      <c r="E2" s="44"/>
+      <c r="F2" s="44"/>
+      <c r="G2" s="44"/>
+      <c r="H2" s="44"/>
+      <c r="I2" s="45" t="s">
         <v>12</v>
       </c>
-      <c r="J2" s="40"/>
-      <c r="K2" s="29"/>
-      <c r="L2" s="29" t="s">
+      <c r="J2" s="46"/>
+      <c r="K2" s="35"/>
+      <c r="L2" s="35" t="s">
         <v>15</v>
       </c>
-      <c r="M2" s="29"/>
-      <c r="N2" s="29"/>
-      <c r="O2" s="29" t="s">
+      <c r="M2" s="35"/>
+      <c r="N2" s="35"/>
+      <c r="O2" s="35" t="s">
         <v>16</v>
       </c>
-      <c r="P2" s="30"/>
-      <c r="Q2" s="31"/>
+      <c r="P2" s="36"/>
+      <c r="Q2" s="37"/>
     </row>
     <row r="3" spans="1:17">
       <c r="A3" s="5" t="s">
@@ -4706,8 +6981,8 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr>
     <tabColor theme="4" tint="0.39997558519241921"/>
   </sheetPr>
@@ -4739,60 +7014,60 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:17" ht="18" customHeight="1" thickBot="1">
-      <c r="A1" s="32" t="s">
+      <c r="A1" s="38" t="s">
         <v>33</v>
       </c>
-      <c r="B1" s="33"/>
-      <c r="C1" s="34" t="s">
+      <c r="B1" s="39"/>
+      <c r="C1" s="40" t="s">
         <v>74</v>
       </c>
-      <c r="D1" s="34"/>
-      <c r="E1" s="35"/>
-      <c r="F1" s="32" t="s">
+      <c r="D1" s="40"/>
+      <c r="E1" s="41"/>
+      <c r="F1" s="38" t="s">
         <v>11</v>
       </c>
-      <c r="G1" s="33"/>
+      <c r="G1" s="39"/>
       <c r="H1" s="3"/>
-      <c r="I1" s="41" t="s">
+      <c r="I1" s="47" t="s">
         <v>28</v>
       </c>
-      <c r="J1" s="42"/>
-      <c r="K1" s="42"/>
-      <c r="L1" s="42"/>
-      <c r="M1" s="42"/>
-      <c r="N1" s="42"/>
-      <c r="O1" s="42"/>
-      <c r="P1" s="42"/>
-      <c r="Q1" s="43"/>
+      <c r="J1" s="48"/>
+      <c r="K1" s="48"/>
+      <c r="L1" s="48"/>
+      <c r="M1" s="48"/>
+      <c r="N1" s="48"/>
+      <c r="O1" s="48"/>
+      <c r="P1" s="48"/>
+      <c r="Q1" s="49"/>
     </row>
     <row r="2" spans="1:17" ht="18" customHeight="1" thickBot="1">
-      <c r="A2" s="36" t="s">
+      <c r="A2" s="42" t="s">
         <v>5</v>
       </c>
-      <c r="B2" s="37"/>
-      <c r="C2" s="38" t="s">
+      <c r="B2" s="43"/>
+      <c r="C2" s="44" t="s">
         <v>75</v>
       </c>
-      <c r="D2" s="38"/>
-      <c r="E2" s="38"/>
-      <c r="F2" s="38"/>
-      <c r="G2" s="38"/>
-      <c r="H2" s="38"/>
-      <c r="I2" s="39" t="s">
+      <c r="D2" s="44"/>
+      <c r="E2" s="44"/>
+      <c r="F2" s="44"/>
+      <c r="G2" s="44"/>
+      <c r="H2" s="44"/>
+      <c r="I2" s="45" t="s">
         <v>12</v>
       </c>
-      <c r="J2" s="40"/>
-      <c r="K2" s="29"/>
-      <c r="L2" s="29" t="s">
+      <c r="J2" s="46"/>
+      <c r="K2" s="35"/>
+      <c r="L2" s="35" t="s">
         <v>15</v>
       </c>
-      <c r="M2" s="29"/>
-      <c r="N2" s="29"/>
-      <c r="O2" s="29" t="s">
+      <c r="M2" s="35"/>
+      <c r="N2" s="35"/>
+      <c r="O2" s="35" t="s">
         <v>16</v>
       </c>
-      <c r="P2" s="30"/>
-      <c r="Q2" s="31"/>
+      <c r="P2" s="36"/>
+      <c r="Q2" s="37"/>
     </row>
     <row r="3" spans="1:17">
       <c r="A3" s="5" t="s">
@@ -6238,8 +8513,8 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr>
     <tabColor theme="4" tint="0.39997558519241921"/>
   </sheetPr>
@@ -6271,60 +8546,60 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:17" ht="18" customHeight="1" thickBot="1">
-      <c r="A1" s="32" t="s">
+      <c r="A1" s="38" t="s">
         <v>33</v>
       </c>
-      <c r="B1" s="33"/>
-      <c r="C1" s="34" t="s">
+      <c r="B1" s="39"/>
+      <c r="C1" s="40" t="s">
         <v>146</v>
       </c>
-      <c r="D1" s="34"/>
-      <c r="E1" s="35"/>
-      <c r="F1" s="32" t="s">
+      <c r="D1" s="40"/>
+      <c r="E1" s="41"/>
+      <c r="F1" s="38" t="s">
         <v>11</v>
       </c>
-      <c r="G1" s="33"/>
+      <c r="G1" s="39"/>
       <c r="H1" s="3"/>
-      <c r="I1" s="41" t="s">
+      <c r="I1" s="47" t="s">
         <v>28</v>
       </c>
-      <c r="J1" s="42"/>
-      <c r="K1" s="42"/>
-      <c r="L1" s="42"/>
-      <c r="M1" s="42"/>
-      <c r="N1" s="42"/>
-      <c r="O1" s="42"/>
-      <c r="P1" s="42"/>
-      <c r="Q1" s="43"/>
+      <c r="J1" s="48"/>
+      <c r="K1" s="48"/>
+      <c r="L1" s="48"/>
+      <c r="M1" s="48"/>
+      <c r="N1" s="48"/>
+      <c r="O1" s="48"/>
+      <c r="P1" s="48"/>
+      <c r="Q1" s="49"/>
     </row>
     <row r="2" spans="1:17" ht="18" customHeight="1" thickBot="1">
-      <c r="A2" s="36" t="s">
+      <c r="A2" s="42" t="s">
         <v>5</v>
       </c>
-      <c r="B2" s="37"/>
-      <c r="C2" s="38" t="s">
+      <c r="B2" s="43"/>
+      <c r="C2" s="44" t="s">
         <v>147</v>
       </c>
-      <c r="D2" s="38"/>
-      <c r="E2" s="38"/>
-      <c r="F2" s="38"/>
-      <c r="G2" s="38"/>
-      <c r="H2" s="38"/>
-      <c r="I2" s="39" t="s">
+      <c r="D2" s="44"/>
+      <c r="E2" s="44"/>
+      <c r="F2" s="44"/>
+      <c r="G2" s="44"/>
+      <c r="H2" s="44"/>
+      <c r="I2" s="45" t="s">
         <v>12</v>
       </c>
-      <c r="J2" s="40"/>
-      <c r="K2" s="29"/>
-      <c r="L2" s="29" t="s">
+      <c r="J2" s="46"/>
+      <c r="K2" s="35"/>
+      <c r="L2" s="35" t="s">
         <v>15</v>
       </c>
-      <c r="M2" s="29"/>
-      <c r="N2" s="29"/>
-      <c r="O2" s="29" t="s">
+      <c r="M2" s="35"/>
+      <c r="N2" s="35"/>
+      <c r="O2" s="35" t="s">
         <v>16</v>
       </c>
-      <c r="P2" s="30"/>
-      <c r="Q2" s="31"/>
+      <c r="P2" s="36"/>
+      <c r="Q2" s="37"/>
     </row>
     <row r="3" spans="1:17">
       <c r="A3" s="5" t="s">
@@ -7757,14 +10032,14 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr>
     <tabColor theme="5" tint="0.39997558519241921"/>
   </sheetPr>
   <dimension ref="A1:Q74"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
@@ -7790,60 +10065,60 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:17" ht="18" customHeight="1" thickBot="1">
-      <c r="A1" s="32" t="s">
+      <c r="A1" s="38" t="s">
         <v>33</v>
       </c>
-      <c r="B1" s="33"/>
-      <c r="C1" s="34" t="s">
+      <c r="B1" s="39"/>
+      <c r="C1" s="40" t="s">
         <v>76</v>
       </c>
-      <c r="D1" s="34"/>
-      <c r="E1" s="35"/>
-      <c r="F1" s="32" t="s">
+      <c r="D1" s="40"/>
+      <c r="E1" s="41"/>
+      <c r="F1" s="38" t="s">
         <v>11</v>
       </c>
-      <c r="G1" s="33"/>
+      <c r="G1" s="39"/>
       <c r="H1" s="3"/>
-      <c r="I1" s="41" t="s">
+      <c r="I1" s="47" t="s">
         <v>28</v>
       </c>
-      <c r="J1" s="42"/>
-      <c r="K1" s="42"/>
-      <c r="L1" s="42"/>
-      <c r="M1" s="42"/>
-      <c r="N1" s="42"/>
-      <c r="O1" s="42"/>
-      <c r="P1" s="42"/>
-      <c r="Q1" s="43"/>
+      <c r="J1" s="48"/>
+      <c r="K1" s="48"/>
+      <c r="L1" s="48"/>
+      <c r="M1" s="48"/>
+      <c r="N1" s="48"/>
+      <c r="O1" s="48"/>
+      <c r="P1" s="48"/>
+      <c r="Q1" s="49"/>
     </row>
     <row r="2" spans="1:17" ht="18" customHeight="1" thickBot="1">
-      <c r="A2" s="36" t="s">
+      <c r="A2" s="42" t="s">
         <v>5</v>
       </c>
-      <c r="B2" s="37"/>
-      <c r="C2" s="38" t="s">
+      <c r="B2" s="43"/>
+      <c r="C2" s="44" t="s">
         <v>77</v>
       </c>
-      <c r="D2" s="38"/>
-      <c r="E2" s="38"/>
-      <c r="F2" s="38"/>
-      <c r="G2" s="38"/>
-      <c r="H2" s="38"/>
-      <c r="I2" s="39" t="s">
+      <c r="D2" s="44"/>
+      <c r="E2" s="44"/>
+      <c r="F2" s="44"/>
+      <c r="G2" s="44"/>
+      <c r="H2" s="44"/>
+      <c r="I2" s="45" t="s">
         <v>12</v>
       </c>
-      <c r="J2" s="40"/>
-      <c r="K2" s="29"/>
-      <c r="L2" s="29" t="s">
+      <c r="J2" s="46"/>
+      <c r="K2" s="35"/>
+      <c r="L2" s="35" t="s">
         <v>15</v>
       </c>
-      <c r="M2" s="29"/>
-      <c r="N2" s="29"/>
-      <c r="O2" s="29" t="s">
+      <c r="M2" s="35"/>
+      <c r="N2" s="35"/>
+      <c r="O2" s="35" t="s">
         <v>16</v>
       </c>
-      <c r="P2" s="30"/>
-      <c r="Q2" s="31"/>
+      <c r="P2" s="36"/>
+      <c r="Q2" s="37"/>
     </row>
     <row r="3" spans="1:17">
       <c r="A3" s="5" t="s">
@@ -9365,8 +11640,8 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr>
     <tabColor theme="5" tint="0.39997558519241921"/>
   </sheetPr>
@@ -9398,60 +11673,60 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:17" ht="18" customHeight="1" thickBot="1">
-      <c r="A1" s="32" t="s">
+      <c r="A1" s="38" t="s">
         <v>33</v>
       </c>
-      <c r="B1" s="33"/>
-      <c r="C1" s="34" t="s">
+      <c r="B1" s="39"/>
+      <c r="C1" s="40" t="s">
         <v>144</v>
       </c>
-      <c r="D1" s="34"/>
-      <c r="E1" s="35"/>
-      <c r="F1" s="32" t="s">
+      <c r="D1" s="40"/>
+      <c r="E1" s="41"/>
+      <c r="F1" s="38" t="s">
         <v>11</v>
       </c>
-      <c r="G1" s="33"/>
+      <c r="G1" s="39"/>
       <c r="H1" s="3"/>
-      <c r="I1" s="41" t="s">
+      <c r="I1" s="47" t="s">
         <v>28</v>
       </c>
-      <c r="J1" s="42"/>
-      <c r="K1" s="42"/>
-      <c r="L1" s="42"/>
-      <c r="M1" s="42"/>
-      <c r="N1" s="42"/>
-      <c r="O1" s="42"/>
-      <c r="P1" s="42"/>
-      <c r="Q1" s="43"/>
+      <c r="J1" s="48"/>
+      <c r="K1" s="48"/>
+      <c r="L1" s="48"/>
+      <c r="M1" s="48"/>
+      <c r="N1" s="48"/>
+      <c r="O1" s="48"/>
+      <c r="P1" s="48"/>
+      <c r="Q1" s="49"/>
     </row>
     <row r="2" spans="1:17" ht="18" customHeight="1" thickBot="1">
-      <c r="A2" s="36" t="s">
+      <c r="A2" s="42" t="s">
         <v>5</v>
       </c>
-      <c r="B2" s="37"/>
-      <c r="C2" s="38" t="s">
+      <c r="B2" s="43"/>
+      <c r="C2" s="44" t="s">
         <v>145</v>
       </c>
-      <c r="D2" s="38"/>
-      <c r="E2" s="38"/>
-      <c r="F2" s="38"/>
-      <c r="G2" s="38"/>
-      <c r="H2" s="38"/>
-      <c r="I2" s="39" t="s">
+      <c r="D2" s="44"/>
+      <c r="E2" s="44"/>
+      <c r="F2" s="44"/>
+      <c r="G2" s="44"/>
+      <c r="H2" s="44"/>
+      <c r="I2" s="45" t="s">
         <v>12</v>
       </c>
-      <c r="J2" s="40"/>
-      <c r="K2" s="29"/>
-      <c r="L2" s="29" t="s">
+      <c r="J2" s="46"/>
+      <c r="K2" s="35"/>
+      <c r="L2" s="35" t="s">
         <v>15</v>
       </c>
-      <c r="M2" s="29"/>
-      <c r="N2" s="29"/>
-      <c r="O2" s="29" t="s">
+      <c r="M2" s="35"/>
+      <c r="N2" s="35"/>
+      <c r="O2" s="35" t="s">
         <v>16</v>
       </c>
-      <c r="P2" s="30"/>
-      <c r="Q2" s="31"/>
+      <c r="P2" s="36"/>
+      <c r="Q2" s="37"/>
     </row>
     <row r="3" spans="1:17">
       <c r="A3" s="5" t="s">
@@ -10884,8 +13159,8 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr>
     <tabColor theme="5" tint="0.39997558519241921"/>
   </sheetPr>
@@ -10917,60 +13192,60 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:17" ht="18" customHeight="1" thickBot="1">
-      <c r="A1" s="32" t="s">
+      <c r="A1" s="38" t="s">
         <v>33</v>
       </c>
-      <c r="B1" s="33"/>
-      <c r="C1" s="34" t="s">
+      <c r="B1" s="39"/>
+      <c r="C1" s="40" t="s">
         <v>178</v>
       </c>
-      <c r="D1" s="34"/>
-      <c r="E1" s="35"/>
-      <c r="F1" s="32" t="s">
+      <c r="D1" s="40"/>
+      <c r="E1" s="41"/>
+      <c r="F1" s="38" t="s">
         <v>11</v>
       </c>
-      <c r="G1" s="33"/>
+      <c r="G1" s="39"/>
       <c r="H1" s="3"/>
-      <c r="I1" s="41" t="s">
+      <c r="I1" s="47" t="s">
         <v>28</v>
       </c>
-      <c r="J1" s="42"/>
-      <c r="K1" s="42"/>
-      <c r="L1" s="42"/>
-      <c r="M1" s="42"/>
-      <c r="N1" s="42"/>
-      <c r="O1" s="42"/>
-      <c r="P1" s="42"/>
-      <c r="Q1" s="43"/>
+      <c r="J1" s="48"/>
+      <c r="K1" s="48"/>
+      <c r="L1" s="48"/>
+      <c r="M1" s="48"/>
+      <c r="N1" s="48"/>
+      <c r="O1" s="48"/>
+      <c r="P1" s="48"/>
+      <c r="Q1" s="49"/>
     </row>
     <row r="2" spans="1:17" ht="18" customHeight="1" thickBot="1">
-      <c r="A2" s="36" t="s">
+      <c r="A2" s="42" t="s">
         <v>5</v>
       </c>
-      <c r="B2" s="37"/>
-      <c r="C2" s="38" t="s">
+      <c r="B2" s="43"/>
+      <c r="C2" s="44" t="s">
         <v>179</v>
       </c>
-      <c r="D2" s="38"/>
-      <c r="E2" s="38"/>
-      <c r="F2" s="38"/>
-      <c r="G2" s="38"/>
-      <c r="H2" s="38"/>
-      <c r="I2" s="39" t="s">
+      <c r="D2" s="44"/>
+      <c r="E2" s="44"/>
+      <c r="F2" s="44"/>
+      <c r="G2" s="44"/>
+      <c r="H2" s="44"/>
+      <c r="I2" s="45" t="s">
         <v>12</v>
       </c>
-      <c r="J2" s="40"/>
-      <c r="K2" s="29"/>
-      <c r="L2" s="29" t="s">
+      <c r="J2" s="46"/>
+      <c r="K2" s="35"/>
+      <c r="L2" s="35" t="s">
         <v>15</v>
       </c>
-      <c r="M2" s="29"/>
-      <c r="N2" s="29"/>
-      <c r="O2" s="29" t="s">
+      <c r="M2" s="35"/>
+      <c r="N2" s="35"/>
+      <c r="O2" s="35" t="s">
         <v>16</v>
       </c>
-      <c r="P2" s="30"/>
-      <c r="Q2" s="31"/>
+      <c r="P2" s="36"/>
+      <c r="Q2" s="37"/>
     </row>
     <row r="3" spans="1:17">
       <c r="A3" s="5" t="s">
@@ -12403,8 +14678,8 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr>
     <tabColor theme="7" tint="0.39997558519241921"/>
   </sheetPr>
@@ -12436,60 +14711,60 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:17" ht="18" customHeight="1" thickBot="1">
-      <c r="A1" s="32" t="s">
+      <c r="A1" s="38" t="s">
         <v>33</v>
       </c>
-      <c r="B1" s="33"/>
-      <c r="C1" s="34" t="s">
+      <c r="B1" s="39"/>
+      <c r="C1" s="40" t="s">
         <v>113</v>
       </c>
-      <c r="D1" s="34"/>
-      <c r="E1" s="35"/>
-      <c r="F1" s="32" t="s">
+      <c r="D1" s="40"/>
+      <c r="E1" s="41"/>
+      <c r="F1" s="38" t="s">
         <v>11</v>
       </c>
-      <c r="G1" s="33"/>
+      <c r="G1" s="39"/>
       <c r="H1" s="3"/>
-      <c r="I1" s="41" t="s">
+      <c r="I1" s="47" t="s">
         <v>28</v>
       </c>
-      <c r="J1" s="42"/>
-      <c r="K1" s="42"/>
-      <c r="L1" s="42"/>
-      <c r="M1" s="42"/>
-      <c r="N1" s="42"/>
-      <c r="O1" s="42"/>
-      <c r="P1" s="42"/>
-      <c r="Q1" s="43"/>
+      <c r="J1" s="48"/>
+      <c r="K1" s="48"/>
+      <c r="L1" s="48"/>
+      <c r="M1" s="48"/>
+      <c r="N1" s="48"/>
+      <c r="O1" s="48"/>
+      <c r="P1" s="48"/>
+      <c r="Q1" s="49"/>
     </row>
     <row r="2" spans="1:17" ht="18" customHeight="1" thickBot="1">
-      <c r="A2" s="36" t="s">
+      <c r="A2" s="42" t="s">
         <v>5</v>
       </c>
-      <c r="B2" s="37"/>
-      <c r="C2" s="38" t="s">
+      <c r="B2" s="43"/>
+      <c r="C2" s="44" t="s">
         <v>114</v>
       </c>
-      <c r="D2" s="38"/>
-      <c r="E2" s="38"/>
-      <c r="F2" s="38"/>
-      <c r="G2" s="38"/>
-      <c r="H2" s="38"/>
-      <c r="I2" s="39" t="s">
+      <c r="D2" s="44"/>
+      <c r="E2" s="44"/>
+      <c r="F2" s="44"/>
+      <c r="G2" s="44"/>
+      <c r="H2" s="44"/>
+      <c r="I2" s="45" t="s">
         <v>12</v>
       </c>
-      <c r="J2" s="40"/>
-      <c r="K2" s="29"/>
-      <c r="L2" s="29" t="s">
+      <c r="J2" s="46"/>
+      <c r="K2" s="35"/>
+      <c r="L2" s="35" t="s">
         <v>15</v>
       </c>
-      <c r="M2" s="29"/>
-      <c r="N2" s="29"/>
-      <c r="O2" s="29" t="s">
+      <c r="M2" s="35"/>
+      <c r="N2" s="35"/>
+      <c r="O2" s="35" t="s">
         <v>16</v>
       </c>
-      <c r="P2" s="30"/>
-      <c r="Q2" s="31"/>
+      <c r="P2" s="36"/>
+      <c r="Q2" s="37"/>
     </row>
     <row r="3" spans="1:17">
       <c r="A3" s="5" t="s">
@@ -13881,1514 +16156,4 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="landscape" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr>
-    <tabColor theme="6" tint="0.39997558519241921"/>
-  </sheetPr>
-  <dimension ref="A1:Q70"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B16" sqref="B16"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
-  <cols>
-    <col min="1" max="1" width="5.625" customWidth="1"/>
-    <col min="2" max="2" width="23.125" customWidth="1"/>
-    <col min="3" max="3" width="13" customWidth="1"/>
-    <col min="4" max="4" width="6.625" customWidth="1"/>
-    <col min="5" max="5" width="23.125" customWidth="1"/>
-    <col min="6" max="6" width="9.25" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="8.75" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="27.25" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="3.875" style="23" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="3.875" style="23" customWidth="1"/>
-    <col min="11" max="11" width="8.75" style="23" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="3.875" style="23" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="3.875" style="23" customWidth="1"/>
-    <col min="14" max="14" width="8.75" style="23" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="3.875" style="23" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="3.875" style="23" customWidth="1"/>
-    <col min="17" max="17" width="8.75" style="23" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:17" ht="18" customHeight="1" thickBot="1">
-      <c r="A1" s="32" t="s">
-        <v>33</v>
-      </c>
-      <c r="B1" s="33"/>
-      <c r="C1" s="34" t="s">
-        <v>35</v>
-      </c>
-      <c r="D1" s="34"/>
-      <c r="E1" s="35"/>
-      <c r="F1" s="32" t="s">
-        <v>11</v>
-      </c>
-      <c r="G1" s="33"/>
-      <c r="H1" s="3"/>
-      <c r="I1" s="41" t="s">
-        <v>28</v>
-      </c>
-      <c r="J1" s="42"/>
-      <c r="K1" s="42"/>
-      <c r="L1" s="42"/>
-      <c r="M1" s="42"/>
-      <c r="N1" s="42"/>
-      <c r="O1" s="42"/>
-      <c r="P1" s="42"/>
-      <c r="Q1" s="43"/>
-    </row>
-    <row r="2" spans="1:17" ht="18" customHeight="1" thickBot="1">
-      <c r="A2" s="36" t="s">
-        <v>5</v>
-      </c>
-      <c r="B2" s="37"/>
-      <c r="C2" s="38" t="s">
-        <v>22</v>
-      </c>
-      <c r="D2" s="38"/>
-      <c r="E2" s="38"/>
-      <c r="F2" s="38"/>
-      <c r="G2" s="38"/>
-      <c r="H2" s="38"/>
-      <c r="I2" s="39" t="s">
-        <v>12</v>
-      </c>
-      <c r="J2" s="40"/>
-      <c r="K2" s="29"/>
-      <c r="L2" s="29" t="s">
-        <v>15</v>
-      </c>
-      <c r="M2" s="29"/>
-      <c r="N2" s="29"/>
-      <c r="O2" s="29" t="s">
-        <v>16</v>
-      </c>
-      <c r="P2" s="30"/>
-      <c r="Q2" s="31"/>
-    </row>
-    <row r="3" spans="1:17">
-      <c r="A3" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="B3" s="6" t="s">
-        <v>1</v>
-      </c>
-      <c r="C3" s="6" t="s">
-        <v>2</v>
-      </c>
-      <c r="D3" s="6" t="s">
-        <v>23</v>
-      </c>
-      <c r="E3" s="6" t="s">
-        <v>4</v>
-      </c>
-      <c r="F3" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="G3" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="H3" s="6" t="s">
-        <v>0</v>
-      </c>
-      <c r="I3" s="15" t="s">
-        <v>13</v>
-      </c>
-      <c r="J3" s="15" t="s">
-        <v>14</v>
-      </c>
-      <c r="K3" s="15" t="s">
-        <v>20</v>
-      </c>
-      <c r="L3" s="15" t="s">
-        <v>13</v>
-      </c>
-      <c r="M3" s="15" t="s">
-        <v>14</v>
-      </c>
-      <c r="N3" s="15" t="s">
-        <v>20</v>
-      </c>
-      <c r="O3" s="15" t="s">
-        <v>13</v>
-      </c>
-      <c r="P3" s="15" t="s">
-        <v>14</v>
-      </c>
-      <c r="Q3" s="15" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="4" spans="1:17" s="14" customFormat="1">
-      <c r="A4" s="7"/>
-      <c r="B4" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="C4" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="D4" s="1"/>
-      <c r="E4" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="F4" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="G4" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="H4" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="I4" s="16"/>
-      <c r="J4" s="16"/>
-      <c r="K4" s="16"/>
-      <c r="L4" s="16"/>
-      <c r="M4" s="16"/>
-      <c r="N4" s="16"/>
-      <c r="O4" s="16"/>
-      <c r="P4" s="16"/>
-      <c r="Q4" s="16"/>
-    </row>
-    <row r="5" spans="1:17" s="14" customFormat="1">
-      <c r="A5" s="7"/>
-      <c r="B5" s="1"/>
-      <c r="C5" s="1"/>
-      <c r="D5" s="1"/>
-      <c r="E5" s="1"/>
-      <c r="F5" s="2"/>
-      <c r="G5" s="2"/>
-      <c r="H5" s="1"/>
-      <c r="I5" s="16"/>
-      <c r="J5" s="16"/>
-      <c r="K5" s="16"/>
-      <c r="L5" s="16"/>
-      <c r="M5" s="16"/>
-      <c r="N5" s="16"/>
-      <c r="O5" s="16"/>
-      <c r="P5" s="16"/>
-      <c r="Q5" s="16"/>
-    </row>
-    <row r="6" spans="1:17" s="14" customFormat="1">
-      <c r="A6" s="7"/>
-      <c r="B6" s="44" t="s">
-        <v>17</v>
-      </c>
-      <c r="C6" s="44" t="s">
-        <v>170</v>
-      </c>
-      <c r="D6" s="44">
-        <v>255</v>
-      </c>
-      <c r="E6" s="44"/>
-      <c r="F6" s="45"/>
-      <c r="G6" s="45"/>
-      <c r="H6" s="44" t="s">
-        <v>153</v>
-      </c>
-      <c r="I6" s="17"/>
-      <c r="J6" s="17"/>
-      <c r="K6" s="18"/>
-      <c r="L6" s="16"/>
-      <c r="M6" s="16"/>
-      <c r="N6" s="16"/>
-      <c r="O6" s="16"/>
-      <c r="P6" s="16"/>
-      <c r="Q6" s="16"/>
-    </row>
-    <row r="7" spans="1:17" s="14" customFormat="1">
-      <c r="A7" s="7"/>
-      <c r="B7" s="44" t="s">
-        <v>154</v>
-      </c>
-      <c r="C7" s="44" t="s">
-        <v>168</v>
-      </c>
-      <c r="D7" s="44"/>
-      <c r="E7" s="44"/>
-      <c r="F7" s="45"/>
-      <c r="G7" s="45"/>
-      <c r="H7" s="44" t="s">
-        <v>155</v>
-      </c>
-      <c r="I7" s="18"/>
-      <c r="J7" s="18"/>
-      <c r="K7" s="18"/>
-      <c r="L7" s="16"/>
-      <c r="M7" s="16"/>
-      <c r="N7" s="16"/>
-      <c r="O7" s="16"/>
-      <c r="P7" s="16"/>
-      <c r="Q7" s="16"/>
-    </row>
-    <row r="8" spans="1:17" s="14" customFormat="1">
-      <c r="A8" s="7"/>
-      <c r="B8" s="44" t="s">
-        <v>156</v>
-      </c>
-      <c r="C8" s="44" t="s">
-        <v>165</v>
-      </c>
-      <c r="D8" s="44"/>
-      <c r="E8" s="44"/>
-      <c r="F8" s="45" t="s">
-        <v>7</v>
-      </c>
-      <c r="G8" s="45"/>
-      <c r="H8" s="44" t="s">
-        <v>157</v>
-      </c>
-      <c r="I8" s="18"/>
-      <c r="J8" s="18"/>
-      <c r="K8" s="18"/>
-      <c r="L8" s="16"/>
-      <c r="M8" s="16"/>
-      <c r="N8" s="16"/>
-      <c r="O8" s="16"/>
-      <c r="P8" s="16"/>
-      <c r="Q8" s="16"/>
-    </row>
-    <row r="9" spans="1:17" s="14" customFormat="1">
-      <c r="A9" s="7"/>
-      <c r="B9" s="44" t="s">
-        <v>158</v>
-      </c>
-      <c r="C9" s="44" t="s">
-        <v>166</v>
-      </c>
-      <c r="D9" s="44"/>
-      <c r="E9" s="44"/>
-      <c r="F9" s="45" t="s">
-        <v>7</v>
-      </c>
-      <c r="G9" s="45"/>
-      <c r="H9" s="44" t="s">
-        <v>159</v>
-      </c>
-      <c r="I9" s="18"/>
-      <c r="J9" s="18"/>
-      <c r="K9" s="18"/>
-      <c r="L9" s="16"/>
-      <c r="M9" s="16"/>
-      <c r="N9" s="16"/>
-      <c r="O9" s="16"/>
-      <c r="P9" s="16"/>
-      <c r="Q9" s="16"/>
-    </row>
-    <row r="10" spans="1:17" s="14" customFormat="1">
-      <c r="A10" s="10"/>
-      <c r="B10" s="44" t="s">
-        <v>175</v>
-      </c>
-      <c r="C10" s="44" t="s">
-        <v>167</v>
-      </c>
-      <c r="D10" s="44"/>
-      <c r="E10" s="44"/>
-      <c r="F10" s="45" t="s">
-        <v>7</v>
-      </c>
-      <c r="G10" s="45"/>
-      <c r="H10" s="44" t="s">
-        <v>171</v>
-      </c>
-      <c r="I10" s="19"/>
-      <c r="J10" s="19"/>
-      <c r="K10" s="19"/>
-      <c r="L10" s="19"/>
-      <c r="M10" s="19"/>
-      <c r="N10" s="19"/>
-      <c r="O10" s="19"/>
-      <c r="P10" s="19"/>
-      <c r="Q10" s="19"/>
-    </row>
-    <row r="11" spans="1:17" s="14" customFormat="1">
-      <c r="A11" s="7"/>
-      <c r="B11" s="44" t="s">
-        <v>174</v>
-      </c>
-      <c r="C11" s="44" t="s">
-        <v>169</v>
-      </c>
-      <c r="D11" s="44">
-        <v>255</v>
-      </c>
-      <c r="E11" s="44"/>
-      <c r="F11" s="45"/>
-      <c r="G11" s="45"/>
-      <c r="H11" s="44" t="s">
-        <v>176</v>
-      </c>
-      <c r="I11" s="17"/>
-      <c r="J11" s="17"/>
-      <c r="K11" s="16"/>
-      <c r="L11" s="16"/>
-      <c r="M11" s="16"/>
-      <c r="N11" s="16"/>
-      <c r="O11" s="16"/>
-      <c r="P11" s="16"/>
-      <c r="Q11" s="16"/>
-    </row>
-    <row r="12" spans="1:17" s="14" customFormat="1">
-      <c r="A12" s="7"/>
-      <c r="B12" s="46" t="s">
-        <v>160</v>
-      </c>
-      <c r="C12" s="46" t="s">
-        <v>172</v>
-      </c>
-      <c r="D12" s="46"/>
-      <c r="E12" s="48"/>
-      <c r="F12" s="48"/>
-      <c r="G12" s="48"/>
-      <c r="H12" s="49" t="s">
-        <v>173</v>
-      </c>
-      <c r="I12" s="17"/>
-      <c r="J12" s="17"/>
-      <c r="K12" s="16"/>
-      <c r="L12" s="16"/>
-      <c r="M12" s="16"/>
-      <c r="N12" s="16"/>
-      <c r="O12" s="16"/>
-      <c r="P12" s="16"/>
-      <c r="Q12" s="16"/>
-    </row>
-    <row r="13" spans="1:17" s="14" customFormat="1">
-      <c r="A13" s="7"/>
-      <c r="B13" s="44" t="s">
-        <v>161</v>
-      </c>
-      <c r="C13" s="44" t="s">
-        <v>170</v>
-      </c>
-      <c r="D13" s="44">
-        <v>64</v>
-      </c>
-      <c r="E13" s="44"/>
-      <c r="F13" s="45"/>
-      <c r="G13" s="47"/>
-      <c r="H13" s="44" t="s">
-        <v>162</v>
-      </c>
-      <c r="I13" s="17"/>
-      <c r="J13" s="17"/>
-      <c r="K13" s="18"/>
-      <c r="L13" s="18"/>
-      <c r="M13" s="18"/>
-      <c r="N13" s="18"/>
-      <c r="O13" s="16"/>
-      <c r="P13" s="16"/>
-      <c r="Q13" s="16"/>
-    </row>
-    <row r="14" spans="1:17" s="14" customFormat="1">
-      <c r="A14" s="7"/>
-      <c r="B14" s="44" t="s">
-        <v>163</v>
-      </c>
-      <c r="C14" s="44" t="s">
-        <v>165</v>
-      </c>
-      <c r="D14" s="44"/>
-      <c r="E14" s="44"/>
-      <c r="F14" s="45"/>
-      <c r="G14" s="47"/>
-      <c r="H14" s="44" t="s">
-        <v>164</v>
-      </c>
-      <c r="I14" s="18"/>
-      <c r="J14" s="18"/>
-      <c r="K14" s="18"/>
-      <c r="L14" s="16"/>
-      <c r="M14" s="16"/>
-      <c r="N14" s="16"/>
-      <c r="O14" s="16"/>
-      <c r="P14" s="16"/>
-      <c r="Q14" s="16"/>
-    </row>
-    <row r="15" spans="1:17" s="14" customFormat="1">
-      <c r="A15" s="7"/>
-      <c r="B15" s="1"/>
-      <c r="C15" s="1"/>
-      <c r="D15" s="1"/>
-      <c r="E15" s="1"/>
-      <c r="F15" s="2"/>
-      <c r="G15" s="25"/>
-      <c r="H15" s="1"/>
-      <c r="I15" s="16"/>
-      <c r="J15" s="16"/>
-      <c r="K15" s="16"/>
-      <c r="L15" s="16"/>
-      <c r="M15" s="16"/>
-      <c r="N15" s="16"/>
-      <c r="O15" s="16"/>
-      <c r="P15" s="16"/>
-      <c r="Q15" s="16"/>
-    </row>
-    <row r="16" spans="1:17" s="14" customFormat="1">
-      <c r="A16" s="7"/>
-      <c r="B16" s="1"/>
-      <c r="C16" s="1"/>
-      <c r="D16" s="1"/>
-      <c r="E16" s="1"/>
-      <c r="F16" s="2"/>
-      <c r="G16" s="25"/>
-      <c r="H16" s="1"/>
-      <c r="I16" s="16"/>
-      <c r="J16" s="16"/>
-      <c r="K16" s="16"/>
-      <c r="L16" s="16"/>
-      <c r="M16" s="16"/>
-      <c r="N16" s="16"/>
-      <c r="O16" s="16"/>
-      <c r="P16" s="16"/>
-      <c r="Q16" s="16"/>
-    </row>
-    <row r="17" spans="1:17" s="14" customFormat="1">
-      <c r="A17" s="7"/>
-      <c r="B17" s="1"/>
-      <c r="C17" s="1"/>
-      <c r="D17" s="1"/>
-      <c r="E17" s="1"/>
-      <c r="F17" s="2"/>
-      <c r="G17" s="25"/>
-      <c r="H17" s="1"/>
-      <c r="I17" s="16"/>
-      <c r="J17" s="16"/>
-      <c r="K17" s="16"/>
-      <c r="L17" s="16"/>
-      <c r="M17" s="16"/>
-      <c r="N17" s="16"/>
-      <c r="O17" s="16"/>
-      <c r="P17" s="16"/>
-      <c r="Q17" s="16"/>
-    </row>
-    <row r="18" spans="1:17" s="14" customFormat="1">
-      <c r="A18" s="7"/>
-      <c r="B18" s="1"/>
-      <c r="C18" s="1"/>
-      <c r="D18" s="1"/>
-      <c r="E18" s="1"/>
-      <c r="F18" s="2"/>
-      <c r="G18" s="25"/>
-      <c r="H18" s="1"/>
-      <c r="I18" s="17"/>
-      <c r="J18" s="17"/>
-      <c r="K18" s="16"/>
-      <c r="L18" s="16"/>
-      <c r="M18" s="16"/>
-      <c r="N18" s="16"/>
-      <c r="O18" s="16"/>
-      <c r="P18" s="16"/>
-      <c r="Q18" s="16"/>
-    </row>
-    <row r="19" spans="1:17" s="14" customFormat="1">
-      <c r="A19" s="7"/>
-      <c r="B19" s="1"/>
-      <c r="C19" s="1"/>
-      <c r="D19" s="1"/>
-      <c r="E19" s="1"/>
-      <c r="F19" s="2"/>
-      <c r="G19" s="25"/>
-      <c r="H19" s="1"/>
-      <c r="I19" s="17"/>
-      <c r="J19" s="17"/>
-      <c r="K19" s="16"/>
-      <c r="L19" s="20"/>
-      <c r="M19" s="20"/>
-      <c r="N19" s="16"/>
-      <c r="O19" s="16"/>
-      <c r="P19" s="16"/>
-      <c r="Q19" s="16"/>
-    </row>
-    <row r="20" spans="1:17" s="14" customFormat="1">
-      <c r="A20" s="7"/>
-      <c r="B20" s="1"/>
-      <c r="C20" s="1"/>
-      <c r="D20" s="1"/>
-      <c r="E20" s="1"/>
-      <c r="F20" s="2"/>
-      <c r="G20" s="25"/>
-      <c r="H20" s="1"/>
-      <c r="I20" s="17"/>
-      <c r="J20" s="17"/>
-      <c r="K20" s="16"/>
-      <c r="L20" s="20"/>
-      <c r="M20" s="20"/>
-      <c r="N20" s="16"/>
-      <c r="O20" s="16"/>
-      <c r="P20" s="16"/>
-      <c r="Q20" s="16"/>
-    </row>
-    <row r="21" spans="1:17" s="14" customFormat="1">
-      <c r="A21" s="7"/>
-      <c r="B21" s="1"/>
-      <c r="C21" s="1"/>
-      <c r="D21" s="1"/>
-      <c r="E21" s="1"/>
-      <c r="F21" s="2"/>
-      <c r="G21" s="25"/>
-      <c r="H21" s="1"/>
-      <c r="I21" s="17"/>
-      <c r="J21" s="17"/>
-      <c r="K21" s="16"/>
-      <c r="L21" s="16"/>
-      <c r="M21" s="16"/>
-      <c r="N21" s="16"/>
-      <c r="O21" s="16"/>
-      <c r="P21" s="16"/>
-      <c r="Q21" s="16"/>
-    </row>
-    <row r="22" spans="1:17" s="14" customFormat="1">
-      <c r="A22" s="7"/>
-      <c r="B22" s="1"/>
-      <c r="C22" s="1"/>
-      <c r="D22" s="1"/>
-      <c r="E22" s="1"/>
-      <c r="F22" s="2"/>
-      <c r="G22" s="25"/>
-      <c r="H22" s="1"/>
-      <c r="I22" s="17"/>
-      <c r="J22" s="17"/>
-      <c r="K22" s="16"/>
-      <c r="L22" s="16"/>
-      <c r="M22" s="16"/>
-      <c r="N22" s="16"/>
-      <c r="O22" s="16"/>
-      <c r="P22" s="16"/>
-      <c r="Q22" s="16"/>
-    </row>
-    <row r="23" spans="1:17" s="14" customFormat="1">
-      <c r="A23" s="7"/>
-      <c r="B23" s="1"/>
-      <c r="C23" s="1"/>
-      <c r="D23" s="1"/>
-      <c r="E23" s="1"/>
-      <c r="F23" s="2"/>
-      <c r="G23" s="25"/>
-      <c r="H23" s="1"/>
-      <c r="I23" s="17"/>
-      <c r="J23" s="17"/>
-      <c r="K23" s="16"/>
-      <c r="L23" s="16"/>
-      <c r="M23" s="16"/>
-      <c r="N23" s="16"/>
-      <c r="O23" s="16"/>
-      <c r="P23" s="16"/>
-      <c r="Q23" s="16"/>
-    </row>
-    <row r="24" spans="1:17" s="14" customFormat="1">
-      <c r="A24" s="7"/>
-      <c r="B24" s="1"/>
-      <c r="C24" s="1"/>
-      <c r="D24" s="1"/>
-      <c r="E24" s="7"/>
-      <c r="F24" s="25"/>
-      <c r="G24" s="25"/>
-      <c r="H24" s="1"/>
-      <c r="I24" s="17"/>
-      <c r="J24" s="17"/>
-      <c r="K24" s="16"/>
-      <c r="L24" s="20"/>
-      <c r="M24" s="20"/>
-      <c r="N24" s="16"/>
-      <c r="O24" s="16"/>
-      <c r="P24" s="16"/>
-      <c r="Q24" s="16"/>
-    </row>
-    <row r="25" spans="1:17" s="14" customFormat="1">
-      <c r="A25" s="7"/>
-      <c r="B25" s="1"/>
-      <c r="C25" s="1"/>
-      <c r="D25" s="1"/>
-      <c r="E25" s="7"/>
-      <c r="F25" s="25"/>
-      <c r="G25" s="25"/>
-      <c r="H25" s="1"/>
-      <c r="I25" s="17"/>
-      <c r="J25" s="17"/>
-      <c r="K25" s="16"/>
-      <c r="L25" s="16"/>
-      <c r="M25" s="16"/>
-      <c r="N25" s="16"/>
-      <c r="O25" s="16"/>
-      <c r="P25" s="16"/>
-      <c r="Q25" s="16"/>
-    </row>
-    <row r="26" spans="1:17" s="14" customFormat="1">
-      <c r="A26" s="7"/>
-      <c r="B26" s="1"/>
-      <c r="C26" s="1"/>
-      <c r="D26" s="1"/>
-      <c r="E26" s="7"/>
-      <c r="F26" s="25"/>
-      <c r="G26" s="25"/>
-      <c r="H26" s="1"/>
-      <c r="I26" s="17"/>
-      <c r="J26" s="17"/>
-      <c r="K26" s="16"/>
-      <c r="L26" s="16"/>
-      <c r="M26" s="16"/>
-      <c r="N26" s="16"/>
-      <c r="O26" s="20"/>
-      <c r="P26" s="20"/>
-      <c r="Q26" s="16"/>
-    </row>
-    <row r="27" spans="1:17" s="14" customFormat="1">
-      <c r="A27" s="7"/>
-      <c r="B27" s="1"/>
-      <c r="C27" s="1"/>
-      <c r="D27" s="1"/>
-      <c r="E27" s="1"/>
-      <c r="F27" s="2"/>
-      <c r="G27" s="25"/>
-      <c r="H27" s="1"/>
-      <c r="I27" s="17"/>
-      <c r="J27" s="17"/>
-      <c r="K27" s="16"/>
-      <c r="L27" s="16"/>
-      <c r="M27" s="16"/>
-      <c r="N27" s="16"/>
-      <c r="O27" s="16"/>
-      <c r="P27" s="16"/>
-      <c r="Q27" s="16"/>
-    </row>
-    <row r="28" spans="1:17" s="14" customFormat="1">
-      <c r="A28" s="7"/>
-      <c r="B28" s="1"/>
-      <c r="C28" s="1"/>
-      <c r="D28" s="1"/>
-      <c r="E28" s="1"/>
-      <c r="F28" s="2"/>
-      <c r="G28" s="25"/>
-      <c r="H28" s="1"/>
-      <c r="I28" s="17"/>
-      <c r="J28" s="17"/>
-      <c r="K28" s="16"/>
-      <c r="L28" s="20"/>
-      <c r="M28" s="20"/>
-      <c r="N28" s="16"/>
-      <c r="O28" s="16"/>
-      <c r="P28" s="16"/>
-      <c r="Q28" s="16"/>
-    </row>
-    <row r="29" spans="1:17" s="14" customFormat="1">
-      <c r="A29" s="7"/>
-      <c r="B29" s="1"/>
-      <c r="C29" s="1"/>
-      <c r="D29" s="1"/>
-      <c r="E29" s="7"/>
-      <c r="F29" s="25"/>
-      <c r="G29" s="25"/>
-      <c r="H29" s="1"/>
-      <c r="I29" s="16"/>
-      <c r="J29" s="16"/>
-      <c r="K29" s="16"/>
-      <c r="L29" s="16"/>
-      <c r="M29" s="16"/>
-      <c r="N29" s="16"/>
-      <c r="O29" s="16"/>
-      <c r="P29" s="16"/>
-      <c r="Q29" s="16"/>
-    </row>
-    <row r="30" spans="1:17" s="14" customFormat="1">
-      <c r="A30" s="7"/>
-      <c r="B30" s="1"/>
-      <c r="C30" s="1"/>
-      <c r="D30" s="1"/>
-      <c r="E30" s="7"/>
-      <c r="F30" s="25"/>
-      <c r="G30" s="25"/>
-      <c r="H30" s="1"/>
-      <c r="I30" s="16"/>
-      <c r="J30" s="16"/>
-      <c r="K30" s="16"/>
-      <c r="L30" s="16"/>
-      <c r="M30" s="16"/>
-      <c r="N30" s="16"/>
-      <c r="O30" s="16"/>
-      <c r="P30" s="16"/>
-      <c r="Q30" s="16"/>
-    </row>
-    <row r="31" spans="1:17" s="14" customFormat="1">
-      <c r="A31" s="7"/>
-      <c r="B31" s="1"/>
-      <c r="C31" s="1"/>
-      <c r="D31" s="1"/>
-      <c r="E31" s="7"/>
-      <c r="F31" s="25"/>
-      <c r="G31" s="25"/>
-      <c r="H31" s="1"/>
-      <c r="I31" s="16"/>
-      <c r="J31" s="16"/>
-      <c r="K31" s="16"/>
-      <c r="L31" s="16"/>
-      <c r="M31" s="16"/>
-      <c r="N31" s="16"/>
-      <c r="O31" s="16"/>
-      <c r="P31" s="16"/>
-      <c r="Q31" s="16"/>
-    </row>
-    <row r="32" spans="1:17" s="14" customFormat="1">
-      <c r="A32" s="7"/>
-      <c r="B32" s="1"/>
-      <c r="C32" s="1"/>
-      <c r="D32" s="1"/>
-      <c r="E32" s="7"/>
-      <c r="F32" s="25"/>
-      <c r="G32" s="25"/>
-      <c r="H32" s="1"/>
-      <c r="I32" s="16"/>
-      <c r="J32" s="16"/>
-      <c r="K32" s="16"/>
-      <c r="L32" s="16"/>
-      <c r="M32" s="16"/>
-      <c r="N32" s="16"/>
-      <c r="O32" s="16"/>
-      <c r="P32" s="16"/>
-      <c r="Q32" s="16"/>
-    </row>
-    <row r="33" spans="1:17" s="14" customFormat="1">
-      <c r="A33" s="7"/>
-      <c r="B33" s="7"/>
-      <c r="C33" s="7"/>
-      <c r="D33" s="7"/>
-      <c r="E33" s="7"/>
-      <c r="F33" s="25"/>
-      <c r="G33" s="25"/>
-      <c r="H33" s="7"/>
-      <c r="I33" s="16"/>
-      <c r="J33" s="16"/>
-      <c r="K33" s="16"/>
-      <c r="L33" s="16"/>
-      <c r="M33" s="16"/>
-      <c r="N33" s="16"/>
-      <c r="O33" s="16"/>
-      <c r="P33" s="16"/>
-      <c r="Q33" s="16"/>
-    </row>
-    <row r="34" spans="1:17" s="14" customFormat="1">
-      <c r="A34" s="8"/>
-      <c r="B34" s="8"/>
-      <c r="C34" s="8"/>
-      <c r="D34" s="8"/>
-      <c r="E34" s="8"/>
-      <c r="F34" s="8"/>
-      <c r="G34" s="8"/>
-      <c r="H34" s="8"/>
-      <c r="I34" s="21"/>
-      <c r="J34" s="21"/>
-      <c r="K34" s="21"/>
-      <c r="L34" s="21"/>
-      <c r="M34" s="21"/>
-      <c r="N34" s="21"/>
-      <c r="O34" s="21"/>
-      <c r="P34" s="21"/>
-      <c r="Q34" s="21"/>
-    </row>
-    <row r="35" spans="1:17" s="14" customFormat="1">
-      <c r="A35" s="8"/>
-      <c r="B35" s="8"/>
-      <c r="C35" s="8"/>
-      <c r="D35" s="8"/>
-      <c r="E35" s="8"/>
-      <c r="F35" s="8"/>
-      <c r="G35" s="8"/>
-      <c r="H35" s="8"/>
-      <c r="I35" s="21"/>
-      <c r="J35" s="21"/>
-      <c r="K35" s="21"/>
-      <c r="L35" s="21"/>
-      <c r="M35" s="21"/>
-      <c r="N35" s="21"/>
-      <c r="O35" s="21"/>
-      <c r="P35" s="21"/>
-      <c r="Q35" s="21"/>
-    </row>
-    <row r="36" spans="1:17" s="14" customFormat="1">
-      <c r="A36" s="8"/>
-      <c r="B36" s="8"/>
-      <c r="C36" s="8"/>
-      <c r="D36" s="8"/>
-      <c r="E36" s="8"/>
-      <c r="F36" s="8"/>
-      <c r="G36" s="8"/>
-      <c r="H36" s="8"/>
-      <c r="I36" s="21"/>
-      <c r="J36" s="21"/>
-      <c r="K36" s="21"/>
-      <c r="L36" s="21"/>
-      <c r="M36" s="21"/>
-      <c r="N36" s="21"/>
-      <c r="O36" s="21"/>
-      <c r="P36" s="21"/>
-      <c r="Q36" s="21"/>
-    </row>
-    <row r="37" spans="1:17" s="14" customFormat="1">
-      <c r="A37" s="8"/>
-      <c r="B37" s="8"/>
-      <c r="C37" s="8"/>
-      <c r="D37" s="8"/>
-      <c r="E37" s="8"/>
-      <c r="F37" s="8"/>
-      <c r="G37" s="8"/>
-      <c r="H37" s="8"/>
-      <c r="I37" s="21"/>
-      <c r="J37" s="21"/>
-      <c r="K37" s="21"/>
-      <c r="L37" s="21"/>
-      <c r="M37" s="21"/>
-      <c r="N37" s="21"/>
-      <c r="O37" s="21"/>
-      <c r="P37" s="21"/>
-      <c r="Q37" s="21"/>
-    </row>
-    <row r="38" spans="1:17" s="14" customFormat="1">
-      <c r="A38" s="8"/>
-      <c r="B38" s="8"/>
-      <c r="C38" s="8"/>
-      <c r="D38" s="8"/>
-      <c r="E38" s="8"/>
-      <c r="F38" s="8"/>
-      <c r="G38" s="8"/>
-      <c r="H38" s="8"/>
-      <c r="I38" s="21"/>
-      <c r="J38" s="21"/>
-      <c r="K38" s="21"/>
-      <c r="L38" s="21"/>
-      <c r="M38" s="21"/>
-      <c r="N38" s="21"/>
-      <c r="O38" s="21"/>
-      <c r="P38" s="21"/>
-      <c r="Q38" s="21"/>
-    </row>
-    <row r="39" spans="1:17" s="14" customFormat="1">
-      <c r="A39" s="8"/>
-      <c r="B39" s="8"/>
-      <c r="C39" s="8"/>
-      <c r="D39" s="8"/>
-      <c r="E39" s="8"/>
-      <c r="F39" s="8"/>
-      <c r="G39" s="8"/>
-      <c r="H39" s="8"/>
-      <c r="I39" s="21"/>
-      <c r="J39" s="21"/>
-      <c r="K39" s="21"/>
-      <c r="L39" s="21"/>
-      <c r="M39" s="21"/>
-      <c r="N39" s="21"/>
-      <c r="O39" s="21"/>
-      <c r="P39" s="21"/>
-      <c r="Q39" s="21"/>
-    </row>
-    <row r="40" spans="1:17" s="14" customFormat="1">
-      <c r="A40" s="8"/>
-      <c r="B40" s="8"/>
-      <c r="C40" s="8"/>
-      <c r="D40" s="8"/>
-      <c r="E40" s="8"/>
-      <c r="F40" s="8"/>
-      <c r="G40" s="8"/>
-      <c r="H40" s="8"/>
-      <c r="I40" s="21"/>
-      <c r="J40" s="21"/>
-      <c r="K40" s="21"/>
-      <c r="L40" s="21"/>
-      <c r="M40" s="21"/>
-      <c r="N40" s="21"/>
-      <c r="O40" s="21"/>
-      <c r="P40" s="21"/>
-      <c r="Q40" s="21"/>
-    </row>
-    <row r="41" spans="1:17" s="14" customFormat="1">
-      <c r="A41" s="8"/>
-      <c r="B41" s="8"/>
-      <c r="C41" s="8"/>
-      <c r="D41" s="8"/>
-      <c r="E41" s="8"/>
-      <c r="F41" s="8"/>
-      <c r="G41" s="8"/>
-      <c r="H41" s="8"/>
-      <c r="I41" s="21"/>
-      <c r="J41" s="21"/>
-      <c r="K41" s="21"/>
-      <c r="L41" s="21"/>
-      <c r="M41" s="21"/>
-      <c r="N41" s="21"/>
-      <c r="O41" s="21"/>
-      <c r="P41" s="21"/>
-      <c r="Q41" s="21"/>
-    </row>
-    <row r="42" spans="1:17" s="14" customFormat="1">
-      <c r="A42" s="8"/>
-      <c r="B42" s="8"/>
-      <c r="C42" s="8"/>
-      <c r="D42" s="8"/>
-      <c r="E42" s="8"/>
-      <c r="F42" s="8"/>
-      <c r="G42" s="8"/>
-      <c r="H42" s="8"/>
-      <c r="I42" s="21"/>
-      <c r="J42" s="21"/>
-      <c r="K42" s="21"/>
-      <c r="L42" s="21"/>
-      <c r="M42" s="21"/>
-      <c r="N42" s="21"/>
-      <c r="O42" s="21"/>
-      <c r="P42" s="21"/>
-      <c r="Q42" s="21"/>
-    </row>
-    <row r="43" spans="1:17" s="14" customFormat="1">
-      <c r="A43" s="8"/>
-      <c r="B43" s="8"/>
-      <c r="C43" s="8"/>
-      <c r="D43" s="8"/>
-      <c r="E43" s="8"/>
-      <c r="F43" s="8"/>
-      <c r="G43" s="8"/>
-      <c r="H43" s="8"/>
-      <c r="I43" s="21"/>
-      <c r="J43" s="21"/>
-      <c r="K43" s="21"/>
-      <c r="L43" s="21"/>
-      <c r="M43" s="21"/>
-      <c r="N43" s="21"/>
-      <c r="O43" s="21"/>
-      <c r="P43" s="21"/>
-      <c r="Q43" s="21"/>
-    </row>
-    <row r="44" spans="1:17" s="14" customFormat="1">
-      <c r="A44" s="8"/>
-      <c r="B44" s="8"/>
-      <c r="C44" s="8"/>
-      <c r="D44" s="8"/>
-      <c r="E44" s="8"/>
-      <c r="F44" s="8"/>
-      <c r="G44" s="8"/>
-      <c r="H44" s="8"/>
-      <c r="I44" s="21"/>
-      <c r="J44" s="21"/>
-      <c r="K44" s="21"/>
-      <c r="L44" s="21"/>
-      <c r="M44" s="21"/>
-      <c r="N44" s="21"/>
-      <c r="O44" s="21"/>
-      <c r="P44" s="21"/>
-      <c r="Q44" s="21"/>
-    </row>
-    <row r="45" spans="1:17" s="14" customFormat="1">
-      <c r="A45" s="8"/>
-      <c r="B45" s="8"/>
-      <c r="C45" s="8"/>
-      <c r="D45" s="8"/>
-      <c r="E45" s="8"/>
-      <c r="F45" s="8"/>
-      <c r="G45" s="8"/>
-      <c r="H45" s="8"/>
-      <c r="I45" s="21"/>
-      <c r="J45" s="21"/>
-      <c r="K45" s="21"/>
-      <c r="L45" s="21"/>
-      <c r="M45" s="21"/>
-      <c r="N45" s="21"/>
-      <c r="O45" s="21"/>
-      <c r="P45" s="21"/>
-      <c r="Q45" s="21"/>
-    </row>
-    <row r="46" spans="1:17" s="14" customFormat="1">
-      <c r="A46" s="8"/>
-      <c r="B46" s="8"/>
-      <c r="C46" s="8"/>
-      <c r="D46" s="8"/>
-      <c r="E46" s="8"/>
-      <c r="F46" s="8"/>
-      <c r="G46" s="8"/>
-      <c r="H46" s="8"/>
-      <c r="I46" s="21"/>
-      <c r="J46" s="21"/>
-      <c r="K46" s="21"/>
-      <c r="L46" s="21"/>
-      <c r="M46" s="21"/>
-      <c r="N46" s="21"/>
-      <c r="O46" s="21"/>
-      <c r="P46" s="21"/>
-      <c r="Q46" s="21"/>
-    </row>
-    <row r="47" spans="1:17" s="14" customFormat="1">
-      <c r="A47" s="8"/>
-      <c r="B47" s="8"/>
-      <c r="C47" s="8"/>
-      <c r="D47" s="8"/>
-      <c r="E47" s="8"/>
-      <c r="F47" s="8"/>
-      <c r="G47" s="8"/>
-      <c r="H47" s="8"/>
-      <c r="I47" s="21"/>
-      <c r="J47" s="21"/>
-      <c r="K47" s="21"/>
-      <c r="L47" s="21"/>
-      <c r="M47" s="21"/>
-      <c r="N47" s="21"/>
-      <c r="O47" s="21"/>
-      <c r="P47" s="21"/>
-      <c r="Q47" s="21"/>
-    </row>
-    <row r="48" spans="1:17" s="14" customFormat="1">
-      <c r="A48" s="8"/>
-      <c r="B48" s="8"/>
-      <c r="C48" s="8"/>
-      <c r="D48" s="8"/>
-      <c r="E48" s="8"/>
-      <c r="F48" s="8"/>
-      <c r="G48" s="8"/>
-      <c r="H48" s="8"/>
-      <c r="I48" s="21"/>
-      <c r="J48" s="21"/>
-      <c r="K48" s="21"/>
-      <c r="L48" s="21"/>
-      <c r="M48" s="21"/>
-      <c r="N48" s="21"/>
-      <c r="O48" s="21"/>
-      <c r="P48" s="21"/>
-      <c r="Q48" s="21"/>
-    </row>
-    <row r="49" spans="1:17" s="14" customFormat="1">
-      <c r="A49" s="8"/>
-      <c r="B49" s="8"/>
-      <c r="C49" s="8"/>
-      <c r="D49" s="8"/>
-      <c r="E49" s="8"/>
-      <c r="F49" s="8"/>
-      <c r="G49" s="8"/>
-      <c r="H49" s="8"/>
-      <c r="I49" s="21"/>
-      <c r="J49" s="21"/>
-      <c r="K49" s="21"/>
-      <c r="L49" s="21"/>
-      <c r="M49" s="21"/>
-      <c r="N49" s="21"/>
-      <c r="O49" s="21"/>
-      <c r="P49" s="21"/>
-      <c r="Q49" s="21"/>
-    </row>
-    <row r="50" spans="1:17" s="14" customFormat="1">
-      <c r="A50" s="8"/>
-      <c r="B50" s="8"/>
-      <c r="C50" s="8"/>
-      <c r="D50" s="8"/>
-      <c r="E50" s="8"/>
-      <c r="F50" s="8"/>
-      <c r="G50" s="8"/>
-      <c r="H50" s="8"/>
-      <c r="I50" s="21"/>
-      <c r="J50" s="21"/>
-      <c r="K50" s="21"/>
-      <c r="L50" s="21"/>
-      <c r="M50" s="21"/>
-      <c r="N50" s="21"/>
-      <c r="O50" s="21"/>
-      <c r="P50" s="21"/>
-      <c r="Q50" s="21"/>
-    </row>
-    <row r="51" spans="1:17">
-      <c r="A51" s="8"/>
-      <c r="B51" s="8"/>
-      <c r="C51" s="8"/>
-      <c r="D51" s="8"/>
-      <c r="E51" s="8"/>
-      <c r="F51" s="8"/>
-      <c r="G51" s="8"/>
-      <c r="H51" s="8"/>
-      <c r="I51" s="21"/>
-      <c r="J51" s="21"/>
-      <c r="K51" s="21"/>
-      <c r="L51" s="21"/>
-      <c r="M51" s="21"/>
-      <c r="N51" s="21"/>
-      <c r="O51" s="21"/>
-      <c r="P51" s="21"/>
-      <c r="Q51" s="21"/>
-    </row>
-    <row r="52" spans="1:17">
-      <c r="A52" s="8"/>
-      <c r="B52" s="8"/>
-      <c r="C52" s="8"/>
-      <c r="D52" s="8"/>
-      <c r="E52" s="8"/>
-      <c r="F52" s="8"/>
-      <c r="G52" s="8"/>
-      <c r="H52" s="8"/>
-      <c r="I52" s="21"/>
-      <c r="J52" s="21"/>
-      <c r="K52" s="21"/>
-      <c r="L52" s="21"/>
-      <c r="M52" s="21"/>
-      <c r="N52" s="21"/>
-      <c r="O52" s="21"/>
-      <c r="P52" s="21"/>
-      <c r="Q52" s="21"/>
-    </row>
-    <row r="53" spans="1:17">
-      <c r="A53" s="8"/>
-      <c r="B53" s="8"/>
-      <c r="C53" s="8"/>
-      <c r="D53" s="8"/>
-      <c r="E53" s="8"/>
-      <c r="F53" s="8"/>
-      <c r="G53" s="8"/>
-      <c r="H53" s="8"/>
-      <c r="I53" s="21"/>
-      <c r="J53" s="21"/>
-      <c r="K53" s="21"/>
-      <c r="L53" s="21"/>
-      <c r="M53" s="21"/>
-      <c r="N53" s="21"/>
-      <c r="O53" s="21"/>
-      <c r="P53" s="21"/>
-      <c r="Q53" s="21"/>
-    </row>
-    <row r="54" spans="1:17">
-      <c r="A54" s="8"/>
-      <c r="B54" s="8"/>
-      <c r="C54" s="8"/>
-      <c r="D54" s="8"/>
-      <c r="E54" s="8"/>
-      <c r="F54" s="8"/>
-      <c r="G54" s="8"/>
-      <c r="H54" s="8"/>
-      <c r="I54" s="21"/>
-      <c r="J54" s="21"/>
-      <c r="K54" s="21"/>
-      <c r="L54" s="21"/>
-      <c r="M54" s="21"/>
-      <c r="N54" s="21"/>
-      <c r="O54" s="21"/>
-      <c r="P54" s="21"/>
-      <c r="Q54" s="21"/>
-    </row>
-    <row r="55" spans="1:17">
-      <c r="A55" s="8"/>
-      <c r="B55" s="8"/>
-      <c r="C55" s="8"/>
-      <c r="D55" s="8"/>
-      <c r="E55" s="8"/>
-      <c r="F55" s="8"/>
-      <c r="G55" s="8"/>
-      <c r="H55" s="8"/>
-      <c r="I55" s="21"/>
-      <c r="J55" s="21"/>
-      <c r="K55" s="21"/>
-      <c r="L55" s="21"/>
-      <c r="M55" s="21"/>
-      <c r="N55" s="21"/>
-      <c r="O55" s="21"/>
-      <c r="P55" s="21"/>
-      <c r="Q55" s="21"/>
-    </row>
-    <row r="56" spans="1:17">
-      <c r="A56" s="8"/>
-      <c r="B56" s="8"/>
-      <c r="C56" s="8"/>
-      <c r="D56" s="8"/>
-      <c r="E56" s="8"/>
-      <c r="F56" s="8"/>
-      <c r="G56" s="8"/>
-      <c r="H56" s="8"/>
-      <c r="I56" s="21"/>
-      <c r="J56" s="21"/>
-      <c r="K56" s="21"/>
-      <c r="L56" s="21"/>
-      <c r="M56" s="21"/>
-      <c r="N56" s="21"/>
-      <c r="O56" s="21"/>
-      <c r="P56" s="21"/>
-      <c r="Q56" s="21"/>
-    </row>
-    <row r="57" spans="1:17">
-      <c r="A57" s="8"/>
-      <c r="B57" s="8"/>
-      <c r="C57" s="8"/>
-      <c r="D57" s="8"/>
-      <c r="E57" s="8"/>
-      <c r="F57" s="8"/>
-      <c r="G57" s="8"/>
-      <c r="H57" s="8"/>
-      <c r="I57" s="21"/>
-      <c r="J57" s="21"/>
-      <c r="K57" s="21"/>
-      <c r="L57" s="21"/>
-      <c r="M57" s="21"/>
-      <c r="N57" s="21"/>
-      <c r="O57" s="21"/>
-      <c r="P57" s="21"/>
-      <c r="Q57" s="21"/>
-    </row>
-    <row r="58" spans="1:17">
-      <c r="A58" s="8"/>
-      <c r="B58" s="8"/>
-      <c r="C58" s="8"/>
-      <c r="D58" s="8"/>
-      <c r="E58" s="8"/>
-      <c r="F58" s="8"/>
-      <c r="G58" s="8"/>
-      <c r="H58" s="8"/>
-      <c r="I58" s="21"/>
-      <c r="J58" s="21"/>
-      <c r="K58" s="21"/>
-      <c r="L58" s="21"/>
-      <c r="M58" s="21"/>
-      <c r="N58" s="21"/>
-      <c r="O58" s="21"/>
-      <c r="P58" s="21"/>
-      <c r="Q58" s="21"/>
-    </row>
-    <row r="59" spans="1:17">
-      <c r="A59" s="8"/>
-      <c r="B59" s="8"/>
-      <c r="C59" s="8"/>
-      <c r="D59" s="8"/>
-      <c r="E59" s="8"/>
-      <c r="F59" s="8"/>
-      <c r="G59" s="8"/>
-      <c r="H59" s="8"/>
-      <c r="I59" s="21"/>
-      <c r="J59" s="21"/>
-      <c r="K59" s="21"/>
-      <c r="L59" s="21"/>
-      <c r="M59" s="21"/>
-      <c r="N59" s="21"/>
-      <c r="O59" s="21"/>
-      <c r="P59" s="21"/>
-      <c r="Q59" s="21"/>
-    </row>
-    <row r="60" spans="1:17">
-      <c r="A60" s="8"/>
-      <c r="B60" s="8"/>
-      <c r="C60" s="8"/>
-      <c r="D60" s="8"/>
-      <c r="E60" s="8"/>
-      <c r="F60" s="8"/>
-      <c r="G60" s="8"/>
-      <c r="H60" s="8"/>
-      <c r="I60" s="21"/>
-      <c r="J60" s="21"/>
-      <c r="K60" s="21"/>
-      <c r="L60" s="21"/>
-      <c r="M60" s="21"/>
-      <c r="N60" s="21"/>
-      <c r="O60" s="21"/>
-      <c r="P60" s="21"/>
-      <c r="Q60" s="21"/>
-    </row>
-    <row r="61" spans="1:17">
-      <c r="A61" s="8"/>
-      <c r="B61" s="8"/>
-      <c r="C61" s="8"/>
-      <c r="D61" s="8"/>
-      <c r="E61" s="8"/>
-      <c r="F61" s="8"/>
-      <c r="G61" s="8"/>
-      <c r="H61" s="8"/>
-      <c r="I61" s="21"/>
-      <c r="J61" s="21"/>
-      <c r="K61" s="21"/>
-      <c r="L61" s="21"/>
-      <c r="M61" s="21"/>
-      <c r="N61" s="21"/>
-      <c r="O61" s="21"/>
-      <c r="P61" s="21"/>
-      <c r="Q61" s="21"/>
-    </row>
-    <row r="62" spans="1:17">
-      <c r="A62" s="8"/>
-      <c r="B62" s="8"/>
-      <c r="C62" s="8"/>
-      <c r="D62" s="8"/>
-      <c r="E62" s="8"/>
-      <c r="F62" s="8"/>
-      <c r="G62" s="8"/>
-      <c r="H62" s="8"/>
-      <c r="I62" s="21"/>
-      <c r="J62" s="21"/>
-      <c r="K62" s="21"/>
-      <c r="L62" s="21"/>
-      <c r="M62" s="21"/>
-      <c r="N62" s="21"/>
-      <c r="O62" s="21"/>
-      <c r="P62" s="21"/>
-      <c r="Q62" s="21"/>
-    </row>
-    <row r="63" spans="1:17">
-      <c r="A63" s="8"/>
-      <c r="B63" s="8"/>
-      <c r="C63" s="8"/>
-      <c r="D63" s="8"/>
-      <c r="E63" s="8"/>
-      <c r="F63" s="8"/>
-      <c r="G63" s="8"/>
-      <c r="H63" s="8"/>
-      <c r="I63" s="21"/>
-      <c r="J63" s="21"/>
-      <c r="K63" s="21"/>
-      <c r="L63" s="21"/>
-      <c r="M63" s="21"/>
-      <c r="N63" s="21"/>
-      <c r="O63" s="21"/>
-      <c r="P63" s="21"/>
-      <c r="Q63" s="21"/>
-    </row>
-    <row r="64" spans="1:17">
-      <c r="A64" s="8"/>
-      <c r="B64" s="8"/>
-      <c r="C64" s="8"/>
-      <c r="D64" s="8"/>
-      <c r="E64" s="8"/>
-      <c r="F64" s="8"/>
-      <c r="G64" s="8"/>
-      <c r="H64" s="8"/>
-      <c r="I64" s="21"/>
-      <c r="J64" s="21"/>
-      <c r="K64" s="21"/>
-      <c r="L64" s="21"/>
-      <c r="M64" s="21"/>
-      <c r="N64" s="21"/>
-      <c r="O64" s="21"/>
-      <c r="P64" s="21"/>
-      <c r="Q64" s="21"/>
-    </row>
-    <row r="65" spans="1:17">
-      <c r="A65" s="8"/>
-      <c r="B65" s="8"/>
-      <c r="C65" s="8"/>
-      <c r="D65" s="8"/>
-      <c r="E65" s="8"/>
-      <c r="F65" s="8"/>
-      <c r="G65" s="8"/>
-      <c r="H65" s="8"/>
-      <c r="I65" s="21"/>
-      <c r="J65" s="21"/>
-      <c r="K65" s="21"/>
-      <c r="L65" s="21"/>
-      <c r="M65" s="21"/>
-      <c r="N65" s="21"/>
-      <c r="O65" s="21"/>
-      <c r="P65" s="21"/>
-      <c r="Q65" s="21"/>
-    </row>
-    <row r="66" spans="1:17">
-      <c r="A66" s="8"/>
-      <c r="B66" s="8"/>
-      <c r="C66" s="8"/>
-      <c r="D66" s="8"/>
-      <c r="E66" s="8"/>
-      <c r="F66" s="8"/>
-      <c r="G66" s="8"/>
-      <c r="H66" s="8"/>
-      <c r="I66" s="21"/>
-      <c r="J66" s="21"/>
-      <c r="K66" s="21"/>
-      <c r="L66" s="21"/>
-      <c r="M66" s="21"/>
-      <c r="N66" s="21"/>
-      <c r="O66" s="21"/>
-      <c r="P66" s="21"/>
-      <c r="Q66" s="21"/>
-    </row>
-    <row r="67" spans="1:17">
-      <c r="A67" s="8"/>
-      <c r="B67" s="8"/>
-      <c r="C67" s="8"/>
-      <c r="D67" s="8"/>
-      <c r="E67" s="8"/>
-      <c r="F67" s="8"/>
-      <c r="G67" s="8"/>
-      <c r="H67" s="8"/>
-      <c r="I67" s="21"/>
-      <c r="J67" s="21"/>
-      <c r="K67" s="21"/>
-      <c r="L67" s="21"/>
-      <c r="M67" s="21"/>
-      <c r="N67" s="21"/>
-      <c r="O67" s="21"/>
-      <c r="P67" s="21"/>
-      <c r="Q67" s="21"/>
-    </row>
-    <row r="68" spans="1:17">
-      <c r="A68" s="8"/>
-      <c r="B68" s="8"/>
-      <c r="C68" s="8"/>
-      <c r="D68" s="8"/>
-      <c r="E68" s="8"/>
-      <c r="F68" s="8"/>
-      <c r="G68" s="8"/>
-      <c r="H68" s="8"/>
-      <c r="I68" s="21"/>
-      <c r="J68" s="21"/>
-      <c r="K68" s="21"/>
-      <c r="L68" s="21"/>
-      <c r="M68" s="21"/>
-      <c r="N68" s="21"/>
-      <c r="O68" s="21"/>
-      <c r="P68" s="21"/>
-      <c r="Q68" s="21"/>
-    </row>
-    <row r="69" spans="1:17">
-      <c r="A69" s="9"/>
-      <c r="B69" s="9"/>
-      <c r="C69" s="9"/>
-      <c r="D69" s="9"/>
-      <c r="E69" s="9"/>
-      <c r="F69" s="9"/>
-      <c r="G69" s="9"/>
-      <c r="H69" s="9"/>
-      <c r="I69" s="22"/>
-      <c r="J69" s="22"/>
-      <c r="K69" s="22"/>
-      <c r="L69" s="22"/>
-      <c r="M69" s="22"/>
-      <c r="N69" s="22"/>
-      <c r="O69" s="22"/>
-      <c r="P69" s="22"/>
-      <c r="Q69" s="22"/>
-    </row>
-    <row r="70" spans="1:17">
-      <c r="A70" s="9"/>
-      <c r="B70" s="9"/>
-      <c r="C70" s="9"/>
-      <c r="D70" s="9"/>
-      <c r="E70" s="9"/>
-      <c r="F70" s="9"/>
-      <c r="G70" s="9"/>
-      <c r="H70" s="9"/>
-      <c r="I70" s="22"/>
-      <c r="J70" s="22"/>
-      <c r="K70" s="22"/>
-      <c r="L70" s="22"/>
-      <c r="M70" s="22"/>
-      <c r="N70" s="22"/>
-      <c r="O70" s="22"/>
-      <c r="P70" s="22"/>
-      <c r="Q70" s="22"/>
-    </row>
-  </sheetData>
-  <mergeCells count="9">
-    <mergeCell ref="L2:N2"/>
-    <mergeCell ref="O2:Q2"/>
-    <mergeCell ref="I1:Q1"/>
-    <mergeCell ref="A1:B1"/>
-    <mergeCell ref="C1:E1"/>
-    <mergeCell ref="F1:G1"/>
-    <mergeCell ref="A2:B2"/>
-    <mergeCell ref="C2:H2"/>
-    <mergeCell ref="I2:K2"/>
-  </mergeCells>
-  <phoneticPr fontId="2"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="landscape" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
-</worksheet>
 </file>
--- a/ST_Player/db.xlsx
+++ b/ST_Player/db.xlsx
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="493" uniqueCount="185">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="497" uniqueCount="190">
   <si>
     <t>説明</t>
     <rPh sb="0" eb="2">
@@ -979,6 +979,26 @@
   </si>
   <si>
     <t>names</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>user_id</t>
+    <phoneticPr fontId="10"/>
+  </si>
+  <si>
+    <t>int unsigned</t>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>NOT NULL</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>UserID</t>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>NameID</t>
     <phoneticPr fontId="2"/>
   </si>
 </sst>
@@ -4753,7 +4773,7 @@
   <dimension ref="A1:Q35"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
+      <selection activeCell="H4" sqref="H4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -4873,7 +4893,7 @@
         <v>3</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>37</v>
+        <v>186</v>
       </c>
       <c r="D4" s="1"/>
       <c r="E4" s="1" t="s">
@@ -4886,7 +4906,7 @@
         <v>8</v>
       </c>
       <c r="H4" s="1" t="s">
-        <v>19</v>
+        <v>189</v>
       </c>
       <c r="I4" s="16"/>
       <c r="J4" s="16"/>
@@ -4901,19 +4921,19 @@
     <row r="5" spans="1:17">
       <c r="A5" s="7"/>
       <c r="B5" s="1" t="s">
-        <v>17</v>
+        <v>185</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="D5" s="1">
-        <v>255</v>
-      </c>
-      <c r="E5" s="1"/>
+        <v>116</v>
+      </c>
+      <c r="D5" s="1"/>
+      <c r="E5" s="1" t="s">
+        <v>187</v>
+      </c>
       <c r="F5" s="2"/>
       <c r="G5" s="2"/>
       <c r="H5" s="1" t="s">
-        <v>41</v>
+        <v>188</v>
       </c>
       <c r="I5" s="16"/>
       <c r="J5" s="16"/>
@@ -4927,6 +4947,21 @@
     </row>
     <row r="6" spans="1:17">
       <c r="A6" s="7"/>
+      <c r="B6" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="D6" s="1">
+        <v>255</v>
+      </c>
+      <c r="E6" s="1"/>
+      <c r="F6" s="2"/>
+      <c r="G6" s="2"/>
+      <c r="H6" s="1" t="s">
+        <v>41</v>
+      </c>
       <c r="J6" s="16"/>
       <c r="K6" s="16"/>
       <c r="L6" s="16"/>

--- a/ST_Player/db.xlsx
+++ b/ST_Player/db.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="6" rupBuild="4507"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="15330" windowHeight="7695" tabRatio="1000" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="15330" windowHeight="7695" tabRatio="1000" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="ユーザー" sheetId="69" r:id="rId1"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="535" uniqueCount="195">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="538" uniqueCount="195">
   <si>
     <t>説明</t>
     <rPh sb="0" eb="2">
@@ -1045,7 +1045,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="13">
     <font>
       <sz val="11"/>
@@ -1547,7 +1547,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1579,9 +1579,10 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1613,6 +1614,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -1788,7 +1790,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <tabColor theme="8" tint="0.39997558519241921"/>
   </sheetPr>
@@ -3298,7 +3300,7 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <tabColor theme="7" tint="0.39997558519241921"/>
   </sheetPr>
@@ -4784,7 +4786,7 @@
 </file>
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <tabColor theme="6" tint="0.39997558519241921"/>
   </sheetPr>
@@ -6294,14 +6296,14 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <tabColor theme="8" tint="0.39997558519241921"/>
   </sheetPr>
   <dimension ref="A1:Q35"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:Q35"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G12" sqref="G12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -7068,7 +7070,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <tabColor theme="8" tint="0.39997558519241921"/>
   </sheetPr>
@@ -8545,14 +8547,14 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <tabColor theme="4" tint="0.39997558519241921"/>
   </sheetPr>
-  <dimension ref="A1:Q70"/>
+  <dimension ref="A1:Q72"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C20" sqref="C20"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -8782,17 +8784,17 @@
     <row r="8" spans="1:17" s="14" customFormat="1">
       <c r="A8" s="7"/>
       <c r="B8" s="1" t="s">
-        <v>42</v>
+        <v>92</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>43</v>
+        <v>83</v>
       </c>
       <c r="D8" s="1"/>
-      <c r="E8" s="10"/>
-      <c r="F8" s="24"/>
-      <c r="G8" s="24"/>
-      <c r="H8" s="12" t="s">
-        <v>44</v>
+      <c r="E8" s="1"/>
+      <c r="F8" s="2"/>
+      <c r="G8" s="25"/>
+      <c r="H8" s="1" t="s">
+        <v>93</v>
       </c>
       <c r="I8" s="18"/>
       <c r="J8" s="18"/>
@@ -8806,21 +8808,13 @@
     </row>
     <row r="9" spans="1:17" s="14" customFormat="1">
       <c r="A9" s="7"/>
-      <c r="B9" s="4" t="s">
-        <v>45</v>
-      </c>
-      <c r="C9" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="D9" s="1">
-        <v>10</v>
-      </c>
-      <c r="E9" s="10"/>
-      <c r="F9" s="24"/>
-      <c r="G9" s="24"/>
-      <c r="H9" s="12" t="s">
-        <v>46</v>
-      </c>
+      <c r="B9" s="1"/>
+      <c r="C9" s="1"/>
+      <c r="D9" s="1"/>
+      <c r="E9" s="1"/>
+      <c r="F9" s="2"/>
+      <c r="G9" s="2"/>
+      <c r="H9" s="1"/>
       <c r="I9" s="18"/>
       <c r="J9" s="18"/>
       <c r="K9" s="18"/>
@@ -8832,44 +8826,50 @@
       <c r="Q9" s="16"/>
     </row>
     <row r="10" spans="1:17" s="14" customFormat="1">
-      <c r="A10" s="10"/>
-      <c r="B10" s="1"/>
-      <c r="C10" s="1"/>
+      <c r="A10" s="7"/>
+      <c r="B10" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>43</v>
+      </c>
       <c r="D10" s="1"/>
-      <c r="E10" s="1"/>
-      <c r="F10" s="2"/>
-      <c r="G10" s="25"/>
-      <c r="H10" s="1"/>
-      <c r="I10" s="19"/>
-      <c r="J10" s="19"/>
-      <c r="K10" s="19"/>
-      <c r="L10" s="19"/>
-      <c r="M10" s="19"/>
-      <c r="N10" s="19"/>
-      <c r="O10" s="19"/>
-      <c r="P10" s="19"/>
-      <c r="Q10" s="19"/>
+      <c r="E10" s="10"/>
+      <c r="F10" s="24"/>
+      <c r="G10" s="24"/>
+      <c r="H10" s="12" t="s">
+        <v>44</v>
+      </c>
+      <c r="I10" s="18"/>
+      <c r="J10" s="18"/>
+      <c r="K10" s="18"/>
+      <c r="L10" s="16"/>
+      <c r="M10" s="16"/>
+      <c r="N10" s="16"/>
+      <c r="O10" s="16"/>
+      <c r="P10" s="16"/>
+      <c r="Q10" s="16"/>
     </row>
     <row r="11" spans="1:17" s="14" customFormat="1">
       <c r="A11" s="7"/>
-      <c r="B11" s="1" t="s">
-        <v>40</v>
+      <c r="B11" s="4" t="s">
+        <v>45</v>
       </c>
       <c r="C11" s="1" t="s">
         <v>23</v>
       </c>
       <c r="D11" s="1">
-        <v>255</v>
-      </c>
-      <c r="E11" s="1"/>
-      <c r="F11" s="2"/>
-      <c r="G11" s="2"/>
-      <c r="H11" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="I11" s="17"/>
-      <c r="J11" s="17"/>
-      <c r="K11" s="16"/>
+        <v>10</v>
+      </c>
+      <c r="E11" s="10"/>
+      <c r="F11" s="24"/>
+      <c r="G11" s="24"/>
+      <c r="H11" s="12" t="s">
+        <v>46</v>
+      </c>
+      <c r="I11" s="18"/>
+      <c r="J11" s="18"/>
+      <c r="K11" s="18"/>
       <c r="L11" s="16"/>
       <c r="M11" s="16"/>
       <c r="N11" s="16"/>
@@ -8878,7 +8878,7 @@
       <c r="Q11" s="16"/>
     </row>
     <row r="12" spans="1:17" s="14" customFormat="1">
-      <c r="A12" s="7"/>
+      <c r="A12" s="10"/>
       <c r="B12" s="1"/>
       <c r="C12" s="1"/>
       <c r="D12" s="1"/>
@@ -8886,63 +8886,55 @@
       <c r="F12" s="2"/>
       <c r="G12" s="25"/>
       <c r="H12" s="1"/>
-      <c r="I12" s="17"/>
-      <c r="J12" s="17"/>
-      <c r="K12" s="16"/>
-      <c r="L12" s="16"/>
-      <c r="M12" s="16"/>
-      <c r="N12" s="16"/>
-      <c r="O12" s="16"/>
-      <c r="P12" s="16"/>
-      <c r="Q12" s="16"/>
+      <c r="I12" s="19"/>
+      <c r="J12" s="19"/>
+      <c r="K12" s="19"/>
+      <c r="L12" s="19"/>
+      <c r="M12" s="19"/>
+      <c r="N12" s="19"/>
+      <c r="O12" s="19"/>
+      <c r="P12" s="19"/>
+      <c r="Q12" s="19"/>
     </row>
     <row r="13" spans="1:17" s="14" customFormat="1">
       <c r="A13" s="7"/>
       <c r="B13" s="1" t="s">
-        <v>47</v>
+        <v>40</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>48</v>
+        <v>23</v>
       </c>
       <c r="D13" s="1">
         <v>255</v>
       </c>
       <c r="E13" s="1"/>
       <c r="F13" s="2"/>
-      <c r="G13" s="25"/>
+      <c r="G13" s="2"/>
       <c r="H13" s="1" t="s">
-        <v>49</v>
+        <v>41</v>
       </c>
       <c r="I13" s="17"/>
       <c r="J13" s="17"/>
-      <c r="K13" s="18"/>
-      <c r="L13" s="18"/>
-      <c r="M13" s="18"/>
-      <c r="N13" s="18"/>
+      <c r="K13" s="16"/>
+      <c r="L13" s="16"/>
+      <c r="M13" s="16"/>
+      <c r="N13" s="16"/>
       <c r="O13" s="16"/>
       <c r="P13" s="16"/>
       <c r="Q13" s="16"/>
     </row>
     <row r="14" spans="1:17" s="14" customFormat="1">
       <c r="A14" s="7"/>
-      <c r="B14" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="C14" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="D14" s="1">
-        <v>255</v>
-      </c>
+      <c r="B14" s="1"/>
+      <c r="C14" s="1"/>
+      <c r="D14" s="1"/>
       <c r="E14" s="1"/>
       <c r="F14" s="2"/>
       <c r="G14" s="25"/>
-      <c r="H14" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="I14" s="18"/>
-      <c r="J14" s="18"/>
-      <c r="K14" s="18"/>
+      <c r="H14" s="1"/>
+      <c r="I14" s="17"/>
+      <c r="J14" s="17"/>
+      <c r="K14" s="16"/>
       <c r="L14" s="16"/>
       <c r="M14" s="16"/>
       <c r="N14" s="16"/>
@@ -8953,7 +8945,7 @@
     <row r="15" spans="1:17" s="14" customFormat="1">
       <c r="A15" s="7"/>
       <c r="B15" s="1" t="s">
-        <v>52</v>
+        <v>47</v>
       </c>
       <c r="C15" s="1" t="s">
         <v>48</v>
@@ -8965,14 +8957,14 @@
       <c r="F15" s="2"/>
       <c r="G15" s="25"/>
       <c r="H15" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="I15" s="16"/>
-      <c r="J15" s="16"/>
-      <c r="K15" s="16"/>
-      <c r="L15" s="16"/>
-      <c r="M15" s="16"/>
-      <c r="N15" s="16"/>
+        <v>49</v>
+      </c>
+      <c r="I15" s="17"/>
+      <c r="J15" s="17"/>
+      <c r="K15" s="18"/>
+      <c r="L15" s="18"/>
+      <c r="M15" s="18"/>
+      <c r="N15" s="18"/>
       <c r="O15" s="16"/>
       <c r="P15" s="16"/>
       <c r="Q15" s="16"/>
@@ -8980,7 +8972,7 @@
     <row r="16" spans="1:17" s="14" customFormat="1">
       <c r="A16" s="7"/>
       <c r="B16" s="1" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="C16" s="1" t="s">
         <v>48</v>
@@ -8992,11 +8984,11 @@
       <c r="F16" s="2"/>
       <c r="G16" s="25"/>
       <c r="H16" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="I16" s="16"/>
-      <c r="J16" s="16"/>
-      <c r="K16" s="16"/>
+        <v>51</v>
+      </c>
+      <c r="I16" s="18"/>
+      <c r="J16" s="18"/>
+      <c r="K16" s="18"/>
       <c r="L16" s="16"/>
       <c r="M16" s="16"/>
       <c r="N16" s="16"/>
@@ -9007,7 +8999,7 @@
     <row r="17" spans="1:17" s="14" customFormat="1">
       <c r="A17" s="7"/>
       <c r="B17" s="1" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="C17" s="1" t="s">
         <v>48</v>
@@ -9019,7 +9011,7 @@
       <c r="F17" s="2"/>
       <c r="G17" s="25"/>
       <c r="H17" s="1" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="I17" s="16"/>
       <c r="J17" s="16"/>
@@ -9034,7 +9026,7 @@
     <row r="18" spans="1:17" s="14" customFormat="1">
       <c r="A18" s="7"/>
       <c r="B18" s="1" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="C18" s="1" t="s">
         <v>48</v>
@@ -9046,10 +9038,10 @@
       <c r="F18" s="2"/>
       <c r="G18" s="25"/>
       <c r="H18" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="I18" s="17"/>
-      <c r="J18" s="17"/>
+        <v>55</v>
+      </c>
+      <c r="I18" s="16"/>
+      <c r="J18" s="16"/>
       <c r="K18" s="16"/>
       <c r="L18" s="16"/>
       <c r="M18" s="16"/>
@@ -9060,18 +9052,26 @@
     </row>
     <row r="19" spans="1:17" s="14" customFormat="1">
       <c r="A19" s="7"/>
-      <c r="B19" s="1"/>
-      <c r="C19" s="1"/>
-      <c r="D19" s="1"/>
+      <c r="B19" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="C19" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="D19" s="1">
+        <v>255</v>
+      </c>
       <c r="E19" s="1"/>
       <c r="F19" s="2"/>
       <c r="G19" s="25"/>
-      <c r="H19" s="1"/>
-      <c r="I19" s="17"/>
-      <c r="J19" s="17"/>
+      <c r="H19" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="I19" s="16"/>
+      <c r="J19" s="16"/>
       <c r="K19" s="16"/>
-      <c r="L19" s="20"/>
-      <c r="M19" s="20"/>
+      <c r="L19" s="16"/>
+      <c r="M19" s="16"/>
       <c r="N19" s="16"/>
       <c r="O19" s="16"/>
       <c r="P19" s="16"/>
@@ -9080,23 +9080,25 @@
     <row r="20" spans="1:17" s="14" customFormat="1">
       <c r="A20" s="7"/>
       <c r="B20" s="1" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>173</v>
-      </c>
-      <c r="D20" s="1"/>
+        <v>48</v>
+      </c>
+      <c r="D20" s="1">
+        <v>255</v>
+      </c>
       <c r="E20" s="1"/>
       <c r="F20" s="2"/>
       <c r="G20" s="25"/>
       <c r="H20" s="1" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="I20" s="17"/>
       <c r="J20" s="17"/>
       <c r="K20" s="16"/>
-      <c r="L20" s="20"/>
-      <c r="M20" s="20"/>
+      <c r="L20" s="16"/>
+      <c r="M20" s="16"/>
       <c r="N20" s="16"/>
       <c r="O20" s="16"/>
       <c r="P20" s="16"/>
@@ -9114,8 +9116,8 @@
       <c r="I21" s="17"/>
       <c r="J21" s="17"/>
       <c r="K21" s="16"/>
-      <c r="L21" s="16"/>
-      <c r="M21" s="16"/>
+      <c r="L21" s="20"/>
+      <c r="M21" s="20"/>
       <c r="N21" s="16"/>
       <c r="O21" s="16"/>
       <c r="P21" s="16"/>
@@ -9124,23 +9126,23 @@
     <row r="22" spans="1:17" s="14" customFormat="1">
       <c r="A22" s="7"/>
       <c r="B22" s="1" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>63</v>
+        <v>173</v>
       </c>
       <c r="D22" s="1"/>
-      <c r="E22" s="7"/>
-      <c r="F22" s="25"/>
+      <c r="E22" s="1"/>
+      <c r="F22" s="2"/>
       <c r="G22" s="25"/>
       <c r="H22" s="1" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="I22" s="17"/>
       <c r="J22" s="17"/>
       <c r="K22" s="16"/>
-      <c r="L22" s="16"/>
-      <c r="M22" s="16"/>
+      <c r="L22" s="20"/>
+      <c r="M22" s="20"/>
       <c r="N22" s="16"/>
       <c r="O22" s="16"/>
       <c r="P22" s="16"/>
@@ -9167,18 +9169,24 @@
     </row>
     <row r="24" spans="1:17" s="14" customFormat="1">
       <c r="A24" s="7"/>
-      <c r="B24" s="1"/>
-      <c r="C24" s="1"/>
+      <c r="B24" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="C24" s="1" t="s">
+        <v>63</v>
+      </c>
       <c r="D24" s="1"/>
       <c r="E24" s="7"/>
       <c r="F24" s="25"/>
       <c r="G24" s="25"/>
-      <c r="H24" s="1"/>
+      <c r="H24" s="1" t="s">
+        <v>64</v>
+      </c>
       <c r="I24" s="17"/>
       <c r="J24" s="17"/>
       <c r="K24" s="16"/>
-      <c r="L24" s="20"/>
-      <c r="M24" s="20"/>
+      <c r="L24" s="16"/>
+      <c r="M24" s="16"/>
       <c r="N24" s="16"/>
       <c r="O24" s="16"/>
       <c r="P24" s="16"/>
@@ -9189,8 +9197,8 @@
       <c r="B25" s="1"/>
       <c r="C25" s="1"/>
       <c r="D25" s="1"/>
-      <c r="E25" s="7"/>
-      <c r="F25" s="25"/>
+      <c r="E25" s="1"/>
+      <c r="F25" s="2"/>
       <c r="G25" s="25"/>
       <c r="H25" s="1"/>
       <c r="I25" s="17"/>
@@ -9215,11 +9223,11 @@
       <c r="I26" s="17"/>
       <c r="J26" s="17"/>
       <c r="K26" s="16"/>
-      <c r="L26" s="16"/>
-      <c r="M26" s="16"/>
+      <c r="L26" s="20"/>
+      <c r="M26" s="20"/>
       <c r="N26" s="16"/>
-      <c r="O26" s="20"/>
-      <c r="P26" s="20"/>
+      <c r="O26" s="16"/>
+      <c r="P26" s="16"/>
       <c r="Q26" s="16"/>
     </row>
     <row r="27" spans="1:17" s="14" customFormat="1">
@@ -9227,8 +9235,8 @@
       <c r="B27" s="1"/>
       <c r="C27" s="1"/>
       <c r="D27" s="1"/>
-      <c r="E27" s="1"/>
-      <c r="F27" s="2"/>
+      <c r="E27" s="7"/>
+      <c r="F27" s="25"/>
       <c r="G27" s="25"/>
       <c r="H27" s="1"/>
       <c r="I27" s="17"/>
@@ -9246,18 +9254,18 @@
       <c r="B28" s="1"/>
       <c r="C28" s="1"/>
       <c r="D28" s="1"/>
-      <c r="E28" s="1"/>
-      <c r="F28" s="2"/>
+      <c r="E28" s="7"/>
+      <c r="F28" s="25"/>
       <c r="G28" s="25"/>
       <c r="H28" s="1"/>
       <c r="I28" s="17"/>
       <c r="J28" s="17"/>
       <c r="K28" s="16"/>
-      <c r="L28" s="20"/>
-      <c r="M28" s="20"/>
+      <c r="L28" s="16"/>
+      <c r="M28" s="16"/>
       <c r="N28" s="16"/>
-      <c r="O28" s="16"/>
-      <c r="P28" s="16"/>
+      <c r="O28" s="20"/>
+      <c r="P28" s="20"/>
       <c r="Q28" s="16"/>
     </row>
     <row r="29" spans="1:17" s="14" customFormat="1">
@@ -9265,12 +9273,12 @@
       <c r="B29" s="1"/>
       <c r="C29" s="1"/>
       <c r="D29" s="1"/>
-      <c r="E29" s="7"/>
-      <c r="F29" s="25"/>
+      <c r="E29" s="1"/>
+      <c r="F29" s="2"/>
       <c r="G29" s="25"/>
       <c r="H29" s="1"/>
-      <c r="I29" s="16"/>
-      <c r="J29" s="16"/>
+      <c r="I29" s="17"/>
+      <c r="J29" s="17"/>
       <c r="K29" s="16"/>
       <c r="L29" s="16"/>
       <c r="M29" s="16"/>
@@ -9284,15 +9292,15 @@
       <c r="B30" s="1"/>
       <c r="C30" s="1"/>
       <c r="D30" s="1"/>
-      <c r="E30" s="7"/>
-      <c r="F30" s="25"/>
+      <c r="E30" s="1"/>
+      <c r="F30" s="2"/>
       <c r="G30" s="25"/>
       <c r="H30" s="1"/>
-      <c r="I30" s="16"/>
-      <c r="J30" s="16"/>
+      <c r="I30" s="17"/>
+      <c r="J30" s="17"/>
       <c r="K30" s="16"/>
-      <c r="L30" s="16"/>
-      <c r="M30" s="16"/>
+      <c r="L30" s="20"/>
+      <c r="M30" s="20"/>
       <c r="N30" s="16"/>
       <c r="O30" s="16"/>
       <c r="P30" s="16"/>
@@ -9338,13 +9346,13 @@
     </row>
     <row r="33" spans="1:17" s="14" customFormat="1">
       <c r="A33" s="7"/>
-      <c r="B33" s="7"/>
-      <c r="C33" s="7"/>
-      <c r="D33" s="7"/>
+      <c r="B33" s="1"/>
+      <c r="C33" s="1"/>
+      <c r="D33" s="1"/>
       <c r="E33" s="7"/>
       <c r="F33" s="25"/>
       <c r="G33" s="25"/>
-      <c r="H33" s="7"/>
+      <c r="H33" s="1"/>
       <c r="I33" s="16"/>
       <c r="J33" s="16"/>
       <c r="K33" s="16"/>
@@ -9356,42 +9364,42 @@
       <c r="Q33" s="16"/>
     </row>
     <row r="34" spans="1:17" s="14" customFormat="1">
-      <c r="A34" s="8"/>
-      <c r="B34" s="8"/>
-      <c r="C34" s="8"/>
-      <c r="D34" s="8"/>
-      <c r="E34" s="8"/>
-      <c r="F34" s="8"/>
-      <c r="G34" s="8"/>
-      <c r="H34" s="8"/>
-      <c r="I34" s="21"/>
-      <c r="J34" s="21"/>
-      <c r="K34" s="21"/>
-      <c r="L34" s="21"/>
-      <c r="M34" s="21"/>
-      <c r="N34" s="21"/>
-      <c r="O34" s="21"/>
-      <c r="P34" s="21"/>
-      <c r="Q34" s="21"/>
+      <c r="A34" s="7"/>
+      <c r="B34" s="1"/>
+      <c r="C34" s="1"/>
+      <c r="D34" s="1"/>
+      <c r="E34" s="7"/>
+      <c r="F34" s="25"/>
+      <c r="G34" s="25"/>
+      <c r="H34" s="1"/>
+      <c r="I34" s="16"/>
+      <c r="J34" s="16"/>
+      <c r="K34" s="16"/>
+      <c r="L34" s="16"/>
+      <c r="M34" s="16"/>
+      <c r="N34" s="16"/>
+      <c r="O34" s="16"/>
+      <c r="P34" s="16"/>
+      <c r="Q34" s="16"/>
     </row>
     <row r="35" spans="1:17" s="14" customFormat="1">
-      <c r="A35" s="8"/>
-      <c r="B35" s="8"/>
-      <c r="C35" s="8"/>
-      <c r="D35" s="8"/>
-      <c r="E35" s="8"/>
-      <c r="F35" s="8"/>
-      <c r="G35" s="8"/>
-      <c r="H35" s="8"/>
-      <c r="I35" s="21"/>
-      <c r="J35" s="21"/>
-      <c r="K35" s="21"/>
-      <c r="L35" s="21"/>
-      <c r="M35" s="21"/>
-      <c r="N35" s="21"/>
-      <c r="O35" s="21"/>
-      <c r="P35" s="21"/>
-      <c r="Q35" s="21"/>
+      <c r="A35" s="7"/>
+      <c r="B35" s="7"/>
+      <c r="C35" s="7"/>
+      <c r="D35" s="7"/>
+      <c r="E35" s="7"/>
+      <c r="F35" s="25"/>
+      <c r="G35" s="25"/>
+      <c r="H35" s="7"/>
+      <c r="I35" s="16"/>
+      <c r="J35" s="16"/>
+      <c r="K35" s="16"/>
+      <c r="L35" s="16"/>
+      <c r="M35" s="16"/>
+      <c r="N35" s="16"/>
+      <c r="O35" s="16"/>
+      <c r="P35" s="16"/>
+      <c r="Q35" s="16"/>
     </row>
     <row r="36" spans="1:17" s="14" customFormat="1">
       <c r="A36" s="8"/>
@@ -9678,7 +9686,7 @@
       <c r="P50" s="21"/>
       <c r="Q50" s="21"/>
     </row>
-    <row r="51" spans="1:17">
+    <row r="51" spans="1:17" s="14" customFormat="1">
       <c r="A51" s="8"/>
       <c r="B51" s="8"/>
       <c r="C51" s="8"/>
@@ -9697,7 +9705,7 @@
       <c r="P51" s="21"/>
       <c r="Q51" s="21"/>
     </row>
-    <row r="52" spans="1:17">
+    <row r="52" spans="1:17" s="14" customFormat="1">
       <c r="A52" s="8"/>
       <c r="B52" s="8"/>
       <c r="C52" s="8"/>
@@ -10021,42 +10029,80 @@
       <c r="Q68" s="21"/>
     </row>
     <row r="69" spans="1:17">
-      <c r="A69" s="9"/>
-      <c r="B69" s="9"/>
-      <c r="C69" s="9"/>
-      <c r="D69" s="9"/>
-      <c r="E69" s="9"/>
-      <c r="F69" s="9"/>
-      <c r="G69" s="9"/>
-      <c r="H69" s="9"/>
-      <c r="I69" s="22"/>
-      <c r="J69" s="22"/>
-      <c r="K69" s="22"/>
-      <c r="L69" s="22"/>
-      <c r="M69" s="22"/>
-      <c r="N69" s="22"/>
-      <c r="O69" s="22"/>
-      <c r="P69" s="22"/>
-      <c r="Q69" s="22"/>
+      <c r="A69" s="8"/>
+      <c r="B69" s="8"/>
+      <c r="C69" s="8"/>
+      <c r="D69" s="8"/>
+      <c r="E69" s="8"/>
+      <c r="F69" s="8"/>
+      <c r="G69" s="8"/>
+      <c r="H69" s="8"/>
+      <c r="I69" s="21"/>
+      <c r="J69" s="21"/>
+      <c r="K69" s="21"/>
+      <c r="L69" s="21"/>
+      <c r="M69" s="21"/>
+      <c r="N69" s="21"/>
+      <c r="O69" s="21"/>
+      <c r="P69" s="21"/>
+      <c r="Q69" s="21"/>
     </row>
     <row r="70" spans="1:17">
-      <c r="A70" s="9"/>
-      <c r="B70" s="9"/>
-      <c r="C70" s="9"/>
-      <c r="D70" s="9"/>
-      <c r="E70" s="9"/>
-      <c r="F70" s="9"/>
-      <c r="G70" s="9"/>
-      <c r="H70" s="9"/>
-      <c r="I70" s="22"/>
-      <c r="J70" s="22"/>
-      <c r="K70" s="22"/>
-      <c r="L70" s="22"/>
-      <c r="M70" s="22"/>
-      <c r="N70" s="22"/>
-      <c r="O70" s="22"/>
-      <c r="P70" s="22"/>
-      <c r="Q70" s="22"/>
+      <c r="A70" s="8"/>
+      <c r="B70" s="8"/>
+      <c r="C70" s="8"/>
+      <c r="D70" s="8"/>
+      <c r="E70" s="8"/>
+      <c r="F70" s="8"/>
+      <c r="G70" s="8"/>
+      <c r="H70" s="8"/>
+      <c r="I70" s="21"/>
+      <c r="J70" s="21"/>
+      <c r="K70" s="21"/>
+      <c r="L70" s="21"/>
+      <c r="M70" s="21"/>
+      <c r="N70" s="21"/>
+      <c r="O70" s="21"/>
+      <c r="P70" s="21"/>
+      <c r="Q70" s="21"/>
+    </row>
+    <row r="71" spans="1:17">
+      <c r="A71" s="9"/>
+      <c r="B71" s="9"/>
+      <c r="C71" s="9"/>
+      <c r="D71" s="9"/>
+      <c r="E71" s="9"/>
+      <c r="F71" s="9"/>
+      <c r="G71" s="9"/>
+      <c r="H71" s="9"/>
+      <c r="I71" s="22"/>
+      <c r="J71" s="22"/>
+      <c r="K71" s="22"/>
+      <c r="L71" s="22"/>
+      <c r="M71" s="22"/>
+      <c r="N71" s="22"/>
+      <c r="O71" s="22"/>
+      <c r="P71" s="22"/>
+      <c r="Q71" s="22"/>
+    </row>
+    <row r="72" spans="1:17">
+      <c r="A72" s="9"/>
+      <c r="B72" s="9"/>
+      <c r="C72" s="9"/>
+      <c r="D72" s="9"/>
+      <c r="E72" s="9"/>
+      <c r="F72" s="9"/>
+      <c r="G72" s="9"/>
+      <c r="H72" s="9"/>
+      <c r="I72" s="22"/>
+      <c r="J72" s="22"/>
+      <c r="K72" s="22"/>
+      <c r="L72" s="22"/>
+      <c r="M72" s="22"/>
+      <c r="N72" s="22"/>
+      <c r="O72" s="22"/>
+      <c r="P72" s="22"/>
+      <c r="Q72" s="22"/>
     </row>
   </sheetData>
   <mergeCells count="9">
@@ -10077,7 +10123,7 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <tabColor theme="4" tint="0.39997558519241921"/>
   </sheetPr>
@@ -11596,14 +11642,14 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <tabColor theme="5" tint="0.39997558519241921"/>
   </sheetPr>
   <dimension ref="A1:Q76"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H9" sqref="H9"/>
+      <selection activeCell="B21" sqref="B21:H21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -13248,7 +13294,7 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <tabColor theme="5" tint="0.39997558519241921"/>
   </sheetPr>
@@ -14782,7 +14828,7 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <tabColor theme="5" tint="0.39997558519241921"/>
   </sheetPr>
@@ -16301,7 +16347,7 @@
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <tabColor theme="5" tint="0.39997558519241921"/>
   </sheetPr>

--- a/ST_Player/db.xlsx
+++ b/ST_Player/db.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="15330" windowHeight="7695" tabRatio="1000" activeTab="3"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="15330" windowHeight="7695" tabRatio="1000" activeTab="8"/>
   </bookViews>
   <sheets>
     <sheet name="ユーザー" sheetId="69" r:id="rId1"/>
@@ -682,22 +682,6 @@
     <phoneticPr fontId="10"/>
   </si>
   <si>
-    <t>Recordimage</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>recordimages</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>Profileimage</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>profileimages</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
     <t>profile_id</t>
     <phoneticPr fontId="10"/>
   </si>
@@ -853,14 +837,6 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>Cardimage</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>cardimages</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
     <t>選手カードID</t>
     <rPh sb="0" eb="2">
       <t>センシュ</t>
@@ -1039,6 +1015,30 @@
     <rPh sb="9" eb="10">
       <t>ガ</t>
     </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>profile_images</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>ProfileImage</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>RecordImage</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>record_images</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>card_images</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>CardImage</t>
     <phoneticPr fontId="2"/>
   </si>
 </sst>
@@ -1936,7 +1936,7 @@
         <v>3</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>173</v>
+        <v>167</v>
       </c>
       <c r="D4" s="1"/>
       <c r="E4" s="1" t="s">
@@ -1949,7 +1949,7 @@
         <v>8</v>
       </c>
       <c r="H4" s="1" t="s">
-        <v>170</v>
+        <v>164</v>
       </c>
       <c r="I4" s="16"/>
       <c r="J4" s="16"/>
@@ -3446,7 +3446,7 @@
         <v>103</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>172</v>
+        <v>166</v>
       </c>
       <c r="D4" s="1"/>
       <c r="E4" s="1" t="s">
@@ -3493,7 +3493,7 @@
     <row r="6" spans="1:17" s="14" customFormat="1">
       <c r="A6" s="7"/>
       <c r="B6" s="1" t="s">
-        <v>178</v>
+        <v>172</v>
       </c>
       <c r="C6" s="1" t="s">
         <v>23</v>
@@ -3505,7 +3505,7 @@
       <c r="F6" s="2"/>
       <c r="G6" s="2"/>
       <c r="H6" s="1" t="s">
-        <v>180</v>
+        <v>174</v>
       </c>
       <c r="I6" s="17"/>
       <c r="J6" s="17"/>
@@ -3520,7 +3520,7 @@
     <row r="7" spans="1:17" s="14" customFormat="1">
       <c r="A7" s="7"/>
       <c r="B7" s="1" t="s">
-        <v>179</v>
+        <v>173</v>
       </c>
       <c r="C7" s="1" t="s">
         <v>23</v>
@@ -3532,7 +3532,7 @@
       <c r="F7" s="2"/>
       <c r="G7" s="2"/>
       <c r="H7" s="1" t="s">
-        <v>181</v>
+        <v>175</v>
       </c>
       <c r="I7" s="18"/>
       <c r="J7" s="18"/>
@@ -4982,7 +4982,7 @@
         <v>17</v>
       </c>
       <c r="C6" s="29" t="s">
-        <v>152</v>
+        <v>148</v>
       </c>
       <c r="D6" s="29">
         <v>255</v>
@@ -4991,7 +4991,7 @@
       <c r="F6" s="30"/>
       <c r="G6" s="30"/>
       <c r="H6" s="29" t="s">
-        <v>135</v>
+        <v>131</v>
       </c>
       <c r="I6" s="17"/>
       <c r="J6" s="17"/>
@@ -5006,17 +5006,17 @@
     <row r="7" spans="1:17" s="14" customFormat="1">
       <c r="A7" s="7"/>
       <c r="B7" s="29" t="s">
-        <v>136</v>
+        <v>132</v>
       </c>
       <c r="C7" s="29" t="s">
-        <v>150</v>
+        <v>146</v>
       </c>
       <c r="D7" s="29"/>
       <c r="E7" s="29"/>
       <c r="F7" s="30"/>
       <c r="G7" s="30"/>
       <c r="H7" s="29" t="s">
-        <v>137</v>
+        <v>133</v>
       </c>
       <c r="I7" s="18"/>
       <c r="J7" s="18"/>
@@ -5031,10 +5031,10 @@
     <row r="8" spans="1:17" s="14" customFormat="1">
       <c r="A8" s="7"/>
       <c r="B8" s="29" t="s">
-        <v>138</v>
+        <v>134</v>
       </c>
       <c r="C8" s="29" t="s">
-        <v>147</v>
+        <v>143</v>
       </c>
       <c r="D8" s="29"/>
       <c r="E8" s="29"/>
@@ -5043,7 +5043,7 @@
       </c>
       <c r="G8" s="30"/>
       <c r="H8" s="29" t="s">
-        <v>139</v>
+        <v>135</v>
       </c>
       <c r="I8" s="18"/>
       <c r="J8" s="18"/>
@@ -5058,10 +5058,10 @@
     <row r="9" spans="1:17" s="14" customFormat="1">
       <c r="A9" s="7"/>
       <c r="B9" s="29" t="s">
-        <v>140</v>
+        <v>136</v>
       </c>
       <c r="C9" s="29" t="s">
-        <v>148</v>
+        <v>144</v>
       </c>
       <c r="D9" s="29"/>
       <c r="E9" s="29"/>
@@ -5070,7 +5070,7 @@
       </c>
       <c r="G9" s="30"/>
       <c r="H9" s="29" t="s">
-        <v>141</v>
+        <v>137</v>
       </c>
       <c r="I9" s="18"/>
       <c r="J9" s="18"/>
@@ -5085,10 +5085,10 @@
     <row r="10" spans="1:17" s="14" customFormat="1">
       <c r="A10" s="10"/>
       <c r="B10" s="29" t="s">
-        <v>156</v>
+        <v>152</v>
       </c>
       <c r="C10" s="29" t="s">
-        <v>149</v>
+        <v>145</v>
       </c>
       <c r="D10" s="29"/>
       <c r="E10" s="29"/>
@@ -5097,7 +5097,7 @@
       </c>
       <c r="G10" s="30"/>
       <c r="H10" s="29" t="s">
-        <v>153</v>
+        <v>149</v>
       </c>
       <c r="I10" s="19"/>
       <c r="J10" s="19"/>
@@ -5112,10 +5112,10 @@
     <row r="11" spans="1:17" s="14" customFormat="1">
       <c r="A11" s="7"/>
       <c r="B11" s="29" t="s">
-        <v>155</v>
+        <v>151</v>
       </c>
       <c r="C11" s="29" t="s">
-        <v>151</v>
+        <v>147</v>
       </c>
       <c r="D11" s="29">
         <v>255</v>
@@ -5124,7 +5124,7 @@
       <c r="F11" s="30"/>
       <c r="G11" s="30"/>
       <c r="H11" s="29" t="s">
-        <v>157</v>
+        <v>153</v>
       </c>
       <c r="I11" s="17"/>
       <c r="J11" s="17"/>
@@ -5139,17 +5139,17 @@
     <row r="12" spans="1:17" s="14" customFormat="1">
       <c r="A12" s="7"/>
       <c r="B12" s="31" t="s">
-        <v>142</v>
+        <v>138</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>173</v>
+        <v>167</v>
       </c>
       <c r="D12" s="31"/>
       <c r="E12" s="33"/>
       <c r="F12" s="33"/>
       <c r="G12" s="33"/>
       <c r="H12" s="34" t="s">
-        <v>154</v>
+        <v>150</v>
       </c>
       <c r="I12" s="17"/>
       <c r="J12" s="17"/>
@@ -5164,10 +5164,10 @@
     <row r="13" spans="1:17" s="14" customFormat="1">
       <c r="A13" s="7"/>
       <c r="B13" s="29" t="s">
-        <v>143</v>
+        <v>139</v>
       </c>
       <c r="C13" s="29" t="s">
-        <v>152</v>
+        <v>148</v>
       </c>
       <c r="D13" s="29">
         <v>64</v>
@@ -5176,7 +5176,7 @@
       <c r="F13" s="30"/>
       <c r="G13" s="32"/>
       <c r="H13" s="29" t="s">
-        <v>144</v>
+        <v>140</v>
       </c>
       <c r="I13" s="17"/>
       <c r="J13" s="17"/>
@@ -5191,17 +5191,17 @@
     <row r="14" spans="1:17" s="14" customFormat="1">
       <c r="A14" s="7"/>
       <c r="B14" s="29" t="s">
-        <v>145</v>
+        <v>141</v>
       </c>
       <c r="C14" s="29" t="s">
-        <v>147</v>
+        <v>143</v>
       </c>
       <c r="D14" s="29"/>
       <c r="E14" s="29"/>
       <c r="F14" s="30"/>
       <c r="G14" s="32"/>
       <c r="H14" s="29" t="s">
-        <v>146</v>
+        <v>142</v>
       </c>
       <c r="I14" s="18"/>
       <c r="J14" s="18"/>
@@ -6314,7 +6314,7 @@
       </c>
       <c r="B1" s="40"/>
       <c r="C1" s="41" t="s">
-        <v>182</v>
+        <v>176</v>
       </c>
       <c r="D1" s="41"/>
       <c r="E1" s="42"/>
@@ -6324,7 +6324,7 @@
       <c r="G1" s="40"/>
       <c r="H1" s="3"/>
       <c r="I1" s="48" t="s">
-        <v>183</v>
+        <v>177</v>
       </c>
       <c r="J1" s="49"/>
       <c r="K1" s="49"/>
@@ -6341,7 +6341,7 @@
       </c>
       <c r="B2" s="44"/>
       <c r="C2" s="45" t="s">
-        <v>184</v>
+        <v>178</v>
       </c>
       <c r="D2" s="45"/>
       <c r="E2" s="45"/>
@@ -6349,7 +6349,7 @@
       <c r="G2" s="45"/>
       <c r="H2" s="45"/>
       <c r="I2" s="46" t="s">
-        <v>185</v>
+        <v>179</v>
       </c>
       <c r="J2" s="47"/>
       <c r="K2" s="36"/>
@@ -6381,40 +6381,40 @@
         <v>4</v>
       </c>
       <c r="F3" s="6" t="s">
-        <v>186</v>
+        <v>180</v>
       </c>
       <c r="G3" s="6" t="s">
-        <v>187</v>
+        <v>181</v>
       </c>
       <c r="H3" s="6" t="s">
         <v>0</v>
       </c>
       <c r="I3" s="15" t="s">
-        <v>188</v>
+        <v>182</v>
       </c>
       <c r="J3" s="15" t="s">
-        <v>189</v>
+        <v>183</v>
       </c>
       <c r="K3" s="15" t="s">
-        <v>190</v>
+        <v>184</v>
       </c>
       <c r="L3" s="15" t="s">
-        <v>188</v>
+        <v>182</v>
       </c>
       <c r="M3" s="15" t="s">
-        <v>189</v>
+        <v>183</v>
       </c>
       <c r="N3" s="15" t="s">
-        <v>190</v>
+        <v>184</v>
       </c>
       <c r="O3" s="15" t="s">
-        <v>188</v>
+        <v>182</v>
       </c>
       <c r="P3" s="15" t="s">
-        <v>189</v>
+        <v>183</v>
       </c>
       <c r="Q3" s="15" t="s">
-        <v>190</v>
+        <v>184</v>
       </c>
     </row>
     <row r="4" spans="1:17">
@@ -6423,7 +6423,7 @@
         <v>103</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>191</v>
+        <v>185</v>
       </c>
       <c r="D4" s="1"/>
       <c r="E4" s="1" t="s">
@@ -6436,7 +6436,7 @@
         <v>105</v>
       </c>
       <c r="H4" s="1" t="s">
-        <v>192</v>
+        <v>186</v>
       </c>
       <c r="I4" s="16"/>
       <c r="J4" s="16"/>
@@ -6454,16 +6454,16 @@
         <v>125</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>191</v>
+        <v>185</v>
       </c>
       <c r="D5" s="1"/>
       <c r="E5" s="1" t="s">
-        <v>193</v>
+        <v>187</v>
       </c>
       <c r="F5" s="2"/>
       <c r="G5" s="2"/>
       <c r="H5" s="1" t="s">
-        <v>170</v>
+        <v>164</v>
       </c>
       <c r="I5" s="16"/>
       <c r="J5" s="16"/>
@@ -6490,7 +6490,7 @@
       <c r="F6" s="2"/>
       <c r="G6" s="2"/>
       <c r="H6" s="1" t="s">
-        <v>194</v>
+        <v>188</v>
       </c>
       <c r="J6" s="16"/>
       <c r="K6" s="16"/>
@@ -7216,7 +7216,7 @@
         <v>3</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>173</v>
+        <v>167</v>
       </c>
       <c r="D4" s="1"/>
       <c r="E4" s="1" t="s">
@@ -7229,7 +7229,7 @@
         <v>8</v>
       </c>
       <c r="H4" s="1" t="s">
-        <v>158</v>
+        <v>154</v>
       </c>
       <c r="I4" s="16"/>
       <c r="J4" s="16"/>
@@ -7266,7 +7266,7 @@
         <v>31</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>173</v>
+        <v>167</v>
       </c>
       <c r="D6" s="1"/>
       <c r="E6" s="1"/>
@@ -8553,7 +8553,7 @@
   </sheetPr>
   <dimension ref="A1:Q72"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
@@ -8693,7 +8693,7 @@
         <v>3</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>173</v>
+        <v>167</v>
       </c>
       <c r="D4" s="1"/>
       <c r="E4" s="1" t="s">
@@ -8743,7 +8743,7 @@
         <v>31</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>173</v>
+        <v>167</v>
       </c>
       <c r="D6" s="1"/>
       <c r="E6" s="1"/>
@@ -9129,7 +9129,7 @@
         <v>61</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>173</v>
+        <v>167</v>
       </c>
       <c r="D22" s="1"/>
       <c r="E22" s="1"/>
@@ -10130,7 +10130,7 @@
   <dimension ref="A1:Q73"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C8" sqref="C8"/>
+      <selection activeCell="C2" sqref="C2:H2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -10160,7 +10160,7 @@
       </c>
       <c r="B1" s="40"/>
       <c r="C1" s="41" t="s">
-        <v>128</v>
+        <v>190</v>
       </c>
       <c r="D1" s="41"/>
       <c r="E1" s="42"/>
@@ -10187,7 +10187,7 @@
       </c>
       <c r="B2" s="44"/>
       <c r="C2" s="45" t="s">
-        <v>129</v>
+        <v>189</v>
       </c>
       <c r="D2" s="45"/>
       <c r="E2" s="45"/>
@@ -10269,7 +10269,7 @@
         <v>3</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>173</v>
+        <v>167</v>
       </c>
       <c r="D4" s="1"/>
       <c r="E4" s="1" t="s">
@@ -10282,7 +10282,7 @@
         <v>8</v>
       </c>
       <c r="H4" s="1" t="s">
-        <v>134</v>
+        <v>130</v>
       </c>
       <c r="I4" s="16"/>
       <c r="J4" s="16"/>
@@ -10326,7 +10326,7 @@
       <c r="F6" s="2"/>
       <c r="G6" s="2"/>
       <c r="H6" s="1" t="s">
-        <v>133</v>
+        <v>129</v>
       </c>
       <c r="I6" s="16"/>
       <c r="J6" s="16"/>
@@ -10341,17 +10341,17 @@
     <row r="7" spans="1:17" s="14" customFormat="1">
       <c r="A7" s="7"/>
       <c r="B7" s="1" t="s">
-        <v>130</v>
+        <v>126</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>173</v>
+        <v>167</v>
       </c>
       <c r="D7" s="1"/>
       <c r="E7" s="1"/>
       <c r="F7" s="2"/>
       <c r="G7" s="2"/>
       <c r="H7" s="1" t="s">
-        <v>132</v>
+        <v>128</v>
       </c>
       <c r="I7" s="17"/>
       <c r="J7" s="17"/>
@@ -10366,10 +10366,10 @@
     <row r="8" spans="1:17" s="14" customFormat="1">
       <c r="A8" s="7"/>
       <c r="B8" s="1" t="s">
-        <v>131</v>
+        <v>127</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>173</v>
+        <v>167</v>
       </c>
       <c r="D8" s="1"/>
       <c r="E8" s="1"/>
@@ -11788,7 +11788,7 @@
         <v>3</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>173</v>
+        <v>167</v>
       </c>
       <c r="D4" s="1"/>
       <c r="E4" s="1" t="s">
@@ -11838,7 +11838,7 @@
         <v>125</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>173</v>
+        <v>167</v>
       </c>
       <c r="D6" s="1"/>
       <c r="E6" s="1"/>
@@ -11906,7 +11906,7 @@
     <row r="9" spans="1:17" s="14" customFormat="1">
       <c r="A9" s="7"/>
       <c r="B9" s="1" t="s">
-        <v>176</v>
+        <v>170</v>
       </c>
       <c r="C9" s="1" t="s">
         <v>23</v>
@@ -11918,7 +11918,7 @@
       <c r="F9" s="2"/>
       <c r="G9" s="2"/>
       <c r="H9" s="1" t="s">
-        <v>177</v>
+        <v>171</v>
       </c>
       <c r="I9" s="16"/>
       <c r="J9" s="16"/>
@@ -12079,7 +12079,7 @@
       <c r="F16" s="2"/>
       <c r="G16" s="2"/>
       <c r="H16" s="1" t="s">
-        <v>167</v>
+        <v>161</v>
       </c>
       <c r="I16" s="18"/>
       <c r="J16" s="18"/>
@@ -12222,10 +12222,10 @@
     <row r="23" spans="1:17" s="14" customFormat="1">
       <c r="A23" s="7"/>
       <c r="B23" s="1" t="s">
-        <v>164</v>
+        <v>158</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>163</v>
+        <v>157</v>
       </c>
       <c r="D23" s="1">
         <v>64</v>
@@ -12249,10 +12249,10 @@
     <row r="24" spans="1:17" s="14" customFormat="1">
       <c r="A24" s="7"/>
       <c r="B24" s="1" t="s">
-        <v>165</v>
+        <v>159</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>163</v>
+        <v>157</v>
       </c>
       <c r="D24" s="1">
         <v>64</v>
@@ -12276,10 +12276,10 @@
     <row r="25" spans="1:17" s="14" customFormat="1">
       <c r="A25" s="7"/>
       <c r="B25" s="1" t="s">
-        <v>166</v>
+        <v>160</v>
       </c>
       <c r="C25" s="1" t="s">
-        <v>163</v>
+        <v>157</v>
       </c>
       <c r="D25" s="1">
         <v>64</v>
@@ -13331,7 +13331,7 @@
       </c>
       <c r="B1" s="40"/>
       <c r="C1" s="41" t="s">
-        <v>168</v>
+        <v>162</v>
       </c>
       <c r="D1" s="41"/>
       <c r="E1" s="42"/>
@@ -13358,7 +13358,7 @@
       </c>
       <c r="B2" s="44"/>
       <c r="C2" s="45" t="s">
-        <v>169</v>
+        <v>163</v>
       </c>
       <c r="D2" s="45"/>
       <c r="E2" s="45"/>
@@ -13440,7 +13440,7 @@
         <v>3</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>173</v>
+        <v>167</v>
       </c>
       <c r="D4" s="1"/>
       <c r="E4" s="1" t="s">
@@ -13453,7 +13453,7 @@
         <v>8</v>
       </c>
       <c r="H4" s="1" t="s">
-        <v>171</v>
+        <v>165</v>
       </c>
       <c r="I4" s="16"/>
       <c r="J4" s="16"/>
@@ -13490,7 +13490,7 @@
         <v>116</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>173</v>
+        <v>167</v>
       </c>
       <c r="D6" s="1"/>
       <c r="E6" s="1"/>
@@ -13512,7 +13512,7 @@
     <row r="7" spans="1:17" s="14" customFormat="1">
       <c r="A7" s="7"/>
       <c r="B7" s="1" t="s">
-        <v>174</v>
+        <v>168</v>
       </c>
       <c r="C7" s="1" t="s">
         <v>23</v>
@@ -13524,7 +13524,7 @@
       <c r="F7" s="2"/>
       <c r="G7" s="2"/>
       <c r="H7" s="1" t="s">
-        <v>175</v>
+        <v>169</v>
       </c>
       <c r="I7" s="16"/>
       <c r="J7" s="16"/>
@@ -14835,7 +14835,7 @@
   <dimension ref="A1:Q73"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G8" sqref="G8"/>
+      <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -14865,7 +14865,7 @@
       </c>
       <c r="B1" s="40"/>
       <c r="C1" s="41" t="s">
-        <v>126</v>
+        <v>191</v>
       </c>
       <c r="D1" s="41"/>
       <c r="E1" s="42"/>
@@ -14892,7 +14892,7 @@
       </c>
       <c r="B2" s="44"/>
       <c r="C2" s="45" t="s">
-        <v>127</v>
+        <v>192</v>
       </c>
       <c r="D2" s="45"/>
       <c r="E2" s="45"/>
@@ -14974,7 +14974,7 @@
         <v>3</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>173</v>
+        <v>167</v>
       </c>
       <c r="D4" s="1"/>
       <c r="E4" s="1" t="s">
@@ -14987,7 +14987,7 @@
         <v>8</v>
       </c>
       <c r="H4" s="1" t="s">
-        <v>162</v>
+        <v>156</v>
       </c>
       <c r="I4" s="16"/>
       <c r="J4" s="16"/>
@@ -15049,7 +15049,7 @@
         <v>116</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>173</v>
+        <v>167</v>
       </c>
       <c r="D7" s="1"/>
       <c r="E7" s="1"/>
@@ -15074,7 +15074,7 @@
         <v>122</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>173</v>
+        <v>167</v>
       </c>
       <c r="D8" s="1"/>
       <c r="E8" s="1"/>
@@ -16353,8 +16353,8 @@
   </sheetPr>
   <dimension ref="A1:Q73"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C8" sqref="C8"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C2" sqref="C2:H2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -16384,7 +16384,7 @@
       </c>
       <c r="B1" s="40"/>
       <c r="C1" s="41" t="s">
-        <v>159</v>
+        <v>194</v>
       </c>
       <c r="D1" s="41"/>
       <c r="E1" s="42"/>
@@ -16411,7 +16411,7 @@
       </c>
       <c r="B2" s="44"/>
       <c r="C2" s="45" t="s">
-        <v>160</v>
+        <v>193</v>
       </c>
       <c r="D2" s="45"/>
       <c r="E2" s="45"/>
@@ -16506,7 +16506,7 @@
         <v>8</v>
       </c>
       <c r="H4" s="1" t="s">
-        <v>161</v>
+        <v>155</v>
       </c>
       <c r="I4" s="16"/>
       <c r="J4" s="16"/>
@@ -16550,7 +16550,7 @@
       <c r="F6" s="2"/>
       <c r="G6" s="2"/>
       <c r="H6" s="1" t="s">
-        <v>133</v>
+        <v>129</v>
       </c>
       <c r="I6" s="16"/>
       <c r="J6" s="16"/>
@@ -16568,7 +16568,7 @@
         <v>116</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>173</v>
+        <v>167</v>
       </c>
       <c r="D7" s="1"/>
       <c r="E7" s="1"/>
@@ -16593,7 +16593,7 @@
         <v>122</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>173</v>
+        <v>167</v>
       </c>
       <c r="D8" s="1"/>
       <c r="E8" s="1"/>

--- a/ST_Player/db.xlsx
+++ b/ST_Player/db.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="15330" windowHeight="7695" tabRatio="1000" activeTab="8"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="15330" windowHeight="7695" tabRatio="1000" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="ユーザー" sheetId="69" r:id="rId1"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="538" uniqueCount="195">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="539" uniqueCount="196">
   <si>
     <t>説明</t>
     <rPh sb="0" eb="2">
@@ -1040,6 +1040,9 @@
   <si>
     <t>CardImage</t>
     <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>NOT NULL UNIQUE</t>
   </si>
 </sst>
 </file>
@@ -11648,8 +11651,8 @@
   </sheetPr>
   <dimension ref="A1:Q76"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B21" sqref="B21:H21"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E7" sqref="E7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -11868,7 +11871,9 @@
       <c r="D7" s="1">
         <v>255</v>
       </c>
-      <c r="E7" s="1"/>
+      <c r="E7" s="1" t="s">
+        <v>195</v>
+      </c>
       <c r="F7" s="2"/>
       <c r="G7" s="2"/>
       <c r="H7" s="1" t="s">
@@ -16353,7 +16358,7 @@
   </sheetPr>
   <dimension ref="A1:Q73"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C2" sqref="C2:H2"/>
     </sheetView>
   </sheetViews>

--- a/ST_Player/db.xlsx
+++ b/ST_Player/db.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="539" uniqueCount="196">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="544" uniqueCount="201">
   <si>
     <t>説明</t>
     <rPh sb="0" eb="2">
@@ -1043,6 +1043,29 @@
   </si>
   <si>
     <t>NOT NULL UNIQUE</t>
+  </si>
+  <si>
+    <t>is_public</t>
+    <phoneticPr fontId="10"/>
+  </si>
+  <si>
+    <t>tinyint</t>
+    <phoneticPr fontId="10"/>
+  </si>
+  <si>
+    <t>○</t>
+    <phoneticPr fontId="10"/>
+  </si>
+  <si>
+    <t>NOT NULL DEFAULT 1</t>
+    <phoneticPr fontId="10"/>
+  </si>
+  <si>
+    <t>公開フラグ</t>
+    <rPh sb="0" eb="2">
+      <t>コウカイ</t>
+    </rPh>
+    <phoneticPr fontId="10"/>
   </si>
 </sst>
 </file>
@@ -1800,7 +1823,7 @@
   <dimension ref="A1:Q72"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
+      <selection activeCell="E13" sqref="E13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -11652,7 +11675,7 @@
   <dimension ref="A1:Q76"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E7" sqref="E7"/>
+      <selection activeCell="H30" sqref="H30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -12370,13 +12393,25 @@
     </row>
     <row r="29" spans="1:17" s="14" customFormat="1">
       <c r="A29" s="7"/>
-      <c r="B29" s="1"/>
-      <c r="C29" s="1"/>
-      <c r="D29" s="1"/>
-      <c r="E29" s="1"/>
-      <c r="F29" s="2"/>
+      <c r="B29" s="1" t="s">
+        <v>196</v>
+      </c>
+      <c r="C29" s="1" t="s">
+        <v>197</v>
+      </c>
+      <c r="D29" s="1">
+        <v>1</v>
+      </c>
+      <c r="E29" s="1" t="s">
+        <v>199</v>
+      </c>
+      <c r="F29" s="2" t="s">
+        <v>198</v>
+      </c>
       <c r="G29" s="25"/>
-      <c r="H29" s="1"/>
+      <c r="H29" s="1" t="s">
+        <v>200</v>
+      </c>
       <c r="I29" s="17"/>
       <c r="J29" s="17"/>
       <c r="K29" s="16"/>

--- a/ST_Player/db.xlsx
+++ b/ST_Player/db.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="15330" windowHeight="7695" tabRatio="1000" activeTab="5"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="15330" windowHeight="7695" tabRatio="1000" activeTab="8"/>
   </bookViews>
   <sheets>
     <sheet name="ユーザー" sheetId="69" r:id="rId1"/>
@@ -15,16 +15,17 @@
     <sheet name="記録" sheetId="91" r:id="rId6"/>
     <sheet name="パートナー" sheetId="96" r:id="rId7"/>
     <sheet name="記録画像" sheetId="93" r:id="rId8"/>
-    <sheet name="選手カード画像" sheetId="95" r:id="rId9"/>
-    <sheet name="画像" sheetId="92" r:id="rId10"/>
-    <sheet name="ログ" sheetId="73" r:id="rId11"/>
+    <sheet name="記録オブジェクト" sheetId="98" r:id="rId9"/>
+    <sheet name="選手カード画像" sheetId="95" r:id="rId10"/>
+    <sheet name="画像" sheetId="92" r:id="rId11"/>
+    <sheet name="ログ" sheetId="73" r:id="rId12"/>
   </sheets>
   <calcPr calcId="125725"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="544" uniqueCount="201">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="585" uniqueCount="205">
   <si>
     <t>説明</t>
     <rPh sb="0" eb="2">
@@ -1066,6 +1067,25 @@
       <t>コウカイ</t>
     </rPh>
     <phoneticPr fontId="10"/>
+  </si>
+  <si>
+    <t>RecordObject</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>record_objects</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>image_id</t>
+    <phoneticPr fontId="10"/>
+  </si>
+  <si>
+    <t>記録オブジェクトID</t>
+    <rPh sb="0" eb="2">
+      <t>キロク</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
   </si>
 </sst>
 </file>
@@ -3328,6 +3348,1525 @@
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
+    <tabColor theme="5" tint="0.39997558519241921"/>
+  </sheetPr>
+  <dimension ref="A1:Q73"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C2" sqref="C2:H2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5"/>
+  <cols>
+    <col min="1" max="1" width="5.625" customWidth="1"/>
+    <col min="2" max="2" width="23.125" customWidth="1"/>
+    <col min="3" max="3" width="13" customWidth="1"/>
+    <col min="4" max="4" width="6.625" customWidth="1"/>
+    <col min="5" max="5" width="23.125" customWidth="1"/>
+    <col min="6" max="6" width="9.25" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="8.75" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="27.25" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="3.875" style="23" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="3.875" style="23" customWidth="1"/>
+    <col min="11" max="11" width="8.75" style="23" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="3.875" style="23" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="3.875" style="23" customWidth="1"/>
+    <col min="14" max="14" width="8.75" style="23" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="3.875" style="23" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="3.875" style="23" customWidth="1"/>
+    <col min="17" max="17" width="8.75" style="23" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:17" ht="18" customHeight="1" thickBot="1">
+      <c r="A1" s="39" t="s">
+        <v>32</v>
+      </c>
+      <c r="B1" s="40"/>
+      <c r="C1" s="41" t="s">
+        <v>194</v>
+      </c>
+      <c r="D1" s="41"/>
+      <c r="E1" s="42"/>
+      <c r="F1" s="39" t="s">
+        <v>11</v>
+      </c>
+      <c r="G1" s="40"/>
+      <c r="H1" s="3"/>
+      <c r="I1" s="48" t="s">
+        <v>27</v>
+      </c>
+      <c r="J1" s="49"/>
+      <c r="K1" s="49"/>
+      <c r="L1" s="49"/>
+      <c r="M1" s="49"/>
+      <c r="N1" s="49"/>
+      <c r="O1" s="49"/>
+      <c r="P1" s="49"/>
+      <c r="Q1" s="50"/>
+    </row>
+    <row r="2" spans="1:17" ht="18" customHeight="1" thickBot="1">
+      <c r="A2" s="43" t="s">
+        <v>5</v>
+      </c>
+      <c r="B2" s="44"/>
+      <c r="C2" s="45" t="s">
+        <v>193</v>
+      </c>
+      <c r="D2" s="45"/>
+      <c r="E2" s="45"/>
+      <c r="F2" s="45"/>
+      <c r="G2" s="45"/>
+      <c r="H2" s="45"/>
+      <c r="I2" s="46" t="s">
+        <v>12</v>
+      </c>
+      <c r="J2" s="47"/>
+      <c r="K2" s="36"/>
+      <c r="L2" s="36" t="s">
+        <v>15</v>
+      </c>
+      <c r="M2" s="36"/>
+      <c r="N2" s="36"/>
+      <c r="O2" s="36" t="s">
+        <v>16</v>
+      </c>
+      <c r="P2" s="37"/>
+      <c r="Q2" s="38"/>
+    </row>
+    <row r="3" spans="1:17">
+      <c r="A3" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="B3" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="C3" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="D3" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="E3" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="F3" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="G3" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="H3" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="I3" s="15" t="s">
+        <v>13</v>
+      </c>
+      <c r="J3" s="15" t="s">
+        <v>14</v>
+      </c>
+      <c r="K3" s="15" t="s">
+        <v>19</v>
+      </c>
+      <c r="L3" s="15" t="s">
+        <v>13</v>
+      </c>
+      <c r="M3" s="15" t="s">
+        <v>14</v>
+      </c>
+      <c r="N3" s="15" t="s">
+        <v>19</v>
+      </c>
+      <c r="O3" s="15" t="s">
+        <v>13</v>
+      </c>
+      <c r="P3" s="15" t="s">
+        <v>14</v>
+      </c>
+      <c r="Q3" s="15" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="4" spans="1:17" s="14" customFormat="1">
+      <c r="A4" s="7"/>
+      <c r="B4" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="D4" s="1"/>
+      <c r="E4" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="F4" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="G4" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="H4" s="1" t="s">
+        <v>155</v>
+      </c>
+      <c r="I4" s="16"/>
+      <c r="J4" s="16"/>
+      <c r="K4" s="16"/>
+      <c r="L4" s="16"/>
+      <c r="M4" s="16"/>
+      <c r="N4" s="16"/>
+      <c r="O4" s="16"/>
+      <c r="P4" s="16"/>
+      <c r="Q4" s="16"/>
+    </row>
+    <row r="5" spans="1:17" s="14" customFormat="1">
+      <c r="A5" s="7"/>
+      <c r="B5" s="1"/>
+      <c r="C5" s="1"/>
+      <c r="D5" s="1"/>
+      <c r="E5" s="1"/>
+      <c r="F5" s="2"/>
+      <c r="G5" s="2"/>
+      <c r="H5" s="1"/>
+      <c r="I5" s="16"/>
+      <c r="J5" s="16"/>
+      <c r="K5" s="16"/>
+      <c r="L5" s="16"/>
+      <c r="M5" s="16"/>
+      <c r="N5" s="16"/>
+      <c r="O5" s="16"/>
+      <c r="P5" s="16"/>
+      <c r="Q5" s="16"/>
+    </row>
+    <row r="6" spans="1:17" s="14" customFormat="1">
+      <c r="A6" s="7"/>
+      <c r="B6" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="D6" s="1"/>
+      <c r="E6" s="1"/>
+      <c r="F6" s="2"/>
+      <c r="G6" s="2"/>
+      <c r="H6" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="I6" s="16"/>
+      <c r="J6" s="16"/>
+      <c r="K6" s="16"/>
+      <c r="L6" s="16"/>
+      <c r="M6" s="16"/>
+      <c r="N6" s="16"/>
+      <c r="O6" s="16"/>
+      <c r="P6" s="16"/>
+      <c r="Q6" s="16"/>
+    </row>
+    <row r="7" spans="1:17" s="14" customFormat="1">
+      <c r="A7" s="7"/>
+      <c r="B7" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>167</v>
+      </c>
+      <c r="D7" s="1"/>
+      <c r="E7" s="1"/>
+      <c r="F7" s="2"/>
+      <c r="G7" s="2"/>
+      <c r="H7" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="I7" s="17"/>
+      <c r="J7" s="17"/>
+      <c r="K7" s="18"/>
+      <c r="L7" s="16"/>
+      <c r="M7" s="16"/>
+      <c r="N7" s="16"/>
+      <c r="O7" s="16"/>
+      <c r="P7" s="16"/>
+      <c r="Q7" s="16"/>
+    </row>
+    <row r="8" spans="1:17" s="14" customFormat="1">
+      <c r="A8" s="7"/>
+      <c r="B8" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>167</v>
+      </c>
+      <c r="D8" s="1"/>
+      <c r="E8" s="1"/>
+      <c r="F8" s="2"/>
+      <c r="G8" s="2"/>
+      <c r="H8" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="I8" s="18"/>
+      <c r="J8" s="18"/>
+      <c r="K8" s="18"/>
+      <c r="L8" s="16"/>
+      <c r="M8" s="16"/>
+      <c r="N8" s="16"/>
+      <c r="O8" s="16"/>
+      <c r="P8" s="16"/>
+      <c r="Q8" s="16"/>
+    </row>
+    <row r="9" spans="1:17" s="14" customFormat="1">
+      <c r="A9" s="7"/>
+      <c r="B9" s="26"/>
+      <c r="C9" s="26"/>
+      <c r="D9" s="26"/>
+      <c r="E9" s="1"/>
+      <c r="F9" s="2"/>
+      <c r="G9" s="2"/>
+      <c r="H9" s="1"/>
+      <c r="I9" s="18"/>
+      <c r="J9" s="18"/>
+      <c r="K9" s="18"/>
+      <c r="L9" s="16"/>
+      <c r="M9" s="16"/>
+      <c r="N9" s="16"/>
+      <c r="O9" s="16"/>
+      <c r="P9" s="16"/>
+      <c r="Q9" s="16"/>
+    </row>
+    <row r="10" spans="1:17" s="14" customFormat="1">
+      <c r="A10" s="7"/>
+      <c r="B10" s="1"/>
+      <c r="C10" s="1"/>
+      <c r="D10" s="1"/>
+      <c r="E10" s="7"/>
+      <c r="F10" s="2"/>
+      <c r="G10" s="25"/>
+      <c r="H10" s="1"/>
+      <c r="I10" s="18"/>
+      <c r="J10" s="18"/>
+      <c r="K10" s="18"/>
+      <c r="L10" s="16"/>
+      <c r="M10" s="16"/>
+      <c r="N10" s="16"/>
+      <c r="O10" s="16"/>
+      <c r="P10" s="16"/>
+      <c r="Q10" s="16"/>
+    </row>
+    <row r="11" spans="1:17" s="14" customFormat="1">
+      <c r="A11" s="10"/>
+      <c r="B11" s="4"/>
+      <c r="C11" s="1"/>
+      <c r="D11" s="1"/>
+      <c r="E11" s="10"/>
+      <c r="F11" s="24"/>
+      <c r="G11" s="24"/>
+      <c r="H11" s="12"/>
+      <c r="I11" s="19"/>
+      <c r="J11" s="19"/>
+      <c r="K11" s="19"/>
+      <c r="L11" s="19"/>
+      <c r="M11" s="19"/>
+      <c r="N11" s="19"/>
+      <c r="O11" s="19"/>
+      <c r="P11" s="19"/>
+      <c r="Q11" s="19"/>
+    </row>
+    <row r="12" spans="1:17" s="14" customFormat="1">
+      <c r="A12" s="7"/>
+      <c r="B12" s="1"/>
+      <c r="C12" s="1"/>
+      <c r="D12" s="1"/>
+      <c r="E12" s="1"/>
+      <c r="F12" s="2"/>
+      <c r="G12" s="25"/>
+      <c r="H12" s="1"/>
+      <c r="I12" s="17"/>
+      <c r="J12" s="17"/>
+      <c r="K12" s="16"/>
+      <c r="L12" s="16"/>
+      <c r="M12" s="16"/>
+      <c r="N12" s="16"/>
+      <c r="O12" s="16"/>
+      <c r="P12" s="16"/>
+      <c r="Q12" s="16"/>
+    </row>
+    <row r="13" spans="1:17" s="14" customFormat="1">
+      <c r="A13" s="7"/>
+      <c r="B13" s="1"/>
+      <c r="C13" s="1"/>
+      <c r="D13" s="1"/>
+      <c r="E13" s="1"/>
+      <c r="F13" s="2"/>
+      <c r="G13" s="2"/>
+      <c r="H13" s="1"/>
+      <c r="I13" s="18"/>
+      <c r="J13" s="18"/>
+      <c r="K13" s="18"/>
+      <c r="L13" s="16"/>
+      <c r="M13" s="16"/>
+      <c r="N13" s="16"/>
+      <c r="O13" s="16"/>
+      <c r="P13" s="16"/>
+      <c r="Q13" s="16"/>
+    </row>
+    <row r="14" spans="1:17" s="14" customFormat="1">
+      <c r="A14" s="7"/>
+      <c r="B14" s="1"/>
+      <c r="C14" s="1"/>
+      <c r="D14" s="1"/>
+      <c r="E14" s="1"/>
+      <c r="F14" s="2"/>
+      <c r="G14" s="25"/>
+      <c r="H14" s="1"/>
+      <c r="I14" s="17"/>
+      <c r="J14" s="17"/>
+      <c r="K14" s="16"/>
+      <c r="L14" s="16"/>
+      <c r="M14" s="16"/>
+      <c r="N14" s="16"/>
+      <c r="O14" s="16"/>
+      <c r="P14" s="16"/>
+      <c r="Q14" s="16"/>
+    </row>
+    <row r="15" spans="1:17" s="14" customFormat="1">
+      <c r="A15" s="7"/>
+      <c r="B15" s="1"/>
+      <c r="C15" s="1"/>
+      <c r="D15" s="1"/>
+      <c r="E15" s="1"/>
+      <c r="F15" s="2"/>
+      <c r="G15" s="25"/>
+      <c r="H15" s="1"/>
+      <c r="I15" s="17"/>
+      <c r="J15" s="17"/>
+      <c r="K15" s="16"/>
+      <c r="L15" s="16"/>
+      <c r="M15" s="16"/>
+      <c r="N15" s="16"/>
+      <c r="O15" s="16"/>
+      <c r="P15" s="16"/>
+      <c r="Q15" s="16"/>
+    </row>
+    <row r="16" spans="1:17" s="14" customFormat="1">
+      <c r="A16" s="7"/>
+      <c r="B16" s="1"/>
+      <c r="C16" s="1"/>
+      <c r="D16" s="1"/>
+      <c r="E16" s="1"/>
+      <c r="F16" s="2"/>
+      <c r="G16" s="25"/>
+      <c r="H16" s="1"/>
+      <c r="I16" s="17"/>
+      <c r="J16" s="17"/>
+      <c r="K16" s="18"/>
+      <c r="L16" s="18"/>
+      <c r="M16" s="18"/>
+      <c r="N16" s="18"/>
+      <c r="O16" s="16"/>
+      <c r="P16" s="16"/>
+      <c r="Q16" s="16"/>
+    </row>
+    <row r="17" spans="1:17" s="14" customFormat="1">
+      <c r="A17" s="7"/>
+      <c r="B17" s="1"/>
+      <c r="C17" s="1"/>
+      <c r="D17" s="1"/>
+      <c r="E17" s="1"/>
+      <c r="F17" s="2"/>
+      <c r="G17" s="25"/>
+      <c r="H17" s="1"/>
+      <c r="I17" s="18"/>
+      <c r="J17" s="18"/>
+      <c r="K17" s="18"/>
+      <c r="L17" s="16"/>
+      <c r="M17" s="16"/>
+      <c r="N17" s="16"/>
+      <c r="O17" s="16"/>
+      <c r="P17" s="16"/>
+      <c r="Q17" s="16"/>
+    </row>
+    <row r="18" spans="1:17" s="14" customFormat="1">
+      <c r="A18" s="7"/>
+      <c r="B18" s="1"/>
+      <c r="C18" s="1"/>
+      <c r="D18" s="1"/>
+      <c r="E18" s="1"/>
+      <c r="F18" s="2"/>
+      <c r="G18" s="25"/>
+      <c r="H18" s="1"/>
+      <c r="I18" s="16"/>
+      <c r="J18" s="16"/>
+      <c r="K18" s="16"/>
+      <c r="L18" s="16"/>
+      <c r="M18" s="16"/>
+      <c r="N18" s="16"/>
+      <c r="O18" s="16"/>
+      <c r="P18" s="16"/>
+      <c r="Q18" s="16"/>
+    </row>
+    <row r="19" spans="1:17" s="14" customFormat="1">
+      <c r="A19" s="7"/>
+      <c r="B19" s="1"/>
+      <c r="C19" s="1"/>
+      <c r="D19" s="1"/>
+      <c r="E19" s="1"/>
+      <c r="F19" s="2"/>
+      <c r="G19" s="25"/>
+      <c r="H19" s="1"/>
+      <c r="I19" s="16"/>
+      <c r="J19" s="16"/>
+      <c r="K19" s="16"/>
+      <c r="L19" s="16"/>
+      <c r="M19" s="16"/>
+      <c r="N19" s="16"/>
+      <c r="O19" s="16"/>
+      <c r="P19" s="16"/>
+      <c r="Q19" s="16"/>
+    </row>
+    <row r="20" spans="1:17" s="14" customFormat="1">
+      <c r="A20" s="7"/>
+      <c r="B20" s="1"/>
+      <c r="C20" s="1"/>
+      <c r="D20" s="1"/>
+      <c r="E20" s="1"/>
+      <c r="F20" s="2"/>
+      <c r="G20" s="25"/>
+      <c r="H20" s="1"/>
+      <c r="I20" s="16"/>
+      <c r="J20" s="16"/>
+      <c r="K20" s="16"/>
+      <c r="L20" s="16"/>
+      <c r="M20" s="16"/>
+      <c r="N20" s="16"/>
+      <c r="O20" s="16"/>
+      <c r="P20" s="16"/>
+      <c r="Q20" s="16"/>
+    </row>
+    <row r="21" spans="1:17" s="14" customFormat="1">
+      <c r="A21" s="7"/>
+      <c r="B21" s="1"/>
+      <c r="C21" s="1"/>
+      <c r="D21" s="1"/>
+      <c r="E21" s="1"/>
+      <c r="F21" s="2"/>
+      <c r="G21" s="25"/>
+      <c r="H21" s="1"/>
+      <c r="I21" s="17"/>
+      <c r="J21" s="17"/>
+      <c r="K21" s="16"/>
+      <c r="L21" s="16"/>
+      <c r="M21" s="16"/>
+      <c r="N21" s="16"/>
+      <c r="O21" s="16"/>
+      <c r="P21" s="16"/>
+      <c r="Q21" s="16"/>
+    </row>
+    <row r="22" spans="1:17" s="14" customFormat="1">
+      <c r="A22" s="7"/>
+      <c r="B22" s="1"/>
+      <c r="C22" s="1"/>
+      <c r="D22" s="1"/>
+      <c r="E22" s="1"/>
+      <c r="F22" s="2"/>
+      <c r="G22" s="25"/>
+      <c r="H22" s="1"/>
+      <c r="I22" s="17"/>
+      <c r="J22" s="17"/>
+      <c r="K22" s="16"/>
+      <c r="L22" s="20"/>
+      <c r="M22" s="20"/>
+      <c r="N22" s="16"/>
+      <c r="O22" s="16"/>
+      <c r="P22" s="16"/>
+      <c r="Q22" s="16"/>
+    </row>
+    <row r="23" spans="1:17" s="14" customFormat="1">
+      <c r="A23" s="7"/>
+      <c r="B23" s="1"/>
+      <c r="C23" s="1"/>
+      <c r="D23" s="1"/>
+      <c r="E23" s="1"/>
+      <c r="F23" s="2"/>
+      <c r="G23" s="25"/>
+      <c r="H23" s="1"/>
+      <c r="I23" s="17"/>
+      <c r="J23" s="17"/>
+      <c r="K23" s="16"/>
+      <c r="L23" s="20"/>
+      <c r="M23" s="20"/>
+      <c r="N23" s="16"/>
+      <c r="O23" s="16"/>
+      <c r="P23" s="16"/>
+      <c r="Q23" s="16"/>
+    </row>
+    <row r="24" spans="1:17" s="14" customFormat="1">
+      <c r="A24" s="7"/>
+      <c r="B24" s="1"/>
+      <c r="C24" s="1"/>
+      <c r="D24" s="1"/>
+      <c r="E24" s="1"/>
+      <c r="F24" s="2"/>
+      <c r="G24" s="25"/>
+      <c r="H24" s="1"/>
+      <c r="I24" s="17"/>
+      <c r="J24" s="17"/>
+      <c r="K24" s="16"/>
+      <c r="L24" s="16"/>
+      <c r="M24" s="16"/>
+      <c r="N24" s="16"/>
+      <c r="O24" s="16"/>
+      <c r="P24" s="16"/>
+      <c r="Q24" s="16"/>
+    </row>
+    <row r="25" spans="1:17" s="14" customFormat="1">
+      <c r="A25" s="7"/>
+      <c r="B25" s="1"/>
+      <c r="C25" s="1"/>
+      <c r="D25" s="1"/>
+      <c r="E25" s="1"/>
+      <c r="F25" s="2"/>
+      <c r="G25" s="25"/>
+      <c r="H25" s="1"/>
+      <c r="I25" s="17"/>
+      <c r="J25" s="17"/>
+      <c r="K25" s="16"/>
+      <c r="L25" s="16"/>
+      <c r="M25" s="16"/>
+      <c r="N25" s="16"/>
+      <c r="O25" s="16"/>
+      <c r="P25" s="16"/>
+      <c r="Q25" s="16"/>
+    </row>
+    <row r="26" spans="1:17" s="14" customFormat="1">
+      <c r="A26" s="7"/>
+      <c r="B26" s="1"/>
+      <c r="C26" s="1"/>
+      <c r="D26" s="1"/>
+      <c r="E26" s="1"/>
+      <c r="F26" s="2"/>
+      <c r="G26" s="25"/>
+      <c r="H26" s="1"/>
+      <c r="I26" s="17"/>
+      <c r="J26" s="17"/>
+      <c r="K26" s="16"/>
+      <c r="L26" s="16"/>
+      <c r="M26" s="16"/>
+      <c r="N26" s="16"/>
+      <c r="O26" s="16"/>
+      <c r="P26" s="16"/>
+      <c r="Q26" s="16"/>
+    </row>
+    <row r="27" spans="1:17" s="14" customFormat="1">
+      <c r="A27" s="7"/>
+      <c r="B27" s="1"/>
+      <c r="C27" s="1"/>
+      <c r="D27" s="1"/>
+      <c r="E27" s="7"/>
+      <c r="F27" s="25"/>
+      <c r="G27" s="25"/>
+      <c r="H27" s="1"/>
+      <c r="I27" s="17"/>
+      <c r="J27" s="17"/>
+      <c r="K27" s="16"/>
+      <c r="L27" s="20"/>
+      <c r="M27" s="20"/>
+      <c r="N27" s="16"/>
+      <c r="O27" s="16"/>
+      <c r="P27" s="16"/>
+      <c r="Q27" s="16"/>
+    </row>
+    <row r="28" spans="1:17" s="14" customFormat="1">
+      <c r="A28" s="7"/>
+      <c r="B28" s="1"/>
+      <c r="C28" s="1"/>
+      <c r="D28" s="1"/>
+      <c r="E28" s="7"/>
+      <c r="F28" s="25"/>
+      <c r="G28" s="25"/>
+      <c r="H28" s="1"/>
+      <c r="I28" s="17"/>
+      <c r="J28" s="17"/>
+      <c r="K28" s="16"/>
+      <c r="L28" s="16"/>
+      <c r="M28" s="16"/>
+      <c r="N28" s="16"/>
+      <c r="O28" s="16"/>
+      <c r="P28" s="16"/>
+      <c r="Q28" s="16"/>
+    </row>
+    <row r="29" spans="1:17" s="14" customFormat="1">
+      <c r="A29" s="7"/>
+      <c r="B29" s="1"/>
+      <c r="C29" s="1"/>
+      <c r="D29" s="1"/>
+      <c r="E29" s="7"/>
+      <c r="F29" s="25"/>
+      <c r="G29" s="25"/>
+      <c r="H29" s="1"/>
+      <c r="I29" s="17"/>
+      <c r="J29" s="17"/>
+      <c r="K29" s="16"/>
+      <c r="L29" s="16"/>
+      <c r="M29" s="16"/>
+      <c r="N29" s="16"/>
+      <c r="O29" s="20"/>
+      <c r="P29" s="20"/>
+      <c r="Q29" s="16"/>
+    </row>
+    <row r="30" spans="1:17" s="14" customFormat="1">
+      <c r="A30" s="7"/>
+      <c r="B30" s="1"/>
+      <c r="C30" s="1"/>
+      <c r="D30" s="1"/>
+      <c r="E30" s="1"/>
+      <c r="F30" s="2"/>
+      <c r="G30" s="25"/>
+      <c r="H30" s="1"/>
+      <c r="I30" s="17"/>
+      <c r="J30" s="17"/>
+      <c r="K30" s="16"/>
+      <c r="L30" s="16"/>
+      <c r="M30" s="16"/>
+      <c r="N30" s="16"/>
+      <c r="O30" s="16"/>
+      <c r="P30" s="16"/>
+      <c r="Q30" s="16"/>
+    </row>
+    <row r="31" spans="1:17" s="14" customFormat="1">
+      <c r="A31" s="7"/>
+      <c r="B31" s="1"/>
+      <c r="C31" s="1"/>
+      <c r="D31" s="1"/>
+      <c r="E31" s="1"/>
+      <c r="F31" s="2"/>
+      <c r="G31" s="25"/>
+      <c r="H31" s="1"/>
+      <c r="I31" s="17"/>
+      <c r="J31" s="17"/>
+      <c r="K31" s="16"/>
+      <c r="L31" s="20"/>
+      <c r="M31" s="20"/>
+      <c r="N31" s="16"/>
+      <c r="O31" s="16"/>
+      <c r="P31" s="16"/>
+      <c r="Q31" s="16"/>
+    </row>
+    <row r="32" spans="1:17" s="14" customFormat="1">
+      <c r="A32" s="7"/>
+      <c r="B32" s="1"/>
+      <c r="C32" s="1"/>
+      <c r="D32" s="1"/>
+      <c r="E32" s="7"/>
+      <c r="F32" s="25"/>
+      <c r="G32" s="25"/>
+      <c r="H32" s="1"/>
+      <c r="I32" s="16"/>
+      <c r="J32" s="16"/>
+      <c r="K32" s="16"/>
+      <c r="L32" s="16"/>
+      <c r="M32" s="16"/>
+      <c r="N32" s="16"/>
+      <c r="O32" s="16"/>
+      <c r="P32" s="16"/>
+      <c r="Q32" s="16"/>
+    </row>
+    <row r="33" spans="1:17" s="14" customFormat="1">
+      <c r="A33" s="7"/>
+      <c r="B33" s="1"/>
+      <c r="C33" s="1"/>
+      <c r="D33" s="1"/>
+      <c r="E33" s="7"/>
+      <c r="F33" s="25"/>
+      <c r="G33" s="25"/>
+      <c r="H33" s="1"/>
+      <c r="I33" s="16"/>
+      <c r="J33" s="16"/>
+      <c r="K33" s="16"/>
+      <c r="L33" s="16"/>
+      <c r="M33" s="16"/>
+      <c r="N33" s="16"/>
+      <c r="O33" s="16"/>
+      <c r="P33" s="16"/>
+      <c r="Q33" s="16"/>
+    </row>
+    <row r="34" spans="1:17" s="14" customFormat="1">
+      <c r="A34" s="7"/>
+      <c r="B34" s="1"/>
+      <c r="C34" s="1"/>
+      <c r="D34" s="1"/>
+      <c r="E34" s="7"/>
+      <c r="F34" s="25"/>
+      <c r="G34" s="25"/>
+      <c r="H34" s="1"/>
+      <c r="I34" s="16"/>
+      <c r="J34" s="16"/>
+      <c r="K34" s="16"/>
+      <c r="L34" s="16"/>
+      <c r="M34" s="16"/>
+      <c r="N34" s="16"/>
+      <c r="O34" s="16"/>
+      <c r="P34" s="16"/>
+      <c r="Q34" s="16"/>
+    </row>
+    <row r="35" spans="1:17" s="14" customFormat="1">
+      <c r="A35" s="7"/>
+      <c r="B35" s="1"/>
+      <c r="C35" s="1"/>
+      <c r="D35" s="1"/>
+      <c r="E35" s="7"/>
+      <c r="F35" s="25"/>
+      <c r="G35" s="25"/>
+      <c r="H35" s="1"/>
+      <c r="I35" s="16"/>
+      <c r="J35" s="16"/>
+      <c r="K35" s="16"/>
+      <c r="L35" s="16"/>
+      <c r="M35" s="16"/>
+      <c r="N35" s="16"/>
+      <c r="O35" s="16"/>
+      <c r="P35" s="16"/>
+      <c r="Q35" s="16"/>
+    </row>
+    <row r="36" spans="1:17" s="14" customFormat="1">
+      <c r="A36" s="7"/>
+      <c r="B36" s="7"/>
+      <c r="C36" s="7"/>
+      <c r="D36" s="7"/>
+      <c r="E36" s="7"/>
+      <c r="F36" s="25"/>
+      <c r="G36" s="25"/>
+      <c r="H36" s="7"/>
+      <c r="I36" s="16"/>
+      <c r="J36" s="16"/>
+      <c r="K36" s="16"/>
+      <c r="L36" s="16"/>
+      <c r="M36" s="16"/>
+      <c r="N36" s="16"/>
+      <c r="O36" s="16"/>
+      <c r="P36" s="16"/>
+      <c r="Q36" s="16"/>
+    </row>
+    <row r="37" spans="1:17" s="14" customFormat="1">
+      <c r="A37" s="8"/>
+      <c r="B37" s="8"/>
+      <c r="C37" s="8"/>
+      <c r="D37" s="8"/>
+      <c r="E37" s="8"/>
+      <c r="F37" s="8"/>
+      <c r="G37" s="8"/>
+      <c r="H37" s="8"/>
+      <c r="I37" s="21"/>
+      <c r="J37" s="21"/>
+      <c r="K37" s="21"/>
+      <c r="L37" s="21"/>
+      <c r="M37" s="21"/>
+      <c r="N37" s="21"/>
+      <c r="O37" s="21"/>
+      <c r="P37" s="21"/>
+      <c r="Q37" s="21"/>
+    </row>
+    <row r="38" spans="1:17" s="14" customFormat="1">
+      <c r="A38" s="8"/>
+      <c r="B38" s="8"/>
+      <c r="C38" s="8"/>
+      <c r="D38" s="8"/>
+      <c r="E38" s="8"/>
+      <c r="F38" s="8"/>
+      <c r="G38" s="8"/>
+      <c r="H38" s="8"/>
+      <c r="I38" s="21"/>
+      <c r="J38" s="21"/>
+      <c r="K38" s="21"/>
+      <c r="L38" s="21"/>
+      <c r="M38" s="21"/>
+      <c r="N38" s="21"/>
+      <c r="O38" s="21"/>
+      <c r="P38" s="21"/>
+      <c r="Q38" s="21"/>
+    </row>
+    <row r="39" spans="1:17" s="14" customFormat="1">
+      <c r="A39" s="8"/>
+      <c r="B39" s="8"/>
+      <c r="C39" s="8"/>
+      <c r="D39" s="8"/>
+      <c r="E39" s="8"/>
+      <c r="F39" s="8"/>
+      <c r="G39" s="8"/>
+      <c r="H39" s="8"/>
+      <c r="I39" s="21"/>
+      <c r="J39" s="21"/>
+      <c r="K39" s="21"/>
+      <c r="L39" s="21"/>
+      <c r="M39" s="21"/>
+      <c r="N39" s="21"/>
+      <c r="O39" s="21"/>
+      <c r="P39" s="21"/>
+      <c r="Q39" s="21"/>
+    </row>
+    <row r="40" spans="1:17" s="14" customFormat="1">
+      <c r="A40" s="8"/>
+      <c r="B40" s="8"/>
+      <c r="C40" s="8"/>
+      <c r="D40" s="8"/>
+      <c r="E40" s="8"/>
+      <c r="F40" s="8"/>
+      <c r="G40" s="8"/>
+      <c r="H40" s="8"/>
+      <c r="I40" s="21"/>
+      <c r="J40" s="21"/>
+      <c r="K40" s="21"/>
+      <c r="L40" s="21"/>
+      <c r="M40" s="21"/>
+      <c r="N40" s="21"/>
+      <c r="O40" s="21"/>
+      <c r="P40" s="21"/>
+      <c r="Q40" s="21"/>
+    </row>
+    <row r="41" spans="1:17" s="14" customFormat="1">
+      <c r="A41" s="8"/>
+      <c r="B41" s="8"/>
+      <c r="C41" s="8"/>
+      <c r="D41" s="8"/>
+      <c r="E41" s="8"/>
+      <c r="F41" s="8"/>
+      <c r="G41" s="8"/>
+      <c r="H41" s="8"/>
+      <c r="I41" s="21"/>
+      <c r="J41" s="21"/>
+      <c r="K41" s="21"/>
+      <c r="L41" s="21"/>
+      <c r="M41" s="21"/>
+      <c r="N41" s="21"/>
+      <c r="O41" s="21"/>
+      <c r="P41" s="21"/>
+      <c r="Q41" s="21"/>
+    </row>
+    <row r="42" spans="1:17" s="14" customFormat="1">
+      <c r="A42" s="8"/>
+      <c r="B42" s="8"/>
+      <c r="C42" s="8"/>
+      <c r="D42" s="8"/>
+      <c r="E42" s="8"/>
+      <c r="F42" s="8"/>
+      <c r="G42" s="8"/>
+      <c r="H42" s="8"/>
+      <c r="I42" s="21"/>
+      <c r="J42" s="21"/>
+      <c r="K42" s="21"/>
+      <c r="L42" s="21"/>
+      <c r="M42" s="21"/>
+      <c r="N42" s="21"/>
+      <c r="O42" s="21"/>
+      <c r="P42" s="21"/>
+      <c r="Q42" s="21"/>
+    </row>
+    <row r="43" spans="1:17" s="14" customFormat="1">
+      <c r="A43" s="8"/>
+      <c r="B43" s="8"/>
+      <c r="C43" s="8"/>
+      <c r="D43" s="8"/>
+      <c r="E43" s="8"/>
+      <c r="F43" s="8"/>
+      <c r="G43" s="8"/>
+      <c r="H43" s="8"/>
+      <c r="I43" s="21"/>
+      <c r="J43" s="21"/>
+      <c r="K43" s="21"/>
+      <c r="L43" s="21"/>
+      <c r="M43" s="21"/>
+      <c r="N43" s="21"/>
+      <c r="O43" s="21"/>
+      <c r="P43" s="21"/>
+      <c r="Q43" s="21"/>
+    </row>
+    <row r="44" spans="1:17" s="14" customFormat="1">
+      <c r="A44" s="8"/>
+      <c r="B44" s="8"/>
+      <c r="C44" s="8"/>
+      <c r="D44" s="8"/>
+      <c r="E44" s="8"/>
+      <c r="F44" s="8"/>
+      <c r="G44" s="8"/>
+      <c r="H44" s="8"/>
+      <c r="I44" s="21"/>
+      <c r="J44" s="21"/>
+      <c r="K44" s="21"/>
+      <c r="L44" s="21"/>
+      <c r="M44" s="21"/>
+      <c r="N44" s="21"/>
+      <c r="O44" s="21"/>
+      <c r="P44" s="21"/>
+      <c r="Q44" s="21"/>
+    </row>
+    <row r="45" spans="1:17" s="14" customFormat="1">
+      <c r="A45" s="8"/>
+      <c r="B45" s="8"/>
+      <c r="C45" s="8"/>
+      <c r="D45" s="8"/>
+      <c r="E45" s="8"/>
+      <c r="F45" s="8"/>
+      <c r="G45" s="8"/>
+      <c r="H45" s="8"/>
+      <c r="I45" s="21"/>
+      <c r="J45" s="21"/>
+      <c r="K45" s="21"/>
+      <c r="L45" s="21"/>
+      <c r="M45" s="21"/>
+      <c r="N45" s="21"/>
+      <c r="O45" s="21"/>
+      <c r="P45" s="21"/>
+      <c r="Q45" s="21"/>
+    </row>
+    <row r="46" spans="1:17" s="14" customFormat="1">
+      <c r="A46" s="8"/>
+      <c r="B46" s="8"/>
+      <c r="C46" s="8"/>
+      <c r="D46" s="8"/>
+      <c r="E46" s="8"/>
+      <c r="F46" s="8"/>
+      <c r="G46" s="8"/>
+      <c r="H46" s="8"/>
+      <c r="I46" s="21"/>
+      <c r="J46" s="21"/>
+      <c r="K46" s="21"/>
+      <c r="L46" s="21"/>
+      <c r="M46" s="21"/>
+      <c r="N46" s="21"/>
+      <c r="O46" s="21"/>
+      <c r="P46" s="21"/>
+      <c r="Q46" s="21"/>
+    </row>
+    <row r="47" spans="1:17" s="14" customFormat="1">
+      <c r="A47" s="8"/>
+      <c r="B47" s="8"/>
+      <c r="C47" s="8"/>
+      <c r="D47" s="8"/>
+      <c r="E47" s="8"/>
+      <c r="F47" s="8"/>
+      <c r="G47" s="8"/>
+      <c r="H47" s="8"/>
+      <c r="I47" s="21"/>
+      <c r="J47" s="21"/>
+      <c r="K47" s="21"/>
+      <c r="L47" s="21"/>
+      <c r="M47" s="21"/>
+      <c r="N47" s="21"/>
+      <c r="O47" s="21"/>
+      <c r="P47" s="21"/>
+      <c r="Q47" s="21"/>
+    </row>
+    <row r="48" spans="1:17" s="14" customFormat="1">
+      <c r="A48" s="8"/>
+      <c r="B48" s="8"/>
+      <c r="C48" s="8"/>
+      <c r="D48" s="8"/>
+      <c r="E48" s="8"/>
+      <c r="F48" s="8"/>
+      <c r="G48" s="8"/>
+      <c r="H48" s="8"/>
+      <c r="I48" s="21"/>
+      <c r="J48" s="21"/>
+      <c r="K48" s="21"/>
+      <c r="L48" s="21"/>
+      <c r="M48" s="21"/>
+      <c r="N48" s="21"/>
+      <c r="O48" s="21"/>
+      <c r="P48" s="21"/>
+      <c r="Q48" s="21"/>
+    </row>
+    <row r="49" spans="1:17" s="14" customFormat="1">
+      <c r="A49" s="8"/>
+      <c r="B49" s="8"/>
+      <c r="C49" s="8"/>
+      <c r="D49" s="8"/>
+      <c r="E49" s="8"/>
+      <c r="F49" s="8"/>
+      <c r="G49" s="8"/>
+      <c r="H49" s="8"/>
+      <c r="I49" s="21"/>
+      <c r="J49" s="21"/>
+      <c r="K49" s="21"/>
+      <c r="L49" s="21"/>
+      <c r="M49" s="21"/>
+      <c r="N49" s="21"/>
+      <c r="O49" s="21"/>
+      <c r="P49" s="21"/>
+      <c r="Q49" s="21"/>
+    </row>
+    <row r="50" spans="1:17" s="14" customFormat="1">
+      <c r="A50" s="8"/>
+      <c r="B50" s="8"/>
+      <c r="C50" s="8"/>
+      <c r="D50" s="8"/>
+      <c r="E50" s="8"/>
+      <c r="F50" s="8"/>
+      <c r="G50" s="8"/>
+      <c r="H50" s="8"/>
+      <c r="I50" s="21"/>
+      <c r="J50" s="21"/>
+      <c r="K50" s="21"/>
+      <c r="L50" s="21"/>
+      <c r="M50" s="21"/>
+      <c r="N50" s="21"/>
+      <c r="O50" s="21"/>
+      <c r="P50" s="21"/>
+      <c r="Q50" s="21"/>
+    </row>
+    <row r="51" spans="1:17" s="14" customFormat="1">
+      <c r="A51" s="8"/>
+      <c r="B51" s="8"/>
+      <c r="C51" s="8"/>
+      <c r="D51" s="8"/>
+      <c r="E51" s="8"/>
+      <c r="F51" s="8"/>
+      <c r="G51" s="8"/>
+      <c r="H51" s="8"/>
+      <c r="I51" s="21"/>
+      <c r="J51" s="21"/>
+      <c r="K51" s="21"/>
+      <c r="L51" s="21"/>
+      <c r="M51" s="21"/>
+      <c r="N51" s="21"/>
+      <c r="O51" s="21"/>
+      <c r="P51" s="21"/>
+      <c r="Q51" s="21"/>
+    </row>
+    <row r="52" spans="1:17" s="14" customFormat="1">
+      <c r="A52" s="8"/>
+      <c r="B52" s="8"/>
+      <c r="C52" s="8"/>
+      <c r="D52" s="8"/>
+      <c r="E52" s="8"/>
+      <c r="F52" s="8"/>
+      <c r="G52" s="8"/>
+      <c r="H52" s="8"/>
+      <c r="I52" s="21"/>
+      <c r="J52" s="21"/>
+      <c r="K52" s="21"/>
+      <c r="L52" s="21"/>
+      <c r="M52" s="21"/>
+      <c r="N52" s="21"/>
+      <c r="O52" s="21"/>
+      <c r="P52" s="21"/>
+      <c r="Q52" s="21"/>
+    </row>
+    <row r="53" spans="1:17" s="14" customFormat="1">
+      <c r="A53" s="8"/>
+      <c r="B53" s="8"/>
+      <c r="C53" s="8"/>
+      <c r="D53" s="8"/>
+      <c r="E53" s="8"/>
+      <c r="F53" s="8"/>
+      <c r="G53" s="8"/>
+      <c r="H53" s="8"/>
+      <c r="I53" s="21"/>
+      <c r="J53" s="21"/>
+      <c r="K53" s="21"/>
+      <c r="L53" s="21"/>
+      <c r="M53" s="21"/>
+      <c r="N53" s="21"/>
+      <c r="O53" s="21"/>
+      <c r="P53" s="21"/>
+      <c r="Q53" s="21"/>
+    </row>
+    <row r="54" spans="1:17">
+      <c r="A54" s="8"/>
+      <c r="B54" s="8"/>
+      <c r="C54" s="8"/>
+      <c r="D54" s="8"/>
+      <c r="E54" s="8"/>
+      <c r="F54" s="8"/>
+      <c r="G54" s="8"/>
+      <c r="H54" s="8"/>
+      <c r="I54" s="21"/>
+      <c r="J54" s="21"/>
+      <c r="K54" s="21"/>
+      <c r="L54" s="21"/>
+      <c r="M54" s="21"/>
+      <c r="N54" s="21"/>
+      <c r="O54" s="21"/>
+      <c r="P54" s="21"/>
+      <c r="Q54" s="21"/>
+    </row>
+    <row r="55" spans="1:17">
+      <c r="A55" s="8"/>
+      <c r="B55" s="8"/>
+      <c r="C55" s="8"/>
+      <c r="D55" s="8"/>
+      <c r="E55" s="8"/>
+      <c r="F55" s="8"/>
+      <c r="G55" s="8"/>
+      <c r="H55" s="8"/>
+      <c r="I55" s="21"/>
+      <c r="J55" s="21"/>
+      <c r="K55" s="21"/>
+      <c r="L55" s="21"/>
+      <c r="M55" s="21"/>
+      <c r="N55" s="21"/>
+      <c r="O55" s="21"/>
+      <c r="P55" s="21"/>
+      <c r="Q55" s="21"/>
+    </row>
+    <row r="56" spans="1:17">
+      <c r="A56" s="8"/>
+      <c r="B56" s="8"/>
+      <c r="C56" s="8"/>
+      <c r="D56" s="8"/>
+      <c r="E56" s="8"/>
+      <c r="F56" s="8"/>
+      <c r="G56" s="8"/>
+      <c r="H56" s="8"/>
+      <c r="I56" s="21"/>
+      <c r="J56" s="21"/>
+      <c r="K56" s="21"/>
+      <c r="L56" s="21"/>
+      <c r="M56" s="21"/>
+      <c r="N56" s="21"/>
+      <c r="O56" s="21"/>
+      <c r="P56" s="21"/>
+      <c r="Q56" s="21"/>
+    </row>
+    <row r="57" spans="1:17">
+      <c r="A57" s="8"/>
+      <c r="B57" s="8"/>
+      <c r="C57" s="8"/>
+      <c r="D57" s="8"/>
+      <c r="E57" s="8"/>
+      <c r="F57" s="8"/>
+      <c r="G57" s="8"/>
+      <c r="H57" s="8"/>
+      <c r="I57" s="21"/>
+      <c r="J57" s="21"/>
+      <c r="K57" s="21"/>
+      <c r="L57" s="21"/>
+      <c r="M57" s="21"/>
+      <c r="N57" s="21"/>
+      <c r="O57" s="21"/>
+      <c r="P57" s="21"/>
+      <c r="Q57" s="21"/>
+    </row>
+    <row r="58" spans="1:17">
+      <c r="A58" s="8"/>
+      <c r="B58" s="8"/>
+      <c r="C58" s="8"/>
+      <c r="D58" s="8"/>
+      <c r="E58" s="8"/>
+      <c r="F58" s="8"/>
+      <c r="G58" s="8"/>
+      <c r="H58" s="8"/>
+      <c r="I58" s="21"/>
+      <c r="J58" s="21"/>
+      <c r="K58" s="21"/>
+      <c r="L58" s="21"/>
+      <c r="M58" s="21"/>
+      <c r="N58" s="21"/>
+      <c r="O58" s="21"/>
+      <c r="P58" s="21"/>
+      <c r="Q58" s="21"/>
+    </row>
+    <row r="59" spans="1:17">
+      <c r="A59" s="8"/>
+      <c r="B59" s="8"/>
+      <c r="C59" s="8"/>
+      <c r="D59" s="8"/>
+      <c r="E59" s="8"/>
+      <c r="F59" s="8"/>
+      <c r="G59" s="8"/>
+      <c r="H59" s="8"/>
+      <c r="I59" s="21"/>
+      <c r="J59" s="21"/>
+      <c r="K59" s="21"/>
+      <c r="L59" s="21"/>
+      <c r="M59" s="21"/>
+      <c r="N59" s="21"/>
+      <c r="O59" s="21"/>
+      <c r="P59" s="21"/>
+      <c r="Q59" s="21"/>
+    </row>
+    <row r="60" spans="1:17">
+      <c r="A60" s="8"/>
+      <c r="B60" s="8"/>
+      <c r="C60" s="8"/>
+      <c r="D60" s="8"/>
+      <c r="E60" s="8"/>
+      <c r="F60" s="8"/>
+      <c r="G60" s="8"/>
+      <c r="H60" s="8"/>
+      <c r="I60" s="21"/>
+      <c r="J60" s="21"/>
+      <c r="K60" s="21"/>
+      <c r="L60" s="21"/>
+      <c r="M60" s="21"/>
+      <c r="N60" s="21"/>
+      <c r="O60" s="21"/>
+      <c r="P60" s="21"/>
+      <c r="Q60" s="21"/>
+    </row>
+    <row r="61" spans="1:17">
+      <c r="A61" s="8"/>
+      <c r="B61" s="8"/>
+      <c r="C61" s="8"/>
+      <c r="D61" s="8"/>
+      <c r="E61" s="8"/>
+      <c r="F61" s="8"/>
+      <c r="G61" s="8"/>
+      <c r="H61" s="8"/>
+      <c r="I61" s="21"/>
+      <c r="J61" s="21"/>
+      <c r="K61" s="21"/>
+      <c r="L61" s="21"/>
+      <c r="M61" s="21"/>
+      <c r="N61" s="21"/>
+      <c r="O61" s="21"/>
+      <c r="P61" s="21"/>
+      <c r="Q61" s="21"/>
+    </row>
+    <row r="62" spans="1:17">
+      <c r="A62" s="8"/>
+      <c r="B62" s="8"/>
+      <c r="C62" s="8"/>
+      <c r="D62" s="8"/>
+      <c r="E62" s="8"/>
+      <c r="F62" s="8"/>
+      <c r="G62" s="8"/>
+      <c r="H62" s="8"/>
+      <c r="I62" s="21"/>
+      <c r="J62" s="21"/>
+      <c r="K62" s="21"/>
+      <c r="L62" s="21"/>
+      <c r="M62" s="21"/>
+      <c r="N62" s="21"/>
+      <c r="O62" s="21"/>
+      <c r="P62" s="21"/>
+      <c r="Q62" s="21"/>
+    </row>
+    <row r="63" spans="1:17">
+      <c r="A63" s="8"/>
+      <c r="B63" s="8"/>
+      <c r="C63" s="8"/>
+      <c r="D63" s="8"/>
+      <c r="E63" s="8"/>
+      <c r="F63" s="8"/>
+      <c r="G63" s="8"/>
+      <c r="H63" s="8"/>
+      <c r="I63" s="21"/>
+      <c r="J63" s="21"/>
+      <c r="K63" s="21"/>
+      <c r="L63" s="21"/>
+      <c r="M63" s="21"/>
+      <c r="N63" s="21"/>
+      <c r="O63" s="21"/>
+      <c r="P63" s="21"/>
+      <c r="Q63" s="21"/>
+    </row>
+    <row r="64" spans="1:17">
+      <c r="A64" s="8"/>
+      <c r="B64" s="8"/>
+      <c r="C64" s="8"/>
+      <c r="D64" s="8"/>
+      <c r="E64" s="8"/>
+      <c r="F64" s="8"/>
+      <c r="G64" s="8"/>
+      <c r="H64" s="8"/>
+      <c r="I64" s="21"/>
+      <c r="J64" s="21"/>
+      <c r="K64" s="21"/>
+      <c r="L64" s="21"/>
+      <c r="M64" s="21"/>
+      <c r="N64" s="21"/>
+      <c r="O64" s="21"/>
+      <c r="P64" s="21"/>
+      <c r="Q64" s="21"/>
+    </row>
+    <row r="65" spans="1:17">
+      <c r="A65" s="8"/>
+      <c r="B65" s="8"/>
+      <c r="C65" s="8"/>
+      <c r="D65" s="8"/>
+      <c r="E65" s="8"/>
+      <c r="F65" s="8"/>
+      <c r="G65" s="8"/>
+      <c r="H65" s="8"/>
+      <c r="I65" s="21"/>
+      <c r="J65" s="21"/>
+      <c r="K65" s="21"/>
+      <c r="L65" s="21"/>
+      <c r="M65" s="21"/>
+      <c r="N65" s="21"/>
+      <c r="O65" s="21"/>
+      <c r="P65" s="21"/>
+      <c r="Q65" s="21"/>
+    </row>
+    <row r="66" spans="1:17">
+      <c r="A66" s="8"/>
+      <c r="B66" s="8"/>
+      <c r="C66" s="8"/>
+      <c r="D66" s="8"/>
+      <c r="E66" s="8"/>
+      <c r="F66" s="8"/>
+      <c r="G66" s="8"/>
+      <c r="H66" s="8"/>
+      <c r="I66" s="21"/>
+      <c r="J66" s="21"/>
+      <c r="K66" s="21"/>
+      <c r="L66" s="21"/>
+      <c r="M66" s="21"/>
+      <c r="N66" s="21"/>
+      <c r="O66" s="21"/>
+      <c r="P66" s="21"/>
+      <c r="Q66" s="21"/>
+    </row>
+    <row r="67" spans="1:17">
+      <c r="A67" s="8"/>
+      <c r="B67" s="8"/>
+      <c r="C67" s="8"/>
+      <c r="D67" s="8"/>
+      <c r="E67" s="8"/>
+      <c r="F67" s="8"/>
+      <c r="G67" s="8"/>
+      <c r="H67" s="8"/>
+      <c r="I67" s="21"/>
+      <c r="J67" s="21"/>
+      <c r="K67" s="21"/>
+      <c r="L67" s="21"/>
+      <c r="M67" s="21"/>
+      <c r="N67" s="21"/>
+      <c r="O67" s="21"/>
+      <c r="P67" s="21"/>
+      <c r="Q67" s="21"/>
+    </row>
+    <row r="68" spans="1:17">
+      <c r="A68" s="8"/>
+      <c r="B68" s="8"/>
+      <c r="C68" s="8"/>
+      <c r="D68" s="8"/>
+      <c r="E68" s="8"/>
+      <c r="F68" s="8"/>
+      <c r="G68" s="8"/>
+      <c r="H68" s="8"/>
+      <c r="I68" s="21"/>
+      <c r="J68" s="21"/>
+      <c r="K68" s="21"/>
+      <c r="L68" s="21"/>
+      <c r="M68" s="21"/>
+      <c r="N68" s="21"/>
+      <c r="O68" s="21"/>
+      <c r="P68" s="21"/>
+      <c r="Q68" s="21"/>
+    </row>
+    <row r="69" spans="1:17">
+      <c r="A69" s="8"/>
+      <c r="B69" s="8"/>
+      <c r="C69" s="8"/>
+      <c r="D69" s="8"/>
+      <c r="E69" s="8"/>
+      <c r="F69" s="8"/>
+      <c r="G69" s="8"/>
+      <c r="H69" s="8"/>
+      <c r="I69" s="21"/>
+      <c r="J69" s="21"/>
+      <c r="K69" s="21"/>
+      <c r="L69" s="21"/>
+      <c r="M69" s="21"/>
+      <c r="N69" s="21"/>
+      <c r="O69" s="21"/>
+      <c r="P69" s="21"/>
+      <c r="Q69" s="21"/>
+    </row>
+    <row r="70" spans="1:17">
+      <c r="A70" s="8"/>
+      <c r="B70" s="8"/>
+      <c r="C70" s="8"/>
+      <c r="D70" s="8"/>
+      <c r="E70" s="8"/>
+      <c r="F70" s="8"/>
+      <c r="G70" s="8"/>
+      <c r="H70" s="8"/>
+      <c r="I70" s="21"/>
+      <c r="J70" s="21"/>
+      <c r="K70" s="21"/>
+      <c r="L70" s="21"/>
+      <c r="M70" s="21"/>
+      <c r="N70" s="21"/>
+      <c r="O70" s="21"/>
+      <c r="P70" s="21"/>
+      <c r="Q70" s="21"/>
+    </row>
+    <row r="71" spans="1:17">
+      <c r="A71" s="8"/>
+      <c r="B71" s="8"/>
+      <c r="C71" s="8"/>
+      <c r="D71" s="8"/>
+      <c r="E71" s="8"/>
+      <c r="F71" s="8"/>
+      <c r="G71" s="8"/>
+      <c r="H71" s="8"/>
+      <c r="I71" s="21"/>
+      <c r="J71" s="21"/>
+      <c r="K71" s="21"/>
+      <c r="L71" s="21"/>
+      <c r="M71" s="21"/>
+      <c r="N71" s="21"/>
+      <c r="O71" s="21"/>
+      <c r="P71" s="21"/>
+      <c r="Q71" s="21"/>
+    </row>
+    <row r="72" spans="1:17">
+      <c r="A72" s="9"/>
+      <c r="B72" s="9"/>
+      <c r="C72" s="9"/>
+      <c r="D72" s="9"/>
+      <c r="E72" s="9"/>
+      <c r="F72" s="9"/>
+      <c r="G72" s="9"/>
+      <c r="H72" s="9"/>
+      <c r="I72" s="22"/>
+      <c r="J72" s="22"/>
+      <c r="K72" s="22"/>
+      <c r="L72" s="22"/>
+      <c r="M72" s="22"/>
+      <c r="N72" s="22"/>
+      <c r="O72" s="22"/>
+      <c r="P72" s="22"/>
+      <c r="Q72" s="22"/>
+    </row>
+    <row r="73" spans="1:17">
+      <c r="A73" s="9"/>
+      <c r="B73" s="9"/>
+      <c r="C73" s="9"/>
+      <c r="D73" s="9"/>
+      <c r="E73" s="9"/>
+      <c r="F73" s="9"/>
+      <c r="G73" s="9"/>
+      <c r="H73" s="9"/>
+      <c r="I73" s="22"/>
+      <c r="J73" s="22"/>
+      <c r="K73" s="22"/>
+      <c r="L73" s="22"/>
+      <c r="M73" s="22"/>
+      <c r="N73" s="22"/>
+      <c r="O73" s="22"/>
+      <c r="P73" s="22"/>
+      <c r="Q73" s="22"/>
+    </row>
+  </sheetData>
+  <mergeCells count="9">
+    <mergeCell ref="A1:B1"/>
+    <mergeCell ref="C1:E1"/>
+    <mergeCell ref="F1:G1"/>
+    <mergeCell ref="I1:Q1"/>
+    <mergeCell ref="A2:B2"/>
+    <mergeCell ref="C2:H2"/>
+    <mergeCell ref="I2:K2"/>
+    <mergeCell ref="L2:N2"/>
+    <mergeCell ref="O2:Q2"/>
+  </mergeCells>
+  <phoneticPr fontId="10"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="landscape" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr>
     <tabColor theme="7" tint="0.39997558519241921"/>
   </sheetPr>
   <dimension ref="A1:Q70"/>
@@ -4811,7 +6350,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <tabColor theme="6" tint="0.39997558519241921"/>
@@ -11674,8 +13213,8 @@
   </sheetPr>
   <dimension ref="A1:Q76"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H30" sqref="H30"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -16393,8 +17932,8 @@
   </sheetPr>
   <dimension ref="A1:Q73"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C2" sqref="C2:H2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H7" sqref="H7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -16424,7 +17963,7 @@
       </c>
       <c r="B1" s="40"/>
       <c r="C1" s="41" t="s">
-        <v>194</v>
+        <v>201</v>
       </c>
       <c r="D1" s="41"/>
       <c r="E1" s="42"/>
@@ -16451,7 +17990,7 @@
       </c>
       <c r="B2" s="44"/>
       <c r="C2" s="45" t="s">
-        <v>193</v>
+        <v>202</v>
       </c>
       <c r="D2" s="45"/>
       <c r="E2" s="45"/>
@@ -16533,7 +18072,7 @@
         <v>3</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>28</v>
+        <v>167</v>
       </c>
       <c r="D4" s="1"/>
       <c r="E4" s="1" t="s">
@@ -16546,7 +18085,7 @@
         <v>8</v>
       </c>
       <c r="H4" s="1" t="s">
-        <v>155</v>
+        <v>204</v>
       </c>
       <c r="I4" s="16"/>
       <c r="J4" s="16"/>
@@ -16590,7 +18129,7 @@
       <c r="F6" s="2"/>
       <c r="G6" s="2"/>
       <c r="H6" s="1" t="s">
-        <v>129</v>
+        <v>121</v>
       </c>
       <c r="I6" s="16"/>
       <c r="J6" s="16"/>
@@ -16630,7 +18169,7 @@
     <row r="8" spans="1:17" s="14" customFormat="1">
       <c r="A8" s="7"/>
       <c r="B8" s="1" t="s">
-        <v>122</v>
+        <v>203</v>
       </c>
       <c r="C8" s="1" t="s">
         <v>167</v>

--- a/ST_Player/db.xlsx
+++ b/ST_Player/db.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="15330" windowHeight="7695" tabRatio="1000" activeTab="8"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="15330" windowHeight="7695" tabRatio="1000"/>
   </bookViews>
   <sheets>
     <sheet name="ユーザー" sheetId="69" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="585" uniqueCount="205">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="588" uniqueCount="207">
   <si>
     <t>説明</t>
     <rPh sb="0" eb="2">
@@ -1086,6 +1086,20 @@
       <t>キロク</t>
     </rPh>
     <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>nickname</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>ニックネーム（画面表示用）</t>
+    <rPh sb="7" eb="9">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="9" eb="12">
+      <t>ヒョウジヨウ</t>
+    </rPh>
+    <phoneticPr fontId="4"/>
   </si>
 </sst>
 </file>
@@ -1842,8 +1856,8 @@
   </sheetPr>
   <dimension ref="A1:Q72"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E13" sqref="E13"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H7" sqref="H7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -2068,10 +2082,10 @@
     <row r="7" spans="1:17" s="14" customFormat="1">
       <c r="A7" s="7"/>
       <c r="B7" s="1" t="s">
-        <v>18</v>
+        <v>205</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D7" s="1">
         <v>255</v>
@@ -2080,7 +2094,7 @@
       <c r="F7" s="2"/>
       <c r="G7" s="2"/>
       <c r="H7" s="1" t="s">
-        <v>39</v>
+        <v>206</v>
       </c>
       <c r="I7" s="17"/>
       <c r="J7" s="17"/>
@@ -2094,13 +2108,21 @@
     </row>
     <row r="8" spans="1:17" s="14" customFormat="1">
       <c r="A8" s="7"/>
-      <c r="B8" s="11"/>
-      <c r="C8" s="11"/>
-      <c r="D8" s="11"/>
+      <c r="B8" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="D8" s="1">
+        <v>255</v>
+      </c>
       <c r="E8" s="1"/>
       <c r="F8" s="2"/>
       <c r="G8" s="2"/>
-      <c r="H8" s="1"/>
+      <c r="H8" s="1" t="s">
+        <v>39</v>
+      </c>
       <c r="I8" s="18"/>
       <c r="J8" s="18"/>
       <c r="K8" s="18"/>
@@ -17932,7 +17954,7 @@
   </sheetPr>
   <dimension ref="A1:Q73"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="H7" sqref="H7"/>
     </sheetView>
   </sheetViews>

--- a/ST_Player/db.xlsx
+++ b/ST_Player/db.xlsx
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="588" uniqueCount="207">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="597" uniqueCount="211">
   <si>
     <t>説明</t>
     <rPh sb="0" eb="2">
@@ -232,80 +232,6 @@
   <si>
     <t>メールアドレス</t>
     <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>birthday</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>date</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>誕生日</t>
-    <rPh sb="0" eb="3">
-      <t>タンジョウビ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>sex</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>男・女・無選択</t>
-    <rPh sb="0" eb="1">
-      <t>オトコ</t>
-    </rPh>
-    <rPh sb="2" eb="3">
-      <t>オンナ</t>
-    </rPh>
-    <rPh sb="4" eb="5">
-      <t>ム</t>
-    </rPh>
-    <rPh sb="5" eb="7">
-      <t>センタク</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>address_zip_1</t>
-  </si>
-  <si>
-    <t>varchar</t>
-  </si>
-  <si>
-    <t>住所:郵便番号1</t>
-  </si>
-  <si>
-    <t>address_zip_2</t>
-  </si>
-  <si>
-    <t>住所:郵便番号2</t>
-  </si>
-  <si>
-    <t>address_pref</t>
-  </si>
-  <si>
-    <t>住所:都道府県</t>
-  </si>
-  <si>
-    <t>address_city</t>
-  </si>
-  <si>
-    <t>住所:市町村</t>
-  </si>
-  <si>
-    <t>address_street</t>
-  </si>
-  <si>
-    <t>住所:番地</t>
-  </si>
-  <si>
-    <t>address_building</t>
-  </si>
-  <si>
-    <t>住所:建物名</t>
   </si>
   <si>
     <t>顔写真の画像ID</t>
@@ -1050,22 +976,7 @@
     <phoneticPr fontId="10"/>
   </si>
   <si>
-    <t>tinyint</t>
-    <phoneticPr fontId="10"/>
-  </si>
-  <si>
     <t>○</t>
-    <phoneticPr fontId="10"/>
-  </si>
-  <si>
-    <t>NOT NULL DEFAULT 1</t>
-    <phoneticPr fontId="10"/>
-  </si>
-  <si>
-    <t>公開フラグ</t>
-    <rPh sb="0" eb="2">
-      <t>コウカイ</t>
-    </rPh>
     <phoneticPr fontId="10"/>
   </si>
   <si>
@@ -1100,6 +1011,170 @@
       <t>ヒョウジヨウ</t>
     </rPh>
     <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>gender</t>
+  </si>
+  <si>
+    <t>age</t>
+  </si>
+  <si>
+    <t>性別（男性・女性・その他）</t>
+    <rPh sb="0" eb="2">
+      <t>セイベツ</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>ダンセイ</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>ジョセイ</t>
+    </rPh>
+    <rPh sb="11" eb="12">
+      <t>タ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>年齢</t>
+    <rPh sb="0" eb="2">
+      <t>ネンレイ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>int unsigned</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>ニックネーム公開(null:じぶん 1:せんしゅ 99:全宇宙)</t>
+    <rPh sb="6" eb="8">
+      <t>コウカイ</t>
+    </rPh>
+    <rPh sb="28" eb="31">
+      <t>ゼンウチュウ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>nickname_is_public</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>age_is_public</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>gender_is_public</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>comment_is_public</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>年齢公開(null:じぶん 1:せんしゅ 99:全宇宙)</t>
+    <rPh sb="0" eb="2">
+      <t>ネンレイ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>コウカイ</t>
+    </rPh>
+    <rPh sb="24" eb="27">
+      <t>ゼンウチュウ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>性別公開(null:じぶん 1:せんしゅ 99:全宇宙)</t>
+    <rPh sb="0" eb="2">
+      <t>セイベツ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>コウカイ</t>
+    </rPh>
+    <rPh sb="24" eb="27">
+      <t>ゼンウチュウ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>コメント公開(null:じぶん 1:せんしゅ 99:全宇宙)</t>
+    <rPh sb="4" eb="6">
+      <t>コウカイ</t>
+    </rPh>
+    <rPh sb="26" eb="29">
+      <t>ゼンウチュウ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>mailaddress_is_public</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>メールアドレス公開(null:じぶん 1:せんしゅ 99:全宇宙)</t>
+    <rPh sb="7" eb="9">
+      <t>コウカイ</t>
+    </rPh>
+    <rPh sb="29" eb="32">
+      <t>ゼンウチュウ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>twitter_id</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>TwitterID</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>twitter_id_is_public</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>TwitterID公開(null:じぶん 1:せんしゅ 99:全宇宙)</t>
+    <rPh sb="9" eb="11">
+      <t>コウカイ</t>
+    </rPh>
+    <rPh sb="31" eb="34">
+      <t>ゼンウチュウ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>DEFAULT 1</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>DEFAULT 1</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>int unsigned</t>
+    <phoneticPr fontId="10"/>
+  </si>
+  <si>
+    <t>DEFAULT 1</t>
+    <phoneticPr fontId="10"/>
+  </si>
+  <si>
+    <t>記録の公開(null:じぶん 1:せんしゅ 99:全宇宙)</t>
+    <rPh sb="0" eb="2">
+      <t>キロク</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>コウカイ</t>
+    </rPh>
+    <rPh sb="25" eb="28">
+      <t>ゼンウチュウ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>int unsigned</t>
+    <phoneticPr fontId="2"/>
   </si>
 </sst>
 </file>
@@ -1857,7 +1932,7 @@
   <dimension ref="A1:Q72"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H7" sqref="H7"/>
+      <selection activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -1996,7 +2071,7 @@
         <v>3</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>167</v>
+        <v>149</v>
       </c>
       <c r="D4" s="1"/>
       <c r="E4" s="1" t="s">
@@ -2009,7 +2084,7 @@
         <v>8</v>
       </c>
       <c r="H4" s="1" t="s">
-        <v>164</v>
+        <v>146</v>
       </c>
       <c r="I4" s="16"/>
       <c r="J4" s="16"/>
@@ -2082,7 +2157,7 @@
     <row r="7" spans="1:17" s="14" customFormat="1">
       <c r="A7" s="7"/>
       <c r="B7" s="1" t="s">
-        <v>205</v>
+        <v>184</v>
       </c>
       <c r="C7" s="1" t="s">
         <v>23</v>
@@ -2094,7 +2169,7 @@
       <c r="F7" s="2"/>
       <c r="G7" s="2"/>
       <c r="H7" s="1" t="s">
-        <v>206</v>
+        <v>185</v>
       </c>
       <c r="I7" s="17"/>
       <c r="J7" s="17"/>
@@ -2154,13 +2229,21 @@
     </row>
     <row r="10" spans="1:17" s="14" customFormat="1">
       <c r="A10" s="10"/>
-      <c r="B10" s="4"/>
-      <c r="C10" s="1"/>
+      <c r="B10" s="4" t="s">
+        <v>192</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>210</v>
+      </c>
       <c r="D10" s="1"/>
-      <c r="E10" s="10"/>
+      <c r="E10" s="10" t="s">
+        <v>206</v>
+      </c>
       <c r="F10" s="24"/>
       <c r="G10" s="24"/>
-      <c r="H10" s="12"/>
+      <c r="H10" s="12" t="s">
+        <v>191</v>
+      </c>
       <c r="I10" s="19"/>
       <c r="J10" s="19"/>
       <c r="K10" s="19"/>
@@ -3405,7 +3488,7 @@
       </c>
       <c r="B1" s="40"/>
       <c r="C1" s="41" t="s">
-        <v>194</v>
+        <v>176</v>
       </c>
       <c r="D1" s="41"/>
       <c r="E1" s="42"/>
@@ -3432,7 +3515,7 @@
       </c>
       <c r="B2" s="44"/>
       <c r="C2" s="45" t="s">
-        <v>193</v>
+        <v>175</v>
       </c>
       <c r="D2" s="45"/>
       <c r="E2" s="45"/>
@@ -3527,7 +3610,7 @@
         <v>8</v>
       </c>
       <c r="H4" s="1" t="s">
-        <v>155</v>
+        <v>137</v>
       </c>
       <c r="I4" s="16"/>
       <c r="J4" s="16"/>
@@ -3561,17 +3644,17 @@
     <row r="6" spans="1:17" s="14" customFormat="1">
       <c r="A6" s="7"/>
       <c r="B6" s="1" t="s">
-        <v>119</v>
+        <v>101</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>120</v>
+        <v>102</v>
       </c>
       <c r="D6" s="1"/>
       <c r="E6" s="1"/>
       <c r="F6" s="2"/>
       <c r="G6" s="2"/>
       <c r="H6" s="1" t="s">
-        <v>129</v>
+        <v>111</v>
       </c>
       <c r="I6" s="16"/>
       <c r="J6" s="16"/>
@@ -3586,17 +3669,17 @@
     <row r="7" spans="1:17" s="14" customFormat="1">
       <c r="A7" s="7"/>
       <c r="B7" s="1" t="s">
-        <v>116</v>
+        <v>98</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>167</v>
+        <v>149</v>
       </c>
       <c r="D7" s="1"/>
       <c r="E7" s="1"/>
       <c r="F7" s="2"/>
       <c r="G7" s="2"/>
       <c r="H7" s="1" t="s">
-        <v>117</v>
+        <v>99</v>
       </c>
       <c r="I7" s="17"/>
       <c r="J7" s="17"/>
@@ -3611,17 +3694,17 @@
     <row r="8" spans="1:17" s="14" customFormat="1">
       <c r="A8" s="7"/>
       <c r="B8" s="1" t="s">
-        <v>122</v>
+        <v>104</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>167</v>
+        <v>149</v>
       </c>
       <c r="D8" s="1"/>
       <c r="E8" s="1"/>
       <c r="F8" s="2"/>
       <c r="G8" s="2"/>
       <c r="H8" s="1" t="s">
-        <v>118</v>
+        <v>100</v>
       </c>
       <c r="I8" s="18"/>
       <c r="J8" s="18"/>
@@ -4924,7 +5007,7 @@
       </c>
       <c r="B1" s="40"/>
       <c r="C1" s="41" t="s">
-        <v>101</v>
+        <v>83</v>
       </c>
       <c r="D1" s="41"/>
       <c r="E1" s="42"/>
@@ -4951,7 +5034,7 @@
       </c>
       <c r="B2" s="44"/>
       <c r="C2" s="45" t="s">
-        <v>102</v>
+        <v>84</v>
       </c>
       <c r="D2" s="45"/>
       <c r="E2" s="45"/>
@@ -5030,23 +5113,23 @@
     <row r="4" spans="1:17" s="14" customFormat="1">
       <c r="A4" s="7"/>
       <c r="B4" s="1" t="s">
-        <v>103</v>
+        <v>85</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>166</v>
+        <v>148</v>
       </c>
       <c r="D4" s="1"/>
       <c r="E4" s="1" t="s">
-        <v>104</v>
+        <v>86</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>105</v>
+        <v>87</v>
       </c>
       <c r="G4" s="2" t="s">
-        <v>105</v>
+        <v>87</v>
       </c>
       <c r="H4" s="1" t="s">
-        <v>106</v>
+        <v>88</v>
       </c>
       <c r="I4" s="16"/>
       <c r="J4" s="16"/>
@@ -5080,7 +5163,7 @@
     <row r="6" spans="1:17" s="14" customFormat="1">
       <c r="A6" s="7"/>
       <c r="B6" s="1" t="s">
-        <v>172</v>
+        <v>154</v>
       </c>
       <c r="C6" s="1" t="s">
         <v>23</v>
@@ -5092,7 +5175,7 @@
       <c r="F6" s="2"/>
       <c r="G6" s="2"/>
       <c r="H6" s="1" t="s">
-        <v>174</v>
+        <v>156</v>
       </c>
       <c r="I6" s="17"/>
       <c r="J6" s="17"/>
@@ -5107,7 +5190,7 @@
     <row r="7" spans="1:17" s="14" customFormat="1">
       <c r="A7" s="7"/>
       <c r="B7" s="1" t="s">
-        <v>173</v>
+        <v>155</v>
       </c>
       <c r="C7" s="1" t="s">
         <v>23</v>
@@ -5119,7 +5202,7 @@
       <c r="F7" s="2"/>
       <c r="G7" s="2"/>
       <c r="H7" s="1" t="s">
-        <v>175</v>
+        <v>157</v>
       </c>
       <c r="I7" s="18"/>
       <c r="J7" s="18"/>
@@ -5134,7 +5217,7 @@
     <row r="8" spans="1:17" s="14" customFormat="1">
       <c r="A8" s="7"/>
       <c r="B8" s="11" t="s">
-        <v>107</v>
+        <v>89</v>
       </c>
       <c r="C8" s="1" t="s">
         <v>23</v>
@@ -5146,7 +5229,7 @@
       <c r="F8" s="13"/>
       <c r="G8" s="13"/>
       <c r="H8" s="1" t="s">
-        <v>108</v>
+        <v>90</v>
       </c>
       <c r="I8" s="18"/>
       <c r="J8" s="18"/>
@@ -5161,17 +5244,17 @@
     <row r="9" spans="1:17" s="14" customFormat="1">
       <c r="A9" s="7"/>
       <c r="B9" s="1" t="s">
-        <v>109</v>
+        <v>91</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>110</v>
+        <v>92</v>
       </c>
       <c r="D9" s="1"/>
       <c r="E9" s="1"/>
       <c r="F9" s="2"/>
       <c r="G9" s="2"/>
       <c r="H9" s="1" t="s">
-        <v>111</v>
+        <v>93</v>
       </c>
       <c r="I9" s="18"/>
       <c r="J9" s="18"/>
@@ -5186,17 +5269,17 @@
     <row r="10" spans="1:17" s="14" customFormat="1">
       <c r="A10" s="10"/>
       <c r="B10" s="1" t="s">
-        <v>112</v>
+        <v>94</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>110</v>
+        <v>92</v>
       </c>
       <c r="D10" s="1"/>
       <c r="E10" s="1"/>
       <c r="F10" s="2"/>
       <c r="G10" s="2"/>
       <c r="H10" s="1" t="s">
-        <v>113</v>
+        <v>95</v>
       </c>
       <c r="I10" s="19"/>
       <c r="J10" s="19"/>
@@ -5211,17 +5294,17 @@
     <row r="11" spans="1:17" s="14" customFormat="1">
       <c r="A11" s="7"/>
       <c r="B11" s="1" t="s">
-        <v>114</v>
+        <v>96</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>110</v>
+        <v>92</v>
       </c>
       <c r="D11" s="1"/>
       <c r="E11" s="1"/>
       <c r="F11" s="2"/>
       <c r="G11" s="2"/>
       <c r="H11" s="1" t="s">
-        <v>115</v>
+        <v>97</v>
       </c>
       <c r="I11" s="17"/>
       <c r="J11" s="17"/>
@@ -6569,7 +6652,7 @@
         <v>17</v>
       </c>
       <c r="C6" s="29" t="s">
-        <v>148</v>
+        <v>130</v>
       </c>
       <c r="D6" s="29">
         <v>255</v>
@@ -6578,7 +6661,7 @@
       <c r="F6" s="30"/>
       <c r="G6" s="30"/>
       <c r="H6" s="29" t="s">
-        <v>131</v>
+        <v>113</v>
       </c>
       <c r="I6" s="17"/>
       <c r="J6" s="17"/>
@@ -6593,17 +6676,17 @@
     <row r="7" spans="1:17" s="14" customFormat="1">
       <c r="A7" s="7"/>
       <c r="B7" s="29" t="s">
-        <v>132</v>
+        <v>114</v>
       </c>
       <c r="C7" s="29" t="s">
-        <v>146</v>
+        <v>128</v>
       </c>
       <c r="D7" s="29"/>
       <c r="E7" s="29"/>
       <c r="F7" s="30"/>
       <c r="G7" s="30"/>
       <c r="H7" s="29" t="s">
-        <v>133</v>
+        <v>115</v>
       </c>
       <c r="I7" s="18"/>
       <c r="J7" s="18"/>
@@ -6618,10 +6701,10 @@
     <row r="8" spans="1:17" s="14" customFormat="1">
       <c r="A8" s="7"/>
       <c r="B8" s="29" t="s">
-        <v>134</v>
+        <v>116</v>
       </c>
       <c r="C8" s="29" t="s">
-        <v>143</v>
+        <v>125</v>
       </c>
       <c r="D8" s="29"/>
       <c r="E8" s="29"/>
@@ -6630,7 +6713,7 @@
       </c>
       <c r="G8" s="30"/>
       <c r="H8" s="29" t="s">
-        <v>135</v>
+        <v>117</v>
       </c>
       <c r="I8" s="18"/>
       <c r="J8" s="18"/>
@@ -6645,10 +6728,10 @@
     <row r="9" spans="1:17" s="14" customFormat="1">
       <c r="A9" s="7"/>
       <c r="B9" s="29" t="s">
-        <v>136</v>
+        <v>118</v>
       </c>
       <c r="C9" s="29" t="s">
-        <v>144</v>
+        <v>126</v>
       </c>
       <c r="D9" s="29"/>
       <c r="E9" s="29"/>
@@ -6657,7 +6740,7 @@
       </c>
       <c r="G9" s="30"/>
       <c r="H9" s="29" t="s">
-        <v>137</v>
+        <v>119</v>
       </c>
       <c r="I9" s="18"/>
       <c r="J9" s="18"/>
@@ -6672,10 +6755,10 @@
     <row r="10" spans="1:17" s="14" customFormat="1">
       <c r="A10" s="10"/>
       <c r="B10" s="29" t="s">
-        <v>152</v>
+        <v>134</v>
       </c>
       <c r="C10" s="29" t="s">
-        <v>145</v>
+        <v>127</v>
       </c>
       <c r="D10" s="29"/>
       <c r="E10" s="29"/>
@@ -6684,7 +6767,7 @@
       </c>
       <c r="G10" s="30"/>
       <c r="H10" s="29" t="s">
-        <v>149</v>
+        <v>131</v>
       </c>
       <c r="I10" s="19"/>
       <c r="J10" s="19"/>
@@ -6699,10 +6782,10 @@
     <row r="11" spans="1:17" s="14" customFormat="1">
       <c r="A11" s="7"/>
       <c r="B11" s="29" t="s">
-        <v>151</v>
+        <v>133</v>
       </c>
       <c r="C11" s="29" t="s">
-        <v>147</v>
+        <v>129</v>
       </c>
       <c r="D11" s="29">
         <v>255</v>
@@ -6711,7 +6794,7 @@
       <c r="F11" s="30"/>
       <c r="G11" s="30"/>
       <c r="H11" s="29" t="s">
-        <v>153</v>
+        <v>135</v>
       </c>
       <c r="I11" s="17"/>
       <c r="J11" s="17"/>
@@ -6726,17 +6809,17 @@
     <row r="12" spans="1:17" s="14" customFormat="1">
       <c r="A12" s="7"/>
       <c r="B12" s="31" t="s">
-        <v>138</v>
+        <v>120</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>167</v>
+        <v>149</v>
       </c>
       <c r="D12" s="31"/>
       <c r="E12" s="33"/>
       <c r="F12" s="33"/>
       <c r="G12" s="33"/>
       <c r="H12" s="34" t="s">
-        <v>150</v>
+        <v>132</v>
       </c>
       <c r="I12" s="17"/>
       <c r="J12" s="17"/>
@@ -6751,10 +6834,10 @@
     <row r="13" spans="1:17" s="14" customFormat="1">
       <c r="A13" s="7"/>
       <c r="B13" s="29" t="s">
-        <v>139</v>
+        <v>121</v>
       </c>
       <c r="C13" s="29" t="s">
-        <v>148</v>
+        <v>130</v>
       </c>
       <c r="D13" s="29">
         <v>64</v>
@@ -6763,7 +6846,7 @@
       <c r="F13" s="30"/>
       <c r="G13" s="32"/>
       <c r="H13" s="29" t="s">
-        <v>140</v>
+        <v>122</v>
       </c>
       <c r="I13" s="17"/>
       <c r="J13" s="17"/>
@@ -6778,17 +6861,17 @@
     <row r="14" spans="1:17" s="14" customFormat="1">
       <c r="A14" s="7"/>
       <c r="B14" s="29" t="s">
-        <v>141</v>
+        <v>123</v>
       </c>
       <c r="C14" s="29" t="s">
-        <v>143</v>
+        <v>125</v>
       </c>
       <c r="D14" s="29"/>
       <c r="E14" s="29"/>
       <c r="F14" s="30"/>
       <c r="G14" s="32"/>
       <c r="H14" s="29" t="s">
-        <v>142</v>
+        <v>124</v>
       </c>
       <c r="I14" s="18"/>
       <c r="J14" s="18"/>
@@ -7901,7 +7984,7 @@
       </c>
       <c r="B1" s="40"/>
       <c r="C1" s="41" t="s">
-        <v>176</v>
+        <v>158</v>
       </c>
       <c r="D1" s="41"/>
       <c r="E1" s="42"/>
@@ -7911,7 +7994,7 @@
       <c r="G1" s="40"/>
       <c r="H1" s="3"/>
       <c r="I1" s="48" t="s">
-        <v>177</v>
+        <v>159</v>
       </c>
       <c r="J1" s="49"/>
       <c r="K1" s="49"/>
@@ -7928,7 +8011,7 @@
       </c>
       <c r="B2" s="44"/>
       <c r="C2" s="45" t="s">
-        <v>178</v>
+        <v>160</v>
       </c>
       <c r="D2" s="45"/>
       <c r="E2" s="45"/>
@@ -7936,7 +8019,7 @@
       <c r="G2" s="45"/>
       <c r="H2" s="45"/>
       <c r="I2" s="46" t="s">
-        <v>179</v>
+        <v>161</v>
       </c>
       <c r="J2" s="47"/>
       <c r="K2" s="36"/>
@@ -7968,62 +8051,62 @@
         <v>4</v>
       </c>
       <c r="F3" s="6" t="s">
-        <v>180</v>
+        <v>162</v>
       </c>
       <c r="G3" s="6" t="s">
-        <v>181</v>
+        <v>163</v>
       </c>
       <c r="H3" s="6" t="s">
         <v>0</v>
       </c>
       <c r="I3" s="15" t="s">
-        <v>182</v>
+        <v>164</v>
       </c>
       <c r="J3" s="15" t="s">
-        <v>183</v>
+        <v>165</v>
       </c>
       <c r="K3" s="15" t="s">
-        <v>184</v>
+        <v>166</v>
       </c>
       <c r="L3" s="15" t="s">
-        <v>182</v>
+        <v>164</v>
       </c>
       <c r="M3" s="15" t="s">
-        <v>183</v>
+        <v>165</v>
       </c>
       <c r="N3" s="15" t="s">
-        <v>184</v>
+        <v>166</v>
       </c>
       <c r="O3" s="15" t="s">
-        <v>182</v>
+        <v>164</v>
       </c>
       <c r="P3" s="15" t="s">
-        <v>183</v>
+        <v>165</v>
       </c>
       <c r="Q3" s="15" t="s">
-        <v>184</v>
+        <v>166</v>
       </c>
     </row>
     <row r="4" spans="1:17">
       <c r="A4" s="7"/>
       <c r="B4" s="1" t="s">
-        <v>103</v>
+        <v>85</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>185</v>
+        <v>167</v>
       </c>
       <c r="D4" s="1"/>
       <c r="E4" s="1" t="s">
-        <v>104</v>
+        <v>86</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>105</v>
+        <v>87</v>
       </c>
       <c r="G4" s="2" t="s">
-        <v>105</v>
+        <v>87</v>
       </c>
       <c r="H4" s="1" t="s">
-        <v>186</v>
+        <v>168</v>
       </c>
       <c r="I4" s="16"/>
       <c r="J4" s="16"/>
@@ -8038,19 +8121,19 @@
     <row r="5" spans="1:17">
       <c r="A5" s="7"/>
       <c r="B5" s="1" t="s">
-        <v>125</v>
+        <v>107</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>185</v>
+        <v>167</v>
       </c>
       <c r="D5" s="1"/>
       <c r="E5" s="1" t="s">
-        <v>187</v>
+        <v>169</v>
       </c>
       <c r="F5" s="2"/>
       <c r="G5" s="2"/>
       <c r="H5" s="1" t="s">
-        <v>164</v>
+        <v>146</v>
       </c>
       <c r="I5" s="16"/>
       <c r="J5" s="16"/>
@@ -8068,7 +8151,7 @@
         <v>17</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>68</v>
+        <v>50</v>
       </c>
       <c r="D6" s="1">
         <v>255</v>
@@ -8077,7 +8160,7 @@
       <c r="F6" s="2"/>
       <c r="G6" s="2"/>
       <c r="H6" s="1" t="s">
-        <v>188</v>
+        <v>170</v>
       </c>
       <c r="J6" s="16"/>
       <c r="K6" s="16"/>
@@ -8694,7 +8777,7 @@
       </c>
       <c r="B1" s="40"/>
       <c r="C1" s="41" t="s">
-        <v>65</v>
+        <v>47</v>
       </c>
       <c r="D1" s="41"/>
       <c r="E1" s="42"/>
@@ -8721,7 +8804,7 @@
       </c>
       <c r="B2" s="44"/>
       <c r="C2" s="45" t="s">
-        <v>66</v>
+        <v>48</v>
       </c>
       <c r="D2" s="45"/>
       <c r="E2" s="45"/>
@@ -8803,7 +8886,7 @@
         <v>3</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>167</v>
+        <v>149</v>
       </c>
       <c r="D4" s="1"/>
       <c r="E4" s="1" t="s">
@@ -8816,7 +8899,7 @@
         <v>8</v>
       </c>
       <c r="H4" s="1" t="s">
-        <v>154</v>
+        <v>136</v>
       </c>
       <c r="I4" s="16"/>
       <c r="J4" s="16"/>
@@ -8853,7 +8936,7 @@
         <v>31</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>167</v>
+        <v>149</v>
       </c>
       <c r="D6" s="1"/>
       <c r="E6" s="1"/>
@@ -8875,10 +8958,10 @@
     <row r="7" spans="1:17" s="14" customFormat="1">
       <c r="A7" s="7"/>
       <c r="B7" s="1" t="s">
-        <v>67</v>
+        <v>49</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>68</v>
+        <v>50</v>
       </c>
       <c r="D7" s="1">
         <v>255</v>
@@ -8887,7 +8970,7 @@
       <c r="F7" s="2"/>
       <c r="G7" s="2"/>
       <c r="H7" s="1" t="s">
-        <v>69</v>
+        <v>51</v>
       </c>
       <c r="I7" s="16"/>
       <c r="J7" s="16"/>
@@ -10138,10 +10221,10 @@
   <sheetPr>
     <tabColor theme="4" tint="0.39997558519241921"/>
   </sheetPr>
-  <dimension ref="A1:Q72"/>
+  <dimension ref="A1:Q74"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D8" sqref="D8"/>
+    <sheetView topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="H18" sqref="H18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -10171,7 +10254,7 @@
       </c>
       <c r="B1" s="40"/>
       <c r="C1" s="41" t="s">
-        <v>70</v>
+        <v>52</v>
       </c>
       <c r="D1" s="41"/>
       <c r="E1" s="42"/>
@@ -10198,7 +10281,7 @@
       </c>
       <c r="B2" s="44"/>
       <c r="C2" s="45" t="s">
-        <v>71</v>
+        <v>53</v>
       </c>
       <c r="D2" s="45"/>
       <c r="E2" s="45"/>
@@ -10280,7 +10363,7 @@
         <v>3</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>167</v>
+        <v>149</v>
       </c>
       <c r="D4" s="1"/>
       <c r="E4" s="1" t="s">
@@ -10330,7 +10413,7 @@
         <v>31</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>167</v>
+        <v>149</v>
       </c>
       <c r="D6" s="1"/>
       <c r="E6" s="1"/>
@@ -10371,17 +10454,17 @@
     <row r="8" spans="1:17" s="14" customFormat="1">
       <c r="A8" s="7"/>
       <c r="B8" s="1" t="s">
-        <v>92</v>
+        <v>187</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>83</v>
+        <v>190</v>
       </c>
       <c r="D8" s="1"/>
-      <c r="E8" s="1"/>
-      <c r="F8" s="2"/>
-      <c r="G8" s="25"/>
-      <c r="H8" s="1" t="s">
-        <v>93</v>
+      <c r="E8" s="10"/>
+      <c r="F8" s="24"/>
+      <c r="G8" s="24"/>
+      <c r="H8" s="12" t="s">
+        <v>189</v>
       </c>
       <c r="I8" s="18"/>
       <c r="J8" s="18"/>
@@ -10395,13 +10478,21 @@
     </row>
     <row r="9" spans="1:17" s="14" customFormat="1">
       <c r="A9" s="7"/>
-      <c r="B9" s="1"/>
-      <c r="C9" s="1"/>
-      <c r="D9" s="1"/>
-      <c r="E9" s="1"/>
-      <c r="F9" s="2"/>
-      <c r="G9" s="2"/>
-      <c r="H9" s="1"/>
+      <c r="B9" s="1" t="s">
+        <v>186</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="D9" s="1">
+        <v>255</v>
+      </c>
+      <c r="E9" s="10"/>
+      <c r="F9" s="24"/>
+      <c r="G9" s="24"/>
+      <c r="H9" s="12" t="s">
+        <v>188</v>
+      </c>
       <c r="I9" s="18"/>
       <c r="J9" s="18"/>
       <c r="K9" s="18"/>
@@ -10415,17 +10506,17 @@
     <row r="10" spans="1:17" s="14" customFormat="1">
       <c r="A10" s="7"/>
       <c r="B10" s="1" t="s">
-        <v>42</v>
+        <v>74</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>43</v>
+        <v>65</v>
       </c>
       <c r="D10" s="1"/>
-      <c r="E10" s="10"/>
-      <c r="F10" s="24"/>
-      <c r="G10" s="24"/>
-      <c r="H10" s="12" t="s">
-        <v>44</v>
+      <c r="E10" s="1"/>
+      <c r="F10" s="2"/>
+      <c r="G10" s="25"/>
+      <c r="H10" s="1" t="s">
+        <v>75</v>
       </c>
       <c r="I10" s="18"/>
       <c r="J10" s="18"/>
@@ -10439,20 +10530,20 @@
     </row>
     <row r="11" spans="1:17" s="14" customFormat="1">
       <c r="A11" s="7"/>
-      <c r="B11" s="4" t="s">
-        <v>45</v>
+      <c r="B11" s="1" t="s">
+        <v>40</v>
       </c>
       <c r="C11" s="1" t="s">
         <v>23</v>
       </c>
       <c r="D11" s="1">
-        <v>10</v>
-      </c>
-      <c r="E11" s="10"/>
-      <c r="F11" s="24"/>
-      <c r="G11" s="24"/>
-      <c r="H11" s="12" t="s">
-        <v>46</v>
+        <v>255</v>
+      </c>
+      <c r="E11" s="1"/>
+      <c r="F11" s="2"/>
+      <c r="G11" s="2"/>
+      <c r="H11" s="1" t="s">
+        <v>41</v>
       </c>
       <c r="I11" s="18"/>
       <c r="J11" s="18"/>
@@ -10465,60 +10556,68 @@
       <c r="Q11" s="16"/>
     </row>
     <row r="12" spans="1:17" s="14" customFormat="1">
-      <c r="A12" s="10"/>
-      <c r="B12" s="1"/>
-      <c r="C12" s="1"/>
-      <c r="D12" s="1"/>
+      <c r="A12" s="7"/>
+      <c r="B12" s="1" t="s">
+        <v>201</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="D12" s="1">
+        <v>255</v>
+      </c>
       <c r="E12" s="1"/>
       <c r="F12" s="2"/>
-      <c r="G12" s="25"/>
-      <c r="H12" s="1"/>
-      <c r="I12" s="19"/>
-      <c r="J12" s="19"/>
-      <c r="K12" s="19"/>
-      <c r="L12" s="19"/>
-      <c r="M12" s="19"/>
-      <c r="N12" s="19"/>
-      <c r="O12" s="19"/>
-      <c r="P12" s="19"/>
-      <c r="Q12" s="19"/>
+      <c r="G12" s="2"/>
+      <c r="H12" s="1" t="s">
+        <v>202</v>
+      </c>
+      <c r="I12" s="18"/>
+      <c r="J12" s="18"/>
+      <c r="K12" s="18"/>
+      <c r="L12" s="16"/>
+      <c r="M12" s="16"/>
+      <c r="N12" s="16"/>
+      <c r="O12" s="16"/>
+      <c r="P12" s="16"/>
+      <c r="Q12" s="16"/>
     </row>
     <row r="13" spans="1:17" s="14" customFormat="1">
-      <c r="A13" s="7"/>
-      <c r="B13" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="C13" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="D13" s="1">
-        <v>255</v>
-      </c>
+      <c r="A13" s="10"/>
+      <c r="B13" s="1"/>
+      <c r="C13" s="1"/>
+      <c r="D13" s="1"/>
       <c r="E13" s="1"/>
       <c r="F13" s="2"/>
-      <c r="G13" s="2"/>
-      <c r="H13" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="I13" s="17"/>
-      <c r="J13" s="17"/>
-      <c r="K13" s="16"/>
-      <c r="L13" s="16"/>
-      <c r="M13" s="16"/>
-      <c r="N13" s="16"/>
-      <c r="O13" s="16"/>
-      <c r="P13" s="16"/>
-      <c r="Q13" s="16"/>
+      <c r="G13" s="25"/>
+      <c r="H13" s="1"/>
+      <c r="I13" s="19"/>
+      <c r="J13" s="19"/>
+      <c r="K13" s="19"/>
+      <c r="L13" s="19"/>
+      <c r="M13" s="19"/>
+      <c r="N13" s="19"/>
+      <c r="O13" s="19"/>
+      <c r="P13" s="19"/>
+      <c r="Q13" s="19"/>
     </row>
     <row r="14" spans="1:17" s="14" customFormat="1">
       <c r="A14" s="7"/>
-      <c r="B14" s="1"/>
-      <c r="C14" s="1"/>
+      <c r="B14" s="1" t="s">
+        <v>193</v>
+      </c>
+      <c r="C14" s="1" t="s">
+        <v>167</v>
+      </c>
       <c r="D14" s="1"/>
-      <c r="E14" s="1"/>
+      <c r="E14" s="1" t="s">
+        <v>205</v>
+      </c>
       <c r="F14" s="2"/>
       <c r="G14" s="25"/>
-      <c r="H14" s="1"/>
+      <c r="H14" s="12" t="s">
+        <v>196</v>
+      </c>
       <c r="I14" s="17"/>
       <c r="J14" s="17"/>
       <c r="K14" s="16"/>
@@ -10532,26 +10631,26 @@
     <row r="15" spans="1:17" s="14" customFormat="1">
       <c r="A15" s="7"/>
       <c r="B15" s="1" t="s">
-        <v>47</v>
+        <v>194</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="D15" s="1">
-        <v>255</v>
-      </c>
-      <c r="E15" s="1"/>
+        <v>167</v>
+      </c>
+      <c r="D15" s="1"/>
+      <c r="E15" s="1" t="s">
+        <v>205</v>
+      </c>
       <c r="F15" s="2"/>
       <c r="G15" s="25"/>
-      <c r="H15" s="1" t="s">
-        <v>49</v>
+      <c r="H15" s="12" t="s">
+        <v>197</v>
       </c>
       <c r="I15" s="17"/>
       <c r="J15" s="17"/>
-      <c r="K15" s="18"/>
-      <c r="L15" s="18"/>
-      <c r="M15" s="18"/>
-      <c r="N15" s="18"/>
+      <c r="K15" s="16"/>
+      <c r="L15" s="16"/>
+      <c r="M15" s="16"/>
+      <c r="N15" s="16"/>
       <c r="O15" s="16"/>
       <c r="P15" s="16"/>
       <c r="Q15" s="16"/>
@@ -10559,26 +10658,26 @@
     <row r="16" spans="1:17" s="14" customFormat="1">
       <c r="A16" s="7"/>
       <c r="B16" s="1" t="s">
-        <v>50</v>
+        <v>195</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="D16" s="1">
-        <v>255</v>
-      </c>
-      <c r="E16" s="1"/>
+        <v>167</v>
+      </c>
+      <c r="D16" s="1"/>
+      <c r="E16" s="1" t="s">
+        <v>205</v>
+      </c>
       <c r="F16" s="2"/>
       <c r="G16" s="25"/>
-      <c r="H16" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="I16" s="18"/>
-      <c r="J16" s="18"/>
+      <c r="H16" s="12" t="s">
+        <v>198</v>
+      </c>
+      <c r="I16" s="17"/>
+      <c r="J16" s="17"/>
       <c r="K16" s="18"/>
-      <c r="L16" s="16"/>
-      <c r="M16" s="16"/>
-      <c r="N16" s="16"/>
+      <c r="L16" s="18"/>
+      <c r="M16" s="18"/>
+      <c r="N16" s="18"/>
       <c r="O16" s="16"/>
       <c r="P16" s="16"/>
       <c r="Q16" s="16"/>
@@ -10586,26 +10685,26 @@
     <row r="17" spans="1:17" s="14" customFormat="1">
       <c r="A17" s="7"/>
       <c r="B17" s="1" t="s">
-        <v>52</v>
+        <v>199</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="D17" s="1">
-        <v>255</v>
-      </c>
-      <c r="E17" s="1"/>
+        <v>167</v>
+      </c>
+      <c r="D17" s="1"/>
+      <c r="E17" s="1" t="s">
+        <v>205</v>
+      </c>
       <c r="F17" s="2"/>
       <c r="G17" s="25"/>
-      <c r="H17" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="I17" s="16"/>
-      <c r="J17" s="16"/>
-      <c r="K17" s="16"/>
-      <c r="L17" s="16"/>
-      <c r="M17" s="16"/>
-      <c r="N17" s="16"/>
+      <c r="H17" s="12" t="s">
+        <v>200</v>
+      </c>
+      <c r="I17" s="17"/>
+      <c r="J17" s="17"/>
+      <c r="K17" s="18"/>
+      <c r="L17" s="18"/>
+      <c r="M17" s="18"/>
+      <c r="N17" s="18"/>
       <c r="O17" s="16"/>
       <c r="P17" s="16"/>
       <c r="Q17" s="16"/>
@@ -10613,23 +10712,23 @@
     <row r="18" spans="1:17" s="14" customFormat="1">
       <c r="A18" s="7"/>
       <c r="B18" s="1" t="s">
-        <v>54</v>
+        <v>203</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="D18" s="1">
-        <v>255</v>
-      </c>
-      <c r="E18" s="1"/>
+        <v>167</v>
+      </c>
+      <c r="D18" s="1"/>
+      <c r="E18" s="1" t="s">
+        <v>205</v>
+      </c>
       <c r="F18" s="2"/>
-      <c r="G18" s="25"/>
-      <c r="H18" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="I18" s="16"/>
-      <c r="J18" s="16"/>
-      <c r="K18" s="16"/>
+      <c r="G18" s="2"/>
+      <c r="H18" s="12" t="s">
+        <v>204</v>
+      </c>
+      <c r="I18" s="18"/>
+      <c r="J18" s="18"/>
+      <c r="K18" s="18"/>
       <c r="L18" s="16"/>
       <c r="M18" s="16"/>
       <c r="N18" s="16"/>
@@ -10639,21 +10738,13 @@
     </row>
     <row r="19" spans="1:17" s="14" customFormat="1">
       <c r="A19" s="7"/>
-      <c r="B19" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="C19" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="D19" s="1">
-        <v>255</v>
-      </c>
+      <c r="B19" s="1"/>
+      <c r="C19" s="1"/>
+      <c r="D19" s="1"/>
       <c r="E19" s="1"/>
       <c r="F19" s="2"/>
       <c r="G19" s="25"/>
-      <c r="H19" s="1" t="s">
-        <v>57</v>
-      </c>
+      <c r="H19" s="1"/>
       <c r="I19" s="16"/>
       <c r="J19" s="16"/>
       <c r="K19" s="16"/>
@@ -10666,23 +10757,15 @@
     </row>
     <row r="20" spans="1:17" s="14" customFormat="1">
       <c r="A20" s="7"/>
-      <c r="B20" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="C20" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="D20" s="1">
-        <v>255</v>
-      </c>
+      <c r="B20" s="1"/>
+      <c r="C20" s="1"/>
+      <c r="D20" s="1"/>
       <c r="E20" s="1"/>
       <c r="F20" s="2"/>
       <c r="G20" s="25"/>
-      <c r="H20" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="I20" s="17"/>
-      <c r="J20" s="17"/>
+      <c r="H20" s="1"/>
+      <c r="I20" s="16"/>
+      <c r="J20" s="16"/>
       <c r="K20" s="16"/>
       <c r="L20" s="16"/>
       <c r="M20" s="16"/>
@@ -10700,11 +10783,11 @@
       <c r="F21" s="2"/>
       <c r="G21" s="25"/>
       <c r="H21" s="1"/>
-      <c r="I21" s="17"/>
-      <c r="J21" s="17"/>
+      <c r="I21" s="16"/>
+      <c r="J21" s="16"/>
       <c r="K21" s="16"/>
-      <c r="L21" s="20"/>
-      <c r="M21" s="20"/>
+      <c r="L21" s="16"/>
+      <c r="M21" s="16"/>
       <c r="N21" s="16"/>
       <c r="O21" s="16"/>
       <c r="P21" s="16"/>
@@ -10712,24 +10795,18 @@
     </row>
     <row r="22" spans="1:17" s="14" customFormat="1">
       <c r="A22" s="7"/>
-      <c r="B22" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="C22" s="1" t="s">
-        <v>167</v>
-      </c>
+      <c r="B22" s="1"/>
+      <c r="C22" s="1"/>
       <c r="D22" s="1"/>
       <c r="E22" s="1"/>
       <c r="F22" s="2"/>
       <c r="G22" s="25"/>
-      <c r="H22" s="1" t="s">
-        <v>60</v>
-      </c>
+      <c r="H22" s="1"/>
       <c r="I22" s="17"/>
       <c r="J22" s="17"/>
       <c r="K22" s="16"/>
-      <c r="L22" s="20"/>
-      <c r="M22" s="20"/>
+      <c r="L22" s="16"/>
+      <c r="M22" s="16"/>
       <c r="N22" s="16"/>
       <c r="O22" s="16"/>
       <c r="P22" s="16"/>
@@ -10747,8 +10824,8 @@
       <c r="I23" s="17"/>
       <c r="J23" s="17"/>
       <c r="K23" s="16"/>
-      <c r="L23" s="16"/>
-      <c r="M23" s="16"/>
+      <c r="L23" s="20"/>
+      <c r="M23" s="20"/>
       <c r="N23" s="16"/>
       <c r="O23" s="16"/>
       <c r="P23" s="16"/>
@@ -10757,23 +10834,23 @@
     <row r="24" spans="1:17" s="14" customFormat="1">
       <c r="A24" s="7"/>
       <c r="B24" s="1" t="s">
-        <v>62</v>
+        <v>43</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>63</v>
+        <v>149</v>
       </c>
       <c r="D24" s="1"/>
-      <c r="E24" s="7"/>
-      <c r="F24" s="25"/>
+      <c r="E24" s="1"/>
+      <c r="F24" s="2"/>
       <c r="G24" s="25"/>
       <c r="H24" s="1" t="s">
-        <v>64</v>
+        <v>42</v>
       </c>
       <c r="I24" s="17"/>
       <c r="J24" s="17"/>
       <c r="K24" s="16"/>
-      <c r="L24" s="16"/>
-      <c r="M24" s="16"/>
+      <c r="L24" s="20"/>
+      <c r="M24" s="20"/>
       <c r="N24" s="16"/>
       <c r="O24" s="16"/>
       <c r="P24" s="16"/>
@@ -10800,18 +10877,24 @@
     </row>
     <row r="26" spans="1:17" s="14" customFormat="1">
       <c r="A26" s="7"/>
-      <c r="B26" s="1"/>
-      <c r="C26" s="1"/>
+      <c r="B26" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="C26" s="1" t="s">
+        <v>45</v>
+      </c>
       <c r="D26" s="1"/>
       <c r="E26" s="7"/>
       <c r="F26" s="25"/>
       <c r="G26" s="25"/>
-      <c r="H26" s="1"/>
+      <c r="H26" s="1" t="s">
+        <v>46</v>
+      </c>
       <c r="I26" s="17"/>
       <c r="J26" s="17"/>
       <c r="K26" s="16"/>
-      <c r="L26" s="20"/>
-      <c r="M26" s="20"/>
+      <c r="L26" s="16"/>
+      <c r="M26" s="16"/>
       <c r="N26" s="16"/>
       <c r="O26" s="16"/>
       <c r="P26" s="16"/>
@@ -10822,8 +10905,8 @@
       <c r="B27" s="1"/>
       <c r="C27" s="1"/>
       <c r="D27" s="1"/>
-      <c r="E27" s="7"/>
-      <c r="F27" s="25"/>
+      <c r="E27" s="1"/>
+      <c r="F27" s="2"/>
       <c r="G27" s="25"/>
       <c r="H27" s="1"/>
       <c r="I27" s="17"/>
@@ -10840,7 +10923,6 @@
       <c r="A28" s="7"/>
       <c r="B28" s="1"/>
       <c r="C28" s="1"/>
-      <c r="D28" s="1"/>
       <c r="E28" s="7"/>
       <c r="F28" s="25"/>
       <c r="G28" s="25"/>
@@ -10848,11 +10930,11 @@
       <c r="I28" s="17"/>
       <c r="J28" s="17"/>
       <c r="K28" s="16"/>
-      <c r="L28" s="16"/>
-      <c r="M28" s="16"/>
+      <c r="L28" s="20"/>
+      <c r="M28" s="20"/>
       <c r="N28" s="16"/>
-      <c r="O28" s="20"/>
-      <c r="P28" s="20"/>
+      <c r="O28" s="16"/>
+      <c r="P28" s="16"/>
       <c r="Q28" s="16"/>
     </row>
     <row r="29" spans="1:17" s="14" customFormat="1">
@@ -10860,8 +10942,8 @@
       <c r="B29" s="1"/>
       <c r="C29" s="1"/>
       <c r="D29" s="1"/>
-      <c r="E29" s="1"/>
-      <c r="F29" s="2"/>
+      <c r="E29" s="7"/>
+      <c r="F29" s="25"/>
       <c r="G29" s="25"/>
       <c r="H29" s="1"/>
       <c r="I29" s="17"/>
@@ -10879,18 +10961,18 @@
       <c r="B30" s="1"/>
       <c r="C30" s="1"/>
       <c r="D30" s="1"/>
-      <c r="E30" s="1"/>
-      <c r="F30" s="2"/>
+      <c r="E30" s="7"/>
+      <c r="F30" s="25"/>
       <c r="G30" s="25"/>
       <c r="H30" s="1"/>
       <c r="I30" s="17"/>
       <c r="J30" s="17"/>
       <c r="K30" s="16"/>
-      <c r="L30" s="20"/>
-      <c r="M30" s="20"/>
+      <c r="L30" s="16"/>
+      <c r="M30" s="16"/>
       <c r="N30" s="16"/>
-      <c r="O30" s="16"/>
-      <c r="P30" s="16"/>
+      <c r="O30" s="20"/>
+      <c r="P30" s="20"/>
       <c r="Q30" s="16"/>
     </row>
     <row r="31" spans="1:17" s="14" customFormat="1">
@@ -10898,12 +10980,12 @@
       <c r="B31" s="1"/>
       <c r="C31" s="1"/>
       <c r="D31" s="1"/>
-      <c r="E31" s="7"/>
-      <c r="F31" s="25"/>
+      <c r="E31" s="1"/>
+      <c r="F31" s="2"/>
       <c r="G31" s="25"/>
       <c r="H31" s="1"/>
-      <c r="I31" s="16"/>
-      <c r="J31" s="16"/>
+      <c r="I31" s="17"/>
+      <c r="J31" s="17"/>
       <c r="K31" s="16"/>
       <c r="L31" s="16"/>
       <c r="M31" s="16"/>
@@ -10917,15 +10999,15 @@
       <c r="B32" s="1"/>
       <c r="C32" s="1"/>
       <c r="D32" s="1"/>
-      <c r="E32" s="7"/>
-      <c r="F32" s="25"/>
+      <c r="E32" s="1"/>
+      <c r="F32" s="2"/>
       <c r="G32" s="25"/>
       <c r="H32" s="1"/>
-      <c r="I32" s="16"/>
-      <c r="J32" s="16"/>
+      <c r="I32" s="17"/>
+      <c r="J32" s="17"/>
       <c r="K32" s="16"/>
-      <c r="L32" s="16"/>
-      <c r="M32" s="16"/>
+      <c r="L32" s="20"/>
+      <c r="M32" s="20"/>
       <c r="N32" s="16"/>
       <c r="O32" s="16"/>
       <c r="P32" s="16"/>
@@ -10971,13 +11053,13 @@
     </row>
     <row r="35" spans="1:17" s="14" customFormat="1">
       <c r="A35" s="7"/>
-      <c r="B35" s="7"/>
-      <c r="C35" s="7"/>
-      <c r="D35" s="7"/>
+      <c r="B35" s="1"/>
+      <c r="C35" s="1"/>
+      <c r="D35" s="1"/>
       <c r="E35" s="7"/>
       <c r="F35" s="25"/>
       <c r="G35" s="25"/>
-      <c r="H35" s="7"/>
+      <c r="H35" s="1"/>
       <c r="I35" s="16"/>
       <c r="J35" s="16"/>
       <c r="K35" s="16"/>
@@ -10989,42 +11071,42 @@
       <c r="Q35" s="16"/>
     </row>
     <row r="36" spans="1:17" s="14" customFormat="1">
-      <c r="A36" s="8"/>
-      <c r="B36" s="8"/>
-      <c r="C36" s="8"/>
-      <c r="D36" s="8"/>
-      <c r="E36" s="8"/>
-      <c r="F36" s="8"/>
-      <c r="G36" s="8"/>
-      <c r="H36" s="8"/>
-      <c r="I36" s="21"/>
-      <c r="J36" s="21"/>
-      <c r="K36" s="21"/>
-      <c r="L36" s="21"/>
-      <c r="M36" s="21"/>
-      <c r="N36" s="21"/>
-      <c r="O36" s="21"/>
-      <c r="P36" s="21"/>
-      <c r="Q36" s="21"/>
+      <c r="A36" s="7"/>
+      <c r="B36" s="1"/>
+      <c r="C36" s="1"/>
+      <c r="D36" s="1"/>
+      <c r="E36" s="7"/>
+      <c r="F36" s="25"/>
+      <c r="G36" s="25"/>
+      <c r="H36" s="1"/>
+      <c r="I36" s="16"/>
+      <c r="J36" s="16"/>
+      <c r="K36" s="16"/>
+      <c r="L36" s="16"/>
+      <c r="M36" s="16"/>
+      <c r="N36" s="16"/>
+      <c r="O36" s="16"/>
+      <c r="P36" s="16"/>
+      <c r="Q36" s="16"/>
     </row>
     <row r="37" spans="1:17" s="14" customFormat="1">
-      <c r="A37" s="8"/>
-      <c r="B37" s="8"/>
-      <c r="C37" s="8"/>
-      <c r="D37" s="8"/>
-      <c r="E37" s="8"/>
-      <c r="F37" s="8"/>
-      <c r="G37" s="8"/>
-      <c r="H37" s="8"/>
-      <c r="I37" s="21"/>
-      <c r="J37" s="21"/>
-      <c r="K37" s="21"/>
-      <c r="L37" s="21"/>
-      <c r="M37" s="21"/>
-      <c r="N37" s="21"/>
-      <c r="O37" s="21"/>
-      <c r="P37" s="21"/>
-      <c r="Q37" s="21"/>
+      <c r="A37" s="7"/>
+      <c r="B37" s="7"/>
+      <c r="C37" s="7"/>
+      <c r="D37" s="7"/>
+      <c r="E37" s="7"/>
+      <c r="F37" s="25"/>
+      <c r="G37" s="25"/>
+      <c r="H37" s="7"/>
+      <c r="I37" s="16"/>
+      <c r="J37" s="16"/>
+      <c r="K37" s="16"/>
+      <c r="L37" s="16"/>
+      <c r="M37" s="16"/>
+      <c r="N37" s="16"/>
+      <c r="O37" s="16"/>
+      <c r="P37" s="16"/>
+      <c r="Q37" s="16"/>
     </row>
     <row r="38" spans="1:17" s="14" customFormat="1">
       <c r="A38" s="8"/>
@@ -11311,7 +11393,7 @@
       <c r="P52" s="21"/>
       <c r="Q52" s="21"/>
     </row>
-    <row r="53" spans="1:17">
+    <row r="53" spans="1:17" s="14" customFormat="1">
       <c r="A53" s="8"/>
       <c r="B53" s="8"/>
       <c r="C53" s="8"/>
@@ -11330,7 +11412,7 @@
       <c r="P53" s="21"/>
       <c r="Q53" s="21"/>
     </row>
-    <row r="54" spans="1:17">
+    <row r="54" spans="1:17" s="14" customFormat="1">
       <c r="A54" s="8"/>
       <c r="B54" s="8"/>
       <c r="C54" s="8"/>
@@ -11654,42 +11736,80 @@
       <c r="Q70" s="21"/>
     </row>
     <row r="71" spans="1:17">
-      <c r="A71" s="9"/>
-      <c r="B71" s="9"/>
-      <c r="C71" s="9"/>
-      <c r="D71" s="9"/>
-      <c r="E71" s="9"/>
-      <c r="F71" s="9"/>
-      <c r="G71" s="9"/>
-      <c r="H71" s="9"/>
-      <c r="I71" s="22"/>
-      <c r="J71" s="22"/>
-      <c r="K71" s="22"/>
-      <c r="L71" s="22"/>
-      <c r="M71" s="22"/>
-      <c r="N71" s="22"/>
-      <c r="O71" s="22"/>
-      <c r="P71" s="22"/>
-      <c r="Q71" s="22"/>
+      <c r="A71" s="8"/>
+      <c r="B71" s="8"/>
+      <c r="C71" s="8"/>
+      <c r="D71" s="8"/>
+      <c r="E71" s="8"/>
+      <c r="F71" s="8"/>
+      <c r="G71" s="8"/>
+      <c r="H71" s="8"/>
+      <c r="I71" s="21"/>
+      <c r="J71" s="21"/>
+      <c r="K71" s="21"/>
+      <c r="L71" s="21"/>
+      <c r="M71" s="21"/>
+      <c r="N71" s="21"/>
+      <c r="O71" s="21"/>
+      <c r="P71" s="21"/>
+      <c r="Q71" s="21"/>
     </row>
     <row r="72" spans="1:17">
-      <c r="A72" s="9"/>
-      <c r="B72" s="9"/>
-      <c r="C72" s="9"/>
-      <c r="D72" s="9"/>
-      <c r="E72" s="9"/>
-      <c r="F72" s="9"/>
-      <c r="G72" s="9"/>
-      <c r="H72" s="9"/>
-      <c r="I72" s="22"/>
-      <c r="J72" s="22"/>
-      <c r="K72" s="22"/>
-      <c r="L72" s="22"/>
-      <c r="M72" s="22"/>
-      <c r="N72" s="22"/>
-      <c r="O72" s="22"/>
-      <c r="P72" s="22"/>
-      <c r="Q72" s="22"/>
+      <c r="A72" s="8"/>
+      <c r="B72" s="8"/>
+      <c r="C72" s="8"/>
+      <c r="D72" s="8"/>
+      <c r="E72" s="8"/>
+      <c r="F72" s="8"/>
+      <c r="G72" s="8"/>
+      <c r="H72" s="8"/>
+      <c r="I72" s="21"/>
+      <c r="J72" s="21"/>
+      <c r="K72" s="21"/>
+      <c r="L72" s="21"/>
+      <c r="M72" s="21"/>
+      <c r="N72" s="21"/>
+      <c r="O72" s="21"/>
+      <c r="P72" s="21"/>
+      <c r="Q72" s="21"/>
+    </row>
+    <row r="73" spans="1:17">
+      <c r="A73" s="9"/>
+      <c r="B73" s="9"/>
+      <c r="C73" s="9"/>
+      <c r="D73" s="9"/>
+      <c r="E73" s="9"/>
+      <c r="F73" s="9"/>
+      <c r="G73" s="9"/>
+      <c r="H73" s="9"/>
+      <c r="I73" s="22"/>
+      <c r="J73" s="22"/>
+      <c r="K73" s="22"/>
+      <c r="L73" s="22"/>
+      <c r="M73" s="22"/>
+      <c r="N73" s="22"/>
+      <c r="O73" s="22"/>
+      <c r="P73" s="22"/>
+      <c r="Q73" s="22"/>
+    </row>
+    <row r="74" spans="1:17">
+      <c r="A74" s="9"/>
+      <c r="B74" s="9"/>
+      <c r="C74" s="9"/>
+      <c r="D74" s="9"/>
+      <c r="E74" s="9"/>
+      <c r="F74" s="9"/>
+      <c r="G74" s="9"/>
+      <c r="H74" s="9"/>
+      <c r="I74" s="22"/>
+      <c r="J74" s="22"/>
+      <c r="K74" s="22"/>
+      <c r="L74" s="22"/>
+      <c r="M74" s="22"/>
+      <c r="N74" s="22"/>
+      <c r="O74" s="22"/>
+      <c r="P74" s="22"/>
+      <c r="Q74" s="22"/>
     </row>
   </sheetData>
   <mergeCells count="9">
@@ -11747,7 +11867,7 @@
       </c>
       <c r="B1" s="40"/>
       <c r="C1" s="41" t="s">
-        <v>190</v>
+        <v>172</v>
       </c>
       <c r="D1" s="41"/>
       <c r="E1" s="42"/>
@@ -11774,7 +11894,7 @@
       </c>
       <c r="B2" s="44"/>
       <c r="C2" s="45" t="s">
-        <v>189</v>
+        <v>171</v>
       </c>
       <c r="D2" s="45"/>
       <c r="E2" s="45"/>
@@ -11856,7 +11976,7 @@
         <v>3</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>167</v>
+        <v>149</v>
       </c>
       <c r="D4" s="1"/>
       <c r="E4" s="1" t="s">
@@ -11869,7 +11989,7 @@
         <v>8</v>
       </c>
       <c r="H4" s="1" t="s">
-        <v>130</v>
+        <v>112</v>
       </c>
       <c r="I4" s="16"/>
       <c r="J4" s="16"/>
@@ -11903,17 +12023,17 @@
     <row r="6" spans="1:17" s="14" customFormat="1">
       <c r="A6" s="7"/>
       <c r="B6" s="1" t="s">
-        <v>119</v>
+        <v>101</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>120</v>
+        <v>102</v>
       </c>
       <c r="D6" s="1"/>
       <c r="E6" s="1"/>
       <c r="F6" s="2"/>
       <c r="G6" s="2"/>
       <c r="H6" s="1" t="s">
-        <v>129</v>
+        <v>111</v>
       </c>
       <c r="I6" s="16"/>
       <c r="J6" s="16"/>
@@ -11928,17 +12048,17 @@
     <row r="7" spans="1:17" s="14" customFormat="1">
       <c r="A7" s="7"/>
       <c r="B7" s="1" t="s">
-        <v>126</v>
+        <v>108</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>167</v>
+        <v>149</v>
       </c>
       <c r="D7" s="1"/>
       <c r="E7" s="1"/>
       <c r="F7" s="2"/>
       <c r="G7" s="2"/>
       <c r="H7" s="1" t="s">
-        <v>128</v>
+        <v>110</v>
       </c>
       <c r="I7" s="17"/>
       <c r="J7" s="17"/>
@@ -11953,17 +12073,17 @@
     <row r="8" spans="1:17" s="14" customFormat="1">
       <c r="A8" s="7"/>
       <c r="B8" s="1" t="s">
-        <v>127</v>
+        <v>109</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>167</v>
+        <v>149</v>
       </c>
       <c r="D8" s="1"/>
       <c r="E8" s="1"/>
       <c r="F8" s="2"/>
       <c r="G8" s="2"/>
       <c r="H8" s="1" t="s">
-        <v>118</v>
+        <v>100</v>
       </c>
       <c r="I8" s="18"/>
       <c r="J8" s="18"/>
@@ -13235,8 +13355,8 @@
   </sheetPr>
   <dimension ref="A1:Q76"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C8" sqref="C8"/>
+    <sheetView topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="H29" sqref="H29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -13266,7 +13386,7 @@
       </c>
       <c r="B1" s="40"/>
       <c r="C1" s="41" t="s">
-        <v>72</v>
+        <v>54</v>
       </c>
       <c r="D1" s="41"/>
       <c r="E1" s="42"/>
@@ -13293,7 +13413,7 @@
       </c>
       <c r="B2" s="44"/>
       <c r="C2" s="45" t="s">
-        <v>73</v>
+        <v>55</v>
       </c>
       <c r="D2" s="45"/>
       <c r="E2" s="45"/>
@@ -13375,7 +13495,7 @@
         <v>3</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>167</v>
+        <v>149</v>
       </c>
       <c r="D4" s="1"/>
       <c r="E4" s="1" t="s">
@@ -13388,7 +13508,7 @@
         <v>8</v>
       </c>
       <c r="H4" s="1" t="s">
-        <v>123</v>
+        <v>105</v>
       </c>
       <c r="I4" s="16"/>
       <c r="J4" s="16"/>
@@ -13422,17 +13542,17 @@
     <row r="6" spans="1:17" s="14" customFormat="1">
       <c r="A6" s="7"/>
       <c r="B6" s="1" t="s">
-        <v>125</v>
+        <v>107</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>167</v>
+        <v>149</v>
       </c>
       <c r="D6" s="1"/>
       <c r="E6" s="1"/>
       <c r="F6" s="2"/>
       <c r="G6" s="2"/>
       <c r="H6" s="1" t="s">
-        <v>124</v>
+        <v>106</v>
       </c>
       <c r="I6" s="16"/>
       <c r="J6" s="16"/>
@@ -13447,7 +13567,7 @@
     <row r="7" spans="1:17" s="14" customFormat="1">
       <c r="A7" s="7"/>
       <c r="B7" s="1" t="s">
-        <v>74</v>
+        <v>56</v>
       </c>
       <c r="C7" s="1" t="s">
         <v>23</v>
@@ -13456,12 +13576,12 @@
         <v>255</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>195</v>
+        <v>177</v>
       </c>
       <c r="F7" s="2"/>
       <c r="G7" s="2"/>
       <c r="H7" s="1" t="s">
-        <v>75</v>
+        <v>57</v>
       </c>
       <c r="I7" s="16"/>
       <c r="J7" s="16"/>
@@ -13495,7 +13615,7 @@
     <row r="9" spans="1:17" s="14" customFormat="1">
       <c r="A9" s="7"/>
       <c r="B9" s="1" t="s">
-        <v>170</v>
+        <v>152</v>
       </c>
       <c r="C9" s="1" t="s">
         <v>23</v>
@@ -13507,7 +13627,7 @@
       <c r="F9" s="2"/>
       <c r="G9" s="2"/>
       <c r="H9" s="1" t="s">
-        <v>171</v>
+        <v>153</v>
       </c>
       <c r="I9" s="16"/>
       <c r="J9" s="16"/>
@@ -13541,17 +13661,17 @@
     <row r="11" spans="1:17" s="14" customFormat="1">
       <c r="A11" s="7"/>
       <c r="B11" s="1" t="s">
-        <v>79</v>
+        <v>61</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>86</v>
+        <v>68</v>
       </c>
       <c r="D11" s="1"/>
       <c r="E11" s="1"/>
       <c r="F11" s="2"/>
       <c r="G11" s="2"/>
       <c r="H11" s="1" t="s">
-        <v>80</v>
+        <v>62</v>
       </c>
       <c r="I11" s="18"/>
       <c r="J11" s="18"/>
@@ -13566,17 +13686,17 @@
     <row r="12" spans="1:17" s="14" customFormat="1">
       <c r="A12" s="7"/>
       <c r="B12" s="26" t="s">
-        <v>84</v>
+        <v>66</v>
       </c>
       <c r="C12" s="26" t="s">
-        <v>87</v>
+        <v>69</v>
       </c>
       <c r="D12" s="26"/>
       <c r="E12" s="1"/>
       <c r="F12" s="2"/>
       <c r="G12" s="2"/>
       <c r="H12" s="1" t="s">
-        <v>85</v>
+        <v>67</v>
       </c>
       <c r="I12" s="18"/>
       <c r="J12" s="18"/>
@@ -13591,19 +13711,19 @@
     <row r="13" spans="1:17" s="14" customFormat="1">
       <c r="A13" s="7"/>
       <c r="B13" s="1" t="s">
-        <v>76</v>
+        <v>58</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>78</v>
+        <v>60</v>
       </c>
       <c r="D13" s="1"/>
       <c r="E13" s="7"/>
       <c r="F13" s="2" t="s">
-        <v>98</v>
+        <v>80</v>
       </c>
       <c r="G13" s="25"/>
       <c r="H13" s="1" t="s">
-        <v>77</v>
+        <v>59</v>
       </c>
       <c r="I13" s="18"/>
       <c r="J13" s="18"/>
@@ -13618,17 +13738,17 @@
     <row r="14" spans="1:17" s="14" customFormat="1">
       <c r="A14" s="10"/>
       <c r="B14" s="4" t="s">
-        <v>82</v>
+        <v>64</v>
       </c>
       <c r="C14" s="28" t="s">
-        <v>83</v>
+        <v>65</v>
       </c>
       <c r="D14" s="1"/>
       <c r="E14" s="10"/>
       <c r="F14" s="24"/>
       <c r="G14" s="24"/>
       <c r="H14" s="12" t="s">
-        <v>81</v>
+        <v>63</v>
       </c>
       <c r="I14" s="19"/>
       <c r="J14" s="19"/>
@@ -13668,7 +13788,7 @@
       <c r="F16" s="2"/>
       <c r="G16" s="2"/>
       <c r="H16" s="1" t="s">
-        <v>161</v>
+        <v>143</v>
       </c>
       <c r="I16" s="18"/>
       <c r="J16" s="18"/>
@@ -13708,7 +13828,7 @@
       <c r="F18" s="2"/>
       <c r="G18" s="25"/>
       <c r="H18" s="1" t="s">
-        <v>88</v>
+        <v>70</v>
       </c>
       <c r="I18" s="17"/>
       <c r="J18" s="17"/>
@@ -13742,17 +13862,17 @@
     <row r="20" spans="1:17" s="14" customFormat="1">
       <c r="A20" s="7"/>
       <c r="B20" s="1" t="s">
-        <v>89</v>
+        <v>71</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>90</v>
+        <v>72</v>
       </c>
       <c r="D20" s="1"/>
       <c r="E20" s="1"/>
       <c r="F20" s="2"/>
       <c r="G20" s="25"/>
       <c r="H20" s="1" t="s">
-        <v>91</v>
+        <v>73</v>
       </c>
       <c r="I20" s="18"/>
       <c r="J20" s="18"/>
@@ -13767,17 +13887,17 @@
     <row r="21" spans="1:17" s="14" customFormat="1">
       <c r="A21" s="7"/>
       <c r="B21" s="1" t="s">
-        <v>92</v>
+        <v>74</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>86</v>
+        <v>68</v>
       </c>
       <c r="D21" s="1"/>
       <c r="E21" s="1"/>
       <c r="F21" s="2"/>
       <c r="G21" s="25"/>
       <c r="H21" s="1" t="s">
-        <v>93</v>
+        <v>75</v>
       </c>
       <c r="I21" s="16"/>
       <c r="J21" s="16"/>
@@ -13811,10 +13931,10 @@
     <row r="23" spans="1:17" s="14" customFormat="1">
       <c r="A23" s="7"/>
       <c r="B23" s="1" t="s">
-        <v>158</v>
+        <v>140</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>157</v>
+        <v>139</v>
       </c>
       <c r="D23" s="1">
         <v>64</v>
@@ -13823,7 +13943,7 @@
       <c r="F23" s="2"/>
       <c r="G23" s="25"/>
       <c r="H23" s="1" t="s">
-        <v>94</v>
+        <v>76</v>
       </c>
       <c r="I23" s="16"/>
       <c r="J23" s="16"/>
@@ -13838,10 +13958,10 @@
     <row r="24" spans="1:17" s="14" customFormat="1">
       <c r="A24" s="7"/>
       <c r="B24" s="1" t="s">
-        <v>159</v>
+        <v>141</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>157</v>
+        <v>139</v>
       </c>
       <c r="D24" s="1">
         <v>64</v>
@@ -13850,7 +13970,7 @@
       <c r="F24" s="2"/>
       <c r="G24" s="25"/>
       <c r="H24" s="1" t="s">
-        <v>95</v>
+        <v>77</v>
       </c>
       <c r="I24" s="17"/>
       <c r="J24" s="17"/>
@@ -13865,10 +13985,10 @@
     <row r="25" spans="1:17" s="14" customFormat="1">
       <c r="A25" s="7"/>
       <c r="B25" s="1" t="s">
-        <v>160</v>
+        <v>142</v>
       </c>
       <c r="C25" s="1" t="s">
-        <v>157</v>
+        <v>139</v>
       </c>
       <c r="D25" s="1">
         <v>64</v>
@@ -13877,7 +13997,7 @@
       <c r="F25" s="2"/>
       <c r="G25" s="25"/>
       <c r="H25" s="1" t="s">
-        <v>96</v>
+        <v>78</v>
       </c>
       <c r="I25" s="17"/>
       <c r="J25" s="17"/>
@@ -13911,17 +14031,17 @@
     <row r="27" spans="1:17" s="14" customFormat="1">
       <c r="A27" s="7"/>
       <c r="B27" s="1" t="s">
-        <v>97</v>
+        <v>79</v>
       </c>
       <c r="C27" s="1" t="s">
-        <v>100</v>
+        <v>82</v>
       </c>
       <c r="D27" s="1"/>
       <c r="E27" s="1"/>
       <c r="F27" s="2"/>
       <c r="G27" s="25"/>
       <c r="H27" s="1" t="s">
-        <v>99</v>
+        <v>81</v>
       </c>
       <c r="I27" s="17"/>
       <c r="J27" s="17"/>
@@ -13955,23 +14075,21 @@
     <row r="29" spans="1:17" s="14" customFormat="1">
       <c r="A29" s="7"/>
       <c r="B29" s="1" t="s">
-        <v>196</v>
+        <v>178</v>
       </c>
       <c r="C29" s="1" t="s">
-        <v>197</v>
-      </c>
-      <c r="D29" s="1">
-        <v>1</v>
-      </c>
+        <v>207</v>
+      </c>
+      <c r="D29" s="1"/>
       <c r="E29" s="1" t="s">
-        <v>199</v>
+        <v>208</v>
       </c>
       <c r="F29" s="2" t="s">
-        <v>198</v>
+        <v>179</v>
       </c>
       <c r="G29" s="25"/>
-      <c r="H29" s="1" t="s">
-        <v>200</v>
+      <c r="H29" s="12" t="s">
+        <v>209</v>
       </c>
       <c r="I29" s="17"/>
       <c r="J29" s="17"/>
@@ -14932,7 +15050,7 @@
       </c>
       <c r="B1" s="40"/>
       <c r="C1" s="41" t="s">
-        <v>162</v>
+        <v>144</v>
       </c>
       <c r="D1" s="41"/>
       <c r="E1" s="42"/>
@@ -14959,7 +15077,7 @@
       </c>
       <c r="B2" s="44"/>
       <c r="C2" s="45" t="s">
-        <v>163</v>
+        <v>145</v>
       </c>
       <c r="D2" s="45"/>
       <c r="E2" s="45"/>
@@ -15041,7 +15159,7 @@
         <v>3</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>167</v>
+        <v>149</v>
       </c>
       <c r="D4" s="1"/>
       <c r="E4" s="1" t="s">
@@ -15054,7 +15172,7 @@
         <v>8</v>
       </c>
       <c r="H4" s="1" t="s">
-        <v>165</v>
+        <v>147</v>
       </c>
       <c r="I4" s="16"/>
       <c r="J4" s="16"/>
@@ -15088,17 +15206,17 @@
     <row r="6" spans="1:17" s="14" customFormat="1">
       <c r="A6" s="7"/>
       <c r="B6" s="1" t="s">
-        <v>116</v>
+        <v>98</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>167</v>
+        <v>149</v>
       </c>
       <c r="D6" s="1"/>
       <c r="E6" s="1"/>
       <c r="F6" s="2"/>
       <c r="G6" s="2"/>
       <c r="H6" s="1" t="s">
-        <v>117</v>
+        <v>99</v>
       </c>
       <c r="I6" s="16"/>
       <c r="J6" s="16"/>
@@ -15113,7 +15231,7 @@
     <row r="7" spans="1:17" s="14" customFormat="1">
       <c r="A7" s="7"/>
       <c r="B7" s="1" t="s">
-        <v>168</v>
+        <v>150</v>
       </c>
       <c r="C7" s="1" t="s">
         <v>23</v>
@@ -15125,7 +15243,7 @@
       <c r="F7" s="2"/>
       <c r="G7" s="2"/>
       <c r="H7" s="1" t="s">
-        <v>169</v>
+        <v>151</v>
       </c>
       <c r="I7" s="16"/>
       <c r="J7" s="16"/>
@@ -16466,7 +16584,7 @@
       </c>
       <c r="B1" s="40"/>
       <c r="C1" s="41" t="s">
-        <v>191</v>
+        <v>173</v>
       </c>
       <c r="D1" s="41"/>
       <c r="E1" s="42"/>
@@ -16493,7 +16611,7 @@
       </c>
       <c r="B2" s="44"/>
       <c r="C2" s="45" t="s">
-        <v>192</v>
+        <v>174</v>
       </c>
       <c r="D2" s="45"/>
       <c r="E2" s="45"/>
@@ -16575,7 +16693,7 @@
         <v>3</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>167</v>
+        <v>149</v>
       </c>
       <c r="D4" s="1"/>
       <c r="E4" s="1" t="s">
@@ -16588,7 +16706,7 @@
         <v>8</v>
       </c>
       <c r="H4" s="1" t="s">
-        <v>156</v>
+        <v>138</v>
       </c>
       <c r="I4" s="16"/>
       <c r="J4" s="16"/>
@@ -16622,17 +16740,17 @@
     <row r="6" spans="1:17" s="14" customFormat="1">
       <c r="A6" s="7"/>
       <c r="B6" s="1" t="s">
-        <v>119</v>
+        <v>101</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>120</v>
+        <v>102</v>
       </c>
       <c r="D6" s="1"/>
       <c r="E6" s="1"/>
       <c r="F6" s="2"/>
       <c r="G6" s="2"/>
       <c r="H6" s="1" t="s">
-        <v>121</v>
+        <v>103</v>
       </c>
       <c r="I6" s="16"/>
       <c r="J6" s="16"/>
@@ -16647,17 +16765,17 @@
     <row r="7" spans="1:17" s="14" customFormat="1">
       <c r="A7" s="7"/>
       <c r="B7" s="1" t="s">
-        <v>116</v>
+        <v>98</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>167</v>
+        <v>149</v>
       </c>
       <c r="D7" s="1"/>
       <c r="E7" s="1"/>
       <c r="F7" s="2"/>
       <c r="G7" s="2"/>
       <c r="H7" s="1" t="s">
-        <v>117</v>
+        <v>99</v>
       </c>
       <c r="I7" s="17"/>
       <c r="J7" s="17"/>
@@ -16672,17 +16790,17 @@
     <row r="8" spans="1:17" s="14" customFormat="1">
       <c r="A8" s="7"/>
       <c r="B8" s="1" t="s">
-        <v>122</v>
+        <v>104</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>167</v>
+        <v>149</v>
       </c>
       <c r="D8" s="1"/>
       <c r="E8" s="1"/>
       <c r="F8" s="2"/>
       <c r="G8" s="2"/>
       <c r="H8" s="1" t="s">
-        <v>118</v>
+        <v>100</v>
       </c>
       <c r="I8" s="18"/>
       <c r="J8" s="18"/>
@@ -17985,7 +18103,7 @@
       </c>
       <c r="B1" s="40"/>
       <c r="C1" s="41" t="s">
-        <v>201</v>
+        <v>180</v>
       </c>
       <c r="D1" s="41"/>
       <c r="E1" s="42"/>
@@ -18012,7 +18130,7 @@
       </c>
       <c r="B2" s="44"/>
       <c r="C2" s="45" t="s">
-        <v>202</v>
+        <v>181</v>
       </c>
       <c r="D2" s="45"/>
       <c r="E2" s="45"/>
@@ -18094,7 +18212,7 @@
         <v>3</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>167</v>
+        <v>149</v>
       </c>
       <c r="D4" s="1"/>
       <c r="E4" s="1" t="s">
@@ -18107,7 +18225,7 @@
         <v>8</v>
       </c>
       <c r="H4" s="1" t="s">
-        <v>204</v>
+        <v>183</v>
       </c>
       <c r="I4" s="16"/>
       <c r="J4" s="16"/>
@@ -18141,17 +18259,17 @@
     <row r="6" spans="1:17" s="14" customFormat="1">
       <c r="A6" s="7"/>
       <c r="B6" s="1" t="s">
-        <v>119</v>
+        <v>101</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>120</v>
+        <v>102</v>
       </c>
       <c r="D6" s="1"/>
       <c r="E6" s="1"/>
       <c r="F6" s="2"/>
       <c r="G6" s="2"/>
       <c r="H6" s="1" t="s">
-        <v>121</v>
+        <v>103</v>
       </c>
       <c r="I6" s="16"/>
       <c r="J6" s="16"/>
@@ -18166,17 +18284,17 @@
     <row r="7" spans="1:17" s="14" customFormat="1">
       <c r="A7" s="7"/>
       <c r="B7" s="1" t="s">
-        <v>116</v>
+        <v>98</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>167</v>
+        <v>149</v>
       </c>
       <c r="D7" s="1"/>
       <c r="E7" s="1"/>
       <c r="F7" s="2"/>
       <c r="G7" s="2"/>
       <c r="H7" s="1" t="s">
-        <v>117</v>
+        <v>99</v>
       </c>
       <c r="I7" s="17"/>
       <c r="J7" s="17"/>
@@ -18191,17 +18309,17 @@
     <row r="8" spans="1:17" s="14" customFormat="1">
       <c r="A8" s="7"/>
       <c r="B8" s="1" t="s">
-        <v>203</v>
+        <v>182</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>167</v>
+        <v>149</v>
       </c>
       <c r="D8" s="1"/>
       <c r="E8" s="1"/>
       <c r="F8" s="2"/>
       <c r="G8" s="2"/>
       <c r="H8" s="1" t="s">
-        <v>118</v>
+        <v>100</v>
       </c>
       <c r="I8" s="18"/>
       <c r="J8" s="18"/>

--- a/ST_Player/db.xlsx
+++ b/ST_Player/db.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="15330" windowHeight="7695" tabRatio="1000"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="15330" windowHeight="7695" tabRatio="1000" firstSheet="1" activeTab="9"/>
   </bookViews>
   <sheets>
     <sheet name="ユーザー" sheetId="69" r:id="rId1"/>
@@ -16,16 +16,17 @@
     <sheet name="パートナー" sheetId="96" r:id="rId7"/>
     <sheet name="記録画像" sheetId="93" r:id="rId8"/>
     <sheet name="記録オブジェクト" sheetId="98" r:id="rId9"/>
-    <sheet name="選手カード画像" sheetId="95" r:id="rId10"/>
-    <sheet name="画像" sheetId="92" r:id="rId11"/>
-    <sheet name="ログ" sheetId="73" r:id="rId12"/>
+    <sheet name="記録ムービー" sheetId="99" r:id="rId10"/>
+    <sheet name="選手カード画像" sheetId="95" r:id="rId11"/>
+    <sheet name="画像" sheetId="92" r:id="rId12"/>
+    <sheet name="ログ" sheetId="73" r:id="rId13"/>
   </sheets>
   <calcPr calcId="125725"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="597" uniqueCount="211">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="638" uniqueCount="215">
   <si>
     <t>説明</t>
     <rPh sb="0" eb="2">
@@ -1175,6 +1176,31 @@
   <si>
     <t>int unsigned</t>
     <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>RecordMovie</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>record_movies</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>記録ムービーID</t>
+    <rPh sb="0" eb="2">
+      <t>キロク</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>表示順 1</t>
+    <rPh sb="0" eb="2">
+      <t>ヒョウジ</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>ジュン</t>
+    </rPh>
+    <phoneticPr fontId="10"/>
   </si>
 </sst>
 </file>
@@ -1931,7 +1957,7 @@
   </sheetPr>
   <dimension ref="A1:Q72"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>
@@ -3451,6 +3477,1525 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr>
+    <tabColor theme="5" tint="0.39997558519241921"/>
+  </sheetPr>
+  <dimension ref="A1:Q73"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H11" sqref="H11"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5"/>
+  <cols>
+    <col min="1" max="1" width="5.625" customWidth="1"/>
+    <col min="2" max="2" width="23.125" customWidth="1"/>
+    <col min="3" max="3" width="13" customWidth="1"/>
+    <col min="4" max="4" width="6.625" customWidth="1"/>
+    <col min="5" max="5" width="23.125" customWidth="1"/>
+    <col min="6" max="6" width="9.25" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="8.75" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="27.25" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="3.875" style="23" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="3.875" style="23" customWidth="1"/>
+    <col min="11" max="11" width="8.75" style="23" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="3.875" style="23" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="3.875" style="23" customWidth="1"/>
+    <col min="14" max="14" width="8.75" style="23" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="3.875" style="23" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="3.875" style="23" customWidth="1"/>
+    <col min="17" max="17" width="8.75" style="23" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:17" ht="18" customHeight="1" thickBot="1">
+      <c r="A1" s="39" t="s">
+        <v>32</v>
+      </c>
+      <c r="B1" s="40"/>
+      <c r="C1" s="41" t="s">
+        <v>211</v>
+      </c>
+      <c r="D1" s="41"/>
+      <c r="E1" s="42"/>
+      <c r="F1" s="39" t="s">
+        <v>11</v>
+      </c>
+      <c r="G1" s="40"/>
+      <c r="H1" s="3"/>
+      <c r="I1" s="48" t="s">
+        <v>27</v>
+      </c>
+      <c r="J1" s="49"/>
+      <c r="K1" s="49"/>
+      <c r="L1" s="49"/>
+      <c r="M1" s="49"/>
+      <c r="N1" s="49"/>
+      <c r="O1" s="49"/>
+      <c r="P1" s="49"/>
+      <c r="Q1" s="50"/>
+    </row>
+    <row r="2" spans="1:17" ht="18" customHeight="1" thickBot="1">
+      <c r="A2" s="43" t="s">
+        <v>5</v>
+      </c>
+      <c r="B2" s="44"/>
+      <c r="C2" s="45" t="s">
+        <v>212</v>
+      </c>
+      <c r="D2" s="45"/>
+      <c r="E2" s="45"/>
+      <c r="F2" s="45"/>
+      <c r="G2" s="45"/>
+      <c r="H2" s="45"/>
+      <c r="I2" s="46" t="s">
+        <v>12</v>
+      </c>
+      <c r="J2" s="47"/>
+      <c r="K2" s="36"/>
+      <c r="L2" s="36" t="s">
+        <v>15</v>
+      </c>
+      <c r="M2" s="36"/>
+      <c r="N2" s="36"/>
+      <c r="O2" s="36" t="s">
+        <v>16</v>
+      </c>
+      <c r="P2" s="37"/>
+      <c r="Q2" s="38"/>
+    </row>
+    <row r="3" spans="1:17">
+      <c r="A3" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="B3" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="C3" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="D3" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="E3" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="F3" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="G3" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="H3" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="I3" s="15" t="s">
+        <v>13</v>
+      </c>
+      <c r="J3" s="15" t="s">
+        <v>14</v>
+      </c>
+      <c r="K3" s="15" t="s">
+        <v>19</v>
+      </c>
+      <c r="L3" s="15" t="s">
+        <v>13</v>
+      </c>
+      <c r="M3" s="15" t="s">
+        <v>14</v>
+      </c>
+      <c r="N3" s="15" t="s">
+        <v>19</v>
+      </c>
+      <c r="O3" s="15" t="s">
+        <v>13</v>
+      </c>
+      <c r="P3" s="15" t="s">
+        <v>14</v>
+      </c>
+      <c r="Q3" s="15" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="4" spans="1:17" s="14" customFormat="1">
+      <c r="A4" s="7"/>
+      <c r="B4" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="D4" s="1"/>
+      <c r="E4" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="F4" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="G4" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="H4" s="1" t="s">
+        <v>213</v>
+      </c>
+      <c r="I4" s="16"/>
+      <c r="J4" s="16"/>
+      <c r="K4" s="16"/>
+      <c r="L4" s="16"/>
+      <c r="M4" s="16"/>
+      <c r="N4" s="16"/>
+      <c r="O4" s="16"/>
+      <c r="P4" s="16"/>
+      <c r="Q4" s="16"/>
+    </row>
+    <row r="5" spans="1:17" s="14" customFormat="1">
+      <c r="A5" s="7"/>
+      <c r="B5" s="1"/>
+      <c r="C5" s="1"/>
+      <c r="D5" s="1"/>
+      <c r="E5" s="1"/>
+      <c r="F5" s="2"/>
+      <c r="G5" s="2"/>
+      <c r="H5" s="1"/>
+      <c r="I5" s="16"/>
+      <c r="J5" s="16"/>
+      <c r="K5" s="16"/>
+      <c r="L5" s="16"/>
+      <c r="M5" s="16"/>
+      <c r="N5" s="16"/>
+      <c r="O5" s="16"/>
+      <c r="P5" s="16"/>
+      <c r="Q5" s="16"/>
+    </row>
+    <row r="6" spans="1:17" s="14" customFormat="1">
+      <c r="A6" s="7"/>
+      <c r="B6" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="D6" s="1"/>
+      <c r="E6" s="1"/>
+      <c r="F6" s="2"/>
+      <c r="G6" s="2"/>
+      <c r="H6" s="1" t="s">
+        <v>214</v>
+      </c>
+      <c r="I6" s="16"/>
+      <c r="J6" s="16"/>
+      <c r="K6" s="16"/>
+      <c r="L6" s="16"/>
+      <c r="M6" s="16"/>
+      <c r="N6" s="16"/>
+      <c r="O6" s="16"/>
+      <c r="P6" s="16"/>
+      <c r="Q6" s="16"/>
+    </row>
+    <row r="7" spans="1:17" s="14" customFormat="1">
+      <c r="A7" s="7"/>
+      <c r="B7" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="D7" s="1"/>
+      <c r="E7" s="1"/>
+      <c r="F7" s="2"/>
+      <c r="G7" s="2"/>
+      <c r="H7" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="I7" s="17"/>
+      <c r="J7" s="17"/>
+      <c r="K7" s="18"/>
+      <c r="L7" s="16"/>
+      <c r="M7" s="16"/>
+      <c r="N7" s="16"/>
+      <c r="O7" s="16"/>
+      <c r="P7" s="16"/>
+      <c r="Q7" s="16"/>
+    </row>
+    <row r="8" spans="1:17" s="14" customFormat="1">
+      <c r="A8" s="7"/>
+      <c r="B8" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="D8" s="1"/>
+      <c r="E8" s="1"/>
+      <c r="F8" s="2"/>
+      <c r="G8" s="2"/>
+      <c r="H8" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="I8" s="18"/>
+      <c r="J8" s="18"/>
+      <c r="K8" s="18"/>
+      <c r="L8" s="16"/>
+      <c r="M8" s="16"/>
+      <c r="N8" s="16"/>
+      <c r="O8" s="16"/>
+      <c r="P8" s="16"/>
+      <c r="Q8" s="16"/>
+    </row>
+    <row r="9" spans="1:17" s="14" customFormat="1">
+      <c r="A9" s="7"/>
+      <c r="B9" s="26"/>
+      <c r="C9" s="26"/>
+      <c r="D9" s="26"/>
+      <c r="E9" s="1"/>
+      <c r="F9" s="2"/>
+      <c r="G9" s="2"/>
+      <c r="H9" s="1"/>
+      <c r="I9" s="18"/>
+      <c r="J9" s="18"/>
+      <c r="K9" s="18"/>
+      <c r="L9" s="16"/>
+      <c r="M9" s="16"/>
+      <c r="N9" s="16"/>
+      <c r="O9" s="16"/>
+      <c r="P9" s="16"/>
+      <c r="Q9" s="16"/>
+    </row>
+    <row r="10" spans="1:17" s="14" customFormat="1">
+      <c r="A10" s="7"/>
+      <c r="B10" s="1"/>
+      <c r="C10" s="1"/>
+      <c r="D10" s="1"/>
+      <c r="E10" s="7"/>
+      <c r="F10" s="2"/>
+      <c r="G10" s="25"/>
+      <c r="H10" s="1"/>
+      <c r="I10" s="18"/>
+      <c r="J10" s="18"/>
+      <c r="K10" s="18"/>
+      <c r="L10" s="16"/>
+      <c r="M10" s="16"/>
+      <c r="N10" s="16"/>
+      <c r="O10" s="16"/>
+      <c r="P10" s="16"/>
+      <c r="Q10" s="16"/>
+    </row>
+    <row r="11" spans="1:17" s="14" customFormat="1">
+      <c r="A11" s="10"/>
+      <c r="B11" s="4"/>
+      <c r="C11" s="1"/>
+      <c r="D11" s="1"/>
+      <c r="E11" s="10"/>
+      <c r="F11" s="24"/>
+      <c r="G11" s="24"/>
+      <c r="H11" s="12"/>
+      <c r="I11" s="19"/>
+      <c r="J11" s="19"/>
+      <c r="K11" s="19"/>
+      <c r="L11" s="19"/>
+      <c r="M11" s="19"/>
+      <c r="N11" s="19"/>
+      <c r="O11" s="19"/>
+      <c r="P11" s="19"/>
+      <c r="Q11" s="19"/>
+    </row>
+    <row r="12" spans="1:17" s="14" customFormat="1">
+      <c r="A12" s="7"/>
+      <c r="B12" s="1"/>
+      <c r="C12" s="1"/>
+      <c r="D12" s="1"/>
+      <c r="E12" s="1"/>
+      <c r="F12" s="2"/>
+      <c r="G12" s="25"/>
+      <c r="H12" s="1"/>
+      <c r="I12" s="17"/>
+      <c r="J12" s="17"/>
+      <c r="K12" s="16"/>
+      <c r="L12" s="16"/>
+      <c r="M12" s="16"/>
+      <c r="N12" s="16"/>
+      <c r="O12" s="16"/>
+      <c r="P12" s="16"/>
+      <c r="Q12" s="16"/>
+    </row>
+    <row r="13" spans="1:17" s="14" customFormat="1">
+      <c r="A13" s="7"/>
+      <c r="B13" s="1"/>
+      <c r="C13" s="1"/>
+      <c r="D13" s="1"/>
+      <c r="E13" s="1"/>
+      <c r="F13" s="2"/>
+      <c r="G13" s="2"/>
+      <c r="H13" s="1"/>
+      <c r="I13" s="18"/>
+      <c r="J13" s="18"/>
+      <c r="K13" s="18"/>
+      <c r="L13" s="16"/>
+      <c r="M13" s="16"/>
+      <c r="N13" s="16"/>
+      <c r="O13" s="16"/>
+      <c r="P13" s="16"/>
+      <c r="Q13" s="16"/>
+    </row>
+    <row r="14" spans="1:17" s="14" customFormat="1">
+      <c r="A14" s="7"/>
+      <c r="B14" s="1"/>
+      <c r="C14" s="1"/>
+      <c r="D14" s="1"/>
+      <c r="E14" s="1"/>
+      <c r="F14" s="2"/>
+      <c r="G14" s="25"/>
+      <c r="H14" s="1"/>
+      <c r="I14" s="17"/>
+      <c r="J14" s="17"/>
+      <c r="K14" s="16"/>
+      <c r="L14" s="16"/>
+      <c r="M14" s="16"/>
+      <c r="N14" s="16"/>
+      <c r="O14" s="16"/>
+      <c r="P14" s="16"/>
+      <c r="Q14" s="16"/>
+    </row>
+    <row r="15" spans="1:17" s="14" customFormat="1">
+      <c r="A15" s="7"/>
+      <c r="B15" s="1"/>
+      <c r="C15" s="1"/>
+      <c r="D15" s="1"/>
+      <c r="E15" s="1"/>
+      <c r="F15" s="2"/>
+      <c r="G15" s="25"/>
+      <c r="H15" s="1"/>
+      <c r="I15" s="17"/>
+      <c r="J15" s="17"/>
+      <c r="K15" s="16"/>
+      <c r="L15" s="16"/>
+      <c r="M15" s="16"/>
+      <c r="N15" s="16"/>
+      <c r="O15" s="16"/>
+      <c r="P15" s="16"/>
+      <c r="Q15" s="16"/>
+    </row>
+    <row r="16" spans="1:17" s="14" customFormat="1">
+      <c r="A16" s="7"/>
+      <c r="B16" s="1"/>
+      <c r="C16" s="1"/>
+      <c r="D16" s="1"/>
+      <c r="E16" s="1"/>
+      <c r="F16" s="2"/>
+      <c r="G16" s="25"/>
+      <c r="H16" s="1"/>
+      <c r="I16" s="17"/>
+      <c r="J16" s="17"/>
+      <c r="K16" s="18"/>
+      <c r="L16" s="18"/>
+      <c r="M16" s="18"/>
+      <c r="N16" s="18"/>
+      <c r="O16" s="16"/>
+      <c r="P16" s="16"/>
+      <c r="Q16" s="16"/>
+    </row>
+    <row r="17" spans="1:17" s="14" customFormat="1">
+      <c r="A17" s="7"/>
+      <c r="B17" s="1"/>
+      <c r="C17" s="1"/>
+      <c r="D17" s="1"/>
+      <c r="E17" s="1"/>
+      <c r="F17" s="2"/>
+      <c r="G17" s="25"/>
+      <c r="H17" s="1"/>
+      <c r="I17" s="18"/>
+      <c r="J17" s="18"/>
+      <c r="K17" s="18"/>
+      <c r="L17" s="16"/>
+      <c r="M17" s="16"/>
+      <c r="N17" s="16"/>
+      <c r="O17" s="16"/>
+      <c r="P17" s="16"/>
+      <c r="Q17" s="16"/>
+    </row>
+    <row r="18" spans="1:17" s="14" customFormat="1">
+      <c r="A18" s="7"/>
+      <c r="B18" s="1"/>
+      <c r="C18" s="1"/>
+      <c r="D18" s="1"/>
+      <c r="E18" s="1"/>
+      <c r="F18" s="2"/>
+      <c r="G18" s="25"/>
+      <c r="H18" s="1"/>
+      <c r="I18" s="16"/>
+      <c r="J18" s="16"/>
+      <c r="K18" s="16"/>
+      <c r="L18" s="16"/>
+      <c r="M18" s="16"/>
+      <c r="N18" s="16"/>
+      <c r="O18" s="16"/>
+      <c r="P18" s="16"/>
+      <c r="Q18" s="16"/>
+    </row>
+    <row r="19" spans="1:17" s="14" customFormat="1">
+      <c r="A19" s="7"/>
+      <c r="B19" s="1"/>
+      <c r="C19" s="1"/>
+      <c r="D19" s="1"/>
+      <c r="E19" s="1"/>
+      <c r="F19" s="2"/>
+      <c r="G19" s="25"/>
+      <c r="H19" s="1"/>
+      <c r="I19" s="16"/>
+      <c r="J19" s="16"/>
+      <c r="K19" s="16"/>
+      <c r="L19" s="16"/>
+      <c r="M19" s="16"/>
+      <c r="N19" s="16"/>
+      <c r="O19" s="16"/>
+      <c r="P19" s="16"/>
+      <c r="Q19" s="16"/>
+    </row>
+    <row r="20" spans="1:17" s="14" customFormat="1">
+      <c r="A20" s="7"/>
+      <c r="B20" s="1"/>
+      <c r="C20" s="1"/>
+      <c r="D20" s="1"/>
+      <c r="E20" s="1"/>
+      <c r="F20" s="2"/>
+      <c r="G20" s="25"/>
+      <c r="H20" s="1"/>
+      <c r="I20" s="16"/>
+      <c r="J20" s="16"/>
+      <c r="K20" s="16"/>
+      <c r="L20" s="16"/>
+      <c r="M20" s="16"/>
+      <c r="N20" s="16"/>
+      <c r="O20" s="16"/>
+      <c r="P20" s="16"/>
+      <c r="Q20" s="16"/>
+    </row>
+    <row r="21" spans="1:17" s="14" customFormat="1">
+      <c r="A21" s="7"/>
+      <c r="B21" s="1"/>
+      <c r="C21" s="1"/>
+      <c r="D21" s="1"/>
+      <c r="E21" s="1"/>
+      <c r="F21" s="2"/>
+      <c r="G21" s="25"/>
+      <c r="H21" s="1"/>
+      <c r="I21" s="17"/>
+      <c r="J21" s="17"/>
+      <c r="K21" s="16"/>
+      <c r="L21" s="16"/>
+      <c r="M21" s="16"/>
+      <c r="N21" s="16"/>
+      <c r="O21" s="16"/>
+      <c r="P21" s="16"/>
+      <c r="Q21" s="16"/>
+    </row>
+    <row r="22" spans="1:17" s="14" customFormat="1">
+      <c r="A22" s="7"/>
+      <c r="B22" s="1"/>
+      <c r="C22" s="1"/>
+      <c r="D22" s="1"/>
+      <c r="E22" s="1"/>
+      <c r="F22" s="2"/>
+      <c r="G22" s="25"/>
+      <c r="H22" s="1"/>
+      <c r="I22" s="17"/>
+      <c r="J22" s="17"/>
+      <c r="K22" s="16"/>
+      <c r="L22" s="20"/>
+      <c r="M22" s="20"/>
+      <c r="N22" s="16"/>
+      <c r="O22" s="16"/>
+      <c r="P22" s="16"/>
+      <c r="Q22" s="16"/>
+    </row>
+    <row r="23" spans="1:17" s="14" customFormat="1">
+      <c r="A23" s="7"/>
+      <c r="B23" s="1"/>
+      <c r="C23" s="1"/>
+      <c r="D23" s="1"/>
+      <c r="E23" s="1"/>
+      <c r="F23" s="2"/>
+      <c r="G23" s="25"/>
+      <c r="H23" s="1"/>
+      <c r="I23" s="17"/>
+      <c r="J23" s="17"/>
+      <c r="K23" s="16"/>
+      <c r="L23" s="20"/>
+      <c r="M23" s="20"/>
+      <c r="N23" s="16"/>
+      <c r="O23" s="16"/>
+      <c r="P23" s="16"/>
+      <c r="Q23" s="16"/>
+    </row>
+    <row r="24" spans="1:17" s="14" customFormat="1">
+      <c r="A24" s="7"/>
+      <c r="B24" s="1"/>
+      <c r="C24" s="1"/>
+      <c r="D24" s="1"/>
+      <c r="E24" s="1"/>
+      <c r="F24" s="2"/>
+      <c r="G24" s="25"/>
+      <c r="H24" s="1"/>
+      <c r="I24" s="17"/>
+      <c r="J24" s="17"/>
+      <c r="K24" s="16"/>
+      <c r="L24" s="16"/>
+      <c r="M24" s="16"/>
+      <c r="N24" s="16"/>
+      <c r="O24" s="16"/>
+      <c r="P24" s="16"/>
+      <c r="Q24" s="16"/>
+    </row>
+    <row r="25" spans="1:17" s="14" customFormat="1">
+      <c r="A25" s="7"/>
+      <c r="B25" s="1"/>
+      <c r="C25" s="1"/>
+      <c r="D25" s="1"/>
+      <c r="E25" s="1"/>
+      <c r="F25" s="2"/>
+      <c r="G25" s="25"/>
+      <c r="H25" s="1"/>
+      <c r="I25" s="17"/>
+      <c r="J25" s="17"/>
+      <c r="K25" s="16"/>
+      <c r="L25" s="16"/>
+      <c r="M25" s="16"/>
+      <c r="N25" s="16"/>
+      <c r="O25" s="16"/>
+      <c r="P25" s="16"/>
+      <c r="Q25" s="16"/>
+    </row>
+    <row r="26" spans="1:17" s="14" customFormat="1">
+      <c r="A26" s="7"/>
+      <c r="B26" s="1"/>
+      <c r="C26" s="1"/>
+      <c r="D26" s="1"/>
+      <c r="E26" s="1"/>
+      <c r="F26" s="2"/>
+      <c r="G26" s="25"/>
+      <c r="H26" s="1"/>
+      <c r="I26" s="17"/>
+      <c r="J26" s="17"/>
+      <c r="K26" s="16"/>
+      <c r="L26" s="16"/>
+      <c r="M26" s="16"/>
+      <c r="N26" s="16"/>
+      <c r="O26" s="16"/>
+      <c r="P26" s="16"/>
+      <c r="Q26" s="16"/>
+    </row>
+    <row r="27" spans="1:17" s="14" customFormat="1">
+      <c r="A27" s="7"/>
+      <c r="B27" s="1"/>
+      <c r="C27" s="1"/>
+      <c r="D27" s="1"/>
+      <c r="E27" s="7"/>
+      <c r="F27" s="25"/>
+      <c r="G27" s="25"/>
+      <c r="H27" s="1"/>
+      <c r="I27" s="17"/>
+      <c r="J27" s="17"/>
+      <c r="K27" s="16"/>
+      <c r="L27" s="20"/>
+      <c r="M27" s="20"/>
+      <c r="N27" s="16"/>
+      <c r="O27" s="16"/>
+      <c r="P27" s="16"/>
+      <c r="Q27" s="16"/>
+    </row>
+    <row r="28" spans="1:17" s="14" customFormat="1">
+      <c r="A28" s="7"/>
+      <c r="B28" s="1"/>
+      <c r="C28" s="1"/>
+      <c r="D28" s="1"/>
+      <c r="E28" s="7"/>
+      <c r="F28" s="25"/>
+      <c r="G28" s="25"/>
+      <c r="H28" s="1"/>
+      <c r="I28" s="17"/>
+      <c r="J28" s="17"/>
+      <c r="K28" s="16"/>
+      <c r="L28" s="16"/>
+      <c r="M28" s="16"/>
+      <c r="N28" s="16"/>
+      <c r="O28" s="16"/>
+      <c r="P28" s="16"/>
+      <c r="Q28" s="16"/>
+    </row>
+    <row r="29" spans="1:17" s="14" customFormat="1">
+      <c r="A29" s="7"/>
+      <c r="B29" s="1"/>
+      <c r="C29" s="1"/>
+      <c r="D29" s="1"/>
+      <c r="E29" s="7"/>
+      <c r="F29" s="25"/>
+      <c r="G29" s="25"/>
+      <c r="H29" s="1"/>
+      <c r="I29" s="17"/>
+      <c r="J29" s="17"/>
+      <c r="K29" s="16"/>
+      <c r="L29" s="16"/>
+      <c r="M29" s="16"/>
+      <c r="N29" s="16"/>
+      <c r="O29" s="20"/>
+      <c r="P29" s="20"/>
+      <c r="Q29" s="16"/>
+    </row>
+    <row r="30" spans="1:17" s="14" customFormat="1">
+      <c r="A30" s="7"/>
+      <c r="B30" s="1"/>
+      <c r="C30" s="1"/>
+      <c r="D30" s="1"/>
+      <c r="E30" s="1"/>
+      <c r="F30" s="2"/>
+      <c r="G30" s="25"/>
+      <c r="H30" s="1"/>
+      <c r="I30" s="17"/>
+      <c r="J30" s="17"/>
+      <c r="K30" s="16"/>
+      <c r="L30" s="16"/>
+      <c r="M30" s="16"/>
+      <c r="N30" s="16"/>
+      <c r="O30" s="16"/>
+      <c r="P30" s="16"/>
+      <c r="Q30" s="16"/>
+    </row>
+    <row r="31" spans="1:17" s="14" customFormat="1">
+      <c r="A31" s="7"/>
+      <c r="B31" s="1"/>
+      <c r="C31" s="1"/>
+      <c r="D31" s="1"/>
+      <c r="E31" s="1"/>
+      <c r="F31" s="2"/>
+      <c r="G31" s="25"/>
+      <c r="H31" s="1"/>
+      <c r="I31" s="17"/>
+      <c r="J31" s="17"/>
+      <c r="K31" s="16"/>
+      <c r="L31" s="20"/>
+      <c r="M31" s="20"/>
+      <c r="N31" s="16"/>
+      <c r="O31" s="16"/>
+      <c r="P31" s="16"/>
+      <c r="Q31" s="16"/>
+    </row>
+    <row r="32" spans="1:17" s="14" customFormat="1">
+      <c r="A32" s="7"/>
+      <c r="B32" s="1"/>
+      <c r="C32" s="1"/>
+      <c r="D32" s="1"/>
+      <c r="E32" s="7"/>
+      <c r="F32" s="25"/>
+      <c r="G32" s="25"/>
+      <c r="H32" s="1"/>
+      <c r="I32" s="16"/>
+      <c r="J32" s="16"/>
+      <c r="K32" s="16"/>
+      <c r="L32" s="16"/>
+      <c r="M32" s="16"/>
+      <c r="N32" s="16"/>
+      <c r="O32" s="16"/>
+      <c r="P32" s="16"/>
+      <c r="Q32" s="16"/>
+    </row>
+    <row r="33" spans="1:17" s="14" customFormat="1">
+      <c r="A33" s="7"/>
+      <c r="B33" s="1"/>
+      <c r="C33" s="1"/>
+      <c r="D33" s="1"/>
+      <c r="E33" s="7"/>
+      <c r="F33" s="25"/>
+      <c r="G33" s="25"/>
+      <c r="H33" s="1"/>
+      <c r="I33" s="16"/>
+      <c r="J33" s="16"/>
+      <c r="K33" s="16"/>
+      <c r="L33" s="16"/>
+      <c r="M33" s="16"/>
+      <c r="N33" s="16"/>
+      <c r="O33" s="16"/>
+      <c r="P33" s="16"/>
+      <c r="Q33" s="16"/>
+    </row>
+    <row r="34" spans="1:17" s="14" customFormat="1">
+      <c r="A34" s="7"/>
+      <c r="B34" s="1"/>
+      <c r="C34" s="1"/>
+      <c r="D34" s="1"/>
+      <c r="E34" s="7"/>
+      <c r="F34" s="25"/>
+      <c r="G34" s="25"/>
+      <c r="H34" s="1"/>
+      <c r="I34" s="16"/>
+      <c r="J34" s="16"/>
+      <c r="K34" s="16"/>
+      <c r="L34" s="16"/>
+      <c r="M34" s="16"/>
+      <c r="N34" s="16"/>
+      <c r="O34" s="16"/>
+      <c r="P34" s="16"/>
+      <c r="Q34" s="16"/>
+    </row>
+    <row r="35" spans="1:17" s="14" customFormat="1">
+      <c r="A35" s="7"/>
+      <c r="B35" s="1"/>
+      <c r="C35" s="1"/>
+      <c r="D35" s="1"/>
+      <c r="E35" s="7"/>
+      <c r="F35" s="25"/>
+      <c r="G35" s="25"/>
+      <c r="H35" s="1"/>
+      <c r="I35" s="16"/>
+      <c r="J35" s="16"/>
+      <c r="K35" s="16"/>
+      <c r="L35" s="16"/>
+      <c r="M35" s="16"/>
+      <c r="N35" s="16"/>
+      <c r="O35" s="16"/>
+      <c r="P35" s="16"/>
+      <c r="Q35" s="16"/>
+    </row>
+    <row r="36" spans="1:17" s="14" customFormat="1">
+      <c r="A36" s="7"/>
+      <c r="B36" s="7"/>
+      <c r="C36" s="7"/>
+      <c r="D36" s="7"/>
+      <c r="E36" s="7"/>
+      <c r="F36" s="25"/>
+      <c r="G36" s="25"/>
+      <c r="H36" s="7"/>
+      <c r="I36" s="16"/>
+      <c r="J36" s="16"/>
+      <c r="K36" s="16"/>
+      <c r="L36" s="16"/>
+      <c r="M36" s="16"/>
+      <c r="N36" s="16"/>
+      <c r="O36" s="16"/>
+      <c r="P36" s="16"/>
+      <c r="Q36" s="16"/>
+    </row>
+    <row r="37" spans="1:17" s="14" customFormat="1">
+      <c r="A37" s="8"/>
+      <c r="B37" s="8"/>
+      <c r="C37" s="8"/>
+      <c r="D37" s="8"/>
+      <c r="E37" s="8"/>
+      <c r="F37" s="8"/>
+      <c r="G37" s="8"/>
+      <c r="H37" s="8"/>
+      <c r="I37" s="21"/>
+      <c r="J37" s="21"/>
+      <c r="K37" s="21"/>
+      <c r="L37" s="21"/>
+      <c r="M37" s="21"/>
+      <c r="N37" s="21"/>
+      <c r="O37" s="21"/>
+      <c r="P37" s="21"/>
+      <c r="Q37" s="21"/>
+    </row>
+    <row r="38" spans="1:17" s="14" customFormat="1">
+      <c r="A38" s="8"/>
+      <c r="B38" s="8"/>
+      <c r="C38" s="8"/>
+      <c r="D38" s="8"/>
+      <c r="E38" s="8"/>
+      <c r="F38" s="8"/>
+      <c r="G38" s="8"/>
+      <c r="H38" s="8"/>
+      <c r="I38" s="21"/>
+      <c r="J38" s="21"/>
+      <c r="K38" s="21"/>
+      <c r="L38" s="21"/>
+      <c r="M38" s="21"/>
+      <c r="N38" s="21"/>
+      <c r="O38" s="21"/>
+      <c r="P38" s="21"/>
+      <c r="Q38" s="21"/>
+    </row>
+    <row r="39" spans="1:17" s="14" customFormat="1">
+      <c r="A39" s="8"/>
+      <c r="B39" s="8"/>
+      <c r="C39" s="8"/>
+      <c r="D39" s="8"/>
+      <c r="E39" s="8"/>
+      <c r="F39" s="8"/>
+      <c r="G39" s="8"/>
+      <c r="H39" s="8"/>
+      <c r="I39" s="21"/>
+      <c r="J39" s="21"/>
+      <c r="K39" s="21"/>
+      <c r="L39" s="21"/>
+      <c r="M39" s="21"/>
+      <c r="N39" s="21"/>
+      <c r="O39" s="21"/>
+      <c r="P39" s="21"/>
+      <c r="Q39" s="21"/>
+    </row>
+    <row r="40" spans="1:17" s="14" customFormat="1">
+      <c r="A40" s="8"/>
+      <c r="B40" s="8"/>
+      <c r="C40" s="8"/>
+      <c r="D40" s="8"/>
+      <c r="E40" s="8"/>
+      <c r="F40" s="8"/>
+      <c r="G40" s="8"/>
+      <c r="H40" s="8"/>
+      <c r="I40" s="21"/>
+      <c r="J40" s="21"/>
+      <c r="K40" s="21"/>
+      <c r="L40" s="21"/>
+      <c r="M40" s="21"/>
+      <c r="N40" s="21"/>
+      <c r="O40" s="21"/>
+      <c r="P40" s="21"/>
+      <c r="Q40" s="21"/>
+    </row>
+    <row r="41" spans="1:17" s="14" customFormat="1">
+      <c r="A41" s="8"/>
+      <c r="B41" s="8"/>
+      <c r="C41" s="8"/>
+      <c r="D41" s="8"/>
+      <c r="E41" s="8"/>
+      <c r="F41" s="8"/>
+      <c r="G41" s="8"/>
+      <c r="H41" s="8"/>
+      <c r="I41" s="21"/>
+      <c r="J41" s="21"/>
+      <c r="K41" s="21"/>
+      <c r="L41" s="21"/>
+      <c r="M41" s="21"/>
+      <c r="N41" s="21"/>
+      <c r="O41" s="21"/>
+      <c r="P41" s="21"/>
+      <c r="Q41" s="21"/>
+    </row>
+    <row r="42" spans="1:17" s="14" customFormat="1">
+      <c r="A42" s="8"/>
+      <c r="B42" s="8"/>
+      <c r="C42" s="8"/>
+      <c r="D42" s="8"/>
+      <c r="E42" s="8"/>
+      <c r="F42" s="8"/>
+      <c r="G42" s="8"/>
+      <c r="H42" s="8"/>
+      <c r="I42" s="21"/>
+      <c r="J42" s="21"/>
+      <c r="K42" s="21"/>
+      <c r="L42" s="21"/>
+      <c r="M42" s="21"/>
+      <c r="N42" s="21"/>
+      <c r="O42" s="21"/>
+      <c r="P42" s="21"/>
+      <c r="Q42" s="21"/>
+    </row>
+    <row r="43" spans="1:17" s="14" customFormat="1">
+      <c r="A43" s="8"/>
+      <c r="B43" s="8"/>
+      <c r="C43" s="8"/>
+      <c r="D43" s="8"/>
+      <c r="E43" s="8"/>
+      <c r="F43" s="8"/>
+      <c r="G43" s="8"/>
+      <c r="H43" s="8"/>
+      <c r="I43" s="21"/>
+      <c r="J43" s="21"/>
+      <c r="K43" s="21"/>
+      <c r="L43" s="21"/>
+      <c r="M43" s="21"/>
+      <c r="N43" s="21"/>
+      <c r="O43" s="21"/>
+      <c r="P43" s="21"/>
+      <c r="Q43" s="21"/>
+    </row>
+    <row r="44" spans="1:17" s="14" customFormat="1">
+      <c r="A44" s="8"/>
+      <c r="B44" s="8"/>
+      <c r="C44" s="8"/>
+      <c r="D44" s="8"/>
+      <c r="E44" s="8"/>
+      <c r="F44" s="8"/>
+      <c r="G44" s="8"/>
+      <c r="H44" s="8"/>
+      <c r="I44" s="21"/>
+      <c r="J44" s="21"/>
+      <c r="K44" s="21"/>
+      <c r="L44" s="21"/>
+      <c r="M44" s="21"/>
+      <c r="N44" s="21"/>
+      <c r="O44" s="21"/>
+      <c r="P44" s="21"/>
+      <c r="Q44" s="21"/>
+    </row>
+    <row r="45" spans="1:17" s="14" customFormat="1">
+      <c r="A45" s="8"/>
+      <c r="B45" s="8"/>
+      <c r="C45" s="8"/>
+      <c r="D45" s="8"/>
+      <c r="E45" s="8"/>
+      <c r="F45" s="8"/>
+      <c r="G45" s="8"/>
+      <c r="H45" s="8"/>
+      <c r="I45" s="21"/>
+      <c r="J45" s="21"/>
+      <c r="K45" s="21"/>
+      <c r="L45" s="21"/>
+      <c r="M45" s="21"/>
+      <c r="N45" s="21"/>
+      <c r="O45" s="21"/>
+      <c r="P45" s="21"/>
+      <c r="Q45" s="21"/>
+    </row>
+    <row r="46" spans="1:17" s="14" customFormat="1">
+      <c r="A46" s="8"/>
+      <c r="B46" s="8"/>
+      <c r="C46" s="8"/>
+      <c r="D46" s="8"/>
+      <c r="E46" s="8"/>
+      <c r="F46" s="8"/>
+      <c r="G46" s="8"/>
+      <c r="H46" s="8"/>
+      <c r="I46" s="21"/>
+      <c r="J46" s="21"/>
+      <c r="K46" s="21"/>
+      <c r="L46" s="21"/>
+      <c r="M46" s="21"/>
+      <c r="N46" s="21"/>
+      <c r="O46" s="21"/>
+      <c r="P46" s="21"/>
+      <c r="Q46" s="21"/>
+    </row>
+    <row r="47" spans="1:17" s="14" customFormat="1">
+      <c r="A47" s="8"/>
+      <c r="B47" s="8"/>
+      <c r="C47" s="8"/>
+      <c r="D47" s="8"/>
+      <c r="E47" s="8"/>
+      <c r="F47" s="8"/>
+      <c r="G47" s="8"/>
+      <c r="H47" s="8"/>
+      <c r="I47" s="21"/>
+      <c r="J47" s="21"/>
+      <c r="K47" s="21"/>
+      <c r="L47" s="21"/>
+      <c r="M47" s="21"/>
+      <c r="N47" s="21"/>
+      <c r="O47" s="21"/>
+      <c r="P47" s="21"/>
+      <c r="Q47" s="21"/>
+    </row>
+    <row r="48" spans="1:17" s="14" customFormat="1">
+      <c r="A48" s="8"/>
+      <c r="B48" s="8"/>
+      <c r="C48" s="8"/>
+      <c r="D48" s="8"/>
+      <c r="E48" s="8"/>
+      <c r="F48" s="8"/>
+      <c r="G48" s="8"/>
+      <c r="H48" s="8"/>
+      <c r="I48" s="21"/>
+      <c r="J48" s="21"/>
+      <c r="K48" s="21"/>
+      <c r="L48" s="21"/>
+      <c r="M48" s="21"/>
+      <c r="N48" s="21"/>
+      <c r="O48" s="21"/>
+      <c r="P48" s="21"/>
+      <c r="Q48" s="21"/>
+    </row>
+    <row r="49" spans="1:17" s="14" customFormat="1">
+      <c r="A49" s="8"/>
+      <c r="B49" s="8"/>
+      <c r="C49" s="8"/>
+      <c r="D49" s="8"/>
+      <c r="E49" s="8"/>
+      <c r="F49" s="8"/>
+      <c r="G49" s="8"/>
+      <c r="H49" s="8"/>
+      <c r="I49" s="21"/>
+      <c r="J49" s="21"/>
+      <c r="K49" s="21"/>
+      <c r="L49" s="21"/>
+      <c r="M49" s="21"/>
+      <c r="N49" s="21"/>
+      <c r="O49" s="21"/>
+      <c r="P49" s="21"/>
+      <c r="Q49" s="21"/>
+    </row>
+    <row r="50" spans="1:17" s="14" customFormat="1">
+      <c r="A50" s="8"/>
+      <c r="B50" s="8"/>
+      <c r="C50" s="8"/>
+      <c r="D50" s="8"/>
+      <c r="E50" s="8"/>
+      <c r="F50" s="8"/>
+      <c r="G50" s="8"/>
+      <c r="H50" s="8"/>
+      <c r="I50" s="21"/>
+      <c r="J50" s="21"/>
+      <c r="K50" s="21"/>
+      <c r="L50" s="21"/>
+      <c r="M50" s="21"/>
+      <c r="N50" s="21"/>
+      <c r="O50" s="21"/>
+      <c r="P50" s="21"/>
+      <c r="Q50" s="21"/>
+    </row>
+    <row r="51" spans="1:17" s="14" customFormat="1">
+      <c r="A51" s="8"/>
+      <c r="B51" s="8"/>
+      <c r="C51" s="8"/>
+      <c r="D51" s="8"/>
+      <c r="E51" s="8"/>
+      <c r="F51" s="8"/>
+      <c r="G51" s="8"/>
+      <c r="H51" s="8"/>
+      <c r="I51" s="21"/>
+      <c r="J51" s="21"/>
+      <c r="K51" s="21"/>
+      <c r="L51" s="21"/>
+      <c r="M51" s="21"/>
+      <c r="N51" s="21"/>
+      <c r="O51" s="21"/>
+      <c r="P51" s="21"/>
+      <c r="Q51" s="21"/>
+    </row>
+    <row r="52" spans="1:17" s="14" customFormat="1">
+      <c r="A52" s="8"/>
+      <c r="B52" s="8"/>
+      <c r="C52" s="8"/>
+      <c r="D52" s="8"/>
+      <c r="E52" s="8"/>
+      <c r="F52" s="8"/>
+      <c r="G52" s="8"/>
+      <c r="H52" s="8"/>
+      <c r="I52" s="21"/>
+      <c r="J52" s="21"/>
+      <c r="K52" s="21"/>
+      <c r="L52" s="21"/>
+      <c r="M52" s="21"/>
+      <c r="N52" s="21"/>
+      <c r="O52" s="21"/>
+      <c r="P52" s="21"/>
+      <c r="Q52" s="21"/>
+    </row>
+    <row r="53" spans="1:17" s="14" customFormat="1">
+      <c r="A53" s="8"/>
+      <c r="B53" s="8"/>
+      <c r="C53" s="8"/>
+      <c r="D53" s="8"/>
+      <c r="E53" s="8"/>
+      <c r="F53" s="8"/>
+      <c r="G53" s="8"/>
+      <c r="H53" s="8"/>
+      <c r="I53" s="21"/>
+      <c r="J53" s="21"/>
+      <c r="K53" s="21"/>
+      <c r="L53" s="21"/>
+      <c r="M53" s="21"/>
+      <c r="N53" s="21"/>
+      <c r="O53" s="21"/>
+      <c r="P53" s="21"/>
+      <c r="Q53" s="21"/>
+    </row>
+    <row r="54" spans="1:17">
+      <c r="A54" s="8"/>
+      <c r="B54" s="8"/>
+      <c r="C54" s="8"/>
+      <c r="D54" s="8"/>
+      <c r="E54" s="8"/>
+      <c r="F54" s="8"/>
+      <c r="G54" s="8"/>
+      <c r="H54" s="8"/>
+      <c r="I54" s="21"/>
+      <c r="J54" s="21"/>
+      <c r="K54" s="21"/>
+      <c r="L54" s="21"/>
+      <c r="M54" s="21"/>
+      <c r="N54" s="21"/>
+      <c r="O54" s="21"/>
+      <c r="P54" s="21"/>
+      <c r="Q54" s="21"/>
+    </row>
+    <row r="55" spans="1:17">
+      <c r="A55" s="8"/>
+      <c r="B55" s="8"/>
+      <c r="C55" s="8"/>
+      <c r="D55" s="8"/>
+      <c r="E55" s="8"/>
+      <c r="F55" s="8"/>
+      <c r="G55" s="8"/>
+      <c r="H55" s="8"/>
+      <c r="I55" s="21"/>
+      <c r="J55" s="21"/>
+      <c r="K55" s="21"/>
+      <c r="L55" s="21"/>
+      <c r="M55" s="21"/>
+      <c r="N55" s="21"/>
+      <c r="O55" s="21"/>
+      <c r="P55" s="21"/>
+      <c r="Q55" s="21"/>
+    </row>
+    <row r="56" spans="1:17">
+      <c r="A56" s="8"/>
+      <c r="B56" s="8"/>
+      <c r="C56" s="8"/>
+      <c r="D56" s="8"/>
+      <c r="E56" s="8"/>
+      <c r="F56" s="8"/>
+      <c r="G56" s="8"/>
+      <c r="H56" s="8"/>
+      <c r="I56" s="21"/>
+      <c r="J56" s="21"/>
+      <c r="K56" s="21"/>
+      <c r="L56" s="21"/>
+      <c r="M56" s="21"/>
+      <c r="N56" s="21"/>
+      <c r="O56" s="21"/>
+      <c r="P56" s="21"/>
+      <c r="Q56" s="21"/>
+    </row>
+    <row r="57" spans="1:17">
+      <c r="A57" s="8"/>
+      <c r="B57" s="8"/>
+      <c r="C57" s="8"/>
+      <c r="D57" s="8"/>
+      <c r="E57" s="8"/>
+      <c r="F57" s="8"/>
+      <c r="G57" s="8"/>
+      <c r="H57" s="8"/>
+      <c r="I57" s="21"/>
+      <c r="J57" s="21"/>
+      <c r="K57" s="21"/>
+      <c r="L57" s="21"/>
+      <c r="M57" s="21"/>
+      <c r="N57" s="21"/>
+      <c r="O57" s="21"/>
+      <c r="P57" s="21"/>
+      <c r="Q57" s="21"/>
+    </row>
+    <row r="58" spans="1:17">
+      <c r="A58" s="8"/>
+      <c r="B58" s="8"/>
+      <c r="C58" s="8"/>
+      <c r="D58" s="8"/>
+      <c r="E58" s="8"/>
+      <c r="F58" s="8"/>
+      <c r="G58" s="8"/>
+      <c r="H58" s="8"/>
+      <c r="I58" s="21"/>
+      <c r="J58" s="21"/>
+      <c r="K58" s="21"/>
+      <c r="L58" s="21"/>
+      <c r="M58" s="21"/>
+      <c r="N58" s="21"/>
+      <c r="O58" s="21"/>
+      <c r="P58" s="21"/>
+      <c r="Q58" s="21"/>
+    </row>
+    <row r="59" spans="1:17">
+      <c r="A59" s="8"/>
+      <c r="B59" s="8"/>
+      <c r="C59" s="8"/>
+      <c r="D59" s="8"/>
+      <c r="E59" s="8"/>
+      <c r="F59" s="8"/>
+      <c r="G59" s="8"/>
+      <c r="H59" s="8"/>
+      <c r="I59" s="21"/>
+      <c r="J59" s="21"/>
+      <c r="K59" s="21"/>
+      <c r="L59" s="21"/>
+      <c r="M59" s="21"/>
+      <c r="N59" s="21"/>
+      <c r="O59" s="21"/>
+      <c r="P59" s="21"/>
+      <c r="Q59" s="21"/>
+    </row>
+    <row r="60" spans="1:17">
+      <c r="A60" s="8"/>
+      <c r="B60" s="8"/>
+      <c r="C60" s="8"/>
+      <c r="D60" s="8"/>
+      <c r="E60" s="8"/>
+      <c r="F60" s="8"/>
+      <c r="G60" s="8"/>
+      <c r="H60" s="8"/>
+      <c r="I60" s="21"/>
+      <c r="J60" s="21"/>
+      <c r="K60" s="21"/>
+      <c r="L60" s="21"/>
+      <c r="M60" s="21"/>
+      <c r="N60" s="21"/>
+      <c r="O60" s="21"/>
+      <c r="P60" s="21"/>
+      <c r="Q60" s="21"/>
+    </row>
+    <row r="61" spans="1:17">
+      <c r="A61" s="8"/>
+      <c r="B61" s="8"/>
+      <c r="C61" s="8"/>
+      <c r="D61" s="8"/>
+      <c r="E61" s="8"/>
+      <c r="F61" s="8"/>
+      <c r="G61" s="8"/>
+      <c r="H61" s="8"/>
+      <c r="I61" s="21"/>
+      <c r="J61" s="21"/>
+      <c r="K61" s="21"/>
+      <c r="L61" s="21"/>
+      <c r="M61" s="21"/>
+      <c r="N61" s="21"/>
+      <c r="O61" s="21"/>
+      <c r="P61" s="21"/>
+      <c r="Q61" s="21"/>
+    </row>
+    <row r="62" spans="1:17">
+      <c r="A62" s="8"/>
+      <c r="B62" s="8"/>
+      <c r="C62" s="8"/>
+      <c r="D62" s="8"/>
+      <c r="E62" s="8"/>
+      <c r="F62" s="8"/>
+      <c r="G62" s="8"/>
+      <c r="H62" s="8"/>
+      <c r="I62" s="21"/>
+      <c r="J62" s="21"/>
+      <c r="K62" s="21"/>
+      <c r="L62" s="21"/>
+      <c r="M62" s="21"/>
+      <c r="N62" s="21"/>
+      <c r="O62" s="21"/>
+      <c r="P62" s="21"/>
+      <c r="Q62" s="21"/>
+    </row>
+    <row r="63" spans="1:17">
+      <c r="A63" s="8"/>
+      <c r="B63" s="8"/>
+      <c r="C63" s="8"/>
+      <c r="D63" s="8"/>
+      <c r="E63" s="8"/>
+      <c r="F63" s="8"/>
+      <c r="G63" s="8"/>
+      <c r="H63" s="8"/>
+      <c r="I63" s="21"/>
+      <c r="J63" s="21"/>
+      <c r="K63" s="21"/>
+      <c r="L63" s="21"/>
+      <c r="M63" s="21"/>
+      <c r="N63" s="21"/>
+      <c r="O63" s="21"/>
+      <c r="P63" s="21"/>
+      <c r="Q63" s="21"/>
+    </row>
+    <row r="64" spans="1:17">
+      <c r="A64" s="8"/>
+      <c r="B64" s="8"/>
+      <c r="C64" s="8"/>
+      <c r="D64" s="8"/>
+      <c r="E64" s="8"/>
+      <c r="F64" s="8"/>
+      <c r="G64" s="8"/>
+      <c r="H64" s="8"/>
+      <c r="I64" s="21"/>
+      <c r="J64" s="21"/>
+      <c r="K64" s="21"/>
+      <c r="L64" s="21"/>
+      <c r="M64" s="21"/>
+      <c r="N64" s="21"/>
+      <c r="O64" s="21"/>
+      <c r="P64" s="21"/>
+      <c r="Q64" s="21"/>
+    </row>
+    <row r="65" spans="1:17">
+      <c r="A65" s="8"/>
+      <c r="B65" s="8"/>
+      <c r="C65" s="8"/>
+      <c r="D65" s="8"/>
+      <c r="E65" s="8"/>
+      <c r="F65" s="8"/>
+      <c r="G65" s="8"/>
+      <c r="H65" s="8"/>
+      <c r="I65" s="21"/>
+      <c r="J65" s="21"/>
+      <c r="K65" s="21"/>
+      <c r="L65" s="21"/>
+      <c r="M65" s="21"/>
+      <c r="N65" s="21"/>
+      <c r="O65" s="21"/>
+      <c r="P65" s="21"/>
+      <c r="Q65" s="21"/>
+    </row>
+    <row r="66" spans="1:17">
+      <c r="A66" s="8"/>
+      <c r="B66" s="8"/>
+      <c r="C66" s="8"/>
+      <c r="D66" s="8"/>
+      <c r="E66" s="8"/>
+      <c r="F66" s="8"/>
+      <c r="G66" s="8"/>
+      <c r="H66" s="8"/>
+      <c r="I66" s="21"/>
+      <c r="J66" s="21"/>
+      <c r="K66" s="21"/>
+      <c r="L66" s="21"/>
+      <c r="M66" s="21"/>
+      <c r="N66" s="21"/>
+      <c r="O66" s="21"/>
+      <c r="P66" s="21"/>
+      <c r="Q66" s="21"/>
+    </row>
+    <row r="67" spans="1:17">
+      <c r="A67" s="8"/>
+      <c r="B67" s="8"/>
+      <c r="C67" s="8"/>
+      <c r="D67" s="8"/>
+      <c r="E67" s="8"/>
+      <c r="F67" s="8"/>
+      <c r="G67" s="8"/>
+      <c r="H67" s="8"/>
+      <c r="I67" s="21"/>
+      <c r="J67" s="21"/>
+      <c r="K67" s="21"/>
+      <c r="L67" s="21"/>
+      <c r="M67" s="21"/>
+      <c r="N67" s="21"/>
+      <c r="O67" s="21"/>
+      <c r="P67" s="21"/>
+      <c r="Q67" s="21"/>
+    </row>
+    <row r="68" spans="1:17">
+      <c r="A68" s="8"/>
+      <c r="B68" s="8"/>
+      <c r="C68" s="8"/>
+      <c r="D68" s="8"/>
+      <c r="E68" s="8"/>
+      <c r="F68" s="8"/>
+      <c r="G68" s="8"/>
+      <c r="H68" s="8"/>
+      <c r="I68" s="21"/>
+      <c r="J68" s="21"/>
+      <c r="K68" s="21"/>
+      <c r="L68" s="21"/>
+      <c r="M68" s="21"/>
+      <c r="N68" s="21"/>
+      <c r="O68" s="21"/>
+      <c r="P68" s="21"/>
+      <c r="Q68" s="21"/>
+    </row>
+    <row r="69" spans="1:17">
+      <c r="A69" s="8"/>
+      <c r="B69" s="8"/>
+      <c r="C69" s="8"/>
+      <c r="D69" s="8"/>
+      <c r="E69" s="8"/>
+      <c r="F69" s="8"/>
+      <c r="G69" s="8"/>
+      <c r="H69" s="8"/>
+      <c r="I69" s="21"/>
+      <c r="J69" s="21"/>
+      <c r="K69" s="21"/>
+      <c r="L69" s="21"/>
+      <c r="M69" s="21"/>
+      <c r="N69" s="21"/>
+      <c r="O69" s="21"/>
+      <c r="P69" s="21"/>
+      <c r="Q69" s="21"/>
+    </row>
+    <row r="70" spans="1:17">
+      <c r="A70" s="8"/>
+      <c r="B70" s="8"/>
+      <c r="C70" s="8"/>
+      <c r="D70" s="8"/>
+      <c r="E70" s="8"/>
+      <c r="F70" s="8"/>
+      <c r="G70" s="8"/>
+      <c r="H70" s="8"/>
+      <c r="I70" s="21"/>
+      <c r="J70" s="21"/>
+      <c r="K70" s="21"/>
+      <c r="L70" s="21"/>
+      <c r="M70" s="21"/>
+      <c r="N70" s="21"/>
+      <c r="O70" s="21"/>
+      <c r="P70" s="21"/>
+      <c r="Q70" s="21"/>
+    </row>
+    <row r="71" spans="1:17">
+      <c r="A71" s="8"/>
+      <c r="B71" s="8"/>
+      <c r="C71" s="8"/>
+      <c r="D71" s="8"/>
+      <c r="E71" s="8"/>
+      <c r="F71" s="8"/>
+      <c r="G71" s="8"/>
+      <c r="H71" s="8"/>
+      <c r="I71" s="21"/>
+      <c r="J71" s="21"/>
+      <c r="K71" s="21"/>
+      <c r="L71" s="21"/>
+      <c r="M71" s="21"/>
+      <c r="N71" s="21"/>
+      <c r="O71" s="21"/>
+      <c r="P71" s="21"/>
+      <c r="Q71" s="21"/>
+    </row>
+    <row r="72" spans="1:17">
+      <c r="A72" s="9"/>
+      <c r="B72" s="9"/>
+      <c r="C72" s="9"/>
+      <c r="D72" s="9"/>
+      <c r="E72" s="9"/>
+      <c r="F72" s="9"/>
+      <c r="G72" s="9"/>
+      <c r="H72" s="9"/>
+      <c r="I72" s="22"/>
+      <c r="J72" s="22"/>
+      <c r="K72" s="22"/>
+      <c r="L72" s="22"/>
+      <c r="M72" s="22"/>
+      <c r="N72" s="22"/>
+      <c r="O72" s="22"/>
+      <c r="P72" s="22"/>
+      <c r="Q72" s="22"/>
+    </row>
+    <row r="73" spans="1:17">
+      <c r="A73" s="9"/>
+      <c r="B73" s="9"/>
+      <c r="C73" s="9"/>
+      <c r="D73" s="9"/>
+      <c r="E73" s="9"/>
+      <c r="F73" s="9"/>
+      <c r="G73" s="9"/>
+      <c r="H73" s="9"/>
+      <c r="I73" s="22"/>
+      <c r="J73" s="22"/>
+      <c r="K73" s="22"/>
+      <c r="L73" s="22"/>
+      <c r="M73" s="22"/>
+      <c r="N73" s="22"/>
+      <c r="O73" s="22"/>
+      <c r="P73" s="22"/>
+      <c r="Q73" s="22"/>
+    </row>
+  </sheetData>
+  <mergeCells count="9">
+    <mergeCell ref="A1:B1"/>
+    <mergeCell ref="C1:E1"/>
+    <mergeCell ref="F1:G1"/>
+    <mergeCell ref="I1:Q1"/>
+    <mergeCell ref="A2:B2"/>
+    <mergeCell ref="C2:H2"/>
+    <mergeCell ref="I2:K2"/>
+    <mergeCell ref="L2:N2"/>
+    <mergeCell ref="O2:Q2"/>
+  </mergeCells>
+  <phoneticPr fontId="10"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="landscape" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <tabColor theme="5" tint="0.39997558519241921"/>
@@ -4969,7 +6514,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <tabColor theme="7" tint="0.39997558519241921"/>
@@ -6455,7 +8000,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <tabColor theme="6" tint="0.39997558519241921"/>

--- a/ST_Player/db.xlsx
+++ b/ST_Player/db.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="15330" windowHeight="7695" tabRatio="1000" firstSheet="1" activeTab="9"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="15330" windowHeight="7695" tabRatio="1000" firstSheet="1" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="ユーザー" sheetId="69" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="638" uniqueCount="215">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="639" uniqueCount="216">
   <si>
     <t>説明</t>
     <rPh sb="0" eb="2">
@@ -1200,6 +1200,10 @@
     <rPh sb="2" eb="3">
       <t>ジュン</t>
     </rPh>
+    <phoneticPr fontId="10"/>
+  </si>
+  <si>
+    <t>○</t>
     <phoneticPr fontId="10"/>
   </si>
 </sst>
@@ -3483,7 +3487,7 @@
   </sheetPr>
   <dimension ref="A1:Q73"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="H11" sqref="H11"/>
     </sheetView>
   </sheetViews>
@@ -14900,8 +14904,8 @@
   </sheetPr>
   <dimension ref="A1:Q76"/>
   <sheetViews>
-    <sheetView topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="H29" sqref="H29"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F10" sqref="F10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -15169,7 +15173,9 @@
         <v>255</v>
       </c>
       <c r="E9" s="1"/>
-      <c r="F9" s="2"/>
+      <c r="F9" s="2" t="s">
+        <v>215</v>
+      </c>
       <c r="G9" s="2"/>
       <c r="H9" s="1" t="s">
         <v>153</v>
